--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imant\Desktop\vm_share\github_project\covid-19-county-R0\TSHS_CaseCountData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD9DE9E2-FA02-414F-B5B1-A3DDA6458D35}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2357D-B8E2-44A1-9D79-CEDA76FD5F23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12413" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -861,10 +869,6 @@
     <t>Sabine</t>
   </si>
   <si>
-    <t>San
-Augustine</t>
-  </si>
-  <si>
     <t>San Jacinto</t>
   </si>
   <si>
@@ -1048,16 +1052,20 @@
     <t>On March 24, DSHS updated the method of reporting COVID-19 cases in Texas to provide the public with more timely information. The DSHS daily case count now includes all cases reported publicly by local health departments around the state. That change led to the report of an additional 305 cases in the March 24 total.
 The case counts do not include people who were repatriated from China or a cruise ship on U.S. government flights to JBSA-Lackland in San Antonio.</t>
   </si>
+  <si>
+    <t>San Augustine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="165" formatCode="###,##0"/>
+    <numFmt numFmtId="176" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="177" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1086,6 +1094,18 @@
     </font>
     <font>
       <b/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1170,14 +1190,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,7 +1204,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,14 +1213,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,9 +1360,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -1350,133 +1372,133 @@
     <col min="57" max="57" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
+    <row r="1" spans="1:57" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:57" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
+    <row r="2" spans="1:57" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
     </row>
-    <row r="3" spans="1:57" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:57" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1645,7 +1667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -1818,7 +1840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1991,7 +2013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -2164,7 +2186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -2337,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -2510,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -2683,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -2856,7 +2878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -3029,7 +3051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -3202,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -3375,7 +3397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -3548,7 +3570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
@@ -3721,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -3894,7 +3916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -4067,7 +4089,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
@@ -4240,7 +4262,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -4413,7 +4435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -4586,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
@@ -4759,7 +4781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -4932,7 +4954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -5105,7 +5127,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -5278,7 +5300,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
@@ -5451,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -5624,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -5797,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -5970,7 +5992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -6143,7 +6165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -6316,7 +6338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -6489,7 +6511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -6662,7 +6684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -6835,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -7008,7 +7030,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -7181,7 +7203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -7354,7 +7376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -7527,7 +7549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -7700,7 +7722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -7873,7 +7895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -8046,7 +8068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -8219,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -8392,7 +8414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -8565,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -8738,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -8911,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -9084,7 +9106,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -9257,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -9430,7 +9452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -9603,7 +9625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -9776,7 +9798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -9949,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -10122,7 +10144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -10295,7 +10317,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
@@ -10468,7 +10490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -10641,7 +10663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -10814,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -10987,7 +11009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -11160,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -11333,7 +11355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -11506,7 +11528,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -11679,7 +11701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -11852,7 +11874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -12025,7 +12047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -12198,7 +12220,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -12371,7 +12393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -12544,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -12717,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -12890,7 +12912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -13063,7 +13085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
@@ -13236,7 +13258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>126</v>
       </c>
@@ -13409,7 +13431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
@@ -13582,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
@@ -13755,7 +13777,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
@@ -13928,7 +13950,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="75" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
@@ -14101,7 +14123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -14274,7 +14296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>132</v>
       </c>
@@ -14447,7 +14469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>133</v>
       </c>
@@ -14620,7 +14642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>134</v>
       </c>
@@ -14793,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>135</v>
       </c>
@@ -14966,7 +14988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>136</v>
       </c>
@@ -15139,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>137</v>
       </c>
@@ -15312,7 +15334,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="83" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>138</v>
       </c>
@@ -15485,7 +15507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>139</v>
       </c>
@@ -15658,7 +15680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>140</v>
       </c>
@@ -15831,7 +15853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>141</v>
       </c>
@@ -16004,7 +16026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
@@ -16177,7 +16199,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="88" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>143</v>
       </c>
@@ -16350,7 +16372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>144</v>
       </c>
@@ -16523,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>145</v>
       </c>
@@ -16696,7 +16718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>146</v>
       </c>
@@ -16869,7 +16891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>147</v>
       </c>
@@ -17042,7 +17064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>148</v>
       </c>
@@ -17215,7 +17237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>149</v>
       </c>
@@ -17388,7 +17410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>150</v>
       </c>
@@ -17561,7 +17583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>151</v>
       </c>
@@ -17734,7 +17756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>152</v>
       </c>
@@ -17907,7 +17929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>153</v>
       </c>
@@ -18080,7 +18102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>154</v>
       </c>
@@ -18253,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>155</v>
       </c>
@@ -18426,7 +18448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>156</v>
       </c>
@@ -18599,7 +18621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>157</v>
       </c>
@@ -18772,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>158</v>
       </c>
@@ -18945,7 +18967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>159</v>
       </c>
@@ -19118,7 +19140,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="105" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>160</v>
       </c>
@@ -19291,7 +19313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>161</v>
       </c>
@@ -19464,7 +19486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>162</v>
       </c>
@@ -19637,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>163</v>
       </c>
@@ -19810,7 +19832,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>164</v>
       </c>
@@ -19983,7 +20005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>165</v>
       </c>
@@ -20156,7 +20178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>166</v>
       </c>
@@ -20329,7 +20351,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="112" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>167</v>
       </c>
@@ -20502,7 +20524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>168</v>
       </c>
@@ -20675,7 +20697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>169</v>
       </c>
@@ -20848,7 +20870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>170</v>
       </c>
@@ -21021,7 +21043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>171</v>
       </c>
@@ -21194,7 +21216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>172</v>
       </c>
@@ -21367,7 +21389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>173</v>
       </c>
@@ -21540,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>174</v>
       </c>
@@ -21713,7 +21735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>175</v>
       </c>
@@ -21886,7 +21908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>176</v>
       </c>
@@ -22059,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>177</v>
       </c>
@@ -22232,7 +22254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>178</v>
       </c>
@@ -22405,7 +22427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>179</v>
       </c>
@@ -22578,7 +22600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>180</v>
       </c>
@@ -22751,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>181</v>
       </c>
@@ -22924,7 +22946,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>182</v>
       </c>
@@ -23097,7 +23119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>183</v>
       </c>
@@ -23270,7 +23292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>184</v>
       </c>
@@ -23443,7 +23465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>185</v>
       </c>
@@ -23616,7 +23638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>186</v>
       </c>
@@ -23789,7 +23811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>187</v>
       </c>
@@ -23962,7 +23984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="133" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>188</v>
       </c>
@@ -24135,7 +24157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>189</v>
       </c>
@@ -24308,7 +24330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>190</v>
       </c>
@@ -24481,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>191</v>
       </c>
@@ -24654,7 +24676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>192</v>
       </c>
@@ -24827,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>193</v>
       </c>
@@ -25000,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>194</v>
       </c>
@@ -25173,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>195</v>
       </c>
@@ -25346,7 +25368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>196</v>
       </c>
@@ -25519,7 +25541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>197</v>
       </c>
@@ -25692,7 +25714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>198</v>
       </c>
@@ -25865,7 +25887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>199</v>
       </c>
@@ -26038,7 +26060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>200</v>
       </c>
@@ -26211,7 +26233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>201</v>
       </c>
@@ -26384,7 +26406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>202</v>
       </c>
@@ -26557,7 +26579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>203</v>
       </c>
@@ -26730,7 +26752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>204</v>
       </c>
@@ -26903,7 +26925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>205</v>
       </c>
@@ -27076,7 +27098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>206</v>
       </c>
@@ -27249,7 +27271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>207</v>
       </c>
@@ -27422,7 +27444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>208</v>
       </c>
@@ -27595,7 +27617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>209</v>
       </c>
@@ -27768,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>210</v>
       </c>
@@ -27941,7 +27963,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="156" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>211</v>
       </c>
@@ -28114,7 +28136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>212</v>
       </c>
@@ -28287,7 +28309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>213</v>
       </c>
@@ -28460,7 +28482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>214</v>
       </c>
@@ -28633,7 +28655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>215</v>
       </c>
@@ -28806,7 +28828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>216</v>
       </c>
@@ -28979,7 +29001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>217</v>
       </c>
@@ -29152,7 +29174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>218</v>
       </c>
@@ -29325,7 +29347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>219</v>
       </c>
@@ -29498,7 +29520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>220</v>
       </c>
@@ -29671,7 +29693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>221</v>
       </c>
@@ -29844,7 +29866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>222</v>
       </c>
@@ -30017,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>223</v>
       </c>
@@ -30190,7 +30212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>224</v>
       </c>
@@ -30363,7 +30385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>225</v>
       </c>
@@ -30536,7 +30558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>226</v>
       </c>
@@ -30709,7 +30731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>227</v>
       </c>
@@ -30882,7 +30904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>228</v>
       </c>
@@ -31055,7 +31077,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="174" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>229</v>
       </c>
@@ -31228,7 +31250,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="175" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>230</v>
       </c>
@@ -31401,7 +31423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>231</v>
       </c>
@@ -31574,7 +31596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>232</v>
       </c>
@@ -31747,7 +31769,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>233</v>
       </c>
@@ -31920,7 +31942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>234</v>
       </c>
@@ -32093,7 +32115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>235</v>
       </c>
@@ -32266,7 +32288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>236</v>
       </c>
@@ -32439,7 +32461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>237</v>
       </c>
@@ -32612,7 +32634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>238</v>
       </c>
@@ -32785,7 +32807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>239</v>
       </c>
@@ -32958,7 +32980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="185" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>240</v>
       </c>
@@ -33131,7 +33153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>241</v>
       </c>
@@ -33304,7 +33326,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="187" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>242</v>
       </c>
@@ -33477,7 +33499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>243</v>
       </c>
@@ -33650,7 +33672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>244</v>
       </c>
@@ -33823,7 +33845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>245</v>
       </c>
@@ -33996,7 +34018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>246</v>
       </c>
@@ -34169,7 +34191,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="192" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>247</v>
       </c>
@@ -34342,7 +34364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>248</v>
       </c>
@@ -34515,7 +34537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>249</v>
       </c>
@@ -34688,7 +34710,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>250</v>
       </c>
@@ -34861,7 +34883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>251</v>
       </c>
@@ -35034,7 +35056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>252</v>
       </c>
@@ -35207,7 +35229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>253</v>
       </c>
@@ -35380,7 +35402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>254</v>
       </c>
@@ -35553,7 +35575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>255</v>
       </c>
@@ -35726,7 +35748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>256</v>
       </c>
@@ -35899,7 +35921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>257</v>
       </c>
@@ -36072,7 +36094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>258</v>
       </c>
@@ -36245,7 +36267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>259</v>
       </c>
@@ -36418,7 +36440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>260</v>
       </c>
@@ -36591,9 +36613,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:57" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>261</v>
+    <row r="206" spans="1:57" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="B206" s="3">
         <v>9340</v>
@@ -36764,9 +36786,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B207" s="3">
         <v>32428</v>
@@ -36937,9 +36959,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B208" s="3">
         <v>68331</v>
@@ -37110,9 +37132,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B209" s="3">
         <v>6482</v>
@@ -37283,9 +37305,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B210" s="3">
         <v>3920</v>
@@ -37456,9 +37478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B211" s="3">
         <v>18906</v>
@@ -37629,9 +37651,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B212" s="3">
         <v>3734</v>
@@ -37802,9 +37824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B213" s="3">
         <v>28649</v>
@@ -37975,9 +37997,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="214" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B214" s="3">
         <v>3440</v>
@@ -38148,9 +38170,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B215" s="3">
         <v>243064</v>
@@ -38321,9 +38343,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="216" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B216" s="3">
         <v>10480</v>
@@ -38494,9 +38516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B217" s="3">
         <v>68878</v>
@@ -38667,9 +38689,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B218" s="3">
         <v>10297</v>
@@ -38840,9 +38862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B219" s="3">
         <v>1214</v>
@@ -39013,9 +39035,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B220" s="3">
         <v>1515</v>
@@ -39186,9 +39208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B221" s="3">
         <v>4651</v>
@@ -39359,9 +39381,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B222" s="3">
         <v>8230</v>
@@ -39532,9 +39554,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B223" s="3">
         <v>2127850</v>
@@ -39705,9 +39727,9 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="224" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B224" s="3">
         <v>138279</v>
@@ -39878,9 +39900,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="225" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B225" s="3">
         <v>1047</v>
@@ -40051,9 +40073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B226" s="3">
         <v>13323</v>
@@ -40224,9 +40246,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B227" s="3">
         <v>1639</v>
@@ -40397,9 +40419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B228" s="3">
         <v>37790</v>
@@ -40570,9 +40592,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B229" s="3">
         <v>114995</v>
@@ -40743,9 +40765,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B230" s="3">
         <v>1277007</v>
@@ -40916,9 +40938,9 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="231" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B231" s="3">
         <v>16618</v>
@@ -41089,9 +41111,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B232" s="3">
         <v>22646</v>
@@ -41262,9 +41284,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B233" s="3">
         <v>45120</v>
@@ -41435,9 +41457,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B234" s="3">
         <v>3886</v>
@@ -41608,9 +41630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B235" s="3">
         <v>28593</v>
@@ -41781,9 +41803,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B236" s="3">
         <v>53256</v>
@@ -41954,9 +41976,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B237" s="3">
         <v>58259</v>
@@ -42127,9 +42149,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B238" s="3">
         <v>92845</v>
@@ -42300,9 +42322,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B239" s="3">
         <v>72778</v>
@@ -42473,9 +42495,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B240" s="3">
         <v>58002</v>
@@ -42646,9 +42668,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B241" s="3">
         <v>11213</v>
@@ -42819,9 +42841,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B242" s="3">
         <v>37673</v>
@@ -42992,9 +43014,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="243" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B243" s="3">
         <v>317733</v>
@@ -43165,9 +43187,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="244" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B244" s="3">
         <v>43271</v>
@@ -43338,9 +43360,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="245" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B245" s="3">
         <v>5934</v>
@@ -43511,9 +43533,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B246" s="3">
         <v>133363</v>
@@ -43684,9 +43706,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="247" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B247" s="3">
         <v>14897</v>
@@ -43857,9 +43879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B248" s="3">
         <v>26817</v>
@@ -44030,9 +44052,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B249" s="3">
         <v>633783</v>
@@ -44203,9 +44225,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="250" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B250" s="3">
         <v>57292</v>
@@ -44376,9 +44398,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B251" s="3">
         <v>8371</v>
@@ -44549,9 +44571,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B252" s="3">
         <v>74490</v>
@@ -44722,9 +44744,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B253" s="3">
         <v>48594</v>
@@ -44895,9 +44917,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B254" s="3">
         <v>9591</v>
@@ -45068,9 +45090,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B255" s="3">
         <v>19914</v>
@@ -45241,9 +45263,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B256" s="3">
         <v>17043</v>
@@ -45414,9 +45436,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B257" s="3">
         <v>12895</v>
@@ -45587,180 +45609,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:57" s="15" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B258" s="13">
+    <row r="258" spans="1:57" s="14" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B258" s="12">
         <v>30541978</v>
       </c>
-      <c r="C258" s="13">
-        <v>0</v>
-      </c>
-      <c r="D258" s="13">
-        <v>0</v>
-      </c>
-      <c r="E258" s="13">
+      <c r="C258" s="12">
+        <v>0</v>
+      </c>
+      <c r="D258" s="12">
+        <v>0</v>
+      </c>
+      <c r="E258" s="12">
         <v>5</v>
       </c>
-      <c r="F258" s="13">
+      <c r="F258" s="12">
         <v>12</v>
       </c>
-      <c r="G258" s="13">
+      <c r="G258" s="12">
         <v>15</v>
       </c>
-      <c r="H258" s="13">
+      <c r="H258" s="12">
         <v>18</v>
       </c>
-      <c r="I258" s="13">
+      <c r="I258" s="12">
         <v>22</v>
       </c>
-      <c r="J258" s="13">
+      <c r="J258" s="12">
         <v>22</v>
       </c>
-      <c r="K258" s="13">
+      <c r="K258" s="12">
         <v>56</v>
       </c>
-      <c r="L258" s="13">
+      <c r="L258" s="12">
         <v>56</v>
       </c>
-      <c r="M258" s="13">
+      <c r="M258" s="12">
         <v>63</v>
       </c>
-      <c r="N258" s="13">
+      <c r="N258" s="12">
         <v>82</v>
       </c>
-      <c r="O258" s="13">
+      <c r="O258" s="12">
         <v>108</v>
       </c>
-      <c r="P258" s="13">
+      <c r="P258" s="12">
         <v>175</v>
       </c>
-      <c r="Q258" s="13">
+      <c r="Q258" s="12">
         <v>235</v>
       </c>
-      <c r="R258" s="13">
+      <c r="R258" s="12">
         <v>263</v>
       </c>
-      <c r="S258" s="13">
+      <c r="S258" s="12">
         <v>287</v>
       </c>
-      <c r="T258" s="13">
+      <c r="T258" s="12">
         <v>712</v>
       </c>
-      <c r="U258" s="13">
+      <c r="U258" s="12">
         <v>975</v>
       </c>
-      <c r="V258" s="13">
+      <c r="V258" s="12">
         <v>1394</v>
       </c>
-      <c r="W258" s="13">
+      <c r="W258" s="12">
         <v>1731</v>
       </c>
-      <c r="X258" s="13">
+      <c r="X258" s="12">
         <v>2048</v>
       </c>
-      <c r="Y258" s="13">
+      <c r="Y258" s="12">
         <v>2552</v>
       </c>
-      <c r="Z258" s="13">
+      <c r="Z258" s="12">
         <v>2874</v>
       </c>
-      <c r="AA258" s="13">
+      <c r="AA258" s="12">
         <v>3266</v>
       </c>
-      <c r="AB258" s="13">
+      <c r="AB258" s="12">
         <v>3996</v>
       </c>
-      <c r="AC258" s="13">
+      <c r="AC258" s="12">
         <v>4665</v>
       </c>
-      <c r="AD258" s="13">
+      <c r="AD258" s="12">
         <v>5324</v>
       </c>
-      <c r="AE258" s="13">
+      <c r="AE258" s="12">
         <v>6112</v>
       </c>
-      <c r="AF258" s="13">
+      <c r="AF258" s="12">
         <v>6793</v>
       </c>
-      <c r="AG258" s="13">
+      <c r="AG258" s="12">
         <v>7273</v>
       </c>
-      <c r="AH258" s="13">
+      <c r="AH258" s="12">
         <v>8261</v>
       </c>
-      <c r="AI258" s="13">
+      <c r="AI258" s="12">
         <v>9353</v>
       </c>
-      <c r="AJ258" s="13">
+      <c r="AJ258" s="12">
         <v>10230</v>
       </c>
-      <c r="AK258" s="13">
+      <c r="AK258" s="12">
         <v>11671</v>
       </c>
-      <c r="AL258" s="13">
+      <c r="AL258" s="12">
         <v>12561</v>
       </c>
-      <c r="AM258" s="13">
+      <c r="AM258" s="12">
         <v>13484</v>
       </c>
-      <c r="AN258" s="13">
+      <c r="AN258" s="12">
         <v>13906</v>
       </c>
-      <c r="AO258" s="13">
+      <c r="AO258" s="12">
         <v>14624</v>
       </c>
-      <c r="AP258" s="13">
+      <c r="AP258" s="12">
         <v>15492</v>
       </c>
-      <c r="AQ258" s="13">
+      <c r="AQ258" s="12">
         <v>16455</v>
       </c>
-      <c r="AR258" s="13">
+      <c r="AR258" s="12">
         <v>17371</v>
       </c>
-      <c r="AS258" s="13">
+      <c r="AS258" s="12">
         <v>18260</v>
       </c>
-      <c r="AT258" s="13">
+      <c r="AT258" s="12">
         <v>18923</v>
       </c>
-      <c r="AU258" s="13">
+      <c r="AU258" s="12">
         <v>19458</v>
       </c>
-      <c r="AV258" s="13">
+      <c r="AV258" s="12">
         <v>20196</v>
       </c>
-      <c r="AW258" s="13">
+      <c r="AW258" s="12">
         <v>21069</v>
       </c>
-      <c r="AX258" s="13">
+      <c r="AX258" s="12">
         <v>21944</v>
       </c>
-      <c r="AY258" s="13">
+      <c r="AY258" s="12">
         <v>22806</v>
       </c>
-      <c r="AZ258" s="13">
+      <c r="AZ258" s="12">
         <v>23773</v>
       </c>
-      <c r="BA258" s="13">
+      <c r="BA258" s="12">
         <v>24631</v>
       </c>
-      <c r="BB258" s="13">
+      <c r="BB258" s="12">
         <v>25297</v>
       </c>
-      <c r="BC258" s="13">
+      <c r="BC258" s="12">
         <v>26171</v>
       </c>
-      <c r="BD258" s="13">
+      <c r="BD258" s="12">
         <v>27054</v>
       </c>
-      <c r="BE258" s="14">
+      <c r="BE258" s="13">
         <v>28087</v>
       </c>
     </row>
-    <row r="259" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:57" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -45819,212 +45841,213 @@
       <c r="BD259" s="3"/>
       <c r="BE259" s="4"/>
     </row>
-    <row r="260" spans="1:57" s="11" customFormat="1" ht="58.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B260" s="10" t="s">
+    <row r="260" spans="1:57" s="10" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C260" s="10">
-        <v>0</v>
-      </c>
-      <c r="D260" s="10">
-        <v>0</v>
-      </c>
-      <c r="E260" s="10">
-        <v>2</v>
-      </c>
-      <c r="F260" s="10">
-        <v>3</v>
-      </c>
-      <c r="G260" s="10">
+      <c r="B260" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C260" s="9">
+        <v>0</v>
+      </c>
+      <c r="D260" s="9">
+        <v>0</v>
+      </c>
+      <c r="E260" s="9">
+        <v>2</v>
+      </c>
+      <c r="F260" s="9">
+        <v>3</v>
+      </c>
+      <c r="G260" s="9">
         <v>4</v>
       </c>
-      <c r="H260" s="10">
+      <c r="H260" s="9">
         <v>6</v>
       </c>
-      <c r="I260" s="10">
+      <c r="I260" s="9">
         <v>7</v>
       </c>
-      <c r="J260" s="10">
+      <c r="J260" s="9">
         <v>7</v>
       </c>
-      <c r="K260" s="10">
+      <c r="K260" s="9">
         <v>17</v>
       </c>
-      <c r="L260" s="10">
+      <c r="L260" s="9">
         <v>17</v>
       </c>
-      <c r="M260" s="10">
+      <c r="M260" s="9">
         <v>20</v>
       </c>
-      <c r="N260" s="10">
+      <c r="N260" s="9">
         <v>23</v>
       </c>
-      <c r="O260" s="10">
+      <c r="O260" s="9">
         <v>27</v>
       </c>
-      <c r="P260" s="10">
+      <c r="P260" s="9">
         <v>34</v>
       </c>
-      <c r="Q260" s="10">
+      <c r="Q260" s="9">
         <v>41</v>
       </c>
-      <c r="R260" s="10">
+      <c r="R260" s="9">
         <v>43</v>
       </c>
-      <c r="S260" s="10">
+      <c r="S260" s="9">
         <v>46</v>
       </c>
-      <c r="T260" s="10">
+      <c r="T260" s="9">
         <v>65</v>
       </c>
-      <c r="U260" s="10">
+      <c r="U260" s="9">
         <v>82</v>
       </c>
-      <c r="V260" s="10">
+      <c r="V260" s="9">
         <v>92</v>
       </c>
-      <c r="W260" s="10">
+      <c r="W260" s="9">
         <v>104</v>
       </c>
-      <c r="X260" s="10">
+      <c r="X260" s="9">
         <v>110</v>
       </c>
-      <c r="Y260" s="10">
+      <c r="Y260" s="9">
         <v>118</v>
       </c>
-      <c r="Z260" s="10">
+      <c r="Z260" s="9">
         <v>122</v>
       </c>
-      <c r="AA260" s="10">
+      <c r="AA260" s="9">
         <v>122</v>
       </c>
-      <c r="AB260" s="10">
+      <c r="AB260" s="9">
         <v>135</v>
       </c>
-      <c r="AC260" s="10">
+      <c r="AC260" s="9">
         <v>143</v>
       </c>
-      <c r="AD260" s="10">
+      <c r="AD260" s="9">
         <v>145</v>
       </c>
-      <c r="AE260" s="10">
+      <c r="AE260" s="9">
         <v>151</v>
       </c>
-      <c r="AF260" s="10">
+      <c r="AF260" s="9">
         <v>152</v>
       </c>
-      <c r="AG260" s="10">
+      <c r="AG260" s="9">
         <v>156</v>
       </c>
-      <c r="AH260" s="10">
+      <c r="AH260" s="9">
         <v>161</v>
       </c>
-      <c r="AI260" s="10">
+      <c r="AI260" s="9">
         <v>167</v>
       </c>
-      <c r="AJ260" s="10">
+      <c r="AJ260" s="9">
         <v>170</v>
       </c>
-      <c r="AK260" s="10">
+      <c r="AK260" s="9">
         <v>176</v>
       </c>
-      <c r="AL260" s="10">
+      <c r="AL260" s="9">
         <v>177</v>
       </c>
-      <c r="AM260" s="10">
+      <c r="AM260" s="9">
         <v>177</v>
       </c>
-      <c r="AN260" s="10">
+      <c r="AN260" s="9">
         <v>178</v>
       </c>
-      <c r="AO260" s="10">
+      <c r="AO260" s="9">
         <v>181</v>
       </c>
-      <c r="AP260" s="10">
+      <c r="AP260" s="9">
         <v>184</v>
       </c>
-      <c r="AQ260" s="10">
+      <c r="AQ260" s="9">
         <v>191</v>
       </c>
-      <c r="AR260" s="10">
+      <c r="AR260" s="9">
         <v>192</v>
       </c>
-      <c r="AS260" s="10">
+      <c r="AS260" s="9">
         <v>194</v>
       </c>
-      <c r="AT260" s="10">
+      <c r="AT260" s="9">
         <v>197</v>
       </c>
-      <c r="AU260" s="10">
+      <c r="AU260" s="9">
         <v>198</v>
       </c>
-      <c r="AV260" s="10">
+      <c r="AV260" s="9">
         <v>198</v>
       </c>
-      <c r="AW260" s="10">
+      <c r="AW260" s="9">
         <v>200</v>
       </c>
-      <c r="AX260" s="10">
+      <c r="AX260" s="9">
         <v>202</v>
       </c>
-      <c r="AY260" s="10">
+      <c r="AY260" s="9">
         <v>204</v>
       </c>
-      <c r="AZ260" s="10">
+      <c r="AZ260" s="9">
         <v>204</v>
       </c>
-      <c r="BA260" s="10">
+      <c r="BA260" s="9">
         <v>204</v>
       </c>
-      <c r="BB260" s="10">
+      <c r="BB260" s="9">
         <v>205</v>
       </c>
-      <c r="BC260" s="10">
+      <c r="BC260" s="9">
         <v>207</v>
       </c>
-      <c r="BD260" s="10">
+      <c r="BD260" s="9">
         <v>207</v>
       </c>
-      <c r="BE260" s="10">
+      <c r="BE260" s="9">
         <f t="shared" ref="BE260" si="0">COUNTIF(BE4:BE257,"&lt;&gt;0")</f>
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row r="264" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="264" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="265" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="265" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row r="266" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="266" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row r="267" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="267" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imant\Desktop\vm_share\github_project\covid-19-county-R0\TSHS_CaseCountData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0477EA67-0262-4EE3-80EA-6CC0D990BD6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6ACF7-8810-463E-8484-1843CF1A4074}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12413" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -905,10 +913,6 @@
     <t>Sabine</t>
   </si>
   <si>
-    <t>San
-Augustine</t>
-  </si>
-  <si>
     <t>San Jacinto</t>
   </si>
   <si>
@@ -1172,16 +1176,20 @@
       <t>JBSA-Lackland in San Antonio.</t>
     </r>
   </si>
+  <si>
+    <t>San Augustine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="165" formatCode="###,##0"/>
+    <numFmt numFmtId="176" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="177" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1213,6 +1221,18 @@
       <b/>
       <sz val="9.5"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1301,23 +1321,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,9 +1474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -1464,17 +1486,17 @@
     <col min="57" max="64" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1862,7 +1884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
@@ -2056,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>68</v>
       </c>
@@ -2250,7 +2272,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
@@ -2444,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>71</v>
       </c>
@@ -2832,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -3026,7 +3048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>73</v>
       </c>
@@ -3220,7 +3242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -3414,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
@@ -3608,7 +3630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
@@ -3802,7 +3824,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
@@ -3996,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -4190,7 +4212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>79</v>
       </c>
@@ -4384,7 +4406,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>80</v>
       </c>
@@ -4578,7 +4600,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
@@ -4772,7 +4794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -4966,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>83</v>
       </c>
@@ -5160,7 +5182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
@@ -5354,7 +5376,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -5548,7 +5570,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -5742,7 +5764,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
@@ -5936,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>88</v>
       </c>
@@ -6130,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>89</v>
       </c>
@@ -6324,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>90</v>
       </c>
@@ -6518,7 +6540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -6712,7 +6734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>92</v>
       </c>
@@ -6906,7 +6928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>93</v>
       </c>
@@ -7100,7 +7122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
@@ -7294,7 +7316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>95</v>
       </c>
@@ -7488,7 +7510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>96</v>
       </c>
@@ -7682,7 +7704,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
@@ -7876,7 +7898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>98</v>
       </c>
@@ -8070,7 +8092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
@@ -8264,7 +8286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>100</v>
       </c>
@@ -8458,7 +8480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>101</v>
       </c>
@@ -8652,7 +8674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>102</v>
       </c>
@@ -8846,7 +8868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>103</v>
       </c>
@@ -9040,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>104</v>
       </c>
@@ -9234,7 +9256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>105</v>
       </c>
@@ -9428,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>106</v>
       </c>
@@ -9622,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>107</v>
       </c>
@@ -9816,7 +9838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>108</v>
       </c>
@@ -10010,7 +10032,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>109</v>
       </c>
@@ -10204,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>110</v>
       </c>
@@ -10398,7 +10420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>111</v>
       </c>
@@ -10592,7 +10614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>112</v>
       </c>
@@ -10786,7 +10808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>113</v>
       </c>
@@ -10980,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>114</v>
       </c>
@@ -11174,7 +11196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>115</v>
       </c>
@@ -11368,7 +11390,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>116</v>
       </c>
@@ -11562,7 +11584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>117</v>
       </c>
@@ -11756,7 +11778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>118</v>
       </c>
@@ -11950,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>119</v>
       </c>
@@ -12144,7 +12166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>120</v>
       </c>
@@ -12338,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>121</v>
       </c>
@@ -12532,7 +12554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>122</v>
       </c>
@@ -12726,7 +12748,7 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="61" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
@@ -12920,7 +12942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>124</v>
       </c>
@@ -13114,7 +13136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>125</v>
       </c>
@@ -13308,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>126</v>
       </c>
@@ -13502,7 +13524,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="65" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>127</v>
       </c>
@@ -13696,7 +13718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
@@ -13890,7 +13912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
@@ -14084,7 +14106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>130</v>
       </c>
@@ -14278,7 +14300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>131</v>
       </c>
@@ -14472,7 +14494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>132</v>
       </c>
@@ -14666,7 +14688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>133</v>
       </c>
@@ -14860,7 +14882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>134</v>
       </c>
@@ -15054,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>135</v>
       </c>
@@ -15248,7 +15270,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>136</v>
       </c>
@@ -15442,7 +15464,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="75" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>137</v>
       </c>
@@ -15636,7 +15658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>138</v>
       </c>
@@ -15830,7 +15852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>139</v>
       </c>
@@ -16024,7 +16046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>140</v>
       </c>
@@ -16218,7 +16240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>141</v>
       </c>
@@ -16412,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>142</v>
       </c>
@@ -16606,7 +16628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>143</v>
       </c>
@@ -16800,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>144</v>
       </c>
@@ -16994,7 +17016,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>145</v>
       </c>
@@ -17188,7 +17210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>146</v>
       </c>
@@ -17382,7 +17404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>147</v>
       </c>
@@ -17576,7 +17598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>148</v>
       </c>
@@ -17770,7 +17792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>149</v>
       </c>
@@ -17964,7 +17986,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>150</v>
       </c>
@@ -18158,7 +18180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>151</v>
       </c>
@@ -18352,7 +18374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>152</v>
       </c>
@@ -18546,7 +18568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>153</v>
       </c>
@@ -18740,7 +18762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>154</v>
       </c>
@@ -18934,7 +18956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>155</v>
       </c>
@@ -19128,7 +19150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>156</v>
       </c>
@@ -19322,7 +19344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -19516,7 +19538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>158</v>
       </c>
@@ -19710,7 +19732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>159</v>
       </c>
@@ -19904,7 +19926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>160</v>
       </c>
@@ -20098,7 +20120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>161</v>
       </c>
@@ -20292,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>162</v>
       </c>
@@ -20486,7 +20508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>163</v>
       </c>
@@ -20680,7 +20702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>164</v>
       </c>
@@ -20874,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>165</v>
       </c>
@@ -21068,7 +21090,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>166</v>
       </c>
@@ -21262,7 +21284,7 @@
         <v>7244</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>167</v>
       </c>
@@ -21456,7 +21478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>168</v>
       </c>
@@ -21650,7 +21672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>169</v>
       </c>
@@ -21844,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>170</v>
       </c>
@@ -22038,7 +22060,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>171</v>
       </c>
@@ -22232,7 +22254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>172</v>
       </c>
@@ -22426,7 +22448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>173</v>
       </c>
@@ -22620,7 +22642,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>174</v>
       </c>
@@ -22814,7 +22836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>175</v>
       </c>
@@ -23008,7 +23030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>176</v>
       </c>
@@ -23202,7 +23224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>177</v>
       </c>
@@ -23396,7 +23418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>178</v>
       </c>
@@ -23590,7 +23612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>179</v>
       </c>
@@ -23784,7 +23806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>180</v>
       </c>
@@ -23978,7 +24000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>181</v>
       </c>
@@ -24172,7 +24194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>182</v>
       </c>
@@ -24366,7 +24388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>183</v>
       </c>
@@ -24560,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>184</v>
       </c>
@@ -24754,7 +24776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>185</v>
       </c>
@@ -24948,7 +24970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>186</v>
       </c>
@@ -25142,7 +25164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>187</v>
       </c>
@@ -25336,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>188</v>
       </c>
@@ -25530,7 +25552,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="127" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>189</v>
       </c>
@@ -25724,7 +25746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>190</v>
       </c>
@@ -25918,7 +25940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>191</v>
       </c>
@@ -26112,7 +26134,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>192</v>
       </c>
@@ -26306,7 +26328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>193</v>
       </c>
@@ -26500,7 +26522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>194</v>
       </c>
@@ -26694,7 +26716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>195</v>
       </c>
@@ -26888,7 +26910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>196</v>
       </c>
@@ -27082,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>197</v>
       </c>
@@ -27276,7 +27298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>198</v>
       </c>
@@ -27470,7 +27492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>199</v>
       </c>
@@ -27664,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>200</v>
       </c>
@@ -27858,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>201</v>
       </c>
@@ -28052,7 +28074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>202</v>
       </c>
@@ -28246,7 +28268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>203</v>
       </c>
@@ -28440,7 +28462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>204</v>
       </c>
@@ -28634,7 +28656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>205</v>
       </c>
@@ -28828,7 +28850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>206</v>
       </c>
@@ -29022,7 +29044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>207</v>
       </c>
@@ -29216,7 +29238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>208</v>
       </c>
@@ -29410,7 +29432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>209</v>
       </c>
@@ -29604,7 +29626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>210</v>
       </c>
@@ -29798,7 +29820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>211</v>
       </c>
@@ -29992,7 +30014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>212</v>
       </c>
@@ -30186,7 +30208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>213</v>
       </c>
@@ -30380,7 +30402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>214</v>
       </c>
@@ -30574,7 +30596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>215</v>
       </c>
@@ -30768,7 +30790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>216</v>
       </c>
@@ -30962,7 +30984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>217</v>
       </c>
@@ -31156,7 +31178,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="156" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>218</v>
       </c>
@@ -31350,7 +31372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>219</v>
       </c>
@@ -31544,7 +31566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>220</v>
       </c>
@@ -31738,7 +31760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>221</v>
       </c>
@@ -31932,7 +31954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>222</v>
       </c>
@@ -32126,7 +32148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>223</v>
       </c>
@@ -32320,7 +32342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>224</v>
       </c>
@@ -32514,7 +32536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>225</v>
       </c>
@@ -32708,7 +32730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>226</v>
       </c>
@@ -32902,7 +32924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>227</v>
       </c>
@@ -33096,7 +33118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>228</v>
       </c>
@@ -33290,7 +33312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>229</v>
       </c>
@@ -33484,7 +33506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>230</v>
       </c>
@@ -33678,7 +33700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>231</v>
       </c>
@@ -33872,7 +33894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>232</v>
       </c>
@@ -34066,7 +34088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>233</v>
       </c>
@@ -34260,7 +34282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>234</v>
       </c>
@@ -34454,7 +34476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>235</v>
       </c>
@@ -34648,7 +34670,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="174" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>236</v>
       </c>
@@ -34842,7 +34864,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="175" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>237</v>
       </c>
@@ -35036,7 +35058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>238</v>
       </c>
@@ -35230,7 +35252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>239</v>
       </c>
@@ -35424,7 +35446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>240</v>
       </c>
@@ -35618,7 +35640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>241</v>
       </c>
@@ -35812,7 +35834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>242</v>
       </c>
@@ -36006,7 +36028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>243</v>
       </c>
@@ -36200,7 +36222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="182" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>244</v>
       </c>
@@ -36394,7 +36416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>245</v>
       </c>
@@ -36588,7 +36610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>246</v>
       </c>
@@ -36782,7 +36804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>247</v>
       </c>
@@ -36976,7 +36998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>248</v>
       </c>
@@ -37170,7 +37192,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="187" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>249</v>
       </c>
@@ -37364,7 +37386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>250</v>
       </c>
@@ -37558,7 +37580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>251</v>
       </c>
@@ -37752,7 +37774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>252</v>
       </c>
@@ -37946,7 +37968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>253</v>
       </c>
@@ -38140,7 +38162,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="192" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>254</v>
       </c>
@@ -38334,7 +38356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>255</v>
       </c>
@@ -38528,7 +38550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>256</v>
       </c>
@@ -38722,7 +38744,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="195" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>257</v>
       </c>
@@ -38916,7 +38938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>258</v>
       </c>
@@ -39110,7 +39132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>259</v>
       </c>
@@ -39304,7 +39326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>260</v>
       </c>
@@ -39498,7 +39520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>261</v>
       </c>
@@ -39692,7 +39714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>262</v>
       </c>
@@ -39886,7 +39908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>263</v>
       </c>
@@ -40080,7 +40102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>264</v>
       </c>
@@ -40274,7 +40296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="203" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>265</v>
       </c>
@@ -40468,7 +40490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>266</v>
       </c>
@@ -40662,7 +40684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>267</v>
       </c>
@@ -40856,9 +40878,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:64" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="7" t="s">
-        <v>268</v>
+    <row r="206" spans="1:64" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="B206" s="5">
         <v>9340</v>
@@ -41050,9 +41072,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B207" s="5">
         <v>32428</v>
@@ -41244,9 +41266,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B208" s="5">
         <v>68331</v>
@@ -41438,9 +41460,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B209" s="5">
         <v>6482</v>
@@ -41632,9 +41654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B210" s="5">
         <v>3920</v>
@@ -41826,9 +41848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B211" s="5">
         <v>18906</v>
@@ -42020,9 +42042,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B212" s="5">
         <v>3734</v>
@@ -42214,9 +42236,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B213" s="5">
         <v>28649</v>
@@ -42408,9 +42430,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B214" s="5">
         <v>3440</v>
@@ -42602,9 +42624,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B215" s="5">
         <v>243064</v>
@@ -42796,9 +42818,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="216" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B216" s="5">
         <v>10480</v>
@@ -42990,9 +43012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B217" s="5">
         <v>68878</v>
@@ -43184,9 +43206,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B218" s="5">
         <v>10297</v>
@@ -43378,9 +43400,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B219" s="5">
         <v>1214</v>
@@ -43572,9 +43594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B220" s="5">
         <v>1515</v>
@@ -43766,9 +43788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B221" s="5">
         <v>4651</v>
@@ -43960,9 +43982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B222" s="5">
         <v>8230</v>
@@ -44154,9 +44176,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B223" s="5">
         <v>2127850</v>
@@ -44348,9 +44370,9 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="224" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B224" s="5">
         <v>138279</v>
@@ -44542,9 +44564,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="225" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B225" s="5">
         <v>1047</v>
@@ -44736,9 +44758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B226" s="5">
         <v>13323</v>
@@ -44930,9 +44952,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B227" s="5">
         <v>1639</v>
@@ -45124,9 +45146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B228" s="5">
         <v>37790</v>
@@ -45318,9 +45340,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B229" s="5">
         <v>114995</v>
@@ -45512,9 +45534,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="230" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B230" s="5">
         <v>1277007</v>
@@ -45706,9 +45728,9 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="231" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B231" s="5">
         <v>16618</v>
@@ -45900,9 +45922,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B232" s="5">
         <v>22646</v>
@@ -46094,9 +46116,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B233" s="5">
         <v>45120</v>
@@ -46288,9 +46310,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B234" s="5">
         <v>3886</v>
@@ -46482,9 +46504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B235" s="5">
         <v>28593</v>
@@ -46676,9 +46698,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B236" s="5">
         <v>53256</v>
@@ -46870,9 +46892,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B237" s="5">
         <v>58259</v>
@@ -47064,9 +47086,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B238" s="5">
         <v>92845</v>
@@ -47258,9 +47280,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="239" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B239" s="5">
         <v>72778</v>
@@ -47452,9 +47474,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B240" s="5">
         <v>58002</v>
@@ -47646,9 +47668,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B241" s="5">
         <v>11213</v>
@@ -47840,9 +47862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B242" s="5">
         <v>37673</v>
@@ -48034,9 +48056,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="243" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B243" s="5">
         <v>317733</v>
@@ -48228,9 +48250,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="244" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B244" s="5">
         <v>43271</v>
@@ -48422,9 +48444,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B245" s="5">
         <v>5934</v>
@@ -48616,9 +48638,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B246" s="5">
         <v>133363</v>
@@ -48810,9 +48832,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="247" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B247" s="5">
         <v>14897</v>
@@ -49004,9 +49026,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B248" s="5">
         <v>26817</v>
@@ -49198,9 +49220,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B249" s="5">
         <v>633783</v>
@@ -49392,9 +49414,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="250" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B250" s="5">
         <v>57292</v>
@@ -49586,9 +49608,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B251" s="5">
         <v>8371</v>
@@ -49780,9 +49802,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B252" s="5">
         <v>74490</v>
@@ -49974,9 +49996,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B253" s="5">
         <v>48594</v>
@@ -50168,9 +50190,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B254" s="5">
         <v>9591</v>
@@ -50362,9 +50384,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B255" s="5">
         <v>19914</v>
@@ -50556,9 +50578,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B256" s="5">
         <v>17043</v>
@@ -50750,9 +50772,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B257" s="5">
         <v>12895</v>
@@ -50944,9 +50966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B258" s="5">
         <v>30541978</v>
@@ -51138,8 +51160,8 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="259" spans="1:64" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
+    <row r="259" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="7"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
@@ -51204,242 +51226,243 @@
       <c r="BK259" s="6"/>
       <c r="BL259" s="6"/>
     </row>
-    <row r="260" spans="1:64" ht="58.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9">
-        <v>0</v>
-      </c>
-      <c r="D260" s="9">
-        <v>0</v>
-      </c>
-      <c r="E260" s="9">
-        <v>2</v>
-      </c>
-      <c r="F260" s="9">
-        <v>3</v>
-      </c>
-      <c r="G260" s="9">
+    <row r="260" spans="1:64" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8">
+        <v>0</v>
+      </c>
+      <c r="D260" s="8">
+        <v>0</v>
+      </c>
+      <c r="E260" s="8">
+        <v>2</v>
+      </c>
+      <c r="F260" s="8">
+        <v>3</v>
+      </c>
+      <c r="G260" s="8">
         <v>4</v>
       </c>
-      <c r="H260" s="9">
+      <c r="H260" s="8">
         <v>6</v>
       </c>
-      <c r="I260" s="9">
+      <c r="I260" s="8">
         <v>7</v>
       </c>
-      <c r="J260" s="9">
+      <c r="J260" s="8">
         <v>7</v>
       </c>
-      <c r="K260" s="9">
+      <c r="K260" s="8">
         <v>17</v>
       </c>
-      <c r="L260" s="9">
+      <c r="L260" s="8">
         <v>17</v>
       </c>
-      <c r="M260" s="9">
+      <c r="M260" s="8">
         <v>20</v>
       </c>
-      <c r="N260" s="9">
+      <c r="N260" s="8">
         <v>23</v>
       </c>
-      <c r="O260" s="9">
+      <c r="O260" s="8">
         <v>27</v>
       </c>
-      <c r="P260" s="9">
+      <c r="P260" s="8">
         <v>34</v>
       </c>
-      <c r="Q260" s="9">
+      <c r="Q260" s="8">
         <v>41</v>
       </c>
-      <c r="R260" s="9">
+      <c r="R260" s="8">
         <v>43</v>
       </c>
-      <c r="S260" s="9">
+      <c r="S260" s="8">
         <v>46</v>
       </c>
-      <c r="T260" s="9">
+      <c r="T260" s="8">
         <v>65</v>
       </c>
-      <c r="U260" s="9">
+      <c r="U260" s="8">
         <v>82</v>
       </c>
-      <c r="V260" s="9">
+      <c r="V260" s="8">
         <v>92</v>
       </c>
-      <c r="W260" s="9">
+      <c r="W260" s="8">
         <v>104</v>
       </c>
-      <c r="X260" s="9">
+      <c r="X260" s="8">
         <v>110</v>
       </c>
-      <c r="Y260" s="9">
+      <c r="Y260" s="8">
         <v>118</v>
       </c>
-      <c r="Z260" s="9">
+      <c r="Z260" s="8">
         <v>122</v>
       </c>
-      <c r="AA260" s="9">
+      <c r="AA260" s="8">
         <v>122</v>
       </c>
-      <c r="AB260" s="9">
+      <c r="AB260" s="8">
         <v>135</v>
       </c>
-      <c r="AC260" s="9">
+      <c r="AC260" s="8">
         <v>143</v>
       </c>
-      <c r="AD260" s="9">
+      <c r="AD260" s="8">
         <v>145</v>
       </c>
-      <c r="AE260" s="9">
+      <c r="AE260" s="8">
         <v>151</v>
       </c>
-      <c r="AF260" s="9">
+      <c r="AF260" s="8">
         <v>152</v>
       </c>
-      <c r="AG260" s="9">
+      <c r="AG260" s="8">
         <v>156</v>
       </c>
-      <c r="AH260" s="9">
+      <c r="AH260" s="8">
         <v>161</v>
       </c>
-      <c r="AI260" s="9">
+      <c r="AI260" s="8">
         <v>167</v>
       </c>
-      <c r="AJ260" s="9">
+      <c r="AJ260" s="8">
         <v>170</v>
       </c>
-      <c r="AK260" s="9">
+      <c r="AK260" s="8">
         <v>176</v>
       </c>
-      <c r="AL260" s="9">
+      <c r="AL260" s="8">
         <v>177</v>
       </c>
-      <c r="AM260" s="9">
+      <c r="AM260" s="8">
         <v>177</v>
       </c>
-      <c r="AN260" s="9">
+      <c r="AN260" s="8">
         <v>178</v>
       </c>
-      <c r="AO260" s="9">
+      <c r="AO260" s="8">
         <v>181</v>
       </c>
-      <c r="AP260" s="9">
+      <c r="AP260" s="8">
         <v>184</v>
       </c>
-      <c r="AQ260" s="9">
+      <c r="AQ260" s="8">
         <v>191</v>
       </c>
-      <c r="AR260" s="9">
+      <c r="AR260" s="8">
         <v>192</v>
       </c>
-      <c r="AS260" s="9">
+      <c r="AS260" s="8">
         <v>194</v>
       </c>
-      <c r="AT260" s="9">
+      <c r="AT260" s="8">
         <v>197</v>
       </c>
-      <c r="AU260" s="9">
+      <c r="AU260" s="8">
         <v>198</v>
       </c>
-      <c r="AV260" s="9">
+      <c r="AV260" s="8">
         <v>198</v>
       </c>
-      <c r="AW260" s="9">
+      <c r="AW260" s="8">
         <v>200</v>
       </c>
-      <c r="AX260" s="9">
+      <c r="AX260" s="8">
         <v>202</v>
       </c>
-      <c r="AY260" s="9">
+      <c r="AY260" s="8">
         <v>204</v>
       </c>
-      <c r="AZ260" s="9">
+      <c r="AZ260" s="8">
         <v>204</v>
       </c>
-      <c r="BA260" s="9">
+      <c r="BA260" s="8">
         <v>204</v>
       </c>
-      <c r="BB260" s="9">
+      <c r="BB260" s="8">
         <v>205</v>
       </c>
-      <c r="BC260" s="9">
+      <c r="BC260" s="8">
         <v>207</v>
       </c>
-      <c r="BD260" s="9">
+      <c r="BD260" s="8">
         <v>207</v>
       </c>
-      <c r="BE260" s="9">
+      <c r="BE260" s="8">
         <f t="shared" ref="BE260:BK260" si="0">COUNTIF(BE4:BE257,"&lt;&gt;0")</f>
         <v>209</v>
       </c>
-      <c r="BF260" s="9">
+      <c r="BF260" s="8">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="BG260" s="9">
+      <c r="BG260" s="8">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="BH260" s="9">
+      <c r="BH260" s="8">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="BI260" s="9">
+      <c r="BI260" s="8">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="BJ260" s="9">
+      <c r="BJ260" s="8">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="BK260" s="9">
+      <c r="BK260" s="8">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="BL260" s="9">
+      <c r="BL260" s="8">
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="263" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="263" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="264" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
+    <row r="265" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="265" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
+    <row r="266" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="266" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:64" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:64" ht="46.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="268" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -5,30 +5,22 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imant\Desktop\vm_share\github_project\covid-19-county-R0\TSHS_CaseCountData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6ACF7-8810-463E-8484-1843CF1A4074}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E6922-25B0-40EC-BBE7-E9F8A72ED043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
+    <sheet name="COVID-19 Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="335">
   <si>
     <r>
       <rPr>
@@ -37,7 +29,7 @@
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>COVID-19 Total Cases by County, 3/4/2020 - 5/07/2020*</t>
+      <t>COVID-19 Total Cases by County, 3/4/2020 - 5/11/2020*</t>
     </r>
   </si>
   <si>
@@ -305,6 +297,22 @@
   <si>
     <t>Cases
 05-07</t>
+  </si>
+  <si>
+    <t>Cases
+05-08</t>
+  </si>
+  <si>
+    <t>Cases
+05-09</t>
+  </si>
+  <si>
+    <t>Cases
+05-10</t>
+  </si>
+  <si>
+    <t>Cases
+05-11</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1069,6 +1077,12 @@
     <t>Total</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>Num. of
 Counties
 (case
@@ -1305,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1328,13 +1342,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1472,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL268"/>
+  <dimension ref="A1:BP268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1483,20 +1500,20 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="56" width="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="64" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="68" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1689,10 +1706,22 @@
       <c r="BL3" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="BM3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5">
         <v>62245</v>
@@ -1883,10 +1912,22 @@
       <c r="BL4" s="6">
         <v>40</v>
       </c>
+      <c r="BM4" s="6">
+        <v>41</v>
+      </c>
+      <c r="BN4" s="6">
+        <v>41</v>
+      </c>
+      <c r="BO4" s="6">
+        <v>41</v>
+      </c>
+      <c r="BP4" s="6">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5">
         <v>17487</v>
@@ -2077,10 +2118,22 @@
       <c r="BL5" s="6">
         <v>21</v>
       </c>
+      <c r="BM5" s="6">
+        <v>21</v>
+      </c>
+      <c r="BN5" s="6">
+        <v>21</v>
+      </c>
+      <c r="BO5" s="6">
+        <v>21</v>
+      </c>
+      <c r="BP5" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5">
         <v>94245</v>
@@ -2271,10 +2324,22 @@
       <c r="BL6" s="6">
         <v>93</v>
       </c>
+      <c r="BM6" s="6">
+        <v>100</v>
+      </c>
+      <c r="BN6" s="6">
+        <v>100</v>
+      </c>
+      <c r="BO6" s="6">
+        <v>100</v>
+      </c>
+      <c r="BP6" s="6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5">
         <v>26041</v>
@@ -2465,10 +2530,22 @@
       <c r="BL7" s="6">
         <v>2</v>
       </c>
+      <c r="BM7" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN7" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO7" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5">
         <v>9847</v>
@@ -2659,10 +2736,22 @@
       <c r="BL8" s="6">
         <v>0</v>
       </c>
+      <c r="BM8" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5">
         <v>1970</v>
@@ -2853,10 +2942,22 @@
       <c r="BL9" s="6">
         <v>2</v>
       </c>
+      <c r="BM9" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN9" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO9" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP9" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5">
         <v>55946</v>
@@ -3047,10 +3148,22 @@
       <c r="BL10" s="6">
         <v>22</v>
       </c>
+      <c r="BM10" s="6">
+        <v>22</v>
+      </c>
+      <c r="BN10" s="6">
+        <v>22</v>
+      </c>
+      <c r="BO10" s="6">
+        <v>22</v>
+      </c>
+      <c r="BP10" s="6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5">
         <v>36542</v>
@@ -3241,10 +3354,22 @@
       <c r="BL11" s="6">
         <v>14</v>
       </c>
+      <c r="BM11" s="6">
+        <v>14</v>
+      </c>
+      <c r="BN11" s="6">
+        <v>15</v>
+      </c>
+      <c r="BO11" s="6">
+        <v>15</v>
+      </c>
+      <c r="BP11" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5">
         <v>8426</v>
@@ -3435,10 +3560,22 @@
       <c r="BL12" s="6">
         <v>2</v>
       </c>
+      <c r="BM12" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN12" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO12" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP12" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5">
         <v>25100</v>
@@ -3629,10 +3766,22 @@
       <c r="BL13" s="6">
         <v>6</v>
       </c>
+      <c r="BM13" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN13" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO13" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP13" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5">
         <v>100746</v>
@@ -3823,10 +3972,22 @@
       <c r="BL14" s="6">
         <v>107</v>
       </c>
+      <c r="BM14" s="6">
+        <v>106</v>
+      </c>
+      <c r="BN14" s="6">
+        <v>108</v>
+      </c>
+      <c r="BO14" s="6">
+        <v>109</v>
+      </c>
+      <c r="BP14" s="6">
+        <v>110</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B15" s="5">
         <v>3715</v>
@@ -4017,10 +4178,22 @@
       <c r="BL15" s="6">
         <v>0</v>
       </c>
+      <c r="BM15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5">
         <v>33428</v>
@@ -4211,10 +4384,22 @@
       <c r="BL16" s="6">
         <v>6</v>
       </c>
+      <c r="BM16" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN16" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO16" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP16" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B17" s="5">
         <v>394509</v>
@@ -4405,10 +4590,22 @@
       <c r="BL17" s="6">
         <v>213</v>
       </c>
+      <c r="BM17" s="6">
+        <v>218</v>
+      </c>
+      <c r="BN17" s="6">
+        <v>220</v>
+      </c>
+      <c r="BO17" s="6">
+        <v>220</v>
+      </c>
+      <c r="BP17" s="6">
+        <v>220</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B18" s="5">
         <v>2062088</v>
@@ -4599,10 +4796,22 @@
       <c r="BL18" s="6">
         <v>1761</v>
       </c>
+      <c r="BM18" s="6">
+        <v>1805</v>
+      </c>
+      <c r="BN18" s="6">
+        <v>1835</v>
+      </c>
+      <c r="BO18" s="6">
+        <v>1901</v>
+      </c>
+      <c r="BP18" s="6">
+        <v>1901</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5">
         <v>13018</v>
@@ -4793,10 +5002,22 @@
       <c r="BL19" s="6">
         <v>6</v>
       </c>
+      <c r="BM19" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN19" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO19" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP19" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5">
         <v>698</v>
@@ -4987,10 +5208,22 @@
       <c r="BL20" s="6">
         <v>0</v>
       </c>
+      <c r="BM20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B21" s="5">
         <v>20522</v>
@@ -5181,10 +5414,22 @@
       <c r="BL21" s="6">
         <v>5</v>
       </c>
+      <c r="BM21" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN21" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO21" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP21" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5">
         <v>95118</v>
@@ -5375,10 +5620,22 @@
       <c r="BL22" s="6">
         <v>76</v>
       </c>
+      <c r="BM22" s="6">
+        <v>76</v>
+      </c>
+      <c r="BN22" s="6">
+        <v>76</v>
+      </c>
+      <c r="BO22" s="6">
+        <v>76</v>
+      </c>
+      <c r="BP22" s="6">
+        <v>76</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5">
         <v>410571</v>
@@ -5569,10 +5826,22 @@
       <c r="BL23" s="6">
         <v>588</v>
       </c>
+      <c r="BM23" s="6">
+        <v>613</v>
+      </c>
+      <c r="BN23" s="6">
+        <v>644</v>
+      </c>
+      <c r="BO23" s="6">
+        <v>656</v>
+      </c>
+      <c r="BP23" s="6">
+        <v>661</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5">
         <v>239527</v>
@@ -5763,10 +6032,22 @@
       <c r="BL24" s="6">
         <v>232</v>
       </c>
+      <c r="BM24" s="6">
+        <v>243</v>
+      </c>
+      <c r="BN24" s="6">
+        <v>256</v>
+      </c>
+      <c r="BO24" s="6">
+        <v>265</v>
+      </c>
+      <c r="BP24" s="6">
+        <v>271</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5">
         <v>10226</v>
@@ -5957,10 +6238,22 @@
       <c r="BL25" s="6">
         <v>1</v>
       </c>
+      <c r="BM25" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP25" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5">
         <v>1672</v>
@@ -6151,10 +6444,22 @@
       <c r="BL26" s="6">
         <v>1</v>
       </c>
+      <c r="BM26" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP26" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5">
         <v>7619</v>
@@ -6345,10 +6650,22 @@
       <c r="BL27" s="6">
         <v>1</v>
       </c>
+      <c r="BM27" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO27" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP27" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5">
         <v>40617</v>
@@ -6539,10 +6856,22 @@
       <c r="BL28" s="6">
         <v>38</v>
       </c>
+      <c r="BM28" s="6">
+        <v>38</v>
+      </c>
+      <c r="BN28" s="6">
+        <v>38</v>
+      </c>
+      <c r="BO28" s="6">
+        <v>38</v>
+      </c>
+      <c r="BP28" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="29" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B29" s="5">
         <v>19763</v>
@@ -6733,10 +7062,22 @@
       <c r="BL29" s="6">
         <v>14</v>
       </c>
+      <c r="BM29" s="6">
+        <v>15</v>
+      </c>
+      <c r="BN29" s="6">
+        <v>15</v>
+      </c>
+      <c r="BO29" s="6">
+        <v>15</v>
+      </c>
+      <c r="BP29" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="30" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B30" s="5">
         <v>52456</v>
@@ -6927,10 +7268,22 @@
       <c r="BL30" s="6">
         <v>24</v>
       </c>
+      <c r="BM30" s="6">
+        <v>25</v>
+      </c>
+      <c r="BN30" s="6">
+        <v>26</v>
+      </c>
+      <c r="BO30" s="6">
+        <v>26</v>
+      </c>
+      <c r="BP30" s="6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="31" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B31" s="5">
         <v>49202</v>
@@ -7121,10 +7474,22 @@
       <c r="BL31" s="6">
         <v>25</v>
       </c>
+      <c r="BM31" s="6">
+        <v>25</v>
+      </c>
+      <c r="BN31" s="6">
+        <v>26</v>
+      </c>
+      <c r="BO31" s="6">
+        <v>27</v>
+      </c>
+      <c r="BP31" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5">
         <v>25263</v>
@@ -7315,10 +7680,22 @@
       <c r="BL32" s="6">
         <v>34</v>
       </c>
+      <c r="BM32" s="6">
+        <v>36</v>
+      </c>
+      <c r="BN32" s="6">
+        <v>36</v>
+      </c>
+      <c r="BO32" s="6">
+        <v>36</v>
+      </c>
+      <c r="BP32" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B33" s="5">
         <v>14768</v>
@@ -7509,10 +7886,22 @@
       <c r="BL33" s="6">
         <v>5</v>
       </c>
+      <c r="BM33" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN33" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO33" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP33" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B34" s="5">
         <v>493571</v>
@@ -7703,10 +8092,22 @@
       <c r="BL34" s="6">
         <v>469</v>
       </c>
+      <c r="BM34" s="6">
+        <v>483</v>
+      </c>
+      <c r="BN34" s="6">
+        <v>494</v>
+      </c>
+      <c r="BO34" s="6">
+        <v>512</v>
+      </c>
+      <c r="BP34" s="6">
+        <v>512</v>
+      </c>
     </row>
-    <row r="35" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B35" s="5">
         <v>14442</v>
@@ -7897,10 +8298,22 @@
       <c r="BL35" s="6">
         <v>7</v>
       </c>
+      <c r="BM35" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN35" s="6">
+        <v>7</v>
+      </c>
+      <c r="BO35" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP35" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B36" s="5">
         <v>6526</v>
@@ -8091,10 +8504,22 @@
       <c r="BL36" s="6">
         <v>3</v>
       </c>
+      <c r="BM36" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN36" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO36" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP36" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B37" s="5">
         <v>32050</v>
@@ -8285,10 +8710,22 @@
       <c r="BL37" s="6">
         <v>17</v>
       </c>
+      <c r="BM37" s="6">
+        <v>17</v>
+      </c>
+      <c r="BN37" s="6">
+        <v>17</v>
+      </c>
+      <c r="BO37" s="6">
+        <v>20</v>
+      </c>
+      <c r="BP37" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="38" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5">
         <v>8901</v>
@@ -8479,10 +8916,22 @@
       <c r="BL38" s="6">
         <v>22</v>
       </c>
+      <c r="BM38" s="6">
+        <v>22</v>
+      </c>
+      <c r="BN38" s="6">
+        <v>22</v>
+      </c>
+      <c r="BO38" s="6">
+        <v>23</v>
+      </c>
+      <c r="BP38" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5">
         <v>47621</v>
@@ -8673,10 +9122,22 @@
       <c r="BL39" s="6">
         <v>47</v>
       </c>
+      <c r="BM39" s="6">
+        <v>47</v>
+      </c>
+      <c r="BN39" s="6">
+        <v>48</v>
+      </c>
+      <c r="BO39" s="6">
+        <v>49</v>
+      </c>
+      <c r="BP39" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="40" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B40" s="5">
         <v>57663</v>
@@ -8867,10 +9328,22 @@
       <c r="BL40" s="6">
         <v>20</v>
       </c>
+      <c r="BM40" s="6">
+        <v>18</v>
+      </c>
+      <c r="BN40" s="6">
+        <v>18</v>
+      </c>
+      <c r="BO40" s="6">
+        <v>18</v>
+      </c>
+      <c r="BP40" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="41" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B41" s="5">
         <v>7460</v>
@@ -9061,10 +9534,22 @@
       <c r="BL41" s="6">
         <v>1</v>
       </c>
+      <c r="BM41" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN41" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP41" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B42" s="5">
         <v>11655</v>
@@ -9255,10 +9740,22 @@
       <c r="BL42" s="6">
         <v>3</v>
       </c>
+      <c r="BM42" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN42" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO42" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP42" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B43" s="5">
         <v>3458</v>
@@ -9449,10 +9946,22 @@
       <c r="BL43" s="6">
         <v>1</v>
       </c>
+      <c r="BM43" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN43" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5">
         <v>3095</v>
@@ -9643,10 +10152,22 @@
       <c r="BL44" s="6">
         <v>1</v>
       </c>
+      <c r="BM44" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN44" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO44" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP44" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B45" s="5">
         <v>9274</v>
@@ -9837,10 +10358,22 @@
       <c r="BL45" s="6">
         <v>2</v>
       </c>
+      <c r="BM45" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN45" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO45" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP45" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B46" s="5">
         <v>1150398</v>
@@ -10031,10 +10564,22 @@
       <c r="BL46" s="6">
         <v>839</v>
       </c>
+      <c r="BM46" s="6">
+        <v>857</v>
+      </c>
+      <c r="BN46" s="6">
+        <v>887</v>
+      </c>
+      <c r="BO46" s="6">
+        <v>901</v>
+      </c>
+      <c r="BP46" s="6">
+        <v>918</v>
+      </c>
     </row>
-    <row r="47" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B47" s="5">
         <v>3243</v>
@@ -10225,10 +10770,22 @@
       <c r="BL47" s="6">
         <v>1</v>
       </c>
+      <c r="BM47" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN47" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO47" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP47" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B48" s="5">
         <v>22688</v>
@@ -10419,10 +10976,22 @@
       <c r="BL48" s="6">
         <v>12</v>
       </c>
+      <c r="BM48" s="6">
+        <v>13</v>
+      </c>
+      <c r="BN48" s="6">
+        <v>16</v>
+      </c>
+      <c r="BO48" s="6">
+        <v>16</v>
+      </c>
+      <c r="BP48" s="6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="49" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B49" s="5">
         <v>150366</v>
@@ -10613,10 +11182,22 @@
       <c r="BL49" s="6">
         <v>61</v>
       </c>
+      <c r="BM49" s="6">
+        <v>65</v>
+      </c>
+      <c r="BN49" s="6">
+        <v>65</v>
+      </c>
+      <c r="BO49" s="6">
+        <v>65</v>
+      </c>
+      <c r="BP49" s="6">
+        <v>65</v>
+      </c>
     </row>
-    <row r="50" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B50" s="5">
         <v>14855</v>
@@ -10807,10 +11388,22 @@
       <c r="BL50" s="6">
         <v>3</v>
       </c>
+      <c r="BM50" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN50" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO50" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP50" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B51" s="5">
         <v>4299</v>
@@ -11001,10 +11594,22 @@
       <c r="BL51" s="6">
         <v>1</v>
       </c>
+      <c r="BM51" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN51" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO51" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP51" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B52" s="5">
         <v>41744</v>
@@ -11195,10 +11800,22 @@
       <c r="BL52" s="6">
         <v>11</v>
       </c>
+      <c r="BM52" s="6">
+        <v>11</v>
+      </c>
+      <c r="BN52" s="6">
+        <v>12</v>
+      </c>
+      <c r="BO52" s="6">
+        <v>12</v>
+      </c>
+      <c r="BP52" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="53" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B53" s="5">
         <v>86638</v>
@@ -11389,10 +12006,22 @@
       <c r="BL53" s="6">
         <v>201</v>
       </c>
+      <c r="BM53" s="6">
+        <v>205</v>
+      </c>
+      <c r="BN53" s="6">
+        <v>207</v>
+      </c>
+      <c r="BO53" s="6">
+        <v>208</v>
+      </c>
+      <c r="BP53" s="6">
+        <v>208</v>
+      </c>
     </row>
-    <row r="54" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5">
         <v>1578</v>
@@ -11583,10 +12212,22 @@
       <c r="BL54" s="6">
         <v>3</v>
       </c>
+      <c r="BM54" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN54" s="6">
+        <v>4</v>
+      </c>
+      <c r="BO54" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP54" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B55" s="5">
         <v>5349</v>
@@ -11777,10 +12418,22 @@
       <c r="BL55" s="6">
         <v>2</v>
       </c>
+      <c r="BM55" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN55" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO55" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP55" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B56" s="5">
         <v>4082</v>
@@ -11971,10 +12624,22 @@
       <c r="BL56" s="6">
         <v>0</v>
       </c>
+      <c r="BM56" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN56" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO56" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B57" s="5">
         <v>7247</v>
@@ -12165,10 +12830,22 @@
       <c r="BL57" s="6">
         <v>2</v>
       </c>
+      <c r="BM57" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN57" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO57" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP57" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B58" s="5">
         <v>2722</v>
@@ -12359,10 +13036,22 @@
       <c r="BL58" s="6">
         <v>0</v>
       </c>
+      <c r="BM58" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" s="5">
         <v>8054</v>
@@ -12553,10 +13242,22 @@
       <c r="BL59" s="6">
         <v>10</v>
       </c>
+      <c r="BM59" s="6">
+        <v>11</v>
+      </c>
+      <c r="BN59" s="6">
+        <v>13</v>
+      </c>
+      <c r="BO59" s="6">
+        <v>13</v>
+      </c>
+      <c r="BP59" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="60" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B60" s="5">
         <v>2639966</v>
@@ -12747,10 +13448,22 @@
       <c r="BL60" s="6">
         <v>4869</v>
       </c>
+      <c r="BM60" s="6">
+        <v>5120</v>
+      </c>
+      <c r="BN60" s="6">
+        <v>5369</v>
+      </c>
+      <c r="BO60" s="6">
+        <v>5619</v>
+      </c>
+      <c r="BP60" s="6">
+        <v>5870</v>
+      </c>
     </row>
-    <row r="61" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="5">
         <v>14756</v>
@@ -12941,10 +13654,22 @@
       <c r="BL61" s="6">
         <v>30</v>
       </c>
+      <c r="BM61" s="6">
+        <v>30</v>
+      </c>
+      <c r="BN61" s="6">
+        <v>30</v>
+      </c>
+      <c r="BO61" s="6">
+        <v>30</v>
+      </c>
+      <c r="BP61" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="62" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="5">
         <v>22599</v>
@@ -13135,10 +13860,22 @@
       <c r="BL62" s="6">
         <v>41</v>
       </c>
+      <c r="BM62" s="6">
+        <v>46</v>
+      </c>
+      <c r="BN62" s="6">
+        <v>46</v>
+      </c>
+      <c r="BO62" s="6">
+        <v>59</v>
+      </c>
+      <c r="BP62" s="6">
+        <v>59</v>
+      </c>
     </row>
-    <row r="63" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B63" s="5">
         <v>5805</v>
@@ -13329,10 +14066,22 @@
       <c r="BL63" s="6">
         <v>1</v>
       </c>
+      <c r="BM63" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN63" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO63" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP63" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B64" s="5">
         <v>943020</v>
@@ -13523,10 +14272,22 @@
       <c r="BL64" s="6">
         <v>846</v>
       </c>
+      <c r="BM64" s="6">
+        <v>872</v>
+      </c>
+      <c r="BN64" s="6">
+        <v>902</v>
+      </c>
+      <c r="BO64" s="6">
+        <v>914</v>
+      </c>
+      <c r="BP64" s="6">
+        <v>922</v>
+      </c>
     </row>
-    <row r="65" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B65" s="5">
         <v>20937</v>
@@ -13717,10 +14478,22 @@
       <c r="BL65" s="6">
         <v>15</v>
       </c>
+      <c r="BM65" s="6">
+        <v>15</v>
+      </c>
+      <c r="BN65" s="6">
+        <v>15</v>
+      </c>
+      <c r="BO65" s="6">
+        <v>15</v>
+      </c>
+      <c r="BP65" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="66" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="5">
         <v>2482</v>
@@ -13911,10 +14684,22 @@
       <c r="BL66" s="6">
         <v>1</v>
       </c>
+      <c r="BM66" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN66" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO66" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP66" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B67" s="5">
         <v>10870</v>
@@ -14105,10 +14890,22 @@
       <c r="BL67" s="6">
         <v>1</v>
       </c>
+      <c r="BM67" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN67" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO67" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP67" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="5">
         <v>3873</v>
@@ -14299,10 +15096,22 @@
       <c r="BL68" s="6">
         <v>25</v>
       </c>
+      <c r="BM68" s="6">
+        <v>25</v>
+      </c>
+      <c r="BN68" s="6">
+        <v>25</v>
+      </c>
+      <c r="BO68" s="6">
+        <v>26</v>
+      </c>
+      <c r="BP68" s="6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="69" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B69" s="5">
         <v>12596</v>
@@ -14493,10 +15302,22 @@
       <c r="BL69" s="6">
         <v>3</v>
       </c>
+      <c r="BM69" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN69" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO69" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP69" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B70" s="5">
         <v>19857</v>
@@ -14687,10 +15508,22 @@
       <c r="BL70" s="6">
         <v>3</v>
       </c>
+      <c r="BM70" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN70" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO70" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP70" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="71" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B71" s="5">
         <v>159521</v>
@@ -14881,10 +15714,22 @@
       <c r="BL71" s="6">
         <v>90</v>
       </c>
+      <c r="BM71" s="6">
+        <v>94</v>
+      </c>
+      <c r="BN71" s="6">
+        <v>95</v>
+      </c>
+      <c r="BO71" s="6">
+        <v>95</v>
+      </c>
+      <c r="BP71" s="6">
+        <v>99</v>
+      </c>
     </row>
-    <row r="72" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B72" s="5">
         <v>2174</v>
@@ -15075,10 +15920,22 @@
       <c r="BL72" s="6">
         <v>0</v>
       </c>
+      <c r="BM72" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN72" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO72" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP72" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B73" s="5">
         <v>200285</v>
@@ -15269,10 +16126,22 @@
       <c r="BL73" s="6">
         <v>188</v>
       </c>
+      <c r="BM73" s="6">
+        <v>193</v>
+      </c>
+      <c r="BN73" s="6">
+        <v>202</v>
+      </c>
+      <c r="BO73" s="6">
+        <v>202</v>
+      </c>
+      <c r="BP73" s="6">
+        <v>211</v>
+      </c>
     </row>
-    <row r="74" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B74" s="5">
         <v>952366</v>
@@ -15463,10 +16332,22 @@
       <c r="BL74" s="6">
         <v>1119</v>
       </c>
+      <c r="BM74" s="6">
+        <v>1190</v>
+      </c>
+      <c r="BN74" s="6">
+        <v>1276</v>
+      </c>
+      <c r="BO74" s="6">
+        <v>1322</v>
+      </c>
+      <c r="BP74" s="6">
+        <v>1340</v>
+      </c>
     </row>
-    <row r="75" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B75" s="5">
         <v>41649</v>
@@ -15657,10 +16538,22 @@
       <c r="BL75" s="6">
         <v>15</v>
       </c>
+      <c r="BM75" s="6">
+        <v>14</v>
+      </c>
+      <c r="BN75" s="6">
+        <v>14</v>
+      </c>
+      <c r="BO75" s="6">
+        <v>14</v>
+      </c>
+      <c r="BP75" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="76" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B76" s="5">
         <v>19236</v>
@@ -15851,10 +16744,22 @@
       <c r="BL76" s="6">
         <v>6</v>
       </c>
+      <c r="BM76" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN76" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO76" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP76" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B77" s="5">
         <v>37727</v>
@@ -16045,10 +16950,22 @@
       <c r="BL77" s="6">
         <v>23</v>
       </c>
+      <c r="BM77" s="6">
+        <v>23</v>
+      </c>
+      <c r="BN77" s="6">
+        <v>23</v>
+      </c>
+      <c r="BO77" s="6">
+        <v>23</v>
+      </c>
+      <c r="BP77" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="78" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B78" s="5">
         <v>28422</v>
@@ -16239,10 +17156,22 @@
       <c r="BL78" s="6">
         <v>19</v>
       </c>
+      <c r="BM78" s="6">
+        <v>21</v>
+      </c>
+      <c r="BN78" s="6">
+        <v>24</v>
+      </c>
+      <c r="BO78" s="6">
+        <v>25</v>
+      </c>
+      <c r="BP78" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="79" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B79" s="5">
         <v>3913</v>
@@ -16433,10 +17362,22 @@
       <c r="BL79" s="6">
         <v>0</v>
       </c>
+      <c r="BM79" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN79" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO79" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP79" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B80" s="5">
         <v>6688</v>
@@ -16627,10 +17568,22 @@
       <c r="BL80" s="6">
         <v>4</v>
       </c>
+      <c r="BM80" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN80" s="6">
+        <v>4</v>
+      </c>
+      <c r="BO80" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP80" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="81" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B81" s="5">
         <v>1365</v>
@@ -16821,10 +17774,22 @@
       <c r="BL81" s="6">
         <v>0</v>
       </c>
+      <c r="BM81" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN81" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO81" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP81" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B82" s="5">
         <v>888595</v>
@@ -17015,10 +17980,22 @@
       <c r="BL82" s="6">
         <v>1287</v>
       </c>
+      <c r="BM82" s="6">
+        <v>1332</v>
+      </c>
+      <c r="BN82" s="6">
+        <v>1357</v>
+      </c>
+      <c r="BO82" s="6">
+        <v>1370</v>
+      </c>
+      <c r="BP82" s="6">
+        <v>1385</v>
+      </c>
     </row>
-    <row r="83" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B83" s="5">
         <v>11838</v>
@@ -17209,10 +18186,22 @@
       <c r="BL83" s="6">
         <v>3</v>
       </c>
+      <c r="BM83" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN83" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO83" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP83" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="84" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B84" s="5">
         <v>21997</v>
@@ -17403,10 +18392,22 @@
       <c r="BL84" s="6">
         <v>7</v>
       </c>
+      <c r="BM84" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN84" s="6">
+        <v>7</v>
+      </c>
+      <c r="BO84" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP84" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="85" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B85" s="5">
         <v>20080</v>
@@ -17597,10 +18598,22 @@
       <c r="BL85" s="6">
         <v>25</v>
       </c>
+      <c r="BM85" s="6">
+        <v>25</v>
+      </c>
+      <c r="BN85" s="6">
+        <v>34</v>
+      </c>
+      <c r="BO85" s="6">
+        <v>34</v>
+      </c>
+      <c r="BP85" s="6">
+        <v>34</v>
+      </c>
     </row>
-    <row r="86" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B86" s="5">
         <v>21681</v>
@@ -17791,10 +18804,22 @@
       <c r="BL86" s="6">
         <v>3</v>
       </c>
+      <c r="BM86" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN86" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO86" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP86" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="87" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B87" s="5">
         <v>335006</v>
@@ -17985,10 +19010,22 @@
       <c r="BL87" s="6">
         <v>669</v>
       </c>
+      <c r="BM87" s="6">
+        <v>672</v>
+      </c>
+      <c r="BN87" s="6">
+        <v>676</v>
+      </c>
+      <c r="BO87" s="6">
+        <v>680</v>
+      </c>
+      <c r="BP87" s="6">
+        <v>685</v>
+      </c>
     </row>
-    <row r="88" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B88" s="5">
         <v>6969</v>
@@ -18179,10 +19216,22 @@
       <c r="BL88" s="6">
         <v>3</v>
       </c>
+      <c r="BM88" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN88" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO88" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP88" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="89" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B89" s="5">
         <v>29929</v>
@@ -18373,10 +19422,22 @@
       <c r="BL89" s="6">
         <v>4</v>
       </c>
+      <c r="BM89" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN89" s="6">
+        <v>4</v>
+      </c>
+      <c r="BO89" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP89" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B90" s="5">
         <v>1351</v>
@@ -18567,10 +19628,22 @@
       <c r="BL90" s="6">
         <v>1</v>
       </c>
+      <c r="BM90" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN90" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO90" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP90" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B91" s="5">
         <v>8518</v>
@@ -18761,10 +19834,22 @@
       <c r="BL91" s="6">
         <v>7</v>
       </c>
+      <c r="BM91" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN91" s="6">
+        <v>7</v>
+      </c>
+      <c r="BO91" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP91" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="92" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B92" s="5">
         <v>22345</v>
@@ -18955,10 +20040,22 @@
       <c r="BL92" s="6">
         <v>31</v>
       </c>
+      <c r="BM92" s="6">
+        <v>31</v>
+      </c>
+      <c r="BN92" s="6">
+        <v>40</v>
+      </c>
+      <c r="BO92" s="6">
+        <v>53</v>
+      </c>
+      <c r="BP92" s="6">
+        <v>59</v>
+      </c>
     </row>
-    <row r="93" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B93" s="5">
         <v>24928</v>
@@ -19149,10 +20246,22 @@
       <c r="BL93" s="6">
         <v>73</v>
       </c>
+      <c r="BM93" s="6">
+        <v>73</v>
+      </c>
+      <c r="BN93" s="6">
+        <v>73</v>
+      </c>
+      <c r="BO93" s="6">
+        <v>75</v>
+      </c>
+      <c r="BP93" s="6">
+        <v>75</v>
+      </c>
     </row>
-    <row r="94" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B94" s="5">
         <v>133647</v>
@@ -19343,10 +20452,22 @@
       <c r="BL94" s="6">
         <v>60</v>
       </c>
+      <c r="BM94" s="6">
+        <v>78</v>
+      </c>
+      <c r="BN94" s="6">
+        <v>83</v>
+      </c>
+      <c r="BO94" s="6">
+        <v>89</v>
+      </c>
+      <c r="BP94" s="6">
+        <v>91</v>
+      </c>
     </row>
-    <row r="95" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B95" s="5">
         <v>136671</v>
@@ -19537,10 +20658,22 @@
       <c r="BL95" s="6">
         <v>109</v>
       </c>
+      <c r="BM95" s="6">
+        <v>117</v>
+      </c>
+      <c r="BN95" s="6">
+        <v>117</v>
+      </c>
+      <c r="BO95" s="6">
+        <v>118</v>
+      </c>
+      <c r="BP95" s="6">
+        <v>118</v>
+      </c>
     </row>
-    <row r="96" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B96" s="5">
         <v>30863</v>
@@ -19731,10 +20864,22 @@
       <c r="BL96" s="6">
         <v>25</v>
       </c>
+      <c r="BM96" s="6">
+        <v>37</v>
+      </c>
+      <c r="BN96" s="6">
+        <v>42</v>
+      </c>
+      <c r="BO96" s="6">
+        <v>42</v>
+      </c>
+      <c r="BP96" s="6">
+        <v>42</v>
+      </c>
     </row>
-    <row r="97" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B97" s="5">
         <v>182526</v>
@@ -19925,10 +21070,22 @@
       <c r="BL97" s="6">
         <v>90</v>
       </c>
+      <c r="BM97" s="6">
+        <v>92</v>
+      </c>
+      <c r="BN97" s="6">
+        <v>92</v>
+      </c>
+      <c r="BO97" s="6">
+        <v>95</v>
+      </c>
+      <c r="BP97" s="6">
+        <v>97</v>
+      </c>
     </row>
-    <row r="98" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B98" s="5">
         <v>38415</v>
@@ -20119,10 +21276,22 @@
       <c r="BL98" s="6">
         <v>37</v>
       </c>
+      <c r="BM98" s="6">
+        <v>37</v>
+      </c>
+      <c r="BN98" s="6">
+        <v>37</v>
+      </c>
+      <c r="BO98" s="6">
+        <v>37</v>
+      </c>
+      <c r="BP98" s="6">
+        <v>37</v>
+      </c>
     </row>
-    <row r="99" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B99" s="5">
         <v>3320</v>
@@ -20313,10 +21482,22 @@
       <c r="BL99" s="6">
         <v>0</v>
       </c>
+      <c r="BM99" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN99" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO99" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP99" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B100" s="5">
         <v>8802</v>
@@ -20507,10 +21688,22 @@
       <c r="BL100" s="6">
         <v>5</v>
       </c>
+      <c r="BM100" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN100" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO100" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP100" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="101" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B101" s="5">
         <v>6513</v>
@@ -20701,10 +21894,22 @@
       <c r="BL101" s="6">
         <v>11</v>
       </c>
+      <c r="BM101" s="6">
+        <v>12</v>
+      </c>
+      <c r="BN101" s="6">
+        <v>12</v>
+      </c>
+      <c r="BO101" s="6">
+        <v>12</v>
+      </c>
+      <c r="BP101" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="102" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B102" s="5">
         <v>4456</v>
@@ -20895,10 +22100,22 @@
       <c r="BL102" s="6">
         <v>0</v>
       </c>
+      <c r="BM102" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN102" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO102" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP102" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B103" s="5">
         <v>62163</v>
@@ -21089,10 +22306,22 @@
       <c r="BL103" s="6">
         <v>113</v>
       </c>
+      <c r="BM103" s="6">
+        <v>113</v>
+      </c>
+      <c r="BN103" s="6">
+        <v>113</v>
+      </c>
+      <c r="BO103" s="6">
+        <v>115</v>
+      </c>
+      <c r="BP103" s="6">
+        <v>115</v>
+      </c>
     </row>
-    <row r="104" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B104" s="5">
         <v>4885616</v>
@@ -21283,10 +22512,22 @@
       <c r="BL104" s="6">
         <v>7244</v>
       </c>
+      <c r="BM104" s="6">
+        <v>7377</v>
+      </c>
+      <c r="BN104" s="6">
+        <v>7594</v>
+      </c>
+      <c r="BO104" s="6">
+        <v>7803</v>
+      </c>
+      <c r="BP104" s="6">
+        <v>7878</v>
+      </c>
     </row>
-    <row r="105" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B105" s="5">
         <v>72253</v>
@@ -21477,10 +22718,22 @@
       <c r="BL105" s="6">
         <v>167</v>
       </c>
+      <c r="BM105" s="6">
+        <v>180</v>
+      </c>
+      <c r="BN105" s="6">
+        <v>180</v>
+      </c>
+      <c r="BO105" s="6">
+        <v>186</v>
+      </c>
+      <c r="BP105" s="6">
+        <v>186</v>
+      </c>
     </row>
-    <row r="106" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B106" s="5">
         <v>6321</v>
@@ -21671,10 +22924,22 @@
       <c r="BL106" s="6">
         <v>7</v>
       </c>
+      <c r="BM106" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN106" s="6">
+        <v>8</v>
+      </c>
+      <c r="BO106" s="6">
+        <v>8</v>
+      </c>
+      <c r="BP106" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="107" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B107" s="5">
         <v>6072</v>
@@ -21865,10 +23130,22 @@
       <c r="BL107" s="6">
         <v>0</v>
       </c>
+      <c r="BM107" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN107" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO107" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP107" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B108" s="5">
         <v>246119</v>
@@ -22059,10 +23336,22 @@
       <c r="BL108" s="6">
         <v>176</v>
       </c>
+      <c r="BM108" s="6">
+        <v>195</v>
+      </c>
+      <c r="BN108" s="6">
+        <v>203</v>
+      </c>
+      <c r="BO108" s="6">
+        <v>203</v>
+      </c>
+      <c r="BP108" s="6">
+        <v>203</v>
+      </c>
     </row>
-    <row r="109" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B109" s="5">
         <v>4389</v>
@@ -22253,10 +23542,22 @@
       <c r="BL109" s="6">
         <v>1</v>
       </c>
+      <c r="BM109" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN109" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO109" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP109" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B110" s="5">
         <v>84178</v>
@@ -22447,10 +23748,22 @@
       <c r="BL110" s="6">
         <v>34</v>
       </c>
+      <c r="BM110" s="6">
+        <v>36</v>
+      </c>
+      <c r="BN110" s="6">
+        <v>36</v>
+      </c>
+      <c r="BO110" s="6">
+        <v>41</v>
+      </c>
+      <c r="BP110" s="6">
+        <v>41</v>
+      </c>
     </row>
-    <row r="111" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B111" s="5">
         <v>1005539</v>
@@ -22641,10 +23954,22 @@
       <c r="BL111" s="6">
         <v>359</v>
       </c>
+      <c r="BM111" s="6">
+        <v>368</v>
+      </c>
+      <c r="BN111" s="6">
+        <v>377</v>
+      </c>
+      <c r="BO111" s="6">
+        <v>387</v>
+      </c>
+      <c r="BP111" s="6">
+        <v>389</v>
+      </c>
     </row>
-    <row r="112" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B112" s="5">
         <v>39349</v>
@@ -22835,10 +24160,22 @@
       <c r="BL112" s="6">
         <v>18</v>
       </c>
+      <c r="BM112" s="6">
+        <v>19</v>
+      </c>
+      <c r="BN112" s="6">
+        <v>19</v>
+      </c>
+      <c r="BO112" s="6">
+        <v>19</v>
+      </c>
+      <c r="BP112" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="113" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B113" s="5">
         <v>24916</v>
@@ -23029,10 +24366,22 @@
       <c r="BL113" s="6">
         <v>19</v>
       </c>
+      <c r="BM113" s="6">
+        <v>20</v>
+      </c>
+      <c r="BN113" s="6">
+        <v>20</v>
+      </c>
+      <c r="BO113" s="6">
+        <v>20</v>
+      </c>
+      <c r="BP113" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="114" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B114" s="5">
         <v>61274</v>
@@ -23223,10 +24572,22 @@
       <c r="BL114" s="6">
         <v>19</v>
       </c>
+      <c r="BM114" s="6">
+        <v>19</v>
+      </c>
+      <c r="BN114" s="6">
+        <v>19</v>
+      </c>
+      <c r="BO114" s="6">
+        <v>19</v>
+      </c>
+      <c r="BP114" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="115" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B115" s="5">
         <v>38504</v>
@@ -23417,10 +24778,22 @@
       <c r="BL115" s="6">
         <v>7</v>
       </c>
+      <c r="BM115" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN115" s="6">
+        <v>7</v>
+      </c>
+      <c r="BO115" s="6">
+        <v>8</v>
+      </c>
+      <c r="BP115" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="116" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B116" s="5">
         <v>25147</v>
@@ -23611,10 +24984,22 @@
       <c r="BL116" s="6">
         <v>10</v>
       </c>
+      <c r="BM116" s="6">
+        <v>10</v>
+      </c>
+      <c r="BN116" s="6">
+        <v>10</v>
+      </c>
+      <c r="BO116" s="6">
+        <v>13</v>
+      </c>
+      <c r="BP116" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="117" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B117" s="5">
         <v>37715</v>
@@ -23805,10 +25190,22 @@
       <c r="BL117" s="6">
         <v>6</v>
       </c>
+      <c r="BM117" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN117" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO117" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP117" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="118" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B118" s="5">
         <v>3981</v>
@@ -23999,10 +25396,22 @@
       <c r="BL118" s="6">
         <v>0</v>
       </c>
+      <c r="BM118" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN118" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO118" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP118" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B119" s="5">
         <v>101894</v>
@@ -24193,10 +25602,22 @@
       <c r="BL119" s="6">
         <v>54</v>
       </c>
+      <c r="BM119" s="6">
+        <v>56</v>
+      </c>
+      <c r="BN119" s="6">
+        <v>57</v>
+      </c>
+      <c r="BO119" s="6">
+        <v>57</v>
+      </c>
+      <c r="BP119" s="6">
+        <v>57</v>
+      </c>
     </row>
-    <row r="120" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B120" s="5">
         <v>22540</v>
@@ -24387,10 +25808,22 @@
       <c r="BL120" s="6">
         <v>19</v>
       </c>
+      <c r="BM120" s="6">
+        <v>19</v>
+      </c>
+      <c r="BN120" s="6">
+        <v>20</v>
+      </c>
+      <c r="BO120" s="6">
+        <v>21</v>
+      </c>
+      <c r="BP120" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="121" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B121" s="5">
         <v>1712</v>
@@ -24581,10 +26014,22 @@
       <c r="BL121" s="6">
         <v>0</v>
       </c>
+      <c r="BM121" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN121" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO121" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP121" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B122" s="5">
         <v>9689</v>
@@ -24775,10 +26220,22 @@
       <c r="BL122" s="6">
         <v>4</v>
       </c>
+      <c r="BM122" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN122" s="6">
+        <v>4</v>
+      </c>
+      <c r="BO122" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP122" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B123" s="5">
         <v>14356</v>
@@ -24969,10 +26426,22 @@
       <c r="BL123" s="6">
         <v>14</v>
       </c>
+      <c r="BM123" s="6">
+        <v>14</v>
+      </c>
+      <c r="BN123" s="6">
+        <v>14</v>
+      </c>
+      <c r="BO123" s="6">
+        <v>14</v>
+      </c>
+      <c r="BP123" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="124" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B124" s="5">
         <v>37167</v>
@@ -25163,10 +26632,22 @@
       <c r="BL124" s="6">
         <v>18</v>
       </c>
+      <c r="BM124" s="6">
+        <v>19</v>
+      </c>
+      <c r="BN124" s="6">
+        <v>19</v>
+      </c>
+      <c r="BO124" s="6">
+        <v>19</v>
+      </c>
+      <c r="BP124" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="125" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B125" s="5">
         <v>2478</v>
@@ -25357,10 +26838,22 @@
       <c r="BL125" s="6">
         <v>0</v>
       </c>
+      <c r="BM125" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN125" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO125" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP125" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B126" s="5">
         <v>268231</v>
@@ -25551,10 +27044,22 @@
       <c r="BL126" s="6">
         <v>336</v>
       </c>
+      <c r="BM126" s="6">
+        <v>353</v>
+      </c>
+      <c r="BN126" s="6">
+        <v>360</v>
+      </c>
+      <c r="BO126" s="6">
+        <v>376</v>
+      </c>
+      <c r="BP126" s="6">
+        <v>381</v>
+      </c>
     </row>
-    <row r="127" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B127" s="5">
         <v>5735</v>
@@ -25745,10 +27250,22 @@
       <c r="BL127" s="6">
         <v>3</v>
       </c>
+      <c r="BM127" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN127" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO127" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP127" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="128" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B128" s="5">
         <v>44487</v>
@@ -25939,10 +27456,22 @@
       <c r="BL128" s="6">
         <v>5</v>
       </c>
+      <c r="BM128" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN128" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO128" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP128" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="129" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B129" s="5">
         <v>186847</v>
@@ -26133,10 +27662,22 @@
       <c r="BL129" s="6">
         <v>97</v>
       </c>
+      <c r="BM129" s="6">
+        <v>99</v>
+      </c>
+      <c r="BN129" s="6">
+        <v>100</v>
+      </c>
+      <c r="BO129" s="6">
+        <v>100</v>
+      </c>
+      <c r="BP129" s="6">
+        <v>103</v>
+      </c>
     </row>
-    <row r="130" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B130" s="5">
         <v>22286</v>
@@ -26327,10 +27868,22 @@
       <c r="BL130" s="6">
         <v>84</v>
       </c>
+      <c r="BM130" s="6">
+        <v>87</v>
+      </c>
+      <c r="BN130" s="6">
+        <v>92</v>
+      </c>
+      <c r="BO130" s="6">
+        <v>92</v>
+      </c>
+      <c r="BP130" s="6">
+        <v>95</v>
+      </c>
     </row>
-    <row r="131" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B131" s="5">
         <v>16265</v>
@@ -26521,10 +28074,22 @@
       <c r="BL131" s="6">
         <v>3</v>
       </c>
+      <c r="BM131" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN131" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO131" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP131" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="132" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B132" s="5">
         <v>149063</v>
@@ -26715,10 +28280,22 @@
       <c r="BL132" s="6">
         <v>106</v>
       </c>
+      <c r="BM132" s="6">
+        <v>111</v>
+      </c>
+      <c r="BN132" s="6">
+        <v>116</v>
+      </c>
+      <c r="BO132" s="6">
+        <v>116</v>
+      </c>
+      <c r="BP132" s="6">
+        <v>120</v>
+      </c>
     </row>
-    <row r="133" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B133" s="5">
         <v>44958</v>
@@ -26909,10 +28486,22 @@
       <c r="BL133" s="6">
         <v>18</v>
       </c>
+      <c r="BM133" s="6">
+        <v>18</v>
+      </c>
+      <c r="BN133" s="6">
+        <v>19</v>
+      </c>
+      <c r="BO133" s="6">
+        <v>19</v>
+      </c>
+      <c r="BP133" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="134" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B134" s="5">
         <v>462</v>
@@ -27103,10 +28692,22 @@
       <c r="BL134" s="6">
         <v>0</v>
       </c>
+      <c r="BM134" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN134" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO134" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP134" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B135" s="5">
         <v>809</v>
@@ -27297,10 +28898,22 @@
       <c r="BL135" s="6">
         <v>0</v>
       </c>
+      <c r="BM135" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN135" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO135" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP135" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B136" s="5">
         <v>57004</v>
@@ -27491,10 +29104,22 @@
       <c r="BL136" s="6">
         <v>6</v>
       </c>
+      <c r="BM136" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN136" s="6">
+        <v>9</v>
+      </c>
+      <c r="BO136" s="6">
+        <v>9</v>
+      </c>
+      <c r="BP136" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="137" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B137" s="5">
         <v>5052</v>
@@ -27685,10 +29310,22 @@
       <c r="BL137" s="6">
         <v>0</v>
       </c>
+      <c r="BM137" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN137" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO137" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP137" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B138" s="5">
         <v>299</v>
@@ -27879,10 +29516,22 @@
       <c r="BL138" s="6">
         <v>0</v>
       </c>
+      <c r="BM138" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN138" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO138" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP138" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B139" s="5">
         <v>3816</v>
@@ -28073,10 +29722,22 @@
       <c r="BL139" s="6">
         <v>0</v>
       </c>
+      <c r="BM139" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN139" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO139" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP139" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B140" s="5">
         <v>35499</v>
@@ -28267,10 +29928,22 @@
       <c r="BL140" s="6">
         <v>10</v>
       </c>
+      <c r="BM140" s="6">
+        <v>10</v>
+      </c>
+      <c r="BN140" s="6">
+        <v>10</v>
+      </c>
+      <c r="BO140" s="6">
+        <v>11</v>
+      </c>
+      <c r="BP140" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="141" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B141" s="5">
         <v>3762</v>
@@ -28461,10 +30134,22 @@
       <c r="BL141" s="6">
         <v>1</v>
       </c>
+      <c r="BM141" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN141" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO141" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP141" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B142" s="5">
         <v>53136</v>
@@ -28655,10 +30340,22 @@
       <c r="BL142" s="6">
         <v>76</v>
       </c>
+      <c r="BM142" s="6">
+        <v>77</v>
+      </c>
+      <c r="BN142" s="6">
+        <v>77</v>
+      </c>
+      <c r="BO142" s="6">
+        <v>89</v>
+      </c>
+      <c r="BP142" s="6">
+        <v>89</v>
+      </c>
     </row>
-    <row r="143" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B143" s="5">
         <v>14620</v>
@@ -28849,10 +30546,22 @@
       <c r="BL143" s="6">
         <v>5</v>
       </c>
+      <c r="BM143" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN143" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO143" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP143" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="144" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B144" s="5">
         <v>23399</v>
@@ -29043,10 +30752,22 @@
       <c r="BL144" s="6">
         <v>6</v>
       </c>
+      <c r="BM144" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN144" s="6">
+        <v>8</v>
+      </c>
+      <c r="BO144" s="6">
+        <v>8</v>
+      </c>
+      <c r="BP144" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="145" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B145" s="5">
         <v>8210</v>
@@ -29237,10 +30958,22 @@
       <c r="BL145" s="6">
         <v>1</v>
       </c>
+      <c r="BM145" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN145" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO145" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP145" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="146" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B146" s="5">
         <v>19830</v>
@@ -29431,10 +31164,22 @@
       <c r="BL146" s="6">
         <v>6</v>
       </c>
+      <c r="BM146" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN146" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO146" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP146" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="147" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B147" s="5">
         <v>19104</v>
@@ -29625,10 +31370,22 @@
       <c r="BL147" s="6">
         <v>2</v>
       </c>
+      <c r="BM147" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN147" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO147" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP147" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="148" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B148" s="5">
         <v>19495</v>
@@ -29819,10 +31576,22 @@
       <c r="BL148" s="6">
         <v>7</v>
       </c>
+      <c r="BM148" s="6">
+        <v>9</v>
+      </c>
+      <c r="BN148" s="6">
+        <v>9</v>
+      </c>
+      <c r="BO148" s="6">
+        <v>9</v>
+      </c>
+      <c r="BP148" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="149" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B149" s="5">
         <v>90780</v>
@@ -30013,10 +31782,22 @@
       <c r="BL149" s="6">
         <v>48</v>
       </c>
+      <c r="BM149" s="6">
+        <v>49</v>
+      </c>
+      <c r="BN149" s="6">
+        <v>62</v>
+      </c>
+      <c r="BO149" s="6">
+        <v>64</v>
+      </c>
+      <c r="BP149" s="6">
+        <v>66</v>
+      </c>
     </row>
-    <row r="150" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B150" s="5">
         <v>26085</v>
@@ -30207,10 +31988,22 @@
       <c r="BL150" s="6">
         <v>13</v>
       </c>
+      <c r="BM150" s="6">
+        <v>13</v>
+      </c>
+      <c r="BN150" s="6">
+        <v>14</v>
+      </c>
+      <c r="BO150" s="6">
+        <v>15</v>
+      </c>
+      <c r="BP150" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="151" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B151" s="5">
         <v>3797</v>
@@ -30401,10 +32194,22 @@
       <c r="BL151" s="6">
         <v>2</v>
       </c>
+      <c r="BM151" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN151" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO151" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP151" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B152" s="5">
         <v>11854</v>
@@ -30595,10 +32400,22 @@
       <c r="BL152" s="6">
         <v>5</v>
       </c>
+      <c r="BM152" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN152" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO152" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP152" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="153" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B153" s="5">
         <v>21407</v>
@@ -30789,10 +32606,22 @@
       <c r="BL153" s="6">
         <v>3</v>
       </c>
+      <c r="BM153" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN153" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO153" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP153" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="154" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B154" s="5">
         <v>81</v>
@@ -30983,10 +32812,22 @@
       <c r="BL154" s="6">
         <v>0</v>
       </c>
+      <c r="BM154" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN154" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO154" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP154" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B155" s="5">
         <v>313938</v>
@@ -31177,10 +33018,22 @@
       <c r="BL155" s="6">
         <v>575</v>
       </c>
+      <c r="BM155" s="6">
+        <v>582</v>
+      </c>
+      <c r="BN155" s="6">
+        <v>583</v>
+      </c>
+      <c r="BO155" s="6">
+        <v>589</v>
+      </c>
+      <c r="BP155" s="6">
+        <v>592</v>
+      </c>
     </row>
-    <row r="156" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B156" s="5">
         <v>6239</v>
@@ -31371,10 +33224,22 @@
       <c r="BL156" s="6">
         <v>5</v>
       </c>
+      <c r="BM156" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN156" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO156" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP156" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="157" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B157" s="5">
         <v>9040</v>
@@ -31565,10 +33430,22 @@
       <c r="BL157" s="6">
         <v>3</v>
       </c>
+      <c r="BM157" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN157" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO157" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP157" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="158" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B158" s="5">
         <v>255521</v>
@@ -31759,10 +33636,22 @@
       <c r="BL158" s="6">
         <v>92</v>
       </c>
+      <c r="BM158" s="6">
+        <v>94</v>
+      </c>
+      <c r="BN158" s="6">
+        <v>94</v>
+      </c>
+      <c r="BO158" s="6">
+        <v>94</v>
+      </c>
+      <c r="BP158" s="6">
+        <v>94</v>
+      </c>
     </row>
-    <row r="159" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B159" s="5">
         <v>771</v>
@@ -31953,10 +33842,22 @@
       <c r="BL159" s="6">
         <v>0</v>
       </c>
+      <c r="BM159" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN159" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO159" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP159" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B160" s="5">
         <v>15654</v>
@@ -32147,10 +34048,22 @@
       <c r="BL160" s="6">
         <v>2</v>
       </c>
+      <c r="BM160" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN160" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO160" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP160" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="161" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B161" s="5">
         <v>11384</v>
@@ -32341,10 +34254,22 @@
       <c r="BL161" s="6">
         <v>15</v>
       </c>
+      <c r="BM161" s="6">
+        <v>16</v>
+      </c>
+      <c r="BN161" s="6">
+        <v>16</v>
+      </c>
+      <c r="BO161" s="6">
+        <v>15</v>
+      </c>
+      <c r="BP161" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="162" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B162" s="5">
         <v>5606</v>
@@ -32535,10 +34460,22 @@
       <c r="BL162" s="6">
         <v>3</v>
       </c>
+      <c r="BM162" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN162" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO162" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP162" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="163" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B163" s="5">
         <v>4211</v>
@@ -32729,10 +34666,22 @@
       <c r="BL163" s="6">
         <v>28</v>
       </c>
+      <c r="BM163" s="6">
+        <v>28</v>
+      </c>
+      <c r="BN163" s="6">
+        <v>28</v>
+      </c>
+      <c r="BO163" s="6">
+        <v>28</v>
+      </c>
+      <c r="BP163" s="6">
+        <v>28</v>
+      </c>
     </row>
-    <row r="164" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B164" s="5">
         <v>39696</v>
@@ -32923,10 +34872,22 @@
       <c r="BL164" s="6">
         <v>62</v>
       </c>
+      <c r="BM164" s="6">
+        <v>62</v>
+      </c>
+      <c r="BN164" s="6">
+        <v>62</v>
+      </c>
+      <c r="BO164" s="6">
+        <v>62</v>
+      </c>
+      <c r="BP164" s="6">
+        <v>62</v>
+      </c>
     </row>
-    <row r="165" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B165" s="5">
         <v>63502</v>
@@ -33117,10 +35078,22 @@
       <c r="BL165" s="6">
         <v>26</v>
       </c>
+      <c r="BM165" s="6">
+        <v>26</v>
+      </c>
+      <c r="BN165" s="6">
+        <v>26</v>
+      </c>
+      <c r="BO165" s="6">
+        <v>26</v>
+      </c>
+      <c r="BP165" s="6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="166" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B166" s="5">
         <v>56907</v>
@@ -33311,10 +35284,22 @@
       <c r="BL166" s="6">
         <v>21</v>
       </c>
+      <c r="BM166" s="6">
+        <v>22</v>
+      </c>
+      <c r="BN166" s="6">
+        <v>22</v>
+      </c>
+      <c r="BO166" s="6">
+        <v>31</v>
+      </c>
+      <c r="BP166" s="6">
+        <v>32</v>
+      </c>
     </row>
-    <row r="167" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B167" s="5">
         <v>2406</v>
@@ -33505,10 +35490,22 @@
       <c r="BL167" s="6">
         <v>0</v>
       </c>
+      <c r="BM167" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN167" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO167" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP167" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B168" s="5">
         <v>159256</v>
@@ -33699,10 +35696,22 @@
       <c r="BL168" s="6">
         <v>94</v>
       </c>
+      <c r="BM168" s="6">
+        <v>100</v>
+      </c>
+      <c r="BN168" s="6">
+        <v>101</v>
+      </c>
+      <c r="BO168" s="6">
+        <v>101</v>
+      </c>
+      <c r="BP168" s="6">
+        <v>101</v>
+      </c>
     </row>
-    <row r="169" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B169" s="5">
         <v>26786</v>
@@ -33893,10 +35902,22 @@
       <c r="BL169" s="6">
         <v>18</v>
       </c>
+      <c r="BM169" s="6">
+        <v>18</v>
+      </c>
+      <c r="BN169" s="6">
+        <v>20</v>
+      </c>
+      <c r="BO169" s="6">
+        <v>20</v>
+      </c>
+      <c r="BP169" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="170" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B170" s="5">
         <v>5240</v>
@@ -34087,10 +36108,22 @@
       <c r="BL170" s="6">
         <v>0</v>
       </c>
+      <c r="BM170" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN170" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO170" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP170" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B171" s="5">
         <v>10050</v>
@@ -34281,10 +36314,22 @@
       <c r="BL171" s="6">
         <v>1</v>
       </c>
+      <c r="BM171" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN171" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO171" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP171" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B172" s="5">
         <v>21462</v>
@@ -34475,10 +36520,22 @@
       <c r="BL172" s="6">
         <v>9</v>
       </c>
+      <c r="BM172" s="6">
+        <v>9</v>
+      </c>
+      <c r="BN172" s="6">
+        <v>9</v>
+      </c>
+      <c r="BO172" s="6">
+        <v>9</v>
+      </c>
+      <c r="BP172" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="173" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B173" s="5">
         <v>660481</v>
@@ -34669,10 +36726,22 @@
       <c r="BL173" s="6">
         <v>672</v>
       </c>
+      <c r="BM173" s="6">
+        <v>689</v>
+      </c>
+      <c r="BN173" s="6">
+        <v>699</v>
+      </c>
+      <c r="BO173" s="6">
+        <v>699</v>
+      </c>
+      <c r="BP173" s="6">
+        <v>699</v>
+      </c>
     </row>
-    <row r="174" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B174" s="5">
         <v>25817</v>
@@ -34863,10 +36932,22 @@
       <c r="BL174" s="6">
         <v>454</v>
       </c>
+      <c r="BM174" s="6">
+        <v>487</v>
+      </c>
+      <c r="BN174" s="6">
+        <v>494</v>
+      </c>
+      <c r="BO174" s="6">
+        <v>527</v>
+      </c>
+      <c r="BP174" s="6">
+        <v>526</v>
+      </c>
     </row>
-    <row r="175" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B175" s="5">
         <v>13917</v>
@@ -35057,10 +37138,22 @@
       <c r="BL175" s="6">
         <v>9</v>
       </c>
+      <c r="BM175" s="6">
+        <v>9</v>
+      </c>
+      <c r="BN175" s="6">
+        <v>9</v>
+      </c>
+      <c r="BO175" s="6">
+        <v>9</v>
+      </c>
+      <c r="BP175" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="176" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B176" s="5">
         <v>1196</v>
@@ -35251,10 +37344,22 @@
       <c r="BL176" s="6">
         <v>1</v>
       </c>
+      <c r="BM176" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN176" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO176" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP176" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B177" s="5">
         <v>73458</v>
@@ -35445,10 +37550,22 @@
       <c r="BL177" s="6">
         <v>202</v>
       </c>
+      <c r="BM177" s="6">
+        <v>202</v>
+      </c>
+      <c r="BN177" s="6">
+        <v>202</v>
+      </c>
+      <c r="BO177" s="6">
+        <v>206</v>
+      </c>
+      <c r="BP177" s="6">
+        <v>211</v>
+      </c>
     </row>
-    <row r="178" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B178" s="5">
         <v>55437</v>
@@ -35639,10 +37756,22 @@
       <c r="BL178" s="6">
         <v>34</v>
       </c>
+      <c r="BM178" s="6">
+        <v>36</v>
+      </c>
+      <c r="BN178" s="6">
+        <v>36</v>
+      </c>
+      <c r="BO178" s="6">
+        <v>36</v>
+      </c>
+      <c r="BP178" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="179" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B179" s="5">
         <v>14314</v>
@@ -35833,10 +37962,22 @@
       <c r="BL179" s="6">
         <v>4</v>
       </c>
+      <c r="BM179" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN179" s="6">
+        <v>4</v>
+      </c>
+      <c r="BO179" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP179" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="180" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B180" s="5">
         <v>16176</v>
@@ -36027,10 +38168,22 @@
       <c r="BL180" s="6">
         <v>2</v>
       </c>
+      <c r="BM180" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN180" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO180" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP180" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="181" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B181" s="5">
         <v>376623</v>
@@ -36221,10 +38374,22 @@
       <c r="BL181" s="6">
         <v>117</v>
       </c>
+      <c r="BM181" s="6">
+        <v>123</v>
+      </c>
+      <c r="BN181" s="6">
+        <v>128</v>
+      </c>
+      <c r="BO181" s="6">
+        <v>129</v>
+      </c>
+      <c r="BP181" s="6">
+        <v>132</v>
+      </c>
     </row>
-    <row r="182" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B182" s="5">
         <v>12755</v>
@@ -36415,10 +38580,22 @@
       <c r="BL182" s="6">
         <v>28</v>
       </c>
+      <c r="BM182" s="6">
+        <v>29</v>
+      </c>
+      <c r="BN182" s="6">
+        <v>29</v>
+      </c>
+      <c r="BO182" s="6">
+        <v>29</v>
+      </c>
+      <c r="BP182" s="6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="183" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B183" s="5">
         <v>2233</v>
@@ -36609,10 +38786,22 @@
       <c r="BL183" s="6">
         <v>3</v>
       </c>
+      <c r="BM183" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN183" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO183" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP183" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="184" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B184" s="5">
         <v>88026</v>
@@ -36803,10 +38992,22 @@
       <c r="BL184" s="6">
         <v>81</v>
       </c>
+      <c r="BM184" s="6">
+        <v>81</v>
+      </c>
+      <c r="BN184" s="6">
+        <v>85</v>
+      </c>
+      <c r="BO184" s="6">
+        <v>85</v>
+      </c>
+      <c r="BP184" s="6">
+        <v>85</v>
+      </c>
     </row>
-    <row r="185" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B185" s="5">
         <v>31708</v>
@@ -36997,10 +39198,22 @@
       <c r="BL185" s="6">
         <v>9</v>
       </c>
+      <c r="BM185" s="6">
+        <v>9</v>
+      </c>
+      <c r="BN185" s="6">
+        <v>9</v>
+      </c>
+      <c r="BO185" s="6">
+        <v>9</v>
+      </c>
+      <c r="BP185" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="186" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B186" s="5">
         <v>25965</v>
@@ -37191,10 +39404,22 @@
       <c r="BL186" s="6">
         <v>139</v>
       </c>
+      <c r="BM186" s="6">
+        <v>138</v>
+      </c>
+      <c r="BN186" s="6">
+        <v>138</v>
+      </c>
+      <c r="BO186" s="6">
+        <v>142</v>
+      </c>
+      <c r="BP186" s="6">
+        <v>144</v>
+      </c>
     </row>
-    <row r="187" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B187" s="5">
         <v>159119</v>
@@ -37385,10 +39610,22 @@
       <c r="BL187" s="6">
         <v>43</v>
       </c>
+      <c r="BM187" s="6">
+        <v>44</v>
+      </c>
+      <c r="BN187" s="6">
+        <v>45</v>
+      </c>
+      <c r="BO187" s="6">
+        <v>45</v>
+      </c>
+      <c r="BP187" s="6">
+        <v>45</v>
+      </c>
     </row>
-    <row r="188" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B188" s="5">
         <v>12385</v>
@@ -37579,10 +39816,22 @@
       <c r="BL188" s="6">
         <v>17</v>
       </c>
+      <c r="BM188" s="6">
+        <v>17</v>
+      </c>
+      <c r="BN188" s="6">
+        <v>19</v>
+      </c>
+      <c r="BO188" s="6">
+        <v>19</v>
+      </c>
+      <c r="BP188" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="189" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B189" s="5">
         <v>17026</v>
@@ -37773,10 +40022,22 @@
       <c r="BL189" s="6">
         <v>14</v>
       </c>
+      <c r="BM189" s="6">
+        <v>14</v>
+      </c>
+      <c r="BN189" s="6">
+        <v>15</v>
+      </c>
+      <c r="BO189" s="6">
+        <v>15</v>
+      </c>
+      <c r="BP189" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="190" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B190" s="5">
         <v>51908</v>
@@ -37967,10 +40228,22 @@
       <c r="BL190" s="6">
         <v>30</v>
       </c>
+      <c r="BM190" s="6">
+        <v>35</v>
+      </c>
+      <c r="BN190" s="6">
+        <v>35</v>
+      </c>
+      <c r="BO190" s="6">
+        <v>35</v>
+      </c>
+      <c r="BP190" s="6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="191" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B191" s="5">
         <v>134475</v>
@@ -38161,10 +40434,22 @@
       <c r="BL191" s="6">
         <v>971</v>
       </c>
+      <c r="BM191" s="6">
+        <v>1027</v>
+      </c>
+      <c r="BN191" s="6">
+        <v>1101</v>
+      </c>
+      <c r="BO191" s="6">
+        <v>1124</v>
+      </c>
+      <c r="BP191" s="6">
+        <v>1124</v>
+      </c>
     </row>
-    <row r="192" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B192" s="5">
         <v>8683</v>
@@ -38355,10 +40640,22 @@
       <c r="BL192" s="6">
         <v>0</v>
       </c>
+      <c r="BM192" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN192" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO192" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP192" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B193" s="5">
         <v>13134</v>
@@ -38549,10 +40846,22 @@
       <c r="BL193" s="6">
         <v>2</v>
       </c>
+      <c r="BM193" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN193" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO193" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP193" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="194" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B194" s="5">
         <v>142109</v>
@@ -38743,10 +41052,22 @@
       <c r="BL194" s="6">
         <v>333</v>
       </c>
+      <c r="BM194" s="6">
+        <v>343</v>
+      </c>
+      <c r="BN194" s="6">
+        <v>355</v>
+      </c>
+      <c r="BO194" s="6">
+        <v>358</v>
+      </c>
+      <c r="BP194" s="6">
+        <v>358</v>
+      </c>
     </row>
-    <row r="195" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B195" s="5">
         <v>3908</v>
@@ -38937,10 +41258,22 @@
       <c r="BL195" s="6">
         <v>0</v>
       </c>
+      <c r="BM195" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN195" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO195" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP195" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B196" s="5">
         <v>3439</v>
@@ -39131,10 +41464,22 @@
       <c r="BL196" s="6">
         <v>0</v>
       </c>
+      <c r="BM196" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN196" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO196" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP196" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B197" s="5">
         <v>13468</v>
@@ -39325,10 +41670,22 @@
       <c r="BL197" s="6">
         <v>2</v>
       </c>
+      <c r="BM197" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN197" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO197" s="6">
+        <v>9</v>
+      </c>
+      <c r="BP197" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="198" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B198" s="5">
         <v>14934</v>
@@ -39519,10 +41876,22 @@
       <c r="BL198" s="6">
         <v>0</v>
       </c>
+      <c r="BM198" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN198" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO198" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP198" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="199" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B199" s="5">
         <v>7514</v>
@@ -39713,10 +42082,22 @@
       <c r="BL199" s="6">
         <v>1</v>
       </c>
+      <c r="BM199" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN199" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO199" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP199" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="200" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B200" s="5">
         <v>994</v>
@@ -39907,10 +42288,22 @@
       <c r="BL200" s="6">
         <v>2</v>
       </c>
+      <c r="BM200" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN200" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO200" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP200" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B201" s="5">
         <v>19553</v>
@@ -40101,10 +42494,22 @@
       <c r="BL201" s="6">
         <v>5</v>
       </c>
+      <c r="BM201" s="6">
+        <v>5</v>
+      </c>
+      <c r="BN201" s="6">
+        <v>5</v>
+      </c>
+      <c r="BO201" s="6">
+        <v>5</v>
+      </c>
+      <c r="BP201" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="202" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B202" s="5">
         <v>115985</v>
@@ -40295,10 +42700,22 @@
       <c r="BL202" s="6">
         <v>96</v>
       </c>
+      <c r="BM202" s="6">
+        <v>100</v>
+      </c>
+      <c r="BN202" s="6">
+        <v>100</v>
+      </c>
+      <c r="BO202" s="6">
+        <v>100</v>
+      </c>
+      <c r="BP202" s="6">
+        <v>104</v>
+      </c>
     </row>
-    <row r="203" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B203" s="5">
         <v>11010</v>
@@ -40489,10 +42906,22 @@
       <c r="BL203" s="6">
         <v>2</v>
       </c>
+      <c r="BM203" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN203" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO203" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP203" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="204" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B204" s="5">
         <v>63351</v>
@@ -40683,10 +43112,22 @@
       <c r="BL204" s="6">
         <v>40</v>
       </c>
+      <c r="BM204" s="6">
+        <v>40</v>
+      </c>
+      <c r="BN204" s="6">
+        <v>40</v>
+      </c>
+      <c r="BO204" s="6">
+        <v>40</v>
+      </c>
+      <c r="BP204" s="6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="205" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B205" s="5">
         <v>12186</v>
@@ -40877,10 +43318,22 @@
       <c r="BL205" s="6">
         <v>2</v>
       </c>
+      <c r="BM205" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN205" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO205" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP205" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="206" spans="1:64" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="10" t="s">
-        <v>328</v>
+    <row r="206" spans="1:68" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="B206" s="5">
         <v>9340</v>
@@ -41071,10 +43524,22 @@
       <c r="BL206" s="6">
         <v>21</v>
       </c>
+      <c r="BM206" s="6">
+        <v>21</v>
+      </c>
+      <c r="BN206" s="6">
+        <v>21</v>
+      </c>
+      <c r="BO206" s="6">
+        <v>21</v>
+      </c>
+      <c r="BP206" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="207" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B207" s="5">
         <v>32428</v>
@@ -41265,10 +43730,22 @@
       <c r="BL207" s="6">
         <v>10</v>
       </c>
+      <c r="BM207" s="6">
+        <v>10</v>
+      </c>
+      <c r="BN207" s="6">
+        <v>10</v>
+      </c>
+      <c r="BO207" s="6">
+        <v>11</v>
+      </c>
+      <c r="BP207" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="208" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B208" s="5">
         <v>68331</v>
@@ -41459,10 +43936,22 @@
       <c r="BL208" s="6">
         <v>16</v>
       </c>
+      <c r="BM208" s="6">
+        <v>16</v>
+      </c>
+      <c r="BN208" s="6">
+        <v>18</v>
+      </c>
+      <c r="BO208" s="6">
+        <v>20</v>
+      </c>
+      <c r="BP208" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="209" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B209" s="5">
         <v>6482</v>
@@ -41653,10 +44142,22 @@
       <c r="BL209" s="6">
         <v>0</v>
       </c>
+      <c r="BM209" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN209" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO209" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP209" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B210" s="5">
         <v>3920</v>
@@ -41847,10 +44348,22 @@
       <c r="BL210" s="6">
         <v>0</v>
       </c>
+      <c r="BM210" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN210" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO210" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP210" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B211" s="5">
         <v>18906</v>
@@ -42041,10 +44554,22 @@
       <c r="BL211" s="6">
         <v>2</v>
       </c>
+      <c r="BM211" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN211" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO211" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP211" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="212" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B212" s="5">
         <v>3734</v>
@@ -42235,10 +44760,22 @@
       <c r="BL212" s="6">
         <v>1</v>
       </c>
+      <c r="BM212" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN212" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO212" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP212" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B213" s="5">
         <v>28649</v>
@@ -42429,10 +44966,22 @@
       <c r="BL213" s="6">
         <v>144</v>
       </c>
+      <c r="BM213" s="6">
+        <v>149</v>
+      </c>
+      <c r="BN213" s="6">
+        <v>149</v>
+      </c>
+      <c r="BO213" s="6">
+        <v>152</v>
+      </c>
+      <c r="BP213" s="6">
+        <v>152</v>
+      </c>
     </row>
-    <row r="214" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B214" s="5">
         <v>3440</v>
@@ -42623,10 +45172,22 @@
       <c r="BL214" s="6">
         <v>19</v>
       </c>
+      <c r="BM214" s="6">
+        <v>20</v>
+      </c>
+      <c r="BN214" s="6">
+        <v>20</v>
+      </c>
+      <c r="BO214" s="6">
+        <v>23</v>
+      </c>
+      <c r="BP214" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="215" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B215" s="5">
         <v>243064</v>
@@ -42817,10 +45378,22 @@
       <c r="BL215" s="6">
         <v>165</v>
       </c>
+      <c r="BM215" s="6">
+        <v>170</v>
+      </c>
+      <c r="BN215" s="6">
+        <v>170</v>
+      </c>
+      <c r="BO215" s="6">
+        <v>174</v>
+      </c>
+      <c r="BP215" s="6">
+        <v>174</v>
+      </c>
     </row>
-    <row r="216" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B216" s="5">
         <v>10480</v>
@@ -43011,10 +45584,22 @@
       <c r="BL216" s="6">
         <v>0</v>
       </c>
+      <c r="BM216" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN216" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO216" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP216" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B217" s="5">
         <v>68878</v>
@@ -43205,10 +45790,22 @@
       <c r="BL217" s="6">
         <v>10</v>
       </c>
+      <c r="BM217" s="6">
+        <v>14</v>
+      </c>
+      <c r="BN217" s="6">
+        <v>14</v>
+      </c>
+      <c r="BO217" s="6">
+        <v>14</v>
+      </c>
+      <c r="BP217" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="218" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B218" s="5">
         <v>10297</v>
@@ -43399,10 +45996,22 @@
       <c r="BL218" s="6">
         <v>1</v>
       </c>
+      <c r="BM218" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN218" s="6">
+        <v>1</v>
+      </c>
+      <c r="BO218" s="6">
+        <v>1</v>
+      </c>
+      <c r="BP218" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="219" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B219" s="5">
         <v>1214</v>
@@ -43593,10 +46202,22 @@
       <c r="BL219" s="6">
         <v>0</v>
       </c>
+      <c r="BM219" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN219" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO219" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP219" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B220" s="5">
         <v>1515</v>
@@ -43787,10 +46408,22 @@
       <c r="BL220" s="6">
         <v>0</v>
       </c>
+      <c r="BM220" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN220" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO220" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP220" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B221" s="5">
         <v>4651</v>
@@ -43981,10 +46614,22 @@
       <c r="BL221" s="6">
         <v>0</v>
       </c>
+      <c r="BM221" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN221" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO221" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP221" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B222" s="5">
         <v>8230</v>
@@ -44175,10 +46820,22 @@
       <c r="BL222" s="6">
         <v>11</v>
       </c>
+      <c r="BM222" s="6">
+        <v>11</v>
+      </c>
+      <c r="BN222" s="6">
+        <v>11</v>
+      </c>
+      <c r="BO222" s="6">
+        <v>12</v>
+      </c>
+      <c r="BP222" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="223" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B223" s="5">
         <v>2127850</v>
@@ -44369,10 +47026,22 @@
       <c r="BL223" s="6">
         <v>2813</v>
       </c>
+      <c r="BM223" s="6">
+        <v>2956</v>
+      </c>
+      <c r="BN223" s="6">
+        <v>3127</v>
+      </c>
+      <c r="BO223" s="6">
+        <v>3210</v>
+      </c>
+      <c r="BP223" s="6">
+        <v>3695</v>
+      </c>
     </row>
-    <row r="224" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B224" s="5">
         <v>138279</v>
@@ -44563,10 +47232,22 @@
       <c r="BL224" s="6">
         <v>206</v>
       </c>
+      <c r="BM224" s="6">
+        <v>207</v>
+      </c>
+      <c r="BN224" s="6">
+        <v>208</v>
+      </c>
+      <c r="BO224" s="6">
+        <v>208</v>
+      </c>
+      <c r="BP224" s="6">
+        <v>208</v>
+      </c>
     </row>
-    <row r="225" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B225" s="5">
         <v>1047</v>
@@ -44757,10 +47438,22 @@
       <c r="BL225" s="6">
         <v>0</v>
       </c>
+      <c r="BM225" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN225" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO225" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP225" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B226" s="5">
         <v>13323</v>
@@ -44951,10 +47644,22 @@
       <c r="BL226" s="6">
         <v>12</v>
       </c>
+      <c r="BM226" s="6">
+        <v>12</v>
+      </c>
+      <c r="BN226" s="6">
+        <v>12</v>
+      </c>
+      <c r="BO226" s="6">
+        <v>12</v>
+      </c>
+      <c r="BP226" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="227" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B227" s="5">
         <v>1639</v>
@@ -45145,10 +47850,22 @@
       <c r="BL227" s="6">
         <v>0</v>
       </c>
+      <c r="BM227" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN227" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO227" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP227" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B228" s="5">
         <v>37790</v>
@@ -45339,10 +48056,22 @@
       <c r="BL228" s="6">
         <v>27</v>
       </c>
+      <c r="BM228" s="6">
+        <v>29</v>
+      </c>
+      <c r="BN228" s="6">
+        <v>29</v>
+      </c>
+      <c r="BO228" s="6">
+        <v>35</v>
+      </c>
+      <c r="BP228" s="6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="229" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B229" s="5">
         <v>114995</v>
@@ -45533,10 +48262,22 @@
       <c r="BL229" s="6">
         <v>58</v>
       </c>
+      <c r="BM229" s="6">
+        <v>59</v>
+      </c>
+      <c r="BN229" s="6">
+        <v>59</v>
+      </c>
+      <c r="BO229" s="6">
+        <v>59</v>
+      </c>
+      <c r="BP229" s="6">
+        <v>59</v>
+      </c>
     </row>
-    <row r="230" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B230" s="5">
         <v>1277007</v>
@@ -45727,10 +48468,22 @@
       <c r="BL230" s="6">
         <v>1946</v>
       </c>
+      <c r="BM230" s="6">
+        <v>2002</v>
+      </c>
+      <c r="BN230" s="6">
+        <v>2071</v>
+      </c>
+      <c r="BO230" s="6">
+        <v>2095</v>
+      </c>
+      <c r="BP230" s="6">
+        <v>2127</v>
+      </c>
     </row>
-    <row r="231" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B231" s="5">
         <v>16618</v>
@@ -45921,10 +48674,22 @@
       <c r="BL231" s="6">
         <v>10</v>
       </c>
+      <c r="BM231" s="6">
+        <v>11</v>
+      </c>
+      <c r="BN231" s="6">
+        <v>11</v>
+      </c>
+      <c r="BO231" s="6">
+        <v>11</v>
+      </c>
+      <c r="BP231" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="232" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B232" s="5">
         <v>22646</v>
@@ -46115,10 +48880,22 @@
       <c r="BL232" s="6">
         <v>7</v>
       </c>
+      <c r="BM232" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN232" s="6">
+        <v>7</v>
+      </c>
+      <c r="BO232" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP232" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="233" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B233" s="5">
         <v>45120</v>
@@ -46309,10 +49086,22 @@
       <c r="BL233" s="6">
         <v>16</v>
       </c>
+      <c r="BM233" s="6">
+        <v>17</v>
+      </c>
+      <c r="BN233" s="6">
+        <v>17</v>
+      </c>
+      <c r="BO233" s="6">
+        <v>17</v>
+      </c>
+      <c r="BP233" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="234" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B234" s="5">
         <v>3886</v>
@@ -46503,10 +49292,22 @@
       <c r="BL234" s="6">
         <v>0</v>
       </c>
+      <c r="BM234" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN234" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO234" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP234" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B235" s="5">
         <v>28593</v>
@@ -46697,10 +49498,22 @@
       <c r="BL235" s="6">
         <v>6</v>
       </c>
+      <c r="BM235" s="6">
+        <v>6</v>
+      </c>
+      <c r="BN235" s="6">
+        <v>6</v>
+      </c>
+      <c r="BO235" s="6">
+        <v>6</v>
+      </c>
+      <c r="BP235" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="236" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B236" s="5">
         <v>53256</v>
@@ -46891,10 +49704,22 @@
       <c r="BL236" s="6">
         <v>13</v>
       </c>
+      <c r="BM236" s="6">
+        <v>13</v>
+      </c>
+      <c r="BN236" s="6">
+        <v>13</v>
+      </c>
+      <c r="BO236" s="6">
+        <v>13</v>
+      </c>
+      <c r="BP236" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="237" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B237" s="5">
         <v>58259</v>
@@ -47085,10 +49910,22 @@
       <c r="BL237" s="6">
         <v>18</v>
       </c>
+      <c r="BM237" s="6">
+        <v>18</v>
+      </c>
+      <c r="BN237" s="6">
+        <v>18</v>
+      </c>
+      <c r="BO237" s="6">
+        <v>18</v>
+      </c>
+      <c r="BP237" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="238" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B238" s="5">
         <v>92845</v>
@@ -47279,10 +50116,22 @@
       <c r="BL238" s="6">
         <v>146</v>
       </c>
+      <c r="BM238" s="6">
+        <v>146</v>
+      </c>
+      <c r="BN238" s="6">
+        <v>148</v>
+      </c>
+      <c r="BO238" s="6">
+        <v>150</v>
+      </c>
+      <c r="BP238" s="6">
+        <v>150</v>
+      </c>
     </row>
-    <row r="239" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B239" s="5">
         <v>72778</v>
@@ -47473,10 +50322,22 @@
       <c r="BL239" s="6">
         <v>315</v>
       </c>
+      <c r="BM239" s="6">
+        <v>332</v>
+      </c>
+      <c r="BN239" s="6">
+        <v>337</v>
+      </c>
+      <c r="BO239" s="6">
+        <v>340</v>
+      </c>
+      <c r="BP239" s="6">
+        <v>342</v>
+      </c>
     </row>
-    <row r="240" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B240" s="5">
         <v>58002</v>
@@ -47667,10 +50528,22 @@
       <c r="BL240" s="6">
         <v>37</v>
       </c>
+      <c r="BM240" s="6">
+        <v>36</v>
+      </c>
+      <c r="BN240" s="6">
+        <v>38</v>
+      </c>
+      <c r="BO240" s="6">
+        <v>37</v>
+      </c>
+      <c r="BP240" s="6">
+        <v>37</v>
+      </c>
     </row>
-    <row r="241" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B241" s="5">
         <v>11213</v>
@@ -47861,10 +50734,22 @@
       <c r="BL241" s="6">
         <v>0</v>
       </c>
+      <c r="BM241" s="6">
+        <v>0</v>
+      </c>
+      <c r="BN241" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO241" s="6">
+        <v>0</v>
+      </c>
+      <c r="BP241" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B242" s="5">
         <v>37673</v>
@@ -48055,10 +50940,22 @@
       <c r="BL242" s="6">
         <v>153</v>
       </c>
+      <c r="BM242" s="6">
+        <v>156</v>
+      </c>
+      <c r="BN242" s="6">
+        <v>164</v>
+      </c>
+      <c r="BO242" s="6">
+        <v>164</v>
+      </c>
+      <c r="BP242" s="6">
+        <v>164</v>
+      </c>
     </row>
-    <row r="243" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B243" s="5">
         <v>317733</v>
@@ -48249,10 +51146,22 @@
       <c r="BL243" s="6">
         <v>410</v>
       </c>
+      <c r="BM243" s="6">
+        <v>414</v>
+      </c>
+      <c r="BN243" s="6">
+        <v>424</v>
+      </c>
+      <c r="BO243" s="6">
+        <v>434</v>
+      </c>
+      <c r="BP243" s="6">
+        <v>435</v>
+      </c>
     </row>
-    <row r="244" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B244" s="5">
         <v>43271</v>
@@ -48443,10 +51352,22 @@
       <c r="BL244" s="6">
         <v>40</v>
       </c>
+      <c r="BM244" s="6">
+        <v>41</v>
+      </c>
+      <c r="BN244" s="6">
+        <v>41</v>
+      </c>
+      <c r="BO244" s="6">
+        <v>41</v>
+      </c>
+      <c r="BP244" s="6">
+        <v>41</v>
+      </c>
     </row>
-    <row r="245" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B245" s="5">
         <v>5934</v>
@@ -48637,10 +51558,22 @@
       <c r="BL245" s="6">
         <v>12</v>
       </c>
+      <c r="BM245" s="6">
+        <v>13</v>
+      </c>
+      <c r="BN245" s="6">
+        <v>13</v>
+      </c>
+      <c r="BO245" s="6">
+        <v>14</v>
+      </c>
+      <c r="BP245" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="246" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B246" s="5">
         <v>133363</v>
@@ -48831,10 +51764,22 @@
       <c r="BL246" s="6">
         <v>70</v>
       </c>
+      <c r="BM246" s="6">
+        <v>71</v>
+      </c>
+      <c r="BN246" s="6">
+        <v>74</v>
+      </c>
+      <c r="BO246" s="6">
+        <v>75</v>
+      </c>
+      <c r="BP246" s="6">
+        <v>75</v>
+      </c>
     </row>
-    <row r="247" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B247" s="5">
         <v>14897</v>
@@ -49025,10 +51970,22 @@
       <c r="BL247" s="6">
         <v>2</v>
       </c>
+      <c r="BM247" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN247" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO247" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP247" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="248" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B248" s="5">
         <v>26817</v>
@@ -49219,10 +52176,22 @@
       <c r="BL248" s="6">
         <v>14</v>
       </c>
+      <c r="BM248" s="6">
+        <v>14</v>
+      </c>
+      <c r="BN248" s="6">
+        <v>14</v>
+      </c>
+      <c r="BO248" s="6">
+        <v>14</v>
+      </c>
+      <c r="BP248" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="249" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B249" s="5">
         <v>633783</v>
@@ -49413,10 +52382,22 @@
       <c r="BL249" s="6">
         <v>341</v>
       </c>
+      <c r="BM249" s="6">
+        <v>352</v>
+      </c>
+      <c r="BN249" s="6">
+        <v>361</v>
+      </c>
+      <c r="BO249" s="6">
+        <v>368</v>
+      </c>
+      <c r="BP249" s="6">
+        <v>377</v>
+      </c>
     </row>
-    <row r="250" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B250" s="5">
         <v>57292</v>
@@ -49607,10 +52588,22 @@
       <c r="BL250" s="6">
         <v>34</v>
       </c>
+      <c r="BM250" s="6">
+        <v>34</v>
+      </c>
+      <c r="BN250" s="6">
+        <v>34</v>
+      </c>
+      <c r="BO250" s="6">
+        <v>35</v>
+      </c>
+      <c r="BP250" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="251" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B251" s="5">
         <v>8371</v>
@@ -49801,10 +52794,22 @@
       <c r="BL251" s="6">
         <v>3</v>
       </c>
+      <c r="BM251" s="6">
+        <v>3</v>
+      </c>
+      <c r="BN251" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO251" s="6">
+        <v>3</v>
+      </c>
+      <c r="BP251" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="252" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B252" s="5">
         <v>74490</v>
@@ -49995,10 +53000,22 @@
       <c r="BL252" s="6">
         <v>28</v>
       </c>
+      <c r="BM252" s="6">
+        <v>28</v>
+      </c>
+      <c r="BN252" s="6">
+        <v>30</v>
+      </c>
+      <c r="BO252" s="6">
+        <v>30</v>
+      </c>
+      <c r="BP252" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="253" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B253" s="5">
         <v>48594</v>
@@ -50189,10 +53206,22 @@
       <c r="BL253" s="6">
         <v>11</v>
       </c>
+      <c r="BM253" s="6">
+        <v>13</v>
+      </c>
+      <c r="BN253" s="6">
+        <v>13</v>
+      </c>
+      <c r="BO253" s="6">
+        <v>14</v>
+      </c>
+      <c r="BP253" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="254" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B254" s="5">
         <v>9591</v>
@@ -50383,10 +53412,22 @@
       <c r="BL254" s="6">
         <v>2</v>
       </c>
+      <c r="BM254" s="6">
+        <v>2</v>
+      </c>
+      <c r="BN254" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO254" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP254" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="255" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B255" s="5">
         <v>19914</v>
@@ -50577,10 +53618,22 @@
       <c r="BL255" s="6">
         <v>4</v>
       </c>
+      <c r="BM255" s="6">
+        <v>4</v>
+      </c>
+      <c r="BN255" s="6">
+        <v>4</v>
+      </c>
+      <c r="BO255" s="6">
+        <v>4</v>
+      </c>
+      <c r="BP255" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="256" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B256" s="5">
         <v>17043</v>
@@ -50771,10 +53824,22 @@
       <c r="BL256" s="6">
         <v>7</v>
       </c>
+      <c r="BM256" s="6">
+        <v>7</v>
+      </c>
+      <c r="BN256" s="6">
+        <v>7</v>
+      </c>
+      <c r="BO256" s="6">
+        <v>7</v>
+      </c>
+      <c r="BP256" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="257" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B257" s="5">
         <v>12895</v>
@@ -50965,10 +54030,22 @@
       <c r="BL257" s="6">
         <v>1</v>
       </c>
+      <c r="BM257" s="6">
+        <v>1</v>
+      </c>
+      <c r="BN257" s="6">
+        <v>2</v>
+      </c>
+      <c r="BO257" s="6">
+        <v>2</v>
+      </c>
+      <c r="BP257" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="258" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B258" s="5">
         <v>30541978</v>
@@ -51159,305 +54236,464 @@
       <c r="BL258" s="6">
         <v>35390</v>
       </c>
+      <c r="BM258" s="6">
+        <v>36609</v>
+      </c>
+      <c r="BN258" s="6">
+        <v>37860</v>
+      </c>
+      <c r="BO258" s="6">
+        <v>38869</v>
+      </c>
+      <c r="BP258" s="6">
+        <v>39869</v>
+      </c>
     </row>
-    <row r="259" spans="1:64" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="5"/>
-      <c r="N259" s="5"/>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5"/>
-      <c r="V259" s="5"/>
-      <c r="W259" s="5"/>
-      <c r="X259" s="5"/>
-      <c r="Y259" s="5"/>
-      <c r="Z259" s="5"/>
-      <c r="AA259" s="5"/>
-      <c r="AB259" s="5"/>
-      <c r="AC259" s="5"/>
-      <c r="AD259" s="5"/>
-      <c r="AE259" s="5"/>
-      <c r="AF259" s="5"/>
-      <c r="AG259" s="5"/>
-      <c r="AH259" s="5"/>
-      <c r="AI259" s="5"/>
-      <c r="AJ259" s="5"/>
-      <c r="AK259" s="5"/>
-      <c r="AL259" s="5"/>
-      <c r="AM259" s="5"/>
-      <c r="AN259" s="5"/>
-      <c r="AO259" s="5"/>
-      <c r="AP259" s="5"/>
-      <c r="AQ259" s="5"/>
-      <c r="AR259" s="5"/>
-      <c r="AS259" s="5"/>
-      <c r="AT259" s="5"/>
-      <c r="AU259" s="5"/>
-      <c r="AV259" s="5"/>
-      <c r="AW259" s="5"/>
-      <c r="AX259" s="5"/>
-      <c r="AY259" s="5"/>
-      <c r="AZ259" s="5"/>
-      <c r="BA259" s="5"/>
-      <c r="BB259" s="5"/>
-      <c r="BC259" s="5"/>
-      <c r="BD259" s="5"/>
-      <c r="BE259" s="6"/>
-      <c r="BF259" s="6"/>
-      <c r="BG259" s="6"/>
-      <c r="BH259" s="6"/>
-      <c r="BI259" s="6"/>
-      <c r="BJ259" s="6"/>
-      <c r="BK259" s="6"/>
-      <c r="BL259" s="6"/>
+    <row r="259" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="N259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="R259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="S259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="U259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="W259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="X259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AV259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BB259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BD259" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BF259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BH259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BI259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BJ259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BN259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BO259" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BP259" s="6" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="260" spans="1:64" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8">
-        <v>0</v>
-      </c>
-      <c r="D260" s="8">
-        <v>0</v>
-      </c>
-      <c r="E260" s="8">
-        <v>2</v>
-      </c>
-      <c r="F260" s="8">
-        <v>3</v>
-      </c>
-      <c r="G260" s="8">
+    <row r="260" spans="1:68" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C260" s="10">
+        <v>0</v>
+      </c>
+      <c r="D260" s="10">
+        <v>0</v>
+      </c>
+      <c r="E260" s="10">
+        <v>2</v>
+      </c>
+      <c r="F260" s="10">
+        <v>3</v>
+      </c>
+      <c r="G260" s="10">
         <v>4</v>
       </c>
-      <c r="H260" s="8">
+      <c r="H260" s="10">
         <v>6</v>
       </c>
-      <c r="I260" s="8">
+      <c r="I260" s="10">
         <v>7</v>
       </c>
-      <c r="J260" s="8">
+      <c r="J260" s="10">
         <v>7</v>
       </c>
-      <c r="K260" s="8">
+      <c r="K260" s="10">
         <v>17</v>
       </c>
-      <c r="L260" s="8">
+      <c r="L260" s="10">
         <v>17</v>
       </c>
-      <c r="M260" s="8">
+      <c r="M260" s="10">
         <v>20</v>
       </c>
-      <c r="N260" s="8">
+      <c r="N260" s="10">
         <v>23</v>
       </c>
-      <c r="O260" s="8">
+      <c r="O260" s="10">
         <v>27</v>
       </c>
-      <c r="P260" s="8">
+      <c r="P260" s="10">
         <v>34</v>
       </c>
-      <c r="Q260" s="8">
+      <c r="Q260" s="10">
         <v>41</v>
       </c>
-      <c r="R260" s="8">
+      <c r="R260" s="10">
         <v>43</v>
       </c>
-      <c r="S260" s="8">
+      <c r="S260" s="10">
         <v>46</v>
       </c>
-      <c r="T260" s="8">
+      <c r="T260" s="10">
         <v>65</v>
       </c>
-      <c r="U260" s="8">
+      <c r="U260" s="10">
         <v>82</v>
       </c>
-      <c r="V260" s="8">
+      <c r="V260" s="10">
         <v>92</v>
       </c>
-      <c r="W260" s="8">
+      <c r="W260" s="10">
         <v>104</v>
       </c>
-      <c r="X260" s="8">
+      <c r="X260" s="10">
         <v>110</v>
       </c>
-      <c r="Y260" s="8">
+      <c r="Y260" s="10">
         <v>118</v>
       </c>
-      <c r="Z260" s="8">
+      <c r="Z260" s="10">
         <v>122</v>
       </c>
-      <c r="AA260" s="8">
+      <c r="AA260" s="10">
         <v>122</v>
       </c>
-      <c r="AB260" s="8">
+      <c r="AB260" s="10">
         <v>135</v>
       </c>
-      <c r="AC260" s="8">
+      <c r="AC260" s="10">
         <v>143</v>
       </c>
-      <c r="AD260" s="8">
+      <c r="AD260" s="10">
         <v>145</v>
       </c>
-      <c r="AE260" s="8">
+      <c r="AE260" s="10">
         <v>151</v>
       </c>
-      <c r="AF260" s="8">
+      <c r="AF260" s="10">
         <v>152</v>
       </c>
-      <c r="AG260" s="8">
+      <c r="AG260" s="10">
         <v>156</v>
       </c>
-      <c r="AH260" s="8">
+      <c r="AH260" s="10">
         <v>161</v>
       </c>
-      <c r="AI260" s="8">
+      <c r="AI260" s="10">
         <v>167</v>
       </c>
-      <c r="AJ260" s="8">
+      <c r="AJ260" s="10">
         <v>170</v>
       </c>
-      <c r="AK260" s="8">
+      <c r="AK260" s="10">
         <v>176</v>
       </c>
-      <c r="AL260" s="8">
+      <c r="AL260" s="10">
         <v>177</v>
       </c>
-      <c r="AM260" s="8">
+      <c r="AM260" s="10">
         <v>177</v>
       </c>
-      <c r="AN260" s="8">
+      <c r="AN260" s="10">
         <v>178</v>
       </c>
-      <c r="AO260" s="8">
+      <c r="AO260" s="10">
         <v>181</v>
       </c>
-      <c r="AP260" s="8">
+      <c r="AP260" s="10">
         <v>184</v>
       </c>
-      <c r="AQ260" s="8">
+      <c r="AQ260" s="10">
         <v>191</v>
       </c>
-      <c r="AR260" s="8">
+      <c r="AR260" s="10">
         <v>192</v>
       </c>
-      <c r="AS260" s="8">
+      <c r="AS260" s="10">
         <v>194</v>
       </c>
-      <c r="AT260" s="8">
+      <c r="AT260" s="10">
         <v>197</v>
       </c>
-      <c r="AU260" s="8">
+      <c r="AU260" s="10">
         <v>198</v>
       </c>
-      <c r="AV260" s="8">
+      <c r="AV260" s="10">
         <v>198</v>
       </c>
-      <c r="AW260" s="8">
+      <c r="AW260" s="10">
         <v>200</v>
       </c>
-      <c r="AX260" s="8">
+      <c r="AX260" s="10">
         <v>202</v>
       </c>
-      <c r="AY260" s="8">
+      <c r="AY260" s="10">
         <v>204</v>
       </c>
-      <c r="AZ260" s="8">
+      <c r="AZ260" s="10">
         <v>204</v>
       </c>
-      <c r="BA260" s="8">
+      <c r="BA260" s="10">
         <v>204</v>
       </c>
-      <c r="BB260" s="8">
+      <c r="BB260" s="10">
         <v>205</v>
       </c>
-      <c r="BC260" s="8">
+      <c r="BC260" s="10">
         <v>207</v>
       </c>
-      <c r="BD260" s="8">
+      <c r="BD260" s="10">
         <v>207</v>
       </c>
-      <c r="BE260" s="8">
-        <f t="shared" ref="BE260:BK260" si="0">COUNTIF(BE4:BE257,"&lt;&gt;0")</f>
+      <c r="BE260" s="10">
         <v>209</v>
       </c>
-      <c r="BF260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BF260" s="10">
         <v>210</v>
       </c>
-      <c r="BG260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BG260" s="10">
         <v>212</v>
       </c>
-      <c r="BH260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BH260" s="10">
         <v>212</v>
       </c>
-      <c r="BI260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BI260" s="10">
         <v>213</v>
       </c>
-      <c r="BJ260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BJ260" s="10">
         <v>216</v>
       </c>
-      <c r="BK260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BK260" s="10">
         <v>216</v>
       </c>
-      <c r="BL260" s="8">
+      <c r="BL260" s="10">
         <v>217</v>
       </c>
+      <c r="BM260" s="10">
+        <v>219</v>
+      </c>
+      <c r="BN260" s="10">
+        <v>219</v>
+      </c>
+      <c r="BO260" s="10">
+        <v>219</v>
+      </c>
+      <c r="BP260" s="10">
+        <v>219</v>
+      </c>
     </row>
-    <row r="262" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="263" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="265" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>324</v>
+    <row r="265" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="266" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="267" spans="1:64" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>326</v>
+    <row r="267" spans="1:68" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="268" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>327</v>
+    <row r="268" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="9" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E6922-25B0-40EC-BBE7-E9F8A72ED043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E357B91-6909-4ACF-BE9B-8201B25FDDF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <r>
       <rPr>
@@ -28,8 +36,9 @@
         <sz val="12"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>COVID-19 Total Cases by County, 3/4/2020 - 5/11/2020*</t>
+      <t>COVID-19 Total Cases by County, 3/4/2020 - 5/12/2020*</t>
     </r>
   </si>
   <si>
@@ -39,6 +48,7 @@
         <sz val="12"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DISCLAIMER: All data are provisional and are subject to change.</t>
     </r>
@@ -313,6 +323,10 @@
   <si>
     <t>Cases
 05-11</t>
+  </si>
+  <si>
+    <t>Cases
+05-12</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1077,12 +1091,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Num. of
 Counties
 (case
@@ -1094,6 +1102,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Notes:</t>
     </r>
@@ -1104,6 +1113,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>*County-level case counts were not available on March 7, March 8, and March 14.</t>
     </r>
@@ -1114,6 +1124,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Population data is based on Texas population projections, 2020 (https://www.dshs.texas.gov/chs/popdat/st2020.shtm).</t>
     </r>
@@ -1124,24 +1135,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>Please also note that total and county-level case counts may differ from those posted previously by DSHS due to further</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF112277"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>verification with                    Local Health Departments and other sources.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF112277"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Reporting Methodology Updates:</t>
     </r>
@@ -1152,6 +1146,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>On March 24, DSHS updated the method of reporting COVID-19 cases in Texas to provide the public with more timely</t>
     </r>
@@ -1160,6 +1155,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>information. The DSHS daily case count now includes all cases reported publicly by local health departments around the state.</t>
     </r>
@@ -1168,6 +1164,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>That change led to the report of an additional 305 cases in the March 24 total.</t>
     </r>
@@ -1178,6 +1175,7 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>The case counts do not include people who were repatriated from China or a cruise ship on U.S. government flights to</t>
     </r>
@@ -1186,8 +1184,29 @@
         <sz val="10"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JBSA-Lackland in San Antonio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF112277"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Please also note that total and county-level case counts may differ from those posted previously by DSHS due to further</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF112277"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>verification with Local Health Departments and other sources.</t>
     </r>
   </si>
   <si>
@@ -1213,23 +1232,27 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1342,16 +1365,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1489,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BQ268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1500,20 +1523,20 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="56" width="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="68" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="69" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1718,10 +1741,13 @@
       <c r="BP3" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="BQ3" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5">
         <v>62245</v>
@@ -1924,10 +1950,13 @@
       <c r="BP4" s="6">
         <v>41</v>
       </c>
+      <c r="BQ4" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5">
         <v>17487</v>
@@ -2130,10 +2159,13 @@
       <c r="BP5" s="6">
         <v>21</v>
       </c>
+      <c r="BQ5" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5">
         <v>94245</v>
@@ -2336,10 +2368,13 @@
       <c r="BP6" s="6">
         <v>100</v>
       </c>
+      <c r="BQ6" s="6">
+        <v>117</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5">
         <v>26041</v>
@@ -2542,10 +2577,13 @@
       <c r="BP7" s="6">
         <v>2</v>
       </c>
+      <c r="BQ7" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5">
         <v>9847</v>
@@ -2748,10 +2786,13 @@
       <c r="BP8" s="6">
         <v>0</v>
       </c>
+      <c r="BQ8" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5">
         <v>1970</v>
@@ -2954,10 +2995,13 @@
       <c r="BP9" s="6">
         <v>2</v>
       </c>
+      <c r="BQ9" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5">
         <v>55946</v>
@@ -3160,10 +3204,13 @@
       <c r="BP10" s="6">
         <v>24</v>
       </c>
+      <c r="BQ10" s="6">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5">
         <v>36542</v>
@@ -3366,10 +3413,13 @@
       <c r="BP11" s="6">
         <v>15</v>
       </c>
+      <c r="BQ11" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5">
         <v>8426</v>
@@ -3572,10 +3622,13 @@
       <c r="BP12" s="6">
         <v>3</v>
       </c>
+      <c r="BQ12" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="5">
         <v>25100</v>
@@ -3778,10 +3831,13 @@
       <c r="BP13" s="6">
         <v>6</v>
       </c>
+      <c r="BQ13" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5">
         <v>100746</v>
@@ -3984,10 +4040,13 @@
       <c r="BP14" s="6">
         <v>110</v>
       </c>
+      <c r="BQ14" s="6">
+        <v>117</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5">
         <v>3715</v>
@@ -4190,10 +4249,13 @@
       <c r="BP15" s="6">
         <v>0</v>
       </c>
+      <c r="BQ15" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5">
         <v>33428</v>
@@ -4396,10 +4458,13 @@
       <c r="BP16" s="6">
         <v>6</v>
       </c>
+      <c r="BQ16" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="5">
         <v>394509</v>
@@ -4602,10 +4667,13 @@
       <c r="BP17" s="6">
         <v>220</v>
       </c>
+      <c r="BQ17" s="6">
+        <v>223</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5">
         <v>2062088</v>
@@ -4808,10 +4876,13 @@
       <c r="BP18" s="6">
         <v>1901</v>
       </c>
+      <c r="BQ18" s="6">
+        <v>1920</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5">
         <v>13018</v>
@@ -5014,10 +5085,13 @@
       <c r="BP19" s="6">
         <v>6</v>
       </c>
+      <c r="BQ19" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5">
         <v>698</v>
@@ -5220,10 +5294,13 @@
       <c r="BP20" s="6">
         <v>0</v>
       </c>
+      <c r="BQ20" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5">
         <v>20522</v>
@@ -5426,10 +5503,13 @@
       <c r="BP21" s="6">
         <v>5</v>
       </c>
+      <c r="BQ21" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5">
         <v>95118</v>
@@ -5632,10 +5712,13 @@
       <c r="BP22" s="6">
         <v>76</v>
       </c>
+      <c r="BQ22" s="6">
+        <v>80</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="5">
         <v>410571</v>
@@ -5838,10 +5921,13 @@
       <c r="BP23" s="6">
         <v>661</v>
       </c>
+      <c r="BQ23" s="6">
+        <v>673</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5">
         <v>239527</v>
@@ -6044,10 +6130,13 @@
       <c r="BP24" s="6">
         <v>271</v>
       </c>
+      <c r="BQ24" s="6">
+        <v>278</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5">
         <v>10226</v>
@@ -6250,10 +6339,13 @@
       <c r="BP25" s="6">
         <v>1</v>
       </c>
+      <c r="BQ25" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="5">
         <v>1672</v>
@@ -6456,10 +6548,13 @@
       <c r="BP26" s="6">
         <v>1</v>
       </c>
+      <c r="BQ26" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5">
         <v>7619</v>
@@ -6662,10 +6757,13 @@
       <c r="BP27" s="6">
         <v>1</v>
       </c>
+      <c r="BQ27" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="5">
         <v>40617</v>
@@ -6868,10 +6966,13 @@
       <c r="BP28" s="6">
         <v>38</v>
       </c>
+      <c r="BQ28" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="5">
         <v>19763</v>
@@ -7074,10 +7175,13 @@
       <c r="BP29" s="6">
         <v>15</v>
       </c>
+      <c r="BQ29" s="6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="30" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="5">
         <v>52456</v>
@@ -7280,10 +7384,13 @@
       <c r="BP30" s="6">
         <v>26</v>
       </c>
+      <c r="BQ30" s="6">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5">
         <v>49202</v>
@@ -7486,10 +7593,13 @@
       <c r="BP31" s="6">
         <v>30</v>
       </c>
+      <c r="BQ31" s="6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="32" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="5">
         <v>25263</v>
@@ -7692,10 +7802,13 @@
       <c r="BP32" s="6">
         <v>36</v>
       </c>
+      <c r="BQ32" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="5">
         <v>14768</v>
@@ -7898,10 +8011,13 @@
       <c r="BP33" s="6">
         <v>6</v>
       </c>
+      <c r="BQ33" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="5">
         <v>493571</v>
@@ -8104,10 +8220,13 @@
       <c r="BP34" s="6">
         <v>512</v>
       </c>
+      <c r="BQ34" s="6">
+        <v>527</v>
+      </c>
     </row>
-    <row r="35" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="5">
         <v>14442</v>
@@ -8310,10 +8429,13 @@
       <c r="BP35" s="6">
         <v>7</v>
       </c>
+      <c r="BQ35" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="5">
         <v>6526</v>
@@ -8516,10 +8638,13 @@
       <c r="BP36" s="6">
         <v>3</v>
       </c>
+      <c r="BQ36" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="5">
         <v>32050</v>
@@ -8722,10 +8847,13 @@
       <c r="BP37" s="6">
         <v>20</v>
       </c>
+      <c r="BQ37" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="38" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" s="5">
         <v>8901</v>
@@ -8928,10 +9056,13 @@
       <c r="BP38" s="6">
         <v>23</v>
       </c>
+      <c r="BQ38" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5">
         <v>47621</v>
@@ -9134,10 +9265,13 @@
       <c r="BP39" s="6">
         <v>50</v>
       </c>
+      <c r="BQ39" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="40" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="5">
         <v>57663</v>
@@ -9340,10 +9474,13 @@
       <c r="BP40" s="6">
         <v>18</v>
       </c>
+      <c r="BQ40" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="41" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" s="5">
         <v>7460</v>
@@ -9546,10 +9683,13 @@
       <c r="BP41" s="6">
         <v>2</v>
       </c>
+      <c r="BQ41" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" s="5">
         <v>11655</v>
@@ -9752,10 +9892,13 @@
       <c r="BP42" s="6">
         <v>3</v>
       </c>
+      <c r="BQ42" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43" s="5">
         <v>3458</v>
@@ -9958,10 +10101,13 @@
       <c r="BP43" s="6">
         <v>1</v>
       </c>
+      <c r="BQ43" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="5">
         <v>3095</v>
@@ -10164,10 +10310,13 @@
       <c r="BP44" s="6">
         <v>1</v>
       </c>
+      <c r="BQ44" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="5">
         <v>9274</v>
@@ -10370,10 +10519,13 @@
       <c r="BP45" s="6">
         <v>2</v>
       </c>
+      <c r="BQ45" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" s="5">
         <v>1150398</v>
@@ -10576,10 +10728,13 @@
       <c r="BP46" s="6">
         <v>918</v>
       </c>
+      <c r="BQ46" s="6">
+        <v>939</v>
+      </c>
     </row>
-    <row r="47" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B47" s="5">
         <v>3243</v>
@@ -10782,10 +10937,13 @@
       <c r="BP47" s="6">
         <v>4</v>
       </c>
+      <c r="BQ47" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B48" s="5">
         <v>22688</v>
@@ -10988,10 +11146,13 @@
       <c r="BP48" s="6">
         <v>16</v>
       </c>
+      <c r="BQ48" s="6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="49" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B49" s="5">
         <v>150366</v>
@@ -11194,10 +11355,13 @@
       <c r="BP49" s="6">
         <v>65</v>
       </c>
+      <c r="BQ49" s="6">
+        <v>65</v>
+      </c>
     </row>
-    <row r="50" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="5">
         <v>14855</v>
@@ -11400,10 +11564,13 @@
       <c r="BP50" s="6">
         <v>3</v>
       </c>
+      <c r="BQ50" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51" s="5">
         <v>4299</v>
@@ -11606,10 +11773,13 @@
       <c r="BP51" s="6">
         <v>1</v>
       </c>
+      <c r="BQ51" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="5">
         <v>41744</v>
@@ -11812,10 +11982,13 @@
       <c r="BP52" s="6">
         <v>12</v>
       </c>
+      <c r="BQ52" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="53" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5">
         <v>86638</v>
@@ -12018,10 +12191,13 @@
       <c r="BP53" s="6">
         <v>208</v>
       </c>
+      <c r="BQ53" s="6">
+        <v>211</v>
+      </c>
     </row>
-    <row r="54" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" s="5">
         <v>1578</v>
@@ -12224,10 +12400,13 @@
       <c r="BP54" s="6">
         <v>4</v>
       </c>
+      <c r="BQ54" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="5">
         <v>5349</v>
@@ -12430,10 +12609,13 @@
       <c r="BP55" s="6">
         <v>2</v>
       </c>
+      <c r="BQ55" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="5">
         <v>4082</v>
@@ -12636,10 +12818,13 @@
       <c r="BP56" s="6">
         <v>0</v>
       </c>
+      <c r="BQ56" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" s="5">
         <v>7247</v>
@@ -12842,10 +13027,13 @@
       <c r="BP57" s="6">
         <v>2</v>
       </c>
+      <c r="BQ57" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="5">
         <v>2722</v>
@@ -13048,10 +13236,13 @@
       <c r="BP58" s="6">
         <v>0</v>
       </c>
+      <c r="BQ58" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" s="5">
         <v>8054</v>
@@ -13254,10 +13445,13 @@
       <c r="BP59" s="6">
         <v>14</v>
       </c>
+      <c r="BQ59" s="6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="60" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="5">
         <v>2639966</v>
@@ -13460,10 +13654,13 @@
       <c r="BP60" s="6">
         <v>5870</v>
       </c>
+      <c r="BQ60" s="6">
+        <v>6123</v>
+      </c>
     </row>
-    <row r="61" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" s="5">
         <v>14756</v>
@@ -13666,10 +13863,13 @@
       <c r="BP61" s="6">
         <v>30</v>
       </c>
+      <c r="BQ61" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="62" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="5">
         <v>22599</v>
@@ -13872,10 +14072,13 @@
       <c r="BP62" s="6">
         <v>59</v>
       </c>
+      <c r="BQ62" s="6">
+        <v>67</v>
+      </c>
     </row>
-    <row r="63" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B63" s="5">
         <v>5805</v>
@@ -14078,10 +14281,13 @@
       <c r="BP63" s="6">
         <v>1</v>
       </c>
+      <c r="BQ63" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" s="5">
         <v>943020</v>
@@ -14284,10 +14490,13 @@
       <c r="BP64" s="6">
         <v>922</v>
       </c>
+      <c r="BQ64" s="6">
+        <v>946</v>
+      </c>
     </row>
-    <row r="65" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" s="5">
         <v>20937</v>
@@ -14490,10 +14699,13 @@
       <c r="BP65" s="6">
         <v>15</v>
       </c>
+      <c r="BQ65" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="66" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" s="5">
         <v>2482</v>
@@ -14696,10 +14908,13 @@
       <c r="BP66" s="6">
         <v>1</v>
       </c>
+      <c r="BQ66" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" s="5">
         <v>10870</v>
@@ -14902,10 +15117,13 @@
       <c r="BP67" s="6">
         <v>1</v>
       </c>
+      <c r="BQ67" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" s="5">
         <v>3873</v>
@@ -15108,10 +15326,13 @@
       <c r="BP68" s="6">
         <v>26</v>
       </c>
+      <c r="BQ68" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="69" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" s="5">
         <v>12596</v>
@@ -15314,10 +15535,13 @@
       <c r="BP69" s="6">
         <v>5</v>
       </c>
+      <c r="BQ69" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70" s="5">
         <v>19857</v>
@@ -15520,10 +15744,13 @@
       <c r="BP70" s="6">
         <v>3</v>
       </c>
+      <c r="BQ70" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="71" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B71" s="5">
         <v>159521</v>
@@ -15726,10 +15953,13 @@
       <c r="BP71" s="6">
         <v>99</v>
       </c>
+      <c r="BQ71" s="6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="72" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B72" s="5">
         <v>2174</v>
@@ -15932,10 +16162,13 @@
       <c r="BP72" s="6">
         <v>0</v>
       </c>
+      <c r="BQ72" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B73" s="5">
         <v>200285</v>
@@ -16138,10 +16371,13 @@
       <c r="BP73" s="6">
         <v>211</v>
       </c>
+      <c r="BQ73" s="6">
+        <v>216</v>
+      </c>
     </row>
-    <row r="74" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B74" s="5">
         <v>952366</v>
@@ -16344,10 +16580,13 @@
       <c r="BP74" s="6">
         <v>1340</v>
       </c>
+      <c r="BQ74" s="6">
+        <v>1348</v>
+      </c>
     </row>
-    <row r="75" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B75" s="5">
         <v>41649</v>
@@ -16550,10 +16789,13 @@
       <c r="BP75" s="6">
         <v>14</v>
       </c>
+      <c r="BQ75" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="76" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" s="5">
         <v>19236</v>
@@ -16756,10 +16998,13 @@
       <c r="BP76" s="6">
         <v>6</v>
       </c>
+      <c r="BQ76" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B77" s="5">
         <v>37727</v>
@@ -16962,10 +17207,13 @@
       <c r="BP77" s="6">
         <v>23</v>
       </c>
+      <c r="BQ77" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="78" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B78" s="5">
         <v>28422</v>
@@ -17168,10 +17416,13 @@
       <c r="BP78" s="6">
         <v>25</v>
       </c>
+      <c r="BQ78" s="6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="79" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B79" s="5">
         <v>3913</v>
@@ -17374,10 +17625,13 @@
       <c r="BP79" s="6">
         <v>0</v>
       </c>
+      <c r="BQ79" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B80" s="5">
         <v>6688</v>
@@ -17580,10 +17834,13 @@
       <c r="BP80" s="6">
         <v>4</v>
       </c>
+      <c r="BQ80" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="81" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="5">
         <v>1365</v>
@@ -17786,10 +18043,13 @@
       <c r="BP81" s="6">
         <v>0</v>
       </c>
+      <c r="BQ81" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B82" s="5">
         <v>888595</v>
@@ -17992,10 +18252,13 @@
       <c r="BP82" s="6">
         <v>1385</v>
       </c>
+      <c r="BQ82" s="6">
+        <v>1404</v>
+      </c>
     </row>
-    <row r="83" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B83" s="5">
         <v>11838</v>
@@ -18198,10 +18461,13 @@
       <c r="BP83" s="6">
         <v>3</v>
       </c>
+      <c r="BQ83" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="84" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B84" s="5">
         <v>21997</v>
@@ -18404,10 +18670,13 @@
       <c r="BP84" s="6">
         <v>7</v>
       </c>
+      <c r="BQ84" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="85" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="5">
         <v>20080</v>
@@ -18610,10 +18879,13 @@
       <c r="BP85" s="6">
         <v>34</v>
       </c>
+      <c r="BQ85" s="6">
+        <v>34</v>
+      </c>
     </row>
-    <row r="86" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" s="5">
         <v>21681</v>
@@ -18816,10 +19088,13 @@
       <c r="BP86" s="6">
         <v>3</v>
       </c>
+      <c r="BQ86" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="87" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" s="5">
         <v>335006</v>
@@ -19022,10 +19297,13 @@
       <c r="BP87" s="6">
         <v>685</v>
       </c>
+      <c r="BQ87" s="6">
+        <v>686</v>
+      </c>
     </row>
-    <row r="88" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B88" s="5">
         <v>6969</v>
@@ -19228,10 +19506,13 @@
       <c r="BP88" s="6">
         <v>3</v>
       </c>
+      <c r="BQ88" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B89" s="5">
         <v>29929</v>
@@ -19434,10 +19715,13 @@
       <c r="BP89" s="6">
         <v>4</v>
       </c>
+      <c r="BQ89" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B90" s="5">
         <v>1351</v>
@@ -19640,10 +19924,13 @@
       <c r="BP90" s="6">
         <v>1</v>
       </c>
+      <c r="BQ90" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B91" s="5">
         <v>8518</v>
@@ -19846,10 +20133,13 @@
       <c r="BP91" s="6">
         <v>7</v>
       </c>
+      <c r="BQ91" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="92" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B92" s="5">
         <v>22345</v>
@@ -20052,10 +20342,13 @@
       <c r="BP92" s="6">
         <v>59</v>
       </c>
+      <c r="BQ92" s="6">
+        <v>59</v>
+      </c>
     </row>
-    <row r="93" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B93" s="5">
         <v>24928</v>
@@ -20258,10 +20551,13 @@
       <c r="BP93" s="6">
         <v>75</v>
       </c>
+      <c r="BQ93" s="6">
+        <v>76</v>
+      </c>
     </row>
-    <row r="94" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B94" s="5">
         <v>133647</v>
@@ -20464,10 +20760,13 @@
       <c r="BP94" s="6">
         <v>91</v>
       </c>
+      <c r="BQ94" s="6">
+        <v>105</v>
+      </c>
     </row>
-    <row r="95" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B95" s="5">
         <v>136671</v>
@@ -20670,10 +20969,13 @@
       <c r="BP95" s="6">
         <v>118</v>
       </c>
+      <c r="BQ95" s="6">
+        <v>132</v>
+      </c>
     </row>
-    <row r="96" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B96" s="5">
         <v>30863</v>
@@ -20876,10 +21178,13 @@
       <c r="BP96" s="6">
         <v>42</v>
       </c>
+      <c r="BQ96" s="6">
+        <v>42</v>
+      </c>
     </row>
-    <row r="97" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B97" s="5">
         <v>182526</v>
@@ -21082,10 +21387,13 @@
       <c r="BP97" s="6">
         <v>97</v>
       </c>
+      <c r="BQ97" s="6">
+        <v>99</v>
+      </c>
     </row>
-    <row r="98" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B98" s="5">
         <v>38415</v>
@@ -21288,10 +21596,13 @@
       <c r="BP98" s="6">
         <v>37</v>
       </c>
+      <c r="BQ98" s="6">
+        <v>39</v>
+      </c>
     </row>
-    <row r="99" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B99" s="5">
         <v>3320</v>
@@ -21494,10 +21805,13 @@
       <c r="BP99" s="6">
         <v>0</v>
       </c>
+      <c r="BQ99" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B100" s="5">
         <v>8802</v>
@@ -21700,10 +22014,13 @@
       <c r="BP100" s="6">
         <v>7</v>
       </c>
+      <c r="BQ100" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="101" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" s="5">
         <v>6513</v>
@@ -21906,10 +22223,13 @@
       <c r="BP101" s="6">
         <v>12</v>
       </c>
+      <c r="BQ101" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="102" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B102" s="5">
         <v>4456</v>
@@ -22112,10 +22432,13 @@
       <c r="BP102" s="6">
         <v>0</v>
       </c>
+      <c r="BQ102" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B103" s="5">
         <v>62163</v>
@@ -22318,10 +22641,13 @@
       <c r="BP103" s="6">
         <v>115</v>
       </c>
+      <c r="BQ103" s="6">
+        <v>115</v>
+      </c>
     </row>
-    <row r="104" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B104" s="5">
         <v>4885616</v>
@@ -22524,10 +22850,13 @@
       <c r="BP104" s="6">
         <v>7878</v>
       </c>
+      <c r="BQ104" s="6">
+        <v>8176</v>
+      </c>
     </row>
-    <row r="105" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B105" s="5">
         <v>72253</v>
@@ -22730,10 +23059,13 @@
       <c r="BP105" s="6">
         <v>186</v>
       </c>
+      <c r="BQ105" s="6">
+        <v>189</v>
+      </c>
     </row>
-    <row r="106" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B106" s="5">
         <v>6321</v>
@@ -22936,10 +23268,13 @@
       <c r="BP106" s="6">
         <v>8</v>
       </c>
+      <c r="BQ106" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="107" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B107" s="5">
         <v>6072</v>
@@ -23142,10 +23477,13 @@
       <c r="BP107" s="6">
         <v>0</v>
       </c>
+      <c r="BQ107" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B108" s="5">
         <v>246119</v>
@@ -23348,10 +23686,13 @@
       <c r="BP108" s="6">
         <v>203</v>
       </c>
+      <c r="BQ108" s="6">
+        <v>203</v>
+      </c>
     </row>
-    <row r="109" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B109" s="5">
         <v>4389</v>
@@ -23554,10 +23895,13 @@
       <c r="BP109" s="6">
         <v>1</v>
       </c>
+      <c r="BQ109" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B110" s="5">
         <v>84178</v>
@@ -23760,10 +24104,13 @@
       <c r="BP110" s="6">
         <v>41</v>
       </c>
+      <c r="BQ110" s="6">
+        <v>46</v>
+      </c>
     </row>
-    <row r="111" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B111" s="5">
         <v>1005539</v>
@@ -23966,10 +24313,13 @@
       <c r="BP111" s="6">
         <v>389</v>
       </c>
+      <c r="BQ111" s="6">
+        <v>394</v>
+      </c>
     </row>
-    <row r="112" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B112" s="5">
         <v>39349</v>
@@ -24172,10 +24522,13 @@
       <c r="BP112" s="6">
         <v>19</v>
       </c>
+      <c r="BQ112" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="113" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B113" s="5">
         <v>24916</v>
@@ -24378,10 +24731,13 @@
       <c r="BP113" s="6">
         <v>20</v>
       </c>
+      <c r="BQ113" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="114" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B114" s="5">
         <v>61274</v>
@@ -24584,10 +24940,13 @@
       <c r="BP114" s="6">
         <v>19</v>
       </c>
+      <c r="BQ114" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="115" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B115" s="5">
         <v>38504</v>
@@ -24790,10 +25149,13 @@
       <c r="BP115" s="6">
         <v>8</v>
       </c>
+      <c r="BQ115" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="116" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B116" s="5">
         <v>25147</v>
@@ -24996,10 +25358,13 @@
       <c r="BP116" s="6">
         <v>13</v>
       </c>
+      <c r="BQ116" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="117" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B117" s="5">
         <v>37715</v>
@@ -25202,10 +25567,13 @@
       <c r="BP117" s="6">
         <v>6</v>
       </c>
+      <c r="BQ117" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="118" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B118" s="5">
         <v>3981</v>
@@ -25408,10 +25776,13 @@
       <c r="BP118" s="6">
         <v>0</v>
       </c>
+      <c r="BQ118" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B119" s="5">
         <v>101894</v>
@@ -25614,10 +25985,13 @@
       <c r="BP119" s="6">
         <v>57</v>
       </c>
+      <c r="BQ119" s="6">
+        <v>58</v>
+      </c>
     </row>
-    <row r="120" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B120" s="5">
         <v>22540</v>
@@ -25820,10 +26194,13 @@
       <c r="BP120" s="6">
         <v>21</v>
       </c>
+      <c r="BQ120" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="121" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B121" s="5">
         <v>1712</v>
@@ -26026,10 +26403,13 @@
       <c r="BP121" s="6">
         <v>0</v>
       </c>
+      <c r="BQ121" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B122" s="5">
         <v>9689</v>
@@ -26232,10 +26612,13 @@
       <c r="BP122" s="6">
         <v>4</v>
       </c>
+      <c r="BQ122" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B123" s="5">
         <v>14356</v>
@@ -26438,10 +26821,13 @@
       <c r="BP123" s="6">
         <v>14</v>
       </c>
+      <c r="BQ123" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="124" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B124" s="5">
         <v>37167</v>
@@ -26644,10 +27030,13 @@
       <c r="BP124" s="6">
         <v>19</v>
       </c>
+      <c r="BQ124" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="125" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B125" s="5">
         <v>2478</v>
@@ -26850,10 +27239,13 @@
       <c r="BP125" s="6">
         <v>0</v>
       </c>
+      <c r="BQ125" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B126" s="5">
         <v>268231</v>
@@ -27056,10 +27448,13 @@
       <c r="BP126" s="6">
         <v>381</v>
       </c>
+      <c r="BQ126" s="6">
+        <v>385</v>
+      </c>
     </row>
-    <row r="127" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B127" s="5">
         <v>5735</v>
@@ -27262,10 +27657,13 @@
       <c r="BP127" s="6">
         <v>3</v>
       </c>
+      <c r="BQ127" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="128" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B128" s="5">
         <v>44487</v>
@@ -27468,10 +27866,13 @@
       <c r="BP128" s="6">
         <v>7</v>
       </c>
+      <c r="BQ128" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="129" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B129" s="5">
         <v>186847</v>
@@ -27674,10 +28075,13 @@
       <c r="BP129" s="6">
         <v>103</v>
       </c>
+      <c r="BQ129" s="6">
+        <v>107</v>
+      </c>
     </row>
-    <row r="130" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B130" s="5">
         <v>22286</v>
@@ -27880,10 +28284,13 @@
       <c r="BP130" s="6">
         <v>95</v>
       </c>
+      <c r="BQ130" s="6">
+        <v>96</v>
+      </c>
     </row>
-    <row r="131" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B131" s="5">
         <v>16265</v>
@@ -28086,10 +28493,13 @@
       <c r="BP131" s="6">
         <v>3</v>
       </c>
+      <c r="BQ131" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="132" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B132" s="5">
         <v>149063</v>
@@ -28292,10 +28702,13 @@
       <c r="BP132" s="6">
         <v>120</v>
       </c>
+      <c r="BQ132" s="6">
+        <v>127</v>
+      </c>
     </row>
-    <row r="133" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B133" s="5">
         <v>44958</v>
@@ -28498,10 +28911,13 @@
       <c r="BP133" s="6">
         <v>19</v>
       </c>
+      <c r="BQ133" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="134" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B134" s="5">
         <v>462</v>
@@ -28704,10 +29120,13 @@
       <c r="BP134" s="6">
         <v>0</v>
       </c>
+      <c r="BQ134" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B135" s="5">
         <v>809</v>
@@ -28910,10 +29329,13 @@
       <c r="BP135" s="6">
         <v>0</v>
       </c>
+      <c r="BQ135" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B136" s="5">
         <v>57004</v>
@@ -29116,10 +29538,13 @@
       <c r="BP136" s="6">
         <v>9</v>
       </c>
+      <c r="BQ136" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="137" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B137" s="5">
         <v>5052</v>
@@ -29322,10 +29747,13 @@
       <c r="BP137" s="6">
         <v>1</v>
       </c>
+      <c r="BQ137" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B138" s="5">
         <v>299</v>
@@ -29528,10 +29956,13 @@
       <c r="BP138" s="6">
         <v>0</v>
       </c>
+      <c r="BQ138" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B139" s="5">
         <v>3816</v>
@@ -29734,10 +30165,13 @@
       <c r="BP139" s="6">
         <v>0</v>
       </c>
+      <c r="BQ139" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B140" s="5">
         <v>35499</v>
@@ -29940,10 +30374,13 @@
       <c r="BP140" s="6">
         <v>11</v>
       </c>
+      <c r="BQ140" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="141" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B141" s="5">
         <v>3762</v>
@@ -30146,10 +30583,13 @@
       <c r="BP141" s="6">
         <v>1</v>
       </c>
+      <c r="BQ141" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B142" s="5">
         <v>53136</v>
@@ -30352,10 +30792,13 @@
       <c r="BP142" s="6">
         <v>89</v>
       </c>
+      <c r="BQ142" s="6">
+        <v>96</v>
+      </c>
     </row>
-    <row r="143" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B143" s="5">
         <v>14620</v>
@@ -30558,10 +31001,13 @@
       <c r="BP143" s="6">
         <v>7</v>
       </c>
+      <c r="BQ143" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="144" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B144" s="5">
         <v>23399</v>
@@ -30764,10 +31210,13 @@
       <c r="BP144" s="6">
         <v>8</v>
       </c>
+      <c r="BQ144" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="145" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B145" s="5">
         <v>8210</v>
@@ -30970,10 +31419,13 @@
       <c r="BP145" s="6">
         <v>2</v>
       </c>
+      <c r="BQ145" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="146" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B146" s="5">
         <v>19830</v>
@@ -31176,10 +31628,13 @@
       <c r="BP146" s="6">
         <v>6</v>
       </c>
+      <c r="BQ146" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="147" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" s="5">
         <v>19104</v>
@@ -31382,10 +31837,13 @@
       <c r="BP147" s="6">
         <v>5</v>
       </c>
+      <c r="BQ147" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="148" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" s="5">
         <v>19495</v>
@@ -31588,10 +32046,13 @@
       <c r="BP148" s="6">
         <v>9</v>
       </c>
+      <c r="BQ148" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="149" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" s="5">
         <v>90780</v>
@@ -31794,10 +32255,13 @@
       <c r="BP149" s="6">
         <v>66</v>
       </c>
+      <c r="BQ149" s="6">
+        <v>70</v>
+      </c>
     </row>
-    <row r="150" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B150" s="5">
         <v>26085</v>
@@ -32000,10 +32464,13 @@
       <c r="BP150" s="6">
         <v>15</v>
       </c>
+      <c r="BQ150" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="151" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B151" s="5">
         <v>3797</v>
@@ -32206,10 +32673,13 @@
       <c r="BP151" s="6">
         <v>2</v>
       </c>
+      <c r="BQ151" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B152" s="5">
         <v>11854</v>
@@ -32412,10 +32882,13 @@
       <c r="BP152" s="6">
         <v>5</v>
       </c>
+      <c r="BQ152" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="153" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B153" s="5">
         <v>21407</v>
@@ -32618,10 +33091,13 @@
       <c r="BP153" s="6">
         <v>3</v>
       </c>
+      <c r="BQ153" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="154" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B154" s="5">
         <v>81</v>
@@ -32824,10 +33300,13 @@
       <c r="BP154" s="6">
         <v>0</v>
       </c>
+      <c r="BQ154" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B155" s="5">
         <v>313938</v>
@@ -33030,10 +33509,13 @@
       <c r="BP155" s="6">
         <v>592</v>
       </c>
+      <c r="BQ155" s="6">
+        <v>598</v>
+      </c>
     </row>
-    <row r="156" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B156" s="5">
         <v>6239</v>
@@ -33236,10 +33718,13 @@
       <c r="BP156" s="6">
         <v>5</v>
       </c>
+      <c r="BQ156" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="157" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B157" s="5">
         <v>9040</v>
@@ -33442,10 +33927,13 @@
       <c r="BP157" s="6">
         <v>3</v>
       </c>
+      <c r="BQ157" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="158" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B158" s="5">
         <v>255521</v>
@@ -33648,10 +34136,13 @@
       <c r="BP158" s="6">
         <v>94</v>
       </c>
+      <c r="BQ158" s="6">
+        <v>94</v>
+      </c>
     </row>
-    <row r="159" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B159" s="5">
         <v>771</v>
@@ -33854,10 +34345,13 @@
       <c r="BP159" s="6">
         <v>0</v>
       </c>
+      <c r="BQ159" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B160" s="5">
         <v>15654</v>
@@ -34060,10 +34554,13 @@
       <c r="BP160" s="6">
         <v>3</v>
       </c>
+      <c r="BQ160" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="161" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B161" s="5">
         <v>11384</v>
@@ -34266,10 +34763,13 @@
       <c r="BP161" s="6">
         <v>15</v>
       </c>
+      <c r="BQ161" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="162" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B162" s="5">
         <v>5606</v>
@@ -34472,10 +34972,13 @@
       <c r="BP162" s="6">
         <v>3</v>
       </c>
+      <c r="BQ162" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="163" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B163" s="5">
         <v>4211</v>
@@ -34678,10 +35181,13 @@
       <c r="BP163" s="6">
         <v>28</v>
       </c>
+      <c r="BQ163" s="6">
+        <v>28</v>
+      </c>
     </row>
-    <row r="164" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B164" s="5">
         <v>39696</v>
@@ -34884,10 +35390,13 @@
       <c r="BP164" s="6">
         <v>62</v>
       </c>
+      <c r="BQ164" s="6">
+        <v>62</v>
+      </c>
     </row>
-    <row r="165" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B165" s="5">
         <v>63502</v>
@@ -35090,10 +35599,13 @@
       <c r="BP165" s="6">
         <v>26</v>
       </c>
+      <c r="BQ165" s="6">
+        <v>41</v>
+      </c>
     </row>
-    <row r="166" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B166" s="5">
         <v>56907</v>
@@ -35296,10 +35808,13 @@
       <c r="BP166" s="6">
         <v>32</v>
       </c>
+      <c r="BQ166" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="167" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B167" s="5">
         <v>2406</v>
@@ -35502,10 +36017,13 @@
       <c r="BP167" s="6">
         <v>0</v>
       </c>
+      <c r="BQ167" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B168" s="5">
         <v>159256</v>
@@ -35708,10 +36226,13 @@
       <c r="BP168" s="6">
         <v>101</v>
       </c>
+      <c r="BQ168" s="6">
+        <v>107</v>
+      </c>
     </row>
-    <row r="169" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B169" s="5">
         <v>26786</v>
@@ -35914,10 +36435,13 @@
       <c r="BP169" s="6">
         <v>20</v>
       </c>
+      <c r="BQ169" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="170" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B170" s="5">
         <v>5240</v>
@@ -36120,10 +36644,13 @@
       <c r="BP170" s="6">
         <v>0</v>
       </c>
+      <c r="BQ170" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B171" s="5">
         <v>10050</v>
@@ -36326,10 +36853,13 @@
       <c r="BP171" s="6">
         <v>1</v>
       </c>
+      <c r="BQ171" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B172" s="5">
         <v>21462</v>
@@ -36532,10 +37062,13 @@
       <c r="BP172" s="6">
         <v>9</v>
       </c>
+      <c r="BQ172" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="173" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B173" s="5">
         <v>660481</v>
@@ -36738,10 +37271,13 @@
       <c r="BP173" s="6">
         <v>699</v>
       </c>
+      <c r="BQ173" s="6">
+        <v>724</v>
+      </c>
     </row>
-    <row r="174" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B174" s="5">
         <v>25817</v>
@@ -36944,10 +37480,13 @@
       <c r="BP174" s="6">
         <v>526</v>
       </c>
+      <c r="BQ174" s="6">
+        <v>535</v>
+      </c>
     </row>
-    <row r="175" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B175" s="5">
         <v>13917</v>
@@ -37150,10 +37689,13 @@
       <c r="BP175" s="6">
         <v>9</v>
       </c>
+      <c r="BQ175" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="176" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B176" s="5">
         <v>1196</v>
@@ -37356,10 +37898,13 @@
       <c r="BP176" s="6">
         <v>1</v>
       </c>
+      <c r="BQ176" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B177" s="5">
         <v>73458</v>
@@ -37562,10 +38107,13 @@
       <c r="BP177" s="6">
         <v>211</v>
       </c>
+      <c r="BQ177" s="6">
+        <v>221</v>
+      </c>
     </row>
-    <row r="178" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B178" s="5">
         <v>55437</v>
@@ -37768,10 +38316,13 @@
       <c r="BP178" s="6">
         <v>36</v>
       </c>
+      <c r="BQ178" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="179" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B179" s="5">
         <v>14314</v>
@@ -37974,10 +38525,13 @@
       <c r="BP179" s="6">
         <v>4</v>
       </c>
+      <c r="BQ179" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="180" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B180" s="5">
         <v>16176</v>
@@ -38180,10 +38734,13 @@
       <c r="BP180" s="6">
         <v>2</v>
       </c>
+      <c r="BQ180" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="181" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B181" s="5">
         <v>376623</v>
@@ -38386,10 +38943,13 @@
       <c r="BP181" s="6">
         <v>132</v>
       </c>
+      <c r="BQ181" s="6">
+        <v>147</v>
+      </c>
     </row>
-    <row r="182" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B182" s="5">
         <v>12755</v>
@@ -38592,10 +39152,13 @@
       <c r="BP182" s="6">
         <v>29</v>
       </c>
+      <c r="BQ182" s="6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="183" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B183" s="5">
         <v>2233</v>
@@ -38798,10 +39361,13 @@
       <c r="BP183" s="6">
         <v>3</v>
       </c>
+      <c r="BQ183" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="184" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B184" s="5">
         <v>88026</v>
@@ -39004,10 +39570,13 @@
       <c r="BP184" s="6">
         <v>85</v>
       </c>
+      <c r="BQ184" s="6">
+        <v>85</v>
+      </c>
     </row>
-    <row r="185" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B185" s="5">
         <v>31708</v>
@@ -39210,10 +39779,13 @@
       <c r="BP185" s="6">
         <v>9</v>
       </c>
+      <c r="BQ185" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="186" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B186" s="5">
         <v>25965</v>
@@ -39416,10 +39988,13 @@
       <c r="BP186" s="6">
         <v>144</v>
       </c>
+      <c r="BQ186" s="6">
+        <v>149</v>
+      </c>
     </row>
-    <row r="187" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B187" s="5">
         <v>159119</v>
@@ -39622,10 +40197,13 @@
       <c r="BP187" s="6">
         <v>45</v>
       </c>
+      <c r="BQ187" s="6">
+        <v>45</v>
+      </c>
     </row>
-    <row r="188" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B188" s="5">
         <v>12385</v>
@@ -39828,10 +40406,13 @@
       <c r="BP188" s="6">
         <v>19</v>
       </c>
+      <c r="BQ188" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="189" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B189" s="5">
         <v>17026</v>
@@ -40034,10 +40615,13 @@
       <c r="BP189" s="6">
         <v>15</v>
       </c>
+      <c r="BQ189" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="190" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B190" s="5">
         <v>51908</v>
@@ -40240,10 +40824,13 @@
       <c r="BP190" s="6">
         <v>35</v>
       </c>
+      <c r="BQ190" s="6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="191" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B191" s="5">
         <v>134475</v>
@@ -40446,10 +41033,13 @@
       <c r="BP191" s="6">
         <v>1124</v>
       </c>
+      <c r="BQ191" s="6">
+        <v>1179</v>
+      </c>
     </row>
-    <row r="192" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B192" s="5">
         <v>8683</v>
@@ -40652,10 +41242,13 @@
       <c r="BP192" s="6">
         <v>0</v>
       </c>
+      <c r="BQ192" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B193" s="5">
         <v>13134</v>
@@ -40858,10 +41451,13 @@
       <c r="BP193" s="6">
         <v>2</v>
       </c>
+      <c r="BQ193" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="194" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B194" s="5">
         <v>142109</v>
@@ -41064,10 +41660,13 @@
       <c r="BP194" s="6">
         <v>358</v>
       </c>
+      <c r="BQ194" s="6">
+        <v>379</v>
+      </c>
     </row>
-    <row r="195" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B195" s="5">
         <v>3908</v>
@@ -41270,10 +41869,13 @@
       <c r="BP195" s="6">
         <v>0</v>
       </c>
+      <c r="BQ195" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B196" s="5">
         <v>3439</v>
@@ -41476,10 +42078,13 @@
       <c r="BP196" s="6">
         <v>0</v>
       </c>
+      <c r="BQ196" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B197" s="5">
         <v>13468</v>
@@ -41682,10 +42287,13 @@
       <c r="BP197" s="6">
         <v>9</v>
       </c>
+      <c r="BQ197" s="6">
+        <v>27</v>
+      </c>
     </row>
-    <row r="198" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B198" s="5">
         <v>14934</v>
@@ -41888,10 +42496,13 @@
       <c r="BP198" s="6">
         <v>1</v>
       </c>
+      <c r="BQ198" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="199" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B199" s="5">
         <v>7514</v>
@@ -42094,10 +42705,13 @@
       <c r="BP199" s="6">
         <v>1</v>
       </c>
+      <c r="BQ199" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="200" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B200" s="5">
         <v>994</v>
@@ -42300,10 +42914,13 @@
       <c r="BP200" s="6">
         <v>2</v>
       </c>
+      <c r="BQ200" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B201" s="5">
         <v>19553</v>
@@ -42506,10 +43123,13 @@
       <c r="BP201" s="6">
         <v>5</v>
       </c>
+      <c r="BQ201" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="202" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B202" s="5">
         <v>115985</v>
@@ -42712,10 +43332,13 @@
       <c r="BP202" s="6">
         <v>104</v>
       </c>
+      <c r="BQ202" s="6">
+        <v>113</v>
+      </c>
     </row>
-    <row r="203" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B203" s="5">
         <v>11010</v>
@@ -42918,10 +43541,13 @@
       <c r="BP203" s="6">
         <v>2</v>
       </c>
+      <c r="BQ203" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="204" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B204" s="5">
         <v>63351</v>
@@ -43124,10 +43750,13 @@
       <c r="BP204" s="6">
         <v>40</v>
       </c>
+      <c r="BQ204" s="6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="205" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B205" s="5">
         <v>12186</v>
@@ -43330,10 +43959,13 @@
       <c r="BP205" s="6">
         <v>2</v>
       </c>
+      <c r="BQ205" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="206" spans="1:68" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:69" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B206" s="5">
         <v>9340</v>
@@ -43536,10 +44168,13 @@
       <c r="BP206" s="6">
         <v>21</v>
       </c>
+      <c r="BQ206" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="207" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B207" s="5">
         <v>32428</v>
@@ -43742,10 +44377,13 @@
       <c r="BP207" s="6">
         <v>11</v>
       </c>
+      <c r="BQ207" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="208" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B208" s="5">
         <v>68331</v>
@@ -43948,10 +44586,13 @@
       <c r="BP208" s="6">
         <v>22</v>
       </c>
+      <c r="BQ208" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="209" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B209" s="5">
         <v>6482</v>
@@ -44154,10 +44795,13 @@
       <c r="BP209" s="6">
         <v>0</v>
       </c>
+      <c r="BQ209" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B210" s="5">
         <v>3920</v>
@@ -44360,10 +45004,13 @@
       <c r="BP210" s="6">
         <v>0</v>
       </c>
+      <c r="BQ210" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B211" s="5">
         <v>18906</v>
@@ -44566,10 +45213,13 @@
       <c r="BP211" s="6">
         <v>2</v>
       </c>
+      <c r="BQ211" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="212" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B212" s="5">
         <v>3734</v>
@@ -44772,10 +45422,13 @@
       <c r="BP212" s="6">
         <v>1</v>
       </c>
+      <c r="BQ212" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B213" s="5">
         <v>28649</v>
@@ -44978,10 +45631,13 @@
       <c r="BP213" s="6">
         <v>152</v>
       </c>
+      <c r="BQ213" s="6">
+        <v>158</v>
+      </c>
     </row>
-    <row r="214" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B214" s="5">
         <v>3440</v>
@@ -45184,10 +45840,13 @@
       <c r="BP214" s="6">
         <v>23</v>
       </c>
+      <c r="BQ214" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="215" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B215" s="5">
         <v>243064</v>
@@ -45390,10 +46049,13 @@
       <c r="BP215" s="6">
         <v>174</v>
       </c>
+      <c r="BQ215" s="6">
+        <v>177</v>
+      </c>
     </row>
-    <row r="216" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B216" s="5">
         <v>10480</v>
@@ -45596,10 +46258,13 @@
       <c r="BP216" s="6">
         <v>0</v>
       </c>
+      <c r="BQ216" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B217" s="5">
         <v>68878</v>
@@ -45802,10 +46467,13 @@
       <c r="BP217" s="6">
         <v>14</v>
       </c>
+      <c r="BQ217" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="218" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B218" s="5">
         <v>10297</v>
@@ -46008,10 +46676,13 @@
       <c r="BP218" s="6">
         <v>1</v>
       </c>
+      <c r="BQ218" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="219" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B219" s="5">
         <v>1214</v>
@@ -46214,10 +46885,13 @@
       <c r="BP219" s="6">
         <v>0</v>
       </c>
+      <c r="BQ219" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B220" s="5">
         <v>1515</v>
@@ -46420,10 +47094,13 @@
       <c r="BP220" s="6">
         <v>0</v>
       </c>
+      <c r="BQ220" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B221" s="5">
         <v>4651</v>
@@ -46626,10 +47303,13 @@
       <c r="BP221" s="6">
         <v>0</v>
       </c>
+      <c r="BQ221" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B222" s="5">
         <v>8230</v>
@@ -46832,10 +47512,13 @@
       <c r="BP222" s="6">
         <v>12</v>
       </c>
+      <c r="BQ222" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="223" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B223" s="5">
         <v>2127850</v>
@@ -47038,10 +47721,13 @@
       <c r="BP223" s="6">
         <v>3695</v>
       </c>
+      <c r="BQ223" s="6">
+        <v>3745</v>
+      </c>
     </row>
-    <row r="224" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B224" s="5">
         <v>138279</v>
@@ -47244,10 +47930,13 @@
       <c r="BP224" s="6">
         <v>208</v>
       </c>
+      <c r="BQ224" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="225" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B225" s="5">
         <v>1047</v>
@@ -47450,10 +48139,13 @@
       <c r="BP225" s="6">
         <v>0</v>
       </c>
+      <c r="BQ225" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B226" s="5">
         <v>13323</v>
@@ -47656,10 +48348,13 @@
       <c r="BP226" s="6">
         <v>12</v>
       </c>
+      <c r="BQ226" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="227" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B227" s="5">
         <v>1639</v>
@@ -47862,10 +48557,13 @@
       <c r="BP227" s="6">
         <v>0</v>
       </c>
+      <c r="BQ227" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B228" s="5">
         <v>37790</v>
@@ -48068,10 +48766,13 @@
       <c r="BP228" s="6">
         <v>35</v>
       </c>
+      <c r="BQ228" s="6">
+        <v>37</v>
+      </c>
     </row>
-    <row r="229" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B229" s="5">
         <v>114995</v>
@@ -48274,10 +48975,13 @@
       <c r="BP229" s="6">
         <v>59</v>
       </c>
+      <c r="BQ229" s="6">
+        <v>59</v>
+      </c>
     </row>
-    <row r="230" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B230" s="5">
         <v>1277007</v>
@@ -48480,10 +49184,13 @@
       <c r="BP230" s="6">
         <v>2127</v>
       </c>
+      <c r="BQ230" s="6">
+        <v>2171</v>
+      </c>
     </row>
-    <row r="231" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B231" s="5">
         <v>16618</v>
@@ -48686,10 +49393,13 @@
       <c r="BP231" s="6">
         <v>11</v>
       </c>
+      <c r="BQ231" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="232" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B232" s="5">
         <v>22646</v>
@@ -48892,10 +49602,13 @@
       <c r="BP232" s="6">
         <v>7</v>
       </c>
+      <c r="BQ232" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="233" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B233" s="5">
         <v>45120</v>
@@ -49098,10 +49811,13 @@
       <c r="BP233" s="6">
         <v>17</v>
       </c>
+      <c r="BQ233" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="234" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B234" s="5">
         <v>3886</v>
@@ -49304,10 +50020,13 @@
       <c r="BP234" s="6">
         <v>0</v>
       </c>
+      <c r="BQ234" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B235" s="5">
         <v>28593</v>
@@ -49510,10 +50229,13 @@
       <c r="BP235" s="6">
         <v>6</v>
       </c>
+      <c r="BQ235" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="236" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B236" s="5">
         <v>53256</v>
@@ -49716,10 +50438,13 @@
       <c r="BP236" s="6">
         <v>13</v>
       </c>
+      <c r="BQ236" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="237" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B237" s="5">
         <v>58259</v>
@@ -49922,10 +50647,13 @@
       <c r="BP237" s="6">
         <v>18</v>
       </c>
+      <c r="BQ237" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="238" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B238" s="5">
         <v>92845</v>
@@ -50128,10 +50856,13 @@
       <c r="BP238" s="6">
         <v>150</v>
       </c>
+      <c r="BQ238" s="6">
+        <v>150</v>
+      </c>
     </row>
-    <row r="239" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B239" s="5">
         <v>72778</v>
@@ -50334,10 +51065,13 @@
       <c r="BP239" s="6">
         <v>342</v>
       </c>
+      <c r="BQ239" s="6">
+        <v>342</v>
+      </c>
     </row>
-    <row r="240" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B240" s="5">
         <v>58002</v>
@@ -50540,10 +51274,13 @@
       <c r="BP240" s="6">
         <v>37</v>
       </c>
+      <c r="BQ240" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="241" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B241" s="5">
         <v>11213</v>
@@ -50746,10 +51483,13 @@
       <c r="BP241" s="6">
         <v>0</v>
       </c>
+      <c r="BQ241" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B242" s="5">
         <v>37673</v>
@@ -50952,10 +51692,13 @@
       <c r="BP242" s="6">
         <v>164</v>
       </c>
+      <c r="BQ242" s="6">
+        <v>170</v>
+      </c>
     </row>
-    <row r="243" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B243" s="5">
         <v>317733</v>
@@ -51158,10 +51901,13 @@
       <c r="BP243" s="6">
         <v>435</v>
       </c>
+      <c r="BQ243" s="6">
+        <v>437</v>
+      </c>
     </row>
-    <row r="244" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B244" s="5">
         <v>43271</v>
@@ -51364,10 +52110,13 @@
       <c r="BP244" s="6">
         <v>41</v>
       </c>
+      <c r="BQ244" s="6">
+        <v>42</v>
+      </c>
     </row>
-    <row r="245" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B245" s="5">
         <v>5934</v>
@@ -51570,10 +52319,13 @@
       <c r="BP245" s="6">
         <v>14</v>
       </c>
+      <c r="BQ245" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="246" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B246" s="5">
         <v>133363</v>
@@ -51776,10 +52528,13 @@
       <c r="BP246" s="6">
         <v>75</v>
       </c>
+      <c r="BQ246" s="6">
+        <v>75</v>
+      </c>
     </row>
-    <row r="247" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B247" s="5">
         <v>14897</v>
@@ -51982,10 +52737,13 @@
       <c r="BP247" s="6">
         <v>2</v>
       </c>
+      <c r="BQ247" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="248" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B248" s="5">
         <v>26817</v>
@@ -52188,10 +52946,13 @@
       <c r="BP248" s="6">
         <v>14</v>
       </c>
+      <c r="BQ248" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="249" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B249" s="5">
         <v>633783</v>
@@ -52394,10 +53155,13 @@
       <c r="BP249" s="6">
         <v>377</v>
       </c>
+      <c r="BQ249" s="6">
+        <v>380</v>
+      </c>
     </row>
-    <row r="250" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B250" s="5">
         <v>57292</v>
@@ -52600,10 +53364,13 @@
       <c r="BP250" s="6">
         <v>36</v>
       </c>
+      <c r="BQ250" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="251" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B251" s="5">
         <v>8371</v>
@@ -52806,10 +53573,13 @@
       <c r="BP251" s="6">
         <v>3</v>
       </c>
+      <c r="BQ251" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="252" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B252" s="5">
         <v>74490</v>
@@ -53012,10 +53782,13 @@
       <c r="BP252" s="6">
         <v>30</v>
       </c>
+      <c r="BQ252" s="6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="253" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B253" s="5">
         <v>48594</v>
@@ -53218,10 +53991,13 @@
       <c r="BP253" s="6">
         <v>14</v>
       </c>
+      <c r="BQ253" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="254" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B254" s="5">
         <v>9591</v>
@@ -53424,10 +54200,13 @@
       <c r="BP254" s="6">
         <v>2</v>
       </c>
+      <c r="BQ254" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="255" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B255" s="5">
         <v>19914</v>
@@ -53630,10 +54409,13 @@
       <c r="BP255" s="6">
         <v>4</v>
       </c>
+      <c r="BQ255" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="256" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B256" s="5">
         <v>17043</v>
@@ -53836,10 +54618,13 @@
       <c r="BP256" s="6">
         <v>7</v>
       </c>
+      <c r="BQ256" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="257" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B257" s="5">
         <v>12895</v>
@@ -54042,10 +54827,13 @@
       <c r="BP257" s="6">
         <v>2</v>
       </c>
+      <c r="BQ257" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="258" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B258" s="5">
         <v>30541978</v>
@@ -54248,452 +55036,322 @@
       <c r="BP258" s="6">
         <v>39869</v>
       </c>
+      <c r="BQ258" s="6">
+        <v>41048</v>
+      </c>
     </row>
-    <row r="259" spans="1:68" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B259" s="5" t="s">
+    <row r="259" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="7"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5"/>
+      <c r="V259" s="5"/>
+      <c r="W259" s="5"/>
+      <c r="X259" s="5"/>
+      <c r="Y259" s="5"/>
+      <c r="Z259" s="5"/>
+      <c r="AA259" s="5"/>
+      <c r="AB259" s="5"/>
+      <c r="AC259" s="5"/>
+      <c r="AD259" s="5"/>
+      <c r="AE259" s="5"/>
+      <c r="AF259" s="5"/>
+      <c r="AG259" s="5"/>
+      <c r="AH259" s="5"/>
+      <c r="AI259" s="5"/>
+      <c r="AJ259" s="5"/>
+      <c r="AK259" s="5"/>
+      <c r="AL259" s="5"/>
+      <c r="AM259" s="5"/>
+      <c r="AN259" s="5"/>
+      <c r="AO259" s="5"/>
+      <c r="AP259" s="5"/>
+      <c r="AQ259" s="5"/>
+      <c r="AR259" s="5"/>
+      <c r="AS259" s="5"/>
+      <c r="AT259" s="5"/>
+      <c r="AU259" s="5"/>
+      <c r="AV259" s="5"/>
+      <c r="AW259" s="5"/>
+      <c r="AX259" s="5"/>
+      <c r="AY259" s="5"/>
+      <c r="AZ259" s="5"/>
+      <c r="BA259" s="5"/>
+      <c r="BB259" s="5"/>
+      <c r="BC259" s="5"/>
+      <c r="BD259" s="5"/>
+      <c r="BE259" s="6"/>
+      <c r="BF259" s="6"/>
+      <c r="BG259" s="6"/>
+      <c r="BH259" s="6"/>
+      <c r="BI259" s="6"/>
+      <c r="BJ259" s="6"/>
+      <c r="BK259" s="6"/>
+      <c r="BL259" s="6"/>
+      <c r="BM259" s="6"/>
+      <c r="BN259" s="6"/>
+      <c r="BO259" s="6"/>
+      <c r="BP259" s="6"/>
+      <c r="BQ259" s="6"/>
+    </row>
+    <row r="260" spans="1:69" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="J259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="L259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="M259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="N259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="O259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="P259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="R259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="S259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="T259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="U259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="V259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="W259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="X259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AG259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AK259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AN259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AO259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AT259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AV259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AW259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AX259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AZ259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BA259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BB259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BC259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD259" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BE259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BF259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BG259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BI259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BJ259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BK259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BL259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BN259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BO259" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BP259" s="6" t="s">
-        <v>325</v>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8">
+        <v>0</v>
+      </c>
+      <c r="D260" s="8">
+        <v>0</v>
+      </c>
+      <c r="E260" s="8">
+        <v>2</v>
+      </c>
+      <c r="F260" s="8">
+        <v>3</v>
+      </c>
+      <c r="G260" s="8">
+        <v>4</v>
+      </c>
+      <c r="H260" s="8">
+        <v>6</v>
+      </c>
+      <c r="I260" s="8">
+        <v>7</v>
+      </c>
+      <c r="J260" s="8">
+        <v>7</v>
+      </c>
+      <c r="K260" s="8">
+        <v>17</v>
+      </c>
+      <c r="L260" s="8">
+        <v>17</v>
+      </c>
+      <c r="M260" s="8">
+        <v>20</v>
+      </c>
+      <c r="N260" s="8">
+        <v>23</v>
+      </c>
+      <c r="O260" s="8">
+        <v>27</v>
+      </c>
+      <c r="P260" s="8">
+        <v>34</v>
+      </c>
+      <c r="Q260" s="8">
+        <v>41</v>
+      </c>
+      <c r="R260" s="8">
+        <v>43</v>
+      </c>
+      <c r="S260" s="8">
+        <v>46</v>
+      </c>
+      <c r="T260" s="8">
+        <v>65</v>
+      </c>
+      <c r="U260" s="8">
+        <v>82</v>
+      </c>
+      <c r="V260" s="8">
+        <v>92</v>
+      </c>
+      <c r="W260" s="8">
+        <v>104</v>
+      </c>
+      <c r="X260" s="8">
+        <v>110</v>
+      </c>
+      <c r="Y260" s="8">
+        <v>118</v>
+      </c>
+      <c r="Z260" s="8">
+        <v>122</v>
+      </c>
+      <c r="AA260" s="8">
+        <v>122</v>
+      </c>
+      <c r="AB260" s="8">
+        <v>135</v>
+      </c>
+      <c r="AC260" s="8">
+        <v>143</v>
+      </c>
+      <c r="AD260" s="8">
+        <v>145</v>
+      </c>
+      <c r="AE260" s="8">
+        <v>151</v>
+      </c>
+      <c r="AF260" s="8">
+        <v>152</v>
+      </c>
+      <c r="AG260" s="8">
+        <v>156</v>
+      </c>
+      <c r="AH260" s="8">
+        <v>161</v>
+      </c>
+      <c r="AI260" s="8">
+        <v>167</v>
+      </c>
+      <c r="AJ260" s="8">
+        <v>170</v>
+      </c>
+      <c r="AK260" s="8">
+        <v>176</v>
+      </c>
+      <c r="AL260" s="8">
+        <v>177</v>
+      </c>
+      <c r="AM260" s="8">
+        <v>177</v>
+      </c>
+      <c r="AN260" s="8">
+        <v>178</v>
+      </c>
+      <c r="AO260" s="8">
+        <v>181</v>
+      </c>
+      <c r="AP260" s="8">
+        <v>184</v>
+      </c>
+      <c r="AQ260" s="8">
+        <v>191</v>
+      </c>
+      <c r="AR260" s="8">
+        <v>192</v>
+      </c>
+      <c r="AS260" s="8">
+        <v>194</v>
+      </c>
+      <c r="AT260" s="8">
+        <v>197</v>
+      </c>
+      <c r="AU260" s="8">
+        <v>198</v>
+      </c>
+      <c r="AV260" s="8">
+        <v>198</v>
+      </c>
+      <c r="AW260" s="8">
+        <v>200</v>
+      </c>
+      <c r="AX260" s="8">
+        <v>202</v>
+      </c>
+      <c r="AY260" s="8">
+        <v>204</v>
+      </c>
+      <c r="AZ260" s="8">
+        <v>204</v>
+      </c>
+      <c r="BA260" s="8">
+        <v>204</v>
+      </c>
+      <c r="BB260" s="8">
+        <v>205</v>
+      </c>
+      <c r="BC260" s="8">
+        <v>207</v>
+      </c>
+      <c r="BD260" s="8">
+        <v>207</v>
+      </c>
+      <c r="BE260" s="8">
+        <v>209</v>
+      </c>
+      <c r="BF260" s="8">
+        <v>210</v>
+      </c>
+      <c r="BG260" s="8">
+        <v>212</v>
+      </c>
+      <c r="BH260" s="8">
+        <v>212</v>
+      </c>
+      <c r="BI260" s="8">
+        <v>213</v>
+      </c>
+      <c r="BJ260" s="8">
+        <v>216</v>
+      </c>
+      <c r="BK260" s="8">
+        <v>216</v>
+      </c>
+      <c r="BL260" s="8">
+        <v>217</v>
+      </c>
+      <c r="BM260" s="8">
+        <v>219</v>
+      </c>
+      <c r="BN260" s="8">
+        <v>219</v>
+      </c>
+      <c r="BO260" s="8">
+        <v>219</v>
+      </c>
+      <c r="BP260" s="8">
+        <v>219</v>
+      </c>
+      <c r="BQ260" s="8">
+        <f t="shared" ref="BQ260" si="0">COUNTIF(BQ4:BQ257,"&lt;&gt;0")</f>
+        <v>220</v>
       </c>
     </row>
-    <row r="260" spans="1:68" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="7" t="s">
+    <row r="262" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C260" s="10">
-        <v>0</v>
-      </c>
-      <c r="D260" s="10">
-        <v>0</v>
-      </c>
-      <c r="E260" s="10">
-        <v>2</v>
-      </c>
-      <c r="F260" s="10">
-        <v>3</v>
-      </c>
-      <c r="G260" s="10">
-        <v>4</v>
-      </c>
-      <c r="H260" s="10">
-        <v>6</v>
-      </c>
-      <c r="I260" s="10">
-        <v>7</v>
-      </c>
-      <c r="J260" s="10">
-        <v>7</v>
-      </c>
-      <c r="K260" s="10">
-        <v>17</v>
-      </c>
-      <c r="L260" s="10">
-        <v>17</v>
-      </c>
-      <c r="M260" s="10">
-        <v>20</v>
-      </c>
-      <c r="N260" s="10">
-        <v>23</v>
-      </c>
-      <c r="O260" s="10">
-        <v>27</v>
-      </c>
-      <c r="P260" s="10">
-        <v>34</v>
-      </c>
-      <c r="Q260" s="10">
-        <v>41</v>
-      </c>
-      <c r="R260" s="10">
-        <v>43</v>
-      </c>
-      <c r="S260" s="10">
-        <v>46</v>
-      </c>
-      <c r="T260" s="10">
-        <v>65</v>
-      </c>
-      <c r="U260" s="10">
-        <v>82</v>
-      </c>
-      <c r="V260" s="10">
-        <v>92</v>
-      </c>
-      <c r="W260" s="10">
-        <v>104</v>
-      </c>
-      <c r="X260" s="10">
-        <v>110</v>
-      </c>
-      <c r="Y260" s="10">
-        <v>118</v>
-      </c>
-      <c r="Z260" s="10">
-        <v>122</v>
-      </c>
-      <c r="AA260" s="10">
-        <v>122</v>
-      </c>
-      <c r="AB260" s="10">
-        <v>135</v>
-      </c>
-      <c r="AC260" s="10">
-        <v>143</v>
-      </c>
-      <c r="AD260" s="10">
-        <v>145</v>
-      </c>
-      <c r="AE260" s="10">
-        <v>151</v>
-      </c>
-      <c r="AF260" s="10">
-        <v>152</v>
-      </c>
-      <c r="AG260" s="10">
-        <v>156</v>
-      </c>
-      <c r="AH260" s="10">
-        <v>161</v>
-      </c>
-      <c r="AI260" s="10">
-        <v>167</v>
-      </c>
-      <c r="AJ260" s="10">
-        <v>170</v>
-      </c>
-      <c r="AK260" s="10">
-        <v>176</v>
-      </c>
-      <c r="AL260" s="10">
-        <v>177</v>
-      </c>
-      <c r="AM260" s="10">
-        <v>177</v>
-      </c>
-      <c r="AN260" s="10">
-        <v>178</v>
-      </c>
-      <c r="AO260" s="10">
-        <v>181</v>
-      </c>
-      <c r="AP260" s="10">
-        <v>184</v>
-      </c>
-      <c r="AQ260" s="10">
-        <v>191</v>
-      </c>
-      <c r="AR260" s="10">
-        <v>192</v>
-      </c>
-      <c r="AS260" s="10">
-        <v>194</v>
-      </c>
-      <c r="AT260" s="10">
-        <v>197</v>
-      </c>
-      <c r="AU260" s="10">
-        <v>198</v>
-      </c>
-      <c r="AV260" s="10">
-        <v>198</v>
-      </c>
-      <c r="AW260" s="10">
-        <v>200</v>
-      </c>
-      <c r="AX260" s="10">
-        <v>202</v>
-      </c>
-      <c r="AY260" s="10">
-        <v>204</v>
-      </c>
-      <c r="AZ260" s="10">
-        <v>204</v>
-      </c>
-      <c r="BA260" s="10">
-        <v>204</v>
-      </c>
-      <c r="BB260" s="10">
-        <v>205</v>
-      </c>
-      <c r="BC260" s="10">
-        <v>207</v>
-      </c>
-      <c r="BD260" s="10">
-        <v>207</v>
-      </c>
-      <c r="BE260" s="10">
-        <v>209</v>
-      </c>
-      <c r="BF260" s="10">
-        <v>210</v>
-      </c>
-      <c r="BG260" s="10">
-        <v>212</v>
-      </c>
-      <c r="BH260" s="10">
-        <v>212</v>
-      </c>
-      <c r="BI260" s="10">
-        <v>213</v>
-      </c>
-      <c r="BJ260" s="10">
-        <v>216</v>
-      </c>
-      <c r="BK260" s="10">
-        <v>216</v>
-      </c>
-      <c r="BL260" s="10">
-        <v>217</v>
-      </c>
-      <c r="BM260" s="10">
-        <v>219</v>
-      </c>
-      <c r="BN260" s="10">
-        <v>219</v>
-      </c>
-      <c r="BO260" s="10">
-        <v>219</v>
-      </c>
-      <c r="BP260" s="10">
-        <v>219</v>
-      </c>
     </row>
-    <row r="262" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="263" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+    <row r="265" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="265" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="9" t="s">
+    <row r="267" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="266" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="268" spans="1:69" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="267" spans="1:68" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="268" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="9" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -54701,4 +55359,501 @@
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Student_Groups xmlns="53992768-cec4-4a3d-ac6a-9f561f875412">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Invited_Teachers xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Invited_Students xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <CultureName xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <TeamsChannelId xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Templates xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <FolderType xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Teachers xmlns="53992768-cec4-4a3d-ac6a-9f561f875412">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <IsNotebookLocked xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Math_Settings xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Owner xmlns="53992768-cec4-4a3d-ac6a-9f561f875412">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <AppVersion xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <NotebookType xmlns="53992768-cec4-4a3d-ac6a-9f561f875412" xsi:nil="true"/>
+    <Students xmlns="53992768-cec4-4a3d-ac6a-9f561f875412">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094890FAB6761D1448455DDFD7859EE3F" ma:contentTypeVersion="31" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f705e40ee532def5fcc062177407810">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="53992768-cec4-4a3d-ac6a-9f561f875412" xmlns:ns4="aef331c3-fe1e-40b0-a42a-d5a02dc5add3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c226ac28f478fbee23a8b8607daa5090" ns3:_="" ns4:_="">
+    <xsd:import namespace="53992768-cec4-4a3d-ac6a-9f561f875412"/>
+    <xsd:import namespace="aef331c3-fe1e-40b0-a42a-d5a02dc5add3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:NotebookType" minOccurs="0"/>
+                <xsd:element ref="ns3:FolderType" minOccurs="0"/>
+                <xsd:element ref="ns3:CultureName" minOccurs="0"/>
+                <xsd:element ref="ns3:AppVersion" minOccurs="0"/>
+                <xsd:element ref="ns3:TeamsChannelId" minOccurs="0"/>
+                <xsd:element ref="ns3:Owner" minOccurs="0"/>
+                <xsd:element ref="ns3:Math_Settings" minOccurs="0"/>
+                <xsd:element ref="ns3:DefaultSectionNames" minOccurs="0"/>
+                <xsd:element ref="ns3:Templates" minOccurs="0"/>
+                <xsd:element ref="ns3:Teachers" minOccurs="0"/>
+                <xsd:element ref="ns3:Students" minOccurs="0"/>
+                <xsd:element ref="ns3:Student_Groups" minOccurs="0"/>
+                <xsd:element ref="ns3:Invited_Teachers" minOccurs="0"/>
+                <xsd:element ref="ns3:Invited_Students" minOccurs="0"/>
+                <xsd:element ref="ns3:Self_Registration_Enabled" minOccurs="0"/>
+                <xsd:element ref="ns3:Has_Teacher_Only_SectionGroup" minOccurs="0"/>
+                <xsd:element ref="ns3:Is_Collaboration_Space_Locked" minOccurs="0"/>
+                <xsd:element ref="ns3:IsNotebookLocked" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="53992768-cec4-4a3d-ac6a-9f561f875412" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="NotebookType" ma:index="10" nillable="true" ma:displayName="Notebook Type" ma:internalName="NotebookType">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="FolderType" ma:index="11" nillable="true" ma:displayName="Folder Type" ma:internalName="FolderType">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="CultureName" ma:index="12" nillable="true" ma:displayName="Culture Name" ma:internalName="CultureName">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="AppVersion" ma:index="13" nillable="true" ma:displayName="App Version" ma:internalName="AppVersion">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TeamsChannelId" ma:index="14" nillable="true" ma:displayName="Teams Channel Id" ma:internalName="TeamsChannelId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Owner" ma:index="15" nillable="true" ma:displayName="Owner" ma:internalName="Owner">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Math_Settings" ma:index="16" nillable="true" ma:displayName="Math Settings" ma:internalName="Math_Settings">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DefaultSectionNames" ma:index="17" nillable="true" ma:displayName="Default Section Names" ma:internalName="DefaultSectionNames">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Templates" ma:index="18" nillable="true" ma:displayName="Templates" ma:internalName="Templates">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Teachers" ma:index="19" nillable="true" ma:displayName="Teachers" ma:internalName="Teachers">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Students" ma:index="20" nillable="true" ma:displayName="Students" ma:internalName="Students">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Student_Groups" ma:index="21" nillable="true" ma:displayName="Student Groups" ma:internalName="Student_Groups">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Invited_Teachers" ma:index="22" nillable="true" ma:displayName="Invited Teachers" ma:internalName="Invited_Teachers">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Invited_Students" ma:index="23" nillable="true" ma:displayName="Invited Students" ma:internalName="Invited_Students">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Self_Registration_Enabled" ma:index="24" nillable="true" ma:displayName="Self Registration Enabled" ma:internalName="Self_Registration_Enabled">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Has_Teacher_Only_SectionGroup" ma:index="25" nillable="true" ma:displayName="Has Teacher Only SectionGroup" ma:internalName="Has_Teacher_Only_SectionGroup">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Is_Collaboration_Space_Locked" ma:index="26" nillable="true" ma:displayName="Is Collaboration Space Locked" ma:internalName="Is_Collaboration_Space_Locked">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="IsNotebookLocked" ma:index="27" nillable="true" ma:displayName="Is Notebook Locked" ma:internalName="IsNotebookLocked">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="31" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="32" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="33" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="34" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="35" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="36" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="37" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="38" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aef331c3-fe1e-40b0-a42a-d5a02dc5add3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="28" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="29" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="30" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15EE4ADA-82ED-42B4-9E7F-FE611490F007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aef331c3-fe1e-40b0-a42a-d5a02dc5add3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="53992768-cec4-4a3d-ac6a-9f561f875412"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B4A7A5-C358-4C4E-A5C3-877F9EB6C22F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3090DA6C-7E08-4634-B072-C651A53DE9F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="53992768-cec4-4a3d-ac6a-9f561f875412"/>
+    <ds:schemaRef ds:uri="aef331c3-fe1e-40b0-a42a-d5a02dc5add3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -8,27 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191F0E7B-C4F1-47BE-B8BF-B3A3ACE167A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE5042-AA4B-48FA-8432-D27CFC74E29D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-5220" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="341">
   <si>
     <r>
       <rPr>
@@ -37,7 +29,7 @@
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>COVID-19 Total Cases by County, 3/4/2020 - 5/14/2020*</t>
+      <t>COVID-19 Total Cases by County, 3/4/2020 - 5/17/2020*</t>
     </r>
   </si>
   <si>
@@ -333,6 +325,18 @@
   <si>
     <t>Cases
 05-14</t>
+  </si>
+  <si>
+    <t>Cases
+05-15</t>
+  </si>
+  <si>
+    <t>Cases
+05-16</t>
+  </si>
+  <si>
+    <t>Cases
+05-17</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1212,7 +1216,7 @@
   </si>
   <si>
     <t>San Augustine</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1223,7 +1227,7 @@
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="177" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1250,13 +1254,6 @@
       <sz val="10"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1362,12 +1359,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS268"/>
+  <dimension ref="A1:BV268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1514,20 +1511,20 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="56" width="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="71" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="74" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1741,10 +1738,19 @@
       <c r="BS3" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="BT3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5">
         <v>62245</v>
@@ -1956,10 +1962,19 @@
       <c r="BS4" s="6">
         <v>51</v>
       </c>
+      <c r="BT4" s="6">
+        <v>52</v>
+      </c>
+      <c r="BU4" s="6">
+        <v>54</v>
+      </c>
+      <c r="BV4" s="6">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5">
         <v>17487</v>
@@ -2171,10 +2186,19 @@
       <c r="BS5" s="6">
         <v>22</v>
       </c>
+      <c r="BT5" s="6">
+        <v>22</v>
+      </c>
+      <c r="BU5" s="6">
+        <v>22</v>
+      </c>
+      <c r="BV5" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5">
         <v>94245</v>
@@ -2386,10 +2410,19 @@
       <c r="BS6" s="6">
         <v>119</v>
       </c>
+      <c r="BT6" s="6">
+        <v>131</v>
+      </c>
+      <c r="BU6" s="6">
+        <v>139</v>
+      </c>
+      <c r="BV6" s="6">
+        <v>139</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>26041</v>
@@ -2601,10 +2634,19 @@
       <c r="BS7" s="6">
         <v>3</v>
       </c>
+      <c r="BT7" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU7" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV7" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5">
         <v>9847</v>
@@ -2816,10 +2858,19 @@
       <c r="BS8" s="6">
         <v>0</v>
       </c>
+      <c r="BT8" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5">
         <v>1970</v>
@@ -3031,10 +3082,19 @@
       <c r="BS9" s="6">
         <v>2</v>
       </c>
+      <c r="BT9" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU9" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV9" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5">
         <v>55946</v>
@@ -3246,10 +3306,19 @@
       <c r="BS10" s="6">
         <v>27</v>
       </c>
+      <c r="BT10" s="6">
+        <v>30</v>
+      </c>
+      <c r="BU10" s="6">
+        <v>30</v>
+      </c>
+      <c r="BV10" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5">
         <v>36542</v>
@@ -3461,10 +3530,19 @@
       <c r="BS11" s="6">
         <v>16</v>
       </c>
+      <c r="BT11" s="6">
+        <v>17</v>
+      </c>
+      <c r="BU11" s="6">
+        <v>19</v>
+      </c>
+      <c r="BV11" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B12" s="5">
         <v>8426</v>
@@ -3676,10 +3754,19 @@
       <c r="BS12" s="6">
         <v>3</v>
       </c>
+      <c r="BT12" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU12" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV12" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5">
         <v>25100</v>
@@ -3891,10 +3978,19 @@
       <c r="BS13" s="6">
         <v>6</v>
       </c>
+      <c r="BT13" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU13" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV13" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5">
         <v>100746</v>
@@ -4106,10 +4202,19 @@
       <c r="BS14" s="6">
         <v>125</v>
       </c>
+      <c r="BT14" s="6">
+        <v>128</v>
+      </c>
+      <c r="BU14" s="6">
+        <v>132</v>
+      </c>
+      <c r="BV14" s="6">
+        <v>132</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5">
         <v>3715</v>
@@ -4321,10 +4426,19 @@
       <c r="BS15" s="6">
         <v>0</v>
       </c>
+      <c r="BT15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5">
         <v>33428</v>
@@ -4536,10 +4650,19 @@
       <c r="BS16" s="6">
         <v>6</v>
       </c>
+      <c r="BT16" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU16" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV16" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B17" s="5">
         <v>394509</v>
@@ -4751,10 +4874,19 @@
       <c r="BS17" s="6">
         <v>237</v>
       </c>
+      <c r="BT17" s="6">
+        <v>242</v>
+      </c>
+      <c r="BU17" s="6">
+        <v>248</v>
+      </c>
+      <c r="BV17" s="6">
+        <v>248</v>
+      </c>
     </row>
-    <row r="18" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5">
         <v>2062088</v>
@@ -4966,10 +5098,19 @@
       <c r="BS18" s="6">
         <v>1976</v>
       </c>
+      <c r="BT18" s="6">
+        <v>2041</v>
+      </c>
+      <c r="BU18" s="6">
+        <v>2120</v>
+      </c>
+      <c r="BV18" s="6">
+        <v>2120</v>
+      </c>
     </row>
-    <row r="19" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5">
         <v>13018</v>
@@ -5181,10 +5322,19 @@
       <c r="BS19" s="6">
         <v>6</v>
       </c>
+      <c r="BT19" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU19" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV19" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5">
         <v>698</v>
@@ -5396,10 +5546,19 @@
       <c r="BS20" s="6">
         <v>0</v>
       </c>
+      <c r="BT20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B21" s="5">
         <v>20522</v>
@@ -5611,10 +5770,19 @@
       <c r="BS21" s="6">
         <v>6</v>
       </c>
+      <c r="BT21" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU21" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV21" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5">
         <v>95118</v>
@@ -5826,10 +5994,19 @@
       <c r="BS22" s="6">
         <v>120</v>
       </c>
+      <c r="BT22" s="6">
+        <v>122</v>
+      </c>
+      <c r="BU22" s="6">
+        <v>130</v>
+      </c>
+      <c r="BV22" s="6">
+        <v>133</v>
+      </c>
     </row>
-    <row r="23" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23" s="5">
         <v>410571</v>
@@ -6041,10 +6218,19 @@
       <c r="BS23" s="6">
         <v>710</v>
       </c>
+      <c r="BT23" s="6">
+        <v>712</v>
+      </c>
+      <c r="BU23" s="6">
+        <v>721</v>
+      </c>
+      <c r="BV23" s="6">
+        <v>727</v>
+      </c>
     </row>
-    <row r="24" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5">
         <v>239527</v>
@@ -6256,10 +6442,19 @@
       <c r="BS24" s="6">
         <v>301</v>
       </c>
+      <c r="BT24" s="6">
+        <v>305</v>
+      </c>
+      <c r="BU24" s="6">
+        <v>312</v>
+      </c>
+      <c r="BV24" s="6">
+        <v>318</v>
+      </c>
     </row>
-    <row r="25" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5">
         <v>10226</v>
@@ -6471,10 +6666,19 @@
       <c r="BS25" s="6">
         <v>1</v>
       </c>
+      <c r="BT25" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU25" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV25" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5">
         <v>1672</v>
@@ -6686,10 +6890,19 @@
       <c r="BS26" s="6">
         <v>1</v>
       </c>
+      <c r="BT26" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU26" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV26" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5">
         <v>7619</v>
@@ -6901,10 +7114,19 @@
       <c r="BS27" s="6">
         <v>1</v>
       </c>
+      <c r="BT27" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU27" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV27" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5">
         <v>40617</v>
@@ -7116,10 +7338,19 @@
       <c r="BS28" s="6">
         <v>51</v>
       </c>
+      <c r="BT28" s="6">
+        <v>51</v>
+      </c>
+      <c r="BU28" s="6">
+        <v>51</v>
+      </c>
+      <c r="BV28" s="6">
+        <v>51</v>
+      </c>
     </row>
-    <row r="29" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B29" s="5">
         <v>19763</v>
@@ -7331,10 +7562,19 @@
       <c r="BS29" s="6">
         <v>17</v>
       </c>
+      <c r="BT29" s="6">
+        <v>17</v>
+      </c>
+      <c r="BU29" s="6">
+        <v>18</v>
+      </c>
+      <c r="BV29" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="30" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B30" s="5">
         <v>52456</v>
@@ -7546,10 +7786,19 @@
       <c r="BS30" s="6">
         <v>28</v>
       </c>
+      <c r="BT30" s="6">
+        <v>28</v>
+      </c>
+      <c r="BU30" s="6">
+        <v>28</v>
+      </c>
+      <c r="BV30" s="6">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B31" s="5">
         <v>49202</v>
@@ -7761,10 +8010,19 @@
       <c r="BS31" s="6">
         <v>33</v>
       </c>
+      <c r="BT31" s="6">
+        <v>35</v>
+      </c>
+      <c r="BU31" s="6">
+        <v>36</v>
+      </c>
+      <c r="BV31" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5">
         <v>25263</v>
@@ -7976,10 +8234,19 @@
       <c r="BS32" s="6">
         <v>36</v>
       </c>
+      <c r="BT32" s="6">
+        <v>36</v>
+      </c>
+      <c r="BU32" s="6">
+        <v>36</v>
+      </c>
+      <c r="BV32" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B33" s="5">
         <v>14768</v>
@@ -8191,10 +8458,19 @@
       <c r="BS33" s="6">
         <v>8</v>
       </c>
+      <c r="BT33" s="6">
+        <v>8</v>
+      </c>
+      <c r="BU33" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV33" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B34" s="5">
         <v>493571</v>
@@ -8406,10 +8682,19 @@
       <c r="BS34" s="6">
         <v>569</v>
       </c>
+      <c r="BT34" s="6">
+        <v>582</v>
+      </c>
+      <c r="BU34" s="6">
+        <v>582</v>
+      </c>
+      <c r="BV34" s="6">
+        <v>619</v>
+      </c>
     </row>
-    <row r="35" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B35" s="5">
         <v>14442</v>
@@ -8621,10 +8906,19 @@
       <c r="BS35" s="6">
         <v>13</v>
       </c>
+      <c r="BT35" s="6">
+        <v>16</v>
+      </c>
+      <c r="BU35" s="6">
+        <v>21</v>
+      </c>
+      <c r="BV35" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="36" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5">
         <v>6526</v>
@@ -8836,10 +9130,19 @@
       <c r="BS36" s="6">
         <v>3</v>
       </c>
+      <c r="BT36" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU36" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV36" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B37" s="5">
         <v>32050</v>
@@ -9051,10 +9354,19 @@
       <c r="BS37" s="6">
         <v>17</v>
       </c>
+      <c r="BT37" s="6">
+        <v>18</v>
+      </c>
+      <c r="BU37" s="6">
+        <v>19</v>
+      </c>
+      <c r="BV37" s="6">
+        <v>19</v>
+      </c>
     </row>
-    <row r="38" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5">
         <v>8901</v>
@@ -9266,10 +9578,19 @@
       <c r="BS38" s="6">
         <v>25</v>
       </c>
+      <c r="BT38" s="6">
+        <v>27</v>
+      </c>
+      <c r="BU38" s="6">
+        <v>26</v>
+      </c>
+      <c r="BV38" s="6">
+        <v>27</v>
+      </c>
     </row>
-    <row r="39" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39" s="5">
         <v>47621</v>
@@ -9481,10 +9802,19 @@
       <c r="BS39" s="6">
         <v>50</v>
       </c>
+      <c r="BT39" s="6">
+        <v>52</v>
+      </c>
+      <c r="BU39" s="6">
+        <v>52</v>
+      </c>
+      <c r="BV39" s="6">
+        <v>53</v>
+      </c>
     </row>
-    <row r="40" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="5">
         <v>57663</v>
@@ -9696,10 +10026,19 @@
       <c r="BS40" s="6">
         <v>27</v>
       </c>
+      <c r="BT40" s="6">
+        <v>31</v>
+      </c>
+      <c r="BU40" s="6">
+        <v>34</v>
+      </c>
+      <c r="BV40" s="6">
+        <v>34</v>
+      </c>
     </row>
-    <row r="41" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5">
         <v>7460</v>
@@ -9911,10 +10250,19 @@
       <c r="BS41" s="6">
         <v>2</v>
       </c>
+      <c r="BT41" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU41" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV41" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B42" s="5">
         <v>11655</v>
@@ -10126,10 +10474,19 @@
       <c r="BS42" s="6">
         <v>3</v>
       </c>
+      <c r="BT42" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU42" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV42" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B43" s="5">
         <v>3458</v>
@@ -10341,10 +10698,19 @@
       <c r="BS43" s="6">
         <v>1</v>
       </c>
+      <c r="BT43" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU43" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV43" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B44" s="5">
         <v>3095</v>
@@ -10556,10 +10922,19 @@
       <c r="BS44" s="6">
         <v>1</v>
       </c>
+      <c r="BT44" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU44" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV44" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" s="5">
         <v>9274</v>
@@ -10771,10 +11146,19 @@
       <c r="BS45" s="6">
         <v>2</v>
       </c>
+      <c r="BT45" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU45" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV45" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B46" s="5">
         <v>1150398</v>
@@ -10986,10 +11370,19 @@
       <c r="BS46" s="6">
         <v>978</v>
       </c>
+      <c r="BT46" s="6">
+        <v>993</v>
+      </c>
+      <c r="BU46" s="6">
+        <v>1008</v>
+      </c>
+      <c r="BV46" s="6">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="47" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B47" s="5">
         <v>3243</v>
@@ -11201,10 +11594,19 @@
       <c r="BS47" s="6">
         <v>4</v>
       </c>
+      <c r="BT47" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU47" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV47" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B48" s="5">
         <v>22688</v>
@@ -11416,10 +11818,19 @@
       <c r="BS48" s="6">
         <v>18</v>
       </c>
+      <c r="BT48" s="6">
+        <v>18</v>
+      </c>
+      <c r="BU48" s="6">
+        <v>18</v>
+      </c>
+      <c r="BV48" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="49" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B49" s="5">
         <v>150366</v>
@@ -11631,10 +12042,19 @@
       <c r="BS49" s="6">
         <v>68</v>
       </c>
+      <c r="BT49" s="6">
+        <v>68</v>
+      </c>
+      <c r="BU49" s="6">
+        <v>70</v>
+      </c>
+      <c r="BV49" s="6">
+        <v>70</v>
+      </c>
     </row>
-    <row r="50" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B50" s="5">
         <v>14855</v>
@@ -11846,10 +12266,19 @@
       <c r="BS50" s="6">
         <v>3</v>
       </c>
+      <c r="BT50" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU50" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV50" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B51" s="5">
         <v>4299</v>
@@ -12061,10 +12490,19 @@
       <c r="BS51" s="6">
         <v>1</v>
       </c>
+      <c r="BT51" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU51" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV51" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B52" s="5">
         <v>41744</v>
@@ -12276,10 +12714,19 @@
       <c r="BS52" s="6">
         <v>13</v>
       </c>
+      <c r="BT52" s="6">
+        <v>13</v>
+      </c>
+      <c r="BU52" s="6">
+        <v>13</v>
+      </c>
+      <c r="BV52" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="53" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B53" s="5">
         <v>86638</v>
@@ -12491,10 +12938,19 @@
       <c r="BS53" s="6">
         <v>220</v>
       </c>
+      <c r="BT53" s="6">
+        <v>221</v>
+      </c>
+      <c r="BU53" s="6">
+        <v>224</v>
+      </c>
+      <c r="BV53" s="6">
+        <v>224</v>
+      </c>
     </row>
-    <row r="54" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B54" s="5">
         <v>1578</v>
@@ -12706,10 +13162,19 @@
       <c r="BS54" s="6">
         <v>4</v>
       </c>
+      <c r="BT54" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU54" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV54" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B55" s="5">
         <v>5349</v>
@@ -12921,10 +13386,19 @@
       <c r="BS55" s="6">
         <v>2</v>
       </c>
+      <c r="BT55" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU55" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV55" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5">
         <v>4082</v>
@@ -13136,10 +13610,19 @@
       <c r="BS56" s="6">
         <v>0</v>
       </c>
+      <c r="BT56" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU56" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV56" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B57" s="5">
         <v>7247</v>
@@ -13351,10 +13834,19 @@
       <c r="BS57" s="6">
         <v>2</v>
       </c>
+      <c r="BT57" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU57" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV57" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="58" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B58" s="5">
         <v>2722</v>
@@ -13566,10 +14058,19 @@
       <c r="BS58" s="6">
         <v>0</v>
       </c>
+      <c r="BT58" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU58" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV58" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B59" s="5">
         <v>8054</v>
@@ -13781,10 +14282,19 @@
       <c r="BS59" s="6">
         <v>19</v>
       </c>
+      <c r="BT59" s="6">
+        <v>21</v>
+      </c>
+      <c r="BU59" s="6">
+        <v>20</v>
+      </c>
+      <c r="BV59" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="60" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B60" s="5">
         <v>2639966</v>
@@ -13996,10 +14506,19 @@
       <c r="BS60" s="6">
         <v>6602</v>
       </c>
+      <c r="BT60" s="6">
+        <v>6837</v>
+      </c>
+      <c r="BU60" s="6">
+        <v>7036</v>
+      </c>
+      <c r="BV60" s="6">
+        <v>7250</v>
+      </c>
     </row>
-    <row r="61" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B61" s="5">
         <v>14756</v>
@@ -14211,10 +14730,19 @@
       <c r="BS61" s="6">
         <v>32</v>
       </c>
+      <c r="BT61" s="6">
+        <v>36</v>
+      </c>
+      <c r="BU61" s="6">
+        <v>38</v>
+      </c>
+      <c r="BV61" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="62" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B62" s="5">
         <v>22599</v>
@@ -14426,10 +14954,19 @@
       <c r="BS62" s="6">
         <v>93</v>
       </c>
+      <c r="BT62" s="6">
+        <v>119</v>
+      </c>
+      <c r="BU62" s="6">
+        <v>120</v>
+      </c>
+      <c r="BV62" s="6">
+        <v>122</v>
+      </c>
     </row>
-    <row r="63" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B63" s="5">
         <v>5805</v>
@@ -14641,10 +15178,19 @@
       <c r="BS63" s="6">
         <v>1</v>
       </c>
+      <c r="BT63" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU63" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV63" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B64" s="5">
         <v>943020</v>
@@ -14856,10 +15402,19 @@
       <c r="BS64" s="6">
         <v>989</v>
       </c>
+      <c r="BT64" s="6">
+        <v>1016</v>
+      </c>
+      <c r="BU64" s="6">
+        <v>1040</v>
+      </c>
+      <c r="BV64" s="6">
+        <v>1051</v>
+      </c>
     </row>
-    <row r="65" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B65" s="5">
         <v>20937</v>
@@ -15071,10 +15626,19 @@
       <c r="BS65" s="6">
         <v>17</v>
       </c>
+      <c r="BT65" s="6">
+        <v>17</v>
+      </c>
+      <c r="BU65" s="6">
+        <v>17</v>
+      </c>
+      <c r="BV65" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="66" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B66" s="5">
         <v>2482</v>
@@ -15286,10 +15850,19 @@
       <c r="BS66" s="6">
         <v>1</v>
       </c>
+      <c r="BT66" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU66" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV66" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B67" s="5">
         <v>10870</v>
@@ -15501,10 +16074,19 @@
       <c r="BS67" s="6">
         <v>1</v>
       </c>
+      <c r="BT67" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU67" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV67" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B68" s="5">
         <v>3873</v>
@@ -15716,10 +16298,19 @@
       <c r="BS68" s="6">
         <v>25</v>
       </c>
+      <c r="BT68" s="6">
+        <v>26</v>
+      </c>
+      <c r="BU68" s="6">
+        <v>25</v>
+      </c>
+      <c r="BV68" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="69" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B69" s="5">
         <v>12596</v>
@@ -15931,10 +16522,19 @@
       <c r="BS69" s="6">
         <v>5</v>
       </c>
+      <c r="BT69" s="6">
+        <v>5</v>
+      </c>
+      <c r="BU69" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV69" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B70" s="5">
         <v>19857</v>
@@ -16146,10 +16746,19 @@
       <c r="BS70" s="6">
         <v>4</v>
       </c>
+      <c r="BT70" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU70" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV70" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="71" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B71" s="5">
         <v>159521</v>
@@ -16361,10 +16970,19 @@
       <c r="BS71" s="6">
         <v>102</v>
       </c>
+      <c r="BT71" s="6">
+        <v>103</v>
+      </c>
+      <c r="BU71" s="6">
+        <v>109</v>
+      </c>
+      <c r="BV71" s="6">
+        <v>114</v>
+      </c>
     </row>
-    <row r="72" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B72" s="5">
         <v>2174</v>
@@ -16576,10 +17194,19 @@
       <c r="BS72" s="6">
         <v>0</v>
       </c>
+      <c r="BT72" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU72" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV72" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B73" s="5">
         <v>200285</v>
@@ -16791,10 +17418,19 @@
       <c r="BS73" s="6">
         <v>236</v>
       </c>
+      <c r="BT73" s="6">
+        <v>241</v>
+      </c>
+      <c r="BU73" s="6">
+        <v>247</v>
+      </c>
+      <c r="BV73" s="6">
+        <v>247</v>
+      </c>
     </row>
-    <row r="74" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B74" s="5">
         <v>952366</v>
@@ -17006,10 +17642,19 @@
       <c r="BS74" s="6">
         <v>1456</v>
       </c>
+      <c r="BT74" s="6">
+        <v>1607</v>
+      </c>
+      <c r="BU74" s="6">
+        <v>1655</v>
+      </c>
+      <c r="BV74" s="6">
+        <v>1726</v>
+      </c>
     </row>
-    <row r="75" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B75" s="5">
         <v>41649</v>
@@ -17221,10 +17866,19 @@
       <c r="BS75" s="6">
         <v>15</v>
       </c>
+      <c r="BT75" s="6">
+        <v>15</v>
+      </c>
+      <c r="BU75" s="6">
+        <v>15</v>
+      </c>
+      <c r="BV75" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="76" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B76" s="5">
         <v>19236</v>
@@ -17436,10 +18090,19 @@
       <c r="BS76" s="6">
         <v>6</v>
       </c>
+      <c r="BT76" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU76" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV76" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B77" s="5">
         <v>37727</v>
@@ -17651,10 +18314,19 @@
       <c r="BS77" s="6">
         <v>24</v>
       </c>
+      <c r="BT77" s="6">
+        <v>24</v>
+      </c>
+      <c r="BU77" s="6">
+        <v>25</v>
+      </c>
+      <c r="BV77" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="78" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B78" s="5">
         <v>28422</v>
@@ -17866,10 +18538,19 @@
       <c r="BS78" s="6">
         <v>28</v>
       </c>
+      <c r="BT78" s="6">
+        <v>26</v>
+      </c>
+      <c r="BU78" s="6">
+        <v>29</v>
+      </c>
+      <c r="BV78" s="6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="79" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B79" s="5">
         <v>3913</v>
@@ -18081,10 +18762,19 @@
       <c r="BS79" s="6">
         <v>0</v>
       </c>
+      <c r="BT79" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU79" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV79" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B80" s="5">
         <v>6688</v>
@@ -18296,10 +18986,19 @@
       <c r="BS80" s="6">
         <v>4</v>
       </c>
+      <c r="BT80" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU80" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV80" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="81" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B81" s="5">
         <v>1365</v>
@@ -18511,10 +19210,19 @@
       <c r="BS81" s="6">
         <v>0</v>
       </c>
+      <c r="BT81" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU81" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV81" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B82" s="5">
         <v>888595</v>
@@ -18726,10 +19434,19 @@
       <c r="BS82" s="6">
         <v>1452</v>
       </c>
+      <c r="BT82" s="6">
+        <v>1471</v>
+      </c>
+      <c r="BU82" s="6">
+        <v>1510</v>
+      </c>
+      <c r="BV82" s="6">
+        <v>1558</v>
+      </c>
     </row>
-    <row r="83" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B83" s="5">
         <v>11838</v>
@@ -18941,10 +19658,19 @@
       <c r="BS83" s="6">
         <v>4</v>
       </c>
+      <c r="BT83" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU83" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV83" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="84" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B84" s="5">
         <v>21997</v>
@@ -19156,10 +19882,19 @@
       <c r="BS84" s="6">
         <v>8</v>
       </c>
+      <c r="BT84" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU84" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV84" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="85" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B85" s="5">
         <v>20080</v>
@@ -19371,10 +20106,19 @@
       <c r="BS85" s="6">
         <v>34</v>
       </c>
+      <c r="BT85" s="6">
+        <v>34</v>
+      </c>
+      <c r="BU85" s="6">
+        <v>35</v>
+      </c>
+      <c r="BV85" s="6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="86" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B86" s="5">
         <v>21681</v>
@@ -19586,10 +20330,19 @@
       <c r="BS86" s="6">
         <v>4</v>
       </c>
+      <c r="BT86" s="6">
+        <v>5</v>
+      </c>
+      <c r="BU86" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV86" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="87" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B87" s="5">
         <v>335006</v>
@@ -19801,10 +20554,19 @@
       <c r="BS87" s="6">
         <v>691</v>
       </c>
+      <c r="BT87" s="6">
+        <v>693</v>
+      </c>
+      <c r="BU87" s="6">
+        <v>696</v>
+      </c>
+      <c r="BV87" s="6">
+        <v>701</v>
+      </c>
     </row>
-    <row r="88" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B88" s="5">
         <v>6969</v>
@@ -20016,10 +20778,19 @@
       <c r="BS88" s="6">
         <v>4</v>
       </c>
+      <c r="BT88" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU88" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV88" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B89" s="5">
         <v>29929</v>
@@ -20231,10 +21002,19 @@
       <c r="BS89" s="6">
         <v>4</v>
       </c>
+      <c r="BT89" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU89" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV89" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B90" s="5">
         <v>1351</v>
@@ -20446,10 +21226,19 @@
       <c r="BS90" s="6">
         <v>1</v>
       </c>
+      <c r="BT90" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU90" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV90" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B91" s="5">
         <v>8518</v>
@@ -20661,10 +21450,19 @@
       <c r="BS91" s="6">
         <v>7</v>
       </c>
+      <c r="BT91" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU91" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV91" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="92" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B92" s="5">
         <v>22345</v>
@@ -20876,10 +21674,19 @@
       <c r="BS92" s="6">
         <v>70</v>
       </c>
+      <c r="BT92" s="6">
+        <v>73</v>
+      </c>
+      <c r="BU92" s="6">
+        <v>75</v>
+      </c>
+      <c r="BV92" s="6">
+        <v>79</v>
+      </c>
     </row>
-    <row r="93" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B93" s="5">
         <v>24928</v>
@@ -21091,10 +21898,19 @@
       <c r="BS93" s="6">
         <v>77</v>
       </c>
+      <c r="BT93" s="6">
+        <v>88</v>
+      </c>
+      <c r="BU93" s="6">
+        <v>91</v>
+      </c>
+      <c r="BV93" s="6">
+        <v>91</v>
+      </c>
     </row>
-    <row r="94" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B94" s="5">
         <v>133647</v>
@@ -21306,10 +22122,19 @@
       <c r="BS94" s="6">
         <v>122</v>
       </c>
+      <c r="BT94" s="6">
+        <v>129</v>
+      </c>
+      <c r="BU94" s="6">
+        <v>140</v>
+      </c>
+      <c r="BV94" s="6">
+        <v>147</v>
+      </c>
     </row>
-    <row r="95" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B95" s="5">
         <v>136671</v>
@@ -21521,10 +22346,19 @@
       <c r="BS95" s="6">
         <v>138</v>
       </c>
+      <c r="BT95" s="6">
+        <v>142</v>
+      </c>
+      <c r="BU95" s="6">
+        <v>170</v>
+      </c>
+      <c r="BV95" s="6">
+        <v>170</v>
+      </c>
     </row>
-    <row r="96" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B96" s="5">
         <v>30863</v>
@@ -21736,10 +22570,19 @@
       <c r="BS96" s="6">
         <v>56</v>
       </c>
+      <c r="BT96" s="6">
+        <v>63</v>
+      </c>
+      <c r="BU96" s="6">
+        <v>65</v>
+      </c>
+      <c r="BV96" s="6">
+        <v>65</v>
+      </c>
     </row>
-    <row r="97" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B97" s="5">
         <v>182526</v>
@@ -21951,10 +22794,19 @@
       <c r="BS97" s="6">
         <v>101</v>
       </c>
+      <c r="BT97" s="6">
+        <v>106</v>
+      </c>
+      <c r="BU97" s="6">
+        <v>109</v>
+      </c>
+      <c r="BV97" s="6">
+        <v>110</v>
+      </c>
     </row>
-    <row r="98" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B98" s="5">
         <v>38415</v>
@@ -22166,10 +23018,19 @@
       <c r="BS98" s="6">
         <v>41</v>
       </c>
+      <c r="BT98" s="6">
+        <v>42</v>
+      </c>
+      <c r="BU98" s="6">
+        <v>43</v>
+      </c>
+      <c r="BV98" s="6">
+        <v>44</v>
+      </c>
     </row>
-    <row r="99" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B99" s="5">
         <v>3320</v>
@@ -22381,10 +23242,19 @@
       <c r="BS99" s="6">
         <v>0</v>
       </c>
+      <c r="BT99" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU99" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV99" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B100" s="5">
         <v>8802</v>
@@ -22596,10 +23466,19 @@
       <c r="BS100" s="6">
         <v>7</v>
       </c>
+      <c r="BT100" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU100" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV100" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="101" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B101" s="5">
         <v>6513</v>
@@ -22811,10 +23690,19 @@
       <c r="BS101" s="6">
         <v>15</v>
       </c>
+      <c r="BT101" s="6">
+        <v>15</v>
+      </c>
+      <c r="BU101" s="6">
+        <v>16</v>
+      </c>
+      <c r="BV101" s="6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="102" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B102" s="5">
         <v>4456</v>
@@ -23026,10 +23914,19 @@
       <c r="BS102" s="6">
         <v>0</v>
       </c>
+      <c r="BT102" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU102" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV102" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B103" s="5">
         <v>62163</v>
@@ -23241,10 +24138,19 @@
       <c r="BS103" s="6">
         <v>116</v>
       </c>
+      <c r="BT103" s="6">
+        <v>116</v>
+      </c>
+      <c r="BU103" s="6">
+        <v>117</v>
+      </c>
+      <c r="BV103" s="6">
+        <v>117</v>
+      </c>
     </row>
-    <row r="104" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B104" s="5">
         <v>4885616</v>
@@ -23456,10 +24362,19 @@
       <c r="BS104" s="6">
         <v>8621</v>
       </c>
+      <c r="BT104" s="6">
+        <v>8817</v>
+      </c>
+      <c r="BU104" s="6">
+        <v>9050</v>
+      </c>
+      <c r="BV104" s="6">
+        <v>9126</v>
+      </c>
     </row>
-    <row r="105" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B105" s="5">
         <v>72253</v>
@@ -23671,10 +24586,19 @@
       <c r="BS105" s="6">
         <v>195</v>
       </c>
+      <c r="BT105" s="6">
+        <v>200</v>
+      </c>
+      <c r="BU105" s="6">
+        <v>200</v>
+      </c>
+      <c r="BV105" s="6">
+        <v>202</v>
+      </c>
     </row>
-    <row r="106" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B106" s="5">
         <v>6321</v>
@@ -23886,10 +24810,19 @@
       <c r="BS106" s="6">
         <v>9</v>
       </c>
+      <c r="BT106" s="6">
+        <v>9</v>
+      </c>
+      <c r="BU106" s="6">
+        <v>9</v>
+      </c>
+      <c r="BV106" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="107" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B107" s="5">
         <v>6072</v>
@@ -24101,10 +25034,19 @@
       <c r="BS107" s="6">
         <v>0</v>
       </c>
+      <c r="BT107" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU107" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV107" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B108" s="5">
         <v>246119</v>
@@ -24316,10 +25258,19 @@
       <c r="BS108" s="6">
         <v>217</v>
       </c>
+      <c r="BT108" s="6">
+        <v>219</v>
+      </c>
+      <c r="BU108" s="6">
+        <v>219</v>
+      </c>
+      <c r="BV108" s="6">
+        <v>219</v>
+      </c>
     </row>
-    <row r="109" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B109" s="5">
         <v>4389</v>
@@ -24531,10 +25482,19 @@
       <c r="BS109" s="6">
         <v>1</v>
       </c>
+      <c r="BT109" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU109" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV109" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B110" s="5">
         <v>84178</v>
@@ -24746,10 +25706,19 @@
       <c r="BS110" s="6">
         <v>47</v>
       </c>
+      <c r="BT110" s="6">
+        <v>48</v>
+      </c>
+      <c r="BU110" s="6">
+        <v>48</v>
+      </c>
+      <c r="BV110" s="6">
+        <v>48</v>
+      </c>
     </row>
-    <row r="111" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B111" s="5">
         <v>1005539</v>
@@ -24961,10 +25930,19 @@
       <c r="BS111" s="6">
         <v>409</v>
       </c>
+      <c r="BT111" s="6">
+        <v>417</v>
+      </c>
+      <c r="BU111" s="6">
+        <v>425</v>
+      </c>
+      <c r="BV111" s="6">
+        <v>425</v>
+      </c>
     </row>
-    <row r="112" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B112" s="5">
         <v>39349</v>
@@ -25176,10 +26154,19 @@
       <c r="BS112" s="6">
         <v>22</v>
       </c>
+      <c r="BT112" s="6">
+        <v>22</v>
+      </c>
+      <c r="BU112" s="6">
+        <v>22</v>
+      </c>
+      <c r="BV112" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="113" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B113" s="5">
         <v>24916</v>
@@ -25391,10 +26378,19 @@
       <c r="BS113" s="6">
         <v>22</v>
       </c>
+      <c r="BT113" s="6">
+        <v>23</v>
+      </c>
+      <c r="BU113" s="6">
+        <v>23</v>
+      </c>
+      <c r="BV113" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="114" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B114" s="5">
         <v>61274</v>
@@ -25606,10 +26602,19 @@
       <c r="BS114" s="6">
         <v>22</v>
       </c>
+      <c r="BT114" s="6">
+        <v>22</v>
+      </c>
+      <c r="BU114" s="6">
+        <v>22</v>
+      </c>
+      <c r="BV114" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="115" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B115" s="5">
         <v>38504</v>
@@ -25821,10 +26826,19 @@
       <c r="BS115" s="6">
         <v>8</v>
       </c>
+      <c r="BT115" s="6">
+        <v>8</v>
+      </c>
+      <c r="BU115" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV115" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="116" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B116" s="5">
         <v>25147</v>
@@ -26036,10 +27050,19 @@
       <c r="BS116" s="6">
         <v>71</v>
       </c>
+      <c r="BT116" s="6">
+        <v>74</v>
+      </c>
+      <c r="BU116" s="6">
+        <v>76</v>
+      </c>
+      <c r="BV116" s="6">
+        <v>76</v>
+      </c>
     </row>
-    <row r="117" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B117" s="5">
         <v>37715</v>
@@ -26251,10 +27274,19 @@
       <c r="BS117" s="6">
         <v>6</v>
       </c>
+      <c r="BT117" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU117" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV117" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="118" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B118" s="5">
         <v>3981</v>
@@ -26466,10 +27498,19 @@
       <c r="BS118" s="6">
         <v>0</v>
       </c>
+      <c r="BT118" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU118" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV118" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B119" s="5">
         <v>101894</v>
@@ -26681,10 +27722,19 @@
       <c r="BS119" s="6">
         <v>58</v>
       </c>
+      <c r="BT119" s="6">
+        <v>66</v>
+      </c>
+      <c r="BU119" s="6">
+        <v>66</v>
+      </c>
+      <c r="BV119" s="6">
+        <v>66</v>
+      </c>
     </row>
-    <row r="120" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B120" s="5">
         <v>22540</v>
@@ -26896,10 +27946,19 @@
       <c r="BS120" s="6">
         <v>25</v>
       </c>
+      <c r="BT120" s="6">
+        <v>25</v>
+      </c>
+      <c r="BU120" s="6">
+        <v>25</v>
+      </c>
+      <c r="BV120" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="121" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B121" s="5">
         <v>1712</v>
@@ -27111,10 +28170,19 @@
       <c r="BS121" s="6">
         <v>0</v>
       </c>
+      <c r="BT121" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU121" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV121" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B122" s="5">
         <v>9689</v>
@@ -27326,10 +28394,19 @@
       <c r="BS122" s="6">
         <v>4</v>
       </c>
+      <c r="BT122" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU122" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV122" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B123" s="5">
         <v>14356</v>
@@ -27541,10 +28618,19 @@
       <c r="BS123" s="6">
         <v>15</v>
       </c>
+      <c r="BT123" s="6">
+        <v>15</v>
+      </c>
+      <c r="BU123" s="6">
+        <v>15</v>
+      </c>
+      <c r="BV123" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="124" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B124" s="5">
         <v>37167</v>
@@ -27756,10 +28842,19 @@
       <c r="BS124" s="6">
         <v>19</v>
       </c>
+      <c r="BT124" s="6">
+        <v>23</v>
+      </c>
+      <c r="BU124" s="6">
+        <v>23</v>
+      </c>
+      <c r="BV124" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="125" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B125" s="5">
         <v>2478</v>
@@ -27971,10 +29066,19 @@
       <c r="BS125" s="6">
         <v>0</v>
       </c>
+      <c r="BT125" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU125" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV125" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B126" s="5">
         <v>268231</v>
@@ -28186,10 +29290,19 @@
       <c r="BS126" s="6">
         <v>396</v>
       </c>
+      <c r="BT126" s="6">
+        <v>429</v>
+      </c>
+      <c r="BU126" s="6">
+        <v>436</v>
+      </c>
+      <c r="BV126" s="6">
+        <v>436</v>
+      </c>
     </row>
-    <row r="127" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B127" s="5">
         <v>5735</v>
@@ -28401,10 +29514,19 @@
       <c r="BS127" s="6">
         <v>3</v>
       </c>
+      <c r="BT127" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU127" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV127" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="128" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B128" s="5">
         <v>44487</v>
@@ -28616,10 +29738,19 @@
       <c r="BS128" s="6">
         <v>7</v>
       </c>
+      <c r="BT128" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU128" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV128" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="129" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B129" s="5">
         <v>186847</v>
@@ -28831,10 +29962,19 @@
       <c r="BS129" s="6">
         <v>117</v>
       </c>
+      <c r="BT129" s="6">
+        <v>119</v>
+      </c>
+      <c r="BU129" s="6">
+        <v>123</v>
+      </c>
+      <c r="BV129" s="6">
+        <v>123</v>
+      </c>
     </row>
-    <row r="130" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B130" s="5">
         <v>22286</v>
@@ -29046,10 +30186,19 @@
       <c r="BS130" s="6">
         <v>110</v>
       </c>
+      <c r="BT130" s="6">
+        <v>110</v>
+      </c>
+      <c r="BU130" s="6">
+        <v>112</v>
+      </c>
+      <c r="BV130" s="6">
+        <v>112</v>
+      </c>
     </row>
-    <row r="131" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B131" s="5">
         <v>16265</v>
@@ -29261,10 +30410,19 @@
       <c r="BS131" s="6">
         <v>4</v>
       </c>
+      <c r="BT131" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU131" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV131" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="132" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B132" s="5">
         <v>149063</v>
@@ -29476,10 +30634,19 @@
       <c r="BS132" s="6">
         <v>137</v>
       </c>
+      <c r="BT132" s="6">
+        <v>143</v>
+      </c>
+      <c r="BU132" s="6">
+        <v>147</v>
+      </c>
+      <c r="BV132" s="6">
+        <v>147</v>
+      </c>
     </row>
-    <row r="133" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B133" s="5">
         <v>44958</v>
@@ -29691,10 +30858,19 @@
       <c r="BS133" s="6">
         <v>20</v>
       </c>
+      <c r="BT133" s="6">
+        <v>20</v>
+      </c>
+      <c r="BU133" s="6">
+        <v>21</v>
+      </c>
+      <c r="BV133" s="6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="134" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B134" s="5">
         <v>462</v>
@@ -29906,10 +31082,19 @@
       <c r="BS134" s="6">
         <v>0</v>
       </c>
+      <c r="BT134" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU134" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV134" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B135" s="5">
         <v>809</v>
@@ -30121,10 +31306,19 @@
       <c r="BS135" s="6">
         <v>0</v>
       </c>
+      <c r="BT135" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU135" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV135" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B136" s="5">
         <v>57004</v>
@@ -30336,10 +31530,19 @@
       <c r="BS136" s="6">
         <v>10</v>
       </c>
+      <c r="BT136" s="6">
+        <v>10</v>
+      </c>
+      <c r="BU136" s="6">
+        <v>10</v>
+      </c>
+      <c r="BV136" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="137" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B137" s="5">
         <v>5052</v>
@@ -30551,10 +31754,19 @@
       <c r="BS137" s="6">
         <v>1</v>
       </c>
+      <c r="BT137" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU137" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV137" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B138" s="5">
         <v>299</v>
@@ -30766,10 +31978,19 @@
       <c r="BS138" s="6">
         <v>0</v>
       </c>
+      <c r="BT138" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU138" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV138" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B139" s="5">
         <v>3816</v>
@@ -30981,10 +32202,19 @@
       <c r="BS139" s="6">
         <v>0</v>
       </c>
+      <c r="BT139" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU139" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV139" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B140" s="5">
         <v>35499</v>
@@ -31196,10 +32426,19 @@
       <c r="BS140" s="6">
         <v>11</v>
       </c>
+      <c r="BT140" s="6">
+        <v>13</v>
+      </c>
+      <c r="BU140" s="6">
+        <v>14</v>
+      </c>
+      <c r="BV140" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="141" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B141" s="5">
         <v>3762</v>
@@ -31411,10 +32650,19 @@
       <c r="BS141" s="6">
         <v>1</v>
       </c>
+      <c r="BT141" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU141" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV141" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B142" s="5">
         <v>53136</v>
@@ -31626,10 +32874,19 @@
       <c r="BS142" s="6">
         <v>105</v>
       </c>
+      <c r="BT142" s="6">
+        <v>111</v>
+      </c>
+      <c r="BU142" s="6">
+        <v>111</v>
+      </c>
+      <c r="BV142" s="6">
+        <v>116</v>
+      </c>
     </row>
-    <row r="143" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B143" s="5">
         <v>14620</v>
@@ -31841,10 +33098,19 @@
       <c r="BS143" s="6">
         <v>10</v>
       </c>
+      <c r="BT143" s="6">
+        <v>10</v>
+      </c>
+      <c r="BU143" s="6">
+        <v>11</v>
+      </c>
+      <c r="BV143" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="144" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B144" s="5">
         <v>23399</v>
@@ -32056,10 +33322,19 @@
       <c r="BS144" s="6">
         <v>8</v>
       </c>
+      <c r="BT144" s="6">
+        <v>8</v>
+      </c>
+      <c r="BU144" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV144" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="145" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B145" s="5">
         <v>8210</v>
@@ -32271,10 +33546,19 @@
       <c r="BS145" s="6">
         <v>4</v>
       </c>
+      <c r="BT145" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU145" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV145" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="146" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B146" s="5">
         <v>19830</v>
@@ -32486,10 +33770,19 @@
       <c r="BS146" s="6">
         <v>7</v>
       </c>
+      <c r="BT146" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU146" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV146" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="147" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B147" s="5">
         <v>19104</v>
@@ -32701,10 +33994,19 @@
       <c r="BS147" s="6">
         <v>6</v>
       </c>
+      <c r="BT147" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU147" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV147" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="148" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B148" s="5">
         <v>19495</v>
@@ -32916,10 +34218,19 @@
       <c r="BS148" s="6">
         <v>9</v>
       </c>
+      <c r="BT148" s="6">
+        <v>9</v>
+      </c>
+      <c r="BU148" s="6">
+        <v>9</v>
+      </c>
+      <c r="BV148" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="149" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B149" s="5">
         <v>90780</v>
@@ -33131,10 +34442,19 @@
       <c r="BS149" s="6">
         <v>72</v>
       </c>
+      <c r="BT149" s="6">
+        <v>72</v>
+      </c>
+      <c r="BU149" s="6">
+        <v>75</v>
+      </c>
+      <c r="BV149" s="6">
+        <v>75</v>
+      </c>
     </row>
-    <row r="150" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B150" s="5">
         <v>26085</v>
@@ -33346,10 +34666,19 @@
       <c r="BS150" s="6">
         <v>15</v>
       </c>
+      <c r="BT150" s="6">
+        <v>15</v>
+      </c>
+      <c r="BU150" s="6">
+        <v>15</v>
+      </c>
+      <c r="BV150" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="151" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B151" s="5">
         <v>3797</v>
@@ -33561,10 +34890,19 @@
       <c r="BS151" s="6">
         <v>2</v>
       </c>
+      <c r="BT151" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU151" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV151" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B152" s="5">
         <v>11854</v>
@@ -33776,10 +35114,19 @@
       <c r="BS152" s="6">
         <v>5</v>
       </c>
+      <c r="BT152" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU152" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV152" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="153" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B153" s="5">
         <v>21407</v>
@@ -33991,10 +35338,19 @@
       <c r="BS153" s="6">
         <v>3</v>
       </c>
+      <c r="BT153" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU153" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV153" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="154" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B154" s="5">
         <v>81</v>
@@ -34206,10 +35562,19 @@
       <c r="BS154" s="6">
         <v>0</v>
       </c>
+      <c r="BT154" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU154" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV154" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B155" s="5">
         <v>313938</v>
@@ -34421,10 +35786,19 @@
       <c r="BS155" s="6">
         <v>607</v>
       </c>
+      <c r="BT155" s="6">
+        <v>614</v>
+      </c>
+      <c r="BU155" s="6">
+        <v>616</v>
+      </c>
+      <c r="BV155" s="6">
+        <v>619</v>
+      </c>
     </row>
-    <row r="156" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B156" s="5">
         <v>6239</v>
@@ -34636,10 +36010,19 @@
       <c r="BS156" s="6">
         <v>5</v>
       </c>
+      <c r="BT156" s="6">
+        <v>5</v>
+      </c>
+      <c r="BU156" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV156" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="157" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B157" s="5">
         <v>9040</v>
@@ -34851,10 +36234,19 @@
       <c r="BS157" s="6">
         <v>3</v>
       </c>
+      <c r="BT157" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU157" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV157" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="158" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B158" s="5">
         <v>255521</v>
@@ -35066,10 +36458,19 @@
       <c r="BS158" s="6">
         <v>96</v>
       </c>
+      <c r="BT158" s="6">
+        <v>96</v>
+      </c>
+      <c r="BU158" s="6">
+        <v>97</v>
+      </c>
+      <c r="BV158" s="6">
+        <v>97</v>
+      </c>
     </row>
-    <row r="159" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B159" s="5">
         <v>771</v>
@@ -35281,10 +36682,19 @@
       <c r="BS159" s="6">
         <v>0</v>
       </c>
+      <c r="BT159" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU159" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV159" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B160" s="5">
         <v>15654</v>
@@ -35496,10 +36906,19 @@
       <c r="BS160" s="6">
         <v>4</v>
       </c>
+      <c r="BT160" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU160" s="6">
+        <v>8</v>
+      </c>
+      <c r="BV160" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="161" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B161" s="5">
         <v>11384</v>
@@ -35711,10 +37130,19 @@
       <c r="BS161" s="6">
         <v>15</v>
       </c>
+      <c r="BT161" s="6">
+        <v>15</v>
+      </c>
+      <c r="BU161" s="6">
+        <v>15</v>
+      </c>
+      <c r="BV161" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="162" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B162" s="5">
         <v>5606</v>
@@ -35926,10 +37354,19 @@
       <c r="BS162" s="6">
         <v>3</v>
       </c>
+      <c r="BT162" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU162" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV162" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="163" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B163" s="5">
         <v>4211</v>
@@ -36141,10 +37578,19 @@
       <c r="BS163" s="6">
         <v>28</v>
       </c>
+      <c r="BT163" s="6">
+        <v>28</v>
+      </c>
+      <c r="BU163" s="6">
+        <v>31</v>
+      </c>
+      <c r="BV163" s="6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="164" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B164" s="5">
         <v>39696</v>
@@ -36356,10 +37802,19 @@
       <c r="BS164" s="6">
         <v>62</v>
       </c>
+      <c r="BT164" s="6">
+        <v>63</v>
+      </c>
+      <c r="BU164" s="6">
+        <v>63</v>
+      </c>
+      <c r="BV164" s="6">
+        <v>63</v>
+      </c>
     </row>
-    <row r="165" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B165" s="5">
         <v>63502</v>
@@ -36571,10 +38026,19 @@
       <c r="BS165" s="6">
         <v>52</v>
       </c>
+      <c r="BT165" s="6">
+        <v>57</v>
+      </c>
+      <c r="BU165" s="6">
+        <v>57</v>
+      </c>
+      <c r="BV165" s="6">
+        <v>74</v>
+      </c>
     </row>
-    <row r="166" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B166" s="5">
         <v>56907</v>
@@ -36786,10 +38250,19 @@
       <c r="BS166" s="6">
         <v>47</v>
       </c>
+      <c r="BT166" s="6">
+        <v>48</v>
+      </c>
+      <c r="BU166" s="6">
+        <v>49</v>
+      </c>
+      <c r="BV166" s="6">
+        <v>50</v>
+      </c>
     </row>
-    <row r="167" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B167" s="5">
         <v>2406</v>
@@ -37001,10 +38474,19 @@
       <c r="BS167" s="6">
         <v>0</v>
       </c>
+      <c r="BT167" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU167" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV167" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B168" s="5">
         <v>159256</v>
@@ -37216,10 +38698,19 @@
       <c r="BS168" s="6">
         <v>115</v>
       </c>
+      <c r="BT168" s="6">
+        <v>116</v>
+      </c>
+      <c r="BU168" s="6">
+        <v>120</v>
+      </c>
+      <c r="BV168" s="6">
+        <v>120</v>
+      </c>
     </row>
-    <row r="169" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B169" s="5">
         <v>26786</v>
@@ -37431,10 +38922,19 @@
       <c r="BS169" s="6">
         <v>22</v>
       </c>
+      <c r="BT169" s="6">
+        <v>23</v>
+      </c>
+      <c r="BU169" s="6">
+        <v>23</v>
+      </c>
+      <c r="BV169" s="6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="170" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B170" s="5">
         <v>5240</v>
@@ -37646,10 +39146,19 @@
       <c r="BS170" s="6">
         <v>0</v>
       </c>
+      <c r="BT170" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU170" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV170" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B171" s="5">
         <v>10050</v>
@@ -37861,10 +39370,19 @@
       <c r="BS171" s="6">
         <v>1</v>
       </c>
+      <c r="BT171" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU171" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV171" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B172" s="5">
         <v>21462</v>
@@ -38076,10 +39594,19 @@
       <c r="BS172" s="6">
         <v>9</v>
       </c>
+      <c r="BT172" s="6">
+        <v>9</v>
+      </c>
+      <c r="BU172" s="6">
+        <v>9</v>
+      </c>
+      <c r="BV172" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="173" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B173" s="5">
         <v>660481</v>
@@ -38291,10 +39818,19 @@
       <c r="BS173" s="6">
         <v>758</v>
       </c>
+      <c r="BT173" s="6">
+        <v>773</v>
+      </c>
+      <c r="BU173" s="6">
+        <v>798</v>
+      </c>
+      <c r="BV173" s="6">
+        <v>798</v>
+      </c>
     </row>
-    <row r="174" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B174" s="5">
         <v>25817</v>
@@ -38506,10 +40042,19 @@
       <c r="BS174" s="6">
         <v>534</v>
       </c>
+      <c r="BT174" s="6">
+        <v>540</v>
+      </c>
+      <c r="BU174" s="6">
+        <v>544</v>
+      </c>
+      <c r="BV174" s="6">
+        <v>552</v>
+      </c>
     </row>
-    <row r="175" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B175" s="5">
         <v>13917</v>
@@ -38721,10 +40266,19 @@
       <c r="BS175" s="6">
         <v>10</v>
       </c>
+      <c r="BT175" s="6">
+        <v>10</v>
+      </c>
+      <c r="BU175" s="6">
+        <v>11</v>
+      </c>
+      <c r="BV175" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="176" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B176" s="5">
         <v>1196</v>
@@ -38936,10 +40490,19 @@
       <c r="BS176" s="6">
         <v>1</v>
       </c>
+      <c r="BT176" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU176" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV176" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B177" s="5">
         <v>73458</v>
@@ -39151,10 +40714,19 @@
       <c r="BS177" s="6">
         <v>227</v>
       </c>
+      <c r="BT177" s="6">
+        <v>229</v>
+      </c>
+      <c r="BU177" s="6">
+        <v>233</v>
+      </c>
+      <c r="BV177" s="6">
+        <v>238</v>
+      </c>
     </row>
-    <row r="178" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B178" s="5">
         <v>55437</v>
@@ -39366,10 +40938,19 @@
       <c r="BS178" s="6">
         <v>37</v>
       </c>
+      <c r="BT178" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU178" s="6">
+        <v>38</v>
+      </c>
+      <c r="BV178" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="179" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B179" s="5">
         <v>14314</v>
@@ -39581,10 +41162,19 @@
       <c r="BS179" s="6">
         <v>4</v>
       </c>
+      <c r="BT179" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU179" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV179" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="180" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B180" s="5">
         <v>16176</v>
@@ -39796,10 +41386,19 @@
       <c r="BS180" s="6">
         <v>2</v>
       </c>
+      <c r="BT180" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU180" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV180" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="181" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B181" s="5">
         <v>376623</v>
@@ -40011,10 +41610,19 @@
       <c r="BS181" s="6">
         <v>186</v>
       </c>
+      <c r="BT181" s="6">
+        <v>209</v>
+      </c>
+      <c r="BU181" s="6">
+        <v>231</v>
+      </c>
+      <c r="BV181" s="6">
+        <v>233</v>
+      </c>
     </row>
-    <row r="182" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B182" s="5">
         <v>12755</v>
@@ -40226,10 +41834,19 @@
       <c r="BS182" s="6">
         <v>40</v>
       </c>
+      <c r="BT182" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU182" s="6">
+        <v>39</v>
+      </c>
+      <c r="BV182" s="6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="183" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B183" s="5">
         <v>2233</v>
@@ -40441,10 +42058,19 @@
       <c r="BS183" s="6">
         <v>3</v>
       </c>
+      <c r="BT183" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU183" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV183" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="184" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B184" s="5">
         <v>88026</v>
@@ -40656,10 +42282,19 @@
       <c r="BS184" s="6">
         <v>84</v>
       </c>
+      <c r="BT184" s="6">
+        <v>87</v>
+      </c>
+      <c r="BU184" s="6">
+        <v>87</v>
+      </c>
+      <c r="BV184" s="6">
+        <v>87</v>
+      </c>
     </row>
-    <row r="185" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B185" s="5">
         <v>31708</v>
@@ -40871,10 +42506,19 @@
       <c r="BS185" s="6">
         <v>9</v>
       </c>
+      <c r="BT185" s="6">
+        <v>9</v>
+      </c>
+      <c r="BU185" s="6">
+        <v>9</v>
+      </c>
+      <c r="BV185" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="186" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B186" s="5">
         <v>25965</v>
@@ -41086,10 +42730,19 @@
       <c r="BS186" s="6">
         <v>155</v>
       </c>
+      <c r="BT186" s="6">
+        <v>158</v>
+      </c>
+      <c r="BU186" s="6">
+        <v>159</v>
+      </c>
+      <c r="BV186" s="6">
+        <v>162</v>
+      </c>
     </row>
-    <row r="187" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B187" s="5">
         <v>159119</v>
@@ -41301,10 +42954,19 @@
       <c r="BS187" s="6">
         <v>56</v>
       </c>
+      <c r="BT187" s="6">
+        <v>57</v>
+      </c>
+      <c r="BU187" s="6">
+        <v>57</v>
+      </c>
+      <c r="BV187" s="6">
+        <v>57</v>
+      </c>
     </row>
-    <row r="188" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B188" s="5">
         <v>12385</v>
@@ -41516,10 +43178,19 @@
       <c r="BS188" s="6">
         <v>23</v>
       </c>
+      <c r="BT188" s="6">
+        <v>23</v>
+      </c>
+      <c r="BU188" s="6">
+        <v>25</v>
+      </c>
+      <c r="BV188" s="6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="189" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B189" s="5">
         <v>17026</v>
@@ -41731,10 +43402,19 @@
       <c r="BS189" s="6">
         <v>20</v>
       </c>
+      <c r="BT189" s="6">
+        <v>20</v>
+      </c>
+      <c r="BU189" s="6">
+        <v>20</v>
+      </c>
+      <c r="BV189" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="190" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B190" s="5">
         <v>51908</v>
@@ -41946,10 +43626,19 @@
       <c r="BS190" s="6">
         <v>46</v>
       </c>
+      <c r="BT190" s="6">
+        <v>47</v>
+      </c>
+      <c r="BU190" s="6">
+        <v>47</v>
+      </c>
+      <c r="BV190" s="6">
+        <v>47</v>
+      </c>
     </row>
-    <row r="191" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B191" s="5">
         <v>134475</v>
@@ -42161,10 +43850,19 @@
       <c r="BS191" s="6">
         <v>1421</v>
       </c>
+      <c r="BT191" s="6">
+        <v>1462</v>
+      </c>
+      <c r="BU191" s="6">
+        <v>2080</v>
+      </c>
+      <c r="BV191" s="6">
+        <v>2129</v>
+      </c>
     </row>
-    <row r="192" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B192" s="5">
         <v>8683</v>
@@ -42376,10 +44074,19 @@
       <c r="BS192" s="6">
         <v>0</v>
       </c>
+      <c r="BT192" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU192" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV192" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B193" s="5">
         <v>13134</v>
@@ -42591,10 +44298,19 @@
       <c r="BS193" s="6">
         <v>2</v>
       </c>
+      <c r="BT193" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU193" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV193" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="194" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B194" s="5">
         <v>142109</v>
@@ -42806,10 +44522,19 @@
       <c r="BS194" s="6">
         <v>444</v>
       </c>
+      <c r="BT194" s="6">
+        <v>477</v>
+      </c>
+      <c r="BU194" s="6">
+        <v>593</v>
+      </c>
+      <c r="BV194" s="6">
+        <v>602</v>
+      </c>
     </row>
-    <row r="195" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B195" s="5">
         <v>3908</v>
@@ -43021,10 +44746,19 @@
       <c r="BS195" s="6">
         <v>0</v>
       </c>
+      <c r="BT195" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU195" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV195" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B196" s="5">
         <v>3439</v>
@@ -43236,10 +44970,19 @@
       <c r="BS196" s="6">
         <v>0</v>
       </c>
+      <c r="BT196" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU196" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV196" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B197" s="5">
         <v>13468</v>
@@ -43451,10 +45194,19 @@
       <c r="BS197" s="6">
         <v>33</v>
       </c>
+      <c r="BT197" s="6">
+        <v>35</v>
+      </c>
+      <c r="BU197" s="6">
+        <v>35</v>
+      </c>
+      <c r="BV197" s="6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="198" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B198" s="5">
         <v>14934</v>
@@ -43666,10 +45418,19 @@
       <c r="BS198" s="6">
         <v>1</v>
       </c>
+      <c r="BT198" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU198" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV198" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="199" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B199" s="5">
         <v>7514</v>
@@ -43881,10 +45642,19 @@
       <c r="BS199" s="6">
         <v>3</v>
       </c>
+      <c r="BT199" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU199" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV199" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="200" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B200" s="5">
         <v>994</v>
@@ -44096,10 +45866,19 @@
       <c r="BS200" s="6">
         <v>2</v>
       </c>
+      <c r="BT200" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU200" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV200" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B201" s="5">
         <v>19553</v>
@@ -44311,10 +46090,19 @@
       <c r="BS201" s="6">
         <v>6</v>
       </c>
+      <c r="BT201" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU201" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV201" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="202" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B202" s="5">
         <v>115985</v>
@@ -44526,10 +46314,19 @@
       <c r="BS202" s="6">
         <v>123</v>
       </c>
+      <c r="BT202" s="6">
+        <v>125</v>
+      </c>
+      <c r="BU202" s="6">
+        <v>134</v>
+      </c>
+      <c r="BV202" s="6">
+        <v>134</v>
+      </c>
     </row>
-    <row r="203" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B203" s="5">
         <v>11010</v>
@@ -44741,10 +46538,19 @@
       <c r="BS203" s="6">
         <v>2</v>
       </c>
+      <c r="BT203" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU203" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV203" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="204" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B204" s="5">
         <v>63351</v>
@@ -44956,10 +46762,19 @@
       <c r="BS204" s="6">
         <v>40</v>
       </c>
+      <c r="BT204" s="6">
+        <v>40</v>
+      </c>
+      <c r="BU204" s="6">
+        <v>42</v>
+      </c>
+      <c r="BV204" s="6">
+        <v>42</v>
+      </c>
     </row>
-    <row r="205" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B205" s="5">
         <v>12186</v>
@@ -45171,10 +46986,19 @@
       <c r="BS205" s="6">
         <v>3</v>
       </c>
+      <c r="BT205" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU205" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV205" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="206" spans="1:71" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:74" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B206" s="5">
         <v>9340</v>
@@ -45386,10 +47210,19 @@
       <c r="BS206" s="6">
         <v>22</v>
       </c>
+      <c r="BT206" s="6">
+        <v>22</v>
+      </c>
+      <c r="BU206" s="6">
+        <v>22</v>
+      </c>
+      <c r="BV206" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="207" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B207" s="5">
         <v>32428</v>
@@ -45601,10 +47434,19 @@
       <c r="BS207" s="6">
         <v>12</v>
       </c>
+      <c r="BT207" s="6">
+        <v>12</v>
+      </c>
+      <c r="BU207" s="6">
+        <v>12</v>
+      </c>
+      <c r="BV207" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="208" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B208" s="5">
         <v>68331</v>
@@ -45816,10 +47658,19 @@
       <c r="BS208" s="6">
         <v>23</v>
       </c>
+      <c r="BT208" s="6">
+        <v>25</v>
+      </c>
+      <c r="BU208" s="6">
+        <v>25</v>
+      </c>
+      <c r="BV208" s="6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="209" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B209" s="5">
         <v>6482</v>
@@ -46031,10 +47882,19 @@
       <c r="BS209" s="6">
         <v>0</v>
       </c>
+      <c r="BT209" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU209" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV209" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B210" s="5">
         <v>3920</v>
@@ -46246,10 +48106,19 @@
       <c r="BS210" s="6">
         <v>0</v>
       </c>
+      <c r="BT210" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU210" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV210" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B211" s="5">
         <v>18906</v>
@@ -46461,10 +48330,19 @@
       <c r="BS211" s="6">
         <v>2</v>
       </c>
+      <c r="BT211" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU211" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV211" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="212" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B212" s="5">
         <v>3734</v>
@@ -46676,10 +48554,19 @@
       <c r="BS212" s="6">
         <v>1</v>
       </c>
+      <c r="BT212" s="6">
+        <v>1</v>
+      </c>
+      <c r="BU212" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV212" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B213" s="5">
         <v>28649</v>
@@ -46891,10 +48778,19 @@
       <c r="BS213" s="6">
         <v>167</v>
       </c>
+      <c r="BT213" s="6">
+        <v>172</v>
+      </c>
+      <c r="BU213" s="6">
+        <v>173</v>
+      </c>
+      <c r="BV213" s="6">
+        <v>175</v>
+      </c>
     </row>
-    <row r="214" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B214" s="5">
         <v>3440</v>
@@ -47106,10 +49002,19 @@
       <c r="BS214" s="6">
         <v>23</v>
       </c>
+      <c r="BT214" s="6">
+        <v>23</v>
+      </c>
+      <c r="BU214" s="6">
+        <v>23</v>
+      </c>
+      <c r="BV214" s="6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="215" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B215" s="5">
         <v>243064</v>
@@ -47321,10 +49226,19 @@
       <c r="BS215" s="6">
         <v>186</v>
       </c>
+      <c r="BT215" s="6">
+        <v>189</v>
+      </c>
+      <c r="BU215" s="6">
+        <v>189</v>
+      </c>
+      <c r="BV215" s="6">
+        <v>189</v>
+      </c>
     </row>
-    <row r="216" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B216" s="5">
         <v>10480</v>
@@ -47536,10 +49450,19 @@
       <c r="BS216" s="6">
         <v>0</v>
       </c>
+      <c r="BT216" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU216" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV216" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B217" s="5">
         <v>68878</v>
@@ -47751,10 +49674,19 @@
       <c r="BS217" s="6">
         <v>14</v>
       </c>
+      <c r="BT217" s="6">
+        <v>16</v>
+      </c>
+      <c r="BU217" s="6">
+        <v>17</v>
+      </c>
+      <c r="BV217" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="218" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B218" s="5">
         <v>10297</v>
@@ -47966,10 +49898,19 @@
       <c r="BS218" s="6">
         <v>2</v>
       </c>
+      <c r="BT218" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU218" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV218" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="219" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B219" s="5">
         <v>1214</v>
@@ -48181,10 +50122,19 @@
       <c r="BS219" s="6">
         <v>0</v>
       </c>
+      <c r="BT219" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU219" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV219" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B220" s="5">
         <v>1515</v>
@@ -48396,10 +50346,19 @@
       <c r="BS220" s="6">
         <v>0</v>
       </c>
+      <c r="BT220" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU220" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV220" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B221" s="5">
         <v>4651</v>
@@ -48611,10 +50570,19 @@
       <c r="BS221" s="6">
         <v>0</v>
       </c>
+      <c r="BT221" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU221" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV221" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B222" s="5">
         <v>8230</v>
@@ -48826,10 +50794,19 @@
       <c r="BS222" s="6">
         <v>13</v>
       </c>
+      <c r="BT222" s="6">
+        <v>14</v>
+      </c>
+      <c r="BU222" s="6">
+        <v>14</v>
+      </c>
+      <c r="BV222" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="223" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B223" s="5">
         <v>2127850</v>
@@ -49041,10 +51018,19 @@
       <c r="BS223" s="6">
         <v>4076</v>
       </c>
+      <c r="BT223" s="6">
+        <v>4211</v>
+      </c>
+      <c r="BU223" s="6">
+        <v>4266</v>
+      </c>
+      <c r="BV223" s="6">
+        <v>4350</v>
+      </c>
     </row>
-    <row r="224" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B224" s="5">
         <v>138279</v>
@@ -49256,10 +51242,19 @@
       <c r="BS224" s="6">
         <v>214</v>
       </c>
+      <c r="BT224" s="6">
+        <v>215</v>
+      </c>
+      <c r="BU224" s="6">
+        <v>217</v>
+      </c>
+      <c r="BV224" s="6">
+        <v>217</v>
+      </c>
     </row>
-    <row r="225" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B225" s="5">
         <v>1047</v>
@@ -49471,10 +51466,19 @@
       <c r="BS225" s="6">
         <v>0</v>
       </c>
+      <c r="BT225" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU225" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV225" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B226" s="5">
         <v>13323</v>
@@ -49686,10 +51690,19 @@
       <c r="BS226" s="6">
         <v>12</v>
       </c>
+      <c r="BT226" s="6">
+        <v>12</v>
+      </c>
+      <c r="BU226" s="6">
+        <v>12</v>
+      </c>
+      <c r="BV226" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="227" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B227" s="5">
         <v>1639</v>
@@ -49901,10 +51914,19 @@
       <c r="BS227" s="6">
         <v>0</v>
       </c>
+      <c r="BT227" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU227" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV227" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B228" s="5">
         <v>37790</v>
@@ -50116,10 +52138,19 @@
       <c r="BS228" s="6">
         <v>74</v>
       </c>
+      <c r="BT228" s="6">
+        <v>83</v>
+      </c>
+      <c r="BU228" s="6">
+        <v>96</v>
+      </c>
+      <c r="BV228" s="6">
+        <v>96</v>
+      </c>
     </row>
-    <row r="229" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B229" s="5">
         <v>114995</v>
@@ -50331,10 +52362,19 @@
       <c r="BS229" s="6">
         <v>59</v>
       </c>
+      <c r="BT229" s="6">
+        <v>60</v>
+      </c>
+      <c r="BU229" s="6">
+        <v>61</v>
+      </c>
+      <c r="BV229" s="6">
+        <v>61</v>
+      </c>
     </row>
-    <row r="230" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B230" s="5">
         <v>1277007</v>
@@ -50546,10 +52586,19 @@
       <c r="BS230" s="6">
         <v>2288</v>
       </c>
+      <c r="BT230" s="6">
+        <v>2345</v>
+      </c>
+      <c r="BU230" s="6">
+        <v>2381</v>
+      </c>
+      <c r="BV230" s="6">
+        <v>2425</v>
+      </c>
     </row>
-    <row r="231" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B231" s="5">
         <v>16618</v>
@@ -50761,10 +52810,19 @@
       <c r="BS231" s="6">
         <v>11</v>
       </c>
+      <c r="BT231" s="6">
+        <v>11</v>
+      </c>
+      <c r="BU231" s="6">
+        <v>11</v>
+      </c>
+      <c r="BV231" s="6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="232" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B232" s="5">
         <v>22646</v>
@@ -50976,10 +53034,19 @@
       <c r="BS232" s="6">
         <v>7</v>
       </c>
+      <c r="BT232" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU232" s="6">
+        <v>9</v>
+      </c>
+      <c r="BV232" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="233" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B233" s="5">
         <v>45120</v>
@@ -51191,10 +53258,19 @@
       <c r="BS233" s="6">
         <v>17</v>
       </c>
+      <c r="BT233" s="6">
+        <v>18</v>
+      </c>
+      <c r="BU233" s="6">
+        <v>18</v>
+      </c>
+      <c r="BV233" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="234" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B234" s="5">
         <v>3886</v>
@@ -51406,10 +53482,19 @@
       <c r="BS234" s="6">
         <v>0</v>
       </c>
+      <c r="BT234" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU234" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV234" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B235" s="5">
         <v>28593</v>
@@ -51621,10 +53706,19 @@
       <c r="BS235" s="6">
         <v>6</v>
       </c>
+      <c r="BT235" s="6">
+        <v>6</v>
+      </c>
+      <c r="BU235" s="6">
+        <v>6</v>
+      </c>
+      <c r="BV235" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="236" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B236" s="5">
         <v>53256</v>
@@ -51836,10 +53930,19 @@
       <c r="BS236" s="6">
         <v>13</v>
       </c>
+      <c r="BT236" s="6">
+        <v>13</v>
+      </c>
+      <c r="BU236" s="6">
+        <v>13</v>
+      </c>
+      <c r="BV236" s="6">
+        <v>13</v>
+      </c>
     </row>
-    <row r="237" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B237" s="5">
         <v>58259</v>
@@ -52051,10 +54154,19 @@
       <c r="BS237" s="6">
         <v>22</v>
       </c>
+      <c r="BT237" s="6">
+        <v>22</v>
+      </c>
+      <c r="BU237" s="6">
+        <v>22</v>
+      </c>
+      <c r="BV237" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="238" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B238" s="5">
         <v>92845</v>
@@ -52266,10 +54378,19 @@
       <c r="BS238" s="6">
         <v>154</v>
       </c>
+      <c r="BT238" s="6">
+        <v>154</v>
+      </c>
+      <c r="BU238" s="6">
+        <v>154</v>
+      </c>
+      <c r="BV238" s="6">
+        <v>154</v>
+      </c>
     </row>
-    <row r="239" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B239" s="5">
         <v>72778</v>
@@ -52481,10 +54602,19 @@
       <c r="BS239" s="6">
         <v>363</v>
       </c>
+      <c r="BT239" s="6">
+        <v>373</v>
+      </c>
+      <c r="BU239" s="6">
+        <v>405</v>
+      </c>
+      <c r="BV239" s="6">
+        <v>421</v>
+      </c>
     </row>
-    <row r="240" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B240" s="5">
         <v>58002</v>
@@ -52696,10 +54826,19 @@
       <c r="BS240" s="6">
         <v>37</v>
       </c>
+      <c r="BT240" s="6">
+        <v>38</v>
+      </c>
+      <c r="BU240" s="6">
+        <v>39</v>
+      </c>
+      <c r="BV240" s="6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="241" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B241" s="5">
         <v>11213</v>
@@ -52911,10 +55050,19 @@
       <c r="BS241" s="6">
         <v>0</v>
       </c>
+      <c r="BT241" s="6">
+        <v>0</v>
+      </c>
+      <c r="BU241" s="6">
+        <v>0</v>
+      </c>
+      <c r="BV241" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B242" s="5">
         <v>37673</v>
@@ -53126,10 +55274,19 @@
       <c r="BS242" s="6">
         <v>175</v>
       </c>
+      <c r="BT242" s="6">
+        <v>179</v>
+      </c>
+      <c r="BU242" s="6">
+        <v>181</v>
+      </c>
+      <c r="BV242" s="6">
+        <v>181</v>
+      </c>
     </row>
-    <row r="243" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B243" s="5">
         <v>317733</v>
@@ -53341,10 +55498,19 @@
       <c r="BS243" s="6">
         <v>445</v>
       </c>
+      <c r="BT243" s="6">
+        <v>451</v>
+      </c>
+      <c r="BU243" s="6">
+        <v>469</v>
+      </c>
+      <c r="BV243" s="6">
+        <v>477</v>
+      </c>
     </row>
-    <row r="244" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B244" s="5">
         <v>43271</v>
@@ -53556,10 +55722,19 @@
       <c r="BS244" s="6">
         <v>42</v>
       </c>
+      <c r="BT244" s="6">
+        <v>42</v>
+      </c>
+      <c r="BU244" s="6">
+        <v>42</v>
+      </c>
+      <c r="BV244" s="6">
+        <v>42</v>
+      </c>
     </row>
-    <row r="245" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B245" s="5">
         <v>5934</v>
@@ -53771,10 +55946,19 @@
       <c r="BS245" s="6">
         <v>14</v>
       </c>
+      <c r="BT245" s="6">
+        <v>14</v>
+      </c>
+      <c r="BU245" s="6">
+        <v>14</v>
+      </c>
+      <c r="BV245" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="246" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B246" s="5">
         <v>133363</v>
@@ -53986,10 +56170,19 @@
       <c r="BS246" s="6">
         <v>77</v>
       </c>
+      <c r="BT246" s="6">
+        <v>78</v>
+      </c>
+      <c r="BU246" s="6">
+        <v>78</v>
+      </c>
+      <c r="BV246" s="6">
+        <v>78</v>
+      </c>
     </row>
-    <row r="247" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B247" s="5">
         <v>14897</v>
@@ -54201,10 +56394,19 @@
       <c r="BS247" s="6">
         <v>2</v>
       </c>
+      <c r="BT247" s="6">
+        <v>5</v>
+      </c>
+      <c r="BU247" s="6">
+        <v>5</v>
+      </c>
+      <c r="BV247" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="248" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B248" s="5">
         <v>26817</v>
@@ -54416,10 +56618,19 @@
       <c r="BS248" s="6">
         <v>14</v>
       </c>
+      <c r="BT248" s="6">
+        <v>14</v>
+      </c>
+      <c r="BU248" s="6">
+        <v>14</v>
+      </c>
+      <c r="BV248" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="249" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B249" s="5">
         <v>633783</v>
@@ -54631,10 +56842,19 @@
       <c r="BS249" s="6">
         <v>424</v>
       </c>
+      <c r="BT249" s="6">
+        <v>442</v>
+      </c>
+      <c r="BU249" s="6">
+        <v>451</v>
+      </c>
+      <c r="BV249" s="6">
+        <v>463</v>
+      </c>
     </row>
-    <row r="250" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B250" s="5">
         <v>57292</v>
@@ -54846,10 +57066,19 @@
       <c r="BS250" s="6">
         <v>36</v>
       </c>
+      <c r="BT250" s="6">
+        <v>36</v>
+      </c>
+      <c r="BU250" s="6">
+        <v>36</v>
+      </c>
+      <c r="BV250" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="251" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B251" s="5">
         <v>8371</v>
@@ -55061,10 +57290,19 @@
       <c r="BS251" s="6">
         <v>3</v>
       </c>
+      <c r="BT251" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU251" s="6">
+        <v>3</v>
+      </c>
+      <c r="BV251" s="6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="252" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B252" s="5">
         <v>74490</v>
@@ -55276,10 +57514,19 @@
       <c r="BS252" s="6">
         <v>36</v>
       </c>
+      <c r="BT252" s="6">
+        <v>36</v>
+      </c>
+      <c r="BU252" s="6">
+        <v>36</v>
+      </c>
+      <c r="BV252" s="6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="253" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B253" s="5">
         <v>48594</v>
@@ -55491,10 +57738,19 @@
       <c r="BS253" s="6">
         <v>15</v>
       </c>
+      <c r="BT253" s="6">
+        <v>17</v>
+      </c>
+      <c r="BU253" s="6">
+        <v>18</v>
+      </c>
+      <c r="BV253" s="6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="254" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B254" s="5">
         <v>9591</v>
@@ -55706,10 +57962,19 @@
       <c r="BS254" s="6">
         <v>2</v>
       </c>
+      <c r="BT254" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU254" s="6">
+        <v>2</v>
+      </c>
+      <c r="BV254" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="255" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B255" s="5">
         <v>19914</v>
@@ -55921,10 +58186,19 @@
       <c r="BS255" s="6">
         <v>4</v>
       </c>
+      <c r="BT255" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU255" s="6">
+        <v>4</v>
+      </c>
+      <c r="BV255" s="6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="256" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B256" s="5">
         <v>17043</v>
@@ -56136,10 +58410,19 @@
       <c r="BS256" s="6">
         <v>7</v>
       </c>
+      <c r="BT256" s="6">
+        <v>7</v>
+      </c>
+      <c r="BU256" s="6">
+        <v>7</v>
+      </c>
+      <c r="BV256" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="257" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B257" s="5">
         <v>12895</v>
@@ -56351,10 +58634,19 @@
       <c r="BS257" s="6">
         <v>9</v>
       </c>
+      <c r="BT257" s="6">
+        <v>9</v>
+      </c>
+      <c r="BU257" s="6">
+        <v>9</v>
+      </c>
+      <c r="BV257" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="258" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B258" s="5">
         <v>30541978</v>
@@ -56566,489 +58858,501 @@
       <c r="BS258" s="6">
         <v>43851</v>
       </c>
+      <c r="BT258" s="6">
+        <v>45198</v>
+      </c>
+      <c r="BU258" s="6">
+        <v>46999</v>
+      </c>
+      <c r="BV258" s="6">
+        <v>47784</v>
+      </c>
     </row>
-    <row r="259" spans="1:71" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7" t="s">
-        <v>327</v>
+    <row r="259" spans="1:74" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="S259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="T259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="U259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="V259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="X259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Y259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Z259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AA259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AB259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AC259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AD259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AE259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AH259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AI259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AJ259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AK259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AL259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AM259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AN259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AO259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AP259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AQ259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AR259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AS259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AT259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AU259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AV259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AW259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AX259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AY259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AZ259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BA259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BB259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BC259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BD259" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BE259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BF259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BG259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BH259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BI259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BJ259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BK259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BL259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BM259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BN259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BO259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BP259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BQ259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BR259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BS259" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="BT259" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BU259" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BV259" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="260" spans="1:71" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C260" s="8">
-        <v>0</v>
-      </c>
-      <c r="D260" s="8">
-        <v>0</v>
-      </c>
-      <c r="E260" s="8">
-        <v>2</v>
-      </c>
-      <c r="F260" s="8">
-        <v>3</v>
-      </c>
-      <c r="G260" s="8">
+    <row r="260" spans="1:74" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C260" s="5">
+        <v>0</v>
+      </c>
+      <c r="D260" s="5">
+        <v>0</v>
+      </c>
+      <c r="E260" s="5">
+        <v>2</v>
+      </c>
+      <c r="F260" s="5">
+        <v>3</v>
+      </c>
+      <c r="G260" s="5">
         <v>4</v>
       </c>
-      <c r="H260" s="8">
+      <c r="H260" s="5">
         <v>6</v>
       </c>
-      <c r="I260" s="8">
+      <c r="I260" s="5">
         <v>7</v>
       </c>
-      <c r="J260" s="8">
+      <c r="J260" s="5">
         <v>7</v>
       </c>
-      <c r="K260" s="8">
+      <c r="K260" s="5">
         <v>17</v>
       </c>
-      <c r="L260" s="8">
+      <c r="L260" s="5">
         <v>17</v>
       </c>
-      <c r="M260" s="8">
+      <c r="M260" s="5">
         <v>20</v>
       </c>
-      <c r="N260" s="8">
+      <c r="N260" s="5">
         <v>23</v>
       </c>
-      <c r="O260" s="8">
+      <c r="O260" s="5">
         <v>27</v>
       </c>
-      <c r="P260" s="8">
+      <c r="P260" s="5">
         <v>34</v>
       </c>
-      <c r="Q260" s="8">
+      <c r="Q260" s="5">
         <v>41</v>
       </c>
-      <c r="R260" s="8">
+      <c r="R260" s="5">
         <v>43</v>
       </c>
-      <c r="S260" s="8">
+      <c r="S260" s="5">
         <v>46</v>
       </c>
-      <c r="T260" s="8">
+      <c r="T260" s="5">
         <v>65</v>
       </c>
-      <c r="U260" s="8">
+      <c r="U260" s="5">
         <v>82</v>
       </c>
-      <c r="V260" s="8">
+      <c r="V260" s="5">
         <v>92</v>
       </c>
-      <c r="W260" s="8">
+      <c r="W260" s="5">
         <v>104</v>
       </c>
-      <c r="X260" s="8">
+      <c r="X260" s="5">
         <v>110</v>
       </c>
-      <c r="Y260" s="8">
+      <c r="Y260" s="5">
         <v>118</v>
       </c>
-      <c r="Z260" s="8">
+      <c r="Z260" s="5">
         <v>122</v>
       </c>
-      <c r="AA260" s="8">
+      <c r="AA260" s="5">
         <v>122</v>
       </c>
-      <c r="AB260" s="8">
+      <c r="AB260" s="5">
         <v>135</v>
       </c>
-      <c r="AC260" s="8">
+      <c r="AC260" s="5">
         <v>143</v>
       </c>
-      <c r="AD260" s="8">
+      <c r="AD260" s="5">
         <v>145</v>
       </c>
-      <c r="AE260" s="8">
+      <c r="AE260" s="5">
         <v>151</v>
       </c>
-      <c r="AF260" s="8">
+      <c r="AF260" s="5">
         <v>152</v>
       </c>
-      <c r="AG260" s="8">
+      <c r="AG260" s="5">
         <v>156</v>
       </c>
-      <c r="AH260" s="8">
+      <c r="AH260" s="5">
         <v>161</v>
       </c>
-      <c r="AI260" s="8">
+      <c r="AI260" s="5">
         <v>167</v>
       </c>
-      <c r="AJ260" s="8">
+      <c r="AJ260" s="5">
         <v>170</v>
       </c>
-      <c r="AK260" s="8">
+      <c r="AK260" s="5">
         <v>176</v>
       </c>
-      <c r="AL260" s="8">
+      <c r="AL260" s="5">
         <v>177</v>
       </c>
-      <c r="AM260" s="8">
+      <c r="AM260" s="5">
         <v>177</v>
       </c>
-      <c r="AN260" s="8">
+      <c r="AN260" s="5">
         <v>178</v>
       </c>
-      <c r="AO260" s="8">
+      <c r="AO260" s="5">
         <v>181</v>
       </c>
-      <c r="AP260" s="8">
+      <c r="AP260" s="5">
         <v>184</v>
       </c>
-      <c r="AQ260" s="8">
+      <c r="AQ260" s="5">
         <v>191</v>
       </c>
-      <c r="AR260" s="8">
+      <c r="AR260" s="5">
         <v>192</v>
       </c>
-      <c r="AS260" s="8">
+      <c r="AS260" s="5">
         <v>194</v>
       </c>
-      <c r="AT260" s="8">
+      <c r="AT260" s="5">
         <v>197</v>
       </c>
-      <c r="AU260" s="8">
+      <c r="AU260" s="5">
         <v>198</v>
       </c>
-      <c r="AV260" s="8">
+      <c r="AV260" s="5">
         <v>198</v>
       </c>
-      <c r="AW260" s="8">
+      <c r="AW260" s="5">
         <v>200</v>
       </c>
-      <c r="AX260" s="8">
+      <c r="AX260" s="5">
         <v>202</v>
       </c>
-      <c r="AY260" s="8">
+      <c r="AY260" s="5">
         <v>204</v>
       </c>
-      <c r="AZ260" s="8">
+      <c r="AZ260" s="5">
         <v>204</v>
       </c>
-      <c r="BA260" s="8">
+      <c r="BA260" s="5">
         <v>204</v>
       </c>
-      <c r="BB260" s="8">
+      <c r="BB260" s="5">
         <v>205</v>
       </c>
-      <c r="BC260" s="8">
+      <c r="BC260" s="5">
         <v>207</v>
       </c>
-      <c r="BD260" s="8">
+      <c r="BD260" s="5">
         <v>207</v>
       </c>
-      <c r="BE260" s="8">
-        <f t="shared" ref="BE260:BS260" si="0">COUNTIF(BE4:BE257,"&lt;&gt;0")</f>
-        <v>209</v>
-      </c>
-      <c r="BF260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BE260" s="6">
         <v>210</v>
       </c>
-      <c r="BG260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BF260" s="6">
+        <v>210</v>
+      </c>
+      <c r="BG260" s="6">
         <v>212</v>
       </c>
-      <c r="BH260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BH260" s="6">
         <v>212</v>
       </c>
-      <c r="BI260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BI260" s="6">
         <v>213</v>
       </c>
-      <c r="BJ260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BJ260" s="6">
         <v>216</v>
       </c>
-      <c r="BK260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BK260" s="6">
         <v>216</v>
       </c>
-      <c r="BL260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BL260" s="6">
         <v>217</v>
       </c>
-      <c r="BM260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BM260" s="6">
         <v>219</v>
       </c>
-      <c r="BN260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BN260" s="6">
         <v>219</v>
       </c>
-      <c r="BO260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BO260" s="6">
         <v>219</v>
       </c>
-      <c r="BP260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BP260" s="6">
         <v>219</v>
       </c>
-      <c r="BQ260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BQ260" s="6">
         <v>220</v>
       </c>
-      <c r="BR260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BR260" s="6">
         <v>219</v>
       </c>
-      <c r="BS260" s="8">
-        <f t="shared" si="0"/>
+      <c r="BS260" s="6">
         <v>219</v>
       </c>
+      <c r="BT260" s="6">
+        <v>222</v>
+      </c>
+      <c r="BU260" s="6">
+        <v>222</v>
+      </c>
+      <c r="BV260" s="6">
+        <v>222</v>
+      </c>
     </row>
-    <row r="262" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="263" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="264" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="265" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="266" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:74" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="268" spans="1:71" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{057E7301-BF60-4359-A9A1-AD5AB6C6E9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A843C739-3969-4F0A-8072-35B6A89805EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COVID-19 Cases'!$A$3:$BZ$260</definedName>
     <definedName name="Vlook">#REF!</definedName>
+    <definedName name="Vlookup">#REF!</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <r>
       <rPr>
@@ -32,6 +33,7 @@
         <sz val="12"/>
         <color rgb="FF112277"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DISCLAIMER: All data are provisional and are subject to change.</t>
     </r>
@@ -1126,27 +1128,63 @@
     <t>Population data is based on Texas population projections, 2020 (https://www.dshs.texas.gov/chs/popdat/st2020.shtm).</t>
   </si>
   <si>
-    <t>Please also note that total and county-level case counts may differ from those posted previously by DSHS due to furtherverification with                    Local Health Departments and other sources.</t>
-  </si>
-  <si>
     <t>Reporting Methodology Updates:</t>
   </si>
   <si>
     <t>On March 24, DSHS updated the method of reporting COVID-19 cases in Texas to provide the public with more timelyinformation. The DSHS daily case count now includes all cases reported publicly by local health departments around the state.That change led to the report of an additional 305 cases in the March 24 total.</t>
   </si>
   <si>
-    <t>The case counts do not include people who were repatriated from China or a cruise ship on U.S. government flights toJBSA-Lackland in San Antonio.</t>
-  </si>
-  <si>
     <t>Cases
 05-21</t>
   </si>
   <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 5/22/2020*</t>
+    <t>Cases
+05-22</t>
   </si>
   <si>
     <t>Cases
-05-22</t>
+05-23</t>
+  </si>
+  <si>
+    <t>Cases
+05-24</t>
+  </si>
+  <si>
+    <t>Cases
+05-25</t>
+  </si>
+  <si>
+    <t>Please also note that total and county-level case counts may differ from those posted previously by DSHS due to furtherverification with Local Health Departments and other sources.</t>
+  </si>
+  <si>
+    <t>Cases
+05-26</t>
+  </si>
+  <si>
+    <t>The case counts do not include people who were repatriated from China or a cruise ship on U.S. government flights to JBSA-Lackland in San Antonio.</t>
+  </si>
+  <si>
+    <t>Cases
+05-27</t>
+  </si>
+  <si>
+    <t>Cases
+05-28</t>
+  </si>
+  <si>
+    <t>Cases
+05-29</t>
+  </si>
+  <si>
+    <t>Cases
+05-30</t>
+  </si>
+  <si>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 5/31/2020*</t>
+  </si>
+  <si>
+    <t>Cases
+05-31</t>
   </si>
 </sst>
 </file>
@@ -1166,23 +1204,27 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1281,13 +1323,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1423,30 +1465,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CA268"/>
+  <dimension ref="A1:CJ268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CH260" sqref="CH260"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="56" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="79" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="57" max="88" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>343</v>
+    <row r="1" spans="1:88" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:88" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:88" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1677,14 +1721,41 @@
       <c r="BY3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ3" s="10" t="s">
+      <c r="BZ3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="CB3" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="CA3" s="10" t="s">
+      <c r="CC3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="CD3" s="9" t="s">
         <v>344</v>
       </c>
+      <c r="CE3" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="CF3" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="CI3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="CJ3" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>77</v>
       </c>
@@ -1922,8 +1993,35 @@
       <c r="CA4" s="4">
         <v>64</v>
       </c>
+      <c r="CB4" s="4">
+        <v>66</v>
+      </c>
+      <c r="CC4" s="4">
+        <v>66</v>
+      </c>
+      <c r="CD4" s="4">
+        <v>66</v>
+      </c>
+      <c r="CE4" s="4">
+        <v>66</v>
+      </c>
+      <c r="CF4" s="4">
+        <v>66</v>
+      </c>
+      <c r="CG4" s="4">
+        <v>66</v>
+      </c>
+      <c r="CH4" s="4">
+        <v>72</v>
+      </c>
+      <c r="CI4" s="4">
+        <v>72</v>
+      </c>
+      <c r="CJ4" s="4">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>78</v>
       </c>
@@ -2161,8 +2259,35 @@
       <c r="CA5" s="4">
         <v>23</v>
       </c>
+      <c r="CB5" s="4">
+        <v>23</v>
+      </c>
+      <c r="CC5" s="4">
+        <v>24</v>
+      </c>
+      <c r="CD5" s="4">
+        <v>27</v>
+      </c>
+      <c r="CE5" s="4">
+        <v>27</v>
+      </c>
+      <c r="CF5" s="4">
+        <v>27</v>
+      </c>
+      <c r="CG5" s="4">
+        <v>27</v>
+      </c>
+      <c r="CH5" s="4">
+        <v>27</v>
+      </c>
+      <c r="CI5" s="4">
+        <v>27</v>
+      </c>
+      <c r="CJ5" s="4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
@@ -2400,8 +2525,35 @@
       <c r="CA6" s="4">
         <v>172</v>
       </c>
+      <c r="CB6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CC6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CD6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CE6" s="4">
+        <v>175</v>
+      </c>
+      <c r="CF6" s="4">
+        <v>193</v>
+      </c>
+      <c r="CG6" s="4">
+        <v>201</v>
+      </c>
+      <c r="CH6" s="4">
+        <v>203</v>
+      </c>
+      <c r="CI6" s="4">
+        <v>205</v>
+      </c>
+      <c r="CJ6" s="4">
+        <v>205</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -2639,8 +2791,35 @@
       <c r="CA7" s="4">
         <v>5</v>
       </c>
+      <c r="CB7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CG7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CH7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CI7" s="4">
+        <v>5</v>
+      </c>
+      <c r="CJ7" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -2878,8 +3057,35 @@
       <c r="CA8" s="4">
         <v>1</v>
       </c>
+      <c r="CB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -3117,8 +3323,35 @@
       <c r="CA9" s="4">
         <v>2</v>
       </c>
+      <c r="CB9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG9" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH9" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI9" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ9" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -3356,8 +3589,35 @@
       <c r="CA10" s="4">
         <v>35</v>
       </c>
+      <c r="CB10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CC10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CD10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CE10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CF10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CG10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CH10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CI10" s="4">
+        <v>35</v>
+      </c>
+      <c r="CJ10" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>84</v>
       </c>
@@ -3595,8 +3855,35 @@
       <c r="CA11" s="4">
         <v>21</v>
       </c>
+      <c r="CB11" s="4">
+        <v>21</v>
+      </c>
+      <c r="CC11" s="4">
+        <v>22</v>
+      </c>
+      <c r="CD11" s="4">
+        <v>22</v>
+      </c>
+      <c r="CE11" s="4">
+        <v>22</v>
+      </c>
+      <c r="CF11" s="4">
+        <v>24</v>
+      </c>
+      <c r="CG11" s="4">
+        <v>24</v>
+      </c>
+      <c r="CH11" s="4">
+        <v>25</v>
+      </c>
+      <c r="CI11" s="4">
+        <v>25</v>
+      </c>
+      <c r="CJ11" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>85</v>
       </c>
@@ -3834,8 +4121,35 @@
       <c r="CA12" s="4">
         <v>10</v>
       </c>
+      <c r="CB12" s="4">
+        <v>10</v>
+      </c>
+      <c r="CC12" s="4">
+        <v>10</v>
+      </c>
+      <c r="CD12" s="4">
+        <v>10</v>
+      </c>
+      <c r="CE12" s="4">
+        <v>10</v>
+      </c>
+      <c r="CF12" s="4">
+        <v>14</v>
+      </c>
+      <c r="CG12" s="4">
+        <v>14</v>
+      </c>
+      <c r="CH12" s="4">
+        <v>16</v>
+      </c>
+      <c r="CI12" s="4">
+        <v>17</v>
+      </c>
+      <c r="CJ12" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>86</v>
       </c>
@@ -4073,8 +4387,35 @@
       <c r="CA13" s="4">
         <v>6</v>
       </c>
+      <c r="CB13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI13" s="4">
+        <v>6</v>
+      </c>
+      <c r="CJ13" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>87</v>
       </c>
@@ -4312,8 +4653,35 @@
       <c r="CA14" s="4">
         <v>173</v>
       </c>
+      <c r="CB14" s="4">
+        <v>173</v>
+      </c>
+      <c r="CC14" s="4">
+        <v>177</v>
+      </c>
+      <c r="CD14" s="4">
+        <v>182</v>
+      </c>
+      <c r="CE14" s="4">
+        <v>184</v>
+      </c>
+      <c r="CF14" s="4">
+        <v>190</v>
+      </c>
+      <c r="CG14" s="4">
+        <v>196</v>
+      </c>
+      <c r="CH14" s="4">
+        <v>200</v>
+      </c>
+      <c r="CI14" s="4">
+        <v>204</v>
+      </c>
+      <c r="CJ14" s="4">
+        <v>211</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>88</v>
       </c>
@@ -4551,8 +4919,35 @@
       <c r="CA15" s="4">
         <v>0</v>
       </c>
+      <c r="CB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>89</v>
       </c>
@@ -4790,8 +5185,35 @@
       <c r="CA16" s="4">
         <v>8</v>
       </c>
+      <c r="CB16" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CE16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CH16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CI16" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ16" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>90</v>
       </c>
@@ -5029,8 +5451,35 @@
       <c r="CA17" s="4">
         <v>294</v>
       </c>
+      <c r="CB17" s="4">
+        <v>298</v>
+      </c>
+      <c r="CC17" s="4">
+        <v>298</v>
+      </c>
+      <c r="CD17" s="4">
+        <v>298</v>
+      </c>
+      <c r="CE17" s="4">
+        <v>298</v>
+      </c>
+      <c r="CF17" s="4">
+        <v>329</v>
+      </c>
+      <c r="CG17" s="4">
+        <v>335</v>
+      </c>
+      <c r="CH17" s="4">
+        <v>345</v>
+      </c>
+      <c r="CI17" s="4">
+        <v>356</v>
+      </c>
+      <c r="CJ17" s="4">
+        <v>362</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>91</v>
       </c>
@@ -5268,8 +5717,35 @@
       <c r="CA18" s="4">
         <v>2371</v>
       </c>
+      <c r="CB18" s="4">
+        <v>2392</v>
+      </c>
+      <c r="CC18" s="4">
+        <v>2418</v>
+      </c>
+      <c r="CD18" s="4">
+        <v>2442</v>
+      </c>
+      <c r="CE18" s="4">
+        <v>2449</v>
+      </c>
+      <c r="CF18" s="4">
+        <v>2480</v>
+      </c>
+      <c r="CG18" s="4">
+        <v>2525</v>
+      </c>
+      <c r="CH18" s="4">
+        <v>2583</v>
+      </c>
+      <c r="CI18" s="4">
+        <v>2636</v>
+      </c>
+      <c r="CJ18" s="4">
+        <v>2825</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>92</v>
       </c>
@@ -5507,8 +5983,35 @@
       <c r="CA19" s="4">
         <v>8</v>
       </c>
+      <c r="CB19" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC19" s="4">
+        <v>8</v>
+      </c>
+      <c r="CD19" s="4">
+        <v>8</v>
+      </c>
+      <c r="CE19" s="4">
+        <v>8</v>
+      </c>
+      <c r="CF19" s="4">
+        <v>8</v>
+      </c>
+      <c r="CG19" s="4">
+        <v>8</v>
+      </c>
+      <c r="CH19" s="4">
+        <v>9</v>
+      </c>
+      <c r="CI19" s="4">
+        <v>10</v>
+      </c>
+      <c r="CJ19" s="4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>93</v>
       </c>
@@ -5746,8 +6249,35 @@
       <c r="CA20" s="4">
         <v>0</v>
       </c>
+      <c r="CB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>94</v>
       </c>
@@ -5985,8 +6515,35 @@
       <c r="CA21" s="4">
         <v>6</v>
       </c>
+      <c r="CB21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH21" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI21" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ21" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>95</v>
       </c>
@@ -6224,8 +6781,35 @@
       <c r="CA22" s="4">
         <v>154</v>
       </c>
+      <c r="CB22" s="4">
+        <v>154</v>
+      </c>
+      <c r="CC22" s="4">
+        <v>153</v>
+      </c>
+      <c r="CD22" s="4">
+        <v>153</v>
+      </c>
+      <c r="CE22" s="4">
+        <v>147</v>
+      </c>
+      <c r="CF22" s="4">
+        <v>156</v>
+      </c>
+      <c r="CG22" s="4">
+        <v>189</v>
+      </c>
+      <c r="CH22" s="4">
+        <v>191</v>
+      </c>
+      <c r="CI22" s="4">
+        <v>197</v>
+      </c>
+      <c r="CJ22" s="4">
+        <v>265</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>96</v>
       </c>
@@ -6463,8 +7047,35 @@
       <c r="CA23" s="4">
         <v>816</v>
       </c>
+      <c r="CB23" s="4">
+        <v>825</v>
+      </c>
+      <c r="CC23" s="4">
+        <v>835</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>838</v>
+      </c>
+      <c r="CE23" s="4">
+        <v>843</v>
+      </c>
+      <c r="CF23" s="4">
+        <v>853</v>
+      </c>
+      <c r="CG23" s="4">
+        <v>861</v>
+      </c>
+      <c r="CH23" s="4">
+        <v>882</v>
+      </c>
+      <c r="CI23" s="4">
+        <v>894</v>
+      </c>
+      <c r="CJ23" s="4">
+        <v>907</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>97</v>
       </c>
@@ -6702,8 +7313,35 @@
       <c r="CA24" s="4">
         <v>373</v>
       </c>
+      <c r="CB24" s="4">
+        <v>383</v>
+      </c>
+      <c r="CC24" s="4">
+        <v>436</v>
+      </c>
+      <c r="CD24" s="4">
+        <v>438</v>
+      </c>
+      <c r="CE24" s="4">
+        <v>441</v>
+      </c>
+      <c r="CF24" s="4">
+        <v>444</v>
+      </c>
+      <c r="CG24" s="4">
+        <v>455</v>
+      </c>
+      <c r="CH24" s="4">
+        <v>463</v>
+      </c>
+      <c r="CI24" s="4">
+        <v>470</v>
+      </c>
+      <c r="CJ24" s="4">
+        <v>477</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>98</v>
       </c>
@@ -6941,8 +7579,35 @@
       <c r="CA25" s="4">
         <v>1</v>
       </c>
+      <c r="CB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ25" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>99</v>
       </c>
@@ -7180,8 +7845,35 @@
       <c r="CA26" s="4">
         <v>1</v>
       </c>
+      <c r="CB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ26" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>100</v>
       </c>
@@ -7419,8 +8111,35 @@
       <c r="CA27" s="4">
         <v>1</v>
       </c>
+      <c r="CB27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI27" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ27" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>101</v>
       </c>
@@ -7658,8 +8377,35 @@
       <c r="CA28" s="4">
         <v>55</v>
       </c>
+      <c r="CB28" s="4">
+        <v>56</v>
+      </c>
+      <c r="CC28" s="4">
+        <v>56</v>
+      </c>
+      <c r="CD28" s="4">
+        <v>56</v>
+      </c>
+      <c r="CE28" s="4">
+        <v>57</v>
+      </c>
+      <c r="CF28" s="4">
+        <v>57</v>
+      </c>
+      <c r="CG28" s="4">
+        <v>57</v>
+      </c>
+      <c r="CH28" s="4">
+        <v>58</v>
+      </c>
+      <c r="CI28" s="4">
+        <v>58</v>
+      </c>
+      <c r="CJ28" s="4">
+        <v>58</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
@@ -7897,8 +8643,35 @@
       <c r="CA29" s="4">
         <v>22</v>
       </c>
+      <c r="CB29" s="4">
+        <v>22</v>
+      </c>
+      <c r="CC29" s="4">
+        <v>22</v>
+      </c>
+      <c r="CD29" s="4">
+        <v>22</v>
+      </c>
+      <c r="CE29" s="4">
+        <v>22</v>
+      </c>
+      <c r="CF29" s="4">
+        <v>22</v>
+      </c>
+      <c r="CG29" s="4">
+        <v>23</v>
+      </c>
+      <c r="CH29" s="4">
+        <v>24</v>
+      </c>
+      <c r="CI29" s="4">
+        <v>24</v>
+      </c>
+      <c r="CJ29" s="4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>103</v>
       </c>
@@ -8136,8 +8909,35 @@
       <c r="CA30" s="4">
         <v>29</v>
       </c>
+      <c r="CB30" s="4">
+        <v>29</v>
+      </c>
+      <c r="CC30" s="4">
+        <v>29</v>
+      </c>
+      <c r="CD30" s="4">
+        <v>29</v>
+      </c>
+      <c r="CE30" s="4">
+        <v>29</v>
+      </c>
+      <c r="CF30" s="4">
+        <v>30</v>
+      </c>
+      <c r="CG30" s="4">
+        <v>32</v>
+      </c>
+      <c r="CH30" s="4">
+        <v>35</v>
+      </c>
+      <c r="CI30" s="4">
+        <v>36</v>
+      </c>
+      <c r="CJ30" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>104</v>
       </c>
@@ -8375,8 +9175,35 @@
       <c r="CA31" s="4">
         <v>49</v>
       </c>
+      <c r="CB31" s="4">
+        <v>50</v>
+      </c>
+      <c r="CC31" s="4">
+        <v>50</v>
+      </c>
+      <c r="CD31" s="4">
+        <v>50</v>
+      </c>
+      <c r="CE31" s="4">
+        <v>51</v>
+      </c>
+      <c r="CF31" s="4">
+        <v>52</v>
+      </c>
+      <c r="CG31" s="4">
+        <v>57</v>
+      </c>
+      <c r="CH31" s="4">
+        <v>63</v>
+      </c>
+      <c r="CI31" s="4">
+        <v>64</v>
+      </c>
+      <c r="CJ31" s="4">
+        <v>65</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>105</v>
       </c>
@@ -8614,8 +9441,35 @@
       <c r="CA32" s="4">
         <v>37</v>
       </c>
+      <c r="CB32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CC32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CD32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CE32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CF32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CG32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CH32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CI32" s="4">
+        <v>37</v>
+      </c>
+      <c r="CJ32" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>106</v>
       </c>
@@ -8853,8 +9707,35 @@
       <c r="CA33" s="4">
         <v>8</v>
       </c>
+      <c r="CB33" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC33" s="4">
+        <v>8</v>
+      </c>
+      <c r="CD33" s="4">
+        <v>8</v>
+      </c>
+      <c r="CE33" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF33" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG33" s="4">
+        <v>9</v>
+      </c>
+      <c r="CH33" s="4">
+        <v>9</v>
+      </c>
+      <c r="CI33" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ33" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>107</v>
       </c>
@@ -9092,8 +9973,35 @@
       <c r="CA34" s="4">
         <v>664</v>
       </c>
+      <c r="CB34" s="4">
+        <v>686</v>
+      </c>
+      <c r="CC34" s="4">
+        <v>698</v>
+      </c>
+      <c r="CD34" s="4">
+        <v>698</v>
+      </c>
+      <c r="CE34" s="4">
+        <v>698</v>
+      </c>
+      <c r="CF34" s="4">
+        <v>711</v>
+      </c>
+      <c r="CG34" s="4">
+        <v>731</v>
+      </c>
+      <c r="CH34" s="4">
+        <v>743</v>
+      </c>
+      <c r="CI34" s="4">
+        <v>754</v>
+      </c>
+      <c r="CJ34" s="4">
+        <v>764</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>108</v>
       </c>
@@ -9331,8 +10239,35 @@
       <c r="CA35" s="4">
         <v>39</v>
       </c>
+      <c r="CB35" s="4">
+        <v>41</v>
+      </c>
+      <c r="CC35" s="4">
+        <v>42</v>
+      </c>
+      <c r="CD35" s="4">
+        <v>44</v>
+      </c>
+      <c r="CE35" s="4">
+        <v>51</v>
+      </c>
+      <c r="CF35" s="4">
+        <v>58</v>
+      </c>
+      <c r="CG35" s="4">
+        <v>74</v>
+      </c>
+      <c r="CH35" s="4">
+        <v>81</v>
+      </c>
+      <c r="CI35" s="4">
+        <v>82</v>
+      </c>
+      <c r="CJ35" s="4">
+        <v>83</v>
+      </c>
     </row>
-    <row r="36" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>109</v>
       </c>
@@ -9570,8 +10505,35 @@
       <c r="CA36" s="4">
         <v>6</v>
       </c>
+      <c r="CB36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI36" s="4">
+        <v>6</v>
+      </c>
+      <c r="CJ36" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>110</v>
       </c>
@@ -9809,8 +10771,35 @@
       <c r="CA37" s="4">
         <v>21</v>
       </c>
+      <c r="CB37" s="4">
+        <v>21</v>
+      </c>
+      <c r="CC37" s="4">
+        <v>21</v>
+      </c>
+      <c r="CD37" s="4">
+        <v>21</v>
+      </c>
+      <c r="CE37" s="4">
+        <v>23</v>
+      </c>
+      <c r="CF37" s="4">
+        <v>25</v>
+      </c>
+      <c r="CG37" s="4">
+        <v>29</v>
+      </c>
+      <c r="CH37" s="4">
+        <v>29</v>
+      </c>
+      <c r="CI37" s="4">
+        <v>29</v>
+      </c>
+      <c r="CJ37" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>111</v>
       </c>
@@ -10048,8 +11037,35 @@
       <c r="CA38" s="4">
         <v>31</v>
       </c>
+      <c r="CB38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CC38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CD38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CE38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CF38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CG38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CH38" s="4">
+        <v>32</v>
+      </c>
+      <c r="CI38" s="4">
+        <v>33</v>
+      </c>
+      <c r="CJ38" s="4">
+        <v>33</v>
+      </c>
     </row>
-    <row r="39" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>112</v>
       </c>
@@ -10287,8 +11303,35 @@
       <c r="CA39" s="4">
         <v>58</v>
       </c>
+      <c r="CB39" s="4">
+        <v>58</v>
+      </c>
+      <c r="CC39" s="4">
+        <v>59</v>
+      </c>
+      <c r="CD39" s="4">
+        <v>61</v>
+      </c>
+      <c r="CE39" s="4">
+        <v>61</v>
+      </c>
+      <c r="CF39" s="4">
+        <v>62</v>
+      </c>
+      <c r="CG39" s="4">
+        <v>62</v>
+      </c>
+      <c r="CH39" s="4">
+        <v>65</v>
+      </c>
+      <c r="CI39" s="4">
+        <v>67</v>
+      </c>
+      <c r="CJ39" s="4">
+        <v>68</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>113</v>
       </c>
@@ -10526,8 +11569,35 @@
       <c r="CA40" s="4">
         <v>41</v>
       </c>
+      <c r="CB40" s="4">
+        <v>42</v>
+      </c>
+      <c r="CC40" s="4">
+        <v>42</v>
+      </c>
+      <c r="CD40" s="4">
+        <v>42</v>
+      </c>
+      <c r="CE40" s="4">
+        <v>42</v>
+      </c>
+      <c r="CF40" s="4">
+        <v>44</v>
+      </c>
+      <c r="CG40" s="4">
+        <v>44</v>
+      </c>
+      <c r="CH40" s="4">
+        <v>44</v>
+      </c>
+      <c r="CI40" s="4">
+        <v>44</v>
+      </c>
+      <c r="CJ40" s="4">
+        <v>44</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>114</v>
       </c>
@@ -10765,8 +11835,35 @@
       <c r="CA41" s="4">
         <v>2</v>
       </c>
+      <c r="CB41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI41" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ41" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>115</v>
       </c>
@@ -11004,8 +12101,35 @@
       <c r="CA42" s="4">
         <v>3</v>
       </c>
+      <c r="CB42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI42" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ42" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>116</v>
       </c>
@@ -11243,8 +12367,35 @@
       <c r="CA43" s="4">
         <v>1</v>
       </c>
+      <c r="CB43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI43" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ43" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>117</v>
       </c>
@@ -11482,8 +12633,35 @@
       <c r="CA44" s="4">
         <v>1</v>
       </c>
+      <c r="CB44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI44" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ44" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>118</v>
       </c>
@@ -11721,8 +12899,35 @@
       <c r="CA45" s="4">
         <v>2</v>
       </c>
+      <c r="CB45" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC45" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD45" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE45" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF45" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG45" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH45" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI45" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ45" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>119</v>
       </c>
@@ -11960,8 +13165,35 @@
       <c r="CA46" s="4">
         <v>1118</v>
       </c>
+      <c r="CB46" s="4">
+        <v>1132</v>
+      </c>
+      <c r="CC46" s="4">
+        <v>1136</v>
+      </c>
+      <c r="CD46" s="4">
+        <v>1151</v>
+      </c>
+      <c r="CE46" s="4">
+        <v>1157</v>
+      </c>
+      <c r="CF46" s="4">
+        <v>1189</v>
+      </c>
+      <c r="CG46" s="4">
+        <v>1217</v>
+      </c>
+      <c r="CH46" s="4">
+        <v>1236</v>
+      </c>
+      <c r="CI46" s="4">
+        <v>1278</v>
+      </c>
+      <c r="CJ46" s="4">
+        <v>1297</v>
+      </c>
     </row>
-    <row r="47" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>120</v>
       </c>
@@ -12199,8 +13431,35 @@
       <c r="CA47" s="4">
         <v>4</v>
       </c>
+      <c r="CB47" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC47" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD47" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE47" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF47" s="4">
+        <v>5</v>
+      </c>
+      <c r="CG47" s="4">
+        <v>5</v>
+      </c>
+      <c r="CH47" s="4">
+        <v>5</v>
+      </c>
+      <c r="CI47" s="4">
+        <v>5</v>
+      </c>
+      <c r="CJ47" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="48" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>121</v>
       </c>
@@ -12438,8 +13697,35 @@
       <c r="CA48" s="4">
         <v>19</v>
       </c>
+      <c r="CB48" s="4">
+        <v>19</v>
+      </c>
+      <c r="CC48" s="4">
+        <v>19</v>
+      </c>
+      <c r="CD48" s="4">
+        <v>20</v>
+      </c>
+      <c r="CE48" s="4">
+        <v>20</v>
+      </c>
+      <c r="CF48" s="4">
+        <v>21</v>
+      </c>
+      <c r="CG48" s="4">
+        <v>22</v>
+      </c>
+      <c r="CH48" s="4">
+        <v>22</v>
+      </c>
+      <c r="CI48" s="4">
+        <v>22</v>
+      </c>
+      <c r="CJ48" s="4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="49" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>122</v>
       </c>
@@ -12677,8 +13963,35 @@
       <c r="CA49" s="4">
         <v>81</v>
       </c>
+      <c r="CB49" s="4">
+        <v>82</v>
+      </c>
+      <c r="CC49" s="4">
+        <v>82</v>
+      </c>
+      <c r="CD49" s="4">
+        <v>82</v>
+      </c>
+      <c r="CE49" s="4">
+        <v>82</v>
+      </c>
+      <c r="CF49" s="4">
+        <v>83</v>
+      </c>
+      <c r="CG49" s="4">
+        <v>87</v>
+      </c>
+      <c r="CH49" s="4">
+        <v>90</v>
+      </c>
+      <c r="CI49" s="4">
+        <v>94</v>
+      </c>
+      <c r="CJ49" s="4">
+        <v>94</v>
+      </c>
     </row>
-    <row r="50" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>123</v>
       </c>
@@ -12916,8 +14229,35 @@
       <c r="CA50" s="4">
         <v>10</v>
       </c>
+      <c r="CB50" s="4">
+        <v>10</v>
+      </c>
+      <c r="CC50" s="4">
+        <v>10</v>
+      </c>
+      <c r="CD50" s="4">
+        <v>10</v>
+      </c>
+      <c r="CE50" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF50" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG50" s="4">
+        <v>9</v>
+      </c>
+      <c r="CH50" s="4">
+        <v>11</v>
+      </c>
+      <c r="CI50" s="4">
+        <v>12</v>
+      </c>
+      <c r="CJ50" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>124</v>
       </c>
@@ -13155,8 +14495,35 @@
       <c r="CA51" s="4">
         <v>1</v>
       </c>
+      <c r="CB51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI51" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ51" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>125</v>
       </c>
@@ -13394,8 +14761,35 @@
       <c r="CA52" s="4">
         <v>13</v>
       </c>
+      <c r="CB52" s="4">
+        <v>13</v>
+      </c>
+      <c r="CC52" s="4">
+        <v>13</v>
+      </c>
+      <c r="CD52" s="4">
+        <v>13</v>
+      </c>
+      <c r="CE52" s="4">
+        <v>13</v>
+      </c>
+      <c r="CF52" s="4">
+        <v>13</v>
+      </c>
+      <c r="CG52" s="4">
+        <v>13</v>
+      </c>
+      <c r="CH52" s="4">
+        <v>14</v>
+      </c>
+      <c r="CI52" s="4">
+        <v>14</v>
+      </c>
+      <c r="CJ52" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="53" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>126</v>
       </c>
@@ -13633,8 +15027,35 @@
       <c r="CA53" s="4">
         <v>226</v>
       </c>
+      <c r="CB53" s="4">
+        <v>226</v>
+      </c>
+      <c r="CC53" s="4">
+        <v>226</v>
+      </c>
+      <c r="CD53" s="4">
+        <v>226</v>
+      </c>
+      <c r="CE53" s="4">
+        <v>227</v>
+      </c>
+      <c r="CF53" s="4">
+        <v>227</v>
+      </c>
+      <c r="CG53" s="4">
+        <v>227</v>
+      </c>
+      <c r="CH53" s="4">
+        <v>230</v>
+      </c>
+      <c r="CI53" s="4">
+        <v>231</v>
+      </c>
+      <c r="CJ53" s="4">
+        <v>281</v>
+      </c>
     </row>
-    <row r="54" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>127</v>
       </c>
@@ -13872,8 +15293,35 @@
       <c r="CA54" s="4">
         <v>4</v>
       </c>
+      <c r="CB54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI54" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ54" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>128</v>
       </c>
@@ -14111,8 +15559,35 @@
       <c r="CA55" s="4">
         <v>7</v>
       </c>
+      <c r="CB55" s="4">
+        <v>7</v>
+      </c>
+      <c r="CC55" s="4">
+        <v>7</v>
+      </c>
+      <c r="CD55" s="4">
+        <v>22</v>
+      </c>
+      <c r="CE55" s="4">
+        <v>22</v>
+      </c>
+      <c r="CF55" s="4">
+        <v>22</v>
+      </c>
+      <c r="CG55" s="4">
+        <v>22</v>
+      </c>
+      <c r="CH55" s="4">
+        <v>22</v>
+      </c>
+      <c r="CI55" s="4">
+        <v>23</v>
+      </c>
+      <c r="CJ55" s="4">
+        <v>23</v>
+      </c>
     </row>
-    <row r="56" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>129</v>
       </c>
@@ -14350,8 +15825,35 @@
       <c r="CA56" s="4">
         <v>0</v>
       </c>
+      <c r="CB56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ56" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>130</v>
       </c>
@@ -14589,8 +16091,35 @@
       <c r="CA57" s="4">
         <v>3</v>
       </c>
+      <c r="CB57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH57" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI57" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ57" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="58" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>131</v>
       </c>
@@ -14828,8 +16357,35 @@
       <c r="CA58" s="4">
         <v>0</v>
       </c>
+      <c r="CB58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ58" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>132</v>
       </c>
@@ -15067,8 +16623,35 @@
       <c r="CA59" s="4">
         <v>18</v>
       </c>
+      <c r="CB59" s="4">
+        <v>22</v>
+      </c>
+      <c r="CC59" s="4">
+        <v>22</v>
+      </c>
+      <c r="CD59" s="4">
+        <v>22</v>
+      </c>
+      <c r="CE59" s="4">
+        <v>22</v>
+      </c>
+      <c r="CF59" s="4">
+        <v>22</v>
+      </c>
+      <c r="CG59" s="4">
+        <v>24</v>
+      </c>
+      <c r="CH59" s="4">
+        <v>25</v>
+      </c>
+      <c r="CI59" s="4">
+        <v>25</v>
+      </c>
+      <c r="CJ59" s="4">
+        <v>25</v>
+      </c>
     </row>
-    <row r="60" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>133</v>
       </c>
@@ -15306,8 +16889,35 @@
       <c r="CA60" s="4">
         <v>8273</v>
       </c>
+      <c r="CB60" s="4">
+        <v>8477</v>
+      </c>
+      <c r="CC60" s="4">
+        <v>8649</v>
+      </c>
+      <c r="CD60" s="4">
+        <v>8827</v>
+      </c>
+      <c r="CE60" s="4">
+        <v>8998</v>
+      </c>
+      <c r="CF60" s="4">
+        <v>9188</v>
+      </c>
+      <c r="CG60" s="4">
+        <v>9385</v>
+      </c>
+      <c r="CH60" s="4">
+        <v>9587</v>
+      </c>
+      <c r="CI60" s="4">
+        <v>9787</v>
+      </c>
+      <c r="CJ60" s="4">
+        <v>10006</v>
+      </c>
     </row>
-    <row r="61" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>134</v>
       </c>
@@ -15545,8 +17155,35 @@
       <c r="CA61" s="4">
         <v>39</v>
       </c>
+      <c r="CB61" s="4">
+        <v>39</v>
+      </c>
+      <c r="CC61" s="4">
+        <v>39</v>
+      </c>
+      <c r="CD61" s="4">
+        <v>39</v>
+      </c>
+      <c r="CE61" s="4">
+        <v>40</v>
+      </c>
+      <c r="CF61" s="4">
+        <v>40</v>
+      </c>
+      <c r="CG61" s="4">
+        <v>40</v>
+      </c>
+      <c r="CH61" s="4">
+        <v>41</v>
+      </c>
+      <c r="CI61" s="4">
+        <v>42</v>
+      </c>
+      <c r="CJ61" s="4">
+        <v>42</v>
+      </c>
     </row>
-    <row r="62" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>135</v>
       </c>
@@ -15784,8 +17421,35 @@
       <c r="CA62" s="4">
         <v>153</v>
       </c>
+      <c r="CB62" s="4">
+        <v>157</v>
+      </c>
+      <c r="CC62" s="4">
+        <v>157</v>
+      </c>
+      <c r="CD62" s="4">
+        <v>157</v>
+      </c>
+      <c r="CE62" s="4">
+        <v>156</v>
+      </c>
+      <c r="CF62" s="4">
+        <v>158</v>
+      </c>
+      <c r="CG62" s="4">
+        <v>161</v>
+      </c>
+      <c r="CH62" s="4">
+        <v>162</v>
+      </c>
+      <c r="CI62" s="4">
+        <v>164</v>
+      </c>
+      <c r="CJ62" s="4">
+        <v>164</v>
+      </c>
     </row>
-    <row r="63" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>136</v>
       </c>
@@ -16023,8 +17687,35 @@
       <c r="CA63" s="4">
         <v>1</v>
       </c>
+      <c r="CB63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI63" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ63" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>137</v>
       </c>
@@ -16262,8 +17953,35 @@
       <c r="CA64" s="4">
         <v>1188</v>
       </c>
+      <c r="CB64" s="4">
+        <v>1205</v>
+      </c>
+      <c r="CC64" s="4">
+        <v>1212</v>
+      </c>
+      <c r="CD64" s="4">
+        <v>1224</v>
+      </c>
+      <c r="CE64" s="4">
+        <v>1233</v>
+      </c>
+      <c r="CF64" s="4">
+        <v>1255</v>
+      </c>
+      <c r="CG64" s="4">
+        <v>1285</v>
+      </c>
+      <c r="CH64" s="4">
+        <v>1318</v>
+      </c>
+      <c r="CI64" s="4">
+        <v>1329</v>
+      </c>
+      <c r="CJ64" s="4">
+        <v>1357</v>
+      </c>
     </row>
-    <row r="65" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>138</v>
       </c>
@@ -16501,8 +18219,35 @@
       <c r="CA65" s="4">
         <v>17</v>
       </c>
+      <c r="CB65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CC65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CD65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CE65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CF65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CG65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CH65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CI65" s="4">
+        <v>17</v>
+      </c>
+      <c r="CJ65" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="66" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>139</v>
       </c>
@@ -16740,8 +18485,35 @@
       <c r="CA66" s="4">
         <v>1</v>
       </c>
+      <c r="CB66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI66" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ66" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>140</v>
       </c>
@@ -16979,8 +18751,35 @@
       <c r="CA67" s="4">
         <v>1</v>
       </c>
+      <c r="CB67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI67" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ67" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
@@ -17218,8 +19017,35 @@
       <c r="CA68" s="4">
         <v>26</v>
       </c>
+      <c r="CB68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CC68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CD68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CE68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CF68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CG68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CH68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CI68" s="4">
+        <v>26</v>
+      </c>
+      <c r="CJ68" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="69" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>142</v>
       </c>
@@ -17457,8 +19283,35 @@
       <c r="CA69" s="4">
         <v>5</v>
       </c>
+      <c r="CB69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CG69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CH69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CI69" s="4">
+        <v>5</v>
+      </c>
+      <c r="CJ69" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>143</v>
       </c>
@@ -17696,8 +19549,35 @@
       <c r="CA70" s="4">
         <v>5</v>
       </c>
+      <c r="CB70" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC70" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD70" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE70" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF70" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG70" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH70" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI70" s="4">
+        <v>6</v>
+      </c>
+      <c r="CJ70" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="71" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>144</v>
       </c>
@@ -17935,8 +19815,35 @@
       <c r="CA71" s="4">
         <v>134</v>
       </c>
+      <c r="CB71" s="4">
+        <v>136</v>
+      </c>
+      <c r="CC71" s="4">
+        <v>144</v>
+      </c>
+      <c r="CD71" s="4">
+        <v>146</v>
+      </c>
+      <c r="CE71" s="4">
+        <v>151</v>
+      </c>
+      <c r="CF71" s="4">
+        <v>152</v>
+      </c>
+      <c r="CG71" s="4">
+        <v>152</v>
+      </c>
+      <c r="CH71" s="4">
+        <v>152</v>
+      </c>
+      <c r="CI71" s="4">
+        <v>154</v>
+      </c>
+      <c r="CJ71" s="4">
+        <v>154</v>
+      </c>
     </row>
-    <row r="72" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>145</v>
       </c>
@@ -18174,8 +20081,35 @@
       <c r="CA72" s="4">
         <v>0</v>
       </c>
+      <c r="CB72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI72" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ72" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>146</v>
       </c>
@@ -18413,8 +20347,35 @@
       <c r="CA73" s="4">
         <v>272</v>
       </c>
+      <c r="CB73" s="4">
+        <v>272</v>
+      </c>
+      <c r="CC73" s="4">
+        <v>272</v>
+      </c>
+      <c r="CD73" s="4">
+        <v>272</v>
+      </c>
+      <c r="CE73" s="4">
+        <v>289</v>
+      </c>
+      <c r="CF73" s="4">
+        <v>290</v>
+      </c>
+      <c r="CG73" s="4">
+        <v>305</v>
+      </c>
+      <c r="CH73" s="4">
+        <v>309</v>
+      </c>
+      <c r="CI73" s="4">
+        <v>317</v>
+      </c>
+      <c r="CJ73" s="4">
+        <v>317</v>
+      </c>
     </row>
-    <row r="74" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>147</v>
       </c>
@@ -18652,8 +20613,35 @@
       <c r="CA74" s="4">
         <v>2160</v>
       </c>
+      <c r="CB74" s="4">
+        <v>2265</v>
+      </c>
+      <c r="CC74" s="4">
+        <v>2340</v>
+      </c>
+      <c r="CD74" s="4">
+        <v>2376</v>
+      </c>
+      <c r="CE74" s="4">
+        <v>2393</v>
+      </c>
+      <c r="CF74" s="4">
+        <v>2461</v>
+      </c>
+      <c r="CG74" s="4">
+        <v>2569</v>
+      </c>
+      <c r="CH74" s="4">
+        <v>2623</v>
+      </c>
+      <c r="CI74" s="4">
+        <v>2704</v>
+      </c>
+      <c r="CJ74" s="4">
+        <v>2764</v>
+      </c>
     </row>
-    <row r="75" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>148</v>
       </c>
@@ -18891,8 +20879,35 @@
       <c r="CA75" s="4">
         <v>15</v>
       </c>
+      <c r="CB75" s="4">
+        <v>15</v>
+      </c>
+      <c r="CC75" s="4">
+        <v>15</v>
+      </c>
+      <c r="CD75" s="4">
+        <v>15</v>
+      </c>
+      <c r="CE75" s="4">
+        <v>16</v>
+      </c>
+      <c r="CF75" s="4">
+        <v>16</v>
+      </c>
+      <c r="CG75" s="4">
+        <v>16</v>
+      </c>
+      <c r="CH75" s="4">
+        <v>16</v>
+      </c>
+      <c r="CI75" s="4">
+        <v>17</v>
+      </c>
+      <c r="CJ75" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="76" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>149</v>
       </c>
@@ -19130,8 +21145,35 @@
       <c r="CA76" s="4">
         <v>6</v>
       </c>
+      <c r="CB76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH76" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI76" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ76" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="77" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>150</v>
       </c>
@@ -19369,8 +21411,35 @@
       <c r="CA77" s="4">
         <v>34</v>
       </c>
+      <c r="CB77" s="4">
+        <v>34</v>
+      </c>
+      <c r="CC77" s="4">
+        <v>34</v>
+      </c>
+      <c r="CD77" s="4">
+        <v>34</v>
+      </c>
+      <c r="CE77" s="4">
+        <v>37</v>
+      </c>
+      <c r="CF77" s="4">
+        <v>37</v>
+      </c>
+      <c r="CG77" s="4">
+        <v>37</v>
+      </c>
+      <c r="CH77" s="4">
+        <v>38</v>
+      </c>
+      <c r="CI77" s="4">
+        <v>41</v>
+      </c>
+      <c r="CJ77" s="4">
+        <v>41</v>
+      </c>
     </row>
-    <row r="78" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>151</v>
       </c>
@@ -19608,8 +21677,35 @@
       <c r="CA78" s="4">
         <v>32</v>
       </c>
+      <c r="CB78" s="4">
+        <v>32</v>
+      </c>
+      <c r="CC78" s="4">
+        <v>32</v>
+      </c>
+      <c r="CD78" s="4">
+        <v>32</v>
+      </c>
+      <c r="CE78" s="4">
+        <v>32</v>
+      </c>
+      <c r="CF78" s="4">
+        <v>32</v>
+      </c>
+      <c r="CG78" s="4">
+        <v>34</v>
+      </c>
+      <c r="CH78" s="4">
+        <v>34</v>
+      </c>
+      <c r="CI78" s="4">
+        <v>34</v>
+      </c>
+      <c r="CJ78" s="4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="79" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>152</v>
       </c>
@@ -19847,8 +21943,35 @@
       <c r="CA79" s="4">
         <v>2</v>
       </c>
+      <c r="CB79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI79" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ79" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>153</v>
       </c>
@@ -20086,8 +22209,35 @@
       <c r="CA80" s="4">
         <v>5</v>
       </c>
+      <c r="CB80" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC80" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD80" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE80" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF80" s="4">
+        <v>7</v>
+      </c>
+      <c r="CG80" s="4">
+        <v>8</v>
+      </c>
+      <c r="CH80" s="4">
+        <v>11</v>
+      </c>
+      <c r="CI80" s="4">
+        <v>11</v>
+      </c>
+      <c r="CJ80" s="4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="81" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>154</v>
       </c>
@@ -20325,8 +22475,35 @@
       <c r="CA81" s="4">
         <v>0</v>
       </c>
+      <c r="CB81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI81" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ81" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>155</v>
       </c>
@@ -20564,8 +22741,35 @@
       <c r="CA82" s="4">
         <v>1652</v>
       </c>
+      <c r="CB82" s="4">
+        <v>1661</v>
+      </c>
+      <c r="CC82" s="4">
+        <v>1676</v>
+      </c>
+      <c r="CD82" s="4">
+        <v>1685</v>
+      </c>
+      <c r="CE82" s="4">
+        <v>1732</v>
+      </c>
+      <c r="CF82" s="4">
+        <v>1732</v>
+      </c>
+      <c r="CG82" s="4">
+        <v>1766</v>
+      </c>
+      <c r="CH82" s="4">
+        <v>1783</v>
+      </c>
+      <c r="CI82" s="4">
+        <v>1832</v>
+      </c>
+      <c r="CJ82" s="4">
+        <v>1861</v>
+      </c>
     </row>
-    <row r="83" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>156</v>
       </c>
@@ -20803,8 +23007,35 @@
       <c r="CA83" s="4">
         <v>9</v>
       </c>
+      <c r="CB83" s="4">
+        <v>11</v>
+      </c>
+      <c r="CC83" s="4">
+        <v>12</v>
+      </c>
+      <c r="CD83" s="4">
+        <v>12</v>
+      </c>
+      <c r="CE83" s="4">
+        <v>12</v>
+      </c>
+      <c r="CF83" s="4">
+        <v>13</v>
+      </c>
+      <c r="CG83" s="4">
+        <v>13</v>
+      </c>
+      <c r="CH83" s="4">
+        <v>13</v>
+      </c>
+      <c r="CI83" s="4">
+        <v>15</v>
+      </c>
+      <c r="CJ83" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="84" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>157</v>
       </c>
@@ -21042,8 +23273,35 @@
       <c r="CA84" s="4">
         <v>7</v>
       </c>
+      <c r="CB84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CC84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CD84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CE84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CF84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CG84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CH84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CI84" s="4">
+        <v>10</v>
+      </c>
+      <c r="CJ84" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="85" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>158</v>
       </c>
@@ -21281,8 +23539,35 @@
       <c r="CA85" s="4">
         <v>35</v>
       </c>
+      <c r="CB85" s="4">
+        <v>35</v>
+      </c>
+      <c r="CC85" s="4">
+        <v>36</v>
+      </c>
+      <c r="CD85" s="4">
+        <v>36</v>
+      </c>
+      <c r="CE85" s="4">
+        <v>36</v>
+      </c>
+      <c r="CF85" s="4">
+        <v>37</v>
+      </c>
+      <c r="CG85" s="4">
+        <v>37</v>
+      </c>
+      <c r="CH85" s="4">
+        <v>37</v>
+      </c>
+      <c r="CI85" s="4">
+        <v>37</v>
+      </c>
+      <c r="CJ85" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="86" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>159</v>
       </c>
@@ -21520,8 +23805,35 @@
       <c r="CA86" s="4">
         <v>6</v>
       </c>
+      <c r="CB86" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC86" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD86" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE86" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF86" s="4">
+        <v>7</v>
+      </c>
+      <c r="CG86" s="4">
+        <v>7</v>
+      </c>
+      <c r="CH86" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI86" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ86" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>160</v>
       </c>
@@ -21759,8 +24071,35 @@
       <c r="CA87" s="4">
         <v>732</v>
       </c>
+      <c r="CB87" s="4">
+        <v>740</v>
+      </c>
+      <c r="CC87" s="4">
+        <v>749</v>
+      </c>
+      <c r="CD87" s="4">
+        <v>752</v>
+      </c>
+      <c r="CE87" s="4">
+        <v>753</v>
+      </c>
+      <c r="CF87" s="4">
+        <v>763</v>
+      </c>
+      <c r="CG87" s="4">
+        <v>779</v>
+      </c>
+      <c r="CH87" s="4">
+        <v>788</v>
+      </c>
+      <c r="CI87" s="4">
+        <v>795</v>
+      </c>
+      <c r="CJ87" s="4">
+        <v>807</v>
+      </c>
     </row>
-    <row r="88" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>161</v>
       </c>
@@ -21998,8 +24337,35 @@
       <c r="CA88" s="4">
         <v>4</v>
       </c>
+      <c r="CB88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CG88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CH88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CI88" s="4">
+        <v>5</v>
+      </c>
+      <c r="CJ88" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="89" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>162</v>
       </c>
@@ -22237,8 +24603,35 @@
       <c r="CA89" s="4">
         <v>5</v>
       </c>
+      <c r="CB89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CG89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CH89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CI89" s="4">
+        <v>5</v>
+      </c>
+      <c r="CJ89" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="90" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>163</v>
       </c>
@@ -22476,8 +24869,35 @@
       <c r="CA90" s="4">
         <v>1</v>
       </c>
+      <c r="CB90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI90" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ90" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>164</v>
       </c>
@@ -22715,8 +25135,35 @@
       <c r="CA91" s="4">
         <v>7</v>
       </c>
+      <c r="CB91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CC91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CD91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CE91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CF91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CG91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CH91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI91" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ91" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="92" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>165</v>
       </c>
@@ -22954,8 +25401,35 @@
       <c r="CA92" s="4">
         <v>91</v>
       </c>
+      <c r="CB92" s="4">
+        <v>91</v>
+      </c>
+      <c r="CC92" s="4">
+        <v>91</v>
+      </c>
+      <c r="CD92" s="4">
+        <v>91</v>
+      </c>
+      <c r="CE92" s="4">
+        <v>91</v>
+      </c>
+      <c r="CF92" s="4">
+        <v>100</v>
+      </c>
+      <c r="CG92" s="4">
+        <v>111</v>
+      </c>
+      <c r="CH92" s="4">
+        <v>118</v>
+      </c>
+      <c r="CI92" s="4">
+        <v>121</v>
+      </c>
+      <c r="CJ92" s="4">
+        <v>129</v>
+      </c>
     </row>
-    <row r="93" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>166</v>
       </c>
@@ -23193,8 +25667,35 @@
       <c r="CA93" s="4">
         <v>95</v>
       </c>
+      <c r="CB93" s="4">
+        <v>95</v>
+      </c>
+      <c r="CC93" s="4">
+        <v>96</v>
+      </c>
+      <c r="CD93" s="4">
+        <v>96</v>
+      </c>
+      <c r="CE93" s="4">
+        <v>96</v>
+      </c>
+      <c r="CF93" s="4">
+        <v>96</v>
+      </c>
+      <c r="CG93" s="4">
+        <v>96</v>
+      </c>
+      <c r="CH93" s="4">
+        <v>96</v>
+      </c>
+      <c r="CI93" s="4">
+        <v>98</v>
+      </c>
+      <c r="CJ93" s="4">
+        <v>98</v>
+      </c>
     </row>
-    <row r="94" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>167</v>
       </c>
@@ -23432,8 +25933,35 @@
       <c r="CA94" s="4">
         <v>275</v>
       </c>
+      <c r="CB94" s="4">
+        <v>287</v>
+      </c>
+      <c r="CC94" s="4">
+        <v>296</v>
+      </c>
+      <c r="CD94" s="4">
+        <v>300</v>
+      </c>
+      <c r="CE94" s="4">
+        <v>303</v>
+      </c>
+      <c r="CF94" s="4">
+        <v>310</v>
+      </c>
+      <c r="CG94" s="4">
+        <v>316</v>
+      </c>
+      <c r="CH94" s="4">
+        <v>323</v>
+      </c>
+      <c r="CI94" s="4">
+        <v>327</v>
+      </c>
+      <c r="CJ94" s="4">
+        <v>333</v>
+      </c>
     </row>
-    <row r="95" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>168</v>
       </c>
@@ -23671,8 +26199,35 @@
       <c r="CA95" s="4">
         <v>183</v>
       </c>
+      <c r="CB95" s="4">
+        <v>185</v>
+      </c>
+      <c r="CC95" s="4">
+        <v>185</v>
+      </c>
+      <c r="CD95" s="4">
+        <v>185</v>
+      </c>
+      <c r="CE95" s="4">
+        <v>185</v>
+      </c>
+      <c r="CF95" s="4">
+        <v>197</v>
+      </c>
+      <c r="CG95" s="4">
+        <v>201</v>
+      </c>
+      <c r="CH95" s="4">
+        <v>203</v>
+      </c>
+      <c r="CI95" s="4">
+        <v>213</v>
+      </c>
+      <c r="CJ95" s="4">
+        <v>213</v>
+      </c>
     </row>
-    <row r="96" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>169</v>
       </c>
@@ -23910,8 +26465,35 @@
       <c r="CA96" s="4">
         <v>94</v>
       </c>
+      <c r="CB96" s="4">
+        <v>99</v>
+      </c>
+      <c r="CC96" s="4">
+        <v>99</v>
+      </c>
+      <c r="CD96" s="4">
+        <v>100</v>
+      </c>
+      <c r="CE96" s="4">
+        <v>104</v>
+      </c>
+      <c r="CF96" s="4">
+        <v>111</v>
+      </c>
+      <c r="CG96" s="4">
+        <v>113</v>
+      </c>
+      <c r="CH96" s="4">
+        <v>114</v>
+      </c>
+      <c r="CI96" s="4">
+        <v>121</v>
+      </c>
+      <c r="CJ96" s="4">
+        <v>215</v>
+      </c>
     </row>
-    <row r="97" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>170</v>
       </c>
@@ -24149,8 +26731,35 @@
       <c r="CA97" s="4">
         <v>121</v>
       </c>
+      <c r="CB97" s="4">
+        <v>122</v>
+      </c>
+      <c r="CC97" s="4">
+        <v>122</v>
+      </c>
+      <c r="CD97" s="4">
+        <v>122</v>
+      </c>
+      <c r="CE97" s="4">
+        <v>122</v>
+      </c>
+      <c r="CF97" s="4">
+        <v>124</v>
+      </c>
+      <c r="CG97" s="4">
+        <v>126</v>
+      </c>
+      <c r="CH97" s="4">
+        <v>129</v>
+      </c>
+      <c r="CI97" s="4">
+        <v>132</v>
+      </c>
+      <c r="CJ97" s="4">
+        <v>133</v>
+      </c>
     </row>
-    <row r="98" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>171</v>
       </c>
@@ -24388,8 +26997,35 @@
       <c r="CA98" s="4">
         <v>53</v>
       </c>
+      <c r="CB98" s="4">
+        <v>54</v>
+      </c>
+      <c r="CC98" s="4">
+        <v>55</v>
+      </c>
+      <c r="CD98" s="4">
+        <v>55</v>
+      </c>
+      <c r="CE98" s="4">
+        <v>55</v>
+      </c>
+      <c r="CF98" s="4">
+        <v>56</v>
+      </c>
+      <c r="CG98" s="4">
+        <v>56</v>
+      </c>
+      <c r="CH98" s="4">
+        <v>57</v>
+      </c>
+      <c r="CI98" s="4">
+        <v>57</v>
+      </c>
+      <c r="CJ98" s="4">
+        <v>58</v>
+      </c>
     </row>
-    <row r="99" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>172</v>
       </c>
@@ -24627,8 +27263,35 @@
       <c r="CA99" s="4">
         <v>1</v>
       </c>
+      <c r="CB99" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI99" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ99" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>173</v>
       </c>
@@ -24866,8 +27529,35 @@
       <c r="CA100" s="4">
         <v>7</v>
       </c>
+      <c r="CB100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CC100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CD100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CE100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CF100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CG100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CH100" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI100" s="4">
+        <v>8</v>
+      </c>
+      <c r="CJ100" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="101" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>174</v>
       </c>
@@ -25105,8 +27795,35 @@
       <c r="CA101" s="4">
         <v>18</v>
       </c>
+      <c r="CB101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CC101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CD101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CE101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CF101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CG101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CH101" s="4">
+        <v>18</v>
+      </c>
+      <c r="CI101" s="4">
+        <v>19</v>
+      </c>
+      <c r="CJ101" s="4">
+        <v>19</v>
+      </c>
     </row>
-    <row r="102" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>175</v>
       </c>
@@ -25344,8 +28061,35 @@
       <c r="CA102" s="4">
         <v>1</v>
       </c>
+      <c r="CB102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI102" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ102" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>176</v>
       </c>
@@ -25583,8 +28327,35 @@
       <c r="CA103" s="4">
         <v>125</v>
       </c>
+      <c r="CB103" s="4">
+        <v>136</v>
+      </c>
+      <c r="CC103" s="4">
+        <v>136</v>
+      </c>
+      <c r="CD103" s="4">
+        <v>136</v>
+      </c>
+      <c r="CE103" s="4">
+        <v>136</v>
+      </c>
+      <c r="CF103" s="4">
+        <v>136</v>
+      </c>
+      <c r="CG103" s="4">
+        <v>137</v>
+      </c>
+      <c r="CH103" s="4">
+        <v>138</v>
+      </c>
+      <c r="CI103" s="4">
+        <v>138</v>
+      </c>
+      <c r="CJ103" s="4">
+        <v>138</v>
+      </c>
     </row>
-    <row r="104" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>177</v>
       </c>
@@ -25822,8 +28593,35 @@
       <c r="CA104" s="4">
         <v>10283</v>
       </c>
+      <c r="CB104" s="4">
+        <v>10526</v>
+      </c>
+      <c r="CC104" s="4">
+        <v>10770</v>
+      </c>
+      <c r="CD104" s="4">
+        <v>10921</v>
+      </c>
+      <c r="CE104" s="4">
+        <v>10995</v>
+      </c>
+      <c r="CF104" s="4">
+        <v>11281</v>
+      </c>
+      <c r="CG104" s="4">
+        <v>11542</v>
+      </c>
+      <c r="CH104" s="4">
+        <v>11770</v>
+      </c>
+      <c r="CI104" s="4">
+        <v>12009</v>
+      </c>
+      <c r="CJ104" s="4">
+        <v>12220</v>
+      </c>
     </row>
-    <row r="105" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>178</v>
       </c>
@@ -26061,8 +28859,35 @@
       <c r="CA105" s="4">
         <v>222</v>
       </c>
+      <c r="CB105" s="4">
+        <v>223</v>
+      </c>
+      <c r="CC105" s="4">
+        <v>225</v>
+      </c>
+      <c r="CD105" s="4">
+        <v>228</v>
+      </c>
+      <c r="CE105" s="4">
+        <v>228</v>
+      </c>
+      <c r="CF105" s="4">
+        <v>236</v>
+      </c>
+      <c r="CG105" s="4">
+        <v>239</v>
+      </c>
+      <c r="CH105" s="4">
+        <v>239</v>
+      </c>
+      <c r="CI105" s="4">
+        <v>244</v>
+      </c>
+      <c r="CJ105" s="4">
+        <v>245</v>
+      </c>
     </row>
-    <row r="106" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>179</v>
       </c>
@@ -26300,8 +29125,35 @@
       <c r="CA106" s="4">
         <v>11</v>
       </c>
+      <c r="CB106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CC106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CD106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CE106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CF106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CG106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CH106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CI106" s="4">
+        <v>11</v>
+      </c>
+      <c r="CJ106" s="4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="107" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>180</v>
       </c>
@@ -26539,8 +29391,35 @@
       <c r="CA107" s="4">
         <v>2</v>
       </c>
+      <c r="CB107" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC107" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD107" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE107" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF107" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG107" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH107" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI107" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ107" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="108" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>181</v>
       </c>
@@ -26778,8 +29657,35 @@
       <c r="CA108" s="4">
         <v>259</v>
       </c>
+      <c r="CB108" s="4">
+        <v>266</v>
+      </c>
+      <c r="CC108" s="4">
+        <v>270</v>
+      </c>
+      <c r="CD108" s="4">
+        <v>270</v>
+      </c>
+      <c r="CE108" s="4">
+        <v>270</v>
+      </c>
+      <c r="CF108" s="4">
+        <v>279</v>
+      </c>
+      <c r="CG108" s="4">
+        <v>297</v>
+      </c>
+      <c r="CH108" s="4">
+        <v>314</v>
+      </c>
+      <c r="CI108" s="4">
+        <v>329</v>
+      </c>
+      <c r="CJ108" s="4">
+        <v>329</v>
+      </c>
     </row>
-    <row r="109" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>182</v>
       </c>
@@ -27017,8 +29923,35 @@
       <c r="CA109" s="4">
         <v>1</v>
       </c>
+      <c r="CB109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI109" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ109" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>183</v>
       </c>
@@ -27256,8 +30189,35 @@
       <c r="CA110" s="4">
         <v>52</v>
       </c>
+      <c r="CB110" s="4">
+        <v>55</v>
+      </c>
+      <c r="CC110" s="4">
+        <v>55</v>
+      </c>
+      <c r="CD110" s="4">
+        <v>55</v>
+      </c>
+      <c r="CE110" s="4">
+        <v>55</v>
+      </c>
+      <c r="CF110" s="4">
+        <v>56</v>
+      </c>
+      <c r="CG110" s="4">
+        <v>57</v>
+      </c>
+      <c r="CH110" s="4">
+        <v>57</v>
+      </c>
+      <c r="CI110" s="4">
+        <v>57</v>
+      </c>
+      <c r="CJ110" s="4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="111" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>184</v>
       </c>
@@ -27495,8 +30455,35 @@
       <c r="CA111" s="4">
         <v>472</v>
       </c>
+      <c r="CB111" s="4">
+        <v>482</v>
+      </c>
+      <c r="CC111" s="4">
+        <v>482</v>
+      </c>
+      <c r="CD111" s="4">
+        <v>497</v>
+      </c>
+      <c r="CE111" s="4">
+        <v>504</v>
+      </c>
+      <c r="CF111" s="4">
+        <v>516</v>
+      </c>
+      <c r="CG111" s="4">
+        <v>537</v>
+      </c>
+      <c r="CH111" s="4">
+        <v>537</v>
+      </c>
+      <c r="CI111" s="4">
+        <v>548</v>
+      </c>
+      <c r="CJ111" s="4">
+        <v>560</v>
+      </c>
     </row>
-    <row r="112" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>185</v>
       </c>
@@ -27734,8 +30721,35 @@
       <c r="CA112" s="4">
         <v>24</v>
       </c>
+      <c r="CB112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CC112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CD112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CE112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CF112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CG112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CH112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CI112" s="4">
+        <v>24</v>
+      </c>
+      <c r="CJ112" s="4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="113" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>186</v>
       </c>
@@ -27973,8 +30987,35 @@
       <c r="CA113" s="4">
         <v>27</v>
       </c>
+      <c r="CB113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CC113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CD113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CE113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CF113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CG113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CH113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CI113" s="4">
+        <v>27</v>
+      </c>
+      <c r="CJ113" s="4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="114" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>187</v>
       </c>
@@ -28212,8 +31253,35 @@
       <c r="CA114" s="4">
         <v>23</v>
       </c>
+      <c r="CB114" s="4">
+        <v>23</v>
+      </c>
+      <c r="CC114" s="4">
+        <v>23</v>
+      </c>
+      <c r="CD114" s="4">
+        <v>23</v>
+      </c>
+      <c r="CE114" s="4">
+        <v>26</v>
+      </c>
+      <c r="CF114" s="4">
+        <v>26</v>
+      </c>
+      <c r="CG114" s="4">
+        <v>26</v>
+      </c>
+      <c r="CH114" s="4">
+        <v>27</v>
+      </c>
+      <c r="CI114" s="4">
+        <v>27</v>
+      </c>
+      <c r="CJ114" s="4">
+        <v>27</v>
+      </c>
     </row>
-    <row r="115" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>188</v>
       </c>
@@ -28451,8 +31519,35 @@
       <c r="CA115" s="4">
         <v>15</v>
       </c>
+      <c r="CB115" s="4">
+        <v>15</v>
+      </c>
+      <c r="CC115" s="4">
+        <v>15</v>
+      </c>
+      <c r="CD115" s="4">
+        <v>17</v>
+      </c>
+      <c r="CE115" s="4">
+        <v>18</v>
+      </c>
+      <c r="CF115" s="4">
+        <v>21</v>
+      </c>
+      <c r="CG115" s="4">
+        <v>24</v>
+      </c>
+      <c r="CH115" s="4">
+        <v>24</v>
+      </c>
+      <c r="CI115" s="4">
+        <v>26</v>
+      </c>
+      <c r="CJ115" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="116" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>189</v>
       </c>
@@ -28690,8 +31785,35 @@
       <c r="CA116" s="4">
         <v>39</v>
       </c>
+      <c r="CB116" s="4">
+        <v>40</v>
+      </c>
+      <c r="CC116" s="4">
+        <v>40</v>
+      </c>
+      <c r="CD116" s="4">
+        <v>40</v>
+      </c>
+      <c r="CE116" s="4">
+        <v>40</v>
+      </c>
+      <c r="CF116" s="4">
+        <v>40</v>
+      </c>
+      <c r="CG116" s="4">
+        <v>49</v>
+      </c>
+      <c r="CH116" s="4">
+        <v>52</v>
+      </c>
+      <c r="CI116" s="4">
+        <v>53</v>
+      </c>
+      <c r="CJ116" s="4">
+        <v>114</v>
+      </c>
     </row>
-    <row r="117" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>190</v>
       </c>
@@ -28929,8 +32051,35 @@
       <c r="CA117" s="4">
         <v>6</v>
       </c>
+      <c r="CB117" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC117" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD117" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE117" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF117" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG117" s="4">
+        <v>7</v>
+      </c>
+      <c r="CH117" s="4">
+        <v>8</v>
+      </c>
+      <c r="CI117" s="4">
+        <v>8</v>
+      </c>
+      <c r="CJ117" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="118" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>191</v>
       </c>
@@ -29168,8 +32317,35 @@
       <c r="CA118" s="4">
         <v>0</v>
       </c>
+      <c r="CB118" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC118" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD118" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE118" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF118" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG118" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH118" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI118" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ118" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="119" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>192</v>
       </c>
@@ -29407,8 +32583,35 @@
       <c r="CA119" s="4">
         <v>71</v>
       </c>
+      <c r="CB119" s="4">
+        <v>75</v>
+      </c>
+      <c r="CC119" s="4">
+        <v>75</v>
+      </c>
+      <c r="CD119" s="4">
+        <v>75</v>
+      </c>
+      <c r="CE119" s="4">
+        <v>76</v>
+      </c>
+      <c r="CF119" s="4">
+        <v>76</v>
+      </c>
+      <c r="CG119" s="4">
+        <v>76</v>
+      </c>
+      <c r="CH119" s="4">
+        <v>79</v>
+      </c>
+      <c r="CI119" s="4">
+        <v>82</v>
+      </c>
+      <c r="CJ119" s="4">
+        <v>88</v>
+      </c>
     </row>
-    <row r="120" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>193</v>
       </c>
@@ -29646,8 +32849,35 @@
       <c r="CA120" s="4">
         <v>28</v>
       </c>
+      <c r="CB120" s="4">
+        <v>29</v>
+      </c>
+      <c r="CC120" s="4">
+        <v>30</v>
+      </c>
+      <c r="CD120" s="4">
+        <v>30</v>
+      </c>
+      <c r="CE120" s="4">
+        <v>30</v>
+      </c>
+      <c r="CF120" s="4">
+        <v>30</v>
+      </c>
+      <c r="CG120" s="4">
+        <v>34</v>
+      </c>
+      <c r="CH120" s="4">
+        <v>37</v>
+      </c>
+      <c r="CI120" s="4">
+        <v>36</v>
+      </c>
+      <c r="CJ120" s="4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="121" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>194</v>
       </c>
@@ -29885,8 +33115,35 @@
       <c r="CA121" s="4">
         <v>0</v>
       </c>
+      <c r="CB121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI121" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ121" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>195</v>
       </c>
@@ -30124,8 +33381,35 @@
       <c r="CA122" s="4">
         <v>4</v>
       </c>
+      <c r="CB122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI122" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ122" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>196</v>
       </c>
@@ -30363,8 +33647,35 @@
       <c r="CA123" s="4">
         <v>16</v>
       </c>
+      <c r="CB123" s="4">
+        <v>17</v>
+      </c>
+      <c r="CC123" s="4">
+        <v>17</v>
+      </c>
+      <c r="CD123" s="4">
+        <v>17</v>
+      </c>
+      <c r="CE123" s="4">
+        <v>17</v>
+      </c>
+      <c r="CF123" s="4">
+        <v>17</v>
+      </c>
+      <c r="CG123" s="4">
+        <v>18</v>
+      </c>
+      <c r="CH123" s="4">
+        <v>18</v>
+      </c>
+      <c r="CI123" s="4">
+        <v>18</v>
+      </c>
+      <c r="CJ123" s="4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="124" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>197</v>
       </c>
@@ -30602,8 +33913,35 @@
       <c r="CA124" s="4">
         <v>27</v>
       </c>
+      <c r="CB124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CC124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CD124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CE124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CF124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CG124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CH124" s="4">
+        <v>28</v>
+      </c>
+      <c r="CI124" s="4">
+        <v>29</v>
+      </c>
+      <c r="CJ124" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="125" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>198</v>
       </c>
@@ -30841,8 +34179,35 @@
       <c r="CA125" s="4">
         <v>0</v>
       </c>
+      <c r="CB125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI125" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ125" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>199</v>
       </c>
@@ -31080,8 +34445,35 @@
       <c r="CA126" s="4">
         <v>476</v>
       </c>
+      <c r="CB126" s="4">
+        <v>478</v>
+      </c>
+      <c r="CC126" s="4">
+        <v>492</v>
+      </c>
+      <c r="CD126" s="4">
+        <v>498</v>
+      </c>
+      <c r="CE126" s="4">
+        <v>503</v>
+      </c>
+      <c r="CF126" s="4">
+        <v>506</v>
+      </c>
+      <c r="CG126" s="4">
+        <v>518</v>
+      </c>
+      <c r="CH126" s="4">
+        <v>524</v>
+      </c>
+      <c r="CI126" s="4">
+        <v>533</v>
+      </c>
+      <c r="CJ126" s="4">
+        <v>544</v>
+      </c>
     </row>
-    <row r="127" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>200</v>
       </c>
@@ -31319,8 +34711,35 @@
       <c r="CA127" s="4">
         <v>4</v>
       </c>
+      <c r="CB127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI127" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ127" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="128" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>201</v>
       </c>
@@ -31558,8 +34977,35 @@
       <c r="CA128" s="4">
         <v>9</v>
       </c>
+      <c r="CB128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CC128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CE128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CH128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CI128" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ128" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="129" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>202</v>
       </c>
@@ -31797,8 +35243,35 @@
       <c r="CA129" s="4">
         <v>148</v>
       </c>
+      <c r="CB129" s="4">
+        <v>148</v>
+      </c>
+      <c r="CC129" s="4">
+        <v>148</v>
+      </c>
+      <c r="CD129" s="4">
+        <v>148</v>
+      </c>
+      <c r="CE129" s="4">
+        <v>155</v>
+      </c>
+      <c r="CF129" s="4">
+        <v>158</v>
+      </c>
+      <c r="CG129" s="4">
+        <v>165</v>
+      </c>
+      <c r="CH129" s="4">
+        <v>171</v>
+      </c>
+      <c r="CI129" s="4">
+        <v>175</v>
+      </c>
+      <c r="CJ129" s="4">
+        <v>175</v>
+      </c>
     </row>
-    <row r="130" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>203</v>
       </c>
@@ -32036,8 +35509,35 @@
       <c r="CA130" s="4">
         <v>135</v>
       </c>
+      <c r="CB130" s="4">
+        <v>135</v>
+      </c>
+      <c r="CC130" s="4">
+        <v>135</v>
+      </c>
+      <c r="CD130" s="4">
+        <v>135</v>
+      </c>
+      <c r="CE130" s="4">
+        <v>101</v>
+      </c>
+      <c r="CF130" s="4">
+        <v>101</v>
+      </c>
+      <c r="CG130" s="4">
+        <v>323</v>
+      </c>
+      <c r="CH130" s="4">
+        <v>354</v>
+      </c>
+      <c r="CI130" s="4">
+        <v>401</v>
+      </c>
+      <c r="CJ130" s="4">
+        <v>401</v>
+      </c>
     </row>
-    <row r="131" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>204</v>
       </c>
@@ -32275,8 +35775,35 @@
       <c r="CA131" s="4">
         <v>4</v>
       </c>
+      <c r="CB131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI131" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ131" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="132" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>205</v>
       </c>
@@ -32514,8 +36041,35 @@
       <c r="CA132" s="4">
         <v>182</v>
       </c>
+      <c r="CB132" s="4">
+        <v>182</v>
+      </c>
+      <c r="CC132" s="4">
+        <v>182</v>
+      </c>
+      <c r="CD132" s="4">
+        <v>182</v>
+      </c>
+      <c r="CE132" s="4">
+        <v>198</v>
+      </c>
+      <c r="CF132" s="4">
+        <v>199</v>
+      </c>
+      <c r="CG132" s="4">
+        <v>203</v>
+      </c>
+      <c r="CH132" s="4">
+        <v>217</v>
+      </c>
+      <c r="CI132" s="4">
+        <v>223</v>
+      </c>
+      <c r="CJ132" s="4">
+        <v>223</v>
+      </c>
     </row>
-    <row r="133" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>206</v>
       </c>
@@ -32753,8 +36307,35 @@
       <c r="CA133" s="4">
         <v>24</v>
       </c>
+      <c r="CB133" s="4">
+        <v>24</v>
+      </c>
+      <c r="CC133" s="4">
+        <v>24</v>
+      </c>
+      <c r="CD133" s="4">
+        <v>24</v>
+      </c>
+      <c r="CE133" s="4">
+        <v>24</v>
+      </c>
+      <c r="CF133" s="4">
+        <v>28</v>
+      </c>
+      <c r="CG133" s="4">
+        <v>28</v>
+      </c>
+      <c r="CH133" s="4">
+        <v>28</v>
+      </c>
+      <c r="CI133" s="4">
+        <v>29</v>
+      </c>
+      <c r="CJ133" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="134" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>207</v>
       </c>
@@ -32992,8 +36573,35 @@
       <c r="CA134" s="4">
         <v>0</v>
       </c>
+      <c r="CB134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI134" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ134" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>208</v>
       </c>
@@ -33231,8 +36839,35 @@
       <c r="CA135" s="4">
         <v>0</v>
       </c>
+      <c r="CB135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI135" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ135" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>209</v>
       </c>
@@ -33470,8 +37105,35 @@
       <c r="CA136" s="4">
         <v>12</v>
       </c>
+      <c r="CB136" s="4">
+        <v>13</v>
+      </c>
+      <c r="CC136" s="4">
+        <v>16</v>
+      </c>
+      <c r="CD136" s="4">
+        <v>16</v>
+      </c>
+      <c r="CE136" s="4">
+        <v>16</v>
+      </c>
+      <c r="CF136" s="4">
+        <v>17</v>
+      </c>
+      <c r="CG136" s="4">
+        <v>17</v>
+      </c>
+      <c r="CH136" s="4">
+        <v>18</v>
+      </c>
+      <c r="CI136" s="4">
+        <v>18</v>
+      </c>
+      <c r="CJ136" s="4">
+        <v>19</v>
+      </c>
     </row>
-    <row r="137" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>210</v>
       </c>
@@ -33709,8 +37371,35 @@
       <c r="CA137" s="4">
         <v>1</v>
       </c>
+      <c r="CB137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI137" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ137" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>211</v>
       </c>
@@ -33948,8 +37637,35 @@
       <c r="CA138" s="4">
         <v>0</v>
       </c>
+      <c r="CB138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI138" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ138" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>212</v>
       </c>
@@ -34187,8 +37903,35 @@
       <c r="CA139" s="4">
         <v>0</v>
       </c>
+      <c r="CB139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH139" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI139" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ139" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="140" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>213</v>
       </c>
@@ -34426,8 +38169,35 @@
       <c r="CA140" s="4">
         <v>15</v>
       </c>
+      <c r="CB140" s="4">
+        <v>15</v>
+      </c>
+      <c r="CC140" s="4">
+        <v>15</v>
+      </c>
+      <c r="CD140" s="4">
+        <v>15</v>
+      </c>
+      <c r="CE140" s="4">
+        <v>16</v>
+      </c>
+      <c r="CF140" s="4">
+        <v>16</v>
+      </c>
+      <c r="CG140" s="4">
+        <v>16</v>
+      </c>
+      <c r="CH140" s="4">
+        <v>16</v>
+      </c>
+      <c r="CI140" s="4">
+        <v>16</v>
+      </c>
+      <c r="CJ140" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="141" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>214</v>
       </c>
@@ -34665,8 +38435,35 @@
       <c r="CA141" s="4">
         <v>1</v>
       </c>
+      <c r="CB141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI141" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ141" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>215</v>
       </c>
@@ -34904,8 +38701,35 @@
       <c r="CA142" s="4">
         <v>126</v>
       </c>
+      <c r="CB142" s="4">
+        <v>128</v>
+      </c>
+      <c r="CC142" s="4">
+        <v>133</v>
+      </c>
+      <c r="CD142" s="4">
+        <v>134</v>
+      </c>
+      <c r="CE142" s="4">
+        <v>134</v>
+      </c>
+      <c r="CF142" s="4">
+        <v>134</v>
+      </c>
+      <c r="CG142" s="4">
+        <v>136</v>
+      </c>
+      <c r="CH142" s="4">
+        <v>138</v>
+      </c>
+      <c r="CI142" s="4">
+        <v>138</v>
+      </c>
+      <c r="CJ142" s="4">
+        <v>145</v>
+      </c>
     </row>
-    <row r="143" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>216</v>
       </c>
@@ -35143,8 +38967,35 @@
       <c r="CA143" s="4">
         <v>13</v>
       </c>
+      <c r="CB143" s="4">
+        <v>15</v>
+      </c>
+      <c r="CC143" s="4">
+        <v>15</v>
+      </c>
+      <c r="CD143" s="4">
+        <v>15</v>
+      </c>
+      <c r="CE143" s="4">
+        <v>15</v>
+      </c>
+      <c r="CF143" s="4">
+        <v>16</v>
+      </c>
+      <c r="CG143" s="4">
+        <v>16</v>
+      </c>
+      <c r="CH143" s="4">
+        <v>16</v>
+      </c>
+      <c r="CI143" s="4">
+        <v>16</v>
+      </c>
+      <c r="CJ143" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="144" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>217</v>
       </c>
@@ -35382,8 +39233,35 @@
       <c r="CA144" s="4">
         <v>8</v>
       </c>
+      <c r="CB144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CD144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CE144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CF144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CG144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CH144" s="4">
+        <v>8</v>
+      </c>
+      <c r="CI144" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ144" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="145" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>218</v>
       </c>
@@ -35621,8 +39499,35 @@
       <c r="CA145" s="4">
         <v>4</v>
       </c>
+      <c r="CB145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI145" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ145" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="146" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>219</v>
       </c>
@@ -35860,8 +39765,35 @@
       <c r="CA146" s="4">
         <v>8</v>
       </c>
+      <c r="CB146" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC146" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD146" s="4">
+        <v>9</v>
+      </c>
+      <c r="CE146" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF146" s="4">
+        <v>11</v>
+      </c>
+      <c r="CG146" s="4">
+        <v>11</v>
+      </c>
+      <c r="CH146" s="4">
+        <v>11</v>
+      </c>
+      <c r="CI146" s="4">
+        <v>12</v>
+      </c>
+      <c r="CJ146" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="147" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>220</v>
       </c>
@@ -36099,8 +40031,35 @@
       <c r="CA147" s="4">
         <v>8</v>
       </c>
+      <c r="CB147" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC147" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD147" s="4">
+        <v>10</v>
+      </c>
+      <c r="CE147" s="4">
+        <v>10</v>
+      </c>
+      <c r="CF147" s="4">
+        <v>11</v>
+      </c>
+      <c r="CG147" s="4">
+        <v>21</v>
+      </c>
+      <c r="CH147" s="4">
+        <v>21</v>
+      </c>
+      <c r="CI147" s="4">
+        <v>25</v>
+      </c>
+      <c r="CJ147" s="4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="148" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>221</v>
       </c>
@@ -36338,8 +40297,35 @@
       <c r="CA148" s="4">
         <v>9</v>
       </c>
+      <c r="CB148" s="4">
+        <v>9</v>
+      </c>
+      <c r="CC148" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD148" s="4">
+        <v>9</v>
+      </c>
+      <c r="CE148" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF148" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG148" s="4">
+        <v>10</v>
+      </c>
+      <c r="CH148" s="4">
+        <v>10</v>
+      </c>
+      <c r="CI148" s="4">
+        <v>10</v>
+      </c>
+      <c r="CJ148" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="149" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>222</v>
       </c>
@@ -36577,8 +40563,35 @@
       <c r="CA149" s="4">
         <v>81</v>
       </c>
+      <c r="CB149" s="4">
+        <v>80</v>
+      </c>
+      <c r="CC149" s="4">
+        <v>80</v>
+      </c>
+      <c r="CD149" s="4">
+        <v>80</v>
+      </c>
+      <c r="CE149" s="4">
+        <v>80</v>
+      </c>
+      <c r="CF149" s="4">
+        <v>80</v>
+      </c>
+      <c r="CG149" s="4">
+        <v>81</v>
+      </c>
+      <c r="CH149" s="4">
+        <v>90</v>
+      </c>
+      <c r="CI149" s="4">
+        <v>92</v>
+      </c>
+      <c r="CJ149" s="4">
+        <v>95</v>
+      </c>
     </row>
-    <row r="150" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>223</v>
       </c>
@@ -36816,8 +40829,35 @@
       <c r="CA150" s="4">
         <v>19</v>
       </c>
+      <c r="CB150" s="4">
+        <v>22</v>
+      </c>
+      <c r="CC150" s="4">
+        <v>23</v>
+      </c>
+      <c r="CD150" s="4">
+        <v>23</v>
+      </c>
+      <c r="CE150" s="4">
+        <v>23</v>
+      </c>
+      <c r="CF150" s="4">
+        <v>23</v>
+      </c>
+      <c r="CG150" s="4">
+        <v>23</v>
+      </c>
+      <c r="CH150" s="4">
+        <v>24</v>
+      </c>
+      <c r="CI150" s="4">
+        <v>24</v>
+      </c>
+      <c r="CJ150" s="4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="151" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>224</v>
       </c>
@@ -37055,8 +41095,35 @@
       <c r="CA151" s="4">
         <v>2</v>
       </c>
+      <c r="CB151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI151" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ151" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>225</v>
       </c>
@@ -37294,8 +41361,35 @@
       <c r="CA152" s="4">
         <v>9</v>
       </c>
+      <c r="CB152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CC152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CE152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CH152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CI152" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ152" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="153" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>226</v>
       </c>
@@ -37533,8 +41627,35 @@
       <c r="CA153" s="4">
         <v>3</v>
       </c>
+      <c r="CB153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI153" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ153" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="154" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>227</v>
       </c>
@@ -37772,8 +41893,35 @@
       <c r="CA154" s="4">
         <v>0</v>
       </c>
+      <c r="CB154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI154" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ154" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>228</v>
       </c>
@@ -38011,8 +42159,35 @@
       <c r="CA155" s="4">
         <v>650</v>
       </c>
+      <c r="CB155" s="4">
+        <v>656</v>
+      </c>
+      <c r="CC155" s="4">
+        <v>662</v>
+      </c>
+      <c r="CD155" s="4">
+        <v>664</v>
+      </c>
+      <c r="CE155" s="4">
+        <v>667</v>
+      </c>
+      <c r="CF155" s="4">
+        <v>674</v>
+      </c>
+      <c r="CG155" s="4">
+        <v>677</v>
+      </c>
+      <c r="CH155" s="4">
+        <v>680</v>
+      </c>
+      <c r="CI155" s="4">
+        <v>688</v>
+      </c>
+      <c r="CJ155" s="4">
+        <v>691</v>
+      </c>
     </row>
-    <row r="156" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>229</v>
       </c>
@@ -38250,8 +42425,35 @@
       <c r="CA156" s="4">
         <v>5</v>
       </c>
+      <c r="CB156" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC156" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD156" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE156" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF156" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG156" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH156" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI156" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ156" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="157" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>230</v>
       </c>
@@ -38489,8 +42691,35 @@
       <c r="CA157" s="4">
         <v>3</v>
       </c>
+      <c r="CB157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI157" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ157" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="158" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>231</v>
       </c>
@@ -38728,8 +42957,35 @@
       <c r="CA158" s="4">
         <v>106</v>
       </c>
+      <c r="CB158" s="4">
+        <v>107</v>
+      </c>
+      <c r="CC158" s="4">
+        <v>107</v>
+      </c>
+      <c r="CD158" s="4">
+        <v>107</v>
+      </c>
+      <c r="CE158" s="4">
+        <v>107</v>
+      </c>
+      <c r="CF158" s="4">
+        <v>112</v>
+      </c>
+      <c r="CG158" s="4">
+        <v>113</v>
+      </c>
+      <c r="CH158" s="4">
+        <v>117</v>
+      </c>
+      <c r="CI158" s="4">
+        <v>118</v>
+      </c>
+      <c r="CJ158" s="4">
+        <v>118</v>
+      </c>
     </row>
-    <row r="159" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>232</v>
       </c>
@@ -38967,8 +43223,35 @@
       <c r="CA159" s="4">
         <v>0</v>
       </c>
+      <c r="CB159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI159" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ159" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>233</v>
       </c>
@@ -39206,8 +43489,35 @@
       <c r="CA160" s="4">
         <v>8</v>
       </c>
+      <c r="CB160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CD160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CE160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CF160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CG160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CH160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CI160" s="4">
+        <v>8</v>
+      </c>
+      <c r="CJ160" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="161" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>234</v>
       </c>
@@ -39445,8 +43755,35 @@
       <c r="CA161" s="4">
         <v>15</v>
       </c>
+      <c r="CB161" s="4">
+        <v>15</v>
+      </c>
+      <c r="CC161" s="4">
+        <v>15</v>
+      </c>
+      <c r="CD161" s="4">
+        <v>15</v>
+      </c>
+      <c r="CE161" s="4">
+        <v>15</v>
+      </c>
+      <c r="CF161" s="4">
+        <v>16</v>
+      </c>
+      <c r="CG161" s="4">
+        <v>16</v>
+      </c>
+      <c r="CH161" s="4">
+        <v>16</v>
+      </c>
+      <c r="CI161" s="4">
+        <v>16</v>
+      </c>
+      <c r="CJ161" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="162" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>235</v>
       </c>
@@ -39684,8 +44021,35 @@
       <c r="CA162" s="4">
         <v>3</v>
       </c>
+      <c r="CB162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI162" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ162" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="163" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>236</v>
       </c>
@@ -39923,8 +44287,35 @@
       <c r="CA163" s="4">
         <v>31</v>
       </c>
+      <c r="CB163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CC163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CD163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CE163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CF163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CG163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CH163" s="4">
+        <v>31</v>
+      </c>
+      <c r="CI163" s="4">
+        <v>32</v>
+      </c>
+      <c r="CJ163" s="4">
+        <v>32</v>
+      </c>
     </row>
-    <row r="164" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>237</v>
       </c>
@@ -40162,8 +44553,35 @@
       <c r="CA164" s="4">
         <v>63</v>
       </c>
+      <c r="CB164" s="4">
+        <v>63</v>
+      </c>
+      <c r="CC164" s="4">
+        <v>63</v>
+      </c>
+      <c r="CD164" s="4">
+        <v>63</v>
+      </c>
+      <c r="CE164" s="4">
+        <v>63</v>
+      </c>
+      <c r="CF164" s="4">
+        <v>65</v>
+      </c>
+      <c r="CG164" s="4">
+        <v>66</v>
+      </c>
+      <c r="CH164" s="4">
+        <v>67</v>
+      </c>
+      <c r="CI164" s="4">
+        <v>67</v>
+      </c>
+      <c r="CJ164" s="4">
+        <v>67</v>
+      </c>
     </row>
-    <row r="165" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>238</v>
       </c>
@@ -40401,8 +44819,35 @@
       <c r="CA165" s="4">
         <v>94</v>
       </c>
+      <c r="CB165" s="4">
+        <v>97</v>
+      </c>
+      <c r="CC165" s="4">
+        <v>97</v>
+      </c>
+      <c r="CD165" s="4">
+        <v>97</v>
+      </c>
+      <c r="CE165" s="4">
+        <v>97</v>
+      </c>
+      <c r="CF165" s="4">
+        <v>97</v>
+      </c>
+      <c r="CG165" s="4">
+        <v>97</v>
+      </c>
+      <c r="CH165" s="4">
+        <v>109</v>
+      </c>
+      <c r="CI165" s="4">
+        <v>116</v>
+      </c>
+      <c r="CJ165" s="4">
+        <v>116</v>
+      </c>
     </row>
-    <row r="166" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>239</v>
       </c>
@@ -40640,8 +45085,35 @@
       <c r="CA166" s="4">
         <v>64</v>
       </c>
+      <c r="CB166" s="4">
+        <v>66</v>
+      </c>
+      <c r="CC166" s="4">
+        <v>67</v>
+      </c>
+      <c r="CD166" s="4">
+        <v>67</v>
+      </c>
+      <c r="CE166" s="4">
+        <v>67</v>
+      </c>
+      <c r="CF166" s="4">
+        <v>68</v>
+      </c>
+      <c r="CG166" s="4">
+        <v>69</v>
+      </c>
+      <c r="CH166" s="4">
+        <v>71</v>
+      </c>
+      <c r="CI166" s="4">
+        <v>71</v>
+      </c>
+      <c r="CJ166" s="4">
+        <v>73</v>
+      </c>
     </row>
-    <row r="167" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>240</v>
       </c>
@@ -40879,8 +45351,35 @@
       <c r="CA167" s="4">
         <v>0</v>
       </c>
+      <c r="CB167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI167" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ167" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>241</v>
       </c>
@@ -41118,8 +45617,35 @@
       <c r="CA168" s="4">
         <v>123</v>
       </c>
+      <c r="CB168" s="4">
+        <v>124</v>
+      </c>
+      <c r="CC168" s="4">
+        <v>124</v>
+      </c>
+      <c r="CD168" s="4">
+        <v>124</v>
+      </c>
+      <c r="CE168" s="4">
+        <v>124</v>
+      </c>
+      <c r="CF168" s="4">
+        <v>125</v>
+      </c>
+      <c r="CG168" s="4">
+        <v>126</v>
+      </c>
+      <c r="CH168" s="4">
+        <v>128</v>
+      </c>
+      <c r="CI168" s="4">
+        <v>129</v>
+      </c>
+      <c r="CJ168" s="4">
+        <v>129</v>
+      </c>
     </row>
-    <row r="169" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>242</v>
       </c>
@@ -41357,8 +45883,35 @@
       <c r="CA169" s="4">
         <v>27</v>
       </c>
+      <c r="CB169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CC169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CD169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CE169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CF169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CG169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CH169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CI169" s="4">
+        <v>28</v>
+      </c>
+      <c r="CJ169" s="4">
+        <v>28</v>
+      </c>
     </row>
-    <row r="170" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>243</v>
       </c>
@@ -41596,8 +46149,35 @@
       <c r="CA170" s="4">
         <v>1</v>
       </c>
+      <c r="CB170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI170" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ170" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>244</v>
       </c>
@@ -41835,8 +46415,35 @@
       <c r="CA171" s="4">
         <v>1</v>
       </c>
+      <c r="CB171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI171" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ171" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>245</v>
       </c>
@@ -42074,8 +46681,35 @@
       <c r="CA172" s="4">
         <v>9</v>
       </c>
+      <c r="CB172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CC172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CD172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CE172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CF172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CG172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CH172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CI172" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ172" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="173" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>246</v>
       </c>
@@ -42313,8 +46947,35 @@
       <c r="CA173" s="4">
         <v>881</v>
       </c>
+      <c r="CB173" s="4">
+        <v>888</v>
+      </c>
+      <c r="CC173" s="4">
+        <v>888</v>
+      </c>
+      <c r="CD173" s="4">
+        <v>888</v>
+      </c>
+      <c r="CE173" s="4">
+        <v>888</v>
+      </c>
+      <c r="CF173" s="4">
+        <v>913</v>
+      </c>
+      <c r="CG173" s="4">
+        <v>926</v>
+      </c>
+      <c r="CH173" s="4">
+        <v>940</v>
+      </c>
+      <c r="CI173" s="4">
+        <v>954</v>
+      </c>
+      <c r="CJ173" s="4">
+        <v>954</v>
+      </c>
     </row>
-    <row r="174" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>247</v>
       </c>
@@ -42552,8 +47213,35 @@
       <c r="CA174" s="4">
         <v>508</v>
       </c>
+      <c r="CB174" s="4">
+        <v>511</v>
+      </c>
+      <c r="CC174" s="4">
+        <v>512</v>
+      </c>
+      <c r="CD174" s="4">
+        <v>513</v>
+      </c>
+      <c r="CE174" s="4">
+        <v>514</v>
+      </c>
+      <c r="CF174" s="4">
+        <v>518</v>
+      </c>
+      <c r="CG174" s="4">
+        <v>565</v>
+      </c>
+      <c r="CH174" s="4">
+        <v>602</v>
+      </c>
+      <c r="CI174" s="4">
+        <v>604</v>
+      </c>
+      <c r="CJ174" s="4">
+        <v>686</v>
+      </c>
     </row>
-    <row r="175" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>248</v>
       </c>
@@ -42791,8 +47479,35 @@
       <c r="CA175" s="4">
         <v>17</v>
       </c>
+      <c r="CB175" s="4">
+        <v>17</v>
+      </c>
+      <c r="CC175" s="4">
+        <v>17</v>
+      </c>
+      <c r="CD175" s="4">
+        <v>17</v>
+      </c>
+      <c r="CE175" s="4">
+        <v>21</v>
+      </c>
+      <c r="CF175" s="4">
+        <v>22</v>
+      </c>
+      <c r="CG175" s="4">
+        <v>27</v>
+      </c>
+      <c r="CH175" s="4">
+        <v>28</v>
+      </c>
+      <c r="CI175" s="4">
+        <v>26</v>
+      </c>
+      <c r="CJ175" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="176" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>249</v>
       </c>
@@ -43030,8 +47745,35 @@
       <c r="CA176" s="4">
         <v>1</v>
       </c>
+      <c r="CB176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI176" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ176" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>250</v>
       </c>
@@ -43269,8 +48011,35 @@
       <c r="CA177" s="4">
         <v>255</v>
       </c>
+      <c r="CB177" s="4">
+        <v>255</v>
+      </c>
+      <c r="CC177" s="4">
+        <v>257</v>
+      </c>
+      <c r="CD177" s="4">
+        <v>257</v>
+      </c>
+      <c r="CE177" s="4">
+        <v>257</v>
+      </c>
+      <c r="CF177" s="4">
+        <v>261</v>
+      </c>
+      <c r="CG177" s="4">
+        <v>271</v>
+      </c>
+      <c r="CH177" s="4">
+        <v>270</v>
+      </c>
+      <c r="CI177" s="4">
+        <v>287</v>
+      </c>
+      <c r="CJ177" s="4">
+        <v>287</v>
+      </c>
     </row>
-    <row r="178" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>251</v>
       </c>
@@ -43508,8 +48277,35 @@
       <c r="CA178" s="4">
         <v>42</v>
       </c>
+      <c r="CB178" s="4">
+        <v>44</v>
+      </c>
+      <c r="CC178" s="4">
+        <v>44</v>
+      </c>
+      <c r="CD178" s="4">
+        <v>44</v>
+      </c>
+      <c r="CE178" s="4">
+        <v>45</v>
+      </c>
+      <c r="CF178" s="4">
+        <v>49</v>
+      </c>
+      <c r="CG178" s="4">
+        <v>49</v>
+      </c>
+      <c r="CH178" s="4">
+        <v>50</v>
+      </c>
+      <c r="CI178" s="4">
+        <v>55</v>
+      </c>
+      <c r="CJ178" s="4">
+        <v>56</v>
+      </c>
     </row>
-    <row r="179" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>252</v>
       </c>
@@ -43747,8 +48543,35 @@
       <c r="CA179" s="4">
         <v>4</v>
       </c>
+      <c r="CB179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH179" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI179" s="4">
+        <v>5</v>
+      </c>
+      <c r="CJ179" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="180" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>253</v>
       </c>
@@ -43986,8 +48809,35 @@
       <c r="CA180" s="4">
         <v>2</v>
       </c>
+      <c r="CB180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH180" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI180" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ180" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="181" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>254</v>
       </c>
@@ -44225,8 +49075,35 @@
       <c r="CA181" s="4">
         <v>260</v>
       </c>
+      <c r="CB181" s="4">
+        <v>260</v>
+      </c>
+      <c r="CC181" s="4">
+        <v>262</v>
+      </c>
+      <c r="CD181" s="4">
+        <v>262</v>
+      </c>
+      <c r="CE181" s="4">
+        <v>263</v>
+      </c>
+      <c r="CF181" s="4">
+        <v>266</v>
+      </c>
+      <c r="CG181" s="4">
+        <v>268</v>
+      </c>
+      <c r="CH181" s="4">
+        <v>268</v>
+      </c>
+      <c r="CI181" s="4">
+        <v>268</v>
+      </c>
+      <c r="CJ181" s="4">
+        <v>274</v>
+      </c>
     </row>
-    <row r="182" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>255</v>
       </c>
@@ -44464,8 +49341,35 @@
       <c r="CA182" s="4">
         <v>42</v>
       </c>
+      <c r="CB182" s="4">
+        <v>42</v>
+      </c>
+      <c r="CC182" s="4">
+        <v>43</v>
+      </c>
+      <c r="CD182" s="4">
+        <v>43</v>
+      </c>
+      <c r="CE182" s="4">
+        <v>43</v>
+      </c>
+      <c r="CF182" s="4">
+        <v>43</v>
+      </c>
+      <c r="CG182" s="4">
+        <v>48</v>
+      </c>
+      <c r="CH182" s="4">
+        <v>49</v>
+      </c>
+      <c r="CI182" s="4">
+        <v>49</v>
+      </c>
+      <c r="CJ182" s="4">
+        <v>49</v>
+      </c>
     </row>
-    <row r="183" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>256</v>
       </c>
@@ -44703,8 +49607,35 @@
       <c r="CA183" s="4">
         <v>3</v>
       </c>
+      <c r="CB183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI183" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ183" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="184" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>257</v>
       </c>
@@ -44942,8 +49873,35 @@
       <c r="CA184" s="4">
         <v>94</v>
       </c>
+      <c r="CB184" s="4">
+        <v>96</v>
+      </c>
+      <c r="CC184" s="4">
+        <v>96</v>
+      </c>
+      <c r="CD184" s="4">
+        <v>96</v>
+      </c>
+      <c r="CE184" s="4">
+        <v>96</v>
+      </c>
+      <c r="CF184" s="4">
+        <v>96</v>
+      </c>
+      <c r="CG184" s="4">
+        <v>96</v>
+      </c>
+      <c r="CH184" s="4">
+        <v>98</v>
+      </c>
+      <c r="CI184" s="4">
+        <v>98</v>
+      </c>
+      <c r="CJ184" s="4">
+        <v>98</v>
+      </c>
     </row>
-    <row r="185" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>258</v>
       </c>
@@ -45181,8 +50139,35 @@
       <c r="CA185" s="4">
         <v>10</v>
       </c>
+      <c r="CB185" s="4">
+        <v>10</v>
+      </c>
+      <c r="CC185" s="4">
+        <v>10</v>
+      </c>
+      <c r="CD185" s="4">
+        <v>10</v>
+      </c>
+      <c r="CE185" s="4">
+        <v>11</v>
+      </c>
+      <c r="CF185" s="4">
+        <v>11</v>
+      </c>
+      <c r="CG185" s="4">
+        <v>11</v>
+      </c>
+      <c r="CH185" s="4">
+        <v>13</v>
+      </c>
+      <c r="CI185" s="4">
+        <v>13</v>
+      </c>
+      <c r="CJ185" s="4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="186" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>259</v>
       </c>
@@ -45420,8 +50405,35 @@
       <c r="CA186" s="4">
         <v>165</v>
       </c>
+      <c r="CB186" s="4">
+        <v>166</v>
+      </c>
+      <c r="CC186" s="4">
+        <v>171</v>
+      </c>
+      <c r="CD186" s="4">
+        <v>172</v>
+      </c>
+      <c r="CE186" s="4">
+        <v>172</v>
+      </c>
+      <c r="CF186" s="4">
+        <v>173</v>
+      </c>
+      <c r="CG186" s="4">
+        <v>174</v>
+      </c>
+      <c r="CH186" s="4">
+        <v>175</v>
+      </c>
+      <c r="CI186" s="4">
+        <v>178</v>
+      </c>
+      <c r="CJ186" s="4">
+        <v>179</v>
+      </c>
     </row>
-    <row r="187" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>260</v>
       </c>
@@ -45659,8 +50671,35 @@
       <c r="CA187" s="4">
         <v>67</v>
       </c>
+      <c r="CB187" s="4">
+        <v>67</v>
+      </c>
+      <c r="CC187" s="4">
+        <v>67</v>
+      </c>
+      <c r="CD187" s="4">
+        <v>67</v>
+      </c>
+      <c r="CE187" s="4">
+        <v>68</v>
+      </c>
+      <c r="CF187" s="4">
+        <v>68</v>
+      </c>
+      <c r="CG187" s="4">
+        <v>70</v>
+      </c>
+      <c r="CH187" s="4">
+        <v>74</v>
+      </c>
+      <c r="CI187" s="4">
+        <v>76</v>
+      </c>
+      <c r="CJ187" s="4">
+        <v>76</v>
+      </c>
     </row>
-    <row r="188" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>261</v>
       </c>
@@ -45898,8 +50937,35 @@
       <c r="CA188" s="4">
         <v>49</v>
       </c>
+      <c r="CB188" s="4">
+        <v>51</v>
+      </c>
+      <c r="CC188" s="4">
+        <v>53</v>
+      </c>
+      <c r="CD188" s="4">
+        <v>53</v>
+      </c>
+      <c r="CE188" s="4">
+        <v>54</v>
+      </c>
+      <c r="CF188" s="4">
+        <v>54</v>
+      </c>
+      <c r="CG188" s="4">
+        <v>53</v>
+      </c>
+      <c r="CH188" s="4">
+        <v>55</v>
+      </c>
+      <c r="CI188" s="4">
+        <v>59</v>
+      </c>
+      <c r="CJ188" s="4">
+        <v>59</v>
+      </c>
     </row>
-    <row r="189" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>262</v>
       </c>
@@ -46137,8 +51203,35 @@
       <c r="CA189" s="4">
         <v>27</v>
       </c>
+      <c r="CB189" s="4">
+        <v>27</v>
+      </c>
+      <c r="CC189" s="4">
+        <v>27</v>
+      </c>
+      <c r="CD189" s="4">
+        <v>27</v>
+      </c>
+      <c r="CE189" s="4">
+        <v>27</v>
+      </c>
+      <c r="CF189" s="4">
+        <v>27</v>
+      </c>
+      <c r="CG189" s="4">
+        <v>56</v>
+      </c>
+      <c r="CH189" s="4">
+        <v>66</v>
+      </c>
+      <c r="CI189" s="4">
+        <v>66</v>
+      </c>
+      <c r="CJ189" s="4">
+        <v>93</v>
+      </c>
     </row>
-    <row r="190" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>263</v>
       </c>
@@ -46376,8 +51469,35 @@
       <c r="CA190" s="4">
         <v>52</v>
       </c>
+      <c r="CB190" s="4">
+        <v>52</v>
+      </c>
+      <c r="CC190" s="4">
+        <v>52</v>
+      </c>
+      <c r="CD190" s="4">
+        <v>52</v>
+      </c>
+      <c r="CE190" s="4">
+        <v>52</v>
+      </c>
+      <c r="CF190" s="4">
+        <v>53</v>
+      </c>
+      <c r="CG190" s="4">
+        <v>54</v>
+      </c>
+      <c r="CH190" s="4">
+        <v>55</v>
+      </c>
+      <c r="CI190" s="4">
+        <v>56</v>
+      </c>
+      <c r="CJ190" s="4">
+        <v>56</v>
+      </c>
     </row>
-    <row r="191" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>264</v>
       </c>
@@ -46615,8 +51735,35 @@
       <c r="CA191" s="4">
         <v>2202</v>
       </c>
+      <c r="CB191" s="4">
+        <v>2229</v>
+      </c>
+      <c r="CC191" s="4">
+        <v>2238</v>
+      </c>
+      <c r="CD191" s="4">
+        <v>2238</v>
+      </c>
+      <c r="CE191" s="4">
+        <v>2238</v>
+      </c>
+      <c r="CF191" s="4">
+        <v>2251</v>
+      </c>
+      <c r="CG191" s="4">
+        <v>2266</v>
+      </c>
+      <c r="CH191" s="4">
+        <v>2276</v>
+      </c>
+      <c r="CI191" s="4">
+        <v>2317</v>
+      </c>
+      <c r="CJ191" s="4">
+        <v>2321</v>
+      </c>
     </row>
-    <row r="192" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>265</v>
       </c>
@@ -46854,8 +52001,35 @@
       <c r="CA192" s="4">
         <v>0</v>
       </c>
+      <c r="CB192" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC192" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD192" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE192" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF192" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG192" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH192" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI192" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ192" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="193" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>266</v>
       </c>
@@ -47093,8 +52267,35 @@
       <c r="CA193" s="4">
         <v>3</v>
       </c>
+      <c r="CB193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI193" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ193" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="194" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>267</v>
       </c>
@@ -47332,8 +52533,35 @@
       <c r="CA194" s="4">
         <v>629</v>
       </c>
+      <c r="CB194" s="4">
+        <v>645</v>
+      </c>
+      <c r="CC194" s="4">
+        <v>648</v>
+      </c>
+      <c r="CD194" s="4">
+        <v>648</v>
+      </c>
+      <c r="CE194" s="4">
+        <v>648</v>
+      </c>
+      <c r="CF194" s="4">
+        <v>652</v>
+      </c>
+      <c r="CG194" s="4">
+        <v>655</v>
+      </c>
+      <c r="CH194" s="4">
+        <v>658</v>
+      </c>
+      <c r="CI194" s="4">
+        <v>671</v>
+      </c>
+      <c r="CJ194" s="4">
+        <v>674</v>
+      </c>
     </row>
-    <row r="195" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>268</v>
       </c>
@@ -47571,8 +52799,35 @@
       <c r="CA195" s="4">
         <v>0</v>
       </c>
+      <c r="CB195" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC195" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD195" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE195" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF195" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG195" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH195" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI195" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ195" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="196" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>269</v>
       </c>
@@ -47810,8 +53065,35 @@
       <c r="CA196" s="4">
         <v>0</v>
       </c>
+      <c r="CB196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI196" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ196" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>270</v>
       </c>
@@ -48049,8 +53331,35 @@
       <c r="CA197" s="4">
         <v>44</v>
       </c>
+      <c r="CB197" s="4">
+        <v>46</v>
+      </c>
+      <c r="CC197" s="4">
+        <v>46</v>
+      </c>
+      <c r="CD197" s="4">
+        <v>47</v>
+      </c>
+      <c r="CE197" s="4">
+        <v>48</v>
+      </c>
+      <c r="CF197" s="4">
+        <v>50</v>
+      </c>
+      <c r="CG197" s="4">
+        <v>50</v>
+      </c>
+      <c r="CH197" s="4">
+        <v>50</v>
+      </c>
+      <c r="CI197" s="4">
+        <v>66</v>
+      </c>
+      <c r="CJ197" s="4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="198" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>271</v>
       </c>
@@ -48288,8 +53597,35 @@
       <c r="CA198" s="4">
         <v>5</v>
       </c>
+      <c r="CB198" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC198" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD198" s="4">
+        <v>7</v>
+      </c>
+      <c r="CE198" s="4">
+        <v>7</v>
+      </c>
+      <c r="CF198" s="4">
+        <v>7</v>
+      </c>
+      <c r="CG198" s="4">
+        <v>7</v>
+      </c>
+      <c r="CH198" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI198" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ198" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="199" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>272</v>
       </c>
@@ -48527,8 +53863,35 @@
       <c r="CA199" s="4">
         <v>3</v>
       </c>
+      <c r="CB199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI199" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ199" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="200" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>273</v>
       </c>
@@ -48766,8 +54129,35 @@
       <c r="CA200" s="4">
         <v>2</v>
       </c>
+      <c r="CB200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CI200" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ200" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>274</v>
       </c>
@@ -49005,8 +54395,35 @@
       <c r="CA201" s="4">
         <v>7</v>
       </c>
+      <c r="CB201" s="4">
+        <v>7</v>
+      </c>
+      <c r="CC201" s="4">
+        <v>7</v>
+      </c>
+      <c r="CD201" s="4">
+        <v>7</v>
+      </c>
+      <c r="CE201" s="4">
+        <v>7</v>
+      </c>
+      <c r="CF201" s="4">
+        <v>7</v>
+      </c>
+      <c r="CG201" s="4">
+        <v>7</v>
+      </c>
+      <c r="CH201" s="4">
+        <v>8</v>
+      </c>
+      <c r="CI201" s="4">
+        <v>8</v>
+      </c>
+      <c r="CJ201" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="202" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>275</v>
       </c>
@@ -49244,8 +54661,35 @@
       <c r="CA202" s="4">
         <v>151</v>
       </c>
+      <c r="CB202" s="4">
+        <v>151</v>
+      </c>
+      <c r="CC202" s="4">
+        <v>151</v>
+      </c>
+      <c r="CD202" s="4">
+        <v>151</v>
+      </c>
+      <c r="CE202" s="4">
+        <v>155</v>
+      </c>
+      <c r="CF202" s="4">
+        <v>156</v>
+      </c>
+      <c r="CG202" s="4">
+        <v>159</v>
+      </c>
+      <c r="CH202" s="4">
+        <v>164</v>
+      </c>
+      <c r="CI202" s="4">
+        <v>167</v>
+      </c>
+      <c r="CJ202" s="4">
+        <v>167</v>
+      </c>
     </row>
-    <row r="203" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>276</v>
       </c>
@@ -49483,8 +54927,35 @@
       <c r="CA203" s="4">
         <v>2</v>
       </c>
+      <c r="CB203" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC203" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD203" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE203" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF203" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG203" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH203" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI203" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ203" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="204" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>277</v>
       </c>
@@ -49722,8 +55193,35 @@
       <c r="CA204" s="4">
         <v>42</v>
       </c>
+      <c r="CB204" s="4">
+        <v>42</v>
+      </c>
+      <c r="CC204" s="4">
+        <v>43</v>
+      </c>
+      <c r="CD204" s="4">
+        <v>43</v>
+      </c>
+      <c r="CE204" s="4">
+        <v>44</v>
+      </c>
+      <c r="CF204" s="4">
+        <v>44</v>
+      </c>
+      <c r="CG204" s="4">
+        <v>45</v>
+      </c>
+      <c r="CH204" s="4">
+        <v>45</v>
+      </c>
+      <c r="CI204" s="4">
+        <v>52</v>
+      </c>
+      <c r="CJ204" s="4">
+        <v>55</v>
+      </c>
     </row>
-    <row r="205" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>278</v>
       </c>
@@ -49961,8 +55459,35 @@
       <c r="CA205" s="4">
         <v>4</v>
       </c>
+      <c r="CB205" s="4">
+        <v>5</v>
+      </c>
+      <c r="CC205" s="4">
+        <v>5</v>
+      </c>
+      <c r="CD205" s="4">
+        <v>5</v>
+      </c>
+      <c r="CE205" s="4">
+        <v>5</v>
+      </c>
+      <c r="CF205" s="4">
+        <v>5</v>
+      </c>
+      <c r="CG205" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH205" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI205" s="4">
+        <v>14</v>
+      </c>
+      <c r="CJ205" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="206" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>333</v>
       </c>
@@ -50200,8 +55725,35 @@
       <c r="CA206" s="4">
         <v>29</v>
       </c>
+      <c r="CB206" s="4">
+        <v>29</v>
+      </c>
+      <c r="CC206" s="4">
+        <v>29</v>
+      </c>
+      <c r="CD206" s="4">
+        <v>29</v>
+      </c>
+      <c r="CE206" s="4">
+        <v>29</v>
+      </c>
+      <c r="CF206" s="4">
+        <v>31</v>
+      </c>
+      <c r="CG206" s="4">
+        <v>31</v>
+      </c>
+      <c r="CH206" s="4">
+        <v>37</v>
+      </c>
+      <c r="CI206" s="4">
+        <v>38</v>
+      </c>
+      <c r="CJ206" s="4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="207" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>279</v>
       </c>
@@ -50439,8 +55991,35 @@
       <c r="CA207" s="4">
         <v>14</v>
       </c>
+      <c r="CB207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CC207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CD207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CE207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CF207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CG207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CH207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CI207" s="4">
+        <v>14</v>
+      </c>
+      <c r="CJ207" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="208" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>280</v>
       </c>
@@ -50678,8 +56257,35 @@
       <c r="CA208" s="4">
         <v>28</v>
       </c>
+      <c r="CB208" s="4">
+        <v>28</v>
+      </c>
+      <c r="CC208" s="4">
+        <v>28</v>
+      </c>
+      <c r="CD208" s="4">
+        <v>28</v>
+      </c>
+      <c r="CE208" s="4">
+        <v>28</v>
+      </c>
+      <c r="CF208" s="4">
+        <v>29</v>
+      </c>
+      <c r="CG208" s="4">
+        <v>32</v>
+      </c>
+      <c r="CH208" s="4">
+        <v>33</v>
+      </c>
+      <c r="CI208" s="4">
+        <v>33</v>
+      </c>
+      <c r="CJ208" s="4">
+        <v>33</v>
+      </c>
     </row>
-    <row r="209" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>281</v>
       </c>
@@ -50917,8 +56523,35 @@
       <c r="CA209" s="4">
         <v>1</v>
       </c>
+      <c r="CB209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI209" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ209" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="210" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>282</v>
       </c>
@@ -51156,8 +56789,35 @@
       <c r="CA210" s="4">
         <v>0</v>
       </c>
+      <c r="CB210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI210" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ210" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>283</v>
       </c>
@@ -51395,8 +57055,35 @@
       <c r="CA211" s="4">
         <v>2</v>
       </c>
+      <c r="CB211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CF211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CG211" s="4">
+        <v>2</v>
+      </c>
+      <c r="CH211" s="4">
+        <v>21</v>
+      </c>
+      <c r="CI211" s="4">
+        <v>24</v>
+      </c>
+      <c r="CJ211" s="4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="212" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>284</v>
       </c>
@@ -51634,8 +57321,35 @@
       <c r="CA212" s="4">
         <v>1</v>
       </c>
+      <c r="CB212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI212" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ212" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>285</v>
       </c>
@@ -51873,8 +57587,35 @@
       <c r="CA213" s="4">
         <v>183</v>
       </c>
+      <c r="CB213" s="4">
+        <v>183</v>
+      </c>
+      <c r="CC213" s="4">
+        <v>183</v>
+      </c>
+      <c r="CD213" s="4">
+        <v>183</v>
+      </c>
+      <c r="CE213" s="4">
+        <v>183</v>
+      </c>
+      <c r="CF213" s="4">
+        <v>187</v>
+      </c>
+      <c r="CG213" s="4">
+        <v>189</v>
+      </c>
+      <c r="CH213" s="4">
+        <v>189</v>
+      </c>
+      <c r="CI213" s="4">
+        <v>201</v>
+      </c>
+      <c r="CJ213" s="4">
+        <v>201</v>
+      </c>
     </row>
-    <row r="214" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>286</v>
       </c>
@@ -52112,8 +57853,35 @@
       <c r="CA214" s="4">
         <v>21</v>
       </c>
+      <c r="CB214" s="4">
+        <v>21</v>
+      </c>
+      <c r="CC214" s="4">
+        <v>21</v>
+      </c>
+      <c r="CD214" s="4">
+        <v>21</v>
+      </c>
+      <c r="CE214" s="4">
+        <v>21</v>
+      </c>
+      <c r="CF214" s="4">
+        <v>22</v>
+      </c>
+      <c r="CG214" s="4">
+        <v>23</v>
+      </c>
+      <c r="CH214" s="4">
+        <v>24</v>
+      </c>
+      <c r="CI214" s="4">
+        <v>24</v>
+      </c>
+      <c r="CJ214" s="4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="215" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>287</v>
       </c>
@@ -52351,8 +58119,35 @@
       <c r="CA215" s="4">
         <v>198</v>
       </c>
+      <c r="CB215" s="4">
+        <v>198</v>
+      </c>
+      <c r="CC215" s="4">
+        <v>198</v>
+      </c>
+      <c r="CD215" s="4">
+        <v>198</v>
+      </c>
+      <c r="CE215" s="4">
+        <v>198</v>
+      </c>
+      <c r="CF215" s="4">
+        <v>199</v>
+      </c>
+      <c r="CG215" s="4">
+        <v>200</v>
+      </c>
+      <c r="CH215" s="4">
+        <v>200</v>
+      </c>
+      <c r="CI215" s="4">
+        <v>204</v>
+      </c>
+      <c r="CJ215" s="4">
+        <v>204</v>
+      </c>
     </row>
-    <row r="216" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>288</v>
       </c>
@@ -52590,8 +58385,35 @@
       <c r="CA216" s="4">
         <v>0</v>
       </c>
+      <c r="CB216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI216" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ216" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>289</v>
       </c>
@@ -52829,8 +58651,35 @@
       <c r="CA217" s="4">
         <v>22</v>
       </c>
+      <c r="CB217" s="4">
+        <v>24</v>
+      </c>
+      <c r="CC217" s="4">
+        <v>24</v>
+      </c>
+      <c r="CD217" s="4">
+        <v>24</v>
+      </c>
+      <c r="CE217" s="4">
+        <v>24</v>
+      </c>
+      <c r="CF217" s="4">
+        <v>26</v>
+      </c>
+      <c r="CG217" s="4">
+        <v>27</v>
+      </c>
+      <c r="CH217" s="4">
+        <v>33</v>
+      </c>
+      <c r="CI217" s="4">
+        <v>33</v>
+      </c>
+      <c r="CJ217" s="4">
+        <v>33</v>
+      </c>
     </row>
-    <row r="218" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>290</v>
       </c>
@@ -53068,8 +58917,35 @@
       <c r="CA218" s="4">
         <v>2</v>
       </c>
+      <c r="CB218" s="4">
+        <v>2</v>
+      </c>
+      <c r="CC218" s="4">
+        <v>2</v>
+      </c>
+      <c r="CD218" s="4">
+        <v>2</v>
+      </c>
+      <c r="CE218" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF218" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG218" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH218" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI218" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ218" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="219" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>291</v>
       </c>
@@ -53307,8 +59183,35 @@
       <c r="CA219" s="4">
         <v>0</v>
       </c>
+      <c r="CB219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI219" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ219" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>292</v>
       </c>
@@ -53546,8 +59449,35 @@
       <c r="CA220" s="4">
         <v>0</v>
       </c>
+      <c r="CB220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI220" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ220" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>293</v>
       </c>
@@ -53785,8 +59715,35 @@
       <c r="CA221" s="4">
         <v>0</v>
       </c>
+      <c r="CB221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI221" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ221" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>294</v>
       </c>
@@ -54024,8 +59981,35 @@
       <c r="CA222" s="4">
         <v>15</v>
       </c>
+      <c r="CB222" s="4">
+        <v>17</v>
+      </c>
+      <c r="CC222" s="4">
+        <v>17</v>
+      </c>
+      <c r="CD222" s="4">
+        <v>17</v>
+      </c>
+      <c r="CE222" s="4">
+        <v>17</v>
+      </c>
+      <c r="CF222" s="4">
+        <v>17</v>
+      </c>
+      <c r="CG222" s="4">
+        <v>18</v>
+      </c>
+      <c r="CH222" s="4">
+        <v>18</v>
+      </c>
+      <c r="CI222" s="4">
+        <v>17</v>
+      </c>
+      <c r="CJ222" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="223" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>295</v>
       </c>
@@ -54263,8 +60247,35 @@
       <c r="CA223" s="4">
         <v>4803</v>
       </c>
+      <c r="CB223" s="4">
+        <v>4899</v>
+      </c>
+      <c r="CC223" s="4">
+        <v>4951</v>
+      </c>
+      <c r="CD223" s="4">
+        <v>4977</v>
+      </c>
+      <c r="CE223" s="4">
+        <v>4977</v>
+      </c>
+      <c r="CF223" s="4">
+        <v>5039</v>
+      </c>
+      <c r="CG223" s="4">
+        <v>5190</v>
+      </c>
+      <c r="CH223" s="4">
+        <v>5294</v>
+      </c>
+      <c r="CI223" s="4">
+        <v>5379</v>
+      </c>
+      <c r="CJ223" s="4">
+        <v>5463</v>
+      </c>
     </row>
-    <row r="224" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>296</v>
       </c>
@@ -54502,8 +60513,35 @@
       <c r="CA224" s="4">
         <v>228</v>
       </c>
+      <c r="CB224" s="4">
+        <v>228</v>
+      </c>
+      <c r="CC224" s="4">
+        <v>228</v>
+      </c>
+      <c r="CD224" s="4">
+        <v>230</v>
+      </c>
+      <c r="CE224" s="4">
+        <v>230</v>
+      </c>
+      <c r="CF224" s="4">
+        <v>230</v>
+      </c>
+      <c r="CG224" s="4">
+        <v>231</v>
+      </c>
+      <c r="CH224" s="4">
+        <v>232</v>
+      </c>
+      <c r="CI224" s="4">
+        <v>234</v>
+      </c>
+      <c r="CJ224" s="4">
+        <v>235</v>
+      </c>
     </row>
-    <row r="225" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>297</v>
       </c>
@@ -54741,8 +60779,35 @@
       <c r="CA225" s="4">
         <v>0</v>
       </c>
+      <c r="CB225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI225" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ225" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>298</v>
       </c>
@@ -54980,8 +61045,35 @@
       <c r="CA226" s="4">
         <v>13</v>
       </c>
+      <c r="CB226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CC226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CD226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CE226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CF226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CG226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CH226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CI226" s="4">
+        <v>13</v>
+      </c>
+      <c r="CJ226" s="4">
+        <v>13</v>
+      </c>
     </row>
-    <row r="227" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>299</v>
       </c>
@@ -55219,8 +61311,35 @@
       <c r="CA227" s="4">
         <v>0</v>
       </c>
+      <c r="CB227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI227" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ227" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>300</v>
       </c>
@@ -55458,8 +61577,35 @@
       <c r="CA228" s="4">
         <v>221</v>
       </c>
+      <c r="CB228" s="4">
+        <v>245</v>
+      </c>
+      <c r="CC228" s="4">
+        <v>246</v>
+      </c>
+      <c r="CD228" s="4">
+        <v>251</v>
+      </c>
+      <c r="CE228" s="4">
+        <v>321</v>
+      </c>
+      <c r="CF228" s="4">
+        <v>347</v>
+      </c>
+      <c r="CG228" s="4">
+        <v>443</v>
+      </c>
+      <c r="CH228" s="4">
+        <v>464</v>
+      </c>
+      <c r="CI228" s="4">
+        <v>446</v>
+      </c>
+      <c r="CJ228" s="4">
+        <v>451</v>
+      </c>
     </row>
-    <row r="229" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>301</v>
       </c>
@@ -55697,8 +61843,35 @@
       <c r="CA229" s="4">
         <v>64</v>
       </c>
+      <c r="CB229" s="4">
+        <v>64</v>
+      </c>
+      <c r="CC229" s="4">
+        <v>64</v>
+      </c>
+      <c r="CD229" s="4">
+        <v>64</v>
+      </c>
+      <c r="CE229" s="4">
+        <v>64</v>
+      </c>
+      <c r="CF229" s="4">
+        <v>64</v>
+      </c>
+      <c r="CG229" s="4">
+        <v>67</v>
+      </c>
+      <c r="CH229" s="4">
+        <v>67</v>
+      </c>
+      <c r="CI229" s="4">
+        <v>65</v>
+      </c>
+      <c r="CJ229" s="4">
+        <v>69</v>
+      </c>
     </row>
-    <row r="230" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>302</v>
       </c>
@@ -55936,8 +62109,35 @@
       <c r="CA230" s="4">
         <v>2712</v>
       </c>
+      <c r="CB230" s="4">
+        <v>2761</v>
+      </c>
+      <c r="CC230" s="4">
+        <v>2788</v>
+      </c>
+      <c r="CD230" s="4">
+        <v>2847</v>
+      </c>
+      <c r="CE230" s="4">
+        <v>2933</v>
+      </c>
+      <c r="CF230" s="4">
+        <v>2984</v>
+      </c>
+      <c r="CG230" s="4">
+        <v>3057</v>
+      </c>
+      <c r="CH230" s="4">
+        <v>3124</v>
+      </c>
+      <c r="CI230" s="4">
+        <v>3186</v>
+      </c>
+      <c r="CJ230" s="4">
+        <v>3232</v>
+      </c>
     </row>
-    <row r="231" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>303</v>
       </c>
@@ -56175,8 +62375,35 @@
       <c r="CA231" s="4">
         <v>13</v>
       </c>
+      <c r="CB231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CC231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CD231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CE231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CF231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CG231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CH231" s="4">
+        <v>13</v>
+      </c>
+      <c r="CI231" s="4">
+        <v>14</v>
+      </c>
+      <c r="CJ231" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="232" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>304</v>
       </c>
@@ -56414,8 +62641,35 @@
       <c r="CA232" s="4">
         <v>10</v>
       </c>
+      <c r="CB232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CC232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CD232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CE232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CF232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CG232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CH232" s="4">
+        <v>11</v>
+      </c>
+      <c r="CI232" s="4">
+        <v>12</v>
+      </c>
+      <c r="CJ232" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="233" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>305</v>
       </c>
@@ -56653,8 +62907,35 @@
       <c r="CA233" s="4">
         <v>18</v>
       </c>
+      <c r="CB233" s="4">
+        <v>18</v>
+      </c>
+      <c r="CC233" s="4">
+        <v>18</v>
+      </c>
+      <c r="CD233" s="4">
+        <v>18</v>
+      </c>
+      <c r="CE233" s="4">
+        <v>19</v>
+      </c>
+      <c r="CF233" s="4">
+        <v>19</v>
+      </c>
+      <c r="CG233" s="4">
+        <v>20</v>
+      </c>
+      <c r="CH233" s="4">
+        <v>21</v>
+      </c>
+      <c r="CI233" s="4">
+        <v>26</v>
+      </c>
+      <c r="CJ233" s="4">
+        <v>26</v>
+      </c>
     </row>
-    <row r="234" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>306</v>
       </c>
@@ -56892,8 +63173,35 @@
       <c r="CA234" s="4">
         <v>0</v>
       </c>
+      <c r="CB234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI234" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ234" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>307</v>
       </c>
@@ -57131,8 +63439,35 @@
       <c r="CA235" s="4">
         <v>6</v>
       </c>
+      <c r="CB235" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC235" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD235" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE235" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF235" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG235" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH235" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI235" s="4">
+        <v>11</v>
+      </c>
+      <c r="CJ235" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="236" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>308</v>
       </c>
@@ -57370,8 +63705,35 @@
       <c r="CA236" s="4">
         <v>13</v>
       </c>
+      <c r="CB236" s="4">
+        <v>13</v>
+      </c>
+      <c r="CC236" s="4">
+        <v>13</v>
+      </c>
+      <c r="CD236" s="4">
+        <v>13</v>
+      </c>
+      <c r="CE236" s="4">
+        <v>14</v>
+      </c>
+      <c r="CF236" s="4">
+        <v>14</v>
+      </c>
+      <c r="CG236" s="4">
+        <v>14</v>
+      </c>
+      <c r="CH236" s="4">
+        <v>18</v>
+      </c>
+      <c r="CI236" s="4">
+        <v>18</v>
+      </c>
+      <c r="CJ236" s="4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="237" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>309</v>
       </c>
@@ -57609,8 +63971,35 @@
       <c r="CA237" s="4">
         <v>26</v>
       </c>
+      <c r="CB237" s="4">
+        <v>26</v>
+      </c>
+      <c r="CC237" s="4">
+        <v>26</v>
+      </c>
+      <c r="CD237" s="4">
+        <v>26</v>
+      </c>
+      <c r="CE237" s="4">
+        <v>26</v>
+      </c>
+      <c r="CF237" s="4">
+        <v>30</v>
+      </c>
+      <c r="CG237" s="4">
+        <v>30</v>
+      </c>
+      <c r="CH237" s="4">
+        <v>30</v>
+      </c>
+      <c r="CI237" s="4">
+        <v>31</v>
+      </c>
+      <c r="CJ237" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="238" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>310</v>
       </c>
@@ -57848,8 +64237,35 @@
       <c r="CA238" s="4">
         <v>157</v>
       </c>
+      <c r="CB238" s="4">
+        <v>157</v>
+      </c>
+      <c r="CC238" s="4">
+        <v>157</v>
+      </c>
+      <c r="CD238" s="4">
+        <v>157</v>
+      </c>
+      <c r="CE238" s="4">
+        <v>157</v>
+      </c>
+      <c r="CF238" s="4">
+        <v>157</v>
+      </c>
+      <c r="CG238" s="4">
+        <v>159</v>
+      </c>
+      <c r="CH238" s="4">
+        <v>160</v>
+      </c>
+      <c r="CI238" s="4">
+        <v>160</v>
+      </c>
+      <c r="CJ238" s="4">
+        <v>160</v>
+      </c>
     </row>
-    <row r="239" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>311</v>
       </c>
@@ -58087,8 +64503,35 @@
       <c r="CA239" s="4">
         <v>435</v>
       </c>
+      <c r="CB239" s="4">
+        <v>462</v>
+      </c>
+      <c r="CC239" s="4">
+        <v>474</v>
+      </c>
+      <c r="CD239" s="4">
+        <v>475</v>
+      </c>
+      <c r="CE239" s="4">
+        <v>475</v>
+      </c>
+      <c r="CF239" s="4">
+        <v>716</v>
+      </c>
+      <c r="CG239" s="4">
+        <v>869</v>
+      </c>
+      <c r="CH239" s="4">
+        <v>869</v>
+      </c>
+      <c r="CI239" s="4">
+        <v>945</v>
+      </c>
+      <c r="CJ239" s="4">
+        <v>1455</v>
+      </c>
     </row>
-    <row r="240" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>312</v>
       </c>
@@ -58326,8 +64769,35 @@
       <c r="CA240" s="4">
         <v>45</v>
       </c>
+      <c r="CB240" s="4">
+        <v>47</v>
+      </c>
+      <c r="CC240" s="4">
+        <v>49</v>
+      </c>
+      <c r="CD240" s="4">
+        <v>53</v>
+      </c>
+      <c r="CE240" s="4">
+        <v>53</v>
+      </c>
+      <c r="CF240" s="4">
+        <v>56</v>
+      </c>
+      <c r="CG240" s="4">
+        <v>55</v>
+      </c>
+      <c r="CH240" s="4">
+        <v>56</v>
+      </c>
+      <c r="CI240" s="4">
+        <v>57</v>
+      </c>
+      <c r="CJ240" s="4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="241" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>313</v>
       </c>
@@ -58565,8 +65035,35 @@
       <c r="CA241" s="4">
         <v>0</v>
       </c>
+      <c r="CB241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CC241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CE241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CI241" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ241" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="242" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>314</v>
       </c>
@@ -58804,8 +65301,35 @@
       <c r="CA242" s="4">
         <v>189</v>
       </c>
+      <c r="CB242" s="4">
+        <v>193</v>
+      </c>
+      <c r="CC242" s="4">
+        <v>193</v>
+      </c>
+      <c r="CD242" s="4">
+        <v>193</v>
+      </c>
+      <c r="CE242" s="4">
+        <v>193</v>
+      </c>
+      <c r="CF242" s="4">
+        <v>196</v>
+      </c>
+      <c r="CG242" s="4">
+        <v>197</v>
+      </c>
+      <c r="CH242" s="4">
+        <v>198</v>
+      </c>
+      <c r="CI242" s="4">
+        <v>202</v>
+      </c>
+      <c r="CJ242" s="4">
+        <v>202</v>
+      </c>
     </row>
-    <row r="243" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>315</v>
       </c>
@@ -59043,8 +65567,35 @@
       <c r="CA243" s="4">
         <v>500</v>
       </c>
+      <c r="CB243" s="4">
+        <v>502</v>
+      </c>
+      <c r="CC243" s="4">
+        <v>511</v>
+      </c>
+      <c r="CD243" s="4">
+        <v>516</v>
+      </c>
+      <c r="CE243" s="4">
+        <v>516</v>
+      </c>
+      <c r="CF243" s="4">
+        <v>521</v>
+      </c>
+      <c r="CG243" s="4">
+        <v>524</v>
+      </c>
+      <c r="CH243" s="4">
+        <v>535</v>
+      </c>
+      <c r="CI243" s="4">
+        <v>540</v>
+      </c>
+      <c r="CJ243" s="4">
+        <v>546</v>
+      </c>
     </row>
-    <row r="244" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>316</v>
       </c>
@@ -59282,8 +65833,35 @@
       <c r="CA244" s="4">
         <v>44</v>
       </c>
+      <c r="CB244" s="4">
+        <v>44</v>
+      </c>
+      <c r="CC244" s="4">
+        <v>45</v>
+      </c>
+      <c r="CD244" s="4">
+        <v>50</v>
+      </c>
+      <c r="CE244" s="4">
+        <v>55</v>
+      </c>
+      <c r="CF244" s="4">
+        <v>56</v>
+      </c>
+      <c r="CG244" s="4">
+        <v>57</v>
+      </c>
+      <c r="CH244" s="4">
+        <v>57</v>
+      </c>
+      <c r="CI244" s="4">
+        <v>57</v>
+      </c>
+      <c r="CJ244" s="4">
+        <v>58</v>
+      </c>
     </row>
-    <row r="245" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>317</v>
       </c>
@@ -59521,8 +66099,35 @@
       <c r="CA245" s="4">
         <v>15</v>
       </c>
+      <c r="CB245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CC245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CD245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CE245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CF245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CG245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CH245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CI245" s="4">
+        <v>15</v>
+      </c>
+      <c r="CJ245" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="246" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>318</v>
       </c>
@@ -59760,8 +66365,35 @@
       <c r="CA246" s="4">
         <v>82</v>
       </c>
+      <c r="CB246" s="4">
+        <v>82</v>
+      </c>
+      <c r="CC246" s="4">
+        <v>82</v>
+      </c>
+      <c r="CD246" s="4">
+        <v>82</v>
+      </c>
+      <c r="CE246" s="4">
+        <v>82</v>
+      </c>
+      <c r="CF246" s="4">
+        <v>84</v>
+      </c>
+      <c r="CG246" s="4">
+        <v>84</v>
+      </c>
+      <c r="CH246" s="4">
+        <v>84</v>
+      </c>
+      <c r="CI246" s="4">
+        <v>84</v>
+      </c>
+      <c r="CJ246" s="4">
+        <v>84</v>
+      </c>
     </row>
-    <row r="247" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>319</v>
       </c>
@@ -59999,8 +66631,35 @@
       <c r="CA247" s="4">
         <v>6</v>
       </c>
+      <c r="CB247" s="4">
+        <v>6</v>
+      </c>
+      <c r="CC247" s="4">
+        <v>6</v>
+      </c>
+      <c r="CD247" s="4">
+        <v>6</v>
+      </c>
+      <c r="CE247" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF247" s="4">
+        <v>6</v>
+      </c>
+      <c r="CG247" s="4">
+        <v>6</v>
+      </c>
+      <c r="CH247" s="4">
+        <v>7</v>
+      </c>
+      <c r="CI247" s="4">
+        <v>7</v>
+      </c>
+      <c r="CJ247" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="248" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>320</v>
       </c>
@@ -60238,8 +66897,35 @@
       <c r="CA248" s="4">
         <v>14</v>
       </c>
+      <c r="CB248" s="4">
+        <v>14</v>
+      </c>
+      <c r="CC248" s="4">
+        <v>14</v>
+      </c>
+      <c r="CD248" s="4">
+        <v>14</v>
+      </c>
+      <c r="CE248" s="4">
+        <v>14</v>
+      </c>
+      <c r="CF248" s="4">
+        <v>15</v>
+      </c>
+      <c r="CG248" s="4">
+        <v>14</v>
+      </c>
+      <c r="CH248" s="4">
+        <v>15</v>
+      </c>
+      <c r="CI248" s="4">
+        <v>16</v>
+      </c>
+      <c r="CJ248" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="249" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>321</v>
       </c>
@@ -60477,8 +67163,35 @@
       <c r="CA249" s="4">
         <v>520</v>
       </c>
+      <c r="CB249" s="4">
+        <v>528</v>
+      </c>
+      <c r="CC249" s="4">
+        <v>541</v>
+      </c>
+      <c r="CD249" s="4">
+        <v>553</v>
+      </c>
+      <c r="CE249" s="4">
+        <v>565</v>
+      </c>
+      <c r="CF249" s="4">
+        <v>584</v>
+      </c>
+      <c r="CG249" s="4">
+        <v>588</v>
+      </c>
+      <c r="CH249" s="4">
+        <v>596</v>
+      </c>
+      <c r="CI249" s="4">
+        <v>605</v>
+      </c>
+      <c r="CJ249" s="4">
+        <v>612</v>
+      </c>
     </row>
-    <row r="250" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>322</v>
       </c>
@@ -60716,8 +67429,35 @@
       <c r="CA250" s="4">
         <v>38</v>
       </c>
+      <c r="CB250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CC250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CD250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CE250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CF250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CG250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CH250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CI250" s="4">
+        <v>38</v>
+      </c>
+      <c r="CJ250" s="4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="251" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>323</v>
       </c>
@@ -60955,8 +67695,35 @@
       <c r="CA251" s="4">
         <v>3</v>
       </c>
+      <c r="CB251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI251" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ251" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="252" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>324</v>
       </c>
@@ -61194,8 +67961,35 @@
       <c r="CA252" s="4">
         <v>42</v>
       </c>
+      <c r="CB252" s="4">
+        <v>42</v>
+      </c>
+      <c r="CC252" s="4">
+        <v>42</v>
+      </c>
+      <c r="CD252" s="4">
+        <v>42</v>
+      </c>
+      <c r="CE252" s="4">
+        <v>45</v>
+      </c>
+      <c r="CF252" s="4">
+        <v>45</v>
+      </c>
+      <c r="CG252" s="4">
+        <v>45</v>
+      </c>
+      <c r="CH252" s="4">
+        <v>45</v>
+      </c>
+      <c r="CI252" s="4">
+        <v>46</v>
+      </c>
+      <c r="CJ252" s="4">
+        <v>46</v>
+      </c>
     </row>
-    <row r="253" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>325</v>
       </c>
@@ -61433,8 +68227,35 @@
       <c r="CA253" s="4">
         <v>22</v>
       </c>
+      <c r="CB253" s="4">
+        <v>23</v>
+      </c>
+      <c r="CC253" s="4">
+        <v>23</v>
+      </c>
+      <c r="CD253" s="4">
+        <v>23</v>
+      </c>
+      <c r="CE253" s="4">
+        <v>23</v>
+      </c>
+      <c r="CF253" s="4">
+        <v>25</v>
+      </c>
+      <c r="CG253" s="4">
+        <v>26</v>
+      </c>
+      <c r="CH253" s="4">
+        <v>27</v>
+      </c>
+      <c r="CI253" s="4">
+        <v>29</v>
+      </c>
+      <c r="CJ253" s="4">
+        <v>29</v>
+      </c>
     </row>
-    <row r="254" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>326</v>
       </c>
@@ -61672,8 +68493,35 @@
       <c r="CA254" s="4">
         <v>3</v>
       </c>
+      <c r="CB254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CC254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CD254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CE254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CF254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CG254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CH254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CI254" s="4">
+        <v>3</v>
+      </c>
+      <c r="CJ254" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="255" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>327</v>
       </c>
@@ -61911,8 +68759,35 @@
       <c r="CA255" s="4">
         <v>4</v>
       </c>
+      <c r="CB255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CC255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CI255" s="4">
+        <v>4</v>
+      </c>
+      <c r="CJ255" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="256" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>328</v>
       </c>
@@ -62150,8 +69025,35 @@
       <c r="CA256" s="4">
         <v>8</v>
       </c>
+      <c r="CB256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CC256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CD256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CE256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CF256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CG256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CH256" s="4">
+        <v>8</v>
+      </c>
+      <c r="CI256" s="4">
+        <v>9</v>
+      </c>
+      <c r="CJ256" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="257" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>329</v>
       </c>
@@ -62389,8 +69291,35 @@
       <c r="CA257" s="4">
         <v>11</v>
       </c>
+      <c r="CB257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CC257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CD257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CE257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CF257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CG257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CH257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CI257" s="4">
+        <v>11</v>
+      </c>
+      <c r="CJ257" s="4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="258" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>330</v>
       </c>
@@ -62628,8 +69557,35 @@
       <c r="CA258" s="4">
         <v>53449</v>
       </c>
+      <c r="CB258" s="4">
+        <v>54509</v>
+      </c>
+      <c r="CC258" s="4">
+        <v>55348</v>
+      </c>
+      <c r="CD258" s="4">
+        <v>55971</v>
+      </c>
+      <c r="CE258" s="4">
+        <v>56560</v>
+      </c>
+      <c r="CF258" s="4">
+        <v>57921</v>
+      </c>
+      <c r="CG258" s="4">
+        <v>59776</v>
+      </c>
+      <c r="CH258" s="4">
+        <v>61006</v>
+      </c>
+      <c r="CI258" s="4">
+        <v>62338</v>
+      </c>
+      <c r="CJ258" s="4">
+        <v>64287</v>
+      </c>
     </row>
-    <row r="259" spans="1:79" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:88" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="3"/>
       <c r="C259" s="4"/>
@@ -62707,14 +69663,19 @@
       <c r="BW259" s="4"/>
       <c r="BX259" s="4"/>
       <c r="BY259" s="4"/>
-      <c r="BZ259" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="CA259" s="4" t="s">
-        <v>331</v>
-      </c>
+      <c r="BZ259" s="4"/>
+      <c r="CA259" s="4"/>
+      <c r="CB259" s="4"/>
+      <c r="CC259" s="4"/>
+      <c r="CD259" s="4"/>
+      <c r="CE259" s="4"/>
+      <c r="CF259" s="4"/>
+      <c r="CG259" s="4"/>
+      <c r="CH259" s="4"/>
+      <c r="CI259" s="4"/>
+      <c r="CJ259" s="4"/>
     </row>
-    <row r="260" spans="1:79" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:88" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>332</v>
       </c>
@@ -62952,45 +69913,72 @@
       <c r="CA260" s="4">
         <v>226</v>
       </c>
+      <c r="CB260" s="4">
+        <v>227</v>
+      </c>
+      <c r="CC260" s="4">
+        <v>227</v>
+      </c>
+      <c r="CD260" s="4">
+        <v>228</v>
+      </c>
+      <c r="CE260" s="4">
+        <v>229</v>
+      </c>
+      <c r="CF260" s="4">
+        <v>230</v>
+      </c>
+      <c r="CG260" s="4">
+        <v>230</v>
+      </c>
+      <c r="CH260" s="4">
+        <v>230</v>
+      </c>
+      <c r="CI260" s="4">
+        <v>231</v>
+      </c>
+      <c r="CJ260" s="4">
+        <v>231</v>
+      </c>
     </row>
-    <row r="262" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="263" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="264" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="265" spans="1:79" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
+    <row r="265" spans="1:88" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="266" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="266" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+    <row r="267" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="267" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="268" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>The SAS System</oddHeader>
   </headerFooter>

--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C8B1AA5-8DEF-4E40-B529-DF37EC0E9404}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{261E2A7B-C865-489D-93C4-1854ECE99E4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="376">
   <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 06/16/20 at 9:30 AM CST</t>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 06/21/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -34,401 +34,401 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-04</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-05</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-06</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-09</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-10</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-11</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-12</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-13</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-15</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-16</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-17</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-18</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-19</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-20</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-21</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-22</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-23</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-24</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-25</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-26</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-27</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-28</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-29</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-30</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-31</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-01</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-02</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-03</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-04</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-05</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-06</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-07</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-08</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-09</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-10</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-11</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-12</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-13</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-14</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-15</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-16</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-17</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-18</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-19</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-20</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-21</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-22</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-23</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-24</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-25</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-26</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-27</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-28</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-29</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-30</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-01</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-02</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-03</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-04</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-05</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-06</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-07</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-08</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-09</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-10</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-11</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-12</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-13</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-14</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-15</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-16</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-17</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-18</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-19</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-20</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-21</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-22</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-23</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-24</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-25</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-26</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-27</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-28</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-29</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-30</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-31</t>
   </si>
   <si>
@@ -478,6 +478,21 @@
   </si>
   <si>
     <t>Cases 06-16</t>
+  </si>
+  <si>
+    <t>Cases 06-17</t>
+  </si>
+  <si>
+    <t>Cases 06-18</t>
+  </si>
+  <si>
+    <t>Cases 06-19</t>
+  </si>
+  <si>
+    <t>Cases 06-20</t>
+  </si>
+  <si>
+    <t>Cases 06-21</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1251,7 +1266,7 @@
     <t>Counties Reporting Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 </t>
   </si>
   <si>
@@ -1293,20 +1308,17 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1665,29 +1677,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ268"/>
+  <dimension ref="A1:DE268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
+      <selection activeCell="DD263" sqref="DD263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="104" width="12" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="109" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:104" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:104" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2000,10 +2012,25 @@
       <c r="CZ3" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="DA3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4">
         <v>58199</v>
@@ -2314,10 +2341,25 @@
       <c r="CZ4">
         <v>989</v>
       </c>
+      <c r="DA4">
+        <v>990</v>
+      </c>
+      <c r="DB4">
+        <v>1003</v>
+      </c>
+      <c r="DC4">
+        <v>1007</v>
+      </c>
+      <c r="DD4">
+        <v>1006</v>
+      </c>
+      <c r="DE4">
+        <v>1006</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4">
         <v>22269</v>
@@ -2628,10 +2670,25 @@
       <c r="CZ5">
         <v>30</v>
       </c>
+      <c r="DA5">
+        <v>30</v>
+      </c>
+      <c r="DB5">
+        <v>33</v>
+      </c>
+      <c r="DC5">
+        <v>35</v>
+      </c>
+      <c r="DD5">
+        <v>42</v>
+      </c>
+      <c r="DE5">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <v>90437</v>
@@ -2942,10 +2999,25 @@
       <c r="CZ6">
         <v>331</v>
       </c>
+      <c r="DA6">
+        <v>352</v>
+      </c>
+      <c r="DB6">
+        <v>352</v>
+      </c>
+      <c r="DC6">
+        <v>366</v>
+      </c>
+      <c r="DD6">
+        <v>380</v>
+      </c>
+      <c r="DE6">
+        <v>380</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4">
         <v>27699</v>
@@ -3256,10 +3328,25 @@
       <c r="CZ7">
         <v>7</v>
       </c>
+      <c r="DA7">
+        <v>7</v>
+      </c>
+      <c r="DB7">
+        <v>7</v>
+      </c>
+      <c r="DC7">
+        <v>7</v>
+      </c>
+      <c r="DD7">
+        <v>7</v>
+      </c>
+      <c r="DE7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4">
         <v>8344</v>
@@ -3570,10 +3657,25 @@
       <c r="CZ8">
         <v>3</v>
       </c>
+      <c r="DA8">
+        <v>3</v>
+      </c>
+      <c r="DB8">
+        <v>3</v>
+      </c>
+      <c r="DC8">
+        <v>3</v>
+      </c>
+      <c r="DD8">
+        <v>3</v>
+      </c>
+      <c r="DE8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4">
         <v>1948</v>
@@ -3884,10 +3986,25 @@
       <c r="CZ9">
         <v>2</v>
       </c>
+      <c r="DA9">
+        <v>3</v>
+      </c>
+      <c r="DB9">
+        <v>3</v>
+      </c>
+      <c r="DC9">
+        <v>3</v>
+      </c>
+      <c r="DD9">
+        <v>3</v>
+      </c>
+      <c r="DE9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4">
         <v>51831</v>
@@ -4198,10 +4315,25 @@
       <c r="CZ10">
         <v>42</v>
       </c>
+      <c r="DA10">
+        <v>42</v>
+      </c>
+      <c r="DB10">
+        <v>45</v>
+      </c>
+      <c r="DC10">
+        <v>62</v>
+      </c>
+      <c r="DD10">
+        <v>69</v>
+      </c>
+      <c r="DE10">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4">
         <v>30402</v>
@@ -4512,10 +4644,25 @@
       <c r="CZ11">
         <v>36</v>
       </c>
+      <c r="DA11">
+        <v>37</v>
+      </c>
+      <c r="DB11">
+        <v>42</v>
+      </c>
+      <c r="DC11">
+        <v>42</v>
+      </c>
+      <c r="DD11">
+        <v>43</v>
+      </c>
+      <c r="DE11">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4">
         <v>7692</v>
@@ -4826,10 +4973,25 @@
       <c r="CZ12">
         <v>40</v>
       </c>
+      <c r="DA12">
+        <v>52</v>
+      </c>
+      <c r="DB12">
+        <v>83</v>
+      </c>
+      <c r="DC12">
+        <v>83</v>
+      </c>
+      <c r="DD12">
+        <v>83</v>
+      </c>
+      <c r="DE12">
+        <v>83</v>
+      </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4">
         <v>21246</v>
@@ -5140,10 +5302,25 @@
       <c r="CZ13">
         <v>7</v>
       </c>
+      <c r="DA13">
+        <v>7</v>
+      </c>
+      <c r="DB13">
+        <v>8</v>
+      </c>
+      <c r="DC13">
+        <v>13</v>
+      </c>
+      <c r="DD13">
+        <v>15</v>
+      </c>
+      <c r="DE13">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B14" s="4">
         <v>86105</v>
@@ -5454,10 +5631,25 @@
       <c r="CZ14">
         <v>313</v>
       </c>
+      <c r="DA14">
+        <v>338</v>
+      </c>
+      <c r="DB14">
+        <v>346</v>
+      </c>
+      <c r="DC14">
+        <v>338</v>
+      </c>
+      <c r="DD14">
+        <v>340</v>
+      </c>
+      <c r="DE14">
+        <v>340</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B15" s="4">
         <v>3624</v>
@@ -5768,10 +5960,25 @@
       <c r="CZ15">
         <v>1</v>
       </c>
+      <c r="DA15">
+        <v>1</v>
+      </c>
+      <c r="DB15">
+        <v>1</v>
+      </c>
+      <c r="DC15">
+        <v>1</v>
+      </c>
+      <c r="DD15">
+        <v>1</v>
+      </c>
+      <c r="DE15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B16" s="4">
         <v>34445</v>
@@ -6082,10 +6289,25 @@
       <c r="CZ16">
         <v>32</v>
       </c>
+      <c r="DA16">
+        <v>32</v>
+      </c>
+      <c r="DB16">
+        <v>32</v>
+      </c>
+      <c r="DC16">
+        <v>33</v>
+      </c>
+      <c r="DD16">
+        <v>34</v>
+      </c>
+      <c r="DE16">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B17" s="4">
         <v>353629</v>
@@ -6396,10 +6618,25 @@
       <c r="CZ17">
         <v>651</v>
       </c>
+      <c r="DA17">
+        <v>672</v>
+      </c>
+      <c r="DB17">
+        <v>722</v>
+      </c>
+      <c r="DC17">
+        <v>769</v>
+      </c>
+      <c r="DD17">
+        <v>818</v>
+      </c>
+      <c r="DE17">
+        <v>822</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4">
         <v>2093502</v>
@@ -6710,10 +6947,25 @@
       <c r="CZ18">
         <v>4437</v>
       </c>
+      <c r="DA18">
+        <v>4876</v>
+      </c>
+      <c r="DB18">
+        <v>5142</v>
+      </c>
+      <c r="DC18">
+        <v>5550</v>
+      </c>
+      <c r="DD18">
+        <v>5962</v>
+      </c>
+      <c r="DE18">
+        <v>6344</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4">
         <v>11504</v>
@@ -7024,10 +7276,25 @@
       <c r="CZ19">
         <v>11</v>
       </c>
+      <c r="DA19">
+        <v>12</v>
+      </c>
+      <c r="DB19">
+        <v>13</v>
+      </c>
+      <c r="DC19">
+        <v>14</v>
+      </c>
+      <c r="DD19">
+        <v>14</v>
+      </c>
+      <c r="DE19">
+        <v>14</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4">
         <v>685</v>
@@ -7338,10 +7605,25 @@
       <c r="CZ20">
         <v>0</v>
       </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>17765</v>
@@ -7652,10 +7934,25 @@
       <c r="CZ21">
         <v>7</v>
       </c>
+      <c r="DA21">
+        <v>7</v>
+      </c>
+      <c r="DB21">
+        <v>7</v>
+      </c>
+      <c r="DC21">
+        <v>7</v>
+      </c>
+      <c r="DD21">
+        <v>7</v>
+      </c>
+      <c r="DE21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4">
         <v>92570</v>
@@ -7966,10 +8263,25 @@
       <c r="CZ22">
         <v>377</v>
       </c>
+      <c r="DA22">
+        <v>381</v>
+      </c>
+      <c r="DB22">
+        <v>384</v>
+      </c>
+      <c r="DC22">
+        <v>394</v>
+      </c>
+      <c r="DD22">
+        <v>398</v>
+      </c>
+      <c r="DE22">
+        <v>400</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B23" s="4">
         <v>375869</v>
@@ -8280,10 +8592,25 @@
       <c r="CZ23">
         <v>1495</v>
       </c>
+      <c r="DA23">
+        <v>1525</v>
+      </c>
+      <c r="DB23">
+        <v>1558</v>
+      </c>
+      <c r="DC23">
+        <v>1609</v>
+      </c>
+      <c r="DD23">
+        <v>1669</v>
+      </c>
+      <c r="DE23">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B24" s="4">
         <v>229410</v>
@@ -8594,10 +8921,25 @@
       <c r="CZ24">
         <v>821</v>
       </c>
+      <c r="DA24">
+        <v>880</v>
+      </c>
+      <c r="DB24">
+        <v>1025</v>
+      </c>
+      <c r="DC24">
+        <v>1095</v>
+      </c>
+      <c r="DD24">
+        <v>1163</v>
+      </c>
+      <c r="DE24">
+        <v>1225</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B25" s="4">
         <v>9133</v>
@@ -8908,10 +9250,25 @@
       <c r="CZ25">
         <v>13</v>
       </c>
+      <c r="DA25">
+        <v>18</v>
+      </c>
+      <c r="DB25">
+        <v>22</v>
+      </c>
+      <c r="DC25">
+        <v>24</v>
+      </c>
+      <c r="DD25">
+        <v>24</v>
+      </c>
+      <c r="DE25">
+        <v>24</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B26" s="4">
         <v>1568</v>
@@ -9222,10 +9579,25 @@
       <c r="CZ26">
         <v>1</v>
       </c>
+      <c r="DA26">
+        <v>1</v>
+      </c>
+      <c r="DB26">
+        <v>1</v>
+      </c>
+      <c r="DC26">
+        <v>1</v>
+      </c>
+      <c r="DD26">
+        <v>1</v>
+      </c>
+      <c r="DE26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B27" s="4">
         <v>7175</v>
@@ -9536,10 +9908,25 @@
       <c r="CZ27">
         <v>2</v>
       </c>
+      <c r="DA27">
+        <v>2</v>
+      </c>
+      <c r="DB27">
+        <v>2</v>
+      </c>
+      <c r="DC27">
+        <v>2</v>
+      </c>
+      <c r="DD27">
+        <v>2</v>
+      </c>
+      <c r="DE27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B28" s="4">
         <v>38923</v>
@@ -9850,10 +10237,25 @@
       <c r="CZ28">
         <v>61</v>
       </c>
+      <c r="DA28">
+        <v>61</v>
+      </c>
+      <c r="DB28">
+        <v>61</v>
+      </c>
+      <c r="DC28">
+        <v>62</v>
+      </c>
+      <c r="DD28">
+        <v>62</v>
+      </c>
+      <c r="DE28">
+        <v>62</v>
+      </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4">
         <v>17718</v>
@@ -10164,10 +10566,25 @@
       <c r="CZ29">
         <v>45</v>
       </c>
+      <c r="DA29">
+        <v>48</v>
+      </c>
+      <c r="DB29">
+        <v>53</v>
+      </c>
+      <c r="DC29">
+        <v>53</v>
+      </c>
+      <c r="DD29">
+        <v>54</v>
+      </c>
+      <c r="DE29">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4">
         <v>48196</v>
@@ -10478,10 +10895,25 @@
       <c r="CZ30">
         <v>62</v>
       </c>
+      <c r="DA30">
+        <v>66</v>
+      </c>
+      <c r="DB30">
+        <v>75</v>
+      </c>
+      <c r="DC30">
+        <v>79</v>
+      </c>
+      <c r="DD30">
+        <v>80</v>
+      </c>
+      <c r="DE30">
+        <v>80</v>
+      </c>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B31" s="4">
         <v>44284</v>
@@ -10792,10 +11224,25 @@
       <c r="CZ31">
         <v>157</v>
       </c>
+      <c r="DA31">
+        <v>170</v>
+      </c>
+      <c r="DB31">
+        <v>190</v>
+      </c>
+      <c r="DC31">
+        <v>197</v>
+      </c>
+      <c r="DD31">
+        <v>208</v>
+      </c>
+      <c r="DE31">
+        <v>216</v>
+      </c>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B32" s="4">
         <v>22840</v>
@@ -11106,10 +11553,25 @@
       <c r="CZ32">
         <v>46</v>
       </c>
+      <c r="DA32">
+        <v>46</v>
+      </c>
+      <c r="DB32">
+        <v>46</v>
+      </c>
+      <c r="DC32">
+        <v>52</v>
+      </c>
+      <c r="DD32">
+        <v>55</v>
+      </c>
+      <c r="DE32">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4">
         <v>13456</v>
@@ -11420,10 +11882,25 @@
       <c r="CZ33">
         <v>13</v>
       </c>
+      <c r="DA33">
+        <v>13</v>
+      </c>
+      <c r="DB33">
+        <v>13</v>
+      </c>
+      <c r="DC33">
+        <v>13</v>
+      </c>
+      <c r="DD33">
+        <v>13</v>
+      </c>
+      <c r="DE33">
+        <v>13</v>
+      </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B34" s="4">
         <v>427881</v>
@@ -11734,10 +12211,25 @@
       <c r="CZ34">
         <v>1178</v>
       </c>
+      <c r="DA34">
+        <v>1236</v>
+      </c>
+      <c r="DB34">
+        <v>1301</v>
+      </c>
+      <c r="DC34">
+        <v>1371</v>
+      </c>
+      <c r="DD34">
+        <v>1454</v>
+      </c>
+      <c r="DE34">
+        <v>1546</v>
+      </c>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B35" s="4">
         <v>13322</v>
@@ -12048,10 +12540,25 @@
       <c r="CZ35">
         <v>109</v>
       </c>
+      <c r="DA35">
+        <v>109</v>
+      </c>
+      <c r="DB35">
+        <v>109</v>
+      </c>
+      <c r="DC35">
+        <v>109</v>
+      </c>
+      <c r="DD35">
+        <v>110</v>
+      </c>
+      <c r="DE35">
+        <v>110</v>
+      </c>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B36" s="4">
         <v>5799</v>
@@ -12362,10 +12869,25 @@
       <c r="CZ36">
         <v>6</v>
       </c>
+      <c r="DA36">
+        <v>6</v>
+      </c>
+      <c r="DB36">
+        <v>6</v>
+      </c>
+      <c r="DC36">
+        <v>6</v>
+      </c>
+      <c r="DD36">
+        <v>6</v>
+      </c>
+      <c r="DE36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B37" s="4">
         <v>30327</v>
@@ -12676,10 +13198,25 @@
       <c r="CZ37">
         <v>34</v>
       </c>
+      <c r="DA37">
+        <v>35</v>
+      </c>
+      <c r="DB37">
+        <v>36</v>
+      </c>
+      <c r="DC37">
+        <v>36</v>
+      </c>
+      <c r="DD37">
+        <v>36</v>
+      </c>
+      <c r="DE37">
+        <v>36</v>
+      </c>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B38" s="4">
         <v>7103</v>
@@ -12990,10 +13527,25 @@
       <c r="CZ38">
         <v>48</v>
       </c>
+      <c r="DA38">
+        <v>48</v>
+      </c>
+      <c r="DB38">
+        <v>50</v>
+      </c>
+      <c r="DC38">
+        <v>51</v>
+      </c>
+      <c r="DD38">
+        <v>51</v>
+      </c>
+      <c r="DE38">
+        <v>51</v>
+      </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B39" s="4">
         <v>42320</v>
@@ -13304,10 +13856,25 @@
       <c r="CZ39">
         <v>116</v>
       </c>
+      <c r="DA39">
+        <v>128</v>
+      </c>
+      <c r="DB39">
+        <v>130</v>
+      </c>
+      <c r="DC39">
+        <v>138</v>
+      </c>
+      <c r="DD39">
+        <v>149</v>
+      </c>
+      <c r="DE39">
+        <v>156</v>
+      </c>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B40" s="4">
         <v>52178</v>
@@ -13618,10 +14185,25 @@
       <c r="CZ40">
         <v>61</v>
       </c>
+      <c r="DA40">
+        <v>61</v>
+      </c>
+      <c r="DB40">
+        <v>65</v>
+      </c>
+      <c r="DC40">
+        <v>67</v>
+      </c>
+      <c r="DD40">
+        <v>67</v>
+      </c>
+      <c r="DE40">
+        <v>67</v>
+      </c>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B41" s="4">
         <v>7062</v>
@@ -13932,10 +14514,25 @@
       <c r="CZ41">
         <v>6</v>
       </c>
+      <c r="DA41">
+        <v>6</v>
+      </c>
+      <c r="DB41">
+        <v>6</v>
+      </c>
+      <c r="DC41">
+        <v>6</v>
+      </c>
+      <c r="DD41">
+        <v>6</v>
+      </c>
+      <c r="DE41">
+        <v>6</v>
+      </c>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B42" s="4">
         <v>9787</v>
@@ -14246,10 +14843,25 @@
       <c r="CZ42">
         <v>5</v>
       </c>
+      <c r="DA42">
+        <v>5</v>
+      </c>
+      <c r="DB42">
+        <v>5</v>
+      </c>
+      <c r="DC42">
+        <v>5</v>
+      </c>
+      <c r="DD42">
+        <v>5</v>
+      </c>
+      <c r="DE42">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B43" s="4">
         <v>3348</v>
@@ -14560,10 +15172,25 @@
       <c r="CZ43">
         <v>1</v>
       </c>
+      <c r="DA43">
+        <v>1</v>
+      </c>
+      <c r="DB43">
+        <v>1</v>
+      </c>
+      <c r="DC43">
+        <v>1</v>
+      </c>
+      <c r="DD43">
+        <v>1</v>
+      </c>
+      <c r="DE43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B44" s="4">
         <v>3215</v>
@@ -14874,10 +15501,25 @@
       <c r="CZ44">
         <v>4</v>
       </c>
+      <c r="DA44">
+        <v>4</v>
+      </c>
+      <c r="DB44">
+        <v>4</v>
+      </c>
+      <c r="DC44">
+        <v>4</v>
+      </c>
+      <c r="DD44">
+        <v>4</v>
+      </c>
+      <c r="DE44">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B45" s="4">
         <v>8478</v>
@@ -15188,10 +15830,25 @@
       <c r="CZ45">
         <v>3</v>
       </c>
+      <c r="DA45">
+        <v>3</v>
+      </c>
+      <c r="DB45">
+        <v>3</v>
+      </c>
+      <c r="DC45">
+        <v>3</v>
+      </c>
+      <c r="DD45">
+        <v>3</v>
+      </c>
+      <c r="DE45">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B46" s="4">
         <v>1039369</v>
@@ -15502,10 +16159,25 @@
       <c r="CZ46">
         <v>1787</v>
       </c>
+      <c r="DA46">
+        <v>1866</v>
+      </c>
+      <c r="DB46">
+        <v>1967</v>
+      </c>
+      <c r="DC46">
+        <v>2026</v>
+      </c>
+      <c r="DD46">
+        <v>2064</v>
+      </c>
+      <c r="DE46">
+        <v>2189</v>
+      </c>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B47" s="4">
         <v>3210</v>
@@ -15816,10 +16488,25 @@
       <c r="CZ47">
         <v>5</v>
       </c>
+      <c r="DA47">
+        <v>5</v>
+      </c>
+      <c r="DB47">
+        <v>5</v>
+      </c>
+      <c r="DC47">
+        <v>5</v>
+      </c>
+      <c r="DD47">
+        <v>5</v>
+      </c>
+      <c r="DE47">
+        <v>5</v>
+      </c>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B48" s="4">
         <v>21273</v>
@@ -16130,10 +16817,25 @@
       <c r="CZ48">
         <v>36</v>
       </c>
+      <c r="DA48">
+        <v>41</v>
+      </c>
+      <c r="DB48">
+        <v>44</v>
+      </c>
+      <c r="DC48">
+        <v>46</v>
+      </c>
+      <c r="DD48">
+        <v>55</v>
+      </c>
+      <c r="DE48">
+        <v>55</v>
+      </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B49" s="4">
         <v>147330</v>
@@ -16444,10 +17146,25 @@
       <c r="CZ49">
         <v>159</v>
       </c>
+      <c r="DA49">
+        <v>197</v>
+      </c>
+      <c r="DB49">
+        <v>207</v>
+      </c>
+      <c r="DC49">
+        <v>219</v>
+      </c>
+      <c r="DD49">
+        <v>240</v>
+      </c>
+      <c r="DE49">
+        <v>280</v>
+      </c>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B50" s="4">
         <v>13075</v>
@@ -16758,10 +17475,25 @@
       <c r="CZ50">
         <v>14</v>
       </c>
+      <c r="DA50">
+        <v>14</v>
+      </c>
+      <c r="DB50">
+        <v>14</v>
+      </c>
+      <c r="DC50">
+        <v>14</v>
+      </c>
+      <c r="DD50">
+        <v>14</v>
+      </c>
+      <c r="DE50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B51" s="4">
         <v>4147</v>
@@ -17072,10 +17804,25 @@
       <c r="CZ51">
         <v>1</v>
       </c>
+      <c r="DA51">
+        <v>1</v>
+      </c>
+      <c r="DB51">
+        <v>1</v>
+      </c>
+      <c r="DC51">
+        <v>1</v>
+      </c>
+      <c r="DD51">
+        <v>2</v>
+      </c>
+      <c r="DE51">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4">
         <v>39727</v>
@@ -17386,10 +18133,25 @@
       <c r="CZ52">
         <v>24</v>
       </c>
+      <c r="DA52">
+        <v>26</v>
+      </c>
+      <c r="DB52">
+        <v>27</v>
+      </c>
+      <c r="DC52">
+        <v>27</v>
+      </c>
+      <c r="DD52">
+        <v>27</v>
+      </c>
+      <c r="DE52">
+        <v>27</v>
+      </c>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B53" s="4">
         <v>78317</v>
@@ -17700,10 +18462,25 @@
       <c r="CZ53">
         <v>300</v>
       </c>
+      <c r="DA53">
+        <v>303</v>
+      </c>
+      <c r="DB53">
+        <v>304</v>
+      </c>
+      <c r="DC53">
+        <v>305</v>
+      </c>
+      <c r="DD53">
+        <v>305</v>
+      </c>
+      <c r="DE53">
+        <v>310</v>
+      </c>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B54" s="4">
         <v>1510</v>
@@ -18014,10 +18791,25 @@
       <c r="CZ54">
         <v>4</v>
       </c>
+      <c r="DA54">
+        <v>4</v>
+      </c>
+      <c r="DB54">
+        <v>4</v>
+      </c>
+      <c r="DC54">
+        <v>4</v>
+      </c>
+      <c r="DD54">
+        <v>4</v>
+      </c>
+      <c r="DE54">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4">
         <v>6209</v>
@@ -18328,10 +19120,25 @@
       <c r="CZ55">
         <v>39</v>
       </c>
+      <c r="DA55">
+        <v>39</v>
+      </c>
+      <c r="DB55">
+        <v>45</v>
+      </c>
+      <c r="DC55">
+        <v>45</v>
+      </c>
+      <c r="DD55">
+        <v>46</v>
+      </c>
+      <c r="DE55">
+        <v>46</v>
+      </c>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4">
         <v>4040</v>
@@ -18642,10 +19449,25 @@
       <c r="CZ56">
         <v>5</v>
       </c>
+      <c r="DA56">
+        <v>5</v>
+      </c>
+      <c r="DB56">
+        <v>5</v>
+      </c>
+      <c r="DC56">
+        <v>5</v>
+      </c>
+      <c r="DD56">
+        <v>5</v>
+      </c>
+      <c r="DE56">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B57" s="4">
         <v>6464</v>
@@ -18956,10 +19778,25 @@
       <c r="CZ57">
         <v>7</v>
       </c>
+      <c r="DA57">
+        <v>8</v>
+      </c>
+      <c r="DB57">
+        <v>8</v>
+      </c>
+      <c r="DC57">
+        <v>8</v>
+      </c>
+      <c r="DD57">
+        <v>8</v>
+      </c>
+      <c r="DE57">
+        <v>8</v>
+      </c>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4">
         <v>2245</v>
@@ -19270,10 +20107,25 @@
       <c r="CZ58">
         <v>0</v>
       </c>
+      <c r="DA58">
+        <v>0</v>
+      </c>
+      <c r="DB58">
+        <v>0</v>
+      </c>
+      <c r="DC58">
+        <v>0</v>
+      </c>
+      <c r="DD58">
+        <v>1</v>
+      </c>
+      <c r="DE58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B59" s="4">
         <v>7237</v>
@@ -19584,10 +20436,25 @@
       <c r="CZ59">
         <v>36</v>
       </c>
+      <c r="DA59">
+        <v>39</v>
+      </c>
+      <c r="DB59">
+        <v>45</v>
+      </c>
+      <c r="DC59">
+        <v>49</v>
+      </c>
+      <c r="DD59">
+        <v>49</v>
+      </c>
+      <c r="DE59">
+        <v>49</v>
+      </c>
     </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B60" s="4">
         <v>2734111</v>
@@ -19898,10 +20765,25 @@
       <c r="CZ60">
         <v>14537</v>
       </c>
+      <c r="DA60">
+        <v>14843</v>
+      </c>
+      <c r="DB60">
+        <v>15256</v>
+      </c>
+      <c r="DC60">
+        <v>15648</v>
+      </c>
+      <c r="DD60">
+        <v>16042</v>
+      </c>
+      <c r="DE60">
+        <v>16437</v>
+      </c>
     </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4">
         <v>13592</v>
@@ -20212,10 +21094,25 @@
       <c r="CZ61">
         <v>45</v>
       </c>
+      <c r="DA61">
+        <v>45</v>
+      </c>
+      <c r="DB61">
+        <v>45</v>
+      </c>
+      <c r="DC61">
+        <v>45</v>
+      </c>
+      <c r="DD61">
+        <v>45</v>
+      </c>
+      <c r="DE61">
+        <v>45</v>
+      </c>
     </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B62" s="4">
         <v>18143</v>
@@ -20526,10 +21423,25 @@
       <c r="CZ62">
         <v>222</v>
       </c>
+      <c r="DA62">
+        <v>223</v>
+      </c>
+      <c r="DB62">
+        <v>226</v>
+      </c>
+      <c r="DC62">
+        <v>233</v>
+      </c>
+      <c r="DD62">
+        <v>233</v>
+      </c>
+      <c r="DE62">
+        <v>233</v>
+      </c>
     </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B63" s="4">
         <v>5367</v>
@@ -20840,10 +21752,25 @@
       <c r="CZ63">
         <v>2</v>
       </c>
+      <c r="DA63">
+        <v>3</v>
+      </c>
+      <c r="DB63">
+        <v>3</v>
+      </c>
+      <c r="DC63">
+        <v>4</v>
+      </c>
+      <c r="DD63">
+        <v>4</v>
+      </c>
+      <c r="DE63">
+        <v>4</v>
+      </c>
     </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B64" s="4">
         <v>897953</v>
@@ -21154,10 +22081,25 @@
       <c r="CZ64">
         <v>1772</v>
       </c>
+      <c r="DA64">
+        <v>1812</v>
+      </c>
+      <c r="DB64">
+        <v>1893</v>
+      </c>
+      <c r="DC64">
+        <v>1980</v>
+      </c>
+      <c r="DD64">
+        <v>2054</v>
+      </c>
+      <c r="DE64">
+        <v>2113</v>
+      </c>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B65" s="4">
         <v>21737</v>
@@ -21468,10 +22410,25 @@
       <c r="CZ65">
         <v>31</v>
       </c>
+      <c r="DA65">
+        <v>31</v>
+      </c>
+      <c r="DB65">
+        <v>35</v>
+      </c>
+      <c r="DC65">
+        <v>35</v>
+      </c>
+      <c r="DD65">
+        <v>37</v>
+      </c>
+      <c r="DE65">
+        <v>37</v>
+      </c>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B66" s="4">
         <v>2174</v>
@@ -21782,10 +22739,25 @@
       <c r="CZ66">
         <v>2</v>
       </c>
+      <c r="DA66">
+        <v>2</v>
+      </c>
+      <c r="DB66">
+        <v>2</v>
+      </c>
+      <c r="DC66">
+        <v>2</v>
+      </c>
+      <c r="DD66">
+        <v>2</v>
+      </c>
+      <c r="DE66">
+        <v>2</v>
+      </c>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4">
         <v>11743</v>
@@ -22096,10 +23068,25 @@
       <c r="CZ67">
         <v>1</v>
       </c>
+      <c r="DA67">
+        <v>1</v>
+      </c>
+      <c r="DB67">
+        <v>1</v>
+      </c>
+      <c r="DC67">
+        <v>3</v>
+      </c>
+      <c r="DD67">
+        <v>3</v>
+      </c>
+      <c r="DE67">
+        <v>3</v>
+      </c>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B68" s="4">
         <v>3410</v>
@@ -22410,10 +23397,25 @@
       <c r="CZ68">
         <v>28</v>
       </c>
+      <c r="DA68">
+        <v>27</v>
+      </c>
+      <c r="DB68">
+        <v>27</v>
+      </c>
+      <c r="DC68">
+        <v>27</v>
+      </c>
+      <c r="DD68">
+        <v>27</v>
+      </c>
+      <c r="DE68">
+        <v>27</v>
+      </c>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B69" s="4">
         <v>11796</v>
@@ -22724,10 +23726,25 @@
       <c r="CZ69">
         <v>5</v>
       </c>
+      <c r="DA69">
+        <v>5</v>
+      </c>
+      <c r="DB69">
+        <v>5</v>
+      </c>
+      <c r="DC69">
+        <v>5</v>
+      </c>
+      <c r="DD69">
+        <v>5</v>
+      </c>
+      <c r="DE69">
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4">
         <v>18205</v>
@@ -23038,10 +24055,25 @@
       <c r="CZ70">
         <v>7</v>
       </c>
+      <c r="DA70">
+        <v>7</v>
+      </c>
+      <c r="DB70">
+        <v>7</v>
+      </c>
+      <c r="DC70">
+        <v>7</v>
+      </c>
+      <c r="DD70">
+        <v>7</v>
+      </c>
+      <c r="DE70">
+        <v>7</v>
+      </c>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4">
         <v>184841</v>
@@ -23352,10 +24384,25 @@
       <c r="CZ71">
         <v>260</v>
       </c>
+      <c r="DA71">
+        <v>275</v>
+      </c>
+      <c r="DB71">
+        <v>289</v>
+      </c>
+      <c r="DC71">
+        <v>300</v>
+      </c>
+      <c r="DD71">
+        <v>325</v>
+      </c>
+      <c r="DE71">
+        <v>325</v>
+      </c>
     </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4">
         <v>1991</v>
@@ -23666,10 +24713,25 @@
       <c r="CZ72">
         <v>0</v>
       </c>
+      <c r="DA72">
+        <v>0</v>
+      </c>
+      <c r="DB72">
+        <v>0</v>
+      </c>
+      <c r="DC72">
+        <v>0</v>
+      </c>
+      <c r="DD72">
+        <v>0</v>
+      </c>
+      <c r="DE72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B73" s="4">
         <v>177721</v>
@@ -23980,10 +25042,25 @@
       <c r="CZ73">
         <v>458</v>
       </c>
+      <c r="DA73">
+        <v>470</v>
+      </c>
+      <c r="DB73">
+        <v>490</v>
+      </c>
+      <c r="DC73">
+        <v>510</v>
+      </c>
+      <c r="DD73">
+        <v>510</v>
+      </c>
+      <c r="DE73">
+        <v>510</v>
+      </c>
     </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B74" s="4">
         <v>876120</v>
@@ -24294,10 +25371,25 @@
       <c r="CZ74">
         <v>3948</v>
       </c>
+      <c r="DA74">
+        <v>3999</v>
+      </c>
+      <c r="DB74">
+        <v>4088</v>
+      </c>
+      <c r="DC74">
+        <v>4178</v>
+      </c>
+      <c r="DD74">
+        <v>4340</v>
+      </c>
+      <c r="DE74">
+        <v>4488</v>
+      </c>
     </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B75" s="4">
         <v>41526</v>
@@ -24608,10 +25700,25 @@
       <c r="CZ75">
         <v>37</v>
       </c>
+      <c r="DA75">
+        <v>41</v>
+      </c>
+      <c r="DB75">
+        <v>43</v>
+      </c>
+      <c r="DC75">
+        <v>44</v>
+      </c>
+      <c r="DD75">
+        <v>44</v>
+      </c>
+      <c r="DE75">
+        <v>44</v>
+      </c>
     </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B76" s="4">
         <v>16603</v>
@@ -24922,10 +26029,25 @@
       <c r="CZ76">
         <v>18</v>
       </c>
+      <c r="DA76">
+        <v>19</v>
+      </c>
+      <c r="DB76">
+        <v>21</v>
+      </c>
+      <c r="DC76">
+        <v>22</v>
+      </c>
+      <c r="DD76">
+        <v>22</v>
+      </c>
+      <c r="DE76">
+        <v>22</v>
+      </c>
     </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4">
         <v>34597</v>
@@ -25236,10 +26358,25 @@
       <c r="CZ77">
         <v>55</v>
       </c>
+      <c r="DA77">
+        <v>59</v>
+      </c>
+      <c r="DB77">
+        <v>65</v>
+      </c>
+      <c r="DC77">
+        <v>65</v>
+      </c>
+      <c r="DD77">
+        <v>65</v>
+      </c>
+      <c r="DE77">
+        <v>65</v>
+      </c>
     </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B78" s="4">
         <v>26086</v>
@@ -25550,10 +26687,25 @@
       <c r="CZ78">
         <v>45</v>
       </c>
+      <c r="DA78">
+        <v>52</v>
+      </c>
+      <c r="DB78">
+        <v>51</v>
+      </c>
+      <c r="DC78">
+        <v>52</v>
+      </c>
+      <c r="DD78">
+        <v>58</v>
+      </c>
+      <c r="DE78">
+        <v>60</v>
+      </c>
     </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B79" s="4">
         <v>3985</v>
@@ -25864,10 +27016,25 @@
       <c r="CZ79">
         <v>2</v>
       </c>
+      <c r="DA79">
+        <v>2</v>
+      </c>
+      <c r="DB79">
+        <v>2</v>
+      </c>
+      <c r="DC79">
+        <v>2</v>
+      </c>
+      <c r="DD79">
+        <v>2</v>
+      </c>
+      <c r="DE79">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B80" s="4">
         <v>5786</v>
@@ -26178,10 +27345,25 @@
       <c r="CZ80">
         <v>16</v>
       </c>
+      <c r="DA80">
+        <v>16</v>
+      </c>
+      <c r="DB80">
+        <v>17</v>
+      </c>
+      <c r="DC80">
+        <v>18</v>
+      </c>
+      <c r="DD80">
+        <v>18</v>
+      </c>
+      <c r="DE80">
+        <v>18</v>
+      </c>
     </row>
-    <row r="81" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B81" s="4">
         <v>1240</v>
@@ -26492,10 +27674,25 @@
       <c r="CZ81">
         <v>0</v>
       </c>
+      <c r="DA81">
+        <v>0</v>
+      </c>
+      <c r="DB81">
+        <v>0</v>
+      </c>
+      <c r="DC81">
+        <v>0</v>
+      </c>
+      <c r="DD81">
+        <v>0</v>
+      </c>
+      <c r="DE81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B82" s="4">
         <v>840383</v>
@@ -26806,10 +28003,25 @@
       <c r="CZ82">
         <v>2402</v>
       </c>
+      <c r="DA82">
+        <v>2496</v>
+      </c>
+      <c r="DB82">
+        <v>2667</v>
+      </c>
+      <c r="DC82">
+        <v>2726</v>
+      </c>
+      <c r="DD82">
+        <v>2882</v>
+      </c>
+      <c r="DE82">
+        <v>2951</v>
+      </c>
     </row>
-    <row r="83" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B83" s="4">
         <v>10924</v>
@@ -27120,10 +28332,25 @@
       <c r="CZ83">
         <v>27</v>
       </c>
+      <c r="DA83">
+        <v>29</v>
+      </c>
+      <c r="DB83">
+        <v>30</v>
+      </c>
+      <c r="DC83">
+        <v>30</v>
+      </c>
+      <c r="DD83">
+        <v>31</v>
+      </c>
+      <c r="DE83">
+        <v>33</v>
+      </c>
     </row>
-    <row r="84" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B84" s="4">
         <v>19860</v>
@@ -27434,10 +28661,25 @@
       <c r="CZ84">
         <v>17</v>
       </c>
+      <c r="DA84">
+        <v>17</v>
+      </c>
+      <c r="DB84">
+        <v>19</v>
+      </c>
+      <c r="DC84">
+        <v>18</v>
+      </c>
+      <c r="DD84">
+        <v>18</v>
+      </c>
+      <c r="DE84">
+        <v>19</v>
+      </c>
     </row>
-    <row r="85" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B85" s="4">
         <v>20023</v>
@@ -27748,10 +28990,25 @@
       <c r="CZ85">
         <v>79</v>
       </c>
+      <c r="DA85">
+        <v>80</v>
+      </c>
+      <c r="DB85">
+        <v>86</v>
+      </c>
+      <c r="DC85">
+        <v>119</v>
+      </c>
+      <c r="DD85">
+        <v>130</v>
+      </c>
+      <c r="DE85">
+        <v>139</v>
+      </c>
     </row>
-    <row r="86" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B86" s="4">
         <v>22121</v>
@@ -28062,10 +29319,25 @@
       <c r="CZ86">
         <v>14</v>
       </c>
+      <c r="DA86">
+        <v>14</v>
+      </c>
+      <c r="DB86">
+        <v>14</v>
+      </c>
+      <c r="DC86">
+        <v>14</v>
+      </c>
+      <c r="DD86">
+        <v>14</v>
+      </c>
+      <c r="DE86">
+        <v>14</v>
+      </c>
     </row>
-    <row r="87" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B87" s="4">
         <v>355196</v>
@@ -28376,10 +29648,25 @@
       <c r="CZ87">
         <v>1312</v>
       </c>
+      <c r="DA87">
+        <v>1378</v>
+      </c>
+      <c r="DB87">
+        <v>1486</v>
+      </c>
+      <c r="DC87">
+        <v>1535</v>
+      </c>
+      <c r="DD87">
+        <v>1642</v>
+      </c>
+      <c r="DE87">
+        <v>1784</v>
+      </c>
     </row>
-    <row r="88" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B88" s="4">
         <v>6784</v>
@@ -28690,10 +29977,25 @@
       <c r="CZ88">
         <v>7</v>
       </c>
+      <c r="DA88">
+        <v>7</v>
+      </c>
+      <c r="DB88">
+        <v>7</v>
+      </c>
+      <c r="DC88">
+        <v>7</v>
+      </c>
+      <c r="DD88">
+        <v>7</v>
+      </c>
+      <c r="DE88">
+        <v>7</v>
+      </c>
     </row>
-    <row r="89" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B89" s="4">
         <v>26191</v>
@@ -29004,10 +30306,25 @@
       <c r="CZ89">
         <v>9</v>
       </c>
+      <c r="DA89">
+        <v>9</v>
+      </c>
+      <c r="DB89">
+        <v>10</v>
+      </c>
+      <c r="DC89">
+        <v>16</v>
+      </c>
+      <c r="DD89">
+        <v>17</v>
+      </c>
+      <c r="DE89">
+        <v>17</v>
+      </c>
     </row>
-    <row r="90" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B90" s="4">
         <v>1365</v>
@@ -29318,10 +30635,25 @@
       <c r="CZ90">
         <v>3</v>
       </c>
+      <c r="DA90">
+        <v>3</v>
+      </c>
+      <c r="DB90">
+        <v>5</v>
+      </c>
+      <c r="DC90">
+        <v>5</v>
+      </c>
+      <c r="DD90">
+        <v>5</v>
+      </c>
+      <c r="DE90">
+        <v>5</v>
+      </c>
     </row>
-    <row r="91" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B91" s="4">
         <v>7717</v>
@@ -29632,10 +30964,25 @@
       <c r="CZ91">
         <v>7</v>
       </c>
+      <c r="DA91">
+        <v>7</v>
+      </c>
+      <c r="DB91">
+        <v>7</v>
+      </c>
+      <c r="DC91">
+        <v>7</v>
+      </c>
+      <c r="DD91">
+        <v>7</v>
+      </c>
+      <c r="DE91">
+        <v>7</v>
+      </c>
     </row>
-    <row r="92" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B92" s="4">
         <v>21347</v>
@@ -29946,10 +31293,25 @@
       <c r="CZ92">
         <v>169</v>
       </c>
+      <c r="DA92">
+        <v>172</v>
+      </c>
+      <c r="DB92">
+        <v>175</v>
+      </c>
+      <c r="DC92">
+        <v>203</v>
+      </c>
+      <c r="DD92">
+        <v>213</v>
+      </c>
+      <c r="DE92">
+        <v>215</v>
+      </c>
     </row>
-    <row r="93" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B93" s="4">
         <v>24252</v>
@@ -30260,10 +31622,25 @@
       <c r="CZ93">
         <v>111</v>
       </c>
+      <c r="DA93">
+        <v>111</v>
+      </c>
+      <c r="DB93">
+        <v>112</v>
+      </c>
+      <c r="DC93">
+        <v>113</v>
+      </c>
+      <c r="DD93">
+        <v>113</v>
+      </c>
+      <c r="DE93">
+        <v>113</v>
+      </c>
     </row>
-    <row r="94" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B94" s="4">
         <v>131710</v>
@@ -30574,10 +31951,25 @@
       <c r="CZ94">
         <v>440</v>
       </c>
+      <c r="DA94">
+        <v>473</v>
+      </c>
+      <c r="DB94">
+        <v>481</v>
+      </c>
+      <c r="DC94">
+        <v>491</v>
+      </c>
+      <c r="DD94">
+        <v>491</v>
+      </c>
+      <c r="DE94">
+        <v>514</v>
+      </c>
     </row>
-    <row r="95" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B95" s="4">
         <v>125730</v>
@@ -30888,10 +32280,25 @@
       <c r="CZ95">
         <v>285</v>
       </c>
+      <c r="DA95">
+        <v>296</v>
+      </c>
+      <c r="DB95">
+        <v>302</v>
+      </c>
+      <c r="DC95">
+        <v>304</v>
+      </c>
+      <c r="DD95">
+        <v>305</v>
+      </c>
+      <c r="DE95">
+        <v>305</v>
+      </c>
     </row>
-    <row r="96" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4">
         <v>28930</v>
@@ -31202,10 +32609,25 @@
       <c r="CZ96">
         <v>281</v>
       </c>
+      <c r="DA96">
+        <v>287</v>
+      </c>
+      <c r="DB96">
+        <v>291</v>
+      </c>
+      <c r="DC96">
+        <v>288</v>
+      </c>
+      <c r="DD96">
+        <v>289</v>
+      </c>
+      <c r="DE96">
+        <v>301</v>
+      </c>
     </row>
-    <row r="97" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4">
         <v>170266</v>
@@ -31516,10 +32938,25 @@
       <c r="CZ97">
         <v>175</v>
       </c>
+      <c r="DA97">
+        <v>184</v>
+      </c>
+      <c r="DB97">
+        <v>186</v>
+      </c>
+      <c r="DC97">
+        <v>280</v>
+      </c>
+      <c r="DD97">
+        <v>311</v>
+      </c>
+      <c r="DE97">
+        <v>323</v>
+      </c>
     </row>
-    <row r="98" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B98" s="4">
         <v>33202</v>
@@ -31830,10 +33267,25 @@
       <c r="CZ98">
         <v>100</v>
       </c>
+      <c r="DA98">
+        <v>110</v>
+      </c>
+      <c r="DB98">
+        <v>110</v>
+      </c>
+      <c r="DC98">
+        <v>122</v>
+      </c>
+      <c r="DD98">
+        <v>135</v>
+      </c>
+      <c r="DE98">
+        <v>139</v>
+      </c>
     </row>
-    <row r="99" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B99" s="4">
         <v>3305</v>
@@ -32144,10 +33596,25 @@
       <c r="CZ99">
         <v>2</v>
       </c>
+      <c r="DA99">
+        <v>2</v>
+      </c>
+      <c r="DB99">
+        <v>2</v>
+      </c>
+      <c r="DC99">
+        <v>2</v>
+      </c>
+      <c r="DD99">
+        <v>2</v>
+      </c>
+      <c r="DE99">
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B100" s="4">
         <v>8220</v>
@@ -32458,10 +33925,25 @@
       <c r="CZ100">
         <v>15</v>
       </c>
+      <c r="DA100">
+        <v>18</v>
+      </c>
+      <c r="DB100">
+        <v>18</v>
+      </c>
+      <c r="DC100">
+        <v>18</v>
+      </c>
+      <c r="DD100">
+        <v>18</v>
+      </c>
+      <c r="DE100">
+        <v>18</v>
+      </c>
     </row>
-    <row r="101" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B101" s="4">
         <v>5820</v>
@@ -32772,10 +34254,25 @@
       <c r="CZ101">
         <v>23</v>
       </c>
+      <c r="DA101">
+        <v>23</v>
+      </c>
+      <c r="DB101">
+        <v>23</v>
+      </c>
+      <c r="DC101">
+        <v>23</v>
+      </c>
+      <c r="DD101">
+        <v>23</v>
+      </c>
+      <c r="DE101">
+        <v>23</v>
+      </c>
     </row>
-    <row r="102" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B102" s="4">
         <v>3870</v>
@@ -33086,10 +34583,25 @@
       <c r="CZ102">
         <v>4</v>
       </c>
+      <c r="DA102">
+        <v>4</v>
+      </c>
+      <c r="DB102">
+        <v>4</v>
+      </c>
+      <c r="DC102">
+        <v>4</v>
+      </c>
+      <c r="DD102">
+        <v>4</v>
+      </c>
+      <c r="DE102">
+        <v>4</v>
+      </c>
     </row>
-    <row r="103" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B103" s="4">
         <v>56486</v>
@@ -33400,10 +34912,25 @@
       <c r="CZ103">
         <v>147</v>
       </c>
+      <c r="DA103">
+        <v>155</v>
+      </c>
+      <c r="DB103">
+        <v>156</v>
+      </c>
+      <c r="DC103">
+        <v>167</v>
+      </c>
+      <c r="DD103">
+        <v>172</v>
+      </c>
+      <c r="DE103">
+        <v>172</v>
+      </c>
     </row>
-    <row r="104" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B104" s="4">
         <v>4978845</v>
@@ -33714,10 +35241,25 @@
       <c r="CZ104">
         <v>17282</v>
       </c>
+      <c r="DA104">
+        <v>17707</v>
+      </c>
+      <c r="DB104">
+        <v>18157</v>
+      </c>
+      <c r="DC104">
+        <v>18552</v>
+      </c>
+      <c r="DD104">
+        <v>19739</v>
+      </c>
+      <c r="DE104">
+        <v>20874</v>
+      </c>
     </row>
-    <row r="105" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B105" s="4">
         <v>68247</v>
@@ -34028,10 +35570,25 @@
       <c r="CZ105">
         <v>269</v>
       </c>
+      <c r="DA105">
+        <v>269</v>
+      </c>
+      <c r="DB105">
+        <v>268</v>
+      </c>
+      <c r="DC105">
+        <v>268</v>
+      </c>
+      <c r="DD105">
+        <v>271</v>
+      </c>
+      <c r="DE105">
+        <v>272</v>
+      </c>
     </row>
-    <row r="106" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B106" s="4">
         <v>6067</v>
@@ -34342,10 +35899,25 @@
       <c r="CZ106">
         <v>13</v>
       </c>
+      <c r="DA106">
+        <v>13</v>
+      </c>
+      <c r="DB106">
+        <v>13</v>
+      </c>
+      <c r="DC106">
+        <v>13</v>
+      </c>
+      <c r="DD106">
+        <v>13</v>
+      </c>
+      <c r="DE106">
+        <v>13</v>
+      </c>
     </row>
-    <row r="107" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B107" s="4">
         <v>6197</v>
@@ -34656,10 +36228,25 @@
       <c r="CZ107">
         <v>4</v>
       </c>
+      <c r="DA107">
+        <v>4</v>
+      </c>
+      <c r="DB107">
+        <v>4</v>
+      </c>
+      <c r="DC107">
+        <v>4</v>
+      </c>
+      <c r="DD107">
+        <v>4</v>
+      </c>
+      <c r="DE107">
+        <v>4</v>
+      </c>
     </row>
-    <row r="108" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B108" s="4">
         <v>234896</v>
@@ -34970,10 +36557,25 @@
       <c r="CZ108">
         <v>938</v>
       </c>
+      <c r="DA108">
+        <v>1093</v>
+      </c>
+      <c r="DB108">
+        <v>1238</v>
+      </c>
+      <c r="DC108">
+        <v>1448</v>
+      </c>
+      <c r="DD108">
+        <v>1551</v>
+      </c>
+      <c r="DE108">
+        <v>1608</v>
+      </c>
     </row>
-    <row r="109" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B109" s="4">
         <v>4644</v>
@@ -35284,10 +36886,25 @@
       <c r="CZ109">
         <v>1</v>
       </c>
+      <c r="DA109">
+        <v>2</v>
+      </c>
+      <c r="DB109">
+        <v>2</v>
+      </c>
+      <c r="DC109">
+        <v>2</v>
+      </c>
+      <c r="DD109">
+        <v>2</v>
+      </c>
+      <c r="DE109">
+        <v>2</v>
+      </c>
     </row>
-    <row r="110" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B110" s="4">
         <v>81179</v>
@@ -35598,10 +37215,25 @@
       <c r="CZ110">
         <v>82</v>
       </c>
+      <c r="DA110">
+        <v>85</v>
+      </c>
+      <c r="DB110">
+        <v>90</v>
+      </c>
+      <c r="DC110">
+        <v>94</v>
+      </c>
+      <c r="DD110">
+        <v>97</v>
+      </c>
+      <c r="DE110">
+        <v>97</v>
+      </c>
     </row>
-    <row r="111" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B111" s="4">
         <v>870366</v>
@@ -35912,10 +37544,25 @@
       <c r="CZ111">
         <v>1112</v>
       </c>
+      <c r="DA111">
+        <v>1255</v>
+      </c>
+      <c r="DB111">
+        <v>1347</v>
+      </c>
+      <c r="DC111">
+        <v>1447</v>
+      </c>
+      <c r="DD111">
+        <v>1556</v>
+      </c>
+      <c r="DE111">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="112" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B112" s="4">
         <v>35673</v>
@@ -36226,10 +37873,25 @@
       <c r="CZ112">
         <v>38</v>
       </c>
+      <c r="DA112">
+        <v>41</v>
+      </c>
+      <c r="DB112">
+        <v>46</v>
+      </c>
+      <c r="DC112">
+        <v>47</v>
+      </c>
+      <c r="DD112">
+        <v>48</v>
+      </c>
+      <c r="DE112">
+        <v>48</v>
+      </c>
     </row>
-    <row r="113" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B113" s="4">
         <v>24636</v>
@@ -36540,10 +38202,25 @@
       <c r="CZ113">
         <v>28</v>
       </c>
+      <c r="DA113">
+        <v>29</v>
+      </c>
+      <c r="DB113">
+        <v>29</v>
+      </c>
+      <c r="DC113">
+        <v>29</v>
+      </c>
+      <c r="DD113">
+        <v>29</v>
+      </c>
+      <c r="DE113">
+        <v>29</v>
+      </c>
     </row>
-    <row r="114" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B114" s="4">
         <v>58643</v>
@@ -36854,10 +38531,25 @@
       <c r="CZ114">
         <v>35</v>
       </c>
+      <c r="DA114">
+        <v>35</v>
+      </c>
+      <c r="DB114">
+        <v>35</v>
+      </c>
+      <c r="DC114">
+        <v>35</v>
+      </c>
+      <c r="DD114">
+        <v>35</v>
+      </c>
+      <c r="DE114">
+        <v>35</v>
+      </c>
     </row>
-    <row r="115" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B115" s="4">
         <v>37040</v>
@@ -37168,10 +38860,25 @@
       <c r="CZ115">
         <v>44</v>
       </c>
+      <c r="DA115">
+        <v>44</v>
+      </c>
+      <c r="DB115">
+        <v>44</v>
+      </c>
+      <c r="DC115">
+        <v>48</v>
+      </c>
+      <c r="DD115">
+        <v>48</v>
+      </c>
+      <c r="DE115">
+        <v>50</v>
+      </c>
     </row>
-    <row r="116" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B116" s="4">
         <v>22620</v>
@@ -37482,10 +39189,25 @@
       <c r="CZ116">
         <v>147</v>
       </c>
+      <c r="DA116">
+        <v>148</v>
+      </c>
+      <c r="DB116">
+        <v>147</v>
+      </c>
+      <c r="DC116">
+        <v>147</v>
+      </c>
+      <c r="DD116">
+        <v>148</v>
+      </c>
+      <c r="DE116">
+        <v>148</v>
+      </c>
     </row>
-    <row r="117" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B117" s="4">
         <v>41236</v>
@@ -37796,10 +39518,25 @@
       <c r="CZ117">
         <v>23</v>
       </c>
+      <c r="DA117">
+        <v>24</v>
+      </c>
+      <c r="DB117">
+        <v>24</v>
+      </c>
+      <c r="DC117">
+        <v>24</v>
+      </c>
+      <c r="DD117">
+        <v>26</v>
+      </c>
+      <c r="DE117">
+        <v>26</v>
+      </c>
     </row>
-    <row r="118" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B118" s="4">
         <v>3400</v>
@@ -38110,10 +39847,25 @@
       <c r="CZ118">
         <v>13</v>
       </c>
+      <c r="DA118">
+        <v>13</v>
+      </c>
+      <c r="DB118">
+        <v>14</v>
+      </c>
+      <c r="DC118">
+        <v>14</v>
+      </c>
+      <c r="DD118">
+        <v>14</v>
+      </c>
+      <c r="DE118">
+        <v>14</v>
+      </c>
     </row>
-    <row r="119" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B119" s="4">
         <v>95324</v>
@@ -38424,10 +40176,25 @@
       <c r="CZ119">
         <v>185</v>
       </c>
+      <c r="DA119">
+        <v>217</v>
+      </c>
+      <c r="DB119">
+        <v>223</v>
+      </c>
+      <c r="DC119">
+        <v>227</v>
+      </c>
+      <c r="DD119">
+        <v>246</v>
+      </c>
+      <c r="DE119">
+        <v>258</v>
+      </c>
     </row>
-    <row r="120" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B120" s="4">
         <v>21461</v>
@@ -38738,10 +40505,25 @@
       <c r="CZ120">
         <v>45</v>
       </c>
+      <c r="DA120">
+        <v>47</v>
+      </c>
+      <c r="DB120">
+        <v>47</v>
+      </c>
+      <c r="DC120">
+        <v>49</v>
+      </c>
+      <c r="DD120">
+        <v>49</v>
+      </c>
+      <c r="DE120">
+        <v>49</v>
+      </c>
     </row>
-    <row r="121" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B121" s="4">
         <v>1508</v>
@@ -39052,10 +40834,25 @@
       <c r="CZ121">
         <v>1</v>
       </c>
+      <c r="DA121">
+        <v>1</v>
+      </c>
+      <c r="DB121">
+        <v>1</v>
+      </c>
+      <c r="DC121">
+        <v>1</v>
+      </c>
+      <c r="DD121">
+        <v>1</v>
+      </c>
+      <c r="DE121">
+        <v>1</v>
+      </c>
     </row>
-    <row r="122" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B122" s="4">
         <v>8841</v>
@@ -39366,10 +41163,25 @@
       <c r="CZ122">
         <v>4</v>
       </c>
+      <c r="DA122">
+        <v>4</v>
+      </c>
+      <c r="DB122">
+        <v>4</v>
+      </c>
+      <c r="DC122">
+        <v>4</v>
+      </c>
+      <c r="DD122">
+        <v>4</v>
+      </c>
+      <c r="DE122">
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B123" s="4">
         <v>15899</v>
@@ -39680,10 +41492,25 @@
       <c r="CZ123">
         <v>21</v>
       </c>
+      <c r="DA123">
+        <v>21</v>
+      </c>
+      <c r="DB123">
+        <v>21</v>
+      </c>
+      <c r="DC123">
+        <v>24</v>
+      </c>
+      <c r="DD123">
+        <v>25</v>
+      </c>
+      <c r="DE123">
+        <v>25</v>
+      </c>
     </row>
-    <row r="124" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B124" s="4">
         <v>35525</v>
@@ -39994,10 +41821,25 @@
       <c r="CZ124">
         <v>32</v>
       </c>
+      <c r="DA124">
+        <v>33</v>
+      </c>
+      <c r="DB124">
+        <v>33</v>
+      </c>
+      <c r="DC124">
+        <v>33</v>
+      </c>
+      <c r="DD124">
+        <v>35</v>
+      </c>
+      <c r="DE124">
+        <v>36</v>
+      </c>
     </row>
-    <row r="125" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B125" s="4">
         <v>2113</v>
@@ -40308,10 +42150,25 @@
       <c r="CZ125">
         <v>0</v>
       </c>
+      <c r="DA125">
+        <v>0</v>
+      </c>
+      <c r="DB125">
+        <v>0</v>
+      </c>
+      <c r="DC125">
+        <v>0</v>
+      </c>
+      <c r="DD125">
+        <v>0</v>
+      </c>
+      <c r="DE125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B126" s="4">
         <v>258678</v>
@@ -40622,10 +42479,25 @@
       <c r="CZ126">
         <v>1279</v>
       </c>
+      <c r="DA126">
+        <v>1319</v>
+      </c>
+      <c r="DB126">
+        <v>1340</v>
+      </c>
+      <c r="DC126">
+        <v>1356</v>
+      </c>
+      <c r="DD126">
+        <v>1388</v>
+      </c>
+      <c r="DE126">
+        <v>1393</v>
+      </c>
     </row>
-    <row r="127" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B127" s="4">
         <v>5077</v>
@@ -40936,10 +42808,25 @@
       <c r="CZ127">
         <v>4</v>
       </c>
+      <c r="DA127">
+        <v>4</v>
+      </c>
+      <c r="DB127">
+        <v>6</v>
+      </c>
+      <c r="DC127">
+        <v>6</v>
+      </c>
+      <c r="DD127">
+        <v>8</v>
+      </c>
+      <c r="DE127">
+        <v>9</v>
+      </c>
     </row>
-    <row r="128" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B128" s="4">
         <v>42890</v>
@@ -41250,10 +43137,25 @@
       <c r="CZ128">
         <v>18</v>
       </c>
+      <c r="DA128">
+        <v>19</v>
+      </c>
+      <c r="DB128">
+        <v>21</v>
+      </c>
+      <c r="DC128">
+        <v>21</v>
+      </c>
+      <c r="DD128">
+        <v>22</v>
+      </c>
+      <c r="DE128">
+        <v>27</v>
+      </c>
     </row>
-    <row r="129" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B129" s="4">
         <v>171701</v>
@@ -41564,10 +43466,25 @@
       <c r="CZ129">
         <v>232</v>
       </c>
+      <c r="DA129">
+        <v>244</v>
+      </c>
+      <c r="DB129">
+        <v>249</v>
+      </c>
+      <c r="DC129">
+        <v>254</v>
+      </c>
+      <c r="DD129">
+        <v>254</v>
+      </c>
+      <c r="DE129">
+        <v>254</v>
+      </c>
     </row>
-    <row r="130" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B130" s="4">
         <v>19735</v>
@@ -41878,10 +43795,25 @@
       <c r="CZ130">
         <v>630</v>
       </c>
+      <c r="DA130">
+        <v>615</v>
+      </c>
+      <c r="DB130">
+        <v>614</v>
+      </c>
+      <c r="DC130">
+        <v>610</v>
+      </c>
+      <c r="DD130">
+        <v>650</v>
+      </c>
+      <c r="DE130">
+        <v>650</v>
+      </c>
     </row>
-    <row r="131" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B131" s="4">
         <v>15393</v>
@@ -42192,10 +44124,25 @@
       <c r="CZ131">
         <v>4</v>
       </c>
+      <c r="DA131">
+        <v>7</v>
+      </c>
+      <c r="DB131">
+        <v>7</v>
+      </c>
+      <c r="DC131">
+        <v>11</v>
+      </c>
+      <c r="DD131">
+        <v>14</v>
+      </c>
+      <c r="DE131">
+        <v>14</v>
+      </c>
     </row>
-    <row r="132" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B132" s="4">
         <v>125134</v>
@@ -42506,10 +44453,25 @@
       <c r="CZ132">
         <v>339</v>
       </c>
+      <c r="DA132">
+        <v>343</v>
+      </c>
+      <c r="DB132">
+        <v>349</v>
+      </c>
+      <c r="DC132">
+        <v>360</v>
+      </c>
+      <c r="DD132">
+        <v>360</v>
+      </c>
+      <c r="DE132">
+        <v>360</v>
+      </c>
     </row>
-    <row r="133" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B133" s="4">
         <v>46278</v>
@@ -42820,10 +44782,25 @@
       <c r="CZ133">
         <v>36</v>
       </c>
+      <c r="DA133">
+        <v>36</v>
+      </c>
+      <c r="DB133">
+        <v>36</v>
+      </c>
+      <c r="DC133">
+        <v>44</v>
+      </c>
+      <c r="DD133">
+        <v>44</v>
+      </c>
+      <c r="DE133">
+        <v>44</v>
+      </c>
     </row>
-    <row r="134" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B134" s="4">
         <v>476</v>
@@ -43134,10 +45111,25 @@
       <c r="CZ134">
         <v>0</v>
       </c>
+      <c r="DA134">
+        <v>0</v>
+      </c>
+      <c r="DB134">
+        <v>0</v>
+      </c>
+      <c r="DC134">
+        <v>0</v>
+      </c>
+      <c r="DD134">
+        <v>0</v>
+      </c>
+      <c r="DE134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B135" s="4">
         <v>795</v>
@@ -43448,10 +45440,25 @@
       <c r="CZ135">
         <v>0</v>
       </c>
+      <c r="DA135">
+        <v>0</v>
+      </c>
+      <c r="DB135">
+        <v>0</v>
+      </c>
+      <c r="DC135">
+        <v>0</v>
+      </c>
+      <c r="DD135">
+        <v>0</v>
+      </c>
+      <c r="DE135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B136" s="4">
         <v>52267</v>
@@ -43762,10 +45769,25 @@
       <c r="CZ136">
         <v>20</v>
       </c>
+      <c r="DA136">
+        <v>20</v>
+      </c>
+      <c r="DB136">
+        <v>20</v>
+      </c>
+      <c r="DC136">
+        <v>32</v>
+      </c>
+      <c r="DD136">
+        <v>33</v>
+      </c>
+      <c r="DE136">
+        <v>33</v>
+      </c>
     </row>
-    <row r="137" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B137" s="4">
         <v>4344</v>
@@ -44076,10 +46098,25 @@
       <c r="CZ137">
         <v>1</v>
       </c>
+      <c r="DA137">
+        <v>1</v>
+      </c>
+      <c r="DB137">
+        <v>1</v>
+      </c>
+      <c r="DC137">
+        <v>1</v>
+      </c>
+      <c r="DD137">
+        <v>1</v>
+      </c>
+      <c r="DE137">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B138" s="4">
         <v>309</v>
@@ -44390,10 +46427,25 @@
       <c r="CZ138">
         <v>0</v>
       </c>
+      <c r="DA138">
+        <v>0</v>
+      </c>
+      <c r="DB138">
+        <v>0</v>
+      </c>
+      <c r="DC138">
+        <v>0</v>
+      </c>
+      <c r="DD138">
+        <v>0</v>
+      </c>
+      <c r="DE138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B139" s="4">
         <v>3462</v>
@@ -44704,10 +46756,25 @@
       <c r="CZ139">
         <v>1</v>
       </c>
+      <c r="DA139">
+        <v>1</v>
+      </c>
+      <c r="DB139">
+        <v>1</v>
+      </c>
+      <c r="DC139">
+        <v>1</v>
+      </c>
+      <c r="DD139">
+        <v>2</v>
+      </c>
+      <c r="DE139">
+        <v>2</v>
+      </c>
     </row>
-    <row r="140" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B140" s="4">
         <v>30987</v>
@@ -45018,10 +47085,25 @@
       <c r="CZ140">
         <v>20</v>
       </c>
+      <c r="DA140">
+        <v>20</v>
+      </c>
+      <c r="DB140">
+        <v>23</v>
+      </c>
+      <c r="DC140">
+        <v>24</v>
+      </c>
+      <c r="DD140">
+        <v>25</v>
+      </c>
+      <c r="DE140">
+        <v>27</v>
+      </c>
     </row>
-    <row r="141" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B141" s="4">
         <v>3937</v>
@@ -45332,10 +47414,25 @@
       <c r="CZ141">
         <v>1</v>
       </c>
+      <c r="DA141">
+        <v>1</v>
+      </c>
+      <c r="DB141">
+        <v>1</v>
+      </c>
+      <c r="DC141">
+        <v>1</v>
+      </c>
+      <c r="DD141">
+        <v>1</v>
+      </c>
+      <c r="DE141">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B142" s="4">
         <v>50014</v>
@@ -45646,10 +47743,25 @@
       <c r="CZ142">
         <v>174</v>
       </c>
+      <c r="DA142">
+        <v>180</v>
+      </c>
+      <c r="DB142">
+        <v>180</v>
+      </c>
+      <c r="DC142">
+        <v>199</v>
+      </c>
+      <c r="DD142">
+        <v>199</v>
+      </c>
+      <c r="DE142">
+        <v>205</v>
+      </c>
     </row>
-    <row r="143" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B143" s="4">
         <v>12776</v>
@@ -45960,10 +48072,25 @@
       <c r="CZ143">
         <v>20</v>
       </c>
+      <c r="DA143">
+        <v>25</v>
+      </c>
+      <c r="DB143">
+        <v>28</v>
+      </c>
+      <c r="DC143">
+        <v>29</v>
+      </c>
+      <c r="DD143">
+        <v>29</v>
+      </c>
+      <c r="DE143">
+        <v>29</v>
+      </c>
     </row>
-    <row r="144" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B144" s="4">
         <v>21037</v>
@@ -46274,10 +48401,25 @@
       <c r="CZ144">
         <v>11</v>
       </c>
+      <c r="DA144">
+        <v>13</v>
+      </c>
+      <c r="DB144">
+        <v>13</v>
+      </c>
+      <c r="DC144">
+        <v>15</v>
+      </c>
+      <c r="DD144">
+        <v>16</v>
+      </c>
+      <c r="DE144">
+        <v>17</v>
+      </c>
     </row>
-    <row r="145" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B145" s="4">
         <v>8309</v>
@@ -46588,10 +48730,25 @@
       <c r="CZ145">
         <v>4</v>
       </c>
+      <c r="DA145">
+        <v>5</v>
+      </c>
+      <c r="DB145">
+        <v>5</v>
+      </c>
+      <c r="DC145">
+        <v>7</v>
+      </c>
+      <c r="DD145">
+        <v>7</v>
+      </c>
+      <c r="DE145">
+        <v>7</v>
+      </c>
     </row>
-    <row r="146" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B146" s="4">
         <v>20735</v>
@@ -46902,10 +49059,25 @@
       <c r="CZ146">
         <v>22</v>
       </c>
+      <c r="DA146">
+        <v>22</v>
+      </c>
+      <c r="DB146">
+        <v>22</v>
+      </c>
+      <c r="DC146">
+        <v>43</v>
+      </c>
+      <c r="DD146">
+        <v>68</v>
+      </c>
+      <c r="DE146">
+        <v>85</v>
+      </c>
     </row>
-    <row r="147" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B147" s="4">
         <v>17595</v>
@@ -47216,10 +49388,25 @@
       <c r="CZ147">
         <v>36</v>
       </c>
+      <c r="DA147">
+        <v>39</v>
+      </c>
+      <c r="DB147">
+        <v>48</v>
+      </c>
+      <c r="DC147">
+        <v>47</v>
+      </c>
+      <c r="DD147">
+        <v>48</v>
+      </c>
+      <c r="DE147">
+        <v>49</v>
+      </c>
     </row>
-    <row r="148" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B148" s="4">
         <v>17707</v>
@@ -47530,10 +49717,25 @@
       <c r="CZ148">
         <v>12</v>
       </c>
+      <c r="DA148">
+        <v>13</v>
+      </c>
+      <c r="DB148">
+        <v>13</v>
+      </c>
+      <c r="DC148">
+        <v>13</v>
+      </c>
+      <c r="DD148">
+        <v>14</v>
+      </c>
+      <c r="DE148">
+        <v>15</v>
+      </c>
     </row>
-    <row r="149" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B149" s="4">
         <v>85284</v>
@@ -47844,10 +50046,25 @@
       <c r="CZ149">
         <v>137</v>
       </c>
+      <c r="DA149">
+        <v>156</v>
+      </c>
+      <c r="DB149">
+        <v>163</v>
+      </c>
+      <c r="DC149">
+        <v>169</v>
+      </c>
+      <c r="DD149">
+        <v>177</v>
+      </c>
+      <c r="DE149">
+        <v>182</v>
+      </c>
     </row>
-    <row r="150" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B150" s="4">
         <v>23544</v>
@@ -48158,10 +50375,25 @@
       <c r="CZ150">
         <v>40</v>
       </c>
+      <c r="DA150">
+        <v>41</v>
+      </c>
+      <c r="DB150">
+        <v>40</v>
+      </c>
+      <c r="DC150">
+        <v>40</v>
+      </c>
+      <c r="DD150">
+        <v>41</v>
+      </c>
+      <c r="DE150">
+        <v>41</v>
+      </c>
     </row>
-    <row r="151" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B151" s="4">
         <v>3651</v>
@@ -48472,10 +50704,25 @@
       <c r="CZ151">
         <v>9</v>
       </c>
+      <c r="DA151">
+        <v>9</v>
+      </c>
+      <c r="DB151">
+        <v>9</v>
+      </c>
+      <c r="DC151">
+        <v>9</v>
+      </c>
+      <c r="DD151">
+        <v>9</v>
+      </c>
+      <c r="DE151">
+        <v>9</v>
+      </c>
     </row>
-    <row r="152" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B152" s="4">
         <v>12030</v>
@@ -48786,10 +51033,25 @@
       <c r="CZ152">
         <v>9</v>
       </c>
+      <c r="DA152">
+        <v>9</v>
+      </c>
+      <c r="DB152">
+        <v>9</v>
+      </c>
+      <c r="DC152">
+        <v>9</v>
+      </c>
+      <c r="DD152">
+        <v>9</v>
+      </c>
+      <c r="DE152">
+        <v>9</v>
+      </c>
     </row>
-    <row r="153" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B153" s="4">
         <v>19452</v>
@@ -49100,10 +51362,25 @@
       <c r="CZ153">
         <v>5</v>
       </c>
+      <c r="DA153">
+        <v>5</v>
+      </c>
+      <c r="DB153">
+        <v>5</v>
+      </c>
+      <c r="DC153">
+        <v>5</v>
+      </c>
+      <c r="DD153">
+        <v>5</v>
+      </c>
+      <c r="DE153">
+        <v>5</v>
+      </c>
     </row>
-    <row r="154" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B154" s="4">
         <v>92</v>
@@ -49414,10 +51691,25 @@
       <c r="CZ154">
         <v>0</v>
       </c>
+      <c r="DA154">
+        <v>0</v>
+      </c>
+      <c r="DB154">
+        <v>0</v>
+      </c>
+      <c r="DC154">
+        <v>0</v>
+      </c>
+      <c r="DD154">
+        <v>0</v>
+      </c>
+      <c r="DE154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B155" s="4">
         <v>317210</v>
@@ -49728,10 +52020,25 @@
       <c r="CZ155">
         <v>894</v>
       </c>
+      <c r="DA155">
+        <v>955</v>
+      </c>
+      <c r="DB155">
+        <v>1031</v>
+      </c>
+      <c r="DC155">
+        <v>1136</v>
+      </c>
+      <c r="DD155">
+        <v>1208</v>
+      </c>
+      <c r="DE155">
+        <v>1288</v>
+      </c>
     </row>
-    <row r="156" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B156" s="4">
         <v>5588</v>
@@ -50042,10 +52349,25 @@
       <c r="CZ156">
         <v>21</v>
       </c>
+      <c r="DA156">
+        <v>21</v>
+      </c>
+      <c r="DB156">
+        <v>21</v>
+      </c>
+      <c r="DC156">
+        <v>21</v>
+      </c>
+      <c r="DD156">
+        <v>21</v>
+      </c>
+      <c r="DE156">
+        <v>21</v>
+      </c>
     </row>
-    <row r="157" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B157" s="4">
         <v>8660</v>
@@ -50356,10 +52678,25 @@
       <c r="CZ157">
         <v>4</v>
       </c>
+      <c r="DA157">
+        <v>4</v>
+      </c>
+      <c r="DB157">
+        <v>4</v>
+      </c>
+      <c r="DC157">
+        <v>4</v>
+      </c>
+      <c r="DD157">
+        <v>5</v>
+      </c>
+      <c r="DE157">
+        <v>5</v>
+      </c>
     </row>
-    <row r="158" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B158" s="4">
         <v>253066</v>
@@ -50670,10 +53007,25 @@
       <c r="CZ158">
         <v>178</v>
       </c>
+      <c r="DA158">
+        <v>196</v>
+      </c>
+      <c r="DB158">
+        <v>222</v>
+      </c>
+      <c r="DC158">
+        <v>245</v>
+      </c>
+      <c r="DD158">
+        <v>262</v>
+      </c>
+      <c r="DE158">
+        <v>303</v>
+      </c>
     </row>
-    <row r="159" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B159" s="4">
         <v>783</v>
@@ -50984,10 +53336,25 @@
       <c r="CZ159">
         <v>0</v>
       </c>
+      <c r="DA159">
+        <v>0</v>
+      </c>
+      <c r="DB159">
+        <v>0</v>
+      </c>
+      <c r="DC159">
+        <v>0</v>
+      </c>
+      <c r="DD159">
+        <v>0</v>
+      </c>
+      <c r="DE159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B160" s="4">
         <v>14527</v>
@@ -51298,10 +53665,25 @@
       <c r="CZ160">
         <v>22</v>
       </c>
+      <c r="DA160">
+        <v>23</v>
+      </c>
+      <c r="DB160">
+        <v>24</v>
+      </c>
+      <c r="DC160">
+        <v>25</v>
+      </c>
+      <c r="DD160">
+        <v>26</v>
+      </c>
+      <c r="DE160">
+        <v>28</v>
+      </c>
     </row>
-    <row r="161" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B161" s="4">
         <v>10294</v>
@@ -51612,10 +53994,25 @@
       <c r="CZ161">
         <v>21</v>
       </c>
+      <c r="DA161">
+        <v>21</v>
+      </c>
+      <c r="DB161">
+        <v>21</v>
+      </c>
+      <c r="DC161">
+        <v>21</v>
+      </c>
+      <c r="DD161">
+        <v>21</v>
+      </c>
+      <c r="DE161">
+        <v>21</v>
+      </c>
     </row>
-    <row r="162" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B162" s="4">
         <v>6044</v>
@@ -51926,10 +54323,25 @@
       <c r="CZ162">
         <v>4</v>
       </c>
+      <c r="DA162">
+        <v>4</v>
+      </c>
+      <c r="DB162">
+        <v>4</v>
+      </c>
+      <c r="DC162">
+        <v>5</v>
+      </c>
+      <c r="DD162">
+        <v>6</v>
+      </c>
+      <c r="DE162">
+        <v>6</v>
+      </c>
     </row>
-    <row r="163" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B163" s="4">
         <v>3899</v>
@@ -52240,10 +54652,25 @@
       <c r="CZ163">
         <v>33</v>
       </c>
+      <c r="DA163">
+        <v>33</v>
+      </c>
+      <c r="DB163">
+        <v>33</v>
+      </c>
+      <c r="DC163">
+        <v>33</v>
+      </c>
+      <c r="DD163">
+        <v>33</v>
+      </c>
+      <c r="DE163">
+        <v>33</v>
+      </c>
     </row>
-    <row r="164" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B164" s="4">
         <v>37064</v>
@@ -52554,10 +54981,25 @@
       <c r="CZ164">
         <v>85</v>
       </c>
+      <c r="DA164">
+        <v>94</v>
+      </c>
+      <c r="DB164">
+        <v>96</v>
+      </c>
+      <c r="DC164">
+        <v>104</v>
+      </c>
+      <c r="DD164">
+        <v>105</v>
+      </c>
+      <c r="DE164">
+        <v>109</v>
+      </c>
     </row>
-    <row r="165" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B165" s="4">
         <v>59938</v>
@@ -52868,10 +55310,25 @@
       <c r="CZ165">
         <v>160</v>
       </c>
+      <c r="DA165">
+        <v>199</v>
+      </c>
+      <c r="DB165">
+        <v>200</v>
+      </c>
+      <c r="DC165">
+        <v>206</v>
+      </c>
+      <c r="DD165">
+        <v>214</v>
+      </c>
+      <c r="DE165">
+        <v>214</v>
+      </c>
     </row>
-    <row r="166" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B166" s="4">
         <v>50594</v>
@@ -53182,10 +55639,25 @@
       <c r="CZ166">
         <v>221</v>
       </c>
+      <c r="DA166">
+        <v>227</v>
+      </c>
+      <c r="DB166">
+        <v>228</v>
+      </c>
+      <c r="DC166">
+        <v>244</v>
+      </c>
+      <c r="DD166">
+        <v>245</v>
+      </c>
+      <c r="DE166">
+        <v>250</v>
+      </c>
     </row>
-    <row r="167" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B167" s="4">
         <v>2188</v>
@@ -53496,10 +55968,25 @@
       <c r="CZ167">
         <v>0</v>
       </c>
+      <c r="DA167">
+        <v>0</v>
+      </c>
+      <c r="DB167">
+        <v>0</v>
+      </c>
+      <c r="DC167">
+        <v>0</v>
+      </c>
+      <c r="DD167">
+        <v>0</v>
+      </c>
+      <c r="DE167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B168" s="4">
         <v>187364</v>
@@ -53810,10 +56297,25 @@
       <c r="CZ168">
         <v>222</v>
       </c>
+      <c r="DA168">
+        <v>222</v>
+      </c>
+      <c r="DB168">
+        <v>264</v>
+      </c>
+      <c r="DC168">
+        <v>287</v>
+      </c>
+      <c r="DD168">
+        <v>322</v>
+      </c>
+      <c r="DE168">
+        <v>322</v>
+      </c>
     </row>
-    <row r="169" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B169" s="4">
         <v>24635</v>
@@ -54124,10 +56626,25 @@
       <c r="CZ169">
         <v>44</v>
       </c>
+      <c r="DA169">
+        <v>48</v>
+      </c>
+      <c r="DB169">
+        <v>51</v>
+      </c>
+      <c r="DC169">
+        <v>56</v>
+      </c>
+      <c r="DD169">
+        <v>57</v>
+      </c>
+      <c r="DE169">
+        <v>57</v>
+      </c>
     </row>
-    <row r="170" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B170" s="4">
         <v>4870</v>
@@ -54438,10 +56955,25 @@
       <c r="CZ170">
         <v>1</v>
       </c>
+      <c r="DA170">
+        <v>1</v>
+      </c>
+      <c r="DB170">
+        <v>1</v>
+      </c>
+      <c r="DC170">
+        <v>1</v>
+      </c>
+      <c r="DD170">
+        <v>1</v>
+      </c>
+      <c r="DE170">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B171" s="4">
         <v>9865</v>
@@ -54752,10 +57284,25 @@
       <c r="CZ171">
         <v>2</v>
       </c>
+      <c r="DA171">
+        <v>2</v>
+      </c>
+      <c r="DB171">
+        <v>2</v>
+      </c>
+      <c r="DC171">
+        <v>2</v>
+      </c>
+      <c r="DD171">
+        <v>2</v>
+      </c>
+      <c r="DE171">
+        <v>2</v>
+      </c>
     </row>
-    <row r="172" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B172" s="4">
         <v>19199</v>
@@ -55066,10 +57613,25 @@
       <c r="CZ172">
         <v>9</v>
       </c>
+      <c r="DA172">
+        <v>9</v>
+      </c>
+      <c r="DB172">
+        <v>9</v>
+      </c>
+      <c r="DC172">
+        <v>12</v>
+      </c>
+      <c r="DD172">
+        <v>12</v>
+      </c>
+      <c r="DE172">
+        <v>12</v>
+      </c>
     </row>
-    <row r="173" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B173" s="4">
         <v>613951</v>
@@ -55380,10 +57942,25 @@
       <c r="CZ173">
         <v>1300</v>
       </c>
+      <c r="DA173">
+        <v>1359</v>
+      </c>
+      <c r="DB173">
+        <v>1428</v>
+      </c>
+      <c r="DC173">
+        <v>1484</v>
+      </c>
+      <c r="DD173">
+        <v>1555</v>
+      </c>
+      <c r="DE173">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="174" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B174" s="4">
         <v>21575</v>
@@ -55694,10 +58271,25 @@
       <c r="CZ174">
         <v>872</v>
       </c>
+      <c r="DA174">
+        <v>872</v>
+      </c>
+      <c r="DB174">
+        <v>876</v>
+      </c>
+      <c r="DC174">
+        <v>877</v>
+      </c>
+      <c r="DD174">
+        <v>877</v>
+      </c>
+      <c r="DE174">
+        <v>877</v>
+      </c>
     </row>
-    <row r="175" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B175" s="4">
         <v>12448</v>
@@ -56008,10 +58600,25 @@
       <c r="CZ175">
         <v>31</v>
       </c>
+      <c r="DA175">
+        <v>31</v>
+      </c>
+      <c r="DB175">
+        <v>31</v>
+      </c>
+      <c r="DC175">
+        <v>31</v>
+      </c>
+      <c r="DD175">
+        <v>33</v>
+      </c>
+      <c r="DE175">
+        <v>34</v>
+      </c>
     </row>
-    <row r="176" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B176" s="4">
         <v>1172</v>
@@ -56322,10 +58929,25 @@
       <c r="CZ176">
         <v>1</v>
       </c>
+      <c r="DA176">
+        <v>1</v>
+      </c>
+      <c r="DB176">
+        <v>1</v>
+      </c>
+      <c r="DC176">
+        <v>1</v>
+      </c>
+      <c r="DD176">
+        <v>1</v>
+      </c>
+      <c r="DE176">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B177" s="4">
         <v>64106</v>
@@ -56636,10 +59258,25 @@
       <c r="CZ177">
         <v>326</v>
       </c>
+      <c r="DA177">
+        <v>329</v>
+      </c>
+      <c r="DB177">
+        <v>337</v>
+      </c>
+      <c r="DC177">
+        <v>341</v>
+      </c>
+      <c r="DD177">
+        <v>343</v>
+      </c>
+      <c r="DE177">
+        <v>345</v>
+      </c>
     </row>
-    <row r="178" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B178" s="4">
         <v>47985</v>
@@ -56950,10 +59587,25 @@
       <c r="CZ178">
         <v>98</v>
       </c>
+      <c r="DA178">
+        <v>98</v>
+      </c>
+      <c r="DB178">
+        <v>101</v>
+      </c>
+      <c r="DC178">
+        <v>116</v>
+      </c>
+      <c r="DD178">
+        <v>120</v>
+      </c>
+      <c r="DE178">
+        <v>120</v>
+      </c>
     </row>
-    <row r="179" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B179" s="4">
         <v>13724</v>
@@ -57264,10 +59916,25 @@
       <c r="CZ179">
         <v>6</v>
       </c>
+      <c r="DA179">
+        <v>6</v>
+      </c>
+      <c r="DB179">
+        <v>6</v>
+      </c>
+      <c r="DC179">
+        <v>6</v>
+      </c>
+      <c r="DD179">
+        <v>6</v>
+      </c>
+      <c r="DE179">
+        <v>8</v>
+      </c>
     </row>
-    <row r="180" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B180" s="4">
         <v>15642</v>
@@ -57578,10 +60245,25 @@
       <c r="CZ180">
         <v>5</v>
       </c>
+      <c r="DA180">
+        <v>5</v>
+      </c>
+      <c r="DB180">
+        <v>8</v>
+      </c>
+      <c r="DC180">
+        <v>8</v>
+      </c>
+      <c r="DD180">
+        <v>10</v>
+      </c>
+      <c r="DE180">
+        <v>10</v>
+      </c>
     </row>
-    <row r="181" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B181" s="4">
         <v>383718</v>
@@ -57892,10 +60574,25 @@
       <c r="CZ181">
         <v>360</v>
       </c>
+      <c r="DA181">
+        <v>391</v>
+      </c>
+      <c r="DB181">
+        <v>420</v>
+      </c>
+      <c r="DC181">
+        <v>485</v>
+      </c>
+      <c r="DD181">
+        <v>548</v>
+      </c>
+      <c r="DE181">
+        <v>597</v>
+      </c>
     </row>
-    <row r="182" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B182" s="4">
         <v>11309</v>
@@ -58206,10 +60903,25 @@
       <c r="CZ182">
         <v>53</v>
       </c>
+      <c r="DA182">
+        <v>53</v>
+      </c>
+      <c r="DB182">
+        <v>53</v>
+      </c>
+      <c r="DC182">
+        <v>53</v>
+      </c>
+      <c r="DD182">
+        <v>53</v>
+      </c>
+      <c r="DE182">
+        <v>53</v>
+      </c>
     </row>
-    <row r="183" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B183" s="4">
         <v>2200</v>
@@ -58520,10 +61232,25 @@
       <c r="CZ183">
         <v>4</v>
       </c>
+      <c r="DA183">
+        <v>4</v>
+      </c>
+      <c r="DB183">
+        <v>4</v>
+      </c>
+      <c r="DC183">
+        <v>4</v>
+      </c>
+      <c r="DD183">
+        <v>4</v>
+      </c>
+      <c r="DE183">
+        <v>4</v>
+      </c>
     </row>
-    <row r="184" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B184" s="4">
         <v>86155</v>
@@ -58834,10 +61561,25 @@
       <c r="CZ184">
         <v>107</v>
       </c>
+      <c r="DA184">
+        <v>118</v>
+      </c>
+      <c r="DB184">
+        <v>126</v>
+      </c>
+      <c r="DC184">
+        <v>135</v>
+      </c>
+      <c r="DD184">
+        <v>143</v>
+      </c>
+      <c r="DE184">
+        <v>143</v>
+      </c>
     </row>
-    <row r="185" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B185" s="4">
         <v>27859</v>
@@ -59148,10 +61890,25 @@
       <c r="CZ185">
         <v>14</v>
       </c>
+      <c r="DA185">
+        <v>14</v>
+      </c>
+      <c r="DB185">
+        <v>14</v>
+      </c>
+      <c r="DC185">
+        <v>14</v>
+      </c>
+      <c r="DD185">
+        <v>14</v>
+      </c>
+      <c r="DE185">
+        <v>14</v>
+      </c>
     </row>
-    <row r="186" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B186" s="4">
         <v>24576</v>
@@ -59462,10 +62219,25 @@
       <c r="CZ186">
         <v>187</v>
       </c>
+      <c r="DA186">
+        <v>188</v>
+      </c>
+      <c r="DB186">
+        <v>191</v>
+      </c>
+      <c r="DC186">
+        <v>191</v>
+      </c>
+      <c r="DD186">
+        <v>193</v>
+      </c>
+      <c r="DE186">
+        <v>193</v>
+      </c>
     </row>
-    <row r="187" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B187" s="4">
         <v>135621</v>
@@ -59776,10 +62548,25 @@
       <c r="CZ187">
         <v>116</v>
       </c>
+      <c r="DA187">
+        <v>118</v>
+      </c>
+      <c r="DB187">
+        <v>120</v>
+      </c>
+      <c r="DC187">
+        <v>124</v>
+      </c>
+      <c r="DD187">
+        <v>124</v>
+      </c>
+      <c r="DE187">
+        <v>124</v>
+      </c>
     </row>
-    <row r="188" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B188" s="4">
         <v>9200</v>
@@ -60090,10 +62877,25 @@
       <c r="CZ188">
         <v>124</v>
       </c>
+      <c r="DA188">
+        <v>132</v>
+      </c>
+      <c r="DB188">
+        <v>139</v>
+      </c>
+      <c r="DC188">
+        <v>155</v>
+      </c>
+      <c r="DD188">
+        <v>155</v>
+      </c>
+      <c r="DE188">
+        <v>155</v>
+      </c>
     </row>
-    <row r="189" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B189" s="4">
         <v>16533</v>
@@ -60404,10 +63206,25 @@
       <c r="CZ189">
         <v>112</v>
       </c>
+      <c r="DA189">
+        <v>111</v>
+      </c>
+      <c r="DB189">
+        <v>111</v>
+      </c>
+      <c r="DC189">
+        <v>112</v>
+      </c>
+      <c r="DD189">
+        <v>112</v>
+      </c>
+      <c r="DE189">
+        <v>112</v>
+      </c>
     </row>
-    <row r="190" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B190" s="4">
         <v>49080</v>
@@ -60718,10 +63535,25 @@
       <c r="CZ190">
         <v>71</v>
       </c>
+      <c r="DA190">
+        <v>72</v>
+      </c>
+      <c r="DB190">
+        <v>73</v>
+      </c>
+      <c r="DC190">
+        <v>73</v>
+      </c>
+      <c r="DD190">
+        <v>75</v>
+      </c>
+      <c r="DE190">
+        <v>75</v>
+      </c>
     </row>
-    <row r="191" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B191" s="4">
         <v>122706</v>
@@ -61032,10 +63864,25 @@
       <c r="CZ191">
         <v>2789</v>
       </c>
+      <c r="DA191">
+        <v>2798</v>
+      </c>
+      <c r="DB191">
+        <v>2811</v>
+      </c>
+      <c r="DC191">
+        <v>2819</v>
+      </c>
+      <c r="DD191">
+        <v>2822</v>
+      </c>
+      <c r="DE191">
+        <v>2822</v>
+      </c>
     </row>
-    <row r="192" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B192" s="4">
         <v>5906</v>
@@ -61346,10 +64193,25 @@
       <c r="CZ192">
         <v>2</v>
       </c>
+      <c r="DA192">
+        <v>11</v>
+      </c>
+      <c r="DB192">
+        <v>11</v>
+      </c>
+      <c r="DC192">
+        <v>11</v>
+      </c>
+      <c r="DD192">
+        <v>11</v>
+      </c>
+      <c r="DE192">
+        <v>11</v>
+      </c>
     </row>
-    <row r="193" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B193" s="4">
         <v>11378</v>
@@ -61660,10 +64522,25 @@
       <c r="CZ193">
         <v>5</v>
       </c>
+      <c r="DA193">
+        <v>6</v>
+      </c>
+      <c r="DB193">
+        <v>6</v>
+      </c>
+      <c r="DC193">
+        <v>7</v>
+      </c>
+      <c r="DD193">
+        <v>8</v>
+      </c>
+      <c r="DE193">
+        <v>8</v>
+      </c>
     </row>
-    <row r="194" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B194" s="4">
         <v>138104</v>
@@ -61974,10 +64851,25 @@
       <c r="CZ194">
         <v>758</v>
       </c>
+      <c r="DA194">
+        <v>763</v>
+      </c>
+      <c r="DB194">
+        <v>769</v>
+      </c>
+      <c r="DC194">
+        <v>771</v>
+      </c>
+      <c r="DD194">
+        <v>775</v>
+      </c>
+      <c r="DE194">
+        <v>775</v>
+      </c>
     </row>
-    <row r="195" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B195" s="4">
         <v>4226</v>
@@ -62288,10 +65180,25 @@
       <c r="CZ195">
         <v>2</v>
       </c>
+      <c r="DA195">
+        <v>2</v>
+      </c>
+      <c r="DB195">
+        <v>2</v>
+      </c>
+      <c r="DC195">
+        <v>2</v>
+      </c>
+      <c r="DD195">
+        <v>2</v>
+      </c>
+      <c r="DE195">
+        <v>2</v>
+      </c>
     </row>
-    <row r="196" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B196" s="4">
         <v>3407</v>
@@ -62602,10 +65509,25 @@
       <c r="CZ196">
         <v>1</v>
       </c>
+      <c r="DA196">
+        <v>1</v>
+      </c>
+      <c r="DB196">
+        <v>1</v>
+      </c>
+      <c r="DC196">
+        <v>1</v>
+      </c>
+      <c r="DD196">
+        <v>1</v>
+      </c>
+      <c r="DE196">
+        <v>1</v>
+      </c>
     </row>
-    <row r="197" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B197" s="4">
         <v>12610</v>
@@ -62916,10 +65838,25 @@
       <c r="CZ197">
         <v>95</v>
       </c>
+      <c r="DA197">
+        <v>95</v>
+      </c>
+      <c r="DB197">
+        <v>95</v>
+      </c>
+      <c r="DC197">
+        <v>96</v>
+      </c>
+      <c r="DD197">
+        <v>99</v>
+      </c>
+      <c r="DE197">
+        <v>99</v>
+      </c>
     </row>
-    <row r="198" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B198" s="4">
         <v>15707</v>
@@ -63230,10 +66167,25 @@
       <c r="CZ198">
         <v>14</v>
       </c>
+      <c r="DA198">
+        <v>14</v>
+      </c>
+      <c r="DB198">
+        <v>14</v>
+      </c>
+      <c r="DC198">
+        <v>14</v>
+      </c>
+      <c r="DD198">
+        <v>14</v>
+      </c>
+      <c r="DE198">
+        <v>14</v>
+      </c>
     </row>
-    <row r="199" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B199" s="4">
         <v>7573</v>
@@ -63544,10 +66496,25 @@
       <c r="CZ199">
         <v>6</v>
       </c>
+      <c r="DA199">
+        <v>6</v>
+      </c>
+      <c r="DB199">
+        <v>6</v>
+      </c>
+      <c r="DC199">
+        <v>6</v>
+      </c>
+      <c r="DD199">
+        <v>6</v>
+      </c>
+      <c r="DE199">
+        <v>6</v>
+      </c>
     </row>
-    <row r="200" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B200" s="4">
         <v>983</v>
@@ -63858,10 +66825,25 @@
       <c r="CZ200">
         <v>2</v>
       </c>
+      <c r="DA200">
+        <v>2</v>
+      </c>
+      <c r="DB200">
+        <v>2</v>
+      </c>
+      <c r="DC200">
+        <v>2</v>
+      </c>
+      <c r="DD200">
+        <v>2</v>
+      </c>
+      <c r="DE200">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B201" s="4">
         <v>16888</v>
@@ -64172,10 +67154,25 @@
       <c r="CZ201">
         <v>18</v>
       </c>
+      <c r="DA201">
+        <v>18</v>
+      </c>
+      <c r="DB201">
+        <v>23</v>
+      </c>
+      <c r="DC201">
+        <v>22</v>
+      </c>
+      <c r="DD201">
+        <v>23</v>
+      </c>
+      <c r="DE201">
+        <v>27</v>
+      </c>
     </row>
-    <row r="202" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B202" s="4">
         <v>102243</v>
@@ -64486,10 +67483,25 @@
       <c r="CZ202">
         <v>213</v>
       </c>
+      <c r="DA202">
+        <v>216</v>
+      </c>
+      <c r="DB202">
+        <v>222</v>
+      </c>
+      <c r="DC202">
+        <v>228</v>
+      </c>
+      <c r="DD202">
+        <v>228</v>
+      </c>
+      <c r="DE202">
+        <v>228</v>
+      </c>
     </row>
-    <row r="203" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B203" s="4">
         <v>11009</v>
@@ -64800,10 +67812,25 @@
       <c r="CZ203">
         <v>2</v>
       </c>
+      <c r="DA203">
+        <v>2</v>
+      </c>
+      <c r="DB203">
+        <v>2</v>
+      </c>
+      <c r="DC203">
+        <v>3</v>
+      </c>
+      <c r="DD203">
+        <v>3</v>
+      </c>
+      <c r="DE203">
+        <v>3</v>
+      </c>
     </row>
-    <row r="204" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B204" s="4">
         <v>52767</v>
@@ -65114,10 +68141,25 @@
       <c r="CZ204">
         <v>232</v>
       </c>
+      <c r="DA204">
+        <v>233</v>
+      </c>
+      <c r="DB204">
+        <v>241</v>
+      </c>
+      <c r="DC204">
+        <v>245</v>
+      </c>
+      <c r="DD204">
+        <v>250</v>
+      </c>
+      <c r="DE204">
+        <v>250</v>
+      </c>
     </row>
-    <row r="205" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B205" s="4">
         <v>9936</v>
@@ -65428,10 +68470,25 @@
       <c r="CZ205">
         <v>15</v>
       </c>
+      <c r="DA205">
+        <v>15</v>
+      </c>
+      <c r="DB205">
+        <v>15</v>
+      </c>
+      <c r="DC205">
+        <v>15</v>
+      </c>
+      <c r="DD205">
+        <v>18</v>
+      </c>
+      <c r="DE205">
+        <v>19</v>
+      </c>
     </row>
-    <row r="206" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B206" s="4">
         <v>8405</v>
@@ -65742,10 +68799,25 @@
       <c r="CZ206">
         <v>61</v>
       </c>
+      <c r="DA206">
+        <v>74</v>
+      </c>
+      <c r="DB206">
+        <v>86</v>
+      </c>
+      <c r="DC206">
+        <v>86</v>
+      </c>
+      <c r="DD206">
+        <v>87</v>
+      </c>
+      <c r="DE206">
+        <v>87</v>
+      </c>
     </row>
-    <row r="207" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B207" s="4">
         <v>28844</v>
@@ -66056,10 +69128,25 @@
       <c r="CZ207">
         <v>19</v>
       </c>
+      <c r="DA207">
+        <v>22</v>
+      </c>
+      <c r="DB207">
+        <v>22</v>
+      </c>
+      <c r="DC207">
+        <v>23</v>
+      </c>
+      <c r="DD207">
+        <v>23</v>
+      </c>
+      <c r="DE207">
+        <v>23</v>
+      </c>
     </row>
-    <row r="208" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B208" s="4">
         <v>71325</v>
@@ -66370,10 +69457,25 @@
       <c r="CZ208">
         <v>48</v>
       </c>
+      <c r="DA208">
+        <v>48</v>
+      </c>
+      <c r="DB208">
+        <v>62</v>
+      </c>
+      <c r="DC208">
+        <v>66</v>
+      </c>
+      <c r="DD208">
+        <v>66</v>
+      </c>
+      <c r="DE208">
+        <v>66</v>
+      </c>
     </row>
-    <row r="209" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B209" s="4">
         <v>5873</v>
@@ -66684,10 +69786,25 @@
       <c r="CZ209">
         <v>2</v>
       </c>
+      <c r="DA209">
+        <v>2</v>
+      </c>
+      <c r="DB209">
+        <v>2</v>
+      </c>
+      <c r="DC209">
+        <v>2</v>
+      </c>
+      <c r="DD209">
+        <v>2</v>
+      </c>
+      <c r="DE209">
+        <v>2</v>
+      </c>
     </row>
-    <row r="210" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B210" s="4">
         <v>3312</v>
@@ -66998,10 +70115,25 @@
       <c r="CZ210">
         <v>6</v>
       </c>
+      <c r="DA210">
+        <v>8</v>
+      </c>
+      <c r="DB210">
+        <v>8</v>
+      </c>
+      <c r="DC210">
+        <v>10</v>
+      </c>
+      <c r="DD210">
+        <v>12</v>
+      </c>
+      <c r="DE210">
+        <v>12</v>
+      </c>
     </row>
-    <row r="211" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B211" s="4">
         <v>18368</v>
@@ -67312,10 +70444,25 @@
       <c r="CZ211">
         <v>28</v>
       </c>
+      <c r="DA211">
+        <v>28</v>
+      </c>
+      <c r="DB211">
+        <v>29</v>
+      </c>
+      <c r="DC211">
+        <v>29</v>
+      </c>
+      <c r="DD211">
+        <v>29</v>
+      </c>
+      <c r="DE211">
+        <v>29</v>
+      </c>
     </row>
-    <row r="212" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B212" s="4">
         <v>3405</v>
@@ -67626,10 +70773,25 @@
       <c r="CZ212">
         <v>1</v>
       </c>
+      <c r="DA212">
+        <v>1</v>
+      </c>
+      <c r="DB212">
+        <v>1</v>
+      </c>
+      <c r="DC212">
+        <v>1</v>
+      </c>
+      <c r="DD212">
+        <v>1</v>
+      </c>
+      <c r="DE212">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B213" s="4">
         <v>25545</v>
@@ -67940,10 +71102,25 @@
       <c r="CZ213">
         <v>230</v>
       </c>
+      <c r="DA213">
+        <v>230</v>
+      </c>
+      <c r="DB213">
+        <v>235</v>
+      </c>
+      <c r="DC213">
+        <v>241</v>
+      </c>
+      <c r="DD213">
+        <v>253</v>
+      </c>
+      <c r="DE213">
+        <v>254</v>
+      </c>
     </row>
-    <row r="214" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B214" s="4">
         <v>3276</v>
@@ -68254,10 +71431,25 @@
       <c r="CZ214">
         <v>28</v>
       </c>
+      <c r="DA214">
+        <v>28</v>
+      </c>
+      <c r="DB214">
+        <v>30</v>
+      </c>
+      <c r="DC214">
+        <v>30</v>
+      </c>
+      <c r="DD214">
+        <v>30</v>
+      </c>
+      <c r="DE214">
+        <v>30</v>
+      </c>
     </row>
-    <row r="215" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B215" s="4">
         <v>235143</v>
@@ -68568,10 +71760,25 @@
       <c r="CZ215">
         <v>283</v>
       </c>
+      <c r="DA215">
+        <v>297</v>
+      </c>
+      <c r="DB215">
+        <v>310</v>
+      </c>
+      <c r="DC215">
+        <v>318</v>
+      </c>
+      <c r="DD215">
+        <v>340</v>
+      </c>
+      <c r="DE215">
+        <v>340</v>
+      </c>
     </row>
-    <row r="216" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B216" s="4">
         <v>9294</v>
@@ -68882,10 +72089,25 @@
       <c r="CZ216">
         <v>3</v>
       </c>
+      <c r="DA216">
+        <v>3</v>
+      </c>
+      <c r="DB216">
+        <v>3</v>
+      </c>
+      <c r="DC216">
+        <v>3</v>
+      </c>
+      <c r="DD216">
+        <v>3</v>
+      </c>
+      <c r="DE216">
+        <v>3</v>
+      </c>
     </row>
-    <row r="217" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B217" s="4">
         <v>64731</v>
@@ -69196,10 +72418,25 @@
       <c r="CZ217">
         <v>135</v>
       </c>
+      <c r="DA217">
+        <v>159</v>
+      </c>
+      <c r="DB217">
+        <v>186</v>
+      </c>
+      <c r="DC217">
+        <v>203</v>
+      </c>
+      <c r="DD217">
+        <v>224</v>
+      </c>
+      <c r="DE217">
+        <v>244</v>
+      </c>
     </row>
-    <row r="218" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B218" s="4">
         <v>9570</v>
@@ -69510,10 +72747,25 @@
       <c r="CZ218">
         <v>5</v>
       </c>
+      <c r="DA218">
+        <v>5</v>
+      </c>
+      <c r="DB218">
+        <v>5</v>
+      </c>
+      <c r="DC218">
+        <v>5</v>
+      </c>
+      <c r="DD218">
+        <v>5</v>
+      </c>
+      <c r="DE218">
+        <v>5</v>
+      </c>
     </row>
-    <row r="219" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B219" s="4">
         <v>1252</v>
@@ -69824,10 +73076,25 @@
       <c r="CZ219">
         <v>0</v>
       </c>
+      <c r="DA219">
+        <v>0</v>
+      </c>
+      <c r="DB219">
+        <v>0</v>
+      </c>
+      <c r="DC219">
+        <v>0</v>
+      </c>
+      <c r="DD219">
+        <v>0</v>
+      </c>
+      <c r="DE219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B220" s="4">
         <v>1523</v>
@@ -70138,10 +73405,25 @@
       <c r="CZ220">
         <v>0</v>
       </c>
+      <c r="DA220">
+        <v>0</v>
+      </c>
+      <c r="DB220">
+        <v>0</v>
+      </c>
+      <c r="DC220">
+        <v>0</v>
+      </c>
+      <c r="DD220">
+        <v>0</v>
+      </c>
+      <c r="DE220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B221" s="4">
         <v>4381</v>
@@ -70452,10 +73734,25 @@
       <c r="CZ221">
         <v>0</v>
       </c>
+      <c r="DA221">
+        <v>0</v>
+      </c>
+      <c r="DB221">
+        <v>0</v>
+      </c>
+      <c r="DC221">
+        <v>1</v>
+      </c>
+      <c r="DD221">
+        <v>1</v>
+      </c>
+      <c r="DE221">
+        <v>1</v>
+      </c>
     </row>
-    <row r="222" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B222" s="4">
         <v>7414</v>
@@ -70766,10 +74063,25 @@
       <c r="CZ222">
         <v>21</v>
       </c>
+      <c r="DA222">
+        <v>23</v>
+      </c>
+      <c r="DB222">
+        <v>23</v>
+      </c>
+      <c r="DC222">
+        <v>23</v>
+      </c>
+      <c r="DD222">
+        <v>23</v>
+      </c>
+      <c r="DE222">
+        <v>23</v>
+      </c>
     </row>
-    <row r="223" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B223" s="4">
         <v>2143755</v>
@@ -71080,10 +74392,25 @@
       <c r="CZ223">
         <v>7498</v>
       </c>
+      <c r="DA223">
+        <v>7642</v>
+      </c>
+      <c r="DB223">
+        <v>7822</v>
+      </c>
+      <c r="DC223">
+        <v>8099</v>
+      </c>
+      <c r="DD223">
+        <v>8331</v>
+      </c>
+      <c r="DE223">
+        <v>8511</v>
+      </c>
     </row>
-    <row r="224" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B224" s="4">
         <v>139457</v>
@@ -71394,10 +74721,25 @@
       <c r="CZ224">
         <v>255</v>
       </c>
+      <c r="DA224">
+        <v>259</v>
+      </c>
+      <c r="DB224">
+        <v>261</v>
+      </c>
+      <c r="DC224">
+        <v>268</v>
+      </c>
+      <c r="DD224">
+        <v>278</v>
+      </c>
+      <c r="DE224">
+        <v>282</v>
+      </c>
     </row>
-    <row r="225" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B225" s="4">
         <v>1054</v>
@@ -71708,10 +75050,25 @@
       <c r="CZ225">
         <v>0</v>
       </c>
+      <c r="DA225">
+        <v>0</v>
+      </c>
+      <c r="DB225">
+        <v>0</v>
+      </c>
+      <c r="DC225">
+        <v>0</v>
+      </c>
+      <c r="DD225">
+        <v>0</v>
+      </c>
+      <c r="DE225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B226" s="4">
         <v>13040</v>
@@ -72022,10 +75379,25 @@
       <c r="CZ226">
         <v>13</v>
       </c>
+      <c r="DA226">
+        <v>13</v>
+      </c>
+      <c r="DB226">
+        <v>14</v>
+      </c>
+      <c r="DC226">
+        <v>14</v>
+      </c>
+      <c r="DD226">
+        <v>14</v>
+      </c>
+      <c r="DE226">
+        <v>14</v>
+      </c>
     </row>
-    <row r="227" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B227" s="4">
         <v>1519</v>
@@ -72336,10 +75708,25 @@
       <c r="CZ227">
         <v>0</v>
       </c>
+      <c r="DA227">
+        <v>0</v>
+      </c>
+      <c r="DB227">
+        <v>0</v>
+      </c>
+      <c r="DC227">
+        <v>0</v>
+      </c>
+      <c r="DD227">
+        <v>0</v>
+      </c>
+      <c r="DE227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B228" s="4">
         <v>32953</v>
@@ -72650,10 +76037,25 @@
       <c r="CZ228">
         <v>633</v>
       </c>
+      <c r="DA228">
+        <v>635</v>
+      </c>
+      <c r="DB228">
+        <v>636</v>
+      </c>
+      <c r="DC228">
+        <v>645</v>
+      </c>
+      <c r="DD228">
+        <v>652</v>
+      </c>
+      <c r="DE228">
+        <v>656</v>
+      </c>
     </row>
-    <row r="229" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B229" s="4">
         <v>123276</v>
@@ -72964,10 +76366,25 @@
       <c r="CZ229">
         <v>121</v>
       </c>
+      <c r="DA229">
+        <v>131</v>
+      </c>
+      <c r="DB229">
+        <v>151</v>
+      </c>
+      <c r="DC229">
+        <v>171</v>
+      </c>
+      <c r="DD229">
+        <v>178</v>
+      </c>
+      <c r="DE229">
+        <v>186</v>
+      </c>
     </row>
-    <row r="230" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B230" s="4">
         <v>1291502</v>
@@ -73278,10 +76695,25 @@
       <c r="CZ230">
         <v>4664</v>
       </c>
+      <c r="DA230">
+        <v>4771</v>
+      </c>
+      <c r="DB230">
+        <v>4991</v>
+      </c>
+      <c r="DC230">
+        <v>4991</v>
+      </c>
+      <c r="DD230">
+        <v>5286</v>
+      </c>
+      <c r="DE230">
+        <v>5704</v>
+      </c>
     </row>
-    <row r="231" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B231" s="4">
         <v>14233</v>
@@ -73592,10 +77024,25 @@
       <c r="CZ231">
         <v>17</v>
       </c>
+      <c r="DA231">
+        <v>20</v>
+      </c>
+      <c r="DB231">
+        <v>21</v>
+      </c>
+      <c r="DC231">
+        <v>21</v>
+      </c>
+      <c r="DD231">
+        <v>22</v>
+      </c>
+      <c r="DE231">
+        <v>23</v>
+      </c>
     </row>
-    <row r="232" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B232" s="4">
         <v>21343</v>
@@ -73906,10 +77353,25 @@
       <c r="CZ232">
         <v>14</v>
       </c>
+      <c r="DA232">
+        <v>14</v>
+      </c>
+      <c r="DB232">
+        <v>14</v>
+      </c>
+      <c r="DC232">
+        <v>14</v>
+      </c>
+      <c r="DD232">
+        <v>18</v>
+      </c>
+      <c r="DE232">
+        <v>18</v>
+      </c>
     </row>
-    <row r="233" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B233" s="4">
         <v>41655</v>
@@ -74220,10 +77682,25 @@
       <c r="CZ233">
         <v>41</v>
       </c>
+      <c r="DA233">
+        <v>42</v>
+      </c>
+      <c r="DB233">
+        <v>41</v>
+      </c>
+      <c r="DC233">
+        <v>41</v>
+      </c>
+      <c r="DD233">
+        <v>41</v>
+      </c>
+      <c r="DE233">
+        <v>43</v>
+      </c>
     </row>
-    <row r="234" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B234" s="4">
         <v>3983</v>
@@ -74534,10 +78011,25 @@
       <c r="CZ234">
         <v>0</v>
       </c>
+      <c r="DA234">
+        <v>0</v>
+      </c>
+      <c r="DB234">
+        <v>0</v>
+      </c>
+      <c r="DC234">
+        <v>1</v>
+      </c>
+      <c r="DD234">
+        <v>1</v>
+      </c>
+      <c r="DE234">
+        <v>1</v>
+      </c>
     </row>
-    <row r="235" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B235" s="4">
         <v>27937</v>
@@ -74848,10 +78340,25 @@
       <c r="CZ235">
         <v>26</v>
       </c>
+      <c r="DA235">
+        <v>29</v>
+      </c>
+      <c r="DB235">
+        <v>30</v>
+      </c>
+      <c r="DC235">
+        <v>31</v>
+      </c>
+      <c r="DD235">
+        <v>36</v>
+      </c>
+      <c r="DE235">
+        <v>37</v>
+      </c>
     </row>
-    <row r="236" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B236" s="4">
         <v>48253</v>
@@ -75162,10 +78669,25 @@
       <c r="CZ236">
         <v>21</v>
       </c>
+      <c r="DA236">
+        <v>21</v>
+      </c>
+      <c r="DB236">
+        <v>39</v>
+      </c>
+      <c r="DC236">
+        <v>39</v>
+      </c>
+      <c r="DD236">
+        <v>59</v>
+      </c>
+      <c r="DE236">
+        <v>59</v>
+      </c>
     </row>
-    <row r="237" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B237" s="4">
         <v>55469</v>
@@ -75476,10 +78998,25 @@
       <c r="CZ237">
         <v>52</v>
       </c>
+      <c r="DA237">
+        <v>53</v>
+      </c>
+      <c r="DB237">
+        <v>52</v>
+      </c>
+      <c r="DC237">
+        <v>54</v>
+      </c>
+      <c r="DD237">
+        <v>54</v>
+      </c>
+      <c r="DE237">
+        <v>54</v>
+      </c>
     </row>
-    <row r="238" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B238" s="4">
         <v>97744</v>
@@ -75790,10 +79327,25 @@
       <c r="CZ238">
         <v>202</v>
       </c>
+      <c r="DA238">
+        <v>207</v>
+      </c>
+      <c r="DB238">
+        <v>223</v>
+      </c>
+      <c r="DC238">
+        <v>241</v>
+      </c>
+      <c r="DD238">
+        <v>241</v>
+      </c>
+      <c r="DE238">
+        <v>241</v>
+      </c>
     </row>
-    <row r="239" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B239" s="4">
         <v>73997</v>
@@ -76104,10 +79656,25 @@
       <c r="CZ239">
         <v>1873</v>
       </c>
+      <c r="DA239">
+        <v>1879</v>
+      </c>
+      <c r="DB239">
+        <v>1885</v>
+      </c>
+      <c r="DC239">
+        <v>1890</v>
+      </c>
+      <c r="DD239">
+        <v>1905</v>
+      </c>
+      <c r="DE239">
+        <v>1912</v>
+      </c>
     </row>
-    <row r="240" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B240" s="4">
         <v>50731</v>
@@ -76418,10 +79985,25 @@
       <c r="CZ240">
         <v>92</v>
       </c>
+      <c r="DA240">
+        <v>99</v>
+      </c>
+      <c r="DB240">
+        <v>100</v>
+      </c>
+      <c r="DC240">
+        <v>104</v>
+      </c>
+      <c r="DD240">
+        <v>106</v>
+      </c>
+      <c r="DE240">
+        <v>110</v>
+      </c>
     </row>
-    <row r="241" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B241" s="4">
         <v>13592</v>
@@ -76732,10 +80314,25 @@
       <c r="CZ241">
         <v>7</v>
       </c>
+      <c r="DA241">
+        <v>7</v>
+      </c>
+      <c r="DB241">
+        <v>7</v>
+      </c>
+      <c r="DC241">
+        <v>7</v>
+      </c>
+      <c r="DD241">
+        <v>8</v>
+      </c>
+      <c r="DE241">
+        <v>8</v>
+      </c>
     </row>
-    <row r="242" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B242" s="4">
         <v>35155</v>
@@ -77046,10 +80643,25 @@
       <c r="CZ242">
         <v>218</v>
       </c>
+      <c r="DA242">
+        <v>219</v>
+      </c>
+      <c r="DB242">
+        <v>222</v>
+      </c>
+      <c r="DC242">
+        <v>222</v>
+      </c>
+      <c r="DD242">
+        <v>224</v>
+      </c>
+      <c r="DE242">
+        <v>229</v>
+      </c>
     </row>
-    <row r="243" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B243" s="4">
         <v>276183</v>
@@ -77360,10 +80972,25 @@
       <c r="CZ243">
         <v>718</v>
       </c>
+      <c r="DA243">
+        <v>756</v>
+      </c>
+      <c r="DB243">
+        <v>803</v>
+      </c>
+      <c r="DC243">
+        <v>854</v>
+      </c>
+      <c r="DD243">
+        <v>874</v>
+      </c>
+      <c r="DE243">
+        <v>874</v>
+      </c>
     </row>
-    <row r="244" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B244" s="4">
         <v>41941</v>
@@ -77674,10 +81301,25 @@
       <c r="CZ244">
         <v>98</v>
       </c>
+      <c r="DA244">
+        <v>98</v>
+      </c>
+      <c r="DB244">
+        <v>99</v>
+      </c>
+      <c r="DC244">
+        <v>114</v>
+      </c>
+      <c r="DD244">
+        <v>115</v>
+      </c>
+      <c r="DE244">
+        <v>118</v>
+      </c>
     </row>
-    <row r="245" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B245" s="4">
         <v>5783</v>
@@ -77988,10 +81630,25 @@
       <c r="CZ245">
         <v>15</v>
       </c>
+      <c r="DA245">
+        <v>16</v>
+      </c>
+      <c r="DB245">
+        <v>16</v>
+      </c>
+      <c r="DC245">
+        <v>16</v>
+      </c>
+      <c r="DD245">
+        <v>16</v>
+      </c>
+      <c r="DE245">
+        <v>16</v>
+      </c>
     </row>
-    <row r="246" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B246" s="4">
         <v>133138</v>
@@ -78302,10 +81959,25 @@
       <c r="CZ246">
         <v>117</v>
       </c>
+      <c r="DA246">
+        <v>120</v>
+      </c>
+      <c r="DB246">
+        <v>137</v>
+      </c>
+      <c r="DC246">
+        <v>150</v>
+      </c>
+      <c r="DD246">
+        <v>169</v>
+      </c>
+      <c r="DE246">
+        <v>169</v>
+      </c>
     </row>
-    <row r="247" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B247" s="4">
         <v>13038</v>
@@ -78616,10 +82288,25 @@
       <c r="CZ247">
         <v>7</v>
       </c>
+      <c r="DA247">
+        <v>7</v>
+      </c>
+      <c r="DB247">
+        <v>7</v>
+      </c>
+      <c r="DC247">
+        <v>7</v>
+      </c>
+      <c r="DD247">
+        <v>7</v>
+      </c>
+      <c r="DE247">
+        <v>7</v>
+      </c>
     </row>
-    <row r="248" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B248" s="4">
         <v>22134</v>
@@ -78930,10 +82617,25 @@
       <c r="CZ248">
         <v>61</v>
       </c>
+      <c r="DA248">
+        <v>65</v>
+      </c>
+      <c r="DB248">
+        <v>71</v>
+      </c>
+      <c r="DC248">
+        <v>75</v>
+      </c>
+      <c r="DD248">
+        <v>82</v>
+      </c>
+      <c r="DE248">
+        <v>87</v>
+      </c>
     </row>
-    <row r="249" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B249" s="4">
         <v>589914</v>
@@ -79244,10 +82946,25 @@
       <c r="CZ249">
         <v>960</v>
       </c>
+      <c r="DA249">
+        <v>1021</v>
+      </c>
+      <c r="DB249">
+        <v>1068</v>
+      </c>
+      <c r="DC249">
+        <v>1114</v>
+      </c>
+      <c r="DD249">
+        <v>1159</v>
+      </c>
+      <c r="DE249">
+        <v>1237</v>
+      </c>
     </row>
-    <row r="250" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B250" s="4">
         <v>51802</v>
@@ -79558,10 +83275,25 @@
       <c r="CZ250">
         <v>53</v>
       </c>
+      <c r="DA250">
+        <v>53</v>
+      </c>
+      <c r="DB250">
+        <v>55</v>
+      </c>
+      <c r="DC250">
+        <v>65</v>
+      </c>
+      <c r="DD250">
+        <v>69</v>
+      </c>
+      <c r="DE250">
+        <v>72</v>
+      </c>
     </row>
-    <row r="251" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B251" s="4">
         <v>9295</v>
@@ -79872,10 +83604,25 @@
       <c r="CZ251">
         <v>4</v>
       </c>
+      <c r="DA251">
+        <v>4</v>
+      </c>
+      <c r="DB251">
+        <v>5</v>
+      </c>
+      <c r="DC251">
+        <v>6</v>
+      </c>
+      <c r="DD251">
+        <v>6</v>
+      </c>
+      <c r="DE251">
+        <v>6</v>
+      </c>
     </row>
-    <row r="252" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B252" s="4">
         <v>65807</v>
@@ -80186,10 +83933,25 @@
       <c r="CZ252">
         <v>56</v>
       </c>
+      <c r="DA252">
+        <v>58</v>
+      </c>
+      <c r="DB252">
+        <v>62</v>
+      </c>
+      <c r="DC252">
+        <v>62</v>
+      </c>
+      <c r="DD252">
+        <v>62</v>
+      </c>
+      <c r="DE252">
+        <v>62</v>
+      </c>
     </row>
-    <row r="253" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B253" s="4">
         <v>45292</v>
@@ -80500,10 +84262,25 @@
       <c r="CZ253">
         <v>56</v>
       </c>
+      <c r="DA253">
+        <v>62</v>
+      </c>
+      <c r="DB253">
+        <v>66</v>
+      </c>
+      <c r="DC253">
+        <v>70</v>
+      </c>
+      <c r="DD253">
+        <v>71</v>
+      </c>
+      <c r="DE253">
+        <v>71</v>
+      </c>
     </row>
-    <row r="254" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B254" s="4">
         <v>9225</v>
@@ -80814,10 +84591,25 @@
       <c r="CZ254">
         <v>10</v>
       </c>
+      <c r="DA254">
+        <v>10</v>
+      </c>
+      <c r="DB254">
+        <v>11</v>
+      </c>
+      <c r="DC254">
+        <v>11</v>
+      </c>
+      <c r="DD254">
+        <v>13</v>
+      </c>
+      <c r="DE254">
+        <v>13</v>
+      </c>
     </row>
-    <row r="255" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B255" s="4">
         <v>18712</v>
@@ -81128,10 +84920,25 @@
       <c r="CZ255">
         <v>15</v>
       </c>
+      <c r="DA255">
+        <v>15</v>
+      </c>
+      <c r="DB255">
+        <v>15</v>
+      </c>
+      <c r="DC255">
+        <v>16</v>
+      </c>
+      <c r="DD255">
+        <v>16</v>
+      </c>
+      <c r="DE255">
+        <v>16</v>
+      </c>
     </row>
-    <row r="256" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B256" s="4">
         <v>14409</v>
@@ -81442,10 +85249,25 @@
       <c r="CZ256">
         <v>23</v>
       </c>
+      <c r="DA256">
+        <v>24</v>
+      </c>
+      <c r="DB256">
+        <v>31</v>
+      </c>
+      <c r="DC256">
+        <v>31</v>
+      </c>
+      <c r="DD256">
+        <v>32</v>
+      </c>
+      <c r="DE256">
+        <v>33</v>
+      </c>
     </row>
-    <row r="257" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B257" s="4">
         <v>12682</v>
@@ -81756,10 +85578,25 @@
       <c r="CZ257">
         <v>13</v>
       </c>
+      <c r="DA257">
+        <v>13</v>
+      </c>
+      <c r="DB257">
+        <v>13</v>
+      </c>
+      <c r="DC257">
+        <v>13</v>
+      </c>
+      <c r="DD257">
+        <v>13</v>
+      </c>
+      <c r="DE257">
+        <v>13</v>
+      </c>
     </row>
-    <row r="258" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B258" s="4">
         <v>29677668</v>
@@ -82070,21 +85907,36 @@
       <c r="CZ258">
         <v>93206</v>
       </c>
+      <c r="DA258">
+        <v>96335</v>
+      </c>
+      <c r="DB258">
+        <v>99851</v>
+      </c>
+      <c r="DC258">
+        <v>103305</v>
+      </c>
+      <c r="DD258">
+        <v>107735</v>
+      </c>
+      <c r="DE258">
+        <v>111601</v>
+      </c>
     </row>
-    <row r="259" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B259" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="260" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B260" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -82392,69 +86244,84 @@
       <c r="CZ260">
         <v>237</v>
       </c>
+      <c r="DA260">
+        <v>237</v>
+      </c>
+      <c r="DB260">
+        <v>237</v>
+      </c>
+      <c r="DC260">
+        <v>239</v>
+      </c>
+      <c r="DD260">
+        <v>240</v>
+      </c>
+      <c r="DE260">
+        <v>240</v>
+      </c>
     </row>
-    <row r="261" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B261" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="262" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B262" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="263" spans="1:104" ht="58" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:109" ht="58" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B263" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="264" spans="1:104" ht="87" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:109" ht="87" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="265" spans="1:104" ht="116" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:109" ht="116" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B265" t="s">
         <v>366</v>
       </c>
-      <c r="B265" t="s">
-        <v>361</v>
-      </c>
     </row>
-    <row r="266" spans="1:104" ht="29" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:109" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B266" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="267" spans="1:104" ht="203" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:109" ht="203" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B267" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="268" spans="1:104" ht="87" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:109" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B268" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="640">
   <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 06/30/20 at 9:30 AM CST</t>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/01/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -45,6 +45,7 @@
   + 
 03-04</t>
   </si>
@@ -68,6 +69,7 @@
   + 
 03-05</t>
   </si>
@@ -91,6 +93,7 @@
   + 
 03-06</t>
   </si>
@@ -114,6 +117,7 @@
   + 
 03-09</t>
   </si>
@@ -137,6 +141,7 @@
   + 
 03-10</t>
   </si>
@@ -160,6 +165,7 @@
   + 
 03-11</t>
   </si>
@@ -183,6 +189,7 @@
   + 
 03-12</t>
   </si>
@@ -206,6 +213,7 @@
   + 
 03-13</t>
   </si>
@@ -229,6 +237,7 @@
   + 
 03-15</t>
   </si>
@@ -252,6 +261,7 @@
   + 
 03-16</t>
   </si>
@@ -275,6 +285,7 @@
   + 
 03-17</t>
   </si>
@@ -298,6 +309,7 @@
   + 
 03-18</t>
   </si>
@@ -321,6 +333,7 @@
   + 
 03-19</t>
   </si>
@@ -344,6 +357,7 @@
   + 
 03-20</t>
   </si>
@@ -367,6 +381,7 @@
   + 
 03-21</t>
   </si>
@@ -390,6 +405,7 @@
   + 
 03-22</t>
   </si>
@@ -413,6 +429,7 @@
   + 
 03-23</t>
   </si>
@@ -436,6 +453,7 @@
   + 
 03-24</t>
   </si>
@@ -459,6 +477,7 @@
   + 
 03-25</t>
   </si>
@@ -482,6 +501,7 @@
   + 
 03-26</t>
   </si>
@@ -505,6 +525,7 @@
   + 
 03-27</t>
   </si>
@@ -528,6 +549,7 @@
   + 
 03-28</t>
   </si>
@@ -551,6 +573,7 @@
   + 
 03-29</t>
   </si>
@@ -574,6 +597,7 @@
   + 
 03-30</t>
   </si>
@@ -597,6 +621,7 @@
   + 
 03-31</t>
   </si>
@@ -620,6 +645,7 @@
   + 
 04-01</t>
   </si>
@@ -643,6 +669,7 @@
   + 
 04-02</t>
   </si>
@@ -666,6 +693,7 @@
   + 
 04-03</t>
   </si>
@@ -689,6 +717,7 @@
   + 
 04-04</t>
   </si>
@@ -712,6 +741,7 @@
   + 
 04-05</t>
   </si>
@@ -735,6 +765,7 @@
   + 
 04-06</t>
   </si>
@@ -758,6 +789,7 @@
   + 
 04-07</t>
   </si>
@@ -781,6 +813,7 @@
   + 
 04-08</t>
   </si>
@@ -804,6 +837,7 @@
   + 
 04-09</t>
   </si>
@@ -827,6 +861,7 @@
   + 
 04-10</t>
   </si>
@@ -850,6 +885,7 @@
   + 
 04-11</t>
   </si>
@@ -873,6 +909,7 @@
   + 
 04-12</t>
   </si>
@@ -896,6 +933,7 @@
   + 
 04-13</t>
   </si>
@@ -919,6 +957,7 @@
   + 
 04-14</t>
   </si>
@@ -942,6 +981,7 @@
   + 
 04-15</t>
   </si>
@@ -965,6 +1005,7 @@
   + 
 04-16</t>
   </si>
@@ -988,6 +1029,7 @@
   + 
 04-17</t>
   </si>
@@ -1011,6 +1053,7 @@
   + 
 04-18</t>
   </si>
@@ -1034,6 +1077,7 @@
   + 
 04-19</t>
   </si>
@@ -1057,6 +1101,7 @@
   + 
 04-20</t>
   </si>
@@ -1080,6 +1125,7 @@
   + 
 04-21</t>
   </si>
@@ -1103,6 +1149,7 @@
   + 
 04-22</t>
   </si>
@@ -1126,6 +1173,7 @@
   + 
 04-23</t>
   </si>
@@ -1149,6 +1197,7 @@
   + 
 04-24</t>
   </si>
@@ -1172,6 +1221,7 @@
   + 
 04-25</t>
   </si>
@@ -1195,6 +1245,7 @@
   + 
 04-26</t>
   </si>
@@ -1218,6 +1269,7 @@
   + 
 04-27</t>
   </si>
@@ -1241,6 +1293,7 @@
   + 
 04-28</t>
   </si>
@@ -1264,6 +1317,7 @@
   + 
 04-29</t>
   </si>
@@ -1287,6 +1341,7 @@
   + 
 04-30</t>
   </si>
@@ -1310,6 +1365,7 @@
   + 
 05-01</t>
   </si>
@@ -1333,6 +1389,7 @@
   + 
 05-02</t>
   </si>
@@ -1356,6 +1413,7 @@
   + 
 05-03</t>
   </si>
@@ -1379,6 +1437,7 @@
   + 
 05-04</t>
   </si>
@@ -1402,6 +1461,7 @@
   + 
 05-05</t>
   </si>
@@ -1425,6 +1485,7 @@
   + 
 05-06</t>
   </si>
@@ -1448,6 +1509,7 @@
   + 
 05-07</t>
   </si>
@@ -1471,6 +1533,7 @@
   + 
 05-08</t>
   </si>
@@ -1494,6 +1557,7 @@
   + 
 05-09</t>
   </si>
@@ -1517,6 +1581,7 @@
   + 
 05-10</t>
   </si>
@@ -1540,6 +1605,7 @@
   + 
 05-11</t>
   </si>
@@ -1563,6 +1629,7 @@
   + 
 05-12</t>
   </si>
@@ -1586,6 +1653,7 @@
   + 
 05-13</t>
   </si>
@@ -1609,6 +1677,7 @@
   + 
 05-14</t>
   </si>
@@ -1632,6 +1701,7 @@
   + 
 05-15</t>
   </si>
@@ -1655,6 +1725,7 @@
   + 
 05-16</t>
   </si>
@@ -1678,6 +1749,7 @@
   + 
 05-17</t>
   </si>
@@ -1701,6 +1773,7 @@
   + 
 05-18</t>
   </si>
@@ -1724,6 +1797,7 @@
   + 
 05-19</t>
   </si>
@@ -1747,6 +1821,7 @@
   + 
 05-20</t>
   </si>
@@ -1770,6 +1845,7 @@
   + 
 05-21</t>
   </si>
@@ -1793,6 +1869,7 @@
   + 
 05-22</t>
   </si>
@@ -1816,6 +1893,7 @@
   + 
 05-23</t>
   </si>
@@ -1839,6 +1917,7 @@
   + 
 05-24</t>
   </si>
@@ -1862,6 +1941,7 @@
   + 
 05-25</t>
   </si>
@@ -1885,6 +1965,7 @@
   + 
 05-26</t>
   </si>
@@ -1908,6 +1989,7 @@
   + 
 05-27</t>
   </si>
@@ -1931,6 +2013,7 @@
   + 
 05-28</t>
   </si>
@@ -1954,6 +2037,7 @@
   + 
 05-29</t>
   </si>
@@ -1977,11 +2061,13 @@
   + 
 05-30</t>
   </si>
   <si>
     <t>Cases+   @@ -2092,6 +2178,9 @@
   </si>
   <si>
     <t>Cases 06-30</t>
+  </si>
+  <si>
+    <t>Cases 07-01</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -2866,6 +2955,7 @@
   </si>
   <si>
     <t xml:space="preserve">Notes:+   @@ -3901,6 +3991,7 @@
     <col min="116" max="116" width="12.0" customWidth="true"/>
     <col min="117" max="117" width="12.0" customWidth="true"/>
     <col min="118" max="118" width="12.0" customWidth="true"/>
+    <col min="119" max="119" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4268,13 +4359,16 @@
       <c r="DN3" t="s" s="10">
         <v>119</v>
       </c>
+      <c r="DO3" t="s" s="10">
+        <v>120</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -4623,14 +4717,17 @@
       </c>
       <c r="DN4" t="n">
         <v>1032.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1040.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -4979,14 +5076,17 @@
       </c>
       <c r="DN5" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -5335,14 +5435,17 @@
       </c>
       <c r="DN6" t="n">
         <v>476.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>507.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -5691,14 +5794,17 @@
       </c>
       <c r="DN7" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -6046,15 +6152,18 @@
         <v>6.0</v>
       </c>
       <c r="DN8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DO8" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -6402,15 +6511,18 @@
         <v>3.0</v>
       </c>
       <c r="DN9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -6759,14 +6871,17 @@
       </c>
       <c r="DN10" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -7115,14 +7230,17 @@
       </c>
       <c r="DN11" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -7471,14 +7589,17 @@
       </c>
       <c r="DN12" t="n">
         <v>94.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -7827,14 +7948,17 @@
       </c>
       <c r="DN13" t="n">
         <v>16.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -8183,14 +8307,17 @@
       </c>
       <c r="DN14" t="n">
         <v>442.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>446.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -8538,15 +8665,18 @@
         <v>1.0</v>
       </c>
       <c r="DN15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DO15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -8895,14 +9025,17 @@
       </c>
       <c r="DN16" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -9251,14 +9384,17 @@
       </c>
       <c r="DN17" t="n">
         <v>1187.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>1315.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -9607,14 +9743,17 @@
       </c>
       <c r="DN18" t="n">
         <v>10797.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>12065.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -9962,15 +10101,18 @@
         <v>27.0</v>
       </c>
       <c r="DN19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DO19" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -10318,15 +10460,18 @@
         <v>0.0</v>
       </c>
       <c r="DN20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -10675,14 +10820,17 @@
       </c>
       <c r="DN21" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -11031,14 +11179,17 @@
       </c>
       <c r="DN22" t="n">
         <v>427.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>438.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -11387,14 +11538,17 @@
       </c>
       <c r="DN23" t="n">
         <v>2269.0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>2336.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -11743,14 +11897,17 @@
       </c>
       <c r="DN24" t="n">
         <v>1943.0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>2005.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
@@ -12099,14 +12256,17 @@
       </c>
       <c r="DN25" t="n">
         <v>130.0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -12455,14 +12615,17 @@
       </c>
       <c r="DN26" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -12810,15 +12973,18 @@
         <v>3.0</v>
       </c>
       <c r="DN27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO27" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
@@ -13167,14 +13333,17 @@
       </c>
       <c r="DN28" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DO28" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
@@ -13523,14 +13692,17 @@
       </c>
       <c r="DN29" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -13879,14 +14051,17 @@
       </c>
       <c r="DN30" t="n">
         <v>129.0</v>
+      </c>
+      <c r="DO30" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -14235,14 +14410,17 @@
       </c>
       <c r="DN31" t="n">
         <v>336.0</v>
+      </c>
+      <c r="DO31" t="n">
+        <v>346.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
@@ -14591,14 +14769,17 @@
       </c>
       <c r="DN32" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DO32" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -14947,14 +15128,17 @@
       </c>
       <c r="DN33" t="n">
         <v>16.0</v>
+      </c>
+      <c r="DO33" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
@@ -15303,14 +15487,17 @@
       </c>
       <c r="DN34" t="n">
         <v>2296.0</v>
+      </c>
+      <c r="DO34" t="n">
+        <v>2399.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
@@ -15659,14 +15846,17 @@
       </c>
       <c r="DN35" t="n">
         <v>117.0</v>
+      </c>
+      <c r="DO35" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
@@ -16014,15 +16204,18 @@
         <v>6.0</v>
       </c>
       <c r="DN36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DO36" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
@@ -16371,14 +16564,17 @@
       </c>
       <c r="DN37" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DO37" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C38" t="n">
         <v>0.0</v>
@@ -16727,14 +16923,17 @@
       </c>
       <c r="DN38" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DO38" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C39" t="n">
         <v>0.0</v>
@@ -17083,14 +17282,17 @@
       </c>
       <c r="DN39" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DO39" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
@@ -17439,14 +17641,17 @@
       </c>
       <c r="DN40" t="n">
         <v>148.0</v>
+      </c>
+      <c r="DO40" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
@@ -17794,15 +17999,18 @@
         <v>7.0</v>
       </c>
       <c r="DN41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DO41" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
@@ -18151,14 +18359,17 @@
       </c>
       <c r="DN42" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DO42" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C43" t="n">
         <v>0.0</v>
@@ -18506,15 +18717,18 @@
         <v>1.0</v>
       </c>
       <c r="DN43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DO43" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
@@ -18862,15 +19076,18 @@
         <v>5.0</v>
       </c>
       <c r="DN44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO44" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
@@ -19218,15 +19435,18 @@
         <v>3.0</v>
       </c>
       <c r="DN45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO45" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C46" t="n">
         <v>0.0</v>
@@ -19575,14 +19795,17 @@
       </c>
       <c r="DN46" t="n">
         <v>2882.0</v>
+      </c>
+      <c r="DO46" t="n">
+        <v>2997.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
@@ -19930,15 +20153,18 @@
         <v>6.0</v>
       </c>
       <c r="DN47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DO47" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
@@ -20287,14 +20513,17 @@
       </c>
       <c r="DN48" t="n">
         <v>87.0</v>
+      </c>
+      <c r="DO48" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C49" t="n">
         <v>0.0</v>
@@ -20643,14 +20872,17 @@
       </c>
       <c r="DN49" t="n">
         <v>470.0</v>
+      </c>
+      <c r="DO49" t="n">
+        <v>525.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C50" t="n">
         <v>0.0</v>
@@ -20999,14 +21231,17 @@
       </c>
       <c r="DN50" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C51" t="n">
         <v>0.0</v>
@@ -21354,15 +21589,18 @@
         <v>7.0</v>
       </c>
       <c r="DN51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DO51" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
@@ -21710,15 +21948,18 @@
         <v>35.0</v>
       </c>
       <c r="DN52" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="DO52" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C53" t="n">
         <v>0.0</v>
@@ -22066,15 +22307,18 @@
         <v>330.0</v>
       </c>
       <c r="DN53" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="DO53" t="n">
         <v>331.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C54" t="n">
         <v>0.0</v>
@@ -22422,15 +22666,18 @@
         <v>4.0</v>
       </c>
       <c r="DN54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DO54" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -22779,14 +23026,17 @@
       </c>
       <c r="DN55" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C56" t="n">
         <v>0.0</v>
@@ -23135,14 +23385,17 @@
       </c>
       <c r="DN56" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C57" t="n">
         <v>0.0</v>
@@ -23491,14 +23744,17 @@
       </c>
       <c r="DN57" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DO57" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C58" t="n">
         <v>0.0</v>
@@ -23846,15 +24102,18 @@
         <v>3.0</v>
       </c>
       <c r="DN58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO58" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C59" t="n">
         <v>0.0</v>
@@ -24203,14 +24462,17 @@
       </c>
       <c r="DN59" t="n">
         <v>83.0</v>
+      </c>
+      <c r="DO59" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C60" t="n">
         <v>0.0</v>
@@ -24559,14 +24821,17 @@
       </c>
       <c r="DN60" t="n">
         <v>20737.0</v>
+      </c>
+      <c r="DO60" t="n">
+        <v>21338.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C61" t="n">
         <v>0.0</v>
@@ -24914,15 +25179,18 @@
         <v>45.0</v>
       </c>
       <c r="DN61" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DO61" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C62" t="n">
         <v>0.0</v>
@@ -25271,14 +25539,17 @@
       </c>
       <c r="DN62" t="n">
         <v>292.0</v>
+      </c>
+      <c r="DO62" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C63" t="n">
         <v>0.0</v>
@@ -25626,15 +25897,18 @@
         <v>6.0</v>
       </c>
       <c r="DN63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DO63" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C64" t="n">
         <v>0.0</v>
@@ -25983,14 +26257,17 @@
       </c>
       <c r="DN64" t="n">
         <v>2740.0</v>
+      </c>
+      <c r="DO64" t="n">
+        <v>2845.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C65" t="n">
         <v>0.0</v>
@@ -26339,14 +26616,17 @@
       </c>
       <c r="DN65" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DO65" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C66" t="n">
         <v>0.0</v>
@@ -26694,15 +26974,18 @@
         <v>2.0</v>
       </c>
       <c r="DN66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DO66" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C67" t="n">
         <v>0.0</v>
@@ -27050,15 +27333,18 @@
         <v>11.0</v>
       </c>
       <c r="DN67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DO67" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C68" t="n">
         <v>0.0</v>
@@ -27406,15 +27692,18 @@
         <v>27.0</v>
       </c>
       <c r="DN68" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DO68" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C69" t="n">
         <v>0.0</v>
@@ -27763,14 +28052,17 @@
       </c>
       <c r="DN69" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DO69" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C70" t="n">
         <v>0.0</v>
@@ -28118,15 +28410,18 @@
         <v>9.0</v>
       </c>
       <c r="DN70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DO70" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C71" t="n">
         <v>0.0</v>
@@ -28474,15 +28769,18 @@
         <v>506.0</v>
       </c>
       <c r="DN71" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="DO71" t="n">
         <v>558.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C72" t="n">
         <v>0.0</v>
@@ -28830,15 +29128,18 @@
         <v>2.0</v>
       </c>
       <c r="DN72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DO72" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C73" t="n">
         <v>0.0</v>
@@ -29187,14 +29488,17 @@
       </c>
       <c r="DN73" t="n">
         <v>820.0</v>
+      </c>
+      <c r="DO73" t="n">
+        <v>862.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C74" t="n">
         <v>0.0</v>
@@ -29543,14 +29847,17 @@
       </c>
       <c r="DN74" t="n">
         <v>5928.0</v>
+      </c>
+      <c r="DO74" t="n">
+        <v>6124.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C75" t="n">
         <v>0.0</v>
@@ -29899,14 +30206,17 @@
       </c>
       <c r="DN75" t="n">
         <v>87.0</v>
+      </c>
+      <c r="DO75" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C76" t="n">
         <v>0.0</v>
@@ -30255,14 +30565,17 @@
       </c>
       <c r="DN76" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DO76" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C77" t="n">
         <v>0.0</v>
@@ -30611,14 +30924,17 @@
       </c>
       <c r="DN77" t="n">
         <v>88.0</v>
+      </c>
+      <c r="DO77" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C78" t="n">
         <v>0.0</v>
@@ -30967,14 +31283,17 @@
       </c>
       <c r="DN78" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DO78" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C79" t="n">
         <v>0.0</v>
@@ -31322,15 +31641,18 @@
         <v>5.0</v>
       </c>
       <c r="DN79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO79" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C80" t="n">
         <v>0.0</v>
@@ -31679,14 +32001,17 @@
       </c>
       <c r="DN80" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DO80" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -32034,15 +32359,18 @@
         <v>0.0</v>
       </c>
       <c r="DN81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C82" t="n">
         <v>0.0</v>
@@ -32391,14 +32719,17 @@
       </c>
       <c r="DN82" t="n">
         <v>3722.0</v>
+      </c>
+      <c r="DO82" t="n">
+        <v>3782.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C83" t="n">
         <v>0.0</v>
@@ -32746,15 +33077,18 @@
         <v>41.0</v>
       </c>
       <c r="DN83" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DO83" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C84" t="n">
         <v>0.0</v>
@@ -33103,14 +33437,17 @@
       </c>
       <c r="DN84" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DO84" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C85" t="n">
         <v>0.0</v>
@@ -33459,14 +33796,17 @@
       </c>
       <c r="DN85" t="n">
         <v>192.0</v>
+      </c>
+      <c r="DO85" t="n">
+        <v>218.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C86" t="n">
         <v>0.0</v>
@@ -33814,15 +34154,18 @@
         <v>15.0</v>
       </c>
       <c r="DN86" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DO86" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C87" t="n">
         <v>0.0</v>
@@ -34171,14 +34514,17 @@
       </c>
       <c r="DN87" t="n">
         <v>3062.0</v>
+      </c>
+      <c r="DO87" t="n">
+        <v>3293.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C88" t="n">
         <v>0.0</v>
@@ -34526,15 +34872,18 @@
         <v>12.0</v>
       </c>
       <c r="DN88" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DO88" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C89" t="n">
         <v>0.0</v>
@@ -34882,15 +35231,18 @@
         <v>33.0</v>
       </c>
       <c r="DN89" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DO89" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -35238,15 +35590,18 @@
         <v>5.0</v>
       </c>
       <c r="DN90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO90" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C91" t="n">
         <v>0.0</v>
@@ -35594,15 +35949,18 @@
         <v>12.0</v>
       </c>
       <c r="DN91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DO91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C92" t="n">
         <v>0.0</v>
@@ -35951,14 +36309,17 @@
       </c>
       <c r="DN92" t="n">
         <v>260.0</v>
+      </c>
+      <c r="DO92" t="n">
+        <v>261.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B93" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C93" t="n">
         <v>0.0</v>
@@ -36307,14 +36668,17 @@
       </c>
       <c r="DN93" t="n">
         <v>114.0</v>
+      </c>
+      <c r="DO93" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C94" t="n">
         <v>0.0</v>
@@ -36663,14 +37027,17 @@
       </c>
       <c r="DN94" t="n">
         <v>572.0</v>
+      </c>
+      <c r="DO94" t="n">
+        <v>580.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C95" t="n">
         <v>0.0</v>
@@ -37019,14 +37386,17 @@
       </c>
       <c r="DN95" t="n">
         <v>355.0</v>
+      </c>
+      <c r="DO95" t="n">
+        <v>375.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C96" t="n">
         <v>0.0</v>
@@ -37375,14 +37745,17 @@
       </c>
       <c r="DN96" t="n">
         <v>513.0</v>
+      </c>
+      <c r="DO96" t="n">
+        <v>539.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C97" t="n">
         <v>0.0</v>
@@ -37731,14 +38104,17 @@
       </c>
       <c r="DN97" t="n">
         <v>698.0</v>
+      </c>
+      <c r="DO97" t="n">
+        <v>705.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C98" t="n">
         <v>0.0</v>
@@ -38087,14 +38463,17 @@
       </c>
       <c r="DN98" t="n">
         <v>285.0</v>
+      </c>
+      <c r="DO98" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C99" t="n">
         <v>0.0</v>
@@ -38442,15 +38821,18 @@
         <v>2.0</v>
       </c>
       <c r="DN99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DO99" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C100" t="n">
         <v>0.0</v>
@@ -38798,15 +39180,18 @@
         <v>20.0</v>
       </c>
       <c r="DN100" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DO100" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C101" t="n">
         <v>0.0</v>
@@ -39154,15 +39539,18 @@
         <v>28.0</v>
       </c>
       <c r="DN101" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DO101" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C102" t="n">
         <v>0.0</v>
@@ -39510,15 +39898,18 @@
         <v>4.0</v>
       </c>
       <c r="DN102" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO102" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C103" t="n">
         <v>0.0</v>
@@ -39867,14 +40258,17 @@
       </c>
       <c r="DN103" t="n">
         <v>232.0</v>
+      </c>
+      <c r="DO103" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B104" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C104" t="n">
         <v>0.0</v>
@@ -40223,14 +40617,17 @@
       </c>
       <c r="DN104" t="n">
         <v>30729.0</v>
+      </c>
+      <c r="DO104" t="n">
+        <v>31422.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B105" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C105" t="n">
         <v>0.0</v>
@@ -40579,14 +40976,17 @@
       </c>
       <c r="DN105" t="n">
         <v>308.0</v>
+      </c>
+      <c r="DO105" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B106" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C106" t="n">
         <v>0.0</v>
@@ -40935,14 +41335,17 @@
       </c>
       <c r="DN106" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DO106" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C107" t="n">
         <v>0.0</v>
@@ -41290,15 +41693,18 @@
         <v>4.0</v>
       </c>
       <c r="DN107" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO107" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B108" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C108" t="n">
         <v>0.0</v>
@@ -41647,14 +42053,17 @@
       </c>
       <c r="DN108" t="n">
         <v>2661.0</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>2819.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C109" t="n">
         <v>0.0</v>
@@ -42003,14 +42412,17 @@
       </c>
       <c r="DN109" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DO109" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C110" t="n">
         <v>0.0</v>
@@ -42359,14 +42771,17 @@
       </c>
       <c r="DN110" t="n">
         <v>128.0</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C111" t="n">
         <v>0.0</v>
@@ -42715,14 +43130,17 @@
       </c>
       <c r="DN111" t="n">
         <v>3542.0</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>3982.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C112" t="n">
         <v>0.0</v>
@@ -43071,14 +43489,17 @@
       </c>
       <c r="DN112" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DO112" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C113" t="n">
         <v>0.0</v>
@@ -43427,14 +43848,17 @@
       </c>
       <c r="DN113" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DO113" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B114" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C114" t="n">
         <v>0.0</v>
@@ -43783,14 +44207,17 @@
       </c>
       <c r="DN114" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C115" t="n">
         <v>0.0</v>
@@ -44139,14 +44566,17 @@
       </c>
       <c r="DN115" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C116" t="n">
         <v>0.0</v>
@@ -44495,14 +44925,17 @@
       </c>
       <c r="DN116" t="n">
         <v>160.0</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C117" t="n">
         <v>0.0</v>
@@ -44850,15 +45283,18 @@
         <v>34.0</v>
       </c>
       <c r="DN117" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DO117" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C118" t="n">
         <v>0.0</v>
@@ -45206,15 +45642,18 @@
         <v>15.0</v>
       </c>
       <c r="DN118" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DO118" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
@@ -45563,14 +46002,17 @@
       </c>
       <c r="DN119" t="n">
         <v>392.0</v>
+      </c>
+      <c r="DO119" t="n">
+        <v>452.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C120" t="n">
         <v>0.0</v>
@@ -45919,14 +46361,17 @@
       </c>
       <c r="DN120" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DO120" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -46274,15 +46719,18 @@
         <v>2.0</v>
       </c>
       <c r="DN121" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DO121" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C122" t="n">
         <v>0.0</v>
@@ -46631,14 +47079,17 @@
       </c>
       <c r="DN122" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DO122" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C123" t="n">
         <v>0.0</v>
@@ -46987,14 +47438,17 @@
       </c>
       <c r="DN123" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DO123" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C124" t="n">
         <v>0.0</v>
@@ -47343,14 +47797,17 @@
       </c>
       <c r="DN124" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DO124" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C125" t="n">
         <v>0.0</v>
@@ -47698,15 +48155,18 @@
         <v>1.0</v>
       </c>
       <c r="DN125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DO125" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C126" t="n">
         <v>0.0</v>
@@ -48055,14 +48515,17 @@
       </c>
       <c r="DN126" t="n">
         <v>1787.0</v>
+      </c>
+      <c r="DO126" t="n">
+        <v>1875.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C127" t="n">
         <v>0.0</v>
@@ -48410,15 +48873,18 @@
         <v>14.0</v>
       </c>
       <c r="DN127" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DO127" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C128" t="n">
         <v>0.0</v>
@@ -48767,14 +49233,17 @@
       </c>
       <c r="DN128" t="n">
         <v>142.0</v>
+      </c>
+      <c r="DO128" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C129" t="n">
         <v>0.0</v>
@@ -49123,14 +49592,17 @@
       </c>
       <c r="DN129" t="n">
         <v>436.0</v>
+      </c>
+      <c r="DO129" t="n">
+        <v>448.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B130" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C130" t="n">
         <v>0.0</v>
@@ -49479,14 +49951,17 @@
       </c>
       <c r="DN130" t="n">
         <v>611.0</v>
+      </c>
+      <c r="DO130" t="n">
+        <v>613.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C131" t="n">
         <v>0.0</v>
@@ -49835,14 +50310,17 @@
       </c>
       <c r="DN131" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DO131" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B132" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C132" t="n">
         <v>0.0</v>
@@ -50191,14 +50669,17 @@
       </c>
       <c r="DN132" t="n">
         <v>586.0</v>
+      </c>
+      <c r="DO132" t="n">
+        <v>627.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B133" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C133" t="n">
         <v>0.0</v>
@@ -50547,14 +51028,17 @@
       </c>
       <c r="DN133" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DO133" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B134" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C134" t="n">
         <v>0.0</v>
@@ -50902,15 +51386,18 @@
         <v>0.0</v>
       </c>
       <c r="DN134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B135" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C135" t="n">
         <v>0.0</v>
@@ -51258,15 +51745,18 @@
         <v>0.0</v>
       </c>
       <c r="DN135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B136" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C136" t="n">
         <v>0.0</v>
@@ -51615,14 +52105,17 @@
       </c>
       <c r="DN136" t="n">
         <v>77.0</v>
+      </c>
+      <c r="DO136" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C137" t="n">
         <v>0.0</v>
@@ -51970,15 +52463,18 @@
         <v>4.0</v>
       </c>
       <c r="DN137" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO137" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C138" t="n">
         <v>0.0</v>
@@ -52326,15 +52822,18 @@
         <v>0.0</v>
       </c>
       <c r="DN138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C139" t="n">
         <v>0.0</v>
@@ -52682,15 +53181,18 @@
         <v>2.0</v>
       </c>
       <c r="DN139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DO139" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C140" t="n">
         <v>0.0</v>
@@ -53039,14 +53541,17 @@
       </c>
       <c r="DN140" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DO140" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C141" t="n">
         <v>0.0</v>
@@ -53394,15 +53899,18 @@
         <v>1.0</v>
       </c>
       <c r="DN141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO141" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B142" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C142" t="n">
         <v>0.0</v>
@@ -53751,14 +54259,17 @@
       </c>
       <c r="DN142" t="n">
         <v>283.0</v>
+      </c>
+      <c r="DO142" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B143" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C143" t="n">
         <v>0.0</v>
@@ -54107,14 +54618,17 @@
       </c>
       <c r="DN143" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DO143" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C144" t="n">
         <v>0.0</v>
@@ -54462,15 +54976,18 @@
         <v>20.0</v>
       </c>
       <c r="DN144" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DO144" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C145" t="n">
         <v>0.0</v>
@@ -54819,14 +55336,17 @@
       </c>
       <c r="DN145" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DO145" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B146" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C146" t="n">
         <v>0.0</v>
@@ -55175,14 +55695,17 @@
       </c>
       <c r="DN146" t="n">
         <v>131.0</v>
+      </c>
+      <c r="DO146" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C147" t="n">
         <v>0.0</v>
@@ -55531,14 +56054,17 @@
       </c>
       <c r="DN147" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DO147" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C148" t="n">
         <v>0.0</v>
@@ -55887,14 +56413,17 @@
       </c>
       <c r="DN148" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DO148" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C149" t="n">
         <v>0.0</v>
@@ -56243,14 +56772,17 @@
       </c>
       <c r="DN149" t="n">
         <v>314.0</v>
+      </c>
+      <c r="DO149" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C150" t="n">
         <v>0.0</v>
@@ -56599,14 +57131,17 @@
       </c>
       <c r="DN150" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DO150" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C151" t="n">
         <v>0.0</v>
@@ -56955,14 +57490,17 @@
       </c>
       <c r="DN151" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DO151" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C152" t="n">
         <v>0.0</v>
@@ -57310,15 +57848,18 @@
         <v>21.0</v>
       </c>
       <c r="DN152" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DO152" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C153" t="n">
         <v>0.0</v>
@@ -57667,14 +58208,17 @@
       </c>
       <c r="DN153" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DO153" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -58022,15 +58566,18 @@
         <v>0.0</v>
       </c>
       <c r="DN154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C155" t="n">
         <v>0.0</v>
@@ -58379,14 +58926,17 @@
       </c>
       <c r="DN155" t="n">
         <v>2095.0</v>
+      </c>
+      <c r="DO155" t="n">
+        <v>2273.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C156" t="n">
         <v>0.0</v>
@@ -58734,15 +59284,18 @@
         <v>28.0</v>
       </c>
       <c r="DN156" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DO156" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C157" t="n">
         <v>0.0</v>
@@ -59091,14 +59644,17 @@
       </c>
       <c r="DN157" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DO157" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C158" t="n">
         <v>0.0</v>
@@ -59447,14 +60003,17 @@
       </c>
       <c r="DN158" t="n">
         <v>795.0</v>
+      </c>
+      <c r="DO158" t="n">
+        <v>957.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B159" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C159" t="n">
         <v>0.0</v>
@@ -59802,15 +60361,18 @@
         <v>0.0</v>
       </c>
       <c r="DN159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C160" t="n">
         <v>0.0</v>
@@ -60159,14 +60721,17 @@
       </c>
       <c r="DN160" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DO160" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B161" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C161" t="n">
         <v>0.0</v>
@@ -60515,14 +61080,17 @@
       </c>
       <c r="DN161" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DO161" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B162" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C162" t="n">
         <v>0.0</v>
@@ -60871,14 +61439,17 @@
       </c>
       <c r="DN162" t="n">
         <v>16.0</v>
+      </c>
+      <c r="DO162" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B163" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C163" t="n">
         <v>0.0</v>
@@ -61227,14 +61798,17 @@
       </c>
       <c r="DN163" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DO163" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B164" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C164" t="n">
         <v>0.0</v>
@@ -61583,14 +62157,17 @@
       </c>
       <c r="DN164" t="n">
         <v>172.0</v>
+      </c>
+      <c r="DO164" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B165" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C165" t="n">
         <v>0.0</v>
@@ -61939,14 +62516,17 @@
       </c>
       <c r="DN165" t="n">
         <v>311.0</v>
+      </c>
+      <c r="DO165" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C166" t="n">
         <v>0.0</v>
@@ -62295,14 +62875,17 @@
       </c>
       <c r="DN166" t="n">
         <v>255.0</v>
+      </c>
+      <c r="DO166" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C167" t="n">
         <v>0.0</v>
@@ -62650,15 +63233,18 @@
         <v>3.0</v>
       </c>
       <c r="DN167" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DO167" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B168" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C168" t="n">
         <v>0.0</v>
@@ -63007,14 +63593,17 @@
       </c>
       <c r="DN168" t="n">
         <v>651.0</v>
+      </c>
+      <c r="DO168" t="n">
+        <v>701.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C169" t="n">
         <v>0.0</v>
@@ -63363,14 +63952,17 @@
       </c>
       <c r="DN169" t="n">
         <v>83.0</v>
+      </c>
+      <c r="DO169" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B170" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C170" t="n">
         <v>0.0</v>
@@ -63718,15 +64310,18 @@
         <v>1.0</v>
       </c>
       <c r="DN170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DO170" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B171" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C171" t="n">
         <v>0.0</v>
@@ -64075,14 +64670,17 @@
       </c>
       <c r="DN171" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DO171" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B172" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C172" t="n">
         <v>0.0</v>
@@ -64430,15 +65028,18 @@
         <v>17.0</v>
       </c>
       <c r="DN172" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DO172" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B173" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C173" t="n">
         <v>0.0</v>
@@ -64787,14 +65388,17 @@
       </c>
       <c r="DN173" t="n">
         <v>2028.0</v>
+      </c>
+      <c r="DO173" t="n">
+        <v>2133.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B174" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C174" t="n">
         <v>0.0</v>
@@ -65143,14 +65747,17 @@
       </c>
       <c r="DN174" t="n">
         <v>889.0</v>
+      </c>
+      <c r="DO174" t="n">
+        <v>893.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B175" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C175" t="n">
         <v>0.0</v>
@@ -65499,14 +66106,17 @@
       </c>
       <c r="DN175" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DO175" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B176" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C176" t="n">
         <v>0.0</v>
@@ -65854,15 +66464,18 @@
         <v>1.0</v>
       </c>
       <c r="DN176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DO176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B177" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C177" t="n">
         <v>0.0</v>
@@ -66211,14 +66824,17 @@
       </c>
       <c r="DN177" t="n">
         <v>397.0</v>
+      </c>
+      <c r="DO177" t="n">
+        <v>407.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B178" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C178" t="n">
         <v>0.0</v>
@@ -66567,14 +67183,17 @@
       </c>
       <c r="DN178" t="n">
         <v>230.0</v>
+      </c>
+      <c r="DO178" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C179" t="n">
         <v>0.0</v>
@@ -66922,15 +67541,18 @@
         <v>12.0</v>
       </c>
       <c r="DN179" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DO179" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B180" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C180" t="n">
         <v>0.0</v>
@@ -67279,14 +67901,17 @@
       </c>
       <c r="DN180" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DO180" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B181" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C181" t="n">
         <v>0.0</v>
@@ -67635,14 +68260,17 @@
       </c>
       <c r="DN181" t="n">
         <v>2120.0</v>
+      </c>
+      <c r="DO181" t="n">
+        <v>2394.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B182" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C182" t="n">
         <v>0.0</v>
@@ -67990,15 +68618,18 @@
         <v>53.0</v>
       </c>
       <c r="DN182" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DO182" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B183" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C183" t="n">
         <v>0.0</v>
@@ -68346,15 +68977,18 @@
         <v>4.0</v>
       </c>
       <c r="DN183" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DO183" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B184" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C184" t="n">
         <v>0.0</v>
@@ -68703,14 +69337,17 @@
       </c>
       <c r="DN184" t="n">
         <v>212.0</v>
+      </c>
+      <c r="DO184" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B185" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C185" t="n">
         <v>0.0</v>
@@ -69059,14 +69696,17 @@
       </c>
       <c r="DN185" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DO185" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B186" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C186" t="n">
         <v>0.0</v>
@@ -69414,15 +70054,18 @@
         <v>209.0</v>
       </c>
       <c r="DN186" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DO186" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B187" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C187" t="n">
         <v>0.0</v>
@@ -69771,14 +70414,17 @@
       </c>
       <c r="DN187" t="n">
         <v>286.0</v>
+      </c>
+      <c r="DO187" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C188" t="n">
         <v>0.0</v>
@@ -70127,14 +70773,17 @@
       </c>
       <c r="DN188" t="n">
         <v>191.0</v>
+      </c>
+      <c r="DO188" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B189" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C189" t="n">
         <v>0.0</v>
@@ -70483,14 +71132,17 @@
       </c>
       <c r="DN189" t="n">
         <v>124.0</v>
+      </c>
+      <c r="DO189" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B190" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C190" t="n">
         <v>0.0</v>
@@ -70839,14 +71491,17 @@
       </c>
       <c r="DN190" t="n">
         <v>113.0</v>
+      </c>
+      <c r="DO190" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B191" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C191" t="n">
         <v>0.0</v>
@@ -71195,14 +71850,17 @@
       </c>
       <c r="DN191" t="n">
         <v>2873.0</v>
+      </c>
+      <c r="DO191" t="n">
+        <v>2885.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B192" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C192" t="n">
         <v>0.0</v>
@@ -71550,15 +72208,18 @@
         <v>15.0</v>
       </c>
       <c r="DN192" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DO192" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B193" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C193" t="n">
         <v>0.0</v>
@@ -71906,15 +72567,18 @@
         <v>8.0</v>
       </c>
       <c r="DN193" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DO193" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B194" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C194" t="n">
         <v>0.0</v>
@@ -72263,14 +72927,17 @@
       </c>
       <c r="DN194" t="n">
         <v>844.0</v>
+      </c>
+      <c r="DO194" t="n">
+        <v>863.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B195" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C195" t="n">
         <v>0.0</v>
@@ -72619,14 +73286,17 @@
       </c>
       <c r="DN195" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DO195" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B196" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C196" t="n">
         <v>0.0</v>
@@ -72974,15 +73644,18 @@
         <v>1.0</v>
       </c>
       <c r="DN196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DO196" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B197" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C197" t="n">
         <v>0.0</v>
@@ -73331,14 +74004,17 @@
       </c>
       <c r="DN197" t="n">
         <v>110.0</v>
+      </c>
+      <c r="DO197" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B198" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C198" t="n">
         <v>0.0</v>
@@ -73687,14 +74363,17 @@
       </c>
       <c r="DN198" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DO198" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B199" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C199" t="n">
         <v>0.0</v>
@@ -74043,14 +74722,17 @@
       </c>
       <c r="DN199" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DO199" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B200" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C200" t="n">
         <v>0.0</v>
@@ -74398,15 +75080,18 @@
         <v>3.0</v>
       </c>
       <c r="DN200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B201" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C201" t="n">
         <v>0.0</v>
@@ -74755,14 +75440,17 @@
       </c>
       <c r="DN201" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DO201" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B202" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C202" t="n">
         <v>0.0</v>
@@ -75111,14 +75799,17 @@
       </c>
       <c r="DN202" t="n">
         <v>360.0</v>
+      </c>
+      <c r="DO202" t="n">
+        <v>340.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B203" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C203" t="n">
         <v>0.0</v>
@@ -75467,14 +76158,17 @@
       </c>
       <c r="DN203" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DO203" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B204" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C204" t="n">
         <v>0.0</v>
@@ -75823,14 +76517,17 @@
       </c>
       <c r="DN204" t="n">
         <v>268.0</v>
+      </c>
+      <c r="DO204" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B205" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C205" t="n">
         <v>0.0</v>
@@ -76178,15 +76875,18 @@
         <v>23.0</v>
       </c>
       <c r="DN205" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DO205" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B206" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C206" t="n">
         <v>0.0</v>
@@ -76534,15 +77234,18 @@
         <v>103.0</v>
       </c>
       <c r="DN206" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DO206" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B207" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C207" t="n">
         <v>0.0</v>
@@ -76891,14 +77594,17 @@
       </c>
       <c r="DN207" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DO207" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B208" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C208" t="n">
         <v>0.0</v>
@@ -77247,14 +77953,17 @@
       </c>
       <c r="DN208" t="n">
         <v>133.0</v>
+      </c>
+      <c r="DO208" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B209" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C209" t="n">
         <v>0.0</v>
@@ -77602,15 +78311,18 @@
         <v>4.0</v>
       </c>
       <c r="DN209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DO209" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B210" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C210" t="n">
         <v>0.0</v>
@@ -77958,15 +78670,18 @@
         <v>15.0</v>
       </c>
       <c r="DN210" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DO210" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B211" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C211" t="n">
         <v>0.0</v>
@@ -78315,14 +79030,17 @@
       </c>
       <c r="DN211" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DO211" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B212" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C212" t="n">
         <v>0.0</v>
@@ -78670,15 +79388,18 @@
         <v>1.0</v>
       </c>
       <c r="DN212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DO212" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B213" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C213" t="n">
         <v>0.0</v>
@@ -79027,14 +79748,17 @@
       </c>
       <c r="DN213" t="n">
         <v>277.0</v>
+      </c>
+      <c r="DO213" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B214" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C214" t="n">
         <v>0.0</v>
@@ -79382,15 +80106,18 @@
         <v>30.0</v>
       </c>
       <c r="DN214" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DO214" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B215" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C215" t="n">
         <v>0.0</v>
@@ -79739,14 +80466,17 @@
       </c>
       <c r="DN215" t="n">
         <v>566.0</v>
+      </c>
+      <c r="DO215" t="n">
+        <v>618.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B216" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C216" t="n">
         <v>0.0</v>
@@ -80095,14 +80825,17 @@
       </c>
       <c r="DN216" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DO216" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B217" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C217" t="n">
         <v>0.0</v>
@@ -80451,14 +81184,17 @@
       </c>
       <c r="DN217" t="n">
         <v>578.0</v>
+      </c>
+      <c r="DO217" t="n">
+        <v>642.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B218" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C218" t="n">
         <v>0.0</v>
@@ -80806,15 +81542,18 @@
         <v>7.0</v>
       </c>
       <c r="DN218" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DO218" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B219" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C219" t="n">
         <v>0.0</v>
@@ -81162,15 +81901,18 @@
         <v>0.0</v>
       </c>
       <c r="DN219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B220" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C220" t="n">
         <v>0.0</v>
@@ -81518,15 +82260,18 @@
         <v>0.0</v>
       </c>
       <c r="DN220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B221" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C221" t="n">
         <v>0.0</v>
@@ -81874,15 +82619,18 @@
         <v>4.0</v>
       </c>
       <c r="DN221" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DO221" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B222" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C222" t="n">
         <v>0.0</v>
@@ -82231,14 +82979,17 @@
       </c>
       <c r="DN222" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DO222" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B223" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C223" t="n">
         <v>0.0</v>
@@ -82587,14 +83338,17 @@
       </c>
       <c r="DN223" t="n">
         <v>11739.0</v>
+      </c>
+      <c r="DO223" t="n">
+        <v>12344.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B224" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C224" t="n">
         <v>0.0</v>
@@ -82943,14 +83697,17 @@
       </c>
       <c r="DN224" t="n">
         <v>366.0</v>
+      </c>
+      <c r="DO224" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B225" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C225" t="n">
         <v>0.0</v>
@@ -83299,14 +84056,17 @@
       </c>
       <c r="DN225" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DO225" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C226" t="n">
         <v>0.0</v>
@@ -83654,15 +84414,18 @@
         <v>16.0</v>
       </c>
       <c r="DN226" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DO226" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B227" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -84010,15 +84773,18 @@
         <v>0.0</v>
       </c>
       <c r="DN227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DO227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B228" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C228" t="n">
         <v>0.0</v>
@@ -84367,14 +85133,17 @@
       </c>
       <c r="DN228" t="n">
         <v>702.0</v>
+      </c>
+      <c r="DO228" t="n">
+        <v>710.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B229" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C229" t="n">
         <v>0.0</v>
@@ -84723,14 +85492,17 @@
       </c>
       <c r="DN229" t="n">
         <v>299.0</v>
+      </c>
+      <c r="DO229" t="n">
+        <v>312.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B230" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C230" t="n">
         <v>0.0</v>
@@ -85079,14 +85851,17 @@
       </c>
       <c r="DN230" t="n">
         <v>8969.0</v>
+      </c>
+      <c r="DO230" t="n">
+        <v>9527.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B231" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C231" t="n">
         <v>0.0</v>
@@ -85435,14 +86210,17 @@
       </c>
       <c r="DN231" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DO231" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B232" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C232" t="n">
         <v>0.0</v>
@@ -85790,15 +86568,18 @@
         <v>25.0</v>
       </c>
       <c r="DN232" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="DO232" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B233" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C233" t="n">
         <v>0.0</v>
@@ -86147,14 +86928,17 @@
       </c>
       <c r="DN233" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DO233" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B234" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C234" t="n">
         <v>0.0</v>
@@ -86502,15 +87286,18 @@
         <v>2.0</v>
       </c>
       <c r="DN234" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DO234" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B235" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C235" t="n">
         <v>0.0</v>
@@ -86859,14 +87646,17 @@
       </c>
       <c r="DN235" t="n">
         <v>80.0</v>
+      </c>
+      <c r="DO235" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B236" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C236" t="n">
         <v>0.0</v>
@@ -87214,15 +88004,18 @@
         <v>108.0</v>
       </c>
       <c r="DN236" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="DO236" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B237" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C237" t="n">
         <v>0.0</v>
@@ -87571,14 +88364,17 @@
       </c>
       <c r="DN237" t="n">
         <v>85.0</v>
+      </c>
+      <c r="DO237" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B238" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C238" t="n">
         <v>0.0</v>
@@ -87927,14 +88723,17 @@
       </c>
       <c r="DN238" t="n">
         <v>480.0</v>
+      </c>
+      <c r="DO238" t="n">
+        <v>697.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B239" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C239" t="n">
         <v>0.0</v>
@@ -88283,14 +89082,17 @@
       </c>
       <c r="DN239" t="n">
         <v>1991.0</v>
+      </c>
+      <c r="DO239" t="n">
+        <v>2028.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B240" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C240" t="n">
         <v>0.0</v>
@@ -88639,14 +89441,17 @@
       </c>
       <c r="DN240" t="n">
         <v>152.0</v>
+      </c>
+      <c r="DO240" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B241" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C241" t="n">
         <v>0.0</v>
@@ -88995,14 +89800,17 @@
       </c>
       <c r="DN241" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DO241" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B242" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C242" t="n">
         <v>0.0</v>
@@ -89351,14 +90159,17 @@
       </c>
       <c r="DN242" t="n">
         <v>267.0</v>
+      </c>
+      <c r="DO242" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B243" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C243" t="n">
         <v>0.0</v>
@@ -89707,14 +90518,17 @@
       </c>
       <c r="DN243" t="n">
         <v>1503.0</v>
+      </c>
+      <c r="DO243" t="n">
+        <v>1538.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B244" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C244" t="n">
         <v>0.0</v>
@@ -90063,14 +90877,17 @@
       </c>
       <c r="DN244" t="n">
         <v>197.0</v>
+      </c>
+      <c r="DO244" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B245" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C245" t="n">
         <v>0.0</v>
@@ -90418,15 +91235,18 @@
         <v>16.0</v>
       </c>
       <c r="DN245" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DO245" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B246" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C246" t="n">
         <v>0.0</v>
@@ -90775,14 +91595,17 @@
       </c>
       <c r="DN246" t="n">
         <v>318.0</v>
+      </c>
+      <c r="DO246" t="n">
+        <v>363.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B247" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C247" t="n">
         <v>0.0</v>
@@ -91130,15 +91953,18 @@
         <v>9.0</v>
       </c>
       <c r="DN247" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DO247" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B248" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C248" t="n">
         <v>0.0</v>
@@ -91487,14 +92313,17 @@
       </c>
       <c r="DN248" t="n">
         <v>154.0</v>
+      </c>
+      <c r="DO248" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B249" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C249" t="n">
         <v>0.0</v>
@@ -91843,14 +92672,17 @@
       </c>
       <c r="DN249" t="n">
         <v>2100.0</v>
+      </c>
+      <c r="DO249" t="n">
+        <v>2230.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B250" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C250" t="n">
         <v>0.0</v>
@@ -92199,14 +93031,17 @@
       </c>
       <c r="DN250" t="n">
         <v>98.0</v>
+      </c>
+      <c r="DO250" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B251" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C251" t="n">
         <v>0.0</v>
@@ -92555,14 +93390,17 @@
       </c>
       <c r="DN251" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DO251" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B252" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C252" t="n">
         <v>0.0</v>
@@ -92911,14 +93749,17 @@
       </c>
       <c r="DN252" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DO252" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B253" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C253" t="n">
         <v>0.0</v>
@@ -93267,14 +94108,17 @@
       </c>
       <c r="DN253" t="n">
         <v>82.0</v>
+      </c>
+      <c r="DO253" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B254" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C254" t="n">
         <v>0.0</v>
@@ -93622,15 +94466,18 @@
         <v>21.0</v>
       </c>
       <c r="DN254" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DO254" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B255" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C255" t="n">
         <v>0.0</v>
@@ -93979,14 +94826,17 @@
       </c>
       <c r="DN255" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DO255" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B256" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C256" t="n">
         <v>0.0</v>
@@ -94335,14 +95185,17 @@
       </c>
       <c r="DN256" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DO256" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B257" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C257" t="n">
         <v>0.0</v>
@@ -94690,15 +95543,18 @@
         <v>19.0</v>
       </c>
       <c r="DN257" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DO257" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B258" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C258" t="n">
         <v>0.0</v>
@@ -95047,14 +95903,17 @@
       </c>
       <c r="DN258" t="n">
         <v>159986.0</v>
+      </c>
+      <c r="DO258" t="n">
+        <v>168062.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B259" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -95172,13 +96031,14 @@
       <c r="DL259"/>
       <c r="DM259"/>
       <c r="DN259"/>
+      <c r="DO259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B260" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C260" t="n">
         <v>0.0</v>
@@ -95526,15 +96386,18 @@
         <v>244.0</v>
       </c>
       <c r="DN260" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="DO260" t="n">
         <v>244.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B261" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -95652,13 +96515,14 @@
       <c r="DL261"/>
       <c r="DM261"/>
       <c r="DN261"/>
+      <c r="DO261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B262" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -95776,13 +96640,14 @@
       <c r="DL262"/>
       <c r="DM262"/>
       <c r="DN262"/>
+      <c r="DO262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B263" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -95900,13 +96765,14 @@
       <c r="DL263"/>
       <c r="DM263"/>
       <c r="DN263"/>
+      <c r="DO263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B264" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -96024,13 +96890,14 @@
       <c r="DL264"/>
       <c r="DM264"/>
       <c r="DN264"/>
+      <c r="DO264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B265" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -96148,13 +97015,14 @@
       <c r="DL265"/>
       <c r="DM265"/>
       <c r="DN265"/>
+      <c r="DO265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B266" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -96272,13 +97140,14 @@
       <c r="DL266"/>
       <c r="DM266"/>
       <c r="DN266"/>
+      <c r="DO266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B267" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -96396,13 +97265,14 @@
       <c r="DL267"/>
       <c r="DM267"/>
       <c r="DN267"/>
+      <c r="DO267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B268" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -96520,6 +97390,7 @@
       <c r="DL268"/>
       <c r="DM268"/>
       <c r="DN268"/>
+      <c r="DO268"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28E1EC34-DBE2-496A-9665-FD57EE21ABE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F9A76BE-9BC1-4158-A732-E0C7BF30C111}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22493" windowHeight="11243" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="643">
   <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/02/20 at 9:30 AM CST</t>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/07/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -34,401 +34,401 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-04</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-05</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-06</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-09</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-10</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-11</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-12</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-13</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-15</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-16</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-17</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-18</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-19</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-20</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-21</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-22</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-23</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-24</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-25</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-26</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-27</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-28</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-29</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-30</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-31</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-01</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-02</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-03</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-04</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-05</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-06</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-07</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-08</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-09</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-10</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-11</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-12</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-13</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-14</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-15</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-16</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-17</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-18</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-19</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-20</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-21</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-22</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-23</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-24</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-25</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-26</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-27</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-28</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-29</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-30</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-01</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-02</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-03</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-04</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-05</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-06</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-07</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-08</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-09</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-10</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-11</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-12</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-13</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-14</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-15</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-16</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-17</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-18</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-19</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-20</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-21</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-22</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-23</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-24</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-25</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-26</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-27</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-28</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-29</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-30</t>
   </si>
   <si>
-    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-31</t>
   </si>
   <si>
@@ -477,6 +477,9 @@
     <t>Cases 06-15</t>
   </si>
   <si>
+    <t>Cases 06-16</t>
+  </si>
+  <si>
     <t>Cases 06-17</t>
   </si>
   <si>
@@ -520,6 +523,24 @@
   </si>
   <si>
     <t>Cases 07-01</t>
+  </si>
+  <si>
+    <t>Cases 07-02</t>
+  </si>
+  <si>
+    <t>Cases 07-03</t>
+  </si>
+  <si>
+    <t>Cases 07-04</t>
+  </si>
+  <si>
+    <t>Cases 07-05</t>
+  </si>
+  <si>
+    <t>Cases 07-06</t>
+  </si>
+  <si>
+    <t>Cases 07-07</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1293,11 +1314,8 @@
     <t>Counties Reporting Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 </t>
-  </si>
-  <si>
-    <t>Population data is based on Texas population projections, 2020 (https://www.dshs.texas.gov/chs/popdat/st2020.shtm).</t>
   </si>
   <si>
     <t>58199</t>
@@ -2065,26 +2083,20 @@
     <t>.</t>
   </si>
   <si>
-    <t>Cases 07-02</t>
+    <t>Case counts do not include probable cases</t>
   </si>
   <si>
     <t>County-level case counts were not available on March 7, March 8, and March 14.</t>
   </si>
   <si>
-    <t>Probable cases are not included in the total case numbers</t>
-  </si>
-  <si>
-    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
-  </si>
-  <si>
-    <t>Cases 06-16*</t>
+    <t>Population data is based on Texas population projections, 2020 (https://www.dshs.texas.gov/chs/popdat/st2020.shtm).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2097,26 +2109,17 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2150,13 +2153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2474,28 +2474,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP268"/>
+  <dimension ref="A1:DU268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="120" width="12" customWidth="1"/>
+    <col min="1" max="125" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:125" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:120" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:125" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:120" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:125" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2805,64 +2803,79 @@
       <c r="CY3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CZ3" s="4" t="s">
-        <v>638</v>
+      <c r="CZ3" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DC3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DE3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DF3" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DG3" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DH3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DI3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DL3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DM3" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DO3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="DP3" s="4" t="s">
-        <v>634</v>
+        <v>120</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="DS3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3218,13 +3231,28 @@
       <c r="DP4">
         <v>1063</v>
       </c>
+      <c r="DQ4">
+        <v>1072</v>
+      </c>
+      <c r="DR4">
+        <v>1070</v>
+      </c>
+      <c r="DS4">
+        <v>1082</v>
+      </c>
+      <c r="DT4">
+        <v>1082</v>
+      </c>
+      <c r="DU4">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3580,13 +3608,28 @@
       <c r="DP5">
         <v>89</v>
       </c>
+      <c r="DQ5">
+        <v>90</v>
+      </c>
+      <c r="DR5">
+        <v>98</v>
+      </c>
+      <c r="DS5">
+        <v>103</v>
+      </c>
+      <c r="DT5">
+        <v>103</v>
+      </c>
+      <c r="DU5">
+        <v>103</v>
+      </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3942,13 +3985,28 @@
       <c r="DP6">
         <v>519</v>
       </c>
+      <c r="DQ6">
+        <v>541</v>
+      </c>
+      <c r="DR6">
+        <v>541</v>
+      </c>
+      <c r="DS6">
+        <v>541</v>
+      </c>
+      <c r="DT6">
+        <v>541</v>
+      </c>
+      <c r="DU6">
+        <v>610</v>
+      </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4304,13 +4362,28 @@
       <c r="DP7">
         <v>28</v>
       </c>
+      <c r="DQ7">
+        <v>31</v>
+      </c>
+      <c r="DR7">
+        <v>34</v>
+      </c>
+      <c r="DS7">
+        <v>35</v>
+      </c>
+      <c r="DT7">
+        <v>43</v>
+      </c>
+      <c r="DU7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4666,13 +4739,28 @@
       <c r="DP8">
         <v>8</v>
       </c>
+      <c r="DQ8">
+        <v>8</v>
+      </c>
+      <c r="DR8">
+        <v>8</v>
+      </c>
+      <c r="DS8">
+        <v>8</v>
+      </c>
+      <c r="DT8">
+        <v>8</v>
+      </c>
+      <c r="DU8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5028,13 +5116,28 @@
       <c r="DP9">
         <v>3</v>
       </c>
+      <c r="DQ9">
+        <v>3</v>
+      </c>
+      <c r="DR9">
+        <v>3</v>
+      </c>
+      <c r="DS9">
+        <v>3</v>
+      </c>
+      <c r="DT9">
+        <v>3</v>
+      </c>
+      <c r="DU9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5390,13 +5493,28 @@
       <c r="DP10">
         <v>116</v>
       </c>
+      <c r="DQ10">
+        <v>116</v>
+      </c>
+      <c r="DR10">
+        <v>135</v>
+      </c>
+      <c r="DS10">
+        <v>135</v>
+      </c>
+      <c r="DT10">
+        <v>135</v>
+      </c>
+      <c r="DU10">
+        <v>148</v>
+      </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5752,13 +5870,28 @@
       <c r="DP11">
         <v>73</v>
       </c>
+      <c r="DQ11">
+        <v>77</v>
+      </c>
+      <c r="DR11">
+        <v>81</v>
+      </c>
+      <c r="DS11">
+        <v>81</v>
+      </c>
+      <c r="DT11">
+        <v>92</v>
+      </c>
+      <c r="DU11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6114,13 +6247,28 @@
       <c r="DP12">
         <v>101</v>
       </c>
+      <c r="DQ12">
+        <v>102</v>
+      </c>
+      <c r="DR12">
+        <v>102</v>
+      </c>
+      <c r="DS12">
+        <v>102</v>
+      </c>
+      <c r="DT12">
+        <v>102</v>
+      </c>
+      <c r="DU12">
+        <v>108</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6476,13 +6624,28 @@
       <c r="DP13">
         <v>22</v>
       </c>
+      <c r="DQ13">
+        <v>23</v>
+      </c>
+      <c r="DR13">
+        <v>27</v>
+      </c>
+      <c r="DS13">
+        <v>27</v>
+      </c>
+      <c r="DT13">
+        <v>27</v>
+      </c>
+      <c r="DU13">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6838,13 +7001,28 @@
       <c r="DP14">
         <v>458</v>
       </c>
+      <c r="DQ14">
+        <v>457</v>
+      </c>
+      <c r="DR14">
+        <v>468</v>
+      </c>
+      <c r="DS14">
+        <v>468</v>
+      </c>
+      <c r="DT14">
+        <v>522</v>
+      </c>
+      <c r="DU14">
+        <v>522</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -7200,13 +7378,28 @@
       <c r="DP15">
         <v>1</v>
       </c>
+      <c r="DQ15">
+        <v>1</v>
+      </c>
+      <c r="DR15">
+        <v>1</v>
+      </c>
+      <c r="DS15">
+        <v>1</v>
+      </c>
+      <c r="DT15">
+        <v>1</v>
+      </c>
+      <c r="DU15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7562,13 +7755,28 @@
       <c r="DP16">
         <v>51</v>
       </c>
+      <c r="DQ16">
+        <v>55</v>
+      </c>
+      <c r="DR16">
+        <v>59</v>
+      </c>
+      <c r="DS16">
+        <v>69</v>
+      </c>
+      <c r="DT16">
+        <v>85</v>
+      </c>
+      <c r="DU16">
+        <v>91</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -7924,13 +8132,28 @@
       <c r="DP17">
         <v>1394</v>
       </c>
+      <c r="DQ17">
+        <v>1480</v>
+      </c>
+      <c r="DR17">
+        <v>1523</v>
+      </c>
+      <c r="DS17">
+        <v>1523</v>
+      </c>
+      <c r="DT17">
+        <v>1523</v>
+      </c>
+      <c r="DU17">
+        <v>1626</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -8286,13 +8509,28 @@
       <c r="DP18">
         <v>12504</v>
       </c>
+      <c r="DQ18">
+        <v>12878</v>
+      </c>
+      <c r="DR18">
+        <v>14212</v>
+      </c>
+      <c r="DS18">
+        <v>14553</v>
+      </c>
+      <c r="DT18">
+        <v>14751</v>
+      </c>
+      <c r="DU18">
+        <v>15102</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -8648,13 +8886,28 @@
       <c r="DP19">
         <v>29</v>
       </c>
+      <c r="DQ19">
+        <v>31</v>
+      </c>
+      <c r="DR19">
+        <v>31</v>
+      </c>
+      <c r="DS19">
+        <v>31</v>
+      </c>
+      <c r="DT19">
+        <v>31</v>
+      </c>
+      <c r="DU19">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -9010,13 +9263,28 @@
       <c r="DP20">
         <v>0</v>
       </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>0</v>
+      </c>
+      <c r="DT20">
+        <v>0</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9372,13 +9640,28 @@
       <c r="DP21">
         <v>15</v>
       </c>
+      <c r="DQ21">
+        <v>16</v>
+      </c>
+      <c r="DR21">
+        <v>16</v>
+      </c>
+      <c r="DS21">
+        <v>16</v>
+      </c>
+      <c r="DT21">
+        <v>18</v>
+      </c>
+      <c r="DU21">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -9734,13 +10017,28 @@
       <c r="DP22">
         <v>439</v>
       </c>
+      <c r="DQ22">
+        <v>444</v>
+      </c>
+      <c r="DR22">
+        <v>449</v>
+      </c>
+      <c r="DS22">
+        <v>458</v>
+      </c>
+      <c r="DT22">
+        <v>461</v>
+      </c>
+      <c r="DU22">
+        <v>462</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10096,13 +10394,28 @@
       <c r="DP23">
         <v>2438</v>
       </c>
+      <c r="DQ23">
+        <v>2516</v>
+      </c>
+      <c r="DR23">
+        <v>2626</v>
+      </c>
+      <c r="DS23">
+        <v>2715</v>
+      </c>
+      <c r="DT23">
+        <v>2829</v>
+      </c>
+      <c r="DU23">
+        <v>2925</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -10458,13 +10771,28 @@
       <c r="DP24">
         <v>2127</v>
       </c>
+      <c r="DQ24">
+        <v>2228</v>
+      </c>
+      <c r="DR24">
+        <v>2331</v>
+      </c>
+      <c r="DS24">
+        <v>2401</v>
+      </c>
+      <c r="DT24">
+        <v>2484</v>
+      </c>
+      <c r="DU24">
+        <v>2532</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -10820,13 +11148,28 @@
       <c r="DP25">
         <v>142</v>
       </c>
+      <c r="DQ25">
+        <v>143</v>
+      </c>
+      <c r="DR25">
+        <v>143</v>
+      </c>
+      <c r="DS25">
+        <v>143</v>
+      </c>
+      <c r="DT25">
+        <v>143</v>
+      </c>
+      <c r="DU25">
+        <v>146</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11182,13 +11525,28 @@
       <c r="DP26">
         <v>3</v>
       </c>
+      <c r="DQ26">
+        <v>3</v>
+      </c>
+      <c r="DR26">
+        <v>7</v>
+      </c>
+      <c r="DS26">
+        <v>7</v>
+      </c>
+      <c r="DT26">
+        <v>7</v>
+      </c>
+      <c r="DU26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11544,13 +11902,28 @@
       <c r="DP27">
         <v>6</v>
       </c>
+      <c r="DQ27">
+        <v>6</v>
+      </c>
+      <c r="DR27">
+        <v>9</v>
+      </c>
+      <c r="DS27">
+        <v>9</v>
+      </c>
+      <c r="DT27">
+        <v>10</v>
+      </c>
+      <c r="DU27">
+        <v>11</v>
+      </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11906,13 +12279,28 @@
       <c r="DP28">
         <v>85</v>
       </c>
+      <c r="DQ28">
+        <v>87</v>
+      </c>
+      <c r="DR28">
+        <v>99</v>
+      </c>
+      <c r="DS28">
+        <v>99</v>
+      </c>
+      <c r="DT28">
+        <v>99</v>
+      </c>
+      <c r="DU28">
+        <v>99</v>
+      </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -12268,13 +12656,28 @@
       <c r="DP29">
         <v>84</v>
       </c>
+      <c r="DQ29">
+        <v>86</v>
+      </c>
+      <c r="DR29">
+        <v>87</v>
+      </c>
+      <c r="DS29">
+        <v>87</v>
+      </c>
+      <c r="DT29">
+        <v>93</v>
+      </c>
+      <c r="DU29">
+        <v>93</v>
+      </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -12630,13 +13033,28 @@
       <c r="DP30">
         <v>141</v>
       </c>
+      <c r="DQ30">
+        <v>143</v>
+      </c>
+      <c r="DR30">
+        <v>145</v>
+      </c>
+      <c r="DS30">
+        <v>145</v>
+      </c>
+      <c r="DT30">
+        <v>181</v>
+      </c>
+      <c r="DU30">
+        <v>181</v>
+      </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -12992,13 +13410,28 @@
       <c r="DP31">
         <v>377</v>
       </c>
+      <c r="DQ31">
+        <v>383</v>
+      </c>
+      <c r="DR31">
+        <v>437</v>
+      </c>
+      <c r="DS31">
+        <v>437</v>
+      </c>
+      <c r="DT31">
+        <v>449</v>
+      </c>
+      <c r="DU31">
+        <v>449</v>
+      </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -13354,13 +13787,28 @@
       <c r="DP32">
         <v>94</v>
       </c>
+      <c r="DQ32">
+        <v>96</v>
+      </c>
+      <c r="DR32">
+        <v>97</v>
+      </c>
+      <c r="DS32">
+        <v>97</v>
+      </c>
+      <c r="DT32">
+        <v>97</v>
+      </c>
+      <c r="DU32">
+        <v>110</v>
+      </c>
     </row>
-    <row r="33" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -13716,13 +14164,28 @@
       <c r="DP33">
         <v>17</v>
       </c>
+      <c r="DQ33">
+        <v>18</v>
+      </c>
+      <c r="DR33">
+        <v>19</v>
+      </c>
+      <c r="DS33">
+        <v>19</v>
+      </c>
+      <c r="DT33">
+        <v>19</v>
+      </c>
+      <c r="DU33">
+        <v>24</v>
+      </c>
     </row>
-    <row r="34" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -14078,13 +14541,28 @@
       <c r="DP34">
         <v>2510</v>
       </c>
+      <c r="DQ34">
+        <v>2611</v>
+      </c>
+      <c r="DR34">
+        <v>2692</v>
+      </c>
+      <c r="DS34">
+        <v>2779</v>
+      </c>
+      <c r="DT34">
+        <v>2779</v>
+      </c>
+      <c r="DU34">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="35" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -14440,13 +14918,28 @@
       <c r="DP35">
         <v>120</v>
       </c>
+      <c r="DQ35">
+        <v>122</v>
+      </c>
+      <c r="DR35">
+        <v>123</v>
+      </c>
+      <c r="DS35">
+        <v>123</v>
+      </c>
+      <c r="DT35">
+        <v>123</v>
+      </c>
+      <c r="DU35">
+        <v>126</v>
+      </c>
     </row>
-    <row r="36" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -14802,13 +15295,28 @@
       <c r="DP36">
         <v>7</v>
       </c>
+      <c r="DQ36">
+        <v>7</v>
+      </c>
+      <c r="DR36">
+        <v>7</v>
+      </c>
+      <c r="DS36">
+        <v>7</v>
+      </c>
+      <c r="DT36">
+        <v>7</v>
+      </c>
+      <c r="DU36">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -15164,13 +15672,28 @@
       <c r="DP37">
         <v>44</v>
       </c>
+      <c r="DQ37">
+        <v>44</v>
+      </c>
+      <c r="DR37">
+        <v>46</v>
+      </c>
+      <c r="DS37">
+        <v>48</v>
+      </c>
+      <c r="DT37">
+        <v>49</v>
+      </c>
+      <c r="DU37">
+        <v>50</v>
+      </c>
     </row>
-    <row r="38" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -15526,13 +16049,28 @@
       <c r="DP38">
         <v>93</v>
       </c>
+      <c r="DQ38">
+        <v>97</v>
+      </c>
+      <c r="DR38">
+        <v>99</v>
+      </c>
+      <c r="DS38">
+        <v>99</v>
+      </c>
+      <c r="DT38">
+        <v>99</v>
+      </c>
+      <c r="DU38">
+        <v>108</v>
+      </c>
     </row>
-    <row r="39" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -15888,13 +16426,28 @@
       <c r="DP39">
         <v>334</v>
       </c>
+      <c r="DQ39">
+        <v>352</v>
+      </c>
+      <c r="DR39">
+        <v>352</v>
+      </c>
+      <c r="DS39">
+        <v>352</v>
+      </c>
+      <c r="DT39">
+        <v>352</v>
+      </c>
+      <c r="DU39">
+        <v>454</v>
+      </c>
     </row>
-    <row r="40" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -16250,13 +16803,28 @@
       <c r="DP40">
         <v>172</v>
       </c>
+      <c r="DQ40">
+        <v>188</v>
+      </c>
+      <c r="DR40">
+        <v>212</v>
+      </c>
+      <c r="DS40">
+        <v>212</v>
+      </c>
+      <c r="DT40">
+        <v>212</v>
+      </c>
+      <c r="DU40">
+        <v>250</v>
+      </c>
     </row>
-    <row r="41" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -16612,13 +17180,28 @@
       <c r="DP41">
         <v>7</v>
       </c>
+      <c r="DQ41">
+        <v>7</v>
+      </c>
+      <c r="DR41">
+        <v>7</v>
+      </c>
+      <c r="DS41">
+        <v>7</v>
+      </c>
+      <c r="DT41">
+        <v>7</v>
+      </c>
+      <c r="DU41">
+        <v>7</v>
+      </c>
     </row>
-    <row r="42" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -16974,13 +17557,28 @@
       <c r="DP42">
         <v>8</v>
       </c>
+      <c r="DQ42">
+        <v>9</v>
+      </c>
+      <c r="DR42">
+        <v>9</v>
+      </c>
+      <c r="DS42">
+        <v>9</v>
+      </c>
+      <c r="DT42">
+        <v>9</v>
+      </c>
+      <c r="DU42">
+        <v>9</v>
+      </c>
     </row>
-    <row r="43" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -17336,13 +17934,28 @@
       <c r="DP43">
         <v>1</v>
       </c>
+      <c r="DQ43">
+        <v>1</v>
+      </c>
+      <c r="DR43">
+        <v>1</v>
+      </c>
+      <c r="DS43">
+        <v>1</v>
+      </c>
+      <c r="DT43">
+        <v>1</v>
+      </c>
+      <c r="DU43">
+        <v>3</v>
+      </c>
     </row>
-    <row r="44" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -17698,13 +18311,28 @@
       <c r="DP44">
         <v>5</v>
       </c>
+      <c r="DQ44">
+        <v>5</v>
+      </c>
+      <c r="DR44">
+        <v>5</v>
+      </c>
+      <c r="DS44">
+        <v>5</v>
+      </c>
+      <c r="DT44">
+        <v>5</v>
+      </c>
+      <c r="DU44">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -18060,13 +18688,28 @@
       <c r="DP45">
         <v>3</v>
       </c>
+      <c r="DQ45">
+        <v>3</v>
+      </c>
+      <c r="DR45">
+        <v>3</v>
+      </c>
+      <c r="DS45">
+        <v>3</v>
+      </c>
+      <c r="DT45">
+        <v>3</v>
+      </c>
+      <c r="DU45">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -18422,13 +19065,28 @@
       <c r="DP46">
         <v>3114</v>
       </c>
+      <c r="DQ46">
+        <v>3199</v>
+      </c>
+      <c r="DR46">
+        <v>3321</v>
+      </c>
+      <c r="DS46">
+        <v>3409</v>
+      </c>
+      <c r="DT46">
+        <v>3521</v>
+      </c>
+      <c r="DU46">
+        <v>3707</v>
+      </c>
     </row>
-    <row r="47" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -18784,13 +19442,28 @@
       <c r="DP47">
         <v>6</v>
       </c>
+      <c r="DQ47">
+        <v>6</v>
+      </c>
+      <c r="DR47">
+        <v>6</v>
+      </c>
+      <c r="DS47">
+        <v>6</v>
+      </c>
+      <c r="DT47">
+        <v>6</v>
+      </c>
+      <c r="DU47">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -19146,13 +19819,28 @@
       <c r="DP48">
         <v>95</v>
       </c>
+      <c r="DQ48">
+        <v>100</v>
+      </c>
+      <c r="DR48">
+        <v>104</v>
+      </c>
+      <c r="DS48">
+        <v>104</v>
+      </c>
+      <c r="DT48">
+        <v>108</v>
+      </c>
+      <c r="DU48">
+        <v>109</v>
+      </c>
     </row>
-    <row r="49" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -19508,13 +20196,28 @@
       <c r="DP49">
         <v>599</v>
       </c>
+      <c r="DQ49">
+        <v>635</v>
+      </c>
+      <c r="DR49">
+        <v>690</v>
+      </c>
+      <c r="DS49">
+        <v>690</v>
+      </c>
+      <c r="DT49">
+        <v>690</v>
+      </c>
+      <c r="DU49">
+        <v>750</v>
+      </c>
     </row>
-    <row r="50" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -19870,13 +20573,28 @@
       <c r="DP50">
         <v>19</v>
       </c>
+      <c r="DQ50">
+        <v>21</v>
+      </c>
+      <c r="DR50">
+        <v>21</v>
+      </c>
+      <c r="DS50">
+        <v>21</v>
+      </c>
+      <c r="DT50">
+        <v>21</v>
+      </c>
+      <c r="DU50">
+        <v>21</v>
+      </c>
     </row>
-    <row r="51" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -20232,13 +20950,28 @@
       <c r="DP51">
         <v>9</v>
       </c>
+      <c r="DQ51">
+        <v>9</v>
+      </c>
+      <c r="DR51">
+        <v>11</v>
+      </c>
+      <c r="DS51">
+        <v>11</v>
+      </c>
+      <c r="DT51">
+        <v>11</v>
+      </c>
+      <c r="DU51">
+        <v>11</v>
+      </c>
     </row>
-    <row r="52" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -20594,13 +21327,28 @@
       <c r="DP52">
         <v>43</v>
       </c>
+      <c r="DQ52">
+        <v>60</v>
+      </c>
+      <c r="DR52">
+        <v>61</v>
+      </c>
+      <c r="DS52">
+        <v>61</v>
+      </c>
+      <c r="DT52">
+        <v>61</v>
+      </c>
+      <c r="DU52">
+        <v>68</v>
+      </c>
     </row>
-    <row r="53" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -20956,13 +21704,28 @@
       <c r="DP53">
         <v>335</v>
       </c>
+      <c r="DQ53">
+        <v>336</v>
+      </c>
+      <c r="DR53">
+        <v>336</v>
+      </c>
+      <c r="DS53">
+        <v>336</v>
+      </c>
+      <c r="DT53">
+        <v>336</v>
+      </c>
+      <c r="DU53">
+        <v>336</v>
+      </c>
     </row>
-    <row r="54" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -21318,13 +22081,28 @@
       <c r="DP54">
         <v>4</v>
       </c>
+      <c r="DQ54">
+        <v>4</v>
+      </c>
+      <c r="DR54">
+        <v>4</v>
+      </c>
+      <c r="DS54">
+        <v>4</v>
+      </c>
+      <c r="DT54">
+        <v>4</v>
+      </c>
+      <c r="DU54">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -21680,13 +22458,28 @@
       <c r="DP55">
         <v>57</v>
       </c>
+      <c r="DQ55">
+        <v>58</v>
+      </c>
+      <c r="DR55">
+        <v>60</v>
+      </c>
+      <c r="DS55">
+        <v>60</v>
+      </c>
+      <c r="DT55">
+        <v>60</v>
+      </c>
+      <c r="DU55">
+        <v>61</v>
+      </c>
     </row>
-    <row r="56" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -22042,13 +22835,28 @@
       <c r="DP56">
         <v>11</v>
       </c>
+      <c r="DQ56">
+        <v>13</v>
+      </c>
+      <c r="DR56">
+        <v>13</v>
+      </c>
+      <c r="DS56">
+        <v>13</v>
+      </c>
+      <c r="DT56">
+        <v>13</v>
+      </c>
+      <c r="DU56">
+        <v>15</v>
+      </c>
     </row>
-    <row r="57" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -22404,13 +23212,28 @@
       <c r="DP57">
         <v>26</v>
       </c>
+      <c r="DQ57">
+        <v>26</v>
+      </c>
+      <c r="DR57">
+        <v>26</v>
+      </c>
+      <c r="DS57">
+        <v>26</v>
+      </c>
+      <c r="DT57">
+        <v>26</v>
+      </c>
+      <c r="DU57">
+        <v>28</v>
+      </c>
     </row>
-    <row r="58" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -22766,13 +23589,28 @@
       <c r="DP58">
         <v>3</v>
       </c>
+      <c r="DQ58">
+        <v>3</v>
+      </c>
+      <c r="DR58">
+        <v>3</v>
+      </c>
+      <c r="DS58">
+        <v>3</v>
+      </c>
+      <c r="DT58">
+        <v>3</v>
+      </c>
+      <c r="DU58">
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -23128,13 +23966,28 @@
       <c r="DP59">
         <v>91</v>
       </c>
+      <c r="DQ59">
+        <v>91</v>
+      </c>
+      <c r="DR59">
+        <v>91</v>
+      </c>
+      <c r="DS59">
+        <v>91</v>
+      </c>
+      <c r="DT59">
+        <v>91</v>
+      </c>
+      <c r="DU59">
+        <v>102</v>
+      </c>
     </row>
-    <row r="60" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -23490,13 +24343,28 @@
       <c r="DP60">
         <v>21882</v>
       </c>
+      <c r="DQ60">
+        <v>22590</v>
+      </c>
+      <c r="DR60">
+        <v>23675</v>
+      </c>
+      <c r="DS60">
+        <v>24778</v>
+      </c>
+      <c r="DT60">
+        <v>25840</v>
+      </c>
+      <c r="DU60">
+        <v>27054</v>
+      </c>
     </row>
-    <row r="61" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -23852,13 +24720,28 @@
       <c r="DP61">
         <v>59</v>
       </c>
+      <c r="DQ61">
+        <v>59</v>
+      </c>
+      <c r="DR61">
+        <v>70</v>
+      </c>
+      <c r="DS61">
+        <v>70</v>
+      </c>
+      <c r="DT61">
+        <v>70</v>
+      </c>
+      <c r="DU61">
+        <v>70</v>
+      </c>
     </row>
-    <row r="62" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -24214,13 +25097,28 @@
       <c r="DP62">
         <v>324</v>
       </c>
+      <c r="DQ62">
+        <v>337</v>
+      </c>
+      <c r="DR62">
+        <v>355</v>
+      </c>
+      <c r="DS62">
+        <v>355</v>
+      </c>
+      <c r="DT62">
+        <v>355</v>
+      </c>
+      <c r="DU62">
+        <v>371</v>
+      </c>
     </row>
-    <row r="63" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -24576,13 +25474,28 @@
       <c r="DP63">
         <v>7</v>
       </c>
+      <c r="DQ63">
+        <v>7</v>
+      </c>
+      <c r="DR63">
+        <v>7</v>
+      </c>
+      <c r="DS63">
+        <v>7</v>
+      </c>
+      <c r="DT63">
+        <v>7</v>
+      </c>
+      <c r="DU63">
+        <v>7</v>
+      </c>
     </row>
-    <row r="64" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -24938,13 +25851,28 @@
       <c r="DP64">
         <v>2951</v>
       </c>
+      <c r="DQ64">
+        <v>3032</v>
+      </c>
+      <c r="DR64">
+        <v>3184</v>
+      </c>
+      <c r="DS64">
+        <v>3279</v>
+      </c>
+      <c r="DT64">
+        <v>3338</v>
+      </c>
+      <c r="DU64">
+        <v>3403</v>
+      </c>
     </row>
-    <row r="65" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -25300,13 +26228,28 @@
       <c r="DP65">
         <v>70</v>
       </c>
+      <c r="DQ65">
+        <v>96</v>
+      </c>
+      <c r="DR65">
+        <v>96</v>
+      </c>
+      <c r="DS65">
+        <v>96</v>
+      </c>
+      <c r="DT65">
+        <v>96</v>
+      </c>
+      <c r="DU65">
+        <v>110</v>
+      </c>
     </row>
-    <row r="66" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -25662,13 +26605,28 @@
       <c r="DP66">
         <v>2</v>
       </c>
+      <c r="DQ66">
+        <v>2</v>
+      </c>
+      <c r="DR66">
+        <v>2</v>
+      </c>
+      <c r="DS66">
+        <v>2</v>
+      </c>
+      <c r="DT66">
+        <v>2</v>
+      </c>
+      <c r="DU66">
+        <v>2</v>
+      </c>
     </row>
-    <row r="67" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -26024,13 +26982,28 @@
       <c r="DP67">
         <v>13</v>
       </c>
+      <c r="DQ67">
+        <v>13</v>
+      </c>
+      <c r="DR67">
+        <v>13</v>
+      </c>
+      <c r="DS67">
+        <v>13</v>
+      </c>
+      <c r="DT67">
+        <v>13</v>
+      </c>
+      <c r="DU67">
+        <v>18</v>
+      </c>
     </row>
-    <row r="68" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -26386,13 +27359,28 @@
       <c r="DP68">
         <v>27</v>
       </c>
+      <c r="DQ68">
+        <v>27</v>
+      </c>
+      <c r="DR68">
+        <v>27</v>
+      </c>
+      <c r="DS68">
+        <v>27</v>
+      </c>
+      <c r="DT68">
+        <v>27</v>
+      </c>
+      <c r="DU68">
+        <v>28</v>
+      </c>
     </row>
-    <row r="69" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -26748,13 +27736,28 @@
       <c r="DP69">
         <v>54</v>
       </c>
+      <c r="DQ69">
+        <v>54</v>
+      </c>
+      <c r="DR69">
+        <v>56</v>
+      </c>
+      <c r="DS69">
+        <v>57</v>
+      </c>
+      <c r="DT69">
+        <v>62</v>
+      </c>
+      <c r="DU69">
+        <v>65</v>
+      </c>
     </row>
-    <row r="70" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -27110,13 +28113,28 @@
       <c r="DP70">
         <v>10</v>
       </c>
+      <c r="DQ70">
+        <v>11</v>
+      </c>
+      <c r="DR70">
+        <v>11</v>
+      </c>
+      <c r="DS70">
+        <v>11</v>
+      </c>
+      <c r="DT70">
+        <v>11</v>
+      </c>
+      <c r="DU70">
+        <v>11</v>
+      </c>
     </row>
-    <row r="71" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -27472,13 +28490,28 @@
       <c r="DP71">
         <v>670</v>
       </c>
+      <c r="DQ71">
+        <v>718</v>
+      </c>
+      <c r="DR71">
+        <v>718</v>
+      </c>
+      <c r="DS71">
+        <v>718</v>
+      </c>
+      <c r="DT71">
+        <v>718</v>
+      </c>
+      <c r="DU71">
+        <v>946</v>
+      </c>
     </row>
-    <row r="72" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -27834,13 +28867,28 @@
       <c r="DP72">
         <v>2</v>
       </c>
+      <c r="DQ72">
+        <v>2</v>
+      </c>
+      <c r="DR72">
+        <v>2</v>
+      </c>
+      <c r="DS72">
+        <v>2</v>
+      </c>
+      <c r="DT72">
+        <v>2</v>
+      </c>
+      <c r="DU72">
+        <v>2</v>
+      </c>
     </row>
-    <row r="73" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -28196,13 +29244,28 @@
       <c r="DP73">
         <v>901</v>
       </c>
+      <c r="DQ73">
+        <v>978</v>
+      </c>
+      <c r="DR73">
+        <v>1046</v>
+      </c>
+      <c r="DS73">
+        <v>1046</v>
+      </c>
+      <c r="DT73">
+        <v>1046</v>
+      </c>
+      <c r="DU73">
+        <v>1182</v>
+      </c>
     </row>
-    <row r="74" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -28558,13 +29621,28 @@
       <c r="DP74">
         <v>6389</v>
       </c>
+      <c r="DQ74">
+        <v>6665</v>
+      </c>
+      <c r="DR74">
+        <v>6953</v>
+      </c>
+      <c r="DS74">
+        <v>6953</v>
+      </c>
+      <c r="DT74">
+        <v>7461</v>
+      </c>
+      <c r="DU74">
+        <v>7642</v>
+      </c>
     </row>
-    <row r="75" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -28920,13 +29998,28 @@
       <c r="DP75">
         <v>103</v>
       </c>
+      <c r="DQ75">
+        <v>133</v>
+      </c>
+      <c r="DR75">
+        <v>146</v>
+      </c>
+      <c r="DS75">
+        <v>146</v>
+      </c>
+      <c r="DT75">
+        <v>146</v>
+      </c>
+      <c r="DU75">
+        <v>160</v>
+      </c>
     </row>
-    <row r="76" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -29282,13 +30375,28 @@
       <c r="DP76">
         <v>31</v>
       </c>
+      <c r="DQ76">
+        <v>31</v>
+      </c>
+      <c r="DR76">
+        <v>34</v>
+      </c>
+      <c r="DS76">
+        <v>34</v>
+      </c>
+      <c r="DT76">
+        <v>35</v>
+      </c>
+      <c r="DU76">
+        <v>35</v>
+      </c>
     </row>
-    <row r="77" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -29644,13 +30752,28 @@
       <c r="DP77">
         <v>96</v>
       </c>
+      <c r="DQ77">
+        <v>109</v>
+      </c>
+      <c r="DR77">
+        <v>112</v>
+      </c>
+      <c r="DS77">
+        <v>112</v>
+      </c>
+      <c r="DT77">
+        <v>112</v>
+      </c>
+      <c r="DU77">
+        <v>122</v>
+      </c>
     </row>
-    <row r="78" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -30006,13 +31129,28 @@
       <c r="DP78">
         <v>95</v>
       </c>
+      <c r="DQ78">
+        <v>96</v>
+      </c>
+      <c r="DR78">
+        <v>104</v>
+      </c>
+      <c r="DS78">
+        <v>104</v>
+      </c>
+      <c r="DT78">
+        <v>104</v>
+      </c>
+      <c r="DU78">
+        <v>104</v>
+      </c>
     </row>
-    <row r="79" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -30368,13 +31506,28 @@
       <c r="DP79">
         <v>8</v>
       </c>
+      <c r="DQ79">
+        <v>10</v>
+      </c>
+      <c r="DR79">
+        <v>10</v>
+      </c>
+      <c r="DS79">
+        <v>11</v>
+      </c>
+      <c r="DT79">
+        <v>11</v>
+      </c>
+      <c r="DU79">
+        <v>11</v>
+      </c>
     </row>
-    <row r="80" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -30730,13 +31883,28 @@
       <c r="DP80">
         <v>34</v>
       </c>
+      <c r="DQ80">
+        <v>34</v>
+      </c>
+      <c r="DR80">
+        <v>36</v>
+      </c>
+      <c r="DS80">
+        <v>36</v>
+      </c>
+      <c r="DT80">
+        <v>36</v>
+      </c>
+      <c r="DU80">
+        <v>46</v>
+      </c>
     </row>
-    <row r="81" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -31092,13 +32260,28 @@
       <c r="DP81">
         <v>0</v>
       </c>
+      <c r="DQ81">
+        <v>0</v>
+      </c>
+      <c r="DR81">
+        <v>0</v>
+      </c>
+      <c r="DS81">
+        <v>0</v>
+      </c>
+      <c r="DT81">
+        <v>0</v>
+      </c>
+      <c r="DU81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -31454,13 +32637,28 @@
       <c r="DP82">
         <v>3868</v>
       </c>
+      <c r="DQ82">
+        <v>3999</v>
+      </c>
+      <c r="DR82">
+        <v>4120</v>
+      </c>
+      <c r="DS82">
+        <v>4120</v>
+      </c>
+      <c r="DT82">
+        <v>4120</v>
+      </c>
+      <c r="DU82">
+        <v>4286</v>
+      </c>
     </row>
-    <row r="83" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -31816,13 +33014,28 @@
       <c r="DP83">
         <v>47</v>
       </c>
+      <c r="DQ83">
+        <v>50</v>
+      </c>
+      <c r="DR83">
+        <v>50</v>
+      </c>
+      <c r="DS83">
+        <v>50</v>
+      </c>
+      <c r="DT83">
+        <v>50</v>
+      </c>
+      <c r="DU83">
+        <v>53</v>
+      </c>
     </row>
-    <row r="84" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B84" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -32178,13 +33391,28 @@
       <c r="DP84">
         <v>31</v>
       </c>
+      <c r="DQ84">
+        <v>33</v>
+      </c>
+      <c r="DR84">
+        <v>33</v>
+      </c>
+      <c r="DS84">
+        <v>33</v>
+      </c>
+      <c r="DT84">
+        <v>39</v>
+      </c>
+      <c r="DU84">
+        <v>39</v>
+      </c>
     </row>
-    <row r="85" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -32540,13 +33768,28 @@
       <c r="DP85">
         <v>225</v>
       </c>
+      <c r="DQ85">
+        <v>225</v>
+      </c>
+      <c r="DR85">
+        <v>233</v>
+      </c>
+      <c r="DS85">
+        <v>233</v>
+      </c>
+      <c r="DT85">
+        <v>233</v>
+      </c>
+      <c r="DU85">
+        <v>238</v>
+      </c>
     </row>
-    <row r="86" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -32902,13 +34145,28 @@
       <c r="DP86">
         <v>26</v>
       </c>
+      <c r="DQ86">
+        <v>26</v>
+      </c>
+      <c r="DR86">
+        <v>28</v>
+      </c>
+      <c r="DS86">
+        <v>28</v>
+      </c>
+      <c r="DT86">
+        <v>28</v>
+      </c>
+      <c r="DU86">
+        <v>30</v>
+      </c>
     </row>
-    <row r="87" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -33264,13 +34522,28 @@
       <c r="DP87">
         <v>3565</v>
       </c>
+      <c r="DQ87">
+        <v>3778</v>
+      </c>
+      <c r="DR87">
+        <v>3990</v>
+      </c>
+      <c r="DS87">
+        <v>3990</v>
+      </c>
+      <c r="DT87">
+        <v>3990</v>
+      </c>
+      <c r="DU87">
+        <v>4586</v>
+      </c>
     </row>
-    <row r="88" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -33626,13 +34899,28 @@
       <c r="DP88">
         <v>12</v>
       </c>
+      <c r="DQ88">
+        <v>12</v>
+      </c>
+      <c r="DR88">
+        <v>12</v>
+      </c>
+      <c r="DS88">
+        <v>12</v>
+      </c>
+      <c r="DT88">
+        <v>12</v>
+      </c>
+      <c r="DU88">
+        <v>14</v>
+      </c>
     </row>
-    <row r="89" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -33988,13 +35276,28 @@
       <c r="DP89">
         <v>41</v>
       </c>
+      <c r="DQ89">
+        <v>42</v>
+      </c>
+      <c r="DR89">
+        <v>45</v>
+      </c>
+      <c r="DS89">
+        <v>45</v>
+      </c>
+      <c r="DT89">
+        <v>45</v>
+      </c>
+      <c r="DU89">
+        <v>49</v>
+      </c>
     </row>
-    <row r="90" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -34350,13 +35653,28 @@
       <c r="DP90">
         <v>5</v>
       </c>
+      <c r="DQ90">
+        <v>5</v>
+      </c>
+      <c r="DR90">
+        <v>5</v>
+      </c>
+      <c r="DS90">
+        <v>5</v>
+      </c>
+      <c r="DT90">
+        <v>5</v>
+      </c>
+      <c r="DU90">
+        <v>5</v>
+      </c>
     </row>
-    <row r="91" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -34712,13 +36030,28 @@
       <c r="DP91">
         <v>15</v>
       </c>
+      <c r="DQ91">
+        <v>15</v>
+      </c>
+      <c r="DR91">
+        <v>15</v>
+      </c>
+      <c r="DS91">
+        <v>15</v>
+      </c>
+      <c r="DT91">
+        <v>14</v>
+      </c>
+      <c r="DU91">
+        <v>15</v>
+      </c>
     </row>
-    <row r="92" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -35074,13 +36407,28 @@
       <c r="DP92">
         <v>297</v>
       </c>
+      <c r="DQ92">
+        <v>301</v>
+      </c>
+      <c r="DR92">
+        <v>306</v>
+      </c>
+      <c r="DS92">
+        <v>306</v>
+      </c>
+      <c r="DT92">
+        <v>307</v>
+      </c>
+      <c r="DU92">
+        <v>314</v>
+      </c>
     </row>
-    <row r="93" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -35436,13 +36784,28 @@
       <c r="DP93">
         <v>117</v>
       </c>
+      <c r="DQ93">
+        <v>119</v>
+      </c>
+      <c r="DR93">
+        <v>121</v>
+      </c>
+      <c r="DS93">
+        <v>121</v>
+      </c>
+      <c r="DT93">
+        <v>121</v>
+      </c>
+      <c r="DU93">
+        <v>122</v>
+      </c>
     </row>
-    <row r="94" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B94" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -35798,13 +37161,28 @@
       <c r="DP94">
         <v>594</v>
       </c>
+      <c r="DQ94">
+        <v>617</v>
+      </c>
+      <c r="DR94">
+        <v>630</v>
+      </c>
+      <c r="DS94">
+        <v>633</v>
+      </c>
+      <c r="DT94">
+        <v>633</v>
+      </c>
+      <c r="DU94">
+        <v>648</v>
+      </c>
     </row>
-    <row r="95" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -36160,13 +37538,28 @@
       <c r="DP95">
         <v>389</v>
       </c>
+      <c r="DQ95">
+        <v>399</v>
+      </c>
+      <c r="DR95">
+        <v>399</v>
+      </c>
+      <c r="DS95">
+        <v>417</v>
+      </c>
+      <c r="DT95">
+        <v>417</v>
+      </c>
+      <c r="DU95">
+        <v>471</v>
+      </c>
     </row>
-    <row r="96" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B96" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -36522,13 +37915,28 @@
       <c r="DP96">
         <v>545</v>
       </c>
+      <c r="DQ96">
+        <v>551</v>
+      </c>
+      <c r="DR96">
+        <v>557</v>
+      </c>
+      <c r="DS96">
+        <v>557</v>
+      </c>
+      <c r="DT96">
+        <v>558</v>
+      </c>
+      <c r="DU96">
+        <v>575</v>
+      </c>
     </row>
-    <row r="97" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -36884,13 +38292,28 @@
       <c r="DP97">
         <v>737</v>
       </c>
+      <c r="DQ97">
+        <v>768</v>
+      </c>
+      <c r="DR97">
+        <v>849</v>
+      </c>
+      <c r="DS97">
+        <v>849</v>
+      </c>
+      <c r="DT97">
+        <v>858</v>
+      </c>
+      <c r="DU97">
+        <v>896</v>
+      </c>
     </row>
-    <row r="98" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -37246,13 +38669,28 @@
       <c r="DP98">
         <v>369</v>
       </c>
+      <c r="DQ98">
+        <v>427</v>
+      </c>
+      <c r="DR98">
+        <v>500</v>
+      </c>
+      <c r="DS98">
+        <v>500</v>
+      </c>
+      <c r="DT98">
+        <v>500</v>
+      </c>
+      <c r="DU98">
+        <v>592</v>
+      </c>
     </row>
-    <row r="99" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -37608,13 +39046,28 @@
       <c r="DP99">
         <v>2</v>
       </c>
+      <c r="DQ99">
+        <v>2</v>
+      </c>
+      <c r="DR99">
+        <v>2</v>
+      </c>
+      <c r="DS99">
+        <v>2</v>
+      </c>
+      <c r="DT99">
+        <v>2</v>
+      </c>
+      <c r="DU99">
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -37970,13 +39423,28 @@
       <c r="DP100">
         <v>20</v>
       </c>
+      <c r="DQ100">
+        <v>21</v>
+      </c>
+      <c r="DR100">
+        <v>22</v>
+      </c>
+      <c r="DS100">
+        <v>22</v>
+      </c>
+      <c r="DT100">
+        <v>22</v>
+      </c>
+      <c r="DU100">
+        <v>22</v>
+      </c>
     </row>
-    <row r="101" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -38332,13 +39800,28 @@
       <c r="DP101">
         <v>31</v>
       </c>
+      <c r="DQ101">
+        <v>31</v>
+      </c>
+      <c r="DR101">
+        <v>31</v>
+      </c>
+      <c r="DS101">
+        <v>31</v>
+      </c>
+      <c r="DT101">
+        <v>31</v>
+      </c>
+      <c r="DU101">
+        <v>31</v>
+      </c>
     </row>
-    <row r="102" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -38694,13 +40177,28 @@
       <c r="DP102">
         <v>5</v>
       </c>
+      <c r="DQ102">
+        <v>5</v>
+      </c>
+      <c r="DR102">
+        <v>5</v>
+      </c>
+      <c r="DS102">
+        <v>5</v>
+      </c>
+      <c r="DT102">
+        <v>5</v>
+      </c>
+      <c r="DU102">
+        <v>5</v>
+      </c>
     </row>
-    <row r="103" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -39056,13 +40554,28 @@
       <c r="DP103">
         <v>257</v>
       </c>
+      <c r="DQ103">
+        <v>260</v>
+      </c>
+      <c r="DR103">
+        <v>260</v>
+      </c>
+      <c r="DS103">
+        <v>260</v>
+      </c>
+      <c r="DT103">
+        <v>260</v>
+      </c>
+      <c r="DU103">
+        <v>275</v>
+      </c>
     </row>
-    <row r="104" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B104" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -39418,13 +40931,28 @@
       <c r="DP104">
         <v>32859</v>
       </c>
+      <c r="DQ104">
+        <v>34108</v>
+      </c>
+      <c r="DR104">
+        <v>35316</v>
+      </c>
+      <c r="DS104">
+        <v>35913</v>
+      </c>
+      <c r="DT104">
+        <v>36597</v>
+      </c>
+      <c r="DU104">
+        <v>37776</v>
+      </c>
     </row>
-    <row r="105" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B105" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -39780,13 +41308,28 @@
       <c r="DP105">
         <v>325</v>
       </c>
+      <c r="DQ105">
+        <v>327</v>
+      </c>
+      <c r="DR105">
+        <v>332</v>
+      </c>
+      <c r="DS105">
+        <v>339</v>
+      </c>
+      <c r="DT105">
+        <v>363</v>
+      </c>
+      <c r="DU105">
+        <v>383</v>
+      </c>
     </row>
-    <row r="106" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B106" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -40142,13 +41685,28 @@
       <c r="DP106">
         <v>31</v>
       </c>
+      <c r="DQ106">
+        <v>36</v>
+      </c>
+      <c r="DR106">
+        <v>36</v>
+      </c>
+      <c r="DS106">
+        <v>36</v>
+      </c>
+      <c r="DT106">
+        <v>36</v>
+      </c>
+      <c r="DU106">
+        <v>36</v>
+      </c>
     </row>
-    <row r="107" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B107" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -40504,13 +42062,28 @@
       <c r="DP107">
         <v>5</v>
       </c>
+      <c r="DQ107">
+        <v>5</v>
+      </c>
+      <c r="DR107">
+        <v>5</v>
+      </c>
+      <c r="DS107">
+        <v>5</v>
+      </c>
+      <c r="DT107">
+        <v>5</v>
+      </c>
+      <c r="DU107">
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B108" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -40866,13 +42439,28 @@
       <c r="DP108">
         <v>2924</v>
       </c>
+      <c r="DQ108">
+        <v>3050</v>
+      </c>
+      <c r="DR108">
+        <v>3067</v>
+      </c>
+      <c r="DS108">
+        <v>3088</v>
+      </c>
+      <c r="DT108">
+        <v>3088</v>
+      </c>
+      <c r="DU108">
+        <v>3193</v>
+      </c>
     </row>
-    <row r="109" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -41228,13 +42816,28 @@
       <c r="DP109">
         <v>10</v>
       </c>
+      <c r="DQ109">
+        <v>14</v>
+      </c>
+      <c r="DR109">
+        <v>15</v>
+      </c>
+      <c r="DS109">
+        <v>15</v>
+      </c>
+      <c r="DT109">
+        <v>15</v>
+      </c>
+      <c r="DU109">
+        <v>15</v>
+      </c>
     </row>
-    <row r="110" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B110" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -41590,13 +43193,28 @@
       <c r="DP110">
         <v>143</v>
       </c>
+      <c r="DQ110">
+        <v>159</v>
+      </c>
+      <c r="DR110">
+        <v>159</v>
+      </c>
+      <c r="DS110">
+        <v>168</v>
+      </c>
+      <c r="DT110">
+        <v>168</v>
+      </c>
+      <c r="DU110">
+        <v>196</v>
+      </c>
     </row>
-    <row r="111" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -41952,13 +43570,28 @@
       <c r="DP111">
         <v>4252</v>
       </c>
+      <c r="DQ111">
+        <v>4520</v>
+      </c>
+      <c r="DR111">
+        <v>4798</v>
+      </c>
+      <c r="DS111">
+        <v>4798</v>
+      </c>
+      <c r="DT111">
+        <v>5345</v>
+      </c>
+      <c r="DU111">
+        <v>5345</v>
+      </c>
     </row>
-    <row r="112" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B112" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -42314,13 +43947,28 @@
       <c r="DP112">
         <v>74</v>
       </c>
+      <c r="DQ112">
+        <v>75</v>
+      </c>
+      <c r="DR112">
+        <v>76</v>
+      </c>
+      <c r="DS112">
+        <v>76</v>
+      </c>
+      <c r="DT112">
+        <v>82</v>
+      </c>
+      <c r="DU112">
+        <v>82</v>
+      </c>
     </row>
-    <row r="113" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B113" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -42676,13 +44324,28 @@
       <c r="DP113">
         <v>56</v>
       </c>
+      <c r="DQ113">
+        <v>60</v>
+      </c>
+      <c r="DR113">
+        <v>68</v>
+      </c>
+      <c r="DS113">
+        <v>68</v>
+      </c>
+      <c r="DT113">
+        <v>68</v>
+      </c>
+      <c r="DU113">
+        <v>86</v>
+      </c>
     </row>
-    <row r="114" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -43038,13 +44701,28 @@
       <c r="DP114">
         <v>83</v>
       </c>
+      <c r="DQ114">
+        <v>92</v>
+      </c>
+      <c r="DR114">
+        <v>120</v>
+      </c>
+      <c r="DS114">
+        <v>120</v>
+      </c>
+      <c r="DT114">
+        <v>120</v>
+      </c>
+      <c r="DU114">
+        <v>138</v>
+      </c>
     </row>
-    <row r="115" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -43400,13 +45078,28 @@
       <c r="DP115">
         <v>69</v>
       </c>
+      <c r="DQ115">
+        <v>70</v>
+      </c>
+      <c r="DR115">
+        <v>70</v>
+      </c>
+      <c r="DS115">
+        <v>70</v>
+      </c>
+      <c r="DT115">
+        <v>70</v>
+      </c>
+      <c r="DU115">
+        <v>75</v>
+      </c>
     </row>
-    <row r="116" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -43762,13 +45455,28 @@
       <c r="DP116">
         <v>165</v>
       </c>
+      <c r="DQ116">
+        <v>165</v>
+      </c>
+      <c r="DR116">
+        <v>171</v>
+      </c>
+      <c r="DS116">
+        <v>171</v>
+      </c>
+      <c r="DT116">
+        <v>171</v>
+      </c>
+      <c r="DU116">
+        <v>172</v>
+      </c>
     </row>
-    <row r="117" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -44124,13 +45832,28 @@
       <c r="DP117">
         <v>43</v>
       </c>
+      <c r="DQ117">
+        <v>42</v>
+      </c>
+      <c r="DR117">
+        <v>43</v>
+      </c>
+      <c r="DS117">
+        <v>43</v>
+      </c>
+      <c r="DT117">
+        <v>43</v>
+      </c>
+      <c r="DU117">
+        <v>55</v>
+      </c>
     </row>
-    <row r="118" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B118" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -44486,13 +46209,28 @@
       <c r="DP118">
         <v>16</v>
       </c>
+      <c r="DQ118">
+        <v>16</v>
+      </c>
+      <c r="DR118">
+        <v>16</v>
+      </c>
+      <c r="DS118">
+        <v>16</v>
+      </c>
+      <c r="DT118">
+        <v>16</v>
+      </c>
+      <c r="DU118">
+        <v>16</v>
+      </c>
     </row>
-    <row r="119" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -44848,13 +46586,28 @@
       <c r="DP119">
         <v>480</v>
       </c>
+      <c r="DQ119">
+        <v>505</v>
+      </c>
+      <c r="DR119">
+        <v>533</v>
+      </c>
+      <c r="DS119">
+        <v>533</v>
+      </c>
+      <c r="DT119">
+        <v>533</v>
+      </c>
+      <c r="DU119">
+        <v>616</v>
+      </c>
     </row>
-    <row r="120" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B120" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -45210,13 +46963,28 @@
       <c r="DP120">
         <v>68</v>
       </c>
+      <c r="DQ120">
+        <v>68</v>
+      </c>
+      <c r="DR120">
+        <v>70</v>
+      </c>
+      <c r="DS120">
+        <v>70</v>
+      </c>
+      <c r="DT120">
+        <v>70</v>
+      </c>
+      <c r="DU120">
+        <v>70</v>
+      </c>
     </row>
-    <row r="121" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B121" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -45572,13 +47340,28 @@
       <c r="DP121">
         <v>2</v>
       </c>
+      <c r="DQ121">
+        <v>2</v>
+      </c>
+      <c r="DR121">
+        <v>2</v>
+      </c>
+      <c r="DS121">
+        <v>2</v>
+      </c>
+      <c r="DT121">
+        <v>2</v>
+      </c>
+      <c r="DU121">
+        <v>2</v>
+      </c>
     </row>
-    <row r="122" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -45934,13 +47717,28 @@
       <c r="DP122">
         <v>11</v>
       </c>
+      <c r="DQ122">
+        <v>11</v>
+      </c>
+      <c r="DR122">
+        <v>12</v>
+      </c>
+      <c r="DS122">
+        <v>12</v>
+      </c>
+      <c r="DT122">
+        <v>12</v>
+      </c>
+      <c r="DU122">
+        <v>12</v>
+      </c>
     </row>
-    <row r="123" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -46296,13 +48094,28 @@
       <c r="DP123">
         <v>47</v>
       </c>
+      <c r="DQ123">
+        <v>47</v>
+      </c>
+      <c r="DR123">
+        <v>53</v>
+      </c>
+      <c r="DS123">
+        <v>53</v>
+      </c>
+      <c r="DT123">
+        <v>53</v>
+      </c>
+      <c r="DU123">
+        <v>68</v>
+      </c>
     </row>
-    <row r="124" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -46658,13 +48471,28 @@
       <c r="DP124">
         <v>52</v>
       </c>
+      <c r="DQ124">
+        <v>60</v>
+      </c>
+      <c r="DR124">
+        <v>60</v>
+      </c>
+      <c r="DS124">
+        <v>61</v>
+      </c>
+      <c r="DT124">
+        <v>61</v>
+      </c>
+      <c r="DU124">
+        <v>69</v>
+      </c>
     </row>
-    <row r="125" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -47020,13 +48848,28 @@
       <c r="DP125">
         <v>4</v>
       </c>
+      <c r="DQ125">
+        <v>4</v>
+      </c>
+      <c r="DR125">
+        <v>4</v>
+      </c>
+      <c r="DS125">
+        <v>4</v>
+      </c>
+      <c r="DT125">
+        <v>4</v>
+      </c>
+      <c r="DU125">
+        <v>4</v>
+      </c>
     </row>
-    <row r="126" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -47382,13 +49225,28 @@
       <c r="DP126">
         <v>1947</v>
       </c>
+      <c r="DQ126">
+        <v>2240</v>
+      </c>
+      <c r="DR126">
+        <v>2727</v>
+      </c>
+      <c r="DS126">
+        <v>2727</v>
+      </c>
+      <c r="DT126">
+        <v>2727</v>
+      </c>
+      <c r="DU126">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="127" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B127" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -47744,13 +49602,28 @@
       <c r="DP127">
         <v>16</v>
       </c>
+      <c r="DQ127">
+        <v>16</v>
+      </c>
+      <c r="DR127">
+        <v>19</v>
+      </c>
+      <c r="DS127">
+        <v>20</v>
+      </c>
+      <c r="DT127">
+        <v>22</v>
+      </c>
+      <c r="DU127">
+        <v>24</v>
+      </c>
     </row>
-    <row r="128" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -48106,13 +49979,28 @@
       <c r="DP128">
         <v>166</v>
       </c>
+      <c r="DQ128">
+        <v>176</v>
+      </c>
+      <c r="DR128">
+        <v>185</v>
+      </c>
+      <c r="DS128">
+        <v>189</v>
+      </c>
+      <c r="DT128">
+        <v>208</v>
+      </c>
+      <c r="DU128">
+        <v>218</v>
+      </c>
     </row>
-    <row r="129" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -48468,13 +50356,28 @@
       <c r="DP129">
         <v>478</v>
       </c>
+      <c r="DQ129">
+        <v>526</v>
+      </c>
+      <c r="DR129">
+        <v>553</v>
+      </c>
+      <c r="DS129">
+        <v>553</v>
+      </c>
+      <c r="DT129">
+        <v>553</v>
+      </c>
+      <c r="DU129">
+        <v>553</v>
+      </c>
     </row>
-    <row r="130" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -48830,13 +50733,28 @@
       <c r="DP130">
         <v>610</v>
       </c>
+      <c r="DQ130">
+        <v>610</v>
+      </c>
+      <c r="DR130">
+        <v>610</v>
+      </c>
+      <c r="DS130">
+        <v>610</v>
+      </c>
+      <c r="DT130">
+        <v>610</v>
+      </c>
+      <c r="DU130">
+        <v>609</v>
+      </c>
     </row>
-    <row r="131" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B131" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -49192,13 +51110,28 @@
       <c r="DP131">
         <v>51</v>
       </c>
+      <c r="DQ131">
+        <v>52</v>
+      </c>
+      <c r="DR131">
+        <v>53</v>
+      </c>
+      <c r="DS131">
+        <v>53</v>
+      </c>
+      <c r="DT131">
+        <v>53</v>
+      </c>
+      <c r="DU131">
+        <v>58</v>
+      </c>
     </row>
-    <row r="132" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B132" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -49554,13 +51487,28 @@
       <c r="DP132">
         <v>676</v>
       </c>
+      <c r="DQ132">
+        <v>724</v>
+      </c>
+      <c r="DR132">
+        <v>758</v>
+      </c>
+      <c r="DS132">
+        <v>758</v>
+      </c>
+      <c r="DT132">
+        <v>758</v>
+      </c>
+      <c r="DU132">
+        <v>828</v>
+      </c>
     </row>
-    <row r="133" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -49916,13 +51864,28 @@
       <c r="DP133">
         <v>68</v>
       </c>
+      <c r="DQ133">
+        <v>70</v>
+      </c>
+      <c r="DR133">
+        <v>90</v>
+      </c>
+      <c r="DS133">
+        <v>90</v>
+      </c>
+      <c r="DT133">
+        <v>89</v>
+      </c>
+      <c r="DU133">
+        <v>95</v>
+      </c>
     </row>
-    <row r="134" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B134" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -50278,13 +52241,28 @@
       <c r="DP134">
         <v>0</v>
       </c>
+      <c r="DQ134">
+        <v>1</v>
+      </c>
+      <c r="DR134">
+        <v>1</v>
+      </c>
+      <c r="DS134">
+        <v>1</v>
+      </c>
+      <c r="DT134">
+        <v>1</v>
+      </c>
+      <c r="DU134">
+        <v>1</v>
+      </c>
     </row>
-    <row r="135" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B135" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -50640,13 +52618,28 @@
       <c r="DP135">
         <v>0</v>
       </c>
+      <c r="DQ135">
+        <v>0</v>
+      </c>
+      <c r="DR135">
+        <v>0</v>
+      </c>
+      <c r="DS135">
+        <v>0</v>
+      </c>
+      <c r="DT135">
+        <v>0</v>
+      </c>
+      <c r="DU135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B136" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -51002,13 +52995,28 @@
       <c r="DP136">
         <v>94</v>
       </c>
+      <c r="DQ136">
+        <v>109</v>
+      </c>
+      <c r="DR136">
+        <v>111</v>
+      </c>
+      <c r="DS136">
+        <v>111</v>
+      </c>
+      <c r="DT136">
+        <v>110</v>
+      </c>
+      <c r="DU136">
+        <v>115</v>
+      </c>
     </row>
-    <row r="137" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B137" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -51364,13 +53372,28 @@
       <c r="DP137">
         <v>5</v>
       </c>
+      <c r="DQ137">
+        <v>6</v>
+      </c>
+      <c r="DR137">
+        <v>6</v>
+      </c>
+      <c r="DS137">
+        <v>6</v>
+      </c>
+      <c r="DT137">
+        <v>6</v>
+      </c>
+      <c r="DU137">
+        <v>10</v>
+      </c>
     </row>
-    <row r="138" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B138" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -51726,13 +53749,28 @@
       <c r="DP138">
         <v>0</v>
       </c>
+      <c r="DQ138">
+        <v>0</v>
+      </c>
+      <c r="DR138">
+        <v>0</v>
+      </c>
+      <c r="DS138">
+        <v>0</v>
+      </c>
+      <c r="DT138">
+        <v>0</v>
+      </c>
+      <c r="DU138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B139" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -52088,13 +54126,28 @@
       <c r="DP139">
         <v>2</v>
       </c>
+      <c r="DQ139">
+        <v>2</v>
+      </c>
+      <c r="DR139">
+        <v>2</v>
+      </c>
+      <c r="DS139">
+        <v>2</v>
+      </c>
+      <c r="DT139">
+        <v>2</v>
+      </c>
+      <c r="DU139">
+        <v>2</v>
+      </c>
     </row>
-    <row r="140" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B140" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -52450,13 +54503,28 @@
       <c r="DP140">
         <v>77</v>
       </c>
+      <c r="DQ140">
+        <v>79</v>
+      </c>
+      <c r="DR140">
+        <v>87</v>
+      </c>
+      <c r="DS140">
+        <v>87</v>
+      </c>
+      <c r="DT140">
+        <v>97</v>
+      </c>
+      <c r="DU140">
+        <v>105</v>
+      </c>
     </row>
-    <row r="141" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B141" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -52812,13 +54880,28 @@
       <c r="DP141">
         <v>3</v>
       </c>
+      <c r="DQ141">
+        <v>3</v>
+      </c>
+      <c r="DR141">
+        <v>3</v>
+      </c>
+      <c r="DS141">
+        <v>3</v>
+      </c>
+      <c r="DT141">
+        <v>3</v>
+      </c>
+      <c r="DU141">
+        <v>4</v>
+      </c>
     </row>
-    <row r="142" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B142" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -53174,13 +55257,28 @@
       <c r="DP142">
         <v>296</v>
       </c>
+      <c r="DQ142">
+        <v>316</v>
+      </c>
+      <c r="DR142">
+        <v>316</v>
+      </c>
+      <c r="DS142">
+        <v>325</v>
+      </c>
+      <c r="DT142">
+        <v>332</v>
+      </c>
+      <c r="DU142">
+        <v>332</v>
+      </c>
     </row>
-    <row r="143" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B143" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -53536,13 +55634,28 @@
       <c r="DP143">
         <v>44</v>
       </c>
+      <c r="DQ143">
+        <v>50</v>
+      </c>
+      <c r="DR143">
+        <v>50</v>
+      </c>
+      <c r="DS143">
+        <v>50</v>
+      </c>
+      <c r="DT143">
+        <v>50</v>
+      </c>
+      <c r="DU143">
+        <v>53</v>
+      </c>
     </row>
-    <row r="144" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B144" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -53898,13 +56011,28 @@
       <c r="DP144">
         <v>20</v>
       </c>
+      <c r="DQ144">
+        <v>20</v>
+      </c>
+      <c r="DR144">
+        <v>20</v>
+      </c>
+      <c r="DS144">
+        <v>20</v>
+      </c>
+      <c r="DT144">
+        <v>20</v>
+      </c>
+      <c r="DU144">
+        <v>20</v>
+      </c>
     </row>
-    <row r="145" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B145" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -54260,13 +56388,28 @@
       <c r="DP145">
         <v>19</v>
       </c>
+      <c r="DQ145">
+        <v>21</v>
+      </c>
+      <c r="DR145">
+        <v>21</v>
+      </c>
+      <c r="DS145">
+        <v>21</v>
+      </c>
+      <c r="DT145">
+        <v>21</v>
+      </c>
+      <c r="DU145">
+        <v>24</v>
+      </c>
     </row>
-    <row r="146" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B146" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -54622,13 +56765,28 @@
       <c r="DP146">
         <v>150</v>
       </c>
+      <c r="DQ146">
+        <v>175</v>
+      </c>
+      <c r="DR146">
+        <v>184</v>
+      </c>
+      <c r="DS146">
+        <v>184</v>
+      </c>
+      <c r="DT146">
+        <v>184</v>
+      </c>
+      <c r="DU146">
+        <v>197</v>
+      </c>
     </row>
-    <row r="147" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B147" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -54984,13 +57142,28 @@
       <c r="DP147">
         <v>62</v>
       </c>
+      <c r="DQ147">
+        <v>63</v>
+      </c>
+      <c r="DR147">
+        <v>72</v>
+      </c>
+      <c r="DS147">
+        <v>72</v>
+      </c>
+      <c r="DT147">
+        <v>85</v>
+      </c>
+      <c r="DU147">
+        <v>85</v>
+      </c>
     </row>
-    <row r="148" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B148" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -55346,13 +57519,28 @@
       <c r="DP148">
         <v>31</v>
       </c>
+      <c r="DQ148">
+        <v>33</v>
+      </c>
+      <c r="DR148">
+        <v>37</v>
+      </c>
+      <c r="DS148">
+        <v>37</v>
+      </c>
+      <c r="DT148">
+        <v>43</v>
+      </c>
+      <c r="DU148">
+        <v>43</v>
+      </c>
     </row>
-    <row r="149" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -55708,13 +57896,28 @@
       <c r="DP149">
         <v>361</v>
       </c>
+      <c r="DQ149">
+        <v>376</v>
+      </c>
+      <c r="DR149">
+        <v>390</v>
+      </c>
+      <c r="DS149">
+        <v>390</v>
+      </c>
+      <c r="DT149">
+        <v>410</v>
+      </c>
+      <c r="DU149">
+        <v>428</v>
+      </c>
     </row>
-    <row r="150" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B150" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -56070,13 +58273,28 @@
       <c r="DP150">
         <v>56</v>
       </c>
+      <c r="DQ150">
+        <v>60</v>
+      </c>
+      <c r="DR150">
+        <v>61</v>
+      </c>
+      <c r="DS150">
+        <v>61</v>
+      </c>
+      <c r="DT150">
+        <v>62</v>
+      </c>
+      <c r="DU150">
+        <v>62</v>
+      </c>
     </row>
-    <row r="151" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B151" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -56432,13 +58650,28 @@
       <c r="DP151">
         <v>11</v>
       </c>
+      <c r="DQ151">
+        <v>11</v>
+      </c>
+      <c r="DR151">
+        <v>11</v>
+      </c>
+      <c r="DS151">
+        <v>11</v>
+      </c>
+      <c r="DT151">
+        <v>11</v>
+      </c>
+      <c r="DU151">
+        <v>11</v>
+      </c>
     </row>
-    <row r="152" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B152" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -56794,13 +59027,28 @@
       <c r="DP152">
         <v>31</v>
       </c>
+      <c r="DQ152">
+        <v>31</v>
+      </c>
+      <c r="DR152">
+        <v>31</v>
+      </c>
+      <c r="DS152">
+        <v>37</v>
+      </c>
+      <c r="DT152">
+        <v>42</v>
+      </c>
+      <c r="DU152">
+        <v>50</v>
+      </c>
     </row>
-    <row r="153" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B153" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -57156,13 +59404,28 @@
       <c r="DP153">
         <v>10</v>
       </c>
+      <c r="DQ153">
+        <v>11</v>
+      </c>
+      <c r="DR153">
+        <v>11</v>
+      </c>
+      <c r="DS153">
+        <v>11</v>
+      </c>
+      <c r="DT153">
+        <v>11</v>
+      </c>
+      <c r="DU153">
+        <v>11</v>
+      </c>
     </row>
-    <row r="154" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B154" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -57518,13 +59781,28 @@
       <c r="DP154">
         <v>0</v>
       </c>
+      <c r="DQ154">
+        <v>0</v>
+      </c>
+      <c r="DR154">
+        <v>0</v>
+      </c>
+      <c r="DS154">
+        <v>0</v>
+      </c>
+      <c r="DT154">
+        <v>0</v>
+      </c>
+      <c r="DU154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -57880,13 +60158,28 @@
       <c r="DP155">
         <v>2457</v>
       </c>
+      <c r="DQ155">
+        <v>2620</v>
+      </c>
+      <c r="DR155">
+        <v>2620</v>
+      </c>
+      <c r="DS155">
+        <v>2620</v>
+      </c>
+      <c r="DT155">
+        <v>2620</v>
+      </c>
+      <c r="DU155">
+        <v>2918</v>
+      </c>
     </row>
-    <row r="156" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -58242,13 +60535,28 @@
       <c r="DP156">
         <v>38</v>
       </c>
+      <c r="DQ156">
+        <v>38</v>
+      </c>
+      <c r="DR156">
+        <v>39</v>
+      </c>
+      <c r="DS156">
+        <v>39</v>
+      </c>
+      <c r="DT156">
+        <v>39</v>
+      </c>
+      <c r="DU156">
+        <v>40</v>
+      </c>
     </row>
-    <row r="157" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -58604,13 +60912,28 @@
       <c r="DP157">
         <v>17</v>
       </c>
+      <c r="DQ157">
+        <v>17</v>
+      </c>
+      <c r="DR157">
+        <v>20</v>
+      </c>
+      <c r="DS157">
+        <v>20</v>
+      </c>
+      <c r="DT157">
+        <v>20</v>
+      </c>
+      <c r="DU157">
+        <v>21</v>
+      </c>
     </row>
-    <row r="158" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -58966,13 +61289,28 @@
       <c r="DP158">
         <v>1068</v>
       </c>
+      <c r="DQ158">
+        <v>1292</v>
+      </c>
+      <c r="DR158">
+        <v>1563</v>
+      </c>
+      <c r="DS158">
+        <v>1636</v>
+      </c>
+      <c r="DT158">
+        <v>1684</v>
+      </c>
+      <c r="DU158">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="159" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -59328,13 +61666,28 @@
       <c r="DP159">
         <v>0</v>
       </c>
+      <c r="DQ159">
+        <v>0</v>
+      </c>
+      <c r="DR159">
+        <v>0</v>
+      </c>
+      <c r="DS159">
+        <v>0</v>
+      </c>
+      <c r="DT159">
+        <v>0</v>
+      </c>
+      <c r="DU159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B160" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -59690,13 +62043,28 @@
       <c r="DP160">
         <v>36</v>
       </c>
+      <c r="DQ160">
+        <v>38</v>
+      </c>
+      <c r="DR160">
+        <v>45</v>
+      </c>
+      <c r="DS160">
+        <v>45</v>
+      </c>
+      <c r="DT160">
+        <v>45</v>
+      </c>
+      <c r="DU160">
+        <v>45</v>
+      </c>
     </row>
-    <row r="161" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -60052,13 +62420,28 @@
       <c r="DP161">
         <v>28</v>
       </c>
+      <c r="DQ161">
+        <v>28</v>
+      </c>
+      <c r="DR161">
+        <v>28</v>
+      </c>
+      <c r="DS161">
+        <v>29</v>
+      </c>
+      <c r="DT161">
+        <v>29</v>
+      </c>
+      <c r="DU161">
+        <v>34</v>
+      </c>
     </row>
-    <row r="162" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -60414,13 +62797,28 @@
       <c r="DP162">
         <v>17</v>
       </c>
+      <c r="DQ162">
+        <v>17</v>
+      </c>
+      <c r="DR162">
+        <v>18</v>
+      </c>
+      <c r="DS162">
+        <v>18</v>
+      </c>
+      <c r="DT162">
+        <v>18</v>
+      </c>
+      <c r="DU162">
+        <v>19</v>
+      </c>
     </row>
-    <row r="163" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -60776,13 +63174,28 @@
       <c r="DP163">
         <v>34</v>
       </c>
+      <c r="DQ163">
+        <v>34</v>
+      </c>
+      <c r="DR163">
+        <v>34</v>
+      </c>
+      <c r="DS163">
+        <v>34</v>
+      </c>
+      <c r="DT163">
+        <v>34</v>
+      </c>
+      <c r="DU163">
+        <v>35</v>
+      </c>
     </row>
-    <row r="164" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B164" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -61138,13 +63551,28 @@
       <c r="DP164">
         <v>240</v>
       </c>
+      <c r="DQ164">
+        <v>261</v>
+      </c>
+      <c r="DR164">
+        <v>263</v>
+      </c>
+      <c r="DS164">
+        <v>262</v>
+      </c>
+      <c r="DT164">
+        <v>266</v>
+      </c>
+      <c r="DU164">
+        <v>274</v>
+      </c>
     </row>
-    <row r="165" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B165" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -61500,13 +63928,28 @@
       <c r="DP165">
         <v>434</v>
       </c>
+      <c r="DQ165">
+        <v>455</v>
+      </c>
+      <c r="DR165">
+        <v>519</v>
+      </c>
+      <c r="DS165">
+        <v>519</v>
+      </c>
+      <c r="DT165">
+        <v>519</v>
+      </c>
+      <c r="DU165">
+        <v>550</v>
+      </c>
     </row>
-    <row r="166" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -61862,13 +64305,28 @@
       <c r="DP166">
         <v>282</v>
       </c>
+      <c r="DQ166">
+        <v>293</v>
+      </c>
+      <c r="DR166">
+        <v>295</v>
+      </c>
+      <c r="DS166">
+        <v>295</v>
+      </c>
+      <c r="DT166">
+        <v>295</v>
+      </c>
+      <c r="DU166">
+        <v>327</v>
+      </c>
     </row>
-    <row r="167" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B167" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -62224,13 +64682,28 @@
       <c r="DP167">
         <v>6</v>
       </c>
+      <c r="DQ167">
+        <v>8</v>
+      </c>
+      <c r="DR167">
+        <v>8</v>
+      </c>
+      <c r="DS167">
+        <v>8</v>
+      </c>
+      <c r="DT167">
+        <v>8</v>
+      </c>
+      <c r="DU167">
+        <v>12</v>
+      </c>
     </row>
-    <row r="168" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B168" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -62586,13 +65059,28 @@
       <c r="DP168">
         <v>734</v>
       </c>
+      <c r="DQ168">
+        <v>772</v>
+      </c>
+      <c r="DR168">
+        <v>772</v>
+      </c>
+      <c r="DS168">
+        <v>772</v>
+      </c>
+      <c r="DT168">
+        <v>772</v>
+      </c>
+      <c r="DU168">
+        <v>927</v>
+      </c>
     </row>
-    <row r="169" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B169" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -62948,13 +65436,28 @@
       <c r="DP169">
         <v>90</v>
       </c>
+      <c r="DQ169">
+        <v>92</v>
+      </c>
+      <c r="DR169">
+        <v>92</v>
+      </c>
+      <c r="DS169">
+        <v>92</v>
+      </c>
+      <c r="DT169">
+        <v>92</v>
+      </c>
+      <c r="DU169">
+        <v>112</v>
+      </c>
     </row>
-    <row r="170" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B170" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -63310,13 +65813,28 @@
       <c r="DP170">
         <v>1</v>
       </c>
+      <c r="DQ170">
+        <v>1</v>
+      </c>
+      <c r="DR170">
+        <v>1</v>
+      </c>
+      <c r="DS170">
+        <v>1</v>
+      </c>
+      <c r="DT170">
+        <v>1</v>
+      </c>
+      <c r="DU170">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B171" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -63672,13 +66190,28 @@
       <c r="DP171">
         <v>9</v>
       </c>
+      <c r="DQ171">
+        <v>10</v>
+      </c>
+      <c r="DR171">
+        <v>10</v>
+      </c>
+      <c r="DS171">
+        <v>12</v>
+      </c>
+      <c r="DT171">
+        <v>12</v>
+      </c>
+      <c r="DU171">
+        <v>12</v>
+      </c>
     </row>
-    <row r="172" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B172" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -64034,13 +66567,28 @@
       <c r="DP172">
         <v>18</v>
       </c>
+      <c r="DQ172">
+        <v>21</v>
+      </c>
+      <c r="DR172">
+        <v>21</v>
+      </c>
+      <c r="DS172">
+        <v>21</v>
+      </c>
+      <c r="DT172">
+        <v>21</v>
+      </c>
+      <c r="DU172">
+        <v>21</v>
+      </c>
     </row>
-    <row r="173" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B173" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -64396,13 +66944,28 @@
       <c r="DP173">
         <v>2257</v>
       </c>
+      <c r="DQ173">
+        <v>2353</v>
+      </c>
+      <c r="DR173">
+        <v>2353</v>
+      </c>
+      <c r="DS173">
+        <v>2353</v>
+      </c>
+      <c r="DT173">
+        <v>2353</v>
+      </c>
+      <c r="DU173">
+        <v>2550</v>
+      </c>
     </row>
-    <row r="174" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -64758,13 +67321,28 @@
       <c r="DP174">
         <v>896</v>
       </c>
+      <c r="DQ174">
+        <v>897</v>
+      </c>
+      <c r="DR174">
+        <v>897</v>
+      </c>
+      <c r="DS174">
+        <v>897</v>
+      </c>
+      <c r="DT174">
+        <v>897</v>
+      </c>
+      <c r="DU174">
+        <v>902</v>
+      </c>
     </row>
-    <row r="175" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B175" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -65120,13 +67698,28 @@
       <c r="DP175">
         <v>40</v>
       </c>
+      <c r="DQ175">
+        <v>41</v>
+      </c>
+      <c r="DR175">
+        <v>42</v>
+      </c>
+      <c r="DS175">
+        <v>42</v>
+      </c>
+      <c r="DT175">
+        <v>43</v>
+      </c>
+      <c r="DU175">
+        <v>49</v>
+      </c>
     </row>
-    <row r="176" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B176" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -65482,13 +68075,28 @@
       <c r="DP176">
         <v>1</v>
       </c>
+      <c r="DQ176">
+        <v>1</v>
+      </c>
+      <c r="DR176">
+        <v>1</v>
+      </c>
+      <c r="DS176">
+        <v>1</v>
+      </c>
+      <c r="DT176">
+        <v>1</v>
+      </c>
+      <c r="DU176">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B177" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -65844,13 +68452,28 @@
       <c r="DP177">
         <v>416</v>
       </c>
+      <c r="DQ177">
+        <v>425</v>
+      </c>
+      <c r="DR177">
+        <v>435</v>
+      </c>
+      <c r="DS177">
+        <v>443</v>
+      </c>
+      <c r="DT177">
+        <v>444</v>
+      </c>
+      <c r="DU177">
+        <v>461</v>
+      </c>
     </row>
-    <row r="178" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B178" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -66206,13 +68829,28 @@
       <c r="DP178">
         <v>247</v>
       </c>
+      <c r="DQ178">
+        <v>262</v>
+      </c>
+      <c r="DR178">
+        <v>283</v>
+      </c>
+      <c r="DS178">
+        <v>283</v>
+      </c>
+      <c r="DT178">
+        <v>283</v>
+      </c>
+      <c r="DU178">
+        <v>370</v>
+      </c>
     </row>
-    <row r="179" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B179" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -66568,13 +69206,28 @@
       <c r="DP179">
         <v>12</v>
       </c>
+      <c r="DQ179">
+        <v>12</v>
+      </c>
+      <c r="DR179">
+        <v>12</v>
+      </c>
+      <c r="DS179">
+        <v>12</v>
+      </c>
+      <c r="DT179">
+        <v>12</v>
+      </c>
+      <c r="DU179">
+        <v>12</v>
+      </c>
     </row>
-    <row r="180" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B180" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -66930,13 +69583,28 @@
       <c r="DP180">
         <v>42</v>
       </c>
+      <c r="DQ180">
+        <v>42</v>
+      </c>
+      <c r="DR180">
+        <v>42</v>
+      </c>
+      <c r="DS180">
+        <v>45</v>
+      </c>
+      <c r="DT180">
+        <v>46</v>
+      </c>
+      <c r="DU180">
+        <v>46</v>
+      </c>
     </row>
-    <row r="181" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B181" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -67292,13 +69960,28 @@
       <c r="DP181">
         <v>2756</v>
       </c>
+      <c r="DQ181">
+        <v>3018</v>
+      </c>
+      <c r="DR181">
+        <v>3272</v>
+      </c>
+      <c r="DS181">
+        <v>3593</v>
+      </c>
+      <c r="DT181">
+        <v>3796</v>
+      </c>
+      <c r="DU181">
+        <v>4084</v>
+      </c>
     </row>
-    <row r="182" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B182" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -67654,13 +70337,28 @@
       <c r="DP182">
         <v>53</v>
       </c>
+      <c r="DQ182">
+        <v>53</v>
+      </c>
+      <c r="DR182">
+        <v>53</v>
+      </c>
+      <c r="DS182">
+        <v>53</v>
+      </c>
+      <c r="DT182">
+        <v>53</v>
+      </c>
+      <c r="DU182">
+        <v>60</v>
+      </c>
     </row>
-    <row r="183" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B183" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -68016,13 +70714,28 @@
       <c r="DP183">
         <v>4</v>
       </c>
+      <c r="DQ183">
+        <v>4</v>
+      </c>
+      <c r="DR183">
+        <v>4</v>
+      </c>
+      <c r="DS183">
+        <v>4</v>
+      </c>
+      <c r="DT183">
+        <v>4</v>
+      </c>
+      <c r="DU183">
+        <v>5</v>
+      </c>
     </row>
-    <row r="184" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B184" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -68378,13 +71091,28 @@
       <c r="DP184">
         <v>273</v>
       </c>
+      <c r="DQ184">
+        <v>303</v>
+      </c>
+      <c r="DR184">
+        <v>303</v>
+      </c>
+      <c r="DS184">
+        <v>303</v>
+      </c>
+      <c r="DT184">
+        <v>303</v>
+      </c>
+      <c r="DU184">
+        <v>327</v>
+      </c>
     </row>
-    <row r="185" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B185" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -68740,13 +71468,28 @@
       <c r="DP185">
         <v>25</v>
       </c>
+      <c r="DQ185">
+        <v>34</v>
+      </c>
+      <c r="DR185">
+        <v>38</v>
+      </c>
+      <c r="DS185">
+        <v>38</v>
+      </c>
+      <c r="DT185">
+        <v>38</v>
+      </c>
+      <c r="DU185">
+        <v>47</v>
+      </c>
     </row>
-    <row r="186" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -69102,13 +71845,28 @@
       <c r="DP186">
         <v>212</v>
       </c>
+      <c r="DQ186">
+        <v>213</v>
+      </c>
+      <c r="DR186">
+        <v>214</v>
+      </c>
+      <c r="DS186">
+        <v>216</v>
+      </c>
+      <c r="DT186">
+        <v>217</v>
+      </c>
+      <c r="DU186">
+        <v>218</v>
+      </c>
     </row>
-    <row r="187" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B187" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -69464,13 +72222,28 @@
       <c r="DP187">
         <v>304</v>
       </c>
+      <c r="DQ187">
+        <v>333</v>
+      </c>
+      <c r="DR187">
+        <v>344</v>
+      </c>
+      <c r="DS187">
+        <v>344</v>
+      </c>
+      <c r="DT187">
+        <v>344</v>
+      </c>
+      <c r="DU187">
+        <v>388</v>
+      </c>
     </row>
-    <row r="188" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B188" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -69826,13 +72599,28 @@
       <c r="DP188">
         <v>205</v>
       </c>
+      <c r="DQ188">
+        <v>213</v>
+      </c>
+      <c r="DR188">
+        <v>215</v>
+      </c>
+      <c r="DS188">
+        <v>215</v>
+      </c>
+      <c r="DT188">
+        <v>215</v>
+      </c>
+      <c r="DU188">
+        <v>227</v>
+      </c>
     </row>
-    <row r="189" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B189" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -70188,13 +72976,28 @@
       <c r="DP189">
         <v>130</v>
       </c>
+      <c r="DQ189">
+        <v>131</v>
+      </c>
+      <c r="DR189">
+        <v>132</v>
+      </c>
+      <c r="DS189">
+        <v>131</v>
+      </c>
+      <c r="DT189">
+        <v>131</v>
+      </c>
+      <c r="DU189">
+        <v>135</v>
+      </c>
     </row>
-    <row r="190" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B190" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -70550,13 +73353,28 @@
       <c r="DP190">
         <v>155</v>
       </c>
+      <c r="DQ190">
+        <v>170</v>
+      </c>
+      <c r="DR190">
+        <v>170</v>
+      </c>
+      <c r="DS190">
+        <v>170</v>
+      </c>
+      <c r="DT190">
+        <v>170</v>
+      </c>
+      <c r="DU190">
+        <v>205</v>
+      </c>
     </row>
-    <row r="191" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B191" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -70912,13 +73730,28 @@
       <c r="DP191">
         <v>2913</v>
       </c>
+      <c r="DQ191">
+        <v>2937</v>
+      </c>
+      <c r="DR191">
+        <v>2937</v>
+      </c>
+      <c r="DS191">
+        <v>2937</v>
+      </c>
+      <c r="DT191">
+        <v>2937</v>
+      </c>
+      <c r="DU191">
+        <v>2978</v>
+      </c>
     </row>
-    <row r="192" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B192" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -71274,13 +74107,28 @@
       <c r="DP192">
         <v>19</v>
       </c>
+      <c r="DQ192">
+        <v>19</v>
+      </c>
+      <c r="DR192">
+        <v>19</v>
+      </c>
+      <c r="DS192">
+        <v>19</v>
+      </c>
+      <c r="DT192">
+        <v>19</v>
+      </c>
+      <c r="DU192">
+        <v>19</v>
+      </c>
     </row>
-    <row r="193" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B193" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -71636,13 +74484,28 @@
       <c r="DP193">
         <v>13</v>
       </c>
+      <c r="DQ193">
+        <v>13</v>
+      </c>
+      <c r="DR193">
+        <v>13</v>
+      </c>
+      <c r="DS193">
+        <v>14</v>
+      </c>
+      <c r="DT193">
+        <v>14</v>
+      </c>
+      <c r="DU193">
+        <v>16</v>
+      </c>
     </row>
-    <row r="194" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B194" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -71998,13 +74861,28 @@
       <c r="DP194">
         <v>899</v>
       </c>
+      <c r="DQ194">
+        <v>918</v>
+      </c>
+      <c r="DR194">
+        <v>918</v>
+      </c>
+      <c r="DS194">
+        <v>918</v>
+      </c>
+      <c r="DT194">
+        <v>918</v>
+      </c>
+      <c r="DU194">
+        <v>942</v>
+      </c>
     </row>
-    <row r="195" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B195" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -72360,13 +75238,28 @@
       <c r="DP195">
         <v>9</v>
       </c>
+      <c r="DQ195">
+        <v>10</v>
+      </c>
+      <c r="DR195">
+        <v>13</v>
+      </c>
+      <c r="DS195">
+        <v>13</v>
+      </c>
+      <c r="DT195">
+        <v>14</v>
+      </c>
+      <c r="DU195">
+        <v>14</v>
+      </c>
     </row>
-    <row r="196" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B196" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -72722,13 +75615,28 @@
       <c r="DP196">
         <v>1</v>
       </c>
+      <c r="DQ196">
+        <v>2</v>
+      </c>
+      <c r="DR196">
+        <v>4</v>
+      </c>
+      <c r="DS196">
+        <v>4</v>
+      </c>
+      <c r="DT196">
+        <v>4</v>
+      </c>
+      <c r="DU196">
+        <v>4</v>
+      </c>
     </row>
-    <row r="197" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B197" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -73084,13 +75992,28 @@
       <c r="DP197">
         <v>112</v>
       </c>
+      <c r="DQ197">
+        <v>115</v>
+      </c>
+      <c r="DR197">
+        <v>116</v>
+      </c>
+      <c r="DS197">
+        <v>117</v>
+      </c>
+      <c r="DT197">
+        <v>117</v>
+      </c>
+      <c r="DU197">
+        <v>117</v>
+      </c>
     </row>
-    <row r="198" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B198" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -73446,13 +76369,28 @@
       <c r="DP198">
         <v>39</v>
       </c>
+      <c r="DQ198">
+        <v>47</v>
+      </c>
+      <c r="DR198">
+        <v>47</v>
+      </c>
+      <c r="DS198">
+        <v>47</v>
+      </c>
+      <c r="DT198">
+        <v>48</v>
+      </c>
+      <c r="DU198">
+        <v>59</v>
+      </c>
     </row>
-    <row r="199" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B199" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -73808,13 +76746,28 @@
       <c r="DP199">
         <v>14</v>
       </c>
+      <c r="DQ199">
+        <v>18</v>
+      </c>
+      <c r="DR199">
+        <v>26</v>
+      </c>
+      <c r="DS199">
+        <v>29</v>
+      </c>
+      <c r="DT199">
+        <v>31</v>
+      </c>
+      <c r="DU199">
+        <v>33</v>
+      </c>
     </row>
-    <row r="200" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B200" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -74170,13 +77123,28 @@
       <c r="DP200">
         <v>3</v>
       </c>
+      <c r="DQ200">
+        <v>4</v>
+      </c>
+      <c r="DR200">
+        <v>4</v>
+      </c>
+      <c r="DS200">
+        <v>4</v>
+      </c>
+      <c r="DT200">
+        <v>4</v>
+      </c>
+      <c r="DU200">
+        <v>5</v>
+      </c>
     </row>
-    <row r="201" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -74532,13 +77500,28 @@
       <c r="DP201">
         <v>53</v>
       </c>
+      <c r="DQ201">
+        <v>54</v>
+      </c>
+      <c r="DR201">
+        <v>57</v>
+      </c>
+      <c r="DS201">
+        <v>57</v>
+      </c>
+      <c r="DT201">
+        <v>61</v>
+      </c>
+      <c r="DU201">
+        <v>61</v>
+      </c>
     </row>
-    <row r="202" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B202" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -74894,13 +77877,28 @@
       <c r="DP202">
         <v>351</v>
       </c>
+      <c r="DQ202">
+        <v>377</v>
+      </c>
+      <c r="DR202">
+        <v>395</v>
+      </c>
+      <c r="DS202">
+        <v>395</v>
+      </c>
+      <c r="DT202">
+        <v>395</v>
+      </c>
+      <c r="DU202">
+        <v>403</v>
+      </c>
     </row>
-    <row r="203" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B203" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -75256,13 +78254,28 @@
       <c r="DP203">
         <v>11</v>
       </c>
+      <c r="DQ203">
+        <v>17</v>
+      </c>
+      <c r="DR203">
+        <v>17</v>
+      </c>
+      <c r="DS203">
+        <v>17</v>
+      </c>
+      <c r="DT203">
+        <v>17</v>
+      </c>
+      <c r="DU203">
+        <v>17</v>
+      </c>
     </row>
-    <row r="204" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B204" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -75618,13 +78631,28 @@
       <c r="DP204">
         <v>279</v>
       </c>
+      <c r="DQ204">
+        <v>281</v>
+      </c>
+      <c r="DR204">
+        <v>273</v>
+      </c>
+      <c r="DS204">
+        <v>283</v>
+      </c>
+      <c r="DT204">
+        <v>283</v>
+      </c>
+      <c r="DU204">
+        <v>289</v>
+      </c>
     </row>
-    <row r="205" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B205" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -75980,13 +79008,28 @@
       <c r="DP205">
         <v>25</v>
       </c>
+      <c r="DQ205">
+        <v>26</v>
+      </c>
+      <c r="DR205">
+        <v>26</v>
+      </c>
+      <c r="DS205">
+        <v>27</v>
+      </c>
+      <c r="DT205">
+        <v>27</v>
+      </c>
+      <c r="DU205">
+        <v>28</v>
+      </c>
     </row>
-    <row r="206" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B206" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -76342,13 +79385,28 @@
       <c r="DP206">
         <v>110</v>
       </c>
+      <c r="DQ206">
+        <v>114</v>
+      </c>
+      <c r="DR206">
+        <v>114</v>
+      </c>
+      <c r="DS206">
+        <v>114</v>
+      </c>
+      <c r="DT206">
+        <v>114</v>
+      </c>
+      <c r="DU206">
+        <v>114</v>
+      </c>
     </row>
-    <row r="207" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B207" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -76704,13 +79762,28 @@
       <c r="DP207">
         <v>36</v>
       </c>
+      <c r="DQ207">
+        <v>57</v>
+      </c>
+      <c r="DR207">
+        <v>60</v>
+      </c>
+      <c r="DS207">
+        <v>63</v>
+      </c>
+      <c r="DT207">
+        <v>63</v>
+      </c>
+      <c r="DU207">
+        <v>63</v>
+      </c>
     </row>
-    <row r="208" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B208" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -77066,13 +80139,28 @@
       <c r="DP208">
         <v>177</v>
       </c>
+      <c r="DQ208">
+        <v>187</v>
+      </c>
+      <c r="DR208">
+        <v>187</v>
+      </c>
+      <c r="DS208">
+        <v>187</v>
+      </c>
+      <c r="DT208">
+        <v>187</v>
+      </c>
+      <c r="DU208">
+        <v>204</v>
+      </c>
     </row>
-    <row r="209" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B209" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -77428,13 +80516,28 @@
       <c r="DP209">
         <v>4</v>
       </c>
+      <c r="DQ209">
+        <v>5</v>
+      </c>
+      <c r="DR209">
+        <v>5</v>
+      </c>
+      <c r="DS209">
+        <v>5</v>
+      </c>
+      <c r="DT209">
+        <v>5</v>
+      </c>
+      <c r="DU209">
+        <v>5</v>
+      </c>
     </row>
-    <row r="210" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B210" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -77790,13 +80893,28 @@
       <c r="DP210">
         <v>21</v>
       </c>
+      <c r="DQ210">
+        <v>21</v>
+      </c>
+      <c r="DR210">
+        <v>21</v>
+      </c>
+      <c r="DS210">
+        <v>21</v>
+      </c>
+      <c r="DT210">
+        <v>21</v>
+      </c>
+      <c r="DU210">
+        <v>21</v>
+      </c>
     </row>
-    <row r="211" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B211" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -78152,13 +81270,28 @@
       <c r="DP211">
         <v>42</v>
       </c>
+      <c r="DQ211">
+        <v>45</v>
+      </c>
+      <c r="DR211">
+        <v>59</v>
+      </c>
+      <c r="DS211">
+        <v>59</v>
+      </c>
+      <c r="DT211">
+        <v>59</v>
+      </c>
+      <c r="DU211">
+        <v>71</v>
+      </c>
     </row>
-    <row r="212" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B212" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -78514,13 +81647,28 @@
       <c r="DP212">
         <v>3</v>
       </c>
+      <c r="DQ212">
+        <v>5</v>
+      </c>
+      <c r="DR212">
+        <v>4</v>
+      </c>
+      <c r="DS212">
+        <v>4</v>
+      </c>
+      <c r="DT212">
+        <v>4</v>
+      </c>
+      <c r="DU212">
+        <v>5</v>
+      </c>
     </row>
-    <row r="213" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B213" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -78876,13 +82024,28 @@
       <c r="DP213">
         <v>281</v>
       </c>
+      <c r="DQ213">
+        <v>281</v>
+      </c>
+      <c r="DR213">
+        <v>283</v>
+      </c>
+      <c r="DS213">
+        <v>287</v>
+      </c>
+      <c r="DT213">
+        <v>287</v>
+      </c>
+      <c r="DU213">
+        <v>288</v>
+      </c>
     </row>
-    <row r="214" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B214" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -79238,13 +82401,28 @@
       <c r="DP214">
         <v>30</v>
       </c>
+      <c r="DQ214">
+        <v>30</v>
+      </c>
+      <c r="DR214">
+        <v>30</v>
+      </c>
+      <c r="DS214">
+        <v>30</v>
+      </c>
+      <c r="DT214">
+        <v>30</v>
+      </c>
+      <c r="DU214">
+        <v>30</v>
+      </c>
     </row>
-    <row r="215" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B215" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -79600,13 +82778,28 @@
       <c r="DP215">
         <v>654</v>
       </c>
+      <c r="DQ215">
+        <v>699</v>
+      </c>
+      <c r="DR215">
+        <v>699</v>
+      </c>
+      <c r="DS215">
+        <v>771</v>
+      </c>
+      <c r="DT215">
+        <v>771</v>
+      </c>
+      <c r="DU215">
+        <v>848</v>
+      </c>
     </row>
-    <row r="216" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B216" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -79962,13 +83155,28 @@
       <c r="DP216">
         <v>9</v>
       </c>
+      <c r="DQ216">
+        <v>9</v>
+      </c>
+      <c r="DR216">
+        <v>11</v>
+      </c>
+      <c r="DS216">
+        <v>11</v>
+      </c>
+      <c r="DT216">
+        <v>11</v>
+      </c>
+      <c r="DU216">
+        <v>16</v>
+      </c>
     </row>
-    <row r="217" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B217" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -80324,13 +83532,28 @@
       <c r="DP217">
         <v>670</v>
       </c>
+      <c r="DQ217">
+        <v>683</v>
+      </c>
+      <c r="DR217">
+        <v>683</v>
+      </c>
+      <c r="DS217">
+        <v>760</v>
+      </c>
+      <c r="DT217">
+        <v>804</v>
+      </c>
+      <c r="DU217">
+        <v>829</v>
+      </c>
     </row>
-    <row r="218" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B218" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -80686,13 +83909,28 @@
       <c r="DP218">
         <v>8</v>
       </c>
+      <c r="DQ218">
+        <v>8</v>
+      </c>
+      <c r="DR218">
+        <v>8</v>
+      </c>
+      <c r="DS218">
+        <v>8</v>
+      </c>
+      <c r="DT218">
+        <v>8</v>
+      </c>
+      <c r="DU218">
+        <v>9</v>
+      </c>
     </row>
-    <row r="219" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B219" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -81048,13 +84286,28 @@
       <c r="DP219">
         <v>0</v>
       </c>
+      <c r="DQ219">
+        <v>0</v>
+      </c>
+      <c r="DR219">
+        <v>0</v>
+      </c>
+      <c r="DS219">
+        <v>1</v>
+      </c>
+      <c r="DT219">
+        <v>1</v>
+      </c>
+      <c r="DU219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B220" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -81410,13 +84663,28 @@
       <c r="DP220">
         <v>0</v>
       </c>
+      <c r="DQ220">
+        <v>0</v>
+      </c>
+      <c r="DR220">
+        <v>0</v>
+      </c>
+      <c r="DS220">
+        <v>0</v>
+      </c>
+      <c r="DT220">
+        <v>0</v>
+      </c>
+      <c r="DU220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B221" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -81772,13 +85040,28 @@
       <c r="DP221">
         <v>6</v>
       </c>
+      <c r="DQ221">
+        <v>11</v>
+      </c>
+      <c r="DR221">
+        <v>11</v>
+      </c>
+      <c r="DS221">
+        <v>11</v>
+      </c>
+      <c r="DT221">
+        <v>11</v>
+      </c>
+      <c r="DU221">
+        <v>13</v>
+      </c>
     </row>
-    <row r="222" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B222" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -82134,13 +85417,28 @@
       <c r="DP222">
         <v>35</v>
       </c>
+      <c r="DQ222">
+        <v>37</v>
+      </c>
+      <c r="DR222">
+        <v>38</v>
+      </c>
+      <c r="DS222">
+        <v>38</v>
+      </c>
+      <c r="DT222">
+        <v>38</v>
+      </c>
+      <c r="DU222">
+        <v>44</v>
+      </c>
     </row>
-    <row r="223" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B223" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -82496,13 +85794,28 @@
       <c r="DP223">
         <v>12950</v>
       </c>
+      <c r="DQ223">
+        <v>13423</v>
+      </c>
+      <c r="DR223">
+        <v>13423</v>
+      </c>
+      <c r="DS223">
+        <v>13423</v>
+      </c>
+      <c r="DT223">
+        <v>14008</v>
+      </c>
+      <c r="DU223">
+        <v>14828</v>
+      </c>
     </row>
-    <row r="224" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B224" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -82858,13 +86171,28 @@
       <c r="DP224">
         <v>423</v>
       </c>
+      <c r="DQ224">
+        <v>446</v>
+      </c>
+      <c r="DR224">
+        <v>486</v>
+      </c>
+      <c r="DS224">
+        <v>494</v>
+      </c>
+      <c r="DT224">
+        <v>526</v>
+      </c>
+      <c r="DU224">
+        <v>543</v>
+      </c>
     </row>
-    <row r="225" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B225" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -83220,13 +86548,28 @@
       <c r="DP225">
         <v>2</v>
       </c>
+      <c r="DQ225">
+        <v>2</v>
+      </c>
+      <c r="DR225">
+        <v>2</v>
+      </c>
+      <c r="DS225">
+        <v>2</v>
+      </c>
+      <c r="DT225">
+        <v>2</v>
+      </c>
+      <c r="DU225">
+        <v>2</v>
+      </c>
     </row>
-    <row r="226" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B226" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -83582,13 +86925,28 @@
       <c r="DP226">
         <v>21</v>
       </c>
+      <c r="DQ226">
+        <v>21</v>
+      </c>
+      <c r="DR226">
+        <v>36</v>
+      </c>
+      <c r="DS226">
+        <v>36</v>
+      </c>
+      <c r="DT226">
+        <v>36</v>
+      </c>
+      <c r="DU226">
+        <v>39</v>
+      </c>
     </row>
-    <row r="227" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B227" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -83944,13 +87302,28 @@
       <c r="DP227">
         <v>0</v>
       </c>
+      <c r="DQ227">
+        <v>1</v>
+      </c>
+      <c r="DR227">
+        <v>1</v>
+      </c>
+      <c r="DS227">
+        <v>1</v>
+      </c>
+      <c r="DT227">
+        <v>1</v>
+      </c>
+      <c r="DU227">
+        <v>1</v>
+      </c>
     </row>
-    <row r="228" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B228" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -84306,13 +87679,28 @@
       <c r="DP228">
         <v>720</v>
       </c>
+      <c r="DQ228">
+        <v>732</v>
+      </c>
+      <c r="DR228">
+        <v>737</v>
+      </c>
+      <c r="DS228">
+        <v>742</v>
+      </c>
+      <c r="DT228">
+        <v>742</v>
+      </c>
+      <c r="DU228">
+        <v>842</v>
+      </c>
     </row>
-    <row r="229" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B229" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -84668,13 +88056,28 @@
       <c r="DP229">
         <v>338</v>
       </c>
+      <c r="DQ229">
+        <v>372</v>
+      </c>
+      <c r="DR229">
+        <v>408</v>
+      </c>
+      <c r="DS229">
+        <v>434</v>
+      </c>
+      <c r="DT229">
+        <v>510</v>
+      </c>
+      <c r="DU229">
+        <v>530</v>
+      </c>
     </row>
-    <row r="230" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B230" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -85030,13 +88433,28 @@
       <c r="DP230">
         <v>10124</v>
       </c>
+      <c r="DQ230">
+        <v>10695</v>
+      </c>
+      <c r="DR230">
+        <v>11009</v>
+      </c>
+      <c r="DS230">
+        <v>11131</v>
+      </c>
+      <c r="DT230">
+        <v>11679</v>
+      </c>
+      <c r="DU230">
+        <v>11926</v>
+      </c>
     </row>
-    <row r="231" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B231" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -85392,13 +88810,28 @@
       <c r="DP231">
         <v>39</v>
       </c>
+      <c r="DQ231">
+        <v>42</v>
+      </c>
+      <c r="DR231">
+        <v>44</v>
+      </c>
+      <c r="DS231">
+        <v>48</v>
+      </c>
+      <c r="DT231">
+        <v>48</v>
+      </c>
+      <c r="DU231">
+        <v>48</v>
+      </c>
     </row>
-    <row r="232" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B232" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -85754,13 +89187,28 @@
       <c r="DP232">
         <v>25</v>
       </c>
+      <c r="DQ232">
+        <v>27</v>
+      </c>
+      <c r="DR232">
+        <v>27</v>
+      </c>
+      <c r="DS232">
+        <v>27</v>
+      </c>
+      <c r="DT232">
+        <v>27</v>
+      </c>
+      <c r="DU232">
+        <v>30</v>
+      </c>
     </row>
-    <row r="233" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B233" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -86116,13 +89564,28 @@
       <c r="DP233">
         <v>62</v>
       </c>
+      <c r="DQ233">
+        <v>65</v>
+      </c>
+      <c r="DR233">
+        <v>66</v>
+      </c>
+      <c r="DS233">
+        <v>70</v>
+      </c>
+      <c r="DT233">
+        <v>71</v>
+      </c>
+      <c r="DU233">
+        <v>76</v>
+      </c>
     </row>
-    <row r="234" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B234" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -86478,13 +89941,28 @@
       <c r="DP234">
         <v>4</v>
       </c>
+      <c r="DQ234">
+        <v>6</v>
+      </c>
+      <c r="DR234">
+        <v>6</v>
+      </c>
+      <c r="DS234">
+        <v>6</v>
+      </c>
+      <c r="DT234">
+        <v>6</v>
+      </c>
+      <c r="DU234">
+        <v>7</v>
+      </c>
     </row>
-    <row r="235" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B235" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -86840,13 +90318,28 @@
       <c r="DP235">
         <v>97</v>
       </c>
+      <c r="DQ235">
+        <v>97</v>
+      </c>
+      <c r="DR235">
+        <v>137</v>
+      </c>
+      <c r="DS235">
+        <v>150</v>
+      </c>
+      <c r="DT235">
+        <v>161</v>
+      </c>
+      <c r="DU235">
+        <v>172</v>
+      </c>
     </row>
-    <row r="236" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B236" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -87202,13 +90695,28 @@
       <c r="DP236">
         <v>108</v>
       </c>
+      <c r="DQ236">
+        <v>108</v>
+      </c>
+      <c r="DR236">
+        <v>285</v>
+      </c>
+      <c r="DS236">
+        <v>285</v>
+      </c>
+      <c r="DT236">
+        <v>285</v>
+      </c>
+      <c r="DU236">
+        <v>285</v>
+      </c>
     </row>
-    <row r="237" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B237" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -87564,13 +91072,28 @@
       <c r="DP237">
         <v>98</v>
       </c>
+      <c r="DQ237">
+        <v>101</v>
+      </c>
+      <c r="DR237">
+        <v>101</v>
+      </c>
+      <c r="DS237">
+        <v>112</v>
+      </c>
+      <c r="DT237">
+        <v>112</v>
+      </c>
+      <c r="DU237">
+        <v>127</v>
+      </c>
     </row>
-    <row r="238" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B238" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -87926,13 +91449,28 @@
       <c r="DP238">
         <v>793</v>
       </c>
+      <c r="DQ238">
+        <v>793</v>
+      </c>
+      <c r="DR238">
+        <v>1063</v>
+      </c>
+      <c r="DS238">
+        <v>1063</v>
+      </c>
+      <c r="DT238">
+        <v>1063</v>
+      </c>
+      <c r="DU238">
+        <v>1240</v>
+      </c>
     </row>
-    <row r="239" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B239" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -88288,13 +91826,28 @@
       <c r="DP239">
         <v>2048</v>
       </c>
+      <c r="DQ239">
+        <v>2080</v>
+      </c>
+      <c r="DR239">
+        <v>2080</v>
+      </c>
+      <c r="DS239">
+        <v>2081</v>
+      </c>
+      <c r="DT239">
+        <v>2095</v>
+      </c>
+      <c r="DU239">
+        <v>2099</v>
+      </c>
     </row>
-    <row r="240" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B240" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -88650,13 +92203,28 @@
       <c r="DP240">
         <v>160</v>
       </c>
+      <c r="DQ240">
+        <v>165</v>
+      </c>
+      <c r="DR240">
+        <v>178</v>
+      </c>
+      <c r="DS240">
+        <v>175</v>
+      </c>
+      <c r="DT240">
+        <v>186</v>
+      </c>
+      <c r="DU240">
+        <v>195</v>
+      </c>
     </row>
-    <row r="241" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B241" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -89012,13 +92580,28 @@
       <c r="DP241">
         <v>20</v>
       </c>
+      <c r="DQ241">
+        <v>21</v>
+      </c>
+      <c r="DR241">
+        <v>22</v>
+      </c>
+      <c r="DS241">
+        <v>24</v>
+      </c>
+      <c r="DT241">
+        <v>24</v>
+      </c>
+      <c r="DU241">
+        <v>29</v>
+      </c>
     </row>
-    <row r="242" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B242" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -89374,13 +92957,28 @@
       <c r="DP242">
         <v>275</v>
       </c>
+      <c r="DQ242">
+        <v>282</v>
+      </c>
+      <c r="DR242">
+        <v>289</v>
+      </c>
+      <c r="DS242">
+        <v>289</v>
+      </c>
+      <c r="DT242">
+        <v>309</v>
+      </c>
+      <c r="DU242">
+        <v>309</v>
+      </c>
     </row>
-    <row r="243" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B243" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -89736,13 +93334,28 @@
       <c r="DP243">
         <v>1604</v>
       </c>
+      <c r="DQ243">
+        <v>1703</v>
+      </c>
+      <c r="DR243">
+        <v>1773</v>
+      </c>
+      <c r="DS243">
+        <v>1831</v>
+      </c>
+      <c r="DT243">
+        <v>1868</v>
+      </c>
+      <c r="DU243">
+        <v>1960</v>
+      </c>
     </row>
-    <row r="244" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B244" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -90098,13 +93711,28 @@
       <c r="DP244">
         <v>215</v>
       </c>
+      <c r="DQ244">
+        <v>226</v>
+      </c>
+      <c r="DR244">
+        <v>230</v>
+      </c>
+      <c r="DS244">
+        <v>230</v>
+      </c>
+      <c r="DT244">
+        <v>236</v>
+      </c>
+      <c r="DU244">
+        <v>244</v>
+      </c>
     </row>
-    <row r="245" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B245" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -90460,13 +94088,28 @@
       <c r="DP245">
         <v>18</v>
       </c>
+      <c r="DQ245">
+        <v>19</v>
+      </c>
+      <c r="DR245">
+        <v>19</v>
+      </c>
+      <c r="DS245">
+        <v>19</v>
+      </c>
+      <c r="DT245">
+        <v>19</v>
+      </c>
+      <c r="DU245">
+        <v>19</v>
+      </c>
     </row>
-    <row r="246" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B246" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -90822,13 +94465,28 @@
       <c r="DP246">
         <v>397</v>
       </c>
+      <c r="DQ246">
+        <v>420</v>
+      </c>
+      <c r="DR246">
+        <v>425</v>
+      </c>
+      <c r="DS246">
+        <v>436</v>
+      </c>
+      <c r="DT246">
+        <v>442</v>
+      </c>
+      <c r="DU246">
+        <v>464</v>
+      </c>
     </row>
-    <row r="247" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B247" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -91184,13 +94842,28 @@
       <c r="DP247">
         <v>10</v>
       </c>
+      <c r="DQ247">
+        <v>11</v>
+      </c>
+      <c r="DR247">
+        <v>12</v>
+      </c>
+      <c r="DS247">
+        <v>12</v>
+      </c>
+      <c r="DT247">
+        <v>12</v>
+      </c>
+      <c r="DU247">
+        <v>13</v>
+      </c>
     </row>
-    <row r="248" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B248" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -91546,13 +95219,28 @@
       <c r="DP248">
         <v>168</v>
       </c>
+      <c r="DQ248">
+        <v>207</v>
+      </c>
+      <c r="DR248">
+        <v>217</v>
+      </c>
+      <c r="DS248">
+        <v>229</v>
+      </c>
+      <c r="DT248">
+        <v>233</v>
+      </c>
+      <c r="DU248">
+        <v>242</v>
+      </c>
     </row>
-    <row r="249" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B249" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -91908,13 +95596,28 @@
       <c r="DP249">
         <v>2339</v>
       </c>
+      <c r="DQ249">
+        <v>2388</v>
+      </c>
+      <c r="DR249">
+        <v>2469</v>
+      </c>
+      <c r="DS249">
+        <v>2469</v>
+      </c>
+      <c r="DT249">
+        <v>2469</v>
+      </c>
+      <c r="DU249">
+        <v>3151</v>
+      </c>
     </row>
-    <row r="250" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B250" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -92270,13 +95973,28 @@
       <c r="DP250">
         <v>111</v>
       </c>
+      <c r="DQ250">
+        <v>113</v>
+      </c>
+      <c r="DR250">
+        <v>132</v>
+      </c>
+      <c r="DS250">
+        <v>132</v>
+      </c>
+      <c r="DT250">
+        <v>132</v>
+      </c>
+      <c r="DU250">
+        <v>144</v>
+      </c>
     </row>
-    <row r="251" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B251" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -92632,13 +96350,28 @@
       <c r="DP251">
         <v>26</v>
       </c>
+      <c r="DQ251">
+        <v>26</v>
+      </c>
+      <c r="DR251">
+        <v>29</v>
+      </c>
+      <c r="DS251">
+        <v>29</v>
+      </c>
+      <c r="DT251">
+        <v>29</v>
+      </c>
+      <c r="DU251">
+        <v>37</v>
+      </c>
     </row>
-    <row r="252" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B252" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -92994,13 +96727,28 @@
       <c r="DP252">
         <v>116</v>
       </c>
+      <c r="DQ252">
+        <v>125</v>
+      </c>
+      <c r="DR252">
+        <v>135</v>
+      </c>
+      <c r="DS252">
+        <v>135</v>
+      </c>
+      <c r="DT252">
+        <v>135</v>
+      </c>
+      <c r="DU252">
+        <v>149</v>
+      </c>
     </row>
-    <row r="253" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B253" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -93356,13 +97104,28 @@
       <c r="DP253">
         <v>92</v>
       </c>
+      <c r="DQ253">
+        <v>94</v>
+      </c>
+      <c r="DR253">
+        <v>94</v>
+      </c>
+      <c r="DS253">
+        <v>98</v>
+      </c>
+      <c r="DT253">
+        <v>98</v>
+      </c>
+      <c r="DU253">
+        <v>107</v>
+      </c>
     </row>
-    <row r="254" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B254" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -93718,13 +97481,28 @@
       <c r="DP254">
         <v>30</v>
       </c>
+      <c r="DQ254">
+        <v>30</v>
+      </c>
+      <c r="DR254">
+        <v>38</v>
+      </c>
+      <c r="DS254">
+        <v>38</v>
+      </c>
+      <c r="DT254">
+        <v>38</v>
+      </c>
+      <c r="DU254">
+        <v>39</v>
+      </c>
     </row>
-    <row r="255" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B255" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -94080,13 +97858,28 @@
       <c r="DP255">
         <v>30</v>
       </c>
+      <c r="DQ255">
+        <v>33</v>
+      </c>
+      <c r="DR255">
+        <v>34</v>
+      </c>
+      <c r="DS255">
+        <v>34</v>
+      </c>
+      <c r="DT255">
+        <v>34</v>
+      </c>
+      <c r="DU255">
+        <v>34</v>
+      </c>
     </row>
-    <row r="256" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B256" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -94442,13 +98235,28 @@
       <c r="DP256">
         <v>55</v>
       </c>
+      <c r="DQ256">
+        <v>55</v>
+      </c>
+      <c r="DR256">
+        <v>56</v>
+      </c>
+      <c r="DS256">
+        <v>56</v>
+      </c>
+      <c r="DT256">
+        <v>58</v>
+      </c>
+      <c r="DU256">
+        <v>62</v>
+      </c>
     </row>
-    <row r="257" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B257" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -94804,13 +98612,28 @@
       <c r="DP257">
         <v>23</v>
       </c>
+      <c r="DQ257">
+        <v>23</v>
+      </c>
+      <c r="DR257">
+        <v>25</v>
+      </c>
+      <c r="DS257">
+        <v>25</v>
+      </c>
+      <c r="DT257">
+        <v>25</v>
+      </c>
+      <c r="DU257">
+        <v>29</v>
+      </c>
     </row>
-    <row r="258" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B258" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -95166,21 +98989,36 @@
       <c r="DP258">
         <v>175977</v>
       </c>
+      <c r="DQ258">
+        <v>183532</v>
+      </c>
+      <c r="DR258">
+        <v>191790</v>
+      </c>
+      <c r="DS258">
+        <v>195239</v>
+      </c>
+      <c r="DT258">
+        <v>200557</v>
+      </c>
+      <c r="DU258">
+        <v>210585</v>
+      </c>
     </row>
-    <row r="259" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B259" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="260" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B260" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -95536,67 +99374,75 @@
       <c r="DP260">
         <v>244</v>
       </c>
+      <c r="DQ260">
+        <v>246</v>
+      </c>
+      <c r="DR260">
+        <v>246</v>
+      </c>
+      <c r="DS260">
+        <v>247</v>
+      </c>
+      <c r="DT260">
+        <v>247</v>
+      </c>
+      <c r="DU260">
+        <v>246</v>
+      </c>
     </row>
-    <row r="261" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B261" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="262" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B262" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="263" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B263" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="264" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>378</v>
-      </c>
-      <c r="B264" t="s">
-        <v>375</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="265" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:125" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B265" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="266" spans="1:120" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
-        <v>637</v>
-      </c>
+    <row r="266" spans="1:125" x14ac:dyDescent="0.45">
       <c r="B266" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="267" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:125" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="268" spans="1:120" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:125" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9581A54E-F314-4BB9-A401-5E8F74E4702F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D85B130A-9EBE-4CB9-AB6C-C4D0A82C0724}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17154" windowHeight="7764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by County" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="653">
   <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/15/20 at 9:30 AM CST</t>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/16/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -34,401 +34,401 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-04</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-05</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-06</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-09</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-10</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-11</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-12</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-13</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-15</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-16</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-17</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-18</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-19</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-20</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-21</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-22</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-23</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-24</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-25</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-26</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-27</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-28</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-29</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-30</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-31</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-01</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-02</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-03</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-04</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-05</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-06</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-07</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-08</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-09</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-10</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-11</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-12</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-13</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-14</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-15</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-16</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-17</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-18</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-19</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-20</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-21</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-22</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-23</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-24</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-25</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-26</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-27</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-28</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-29</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-30</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-01</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-02</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-03</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-04</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-05</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-06</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-07</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-08</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-09</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-10</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-11</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-12</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-13</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-14</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-15</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-16</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-17</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-18</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-19</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-20</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-21</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-22</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-23</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-24</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-25</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-26</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-27</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-28</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-29</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-30</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-31</t>
   </si>
   <si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Cases 07-14</t>
+  </si>
+  <si>
+    <t>Cases 07-15*</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1335,7 +1338,7 @@
     <t>Counties Reporting Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 </t>
   </si>
   <si>
@@ -1348,13 +1351,775 @@
     <t>Population data is based on Texas population projections, 2020 (https://www.dshs.texas.gov/chs/popdat/st2020.shtm).</t>
   </si>
   <si>
+    <t>* Texas is reporting 10,791 new confirmed COVID-19 cases for Wednesday, July 15. The San Antonio Metro Health District has clarified its reporting to separate confirmed and probable cases, so the Bexar County and statewide totals were updated to remove 3,484 probable cases. The local case count previously included probable cases identified by antigen testing but not those from antibody testing or other sources.</t>
+  </si>
+  <si>
+    <t>58199</t>
+  </si>
+  <si>
+    <t>22269</t>
+  </si>
+  <si>
+    <t>90437</t>
+  </si>
+  <si>
+    <t>27699</t>
+  </si>
+  <si>
+    <t>8344</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>51831</t>
+  </si>
+  <si>
+    <t>30402</t>
+  </si>
+  <si>
+    <t>7692</t>
+  </si>
+  <si>
+    <t>21246</t>
+  </si>
+  <si>
+    <t>86105</t>
+  </si>
+  <si>
+    <t>3624</t>
+  </si>
+  <si>
+    <t>34445</t>
+  </si>
+  <si>
+    <t>353629</t>
+  </si>
+  <si>
+    <t>2093502</t>
+  </si>
+  <si>
+    <t>11504</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>17765</t>
+  </si>
+  <si>
+    <t>92570</t>
+  </si>
+  <si>
+    <t>375869</t>
+  </si>
+  <si>
+    <t>229410</t>
+  </si>
+  <si>
+    <t>9133</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>7175</t>
+  </si>
+  <si>
+    <t>38923</t>
+  </si>
+  <si>
+    <t>17718</t>
+  </si>
+  <si>
+    <t>48196</t>
+  </si>
+  <si>
+    <t>44284</t>
+  </si>
+  <si>
+    <t>22840</t>
+  </si>
+  <si>
+    <t>13456</t>
+  </si>
+  <si>
+    <t>427881</t>
+  </si>
+  <si>
+    <t>13322</t>
+  </si>
+  <si>
+    <t>5799</t>
+  </si>
+  <si>
+    <t>30327</t>
+  </si>
+  <si>
+    <t>7103</t>
+  </si>
+  <si>
+    <t>42320</t>
+  </si>
+  <si>
+    <t>52178</t>
+  </si>
+  <si>
+    <t>7062</t>
+  </si>
+  <si>
+    <t>9787</t>
+  </si>
+  <si>
+    <t>3348</t>
+  </si>
+  <si>
+    <t>3215</t>
+  </si>
+  <si>
+    <t>8478</t>
+  </si>
+  <si>
+    <t>1039369</t>
+  </si>
+  <si>
+    <t>3210</t>
+  </si>
+  <si>
+    <t>21273</t>
+  </si>
+  <si>
+    <t>147330</t>
+  </si>
+  <si>
+    <t>13075</t>
+  </si>
+  <si>
+    <t>4147</t>
+  </si>
+  <si>
+    <t>39727</t>
+  </si>
+  <si>
+    <t>78317</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>6209</t>
+  </si>
+  <si>
+    <t>4040</t>
+  </si>
+  <si>
+    <t>6464</t>
+  </si>
+  <si>
+    <t>2245</t>
+  </si>
+  <si>
+    <t>7237</t>
+  </si>
+  <si>
+    <t>2734111</t>
+  </si>
+  <si>
+    <t>13592</t>
+  </si>
+  <si>
+    <t>18143</t>
+  </si>
+  <si>
+    <t>5367</t>
+  </si>
+  <si>
+    <t>897953</t>
+  </si>
+  <si>
+    <t>21737</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>11743</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>11796</t>
+  </si>
+  <si>
+    <t>18205</t>
+  </si>
+  <si>
+    <t>184841</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>177721</t>
+  </si>
+  <si>
+    <t>876120</t>
+  </si>
+  <si>
+    <t>41526</t>
+  </si>
+  <si>
+    <t>16603</t>
+  </si>
+  <si>
+    <t>34597</t>
+  </si>
+  <si>
+    <t>26086</t>
+  </si>
+  <si>
+    <t>3985</t>
+  </si>
+  <si>
+    <t>5786</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>840383</t>
+  </si>
+  <si>
+    <t>10924</t>
+  </si>
+  <si>
+    <t>19860</t>
+  </si>
+  <si>
+    <t>20023</t>
+  </si>
+  <si>
+    <t>22121</t>
+  </si>
+  <si>
+    <t>355196</t>
+  </si>
+  <si>
+    <t>6784</t>
+  </si>
+  <si>
+    <t>26191</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>7717</t>
+  </si>
+  <si>
+    <t>21347</t>
+  </si>
+  <si>
+    <t>24252</t>
+  </si>
+  <si>
+    <t>131710</t>
+  </si>
+  <si>
+    <t>125730</t>
+  </si>
+  <si>
+    <t>28930</t>
+  </si>
+  <si>
+    <t>170266</t>
+  </si>
+  <si>
+    <t>33202</t>
+  </si>
+  <si>
+    <t>3305</t>
+  </si>
+  <si>
+    <t>8220</t>
+  </si>
+  <si>
+    <t>5820</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>56486</t>
+  </si>
+  <si>
+    <t>4978845</t>
+  </si>
+  <si>
+    <t>68247</t>
+  </si>
+  <si>
+    <t>6067</t>
+  </si>
+  <si>
+    <t>6197</t>
+  </si>
+  <si>
+    <t>234896</t>
+  </si>
+  <si>
+    <t>4644</t>
+  </si>
+  <si>
+    <t>81179</t>
+  </si>
+  <si>
+    <t>870366</t>
+  </si>
+  <si>
+    <t>35673</t>
+  </si>
+  <si>
+    <t>24636</t>
+  </si>
+  <si>
+    <t>58643</t>
+  </si>
+  <si>
+    <t>37040</t>
+  </si>
+  <si>
+    <t>22620</t>
+  </si>
+  <si>
+    <t>41236</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>95324</t>
+  </si>
+  <si>
+    <t>21461</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>8841</t>
+  </si>
+  <si>
+    <t>15899</t>
+  </si>
+  <si>
+    <t>35525</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>258678</t>
+  </si>
+  <si>
+    <t>5077</t>
+  </si>
+  <si>
+    <t>42890</t>
+  </si>
+  <si>
+    <t>171701</t>
+  </si>
+  <si>
+    <t>19735</t>
+  </si>
+  <si>
+    <t>15393</t>
+  </si>
+  <si>
+    <t>125134</t>
+  </si>
+  <si>
+    <t>46278</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>52267</t>
+  </si>
+  <si>
+    <t>4344</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>3462</t>
+  </si>
+  <si>
+    <t>30987</t>
+  </si>
+  <si>
+    <t>3937</t>
+  </si>
+  <si>
+    <t>50014</t>
+  </si>
+  <si>
+    <t>12776</t>
+  </si>
+  <si>
+    <t>21037</t>
+  </si>
+  <si>
+    <t>8309</t>
+  </si>
+  <si>
+    <t>20735</t>
+  </si>
+  <si>
+    <t>17595</t>
+  </si>
+  <si>
+    <t>17707</t>
+  </si>
+  <si>
+    <t>85284</t>
+  </si>
+  <si>
+    <t>23544</t>
+  </si>
+  <si>
+    <t>3651</t>
+  </si>
+  <si>
+    <t>12030</t>
+  </si>
+  <si>
+    <t>19452</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>317210</t>
+  </si>
+  <si>
+    <t>5588</t>
+  </si>
+  <si>
+    <t>8660</t>
+  </si>
+  <si>
+    <t>253066</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>14527</t>
+  </si>
+  <si>
+    <t>10294</t>
+  </si>
+  <si>
+    <t>6044</t>
+  </si>
+  <si>
+    <t>3899</t>
+  </si>
+  <si>
+    <t>37064</t>
+  </si>
+  <si>
+    <t>59938</t>
+  </si>
+  <si>
+    <t>50594</t>
+  </si>
+  <si>
+    <t>2188</t>
+  </si>
+  <si>
+    <t>187364</t>
+  </si>
+  <si>
+    <t>24635</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>9865</t>
+  </si>
+  <si>
+    <t>19199</t>
+  </si>
+  <si>
+    <t>613951</t>
+  </si>
+  <si>
+    <t>21575</t>
+  </si>
+  <si>
+    <t>12448</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>64106</t>
+  </si>
+  <si>
+    <t>47985</t>
+  </si>
+  <si>
+    <t>13724</t>
+  </si>
+  <si>
+    <t>15642</t>
+  </si>
+  <si>
+    <t>383718</t>
+  </si>
+  <si>
+    <t>11309</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>86155</t>
+  </si>
+  <si>
+    <t>27859</t>
+  </si>
+  <si>
+    <t>24576</t>
+  </si>
+  <si>
+    <t>135621</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>49080</t>
+  </si>
+  <si>
+    <t>122706</t>
+  </si>
+  <si>
+    <t>5906</t>
+  </si>
+  <si>
+    <t>11378</t>
+  </si>
+  <si>
+    <t>138104</t>
+  </si>
+  <si>
+    <t>4226</t>
+  </si>
+  <si>
+    <t>3407</t>
+  </si>
+  <si>
+    <t>12610</t>
+  </si>
+  <si>
+    <t>15707</t>
+  </si>
+  <si>
+    <t>7573</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>16888</t>
+  </si>
+  <si>
+    <t>102243</t>
+  </si>
+  <si>
+    <t>11009</t>
+  </si>
+  <si>
+    <t>52767</t>
+  </si>
+  <si>
+    <t>9936</t>
+  </si>
+  <si>
+    <t>8405</t>
+  </si>
+  <si>
+    <t>28844</t>
+  </si>
+  <si>
+    <t>71325</t>
+  </si>
+  <si>
+    <t>5873</t>
+  </si>
+  <si>
+    <t>3312</t>
+  </si>
+  <si>
+    <t>18368</t>
+  </si>
+  <si>
+    <t>3405</t>
+  </si>
+  <si>
+    <t>25545</t>
+  </si>
+  <si>
+    <t>3276</t>
+  </si>
+  <si>
+    <t>235143</t>
+  </si>
+  <si>
+    <t>9294</t>
+  </si>
+  <si>
+    <t>64731</t>
+  </si>
+  <si>
+    <t>9570</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>4381</t>
+  </si>
+  <si>
+    <t>7414</t>
+  </si>
+  <si>
+    <t>2143755</t>
+  </si>
+  <si>
+    <t>139457</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>13040</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>32953</t>
+  </si>
+  <si>
+    <t>123276</t>
+  </si>
+  <si>
+    <t>1291502</t>
+  </si>
+  <si>
+    <t>14233</t>
+  </si>
+  <si>
+    <t>21343</t>
+  </si>
+  <si>
+    <t>41655</t>
+  </si>
+  <si>
+    <t>3983</t>
+  </si>
+  <si>
+    <t>27937</t>
+  </si>
+  <si>
+    <t>48253</t>
+  </si>
+  <si>
+    <t>55469</t>
+  </si>
+  <si>
+    <t>97744</t>
+  </si>
+  <si>
+    <t>73997</t>
+  </si>
+  <si>
+    <t>50731</t>
+  </si>
+  <si>
+    <t>35155</t>
+  </si>
+  <si>
+    <t>276183</t>
+  </si>
+  <si>
+    <t>41941</t>
+  </si>
+  <si>
+    <t>5783</t>
+  </si>
+  <si>
+    <t>133138</t>
+  </si>
+  <si>
+    <t>13038</t>
+  </si>
+  <si>
+    <t>22134</t>
+  </si>
+  <si>
+    <t>589914</t>
+  </si>
+  <si>
+    <t>51802</t>
+  </si>
+  <si>
+    <t>9295</t>
+  </si>
+  <si>
+    <t>65807</t>
+  </si>
+  <si>
+    <t>45292</t>
+  </si>
+  <si>
+    <t>9225</t>
+  </si>
+  <si>
+    <t>18712</t>
+  </si>
+  <si>
+    <t>14409</t>
+  </si>
+  <si>
+    <t>12682</t>
+  </si>
+  <si>
+    <t>29677668</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>* Texas is reporting 10,791 new confirmed COVID-19 cases for Wednesday, July 15. The San Antonio Metro Health District has clarified its reporting to separate confirmed and probable cases, so the Bexar County and statewide totals were updated to remove 3,484 probable cases. The local case count previously included probable cases identified by antigen testing but not those from antibody testing or other sources.</t>
-  </si>
-  <si>
-    <t>Cases 07-15*</t>
+    <t>Cases 07-16</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +2155,6 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1424,20 +2188,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,29 +2512,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EC268"/>
+  <dimension ref="A1:ED268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="DT250" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229:XFD229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="133" width="12" customWidth="1"/>
+    <col min="1" max="134" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:134" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:133" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:134" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:133" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:134" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2171,16 +2930,19 @@
       <c r="EB3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="EC3" s="4" t="s">
+      <c r="EC3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="ED3" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="6">
-        <v>58199</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2575,13 +3337,16 @@
       <c r="EC4">
         <v>1944</v>
       </c>
+      <c r="ED4">
+        <v>1956</v>
+      </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="6">
-        <v>22269</v>
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>398</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2976,13 +3741,16 @@
       <c r="EC5">
         <v>174</v>
       </c>
+      <c r="ED5">
+        <v>176</v>
+      </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6">
-        <v>90437</v>
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3377,13 +4145,16 @@
       <c r="EC6">
         <v>834</v>
       </c>
+      <c r="ED6">
+        <v>940</v>
+      </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="6">
-        <v>27699</v>
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>400</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3778,13 +4549,16 @@
       <c r="EC7">
         <v>65</v>
       </c>
+      <c r="ED7">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="6">
-        <v>8344</v>
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4179,13 +4953,16 @@
       <c r="EC8">
         <v>12</v>
       </c>
+      <c r="ED8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1948</v>
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>402</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4580,13 +5357,16 @@
       <c r="EC9">
         <v>3</v>
       </c>
+      <c r="ED9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="6">
-        <v>51831</v>
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4981,13 +5761,16 @@
       <c r="EC10">
         <v>289</v>
       </c>
+      <c r="ED10">
+        <v>292</v>
+      </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="6">
-        <v>30402</v>
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5382,13 +6165,16 @@
       <c r="EC11">
         <v>141</v>
       </c>
+      <c r="ED11">
+        <v>144</v>
+      </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7692</v>
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>405</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5783,13 +6569,16 @@
       <c r="EC12">
         <v>112</v>
       </c>
+      <c r="ED12">
+        <v>117</v>
+      </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="6">
-        <v>21246</v>
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6184,13 +6973,16 @@
       <c r="EC13">
         <v>46</v>
       </c>
+      <c r="ED13">
+        <v>47</v>
+      </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="6">
-        <v>86105</v>
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>407</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6585,13 +7377,16 @@
       <c r="EC14">
         <v>862</v>
       </c>
+      <c r="ED14">
+        <v>878</v>
+      </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3624</v>
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6986,13 +7781,16 @@
       <c r="EC15">
         <v>1</v>
       </c>
+      <c r="ED15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="6">
-        <v>34445</v>
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7387,13 +8185,16 @@
       <c r="EC16">
         <v>173</v>
       </c>
+      <c r="ED16">
+        <v>176</v>
+      </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="6">
-        <v>353629</v>
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>410</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -7788,13 +8589,16 @@
       <c r="EC17">
         <v>2396</v>
       </c>
+      <c r="ED17">
+        <v>2481</v>
+      </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2093502</v>
+        <v>149</v>
+      </c>
+      <c r="B18" t="s">
+        <v>411</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -8189,13 +8993,16 @@
       <c r="EC18">
         <v>17458</v>
       </c>
+      <c r="ED18">
+        <v>17912</v>
+      </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="6">
-        <v>11504</v>
+        <v>150</v>
+      </c>
+      <c r="B19" t="s">
+        <v>412</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -8590,13 +9397,16 @@
       <c r="EC19">
         <v>57</v>
       </c>
+      <c r="ED19">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="6">
-        <v>685</v>
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>413</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -8991,13 +9801,16 @@
       <c r="EC20">
         <v>0</v>
       </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="6">
-        <v>17765</v>
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>414</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9392,13 +10205,16 @@
       <c r="EC21">
         <v>43</v>
       </c>
+      <c r="ED21">
+        <v>46</v>
+      </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="6">
-        <v>92570</v>
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>415</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -9793,13 +10609,16 @@
       <c r="EC22">
         <v>536</v>
       </c>
+      <c r="ED22">
+        <v>558</v>
+      </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="6">
-        <v>375869</v>
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>416</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10194,13 +11013,16 @@
       <c r="EC23">
         <v>3988</v>
       </c>
+      <c r="ED23">
+        <v>4190</v>
+      </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="6">
-        <v>229410</v>
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>417</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -10595,13 +11417,16 @@
       <c r="EC24">
         <v>3120</v>
       </c>
+      <c r="ED24">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="6">
-        <v>9133</v>
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>418</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -10996,13 +11821,16 @@
       <c r="EC25">
         <v>159</v>
       </c>
+      <c r="ED25">
+        <v>160</v>
+      </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1568</v>
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>419</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11397,13 +12225,16 @@
       <c r="EC26">
         <v>9</v>
       </c>
+      <c r="ED26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="6">
-        <v>7175</v>
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>420</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11798,13 +12629,16 @@
       <c r="EC27">
         <v>45</v>
       </c>
+      <c r="ED27">
+        <v>53</v>
+      </c>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="6">
-        <v>38923</v>
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>421</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -12199,13 +13033,16 @@
       <c r="EC28">
         <v>240</v>
       </c>
+      <c r="ED28">
+        <v>248</v>
+      </c>
     </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="6">
-        <v>17718</v>
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>422</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -12600,13 +13437,16 @@
       <c r="EC29">
         <v>156</v>
       </c>
+      <c r="ED29">
+        <v>160</v>
+      </c>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="6">
-        <v>48196</v>
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>423</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -13001,13 +13841,16 @@
       <c r="EC30">
         <v>278</v>
       </c>
+      <c r="ED30">
+        <v>287</v>
+      </c>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="6">
-        <v>44284</v>
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>424</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -13402,13 +14245,16 @@
       <c r="EC31">
         <v>749</v>
       </c>
+      <c r="ED31">
+        <v>772</v>
+      </c>
     </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="6">
-        <v>22840</v>
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>425</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -13803,13 +14649,16 @@
       <c r="EC32">
         <v>177</v>
       </c>
+      <c r="ED32">
+        <v>183</v>
+      </c>
     </row>
-    <row r="33" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="6">
-        <v>13456</v>
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>426</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -14204,13 +15053,16 @@
       <c r="EC33">
         <v>28</v>
       </c>
+      <c r="ED33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="6">
-        <v>427881</v>
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>427</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -14605,13 +15457,16 @@
       <c r="EC34">
         <v>4590</v>
       </c>
+      <c r="ED34">
+        <v>4905</v>
+      </c>
     </row>
-    <row r="35" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="6">
-        <v>13322</v>
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>428</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -15006,13 +15861,16 @@
       <c r="EC35">
         <v>144</v>
       </c>
+      <c r="ED35">
+        <v>152</v>
+      </c>
     </row>
-    <row r="36" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="6">
-        <v>5799</v>
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>429</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -15407,13 +16265,16 @@
       <c r="EC36">
         <v>10</v>
       </c>
+      <c r="ED36">
+        <v>10</v>
+      </c>
     </row>
-    <row r="37" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="6">
-        <v>30327</v>
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>430</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -15808,13 +16669,16 @@
       <c r="EC37">
         <v>72</v>
       </c>
+      <c r="ED37">
+        <v>75</v>
+      </c>
     </row>
-    <row r="38" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="6">
-        <v>7103</v>
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>431</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -16209,13 +17073,16 @@
       <c r="EC38">
         <v>130</v>
       </c>
+      <c r="ED38">
+        <v>135</v>
+      </c>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="6">
-        <v>42320</v>
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>432</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -16610,13 +17477,16 @@
       <c r="EC39">
         <v>618</v>
       </c>
+      <c r="ED39">
+        <v>635</v>
+      </c>
     </row>
-    <row r="40" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="6">
-        <v>52178</v>
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>433</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -17011,13 +17881,16 @@
       <c r="EC40">
         <v>417</v>
       </c>
+      <c r="ED40">
+        <v>439</v>
+      </c>
     </row>
-    <row r="41" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="6">
-        <v>7062</v>
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>434</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -17412,13 +18285,16 @@
       <c r="EC41">
         <v>7</v>
       </c>
+      <c r="ED41">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="6">
-        <v>9787</v>
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>435</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -17813,13 +18689,16 @@
       <c r="EC42">
         <v>19</v>
       </c>
+      <c r="ED42">
+        <v>19</v>
+      </c>
     </row>
-    <row r="43" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="6">
-        <v>3348</v>
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>436</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -18214,13 +19093,16 @@
       <c r="EC43">
         <v>8</v>
       </c>
+      <c r="ED43">
+        <v>8</v>
+      </c>
     </row>
-    <row r="44" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="6">
-        <v>3215</v>
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>437</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -18615,13 +19497,16 @@
       <c r="EC44">
         <v>5</v>
       </c>
+      <c r="ED44">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="6">
-        <v>8478</v>
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>438</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -19016,13 +19901,16 @@
       <c r="EC45">
         <v>5</v>
       </c>
+      <c r="ED45">
+        <v>5</v>
+      </c>
     </row>
-    <row r="46" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1039369</v>
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>439</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -19417,13 +20305,16 @@
       <c r="EC46">
         <v>4800</v>
       </c>
+      <c r="ED46">
+        <v>4934</v>
+      </c>
     </row>
-    <row r="47" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="6">
-        <v>3210</v>
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>440</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -19818,13 +20709,16 @@
       <c r="EC47">
         <v>6</v>
       </c>
+      <c r="ED47">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="6">
-        <v>21273</v>
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>441</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -20219,13 +21113,16 @@
       <c r="EC48">
         <v>182</v>
       </c>
+      <c r="ED48">
+        <v>181</v>
+      </c>
     </row>
-    <row r="49" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="6">
-        <v>147330</v>
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>442</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -20620,13 +21517,16 @@
       <c r="EC49">
         <v>1077</v>
       </c>
+      <c r="ED49">
+        <v>1117</v>
+      </c>
     </row>
-    <row r="50" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="6">
-        <v>13075</v>
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>443</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -21021,13 +21921,16 @@
       <c r="EC50">
         <v>34</v>
       </c>
+      <c r="ED50">
+        <v>34</v>
+      </c>
     </row>
-    <row r="51" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="6">
-        <v>4147</v>
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>444</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -21422,13 +22325,16 @@
       <c r="EC51">
         <v>15</v>
       </c>
+      <c r="ED51">
+        <v>17</v>
+      </c>
     </row>
-    <row r="52" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="6">
-        <v>39727</v>
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>445</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -21823,13 +22729,16 @@
       <c r="EC52">
         <v>100</v>
       </c>
+      <c r="ED52">
+        <v>107</v>
+      </c>
     </row>
-    <row r="53" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="6">
-        <v>78317</v>
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>446</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -22224,13 +23133,16 @@
       <c r="EC53">
         <v>418</v>
       </c>
+      <c r="ED53">
+        <v>422</v>
+      </c>
     </row>
-    <row r="54" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1510</v>
+        <v>185</v>
+      </c>
+      <c r="B54" t="s">
+        <v>447</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -22625,13 +23537,16 @@
       <c r="EC54">
         <v>4</v>
       </c>
+      <c r="ED54">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="6">
-        <v>6209</v>
+        <v>186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>448</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -23026,13 +23941,16 @@
       <c r="EC55">
         <v>64</v>
       </c>
+      <c r="ED55">
+        <v>64</v>
+      </c>
     </row>
-    <row r="56" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="6">
-        <v>4040</v>
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>449</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -23427,13 +24345,16 @@
       <c r="EC56">
         <v>41</v>
       </c>
+      <c r="ED56">
+        <v>71</v>
+      </c>
     </row>
-    <row r="57" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" s="6">
-        <v>6464</v>
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>450</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -23828,13 +24749,16 @@
       <c r="EC57">
         <v>35</v>
       </c>
+      <c r="ED57">
+        <v>35</v>
+      </c>
     </row>
-    <row r="58" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="6">
-        <v>2245</v>
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
+        <v>451</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -24229,13 +25153,16 @@
       <c r="EC58">
         <v>7</v>
       </c>
+      <c r="ED58">
+        <v>8</v>
+      </c>
     </row>
-    <row r="59" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="6">
-        <v>7237</v>
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>452</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -24630,13 +25557,16 @@
       <c r="EC59">
         <v>129</v>
       </c>
+      <c r="ED59">
+        <v>134</v>
+      </c>
     </row>
-    <row r="60" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="6">
-        <v>2734111</v>
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>453</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -25031,13 +25961,16 @@
       <c r="EC60">
         <v>35914</v>
       </c>
+      <c r="ED60">
+        <v>36969</v>
+      </c>
     </row>
-    <row r="61" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="6">
-        <v>13592</v>
+        <v>192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>454</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -25432,13 +26365,16 @@
       <c r="EC61">
         <v>94</v>
       </c>
+      <c r="ED61">
+        <v>98</v>
+      </c>
     </row>
-    <row r="62" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="6">
-        <v>18143</v>
+        <v>193</v>
+      </c>
+      <c r="B62" t="s">
+        <v>455</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -25833,13 +26769,16 @@
       <c r="EC62">
         <v>424</v>
       </c>
+      <c r="ED62">
+        <v>431</v>
+      </c>
     </row>
-    <row r="63" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="6">
-        <v>5367</v>
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>456</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -26234,13 +27173,16 @@
       <c r="EC63">
         <v>9</v>
       </c>
+      <c r="ED63">
+        <v>9</v>
+      </c>
     </row>
-    <row r="64" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="6">
-        <v>897953</v>
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>457</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -26635,13 +27577,16 @@
       <c r="EC64">
         <v>4316</v>
       </c>
+      <c r="ED64">
+        <v>4467</v>
+      </c>
     </row>
-    <row r="65" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="6">
-        <v>21737</v>
+        <v>196</v>
+      </c>
+      <c r="B65" t="s">
+        <v>458</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -27036,13 +27981,16 @@
       <c r="EC65">
         <v>188</v>
       </c>
+      <c r="ED65">
+        <v>188</v>
+      </c>
     </row>
-    <row r="66" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="6">
-        <v>2174</v>
+        <v>197</v>
+      </c>
+      <c r="B66" t="s">
+        <v>459</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -27437,13 +28385,16 @@
       <c r="EC66">
         <v>2</v>
       </c>
+      <c r="ED66">
+        <v>4</v>
+      </c>
     </row>
-    <row r="67" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" s="6">
-        <v>11743</v>
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>460</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -27838,13 +28789,16 @@
       <c r="EC67">
         <v>39</v>
       </c>
+      <c r="ED67">
+        <v>40</v>
+      </c>
     </row>
-    <row r="68" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="6">
-        <v>3410</v>
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>461</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -28239,13 +29193,16 @@
       <c r="EC68">
         <v>33</v>
       </c>
+      <c r="ED68">
+        <v>34</v>
+      </c>
     </row>
-    <row r="69" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>199</v>
-      </c>
-      <c r="B69" s="6">
-        <v>11796</v>
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>462</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -28640,13 +29597,16 @@
       <c r="EC69">
         <v>89</v>
       </c>
+      <c r="ED69">
+        <v>94</v>
+      </c>
     </row>
-    <row r="70" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="6">
-        <v>18205</v>
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
+        <v>463</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -29041,13 +30001,16 @@
       <c r="EC70">
         <v>20</v>
       </c>
+      <c r="ED70">
+        <v>21</v>
+      </c>
     </row>
-    <row r="71" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>201</v>
-      </c>
-      <c r="B71" s="6">
-        <v>184841</v>
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>464</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -29442,13 +30405,16 @@
       <c r="EC71">
         <v>1370</v>
       </c>
+      <c r="ED71">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="72" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1991</v>
+        <v>203</v>
+      </c>
+      <c r="B72" t="s">
+        <v>465</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -29843,13 +30809,16 @@
       <c r="EC72">
         <v>10</v>
       </c>
+      <c r="ED72">
+        <v>11</v>
+      </c>
     </row>
-    <row r="73" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="6">
-        <v>177721</v>
+        <v>204</v>
+      </c>
+      <c r="B73" t="s">
+        <v>466</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -30244,13 +31213,16 @@
       <c r="EC73">
         <v>1811</v>
       </c>
+      <c r="ED73">
+        <v>1837</v>
+      </c>
     </row>
-    <row r="74" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" s="6">
-        <v>876120</v>
+        <v>205</v>
+      </c>
+      <c r="B74" t="s">
+        <v>467</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -30645,13 +31617,16 @@
       <c r="EC74">
         <v>10298</v>
       </c>
+      <c r="ED74">
+        <v>10638</v>
+      </c>
     </row>
-    <row r="75" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="6">
-        <v>41526</v>
+        <v>206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>468</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -31046,13 +32021,16 @@
       <c r="EC75">
         <v>257</v>
       </c>
+      <c r="ED75">
+        <v>266</v>
+      </c>
     </row>
-    <row r="76" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="6">
-        <v>16603</v>
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>469</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -31447,13 +32425,16 @@
       <c r="EC76">
         <v>57</v>
       </c>
+      <c r="ED76">
+        <v>60</v>
+      </c>
     </row>
-    <row r="77" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" s="6">
-        <v>34597</v>
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>470</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -31848,13 +32829,16 @@
       <c r="EC77">
         <v>150</v>
       </c>
+      <c r="ED77">
+        <v>153</v>
+      </c>
     </row>
-    <row r="78" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="6">
-        <v>26086</v>
+        <v>209</v>
+      </c>
+      <c r="B78" t="s">
+        <v>471</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -32249,13 +33233,16 @@
       <c r="EC78">
         <v>179</v>
       </c>
+      <c r="ED78">
+        <v>197</v>
+      </c>
     </row>
-    <row r="79" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" s="6">
-        <v>3985</v>
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>472</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -32650,13 +33637,16 @@
       <c r="EC79">
         <v>16</v>
       </c>
+      <c r="ED79">
+        <v>16</v>
+      </c>
     </row>
-    <row r="80" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" s="6">
-        <v>5786</v>
+        <v>211</v>
+      </c>
+      <c r="B80" t="s">
+        <v>473</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -33051,13 +34041,16 @@
       <c r="EC80">
         <v>61</v>
       </c>
+      <c r="ED80">
+        <v>61</v>
+      </c>
     </row>
-    <row r="81" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>211</v>
-      </c>
-      <c r="B81" s="6">
-        <v>1240</v>
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>474</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -33452,13 +34445,16 @@
       <c r="EC81">
         <v>1</v>
       </c>
+      <c r="ED81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="6">
-        <v>840383</v>
+        <v>213</v>
+      </c>
+      <c r="B82" t="s">
+        <v>475</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -33853,13 +34849,16 @@
       <c r="EC82">
         <v>5211</v>
       </c>
+      <c r="ED82">
+        <v>5284</v>
+      </c>
     </row>
-    <row r="83" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B83" s="6">
-        <v>10924</v>
+        <v>214</v>
+      </c>
+      <c r="B83" t="s">
+        <v>476</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -34254,13 +35253,16 @@
       <c r="EC83">
         <v>61</v>
       </c>
+      <c r="ED83">
+        <v>65</v>
+      </c>
     </row>
-    <row r="84" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>214</v>
-      </c>
-      <c r="B84" s="6">
-        <v>19860</v>
+        <v>215</v>
+      </c>
+      <c r="B84" t="s">
+        <v>477</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -34655,13 +35657,16 @@
       <c r="EC84">
         <v>83</v>
       </c>
+      <c r="ED84">
+        <v>91</v>
+      </c>
     </row>
-    <row r="85" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="6">
-        <v>20023</v>
+        <v>216</v>
+      </c>
+      <c r="B85" t="s">
+        <v>478</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -35056,13 +36061,16 @@
       <c r="EC85">
         <v>341</v>
       </c>
+      <c r="ED85">
+        <v>342</v>
+      </c>
     </row>
-    <row r="86" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B86" s="6">
-        <v>22121</v>
+        <v>217</v>
+      </c>
+      <c r="B86" t="s">
+        <v>479</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -35457,13 +36465,16 @@
       <c r="EC86">
         <v>46</v>
       </c>
+      <c r="ED86">
+        <v>49</v>
+      </c>
     </row>
-    <row r="87" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>217</v>
-      </c>
-      <c r="B87" s="6">
-        <v>355196</v>
+        <v>218</v>
+      </c>
+      <c r="B87" t="s">
+        <v>480</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -35858,13 +36869,16 @@
       <c r="EC87">
         <v>6307</v>
       </c>
+      <c r="ED87">
+        <v>6452</v>
+      </c>
     </row>
-    <row r="88" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>218</v>
-      </c>
-      <c r="B88" s="6">
-        <v>6784</v>
+        <v>219</v>
+      </c>
+      <c r="B88" t="s">
+        <v>481</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -36259,13 +37273,16 @@
       <c r="EC88">
         <v>39</v>
       </c>
+      <c r="ED88">
+        <v>58</v>
+      </c>
     </row>
-    <row r="89" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>219</v>
-      </c>
-      <c r="B89" s="6">
-        <v>26191</v>
+        <v>220</v>
+      </c>
+      <c r="B89" t="s">
+        <v>482</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -36660,13 +37677,16 @@
       <c r="EC89">
         <v>70</v>
       </c>
+      <c r="ED89">
+        <v>73</v>
+      </c>
     </row>
-    <row r="90" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" s="6">
-        <v>1365</v>
+        <v>221</v>
+      </c>
+      <c r="B90" t="s">
+        <v>483</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -37061,13 +38081,16 @@
       <c r="EC90">
         <v>6</v>
       </c>
+      <c r="ED90">
+        <v>6</v>
+      </c>
     </row>
-    <row r="91" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>221</v>
-      </c>
-      <c r="B91" s="6">
-        <v>7717</v>
+        <v>222</v>
+      </c>
+      <c r="B91" t="s">
+        <v>484</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -37462,13 +38485,16 @@
       <c r="EC91">
         <v>33</v>
       </c>
+      <c r="ED91">
+        <v>31</v>
+      </c>
     </row>
-    <row r="92" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>222</v>
-      </c>
-      <c r="B92" s="6">
-        <v>21347</v>
+        <v>223</v>
+      </c>
+      <c r="B92" t="s">
+        <v>485</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -37863,13 +38889,16 @@
       <c r="EC92">
         <v>355</v>
       </c>
+      <c r="ED92">
+        <v>388</v>
+      </c>
     </row>
-    <row r="93" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>223</v>
-      </c>
-      <c r="B93" s="6">
-        <v>24252</v>
+        <v>224</v>
+      </c>
+      <c r="B93" t="s">
+        <v>486</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -38264,13 +39293,16 @@
       <c r="EC93">
         <v>135</v>
       </c>
+      <c r="ED93">
+        <v>137</v>
+      </c>
     </row>
-    <row r="94" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>224</v>
-      </c>
-      <c r="B94" s="6">
-        <v>131710</v>
+        <v>225</v>
+      </c>
+      <c r="B94" t="s">
+        <v>487</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -38665,13 +39697,16 @@
       <c r="EC94">
         <v>771</v>
       </c>
+      <c r="ED94">
+        <v>793</v>
+      </c>
     </row>
-    <row r="95" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>225</v>
-      </c>
-      <c r="B95" s="6">
-        <v>125730</v>
+        <v>226</v>
+      </c>
+      <c r="B95" t="s">
+        <v>488</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -39066,13 +40101,16 @@
       <c r="EC95">
         <v>889</v>
       </c>
+      <c r="ED95">
+        <v>927</v>
+      </c>
     </row>
-    <row r="96" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="6">
-        <v>28930</v>
+        <v>227</v>
+      </c>
+      <c r="B96" t="s">
+        <v>489</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -39467,13 +40505,16 @@
       <c r="EC96">
         <v>691</v>
       </c>
+      <c r="ED96">
+        <v>695</v>
+      </c>
     </row>
-    <row r="97" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" s="6">
-        <v>170266</v>
+        <v>228</v>
+      </c>
+      <c r="B97" t="s">
+        <v>490</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -39868,13 +40909,16 @@
       <c r="EC97">
         <v>1115</v>
       </c>
+      <c r="ED97">
+        <v>1169</v>
+      </c>
     </row>
-    <row r="98" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="6">
-        <v>33202</v>
+        <v>229</v>
+      </c>
+      <c r="B98" t="s">
+        <v>491</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -40269,13 +41313,16 @@
       <c r="EC98">
         <v>808</v>
       </c>
+      <c r="ED98">
+        <v>847</v>
+      </c>
     </row>
-    <row r="99" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>229</v>
-      </c>
-      <c r="B99" s="6">
-        <v>3305</v>
+        <v>230</v>
+      </c>
+      <c r="B99" t="s">
+        <v>492</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -40670,13 +41717,16 @@
       <c r="EC99">
         <v>2</v>
       </c>
+      <c r="ED99">
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>230</v>
-      </c>
-      <c r="B100" s="6">
-        <v>8220</v>
+        <v>231</v>
+      </c>
+      <c r="B100" t="s">
+        <v>493</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -41071,13 +42121,16 @@
       <c r="EC100">
         <v>39</v>
       </c>
+      <c r="ED100">
+        <v>39</v>
+      </c>
     </row>
-    <row r="101" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>231</v>
-      </c>
-      <c r="B101" s="6">
-        <v>5820</v>
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
+        <v>494</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -41472,13 +42525,16 @@
       <c r="EC101">
         <v>40</v>
       </c>
+      <c r="ED101">
+        <v>42</v>
+      </c>
     </row>
-    <row r="102" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" s="6">
-        <v>3870</v>
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>495</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -41873,13 +42929,16 @@
       <c r="EC102">
         <v>6</v>
       </c>
+      <c r="ED102">
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>233</v>
-      </c>
-      <c r="B103" s="6">
-        <v>56486</v>
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>496</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -42274,13 +43333,16 @@
       <c r="EC103">
         <v>488</v>
       </c>
+      <c r="ED103">
+        <v>488</v>
+      </c>
     </row>
-    <row r="104" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" s="6">
-        <v>4978845</v>
+        <v>235</v>
+      </c>
+      <c r="B104" t="s">
+        <v>497</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -42675,13 +43737,16 @@
       <c r="EC104">
         <v>49027</v>
       </c>
+      <c r="ED104">
+        <v>50370</v>
+      </c>
     </row>
-    <row r="105" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" s="6">
-        <v>68247</v>
+        <v>236</v>
+      </c>
+      <c r="B105" t="s">
+        <v>498</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -43076,13 +44141,16 @@
       <c r="EC105">
         <v>458</v>
       </c>
+      <c r="ED105">
+        <v>487</v>
+      </c>
     </row>
-    <row r="106" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" s="6">
-        <v>6067</v>
+        <v>237</v>
+      </c>
+      <c r="B106" t="s">
+        <v>499</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -43477,13 +44545,16 @@
       <c r="EC106">
         <v>61</v>
       </c>
+      <c r="ED106">
+        <v>59</v>
+      </c>
     </row>
-    <row r="107" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>237</v>
-      </c>
-      <c r="B107" s="6">
-        <v>6197</v>
+        <v>238</v>
+      </c>
+      <c r="B107" t="s">
+        <v>500</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -43878,13 +44949,16 @@
       <c r="EC107">
         <v>17</v>
       </c>
+      <c r="ED107">
+        <v>19</v>
+      </c>
     </row>
-    <row r="108" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>238</v>
-      </c>
-      <c r="B108" s="6">
-        <v>234896</v>
+        <v>239</v>
+      </c>
+      <c r="B108" t="s">
+        <v>501</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -44279,13 +45353,16 @@
       <c r="EC108">
         <v>3699</v>
       </c>
+      <c r="ED108">
+        <v>3769</v>
+      </c>
     </row>
-    <row r="109" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>239</v>
-      </c>
-      <c r="B109" s="6">
-        <v>4644</v>
+        <v>240</v>
+      </c>
+      <c r="B109" t="s">
+        <v>502</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -44680,13 +45757,16 @@
       <c r="EC109">
         <v>22</v>
       </c>
+      <c r="ED109">
+        <v>22</v>
+      </c>
     </row>
-    <row r="110" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>240</v>
-      </c>
-      <c r="B110" s="6">
-        <v>81179</v>
+        <v>241</v>
+      </c>
+      <c r="B110" t="s">
+        <v>503</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -45081,13 +46161,16 @@
       <c r="EC110">
         <v>335</v>
       </c>
+      <c r="ED110">
+        <v>341</v>
+      </c>
     </row>
-    <row r="111" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>241</v>
-      </c>
-      <c r="B111" s="6">
-        <v>870366</v>
+        <v>242</v>
+      </c>
+      <c r="B111" t="s">
+        <v>504</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -45482,13 +46565,16 @@
       <c r="EC111">
         <v>8197</v>
       </c>
+      <c r="ED111">
+        <v>8593</v>
+      </c>
     </row>
-    <row r="112" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>242</v>
-      </c>
-      <c r="B112" s="6">
-        <v>35673</v>
+        <v>243</v>
+      </c>
+      <c r="B112" t="s">
+        <v>505</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -45883,13 +46969,16 @@
       <c r="EC112">
         <v>177</v>
       </c>
+      <c r="ED112">
+        <v>182</v>
+      </c>
     </row>
-    <row r="113" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>243</v>
-      </c>
-      <c r="B113" s="6">
-        <v>24636</v>
+        <v>244</v>
+      </c>
+      <c r="B113" t="s">
+        <v>506</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -46284,13 +47373,16 @@
       <c r="EC113">
         <v>111</v>
       </c>
+      <c r="ED113">
+        <v>116</v>
+      </c>
     </row>
-    <row r="114" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="6">
-        <v>58643</v>
+        <v>245</v>
+      </c>
+      <c r="B114" t="s">
+        <v>507</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -46685,13 +47777,16 @@
       <c r="EC114">
         <v>218</v>
       </c>
+      <c r="ED114">
+        <v>223</v>
+      </c>
     </row>
-    <row r="115" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>245</v>
-      </c>
-      <c r="B115" s="6">
-        <v>37040</v>
+        <v>246</v>
+      </c>
+      <c r="B115" t="s">
+        <v>508</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -47086,13 +48181,16 @@
       <c r="EC115">
         <v>99</v>
       </c>
+      <c r="ED115">
+        <v>115</v>
+      </c>
     </row>
-    <row r="116" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>246</v>
-      </c>
-      <c r="B116" s="6">
-        <v>22620</v>
+        <v>247</v>
+      </c>
+      <c r="B116" t="s">
+        <v>509</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -47487,13 +48585,16 @@
       <c r="EC116">
         <v>192</v>
       </c>
+      <c r="ED116">
+        <v>195</v>
+      </c>
     </row>
-    <row r="117" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>247</v>
-      </c>
-      <c r="B117" s="6">
-        <v>41236</v>
+        <v>248</v>
+      </c>
+      <c r="B117" t="s">
+        <v>510</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -47888,13 +48989,16 @@
       <c r="EC117">
         <v>76</v>
       </c>
+      <c r="ED117">
+        <v>80</v>
+      </c>
     </row>
-    <row r="118" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>248</v>
-      </c>
-      <c r="B118" s="6">
-        <v>3400</v>
+        <v>249</v>
+      </c>
+      <c r="B118" t="s">
+        <v>511</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -48289,13 +49393,16 @@
       <c r="EC118">
         <v>18</v>
       </c>
+      <c r="ED118">
+        <v>18</v>
+      </c>
     </row>
-    <row r="119" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>249</v>
-      </c>
-      <c r="B119" s="6">
-        <v>95324</v>
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>512</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -48690,13 +49797,16 @@
       <c r="EC119">
         <v>768</v>
       </c>
+      <c r="ED119">
+        <v>782</v>
+      </c>
     </row>
-    <row r="120" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>250</v>
-      </c>
-      <c r="B120" s="6">
-        <v>21461</v>
+        <v>251</v>
+      </c>
+      <c r="B120" t="s">
+        <v>513</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -49091,13 +50201,16 @@
       <c r="EC120">
         <v>84</v>
       </c>
+      <c r="ED120">
+        <v>86</v>
+      </c>
     </row>
-    <row r="121" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>251</v>
-      </c>
-      <c r="B121" s="6">
-        <v>1508</v>
+        <v>252</v>
+      </c>
+      <c r="B121" t="s">
+        <v>514</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -49492,13 +50605,16 @@
       <c r="EC121">
         <v>3</v>
       </c>
+      <c r="ED121">
+        <v>4</v>
+      </c>
     </row>
-    <row r="122" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>252</v>
-      </c>
-      <c r="B122" s="6">
-        <v>8841</v>
+        <v>253</v>
+      </c>
+      <c r="B122" t="s">
+        <v>515</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -49893,13 +51009,16 @@
       <c r="EC122">
         <v>13</v>
       </c>
+      <c r="ED122">
+        <v>13</v>
+      </c>
     </row>
-    <row r="123" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>253</v>
-      </c>
-      <c r="B123" s="6">
-        <v>15899</v>
+        <v>254</v>
+      </c>
+      <c r="B123" t="s">
+        <v>516</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -50294,13 +51413,16 @@
       <c r="EC123">
         <v>97</v>
       </c>
+      <c r="ED123">
+        <v>121</v>
+      </c>
     </row>
-    <row r="124" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>254</v>
-      </c>
-      <c r="B124" s="6">
-        <v>35525</v>
+        <v>255</v>
+      </c>
+      <c r="B124" t="s">
+        <v>517</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -50695,13 +51817,16 @@
       <c r="EC124">
         <v>88</v>
       </c>
+      <c r="ED124">
+        <v>91</v>
+      </c>
     </row>
-    <row r="125" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>255</v>
-      </c>
-      <c r="B125" s="6">
-        <v>2113</v>
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>518</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -51096,13 +52221,16 @@
       <c r="EC125">
         <v>6</v>
       </c>
+      <c r="ED125">
+        <v>6</v>
+      </c>
     </row>
-    <row r="126" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126" s="6">
-        <v>258678</v>
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>519</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -51497,13 +52625,16 @@
       <c r="EC126">
         <v>3868</v>
       </c>
+      <c r="ED126">
+        <v>4031</v>
+      </c>
     </row>
-    <row r="127" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>257</v>
-      </c>
-      <c r="B127" s="6">
-        <v>5077</v>
+        <v>258</v>
+      </c>
+      <c r="B127" t="s">
+        <v>520</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -51898,13 +53029,16 @@
       <c r="EC127">
         <v>41</v>
       </c>
+      <c r="ED127">
+        <v>42</v>
+      </c>
     </row>
-    <row r="128" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="6">
-        <v>42890</v>
+        <v>259</v>
+      </c>
+      <c r="B128" t="s">
+        <v>521</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -52299,13 +53433,16 @@
       <c r="EC128">
         <v>350</v>
       </c>
+      <c r="ED128">
+        <v>372</v>
+      </c>
     </row>
-    <row r="129" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129" s="6">
-        <v>171701</v>
+        <v>260</v>
+      </c>
+      <c r="B129" t="s">
+        <v>522</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -52700,13 +53837,16 @@
       <c r="EC129">
         <v>932</v>
       </c>
+      <c r="ED129">
+        <v>918</v>
+      </c>
     </row>
-    <row r="130" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>260</v>
-      </c>
-      <c r="B130" s="6">
-        <v>19735</v>
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>523</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -53101,13 +54241,16 @@
       <c r="EC130">
         <v>609</v>
       </c>
+      <c r="ED130">
+        <v>608</v>
+      </c>
     </row>
-    <row r="131" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>261</v>
-      </c>
-      <c r="B131" s="6">
-        <v>15393</v>
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
+        <v>524</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -53502,13 +54645,16 @@
       <c r="EC131">
         <v>90</v>
       </c>
+      <c r="ED131">
+        <v>92</v>
+      </c>
     </row>
-    <row r="132" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" s="6">
-        <v>125134</v>
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
+        <v>525</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -53903,13 +55049,16 @@
       <c r="EC132">
         <v>1109</v>
       </c>
+      <c r="ED132">
+        <v>1138</v>
+      </c>
     </row>
-    <row r="133" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" s="6">
-        <v>46278</v>
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>526</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -54304,13 +55453,16 @@
       <c r="EC133">
         <v>106</v>
       </c>
+      <c r="ED133">
+        <v>108</v>
+      </c>
     </row>
-    <row r="134" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" s="6">
-        <v>476</v>
+        <v>265</v>
+      </c>
+      <c r="B134" t="s">
+        <v>527</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -54705,13 +55857,16 @@
       <c r="EC134">
         <v>3</v>
       </c>
+      <c r="ED134">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" s="6">
-        <v>795</v>
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>528</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -55106,13 +56261,16 @@
       <c r="EC135">
         <v>1</v>
       </c>
+      <c r="ED135">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>266</v>
-      </c>
-      <c r="B136" s="6">
-        <v>52267</v>
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
+        <v>529</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -55507,13 +56665,16 @@
       <c r="EC136">
         <v>193</v>
       </c>
+      <c r="ED136">
+        <v>224</v>
+      </c>
     </row>
-    <row r="137" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="6">
-        <v>4344</v>
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>530</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -55908,13 +57069,16 @@
       <c r="EC137">
         <v>9</v>
       </c>
+      <c r="ED137">
+        <v>9</v>
+      </c>
     </row>
-    <row r="138" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="6">
-        <v>309</v>
+        <v>269</v>
+      </c>
+      <c r="B138" t="s">
+        <v>531</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -56309,13 +57473,16 @@
       <c r="EC138">
         <v>0</v>
       </c>
+      <c r="ED138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>269</v>
-      </c>
-      <c r="B139" s="6">
-        <v>3462</v>
+        <v>270</v>
+      </c>
+      <c r="B139" t="s">
+        <v>532</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -56710,13 +57877,16 @@
       <c r="EC139">
         <v>3</v>
       </c>
+      <c r="ED139">
+        <v>4</v>
+      </c>
     </row>
-    <row r="140" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>270</v>
-      </c>
-      <c r="B140" s="6">
-        <v>30987</v>
+        <v>271</v>
+      </c>
+      <c r="B140" t="s">
+        <v>533</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -57111,13 +58281,16 @@
       <c r="EC140">
         <v>197</v>
       </c>
+      <c r="ED140">
+        <v>232</v>
+      </c>
     </row>
-    <row r="141" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>271</v>
-      </c>
-      <c r="B141" s="6">
-        <v>3937</v>
+        <v>272</v>
+      </c>
+      <c r="B141" t="s">
+        <v>534</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -57512,13 +58685,16 @@
       <c r="EC141">
         <v>11</v>
       </c>
+      <c r="ED141">
+        <v>12</v>
+      </c>
     </row>
-    <row r="142" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>272</v>
-      </c>
-      <c r="B142" s="6">
-        <v>50014</v>
+        <v>273</v>
+      </c>
+      <c r="B142" t="s">
+        <v>535</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -57913,13 +59089,16 @@
       <c r="EC142">
         <v>418</v>
       </c>
+      <c r="ED142">
+        <v>418</v>
+      </c>
     </row>
-    <row r="143" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>273</v>
-      </c>
-      <c r="B143" s="6">
-        <v>12776</v>
+        <v>274</v>
+      </c>
+      <c r="B143" t="s">
+        <v>536</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -58314,13 +59493,16 @@
       <c r="EC143">
         <v>92</v>
       </c>
+      <c r="ED143">
+        <v>102</v>
+      </c>
     </row>
-    <row r="144" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>274</v>
-      </c>
-      <c r="B144" s="6">
-        <v>21037</v>
+        <v>275</v>
+      </c>
+      <c r="B144" t="s">
+        <v>537</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -58715,13 +59897,16 @@
       <c r="EC144">
         <v>44</v>
       </c>
+      <c r="ED144">
+        <v>44</v>
+      </c>
     </row>
-    <row r="145" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>275</v>
-      </c>
-      <c r="B145" s="6">
-        <v>8309</v>
+        <v>276</v>
+      </c>
+      <c r="B145" t="s">
+        <v>538</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -59116,13 +60301,16 @@
       <c r="EC145">
         <v>87</v>
       </c>
+      <c r="ED145">
+        <v>91</v>
+      </c>
     </row>
-    <row r="146" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>276</v>
-      </c>
-      <c r="B146" s="6">
-        <v>20735</v>
+        <v>277</v>
+      </c>
+      <c r="B146" t="s">
+        <v>539</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -59517,13 +60705,16 @@
       <c r="EC146">
         <v>351</v>
       </c>
+      <c r="ED146">
+        <v>363</v>
+      </c>
     </row>
-    <row r="147" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>277</v>
-      </c>
-      <c r="B147" s="6">
-        <v>17595</v>
+        <v>278</v>
+      </c>
+      <c r="B147" t="s">
+        <v>540</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -59918,13 +61109,16 @@
       <c r="EC147">
         <v>103</v>
       </c>
+      <c r="ED147">
+        <v>108</v>
+      </c>
     </row>
-    <row r="148" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>278</v>
-      </c>
-      <c r="B148" s="6">
-        <v>17707</v>
+        <v>279</v>
+      </c>
+      <c r="B148" t="s">
+        <v>541</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -60319,13 +61513,16 @@
       <c r="EC148">
         <v>104</v>
       </c>
+      <c r="ED148">
+        <v>107</v>
+      </c>
     </row>
-    <row r="149" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>279</v>
-      </c>
-      <c r="B149" s="6">
-        <v>85284</v>
+        <v>280</v>
+      </c>
+      <c r="B149" t="s">
+        <v>542</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -60720,13 +61917,16 @@
       <c r="EC149">
         <v>577</v>
       </c>
+      <c r="ED149">
+        <v>596</v>
+      </c>
     </row>
-    <row r="150" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>280</v>
-      </c>
-      <c r="B150" s="6">
-        <v>23544</v>
+        <v>281</v>
+      </c>
+      <c r="B150" t="s">
+        <v>543</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -61121,13 +62321,16 @@
       <c r="EC150">
         <v>110</v>
       </c>
+      <c r="ED150">
+        <v>110</v>
+      </c>
     </row>
-    <row r="151" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>281</v>
-      </c>
-      <c r="B151" s="6">
-        <v>3651</v>
+        <v>282</v>
+      </c>
+      <c r="B151" t="s">
+        <v>544</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -61522,13 +62725,16 @@
       <c r="EC151">
         <v>12</v>
       </c>
+      <c r="ED151">
+        <v>12</v>
+      </c>
     </row>
-    <row r="152" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>282</v>
-      </c>
-      <c r="B152" s="6">
-        <v>12030</v>
+        <v>283</v>
+      </c>
+      <c r="B152" t="s">
+        <v>545</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -61923,13 +63129,16 @@
       <c r="EC152">
         <v>85</v>
       </c>
+      <c r="ED152">
+        <v>85</v>
+      </c>
     </row>
-    <row r="153" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>283</v>
-      </c>
-      <c r="B153" s="6">
-        <v>19452</v>
+        <v>284</v>
+      </c>
+      <c r="B153" t="s">
+        <v>546</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -62324,13 +63533,16 @@
       <c r="EC153">
         <v>53</v>
       </c>
+      <c r="ED153">
+        <v>53</v>
+      </c>
     </row>
-    <row r="154" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>284</v>
-      </c>
-      <c r="B154" s="6">
-        <v>92</v>
+        <v>285</v>
+      </c>
+      <c r="B154" t="s">
+        <v>547</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -62725,13 +63937,16 @@
       <c r="EC154">
         <v>0</v>
       </c>
+      <c r="ED154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>285</v>
-      </c>
-      <c r="B155" s="6">
-        <v>317210</v>
+        <v>286</v>
+      </c>
+      <c r="B155" t="s">
+        <v>548</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -63126,13 +64341,16 @@
       <c r="EC155">
         <v>3823</v>
       </c>
+      <c r="ED155">
+        <v>4063</v>
+      </c>
     </row>
-    <row r="156" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>286</v>
-      </c>
-      <c r="B156" s="6">
-        <v>5588</v>
+        <v>287</v>
+      </c>
+      <c r="B156" t="s">
+        <v>549</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -63527,13 +64745,16 @@
       <c r="EC156">
         <v>55</v>
       </c>
+      <c r="ED156">
+        <v>55</v>
+      </c>
     </row>
-    <row r="157" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>287</v>
-      </c>
-      <c r="B157" s="6">
-        <v>8660</v>
+        <v>288</v>
+      </c>
+      <c r="B157" t="s">
+        <v>550</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -63928,13 +65149,16 @@
       <c r="EC157">
         <v>25</v>
       </c>
+      <c r="ED157">
+        <v>29</v>
+      </c>
     </row>
-    <row r="158" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>288</v>
-      </c>
-      <c r="B158" s="6">
-        <v>253066</v>
+        <v>289</v>
+      </c>
+      <c r="B158" t="s">
+        <v>551</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -64329,13 +65553,16 @@
       <c r="EC158">
         <v>2920</v>
       </c>
+      <c r="ED158">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="159" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>289</v>
-      </c>
-      <c r="B159" s="6">
-        <v>783</v>
+        <v>290</v>
+      </c>
+      <c r="B159" t="s">
+        <v>552</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -64730,13 +65957,16 @@
       <c r="EC159">
         <v>1</v>
       </c>
+      <c r="ED159">
+        <v>1</v>
+      </c>
     </row>
-    <row r="160" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>290</v>
-      </c>
-      <c r="B160" s="6">
-        <v>14527</v>
+        <v>291</v>
+      </c>
+      <c r="B160" t="s">
+        <v>553</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -65131,13 +66361,16 @@
       <c r="EC160">
         <v>158</v>
       </c>
+      <c r="ED160">
+        <v>163</v>
+      </c>
     </row>
-    <row r="161" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>291</v>
-      </c>
-      <c r="B161" s="6">
-        <v>10294</v>
+        <v>292</v>
+      </c>
+      <c r="B161" t="s">
+        <v>554</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -65532,13 +66765,16 @@
       <c r="EC161">
         <v>64</v>
       </c>
+      <c r="ED161">
+        <v>67</v>
+      </c>
     </row>
-    <row r="162" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>292</v>
-      </c>
-      <c r="B162" s="6">
-        <v>6044</v>
+        <v>293</v>
+      </c>
+      <c r="B162" t="s">
+        <v>555</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -65933,13 +67169,16 @@
       <c r="EC162">
         <v>28</v>
       </c>
+      <c r="ED162">
+        <v>28</v>
+      </c>
     </row>
-    <row r="163" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>293</v>
-      </c>
-      <c r="B163" s="6">
-        <v>3899</v>
+        <v>294</v>
+      </c>
+      <c r="B163" t="s">
+        <v>556</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -66334,13 +67573,16 @@
       <c r="EC163">
         <v>36</v>
       </c>
+      <c r="ED163">
+        <v>38</v>
+      </c>
     </row>
-    <row r="164" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>294</v>
-      </c>
-      <c r="B164" s="6">
-        <v>37064</v>
+        <v>295</v>
+      </c>
+      <c r="B164" t="s">
+        <v>557</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -66735,13 +67977,16 @@
       <c r="EC164">
         <v>392</v>
       </c>
+      <c r="ED164">
+        <v>399</v>
+      </c>
     </row>
-    <row r="165" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>295</v>
-      </c>
-      <c r="B165" s="6">
-        <v>59938</v>
+        <v>296</v>
+      </c>
+      <c r="B165" t="s">
+        <v>558</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -67136,13 +68381,16 @@
       <c r="EC165">
         <v>874</v>
       </c>
+      <c r="ED165">
+        <v>892</v>
+      </c>
     </row>
-    <row r="166" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>296</v>
-      </c>
-      <c r="B166" s="6">
-        <v>50594</v>
+        <v>297</v>
+      </c>
+      <c r="B166" t="s">
+        <v>559</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -67537,13 +68785,16 @@
       <c r="EC166">
         <v>419</v>
       </c>
+      <c r="ED166">
+        <v>419</v>
+      </c>
     </row>
-    <row r="167" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>297</v>
-      </c>
-      <c r="B167" s="6">
-        <v>2188</v>
+        <v>298</v>
+      </c>
+      <c r="B167" t="s">
+        <v>560</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -67938,13 +69189,16 @@
       <c r="EC167">
         <v>14</v>
       </c>
+      <c r="ED167">
+        <v>15</v>
+      </c>
     </row>
-    <row r="168" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>298</v>
-      </c>
-      <c r="B168" s="6">
-        <v>187364</v>
+        <v>299</v>
+      </c>
+      <c r="B168" t="s">
+        <v>561</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -68339,13 +69593,16 @@
       <c r="EC168">
         <v>1266</v>
       </c>
+      <c r="ED168">
+        <v>1298</v>
+      </c>
     </row>
-    <row r="169" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>299</v>
-      </c>
-      <c r="B169" s="6">
-        <v>24635</v>
+        <v>300</v>
+      </c>
+      <c r="B169" t="s">
+        <v>562</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -68740,13 +69997,16 @@
       <c r="EC169">
         <v>187</v>
       </c>
+      <c r="ED169">
+        <v>191</v>
+      </c>
     </row>
-    <row r="170" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>300</v>
-      </c>
-      <c r="B170" s="6">
-        <v>4870</v>
+        <v>301</v>
+      </c>
+      <c r="B170" t="s">
+        <v>563</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -69141,13 +70401,16 @@
       <c r="EC170">
         <v>7</v>
       </c>
+      <c r="ED170">
+        <v>7</v>
+      </c>
     </row>
-    <row r="171" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>301</v>
-      </c>
-      <c r="B171" s="6">
-        <v>9865</v>
+        <v>302</v>
+      </c>
+      <c r="B171" t="s">
+        <v>564</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -69542,13 +70805,16 @@
       <c r="EC171">
         <v>27</v>
       </c>
+      <c r="ED171">
+        <v>27</v>
+      </c>
     </row>
-    <row r="172" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>302</v>
-      </c>
-      <c r="B172" s="6">
-        <v>19199</v>
+        <v>303</v>
+      </c>
+      <c r="B172" t="s">
+        <v>565</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -69943,13 +71209,16 @@
       <c r="EC172">
         <v>32</v>
       </c>
+      <c r="ED172">
+        <v>32</v>
+      </c>
     </row>
-    <row r="173" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>303</v>
-      </c>
-      <c r="B173" s="6">
-        <v>613951</v>
+        <v>304</v>
+      </c>
+      <c r="B173" t="s">
+        <v>566</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -70344,13 +71613,16 @@
       <c r="EC173">
         <v>3471</v>
       </c>
+      <c r="ED173">
+        <v>4324</v>
+      </c>
     </row>
-    <row r="174" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>304</v>
-      </c>
-      <c r="B174" s="6">
-        <v>21575</v>
+        <v>305</v>
+      </c>
+      <c r="B174" t="s">
+        <v>567</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -70745,13 +72017,16 @@
       <c r="EC174">
         <v>921</v>
       </c>
+      <c r="ED174">
+        <v>924</v>
+      </c>
     </row>
-    <row r="175" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>305</v>
-      </c>
-      <c r="B175" s="6">
-        <v>12448</v>
+        <v>306</v>
+      </c>
+      <c r="B175" t="s">
+        <v>568</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -71146,13 +72421,16 @@
       <c r="EC175">
         <v>54</v>
       </c>
+      <c r="ED175">
+        <v>55</v>
+      </c>
     </row>
-    <row r="176" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>306</v>
-      </c>
-      <c r="B176" s="6">
-        <v>1172</v>
+        <v>307</v>
+      </c>
+      <c r="B176" t="s">
+        <v>569</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -71547,13 +72825,16 @@
       <c r="EC176">
         <v>2</v>
       </c>
+      <c r="ED176">
+        <v>2</v>
+      </c>
     </row>
-    <row r="177" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>307</v>
-      </c>
-      <c r="B177" s="6">
-        <v>64106</v>
+        <v>308</v>
+      </c>
+      <c r="B177" t="s">
+        <v>570</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -71948,13 +73229,16 @@
       <c r="EC177">
         <v>633</v>
       </c>
+      <c r="ED177">
+        <v>639</v>
+      </c>
     </row>
-    <row r="178" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>308</v>
-      </c>
-      <c r="B178" s="6">
-        <v>47985</v>
+        <v>309</v>
+      </c>
+      <c r="B178" t="s">
+        <v>571</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -72349,13 +73633,16 @@
       <c r="EC178">
         <v>486</v>
       </c>
+      <c r="ED178">
+        <v>512</v>
+      </c>
     </row>
-    <row r="179" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>309</v>
-      </c>
-      <c r="B179" s="6">
-        <v>13724</v>
+        <v>310</v>
+      </c>
+      <c r="B179" t="s">
+        <v>572</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -72750,13 +74037,16 @@
       <c r="EC179">
         <v>26</v>
       </c>
+      <c r="ED179">
+        <v>27</v>
+      </c>
     </row>
-    <row r="180" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>310</v>
-      </c>
-      <c r="B180" s="6">
-        <v>15642</v>
+        <v>311</v>
+      </c>
+      <c r="B180" t="s">
+        <v>573</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -73151,13 +74441,16 @@
       <c r="EC180">
         <v>71</v>
       </c>
+      <c r="ED180">
+        <v>76</v>
+      </c>
     </row>
-    <row r="181" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>311</v>
-      </c>
-      <c r="B181" s="6">
-        <v>383718</v>
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
+        <v>574</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -73552,13 +74845,16 @@
       <c r="EC181">
         <v>7032</v>
       </c>
+      <c r="ED181">
+        <v>7532</v>
+      </c>
     </row>
-    <row r="182" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>312</v>
-      </c>
-      <c r="B182" s="6">
-        <v>11309</v>
+        <v>313</v>
+      </c>
+      <c r="B182" t="s">
+        <v>575</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -73953,13 +75249,16 @@
       <c r="EC182">
         <v>62</v>
       </c>
+      <c r="ED182">
+        <v>62</v>
+      </c>
     </row>
-    <row r="183" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>313</v>
-      </c>
-      <c r="B183" s="6">
-        <v>2200</v>
+        <v>314</v>
+      </c>
+      <c r="B183" t="s">
+        <v>576</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -74354,13 +75653,16 @@
       <c r="EC183">
         <v>4</v>
       </c>
+      <c r="ED183">
+        <v>6</v>
+      </c>
     </row>
-    <row r="184" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>314</v>
-      </c>
-      <c r="B184" s="6">
-        <v>86155</v>
+        <v>315</v>
+      </c>
+      <c r="B184" t="s">
+        <v>577</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -74755,13 +76057,16 @@
       <c r="EC184">
         <v>498</v>
       </c>
+      <c r="ED184">
+        <v>498</v>
+      </c>
     </row>
-    <row r="185" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>315</v>
-      </c>
-      <c r="B185" s="6">
-        <v>27859</v>
+        <v>316</v>
+      </c>
+      <c r="B185" t="s">
+        <v>578</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -75156,13 +76461,16 @@
       <c r="EC185">
         <v>79</v>
       </c>
+      <c r="ED185">
+        <v>81</v>
+      </c>
     </row>
-    <row r="186" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>316</v>
-      </c>
-      <c r="B186" s="6">
-        <v>24576</v>
+        <v>317</v>
+      </c>
+      <c r="B186" t="s">
+        <v>579</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -75557,13 +76865,16 @@
       <c r="EC186">
         <v>234</v>
       </c>
+      <c r="ED186">
+        <v>236</v>
+      </c>
     </row>
-    <row r="187" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>317</v>
-      </c>
-      <c r="B187" s="6">
-        <v>135621</v>
+        <v>318</v>
+      </c>
+      <c r="B187" t="s">
+        <v>580</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -75958,13 +77269,16 @@
       <c r="EC187">
         <v>665</v>
       </c>
+      <c r="ED187">
+        <v>667</v>
+      </c>
     </row>
-    <row r="188" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>318</v>
-      </c>
-      <c r="B188" s="6">
-        <v>9200</v>
+        <v>319</v>
+      </c>
+      <c r="B188" t="s">
+        <v>581</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -76359,13 +77673,16 @@
       <c r="EC188">
         <v>236</v>
       </c>
+      <c r="ED188">
+        <v>242</v>
+      </c>
     </row>
-    <row r="189" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>319</v>
-      </c>
-      <c r="B189" s="6">
-        <v>16533</v>
+        <v>320</v>
+      </c>
+      <c r="B189" t="s">
+        <v>582</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -76760,13 +78077,16 @@
       <c r="EC189">
         <v>151</v>
       </c>
+      <c r="ED189">
+        <v>153</v>
+      </c>
     </row>
-    <row r="190" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>320</v>
-      </c>
-      <c r="B190" s="6">
-        <v>49080</v>
+        <v>321</v>
+      </c>
+      <c r="B190" t="s">
+        <v>583</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -77161,13 +78481,16 @@
       <c r="EC190">
         <v>380</v>
       </c>
+      <c r="ED190">
+        <v>401</v>
+      </c>
     </row>
-    <row r="191" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>321</v>
-      </c>
-      <c r="B191" s="6">
-        <v>122706</v>
+        <v>322</v>
+      </c>
+      <c r="B191" t="s">
+        <v>584</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -77562,13 +78885,16 @@
       <c r="EC191">
         <v>3081</v>
       </c>
+      <c r="ED191">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="192" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>322</v>
-      </c>
-      <c r="B192" s="6">
-        <v>5906</v>
+        <v>323</v>
+      </c>
+      <c r="B192" t="s">
+        <v>585</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -77963,13 +79289,16 @@
       <c r="EC192">
         <v>28</v>
       </c>
+      <c r="ED192">
+        <v>28</v>
+      </c>
     </row>
-    <row r="193" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>323</v>
-      </c>
-      <c r="B193" s="6">
-        <v>11378</v>
+        <v>324</v>
+      </c>
+      <c r="B193" t="s">
+        <v>586</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -78364,13 +79693,16 @@
       <c r="EC193">
         <v>21</v>
       </c>
+      <c r="ED193">
+        <v>21</v>
+      </c>
     </row>
-    <row r="194" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>324</v>
-      </c>
-      <c r="B194" s="6">
-        <v>138104</v>
+        <v>325</v>
+      </c>
+      <c r="B194" t="s">
+        <v>587</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -78765,13 +80097,16 @@
       <c r="EC194">
         <v>1133</v>
       </c>
+      <c r="ED194">
+        <v>1166</v>
+      </c>
     </row>
-    <row r="195" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>325</v>
-      </c>
-      <c r="B195" s="6">
-        <v>4226</v>
+        <v>326</v>
+      </c>
+      <c r="B195" t="s">
+        <v>588</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -79166,13 +80501,16 @@
       <c r="EC195">
         <v>39</v>
       </c>
+      <c r="ED195">
+        <v>42</v>
+      </c>
     </row>
-    <row r="196" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>326</v>
-      </c>
-      <c r="B196" s="6">
-        <v>3407</v>
+        <v>327</v>
+      </c>
+      <c r="B196" t="s">
+        <v>589</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -79567,13 +80905,16 @@
       <c r="EC196">
         <v>6</v>
       </c>
+      <c r="ED196">
+        <v>6</v>
+      </c>
     </row>
-    <row r="197" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>327</v>
-      </c>
-      <c r="B197" s="6">
-        <v>12610</v>
+        <v>328</v>
+      </c>
+      <c r="B197" t="s">
+        <v>590</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -79968,13 +81309,16 @@
       <c r="EC197">
         <v>123</v>
       </c>
+      <c r="ED197">
+        <v>129</v>
+      </c>
     </row>
-    <row r="198" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>328</v>
-      </c>
-      <c r="B198" s="6">
-        <v>15707</v>
+        <v>329</v>
+      </c>
+      <c r="B198" t="s">
+        <v>591</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -80369,13 +81713,16 @@
       <c r="EC198">
         <v>82</v>
       </c>
+      <c r="ED198">
+        <v>84</v>
+      </c>
     </row>
-    <row r="199" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>329</v>
-      </c>
-      <c r="B199" s="6">
-        <v>7573</v>
+        <v>330</v>
+      </c>
+      <c r="B199" t="s">
+        <v>592</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -80770,13 +82117,16 @@
       <c r="EC199">
         <v>56</v>
       </c>
+      <c r="ED199">
+        <v>67</v>
+      </c>
     </row>
-    <row r="200" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>330</v>
-      </c>
-      <c r="B200" s="6">
-        <v>983</v>
+        <v>331</v>
+      </c>
+      <c r="B200" t="s">
+        <v>593</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -81171,13 +82521,16 @@
       <c r="EC200">
         <v>6</v>
       </c>
+      <c r="ED200">
+        <v>6</v>
+      </c>
     </row>
-    <row r="201" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>331</v>
-      </c>
-      <c r="B201" s="6">
-        <v>16888</v>
+        <v>332</v>
+      </c>
+      <c r="B201" t="s">
+        <v>594</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -81572,13 +82925,16 @@
       <c r="EC201">
         <v>124</v>
       </c>
+      <c r="ED201">
+        <v>125</v>
+      </c>
     </row>
-    <row r="202" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>332</v>
-      </c>
-      <c r="B202" s="6">
-        <v>102243</v>
+        <v>333</v>
+      </c>
+      <c r="B202" t="s">
+        <v>595</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -81973,13 +83329,16 @@
       <c r="EC202">
         <v>505</v>
       </c>
+      <c r="ED202">
+        <v>505</v>
+      </c>
     </row>
-    <row r="203" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>333</v>
-      </c>
-      <c r="B203" s="6">
-        <v>11009</v>
+        <v>334</v>
+      </c>
+      <c r="B203" t="s">
+        <v>596</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -82374,13 +83733,16 @@
       <c r="EC203">
         <v>28</v>
       </c>
+      <c r="ED203">
+        <v>31</v>
+      </c>
     </row>
-    <row r="204" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>334</v>
-      </c>
-      <c r="B204" s="6">
-        <v>52767</v>
+        <v>335</v>
+      </c>
+      <c r="B204" t="s">
+        <v>597</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -82775,13 +84137,16 @@
       <c r="EC204">
         <v>263</v>
       </c>
+      <c r="ED204">
+        <v>250</v>
+      </c>
     </row>
-    <row r="205" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>335</v>
-      </c>
-      <c r="B205" s="6">
-        <v>9936</v>
+        <v>336</v>
+      </c>
+      <c r="B205" t="s">
+        <v>598</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -83176,13 +84541,16 @@
       <c r="EC205">
         <v>34</v>
       </c>
+      <c r="ED205">
+        <v>34</v>
+      </c>
     </row>
-    <row r="206" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>336</v>
-      </c>
-      <c r="B206" s="6">
-        <v>8405</v>
+        <v>337</v>
+      </c>
+      <c r="B206" t="s">
+        <v>599</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -83577,13 +84945,16 @@
       <c r="EC206">
         <v>130</v>
       </c>
+      <c r="ED206">
+        <v>135</v>
+      </c>
     </row>
-    <row r="207" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>337</v>
-      </c>
-      <c r="B207" s="6">
-        <v>28844</v>
+        <v>338</v>
+      </c>
+      <c r="B207" t="s">
+        <v>600</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -83978,13 +85349,16 @@
       <c r="EC207">
         <v>109</v>
       </c>
+      <c r="ED207">
+        <v>121</v>
+      </c>
     </row>
-    <row r="208" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>338</v>
-      </c>
-      <c r="B208" s="6">
-        <v>71325</v>
+        <v>339</v>
+      </c>
+      <c r="B208" t="s">
+        <v>601</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -84379,13 +85753,16 @@
       <c r="EC208">
         <v>352</v>
       </c>
+      <c r="ED208">
+        <v>364</v>
+      </c>
     </row>
-    <row r="209" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>339</v>
-      </c>
-      <c r="B209" s="6">
-        <v>5873</v>
+        <v>340</v>
+      </c>
+      <c r="B209" t="s">
+        <v>602</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -84780,13 +86157,16 @@
       <c r="EC209">
         <v>9</v>
       </c>
+      <c r="ED209">
+        <v>10</v>
+      </c>
     </row>
-    <row r="210" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>340</v>
-      </c>
-      <c r="B210" s="6">
-        <v>3312</v>
+        <v>341</v>
+      </c>
+      <c r="B210" t="s">
+        <v>603</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -85181,13 +86561,16 @@
       <c r="EC210">
         <v>25</v>
       </c>
+      <c r="ED210">
+        <v>26</v>
+      </c>
     </row>
-    <row r="211" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>341</v>
-      </c>
-      <c r="B211" s="6">
-        <v>18368</v>
+        <v>342</v>
+      </c>
+      <c r="B211" t="s">
+        <v>604</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -85582,13 +86965,16 @@
       <c r="EC211">
         <v>350</v>
       </c>
+      <c r="ED211">
+        <v>356</v>
+      </c>
     </row>
-    <row r="212" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>342</v>
-      </c>
-      <c r="B212" s="6">
-        <v>3405</v>
+        <v>343</v>
+      </c>
+      <c r="B212" t="s">
+        <v>605</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -85983,13 +87369,16 @@
       <c r="EC212">
         <v>9</v>
       </c>
+      <c r="ED212">
+        <v>10</v>
+      </c>
     </row>
-    <row r="213" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>343</v>
-      </c>
-      <c r="B213" s="6">
-        <v>25545</v>
+        <v>344</v>
+      </c>
+      <c r="B213" t="s">
+        <v>606</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -86384,13 +87773,16 @@
       <c r="EC213">
         <v>312</v>
       </c>
+      <c r="ED213">
+        <v>317</v>
+      </c>
     </row>
-    <row r="214" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>344</v>
-      </c>
-      <c r="B214" s="6">
-        <v>3276</v>
+        <v>345</v>
+      </c>
+      <c r="B214" t="s">
+        <v>607</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -86785,13 +88177,16 @@
       <c r="EC214">
         <v>33</v>
       </c>
+      <c r="ED214">
+        <v>33</v>
+      </c>
     </row>
-    <row r="215" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>345</v>
-      </c>
-      <c r="B215" s="6">
-        <v>235143</v>
+        <v>346</v>
+      </c>
+      <c r="B215" t="s">
+        <v>608</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -87186,13 +88581,16 @@
       <c r="EC215">
         <v>1499</v>
       </c>
+      <c r="ED215">
+        <v>1568</v>
+      </c>
     </row>
-    <row r="216" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>346</v>
-      </c>
-      <c r="B216" s="6">
-        <v>9294</v>
+        <v>347</v>
+      </c>
+      <c r="B216" t="s">
+        <v>609</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -87587,13 +88985,16 @@
       <c r="EC216">
         <v>30</v>
       </c>
+      <c r="ED216">
+        <v>33</v>
+      </c>
     </row>
-    <row r="217" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>347</v>
-      </c>
-      <c r="B217" s="6">
-        <v>64731</v>
+        <v>348</v>
+      </c>
+      <c r="B217" t="s">
+        <v>610</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -87988,13 +89389,16 @@
       <c r="EC217">
         <v>1061</v>
       </c>
+      <c r="ED217">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="218" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>348</v>
-      </c>
-      <c r="B218" s="6">
-        <v>9570</v>
+        <v>349</v>
+      </c>
+      <c r="B218" t="s">
+        <v>611</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -88389,13 +89793,16 @@
       <c r="EC218">
         <v>17</v>
       </c>
+      <c r="ED218">
+        <v>18</v>
+      </c>
     </row>
-    <row r="219" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>349</v>
-      </c>
-      <c r="B219" s="6">
-        <v>1252</v>
+        <v>350</v>
+      </c>
+      <c r="B219" t="s">
+        <v>612</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -88790,13 +90197,16 @@
       <c r="EC219">
         <v>0</v>
       </c>
+      <c r="ED219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>350</v>
-      </c>
-      <c r="B220" s="6">
-        <v>1523</v>
+        <v>351</v>
+      </c>
+      <c r="B220" t="s">
+        <v>613</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -89191,13 +90601,16 @@
       <c r="EC220">
         <v>0</v>
       </c>
+      <c r="ED220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>351</v>
-      </c>
-      <c r="B221" s="6">
-        <v>4381</v>
+        <v>352</v>
+      </c>
+      <c r="B221" t="s">
+        <v>614</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -89592,13 +91005,16 @@
       <c r="EC221">
         <v>26</v>
       </c>
+      <c r="ED221">
+        <v>26</v>
+      </c>
     </row>
-    <row r="222" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>352</v>
-      </c>
-      <c r="B222" s="6">
-        <v>7414</v>
+        <v>353</v>
+      </c>
+      <c r="B222" t="s">
+        <v>615</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -89993,13 +91409,16 @@
       <c r="EC222">
         <v>60</v>
       </c>
+      <c r="ED222">
+        <v>62</v>
+      </c>
     </row>
-    <row r="223" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>353</v>
-      </c>
-      <c r="B223" s="6">
-        <v>2143755</v>
+        <v>354</v>
+      </c>
+      <c r="B223" t="s">
+        <v>616</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -90394,13 +91813,16 @@
       <c r="EC223">
         <v>19014</v>
       </c>
+      <c r="ED223">
+        <v>19871</v>
+      </c>
     </row>
-    <row r="224" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>354</v>
-      </c>
-      <c r="B224" s="6">
-        <v>139457</v>
+        <v>355</v>
+      </c>
+      <c r="B224" t="s">
+        <v>617</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -90795,13 +92217,16 @@
       <c r="EC224">
         <v>794</v>
       </c>
+      <c r="ED224">
+        <v>815</v>
+      </c>
     </row>
-    <row r="225" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>355</v>
-      </c>
-      <c r="B225" s="6">
-        <v>1054</v>
+        <v>356</v>
+      </c>
+      <c r="B225" t="s">
+        <v>618</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -91196,13 +92621,16 @@
       <c r="EC225">
         <v>2</v>
       </c>
+      <c r="ED225">
+        <v>2</v>
+      </c>
     </row>
-    <row r="226" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>356</v>
-      </c>
-      <c r="B226" s="6">
-        <v>13040</v>
+        <v>357</v>
+      </c>
+      <c r="B226" t="s">
+        <v>619</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -91597,13 +93025,16 @@
       <c r="EC226">
         <v>59</v>
       </c>
+      <c r="ED226">
+        <v>60</v>
+      </c>
     </row>
-    <row r="227" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>357</v>
-      </c>
-      <c r="B227" s="6">
-        <v>1519</v>
+        <v>358</v>
+      </c>
+      <c r="B227" t="s">
+        <v>620</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -91998,13 +93429,16 @@
       <c r="EC227">
         <v>2</v>
       </c>
+      <c r="ED227">
+        <v>2</v>
+      </c>
     </row>
-    <row r="228" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>358</v>
-      </c>
-      <c r="B228" s="6">
-        <v>32953</v>
+        <v>359</v>
+      </c>
+      <c r="B228" t="s">
+        <v>621</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -92399,13 +93833,16 @@
       <c r="EC228">
         <v>919</v>
       </c>
+      <c r="ED228">
+        <v>934</v>
+      </c>
     </row>
-    <row r="229" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>359</v>
-      </c>
-      <c r="B229" s="6">
-        <v>123276</v>
+        <v>360</v>
+      </c>
+      <c r="B229" t="s">
+        <v>622</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -92800,13 +94237,16 @@
       <c r="EC229">
         <v>1160</v>
       </c>
+      <c r="ED229">
+        <v>1219</v>
+      </c>
     </row>
-    <row r="230" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>360</v>
-      </c>
-      <c r="B230" s="6">
-        <v>1291502</v>
+        <v>361</v>
+      </c>
+      <c r="B230" t="s">
+        <v>623</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -93201,13 +94641,16 @@
       <c r="EC230">
         <v>15998</v>
       </c>
+      <c r="ED230">
+        <v>16570</v>
+      </c>
     </row>
-    <row r="231" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>361</v>
-      </c>
-      <c r="B231" s="6">
-        <v>14233</v>
+        <v>362</v>
+      </c>
+      <c r="B231" t="s">
+        <v>624</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -93602,13 +95045,16 @@
       <c r="EC231">
         <v>84</v>
       </c>
+      <c r="ED231">
+        <v>89</v>
+      </c>
     </row>
-    <row r="232" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>362</v>
-      </c>
-      <c r="B232" s="6">
-        <v>21343</v>
+        <v>363</v>
+      </c>
+      <c r="B232" t="s">
+        <v>625</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -94003,13 +95449,16 @@
       <c r="EC232">
         <v>45</v>
       </c>
+      <c r="ED232">
+        <v>45</v>
+      </c>
     </row>
-    <row r="233" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>363</v>
-      </c>
-      <c r="B233" s="6">
-        <v>41655</v>
+        <v>364</v>
+      </c>
+      <c r="B233" t="s">
+        <v>626</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -94404,13 +95853,16 @@
       <c r="EC233">
         <v>109</v>
       </c>
+      <c r="ED233">
+        <v>113</v>
+      </c>
     </row>
-    <row r="234" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>364</v>
-      </c>
-      <c r="B234" s="6">
-        <v>3983</v>
+        <v>365</v>
+      </c>
+      <c r="B234" t="s">
+        <v>627</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -94805,13 +96257,16 @@
       <c r="EC234">
         <v>10</v>
       </c>
+      <c r="ED234">
+        <v>10</v>
+      </c>
     </row>
-    <row r="235" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>365</v>
-      </c>
-      <c r="B235" s="6">
-        <v>27937</v>
+        <v>366</v>
+      </c>
+      <c r="B235" t="s">
+        <v>628</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -95206,13 +96661,16 @@
       <c r="EC235">
         <v>261</v>
       </c>
+      <c r="ED235">
+        <v>278</v>
+      </c>
     </row>
-    <row r="236" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>366</v>
-      </c>
-      <c r="B236" s="6">
-        <v>48253</v>
+        <v>367</v>
+      </c>
+      <c r="B236" t="s">
+        <v>629</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -95607,13 +97065,16 @@
       <c r="EC236">
         <v>657</v>
       </c>
+      <c r="ED236">
+        <v>657</v>
+      </c>
     </row>
-    <row r="237" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>367</v>
-      </c>
-      <c r="B237" s="6">
-        <v>55469</v>
+        <v>368</v>
+      </c>
+      <c r="B237" t="s">
+        <v>630</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -96008,13 +97469,16 @@
       <c r="EC237">
         <v>216</v>
       </c>
+      <c r="ED237">
+        <v>221</v>
+      </c>
     </row>
-    <row r="238" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>368</v>
-      </c>
-      <c r="B238" s="6">
-        <v>97744</v>
+        <v>369</v>
+      </c>
+      <c r="B238" t="s">
+        <v>631</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -96409,13 +97873,16 @@
       <c r="EC238">
         <v>1991</v>
       </c>
+      <c r="ED238">
+        <v>1991</v>
+      </c>
     </row>
-    <row r="239" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>369</v>
-      </c>
-      <c r="B239" s="6">
-        <v>73997</v>
+        <v>370</v>
+      </c>
+      <c r="B239" t="s">
+        <v>632</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -96810,13 +98277,16 @@
       <c r="EC239">
         <v>2495</v>
       </c>
+      <c r="ED239">
+        <v>2513</v>
+      </c>
     </row>
-    <row r="240" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>370</v>
-      </c>
-      <c r="B240" s="6">
-        <v>50731</v>
+        <v>371</v>
+      </c>
+      <c r="B240" t="s">
+        <v>633</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -97211,13 +98681,16 @@
       <c r="EC240">
         <v>269</v>
       </c>
+      <c r="ED240">
+        <v>275</v>
+      </c>
     </row>
-    <row r="241" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>371</v>
-      </c>
-      <c r="B241" s="6">
-        <v>13592</v>
+        <v>372</v>
+      </c>
+      <c r="B241" t="s">
+        <v>454</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -97612,13 +99085,16 @@
       <c r="EC241">
         <v>55</v>
       </c>
+      <c r="ED241">
+        <v>58</v>
+      </c>
     </row>
-    <row r="242" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>372</v>
-      </c>
-      <c r="B242" s="6">
-        <v>35155</v>
+        <v>373</v>
+      </c>
+      <c r="B242" t="s">
+        <v>634</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -98013,13 +99489,16 @@
       <c r="EC242">
         <v>367</v>
       </c>
+      <c r="ED242">
+        <v>367</v>
+      </c>
     </row>
-    <row r="243" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>373</v>
-      </c>
-      <c r="B243" s="6">
-        <v>276183</v>
+        <v>374</v>
+      </c>
+      <c r="B243" t="s">
+        <v>635</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -98414,13 +99893,16 @@
       <c r="EC243">
         <v>3211</v>
       </c>
+      <c r="ED243">
+        <v>3373</v>
+      </c>
     </row>
-    <row r="244" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>374</v>
-      </c>
-      <c r="B244" s="6">
-        <v>41941</v>
+        <v>375</v>
+      </c>
+      <c r="B244" t="s">
+        <v>636</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -98815,13 +100297,16 @@
       <c r="EC244">
         <v>368</v>
       </c>
+      <c r="ED244">
+        <v>380</v>
+      </c>
     </row>
-    <row r="245" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>375</v>
-      </c>
-      <c r="B245" s="6">
-        <v>5783</v>
+        <v>376</v>
+      </c>
+      <c r="B245" t="s">
+        <v>637</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -99216,13 +100701,16 @@
       <c r="EC245">
         <v>22</v>
       </c>
+      <c r="ED245">
+        <v>22</v>
+      </c>
     </row>
-    <row r="246" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>376</v>
-      </c>
-      <c r="B246" s="6">
-        <v>133138</v>
+        <v>377</v>
+      </c>
+      <c r="B246" t="s">
+        <v>638</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -99617,13 +101105,16 @@
       <c r="EC246">
         <v>648</v>
       </c>
+      <c r="ED246">
+        <v>666</v>
+      </c>
     </row>
-    <row r="247" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>377</v>
-      </c>
-      <c r="B247" s="6">
-        <v>13038</v>
+        <v>378</v>
+      </c>
+      <c r="B247" t="s">
+        <v>639</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -100018,13 +101509,16 @@
       <c r="EC247">
         <v>20</v>
       </c>
+      <c r="ED247">
+        <v>20</v>
+      </c>
     </row>
-    <row r="248" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>378</v>
-      </c>
-      <c r="B248" s="6">
-        <v>22134</v>
+        <v>379</v>
+      </c>
+      <c r="B248" t="s">
+        <v>640</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -100419,13 +101913,16 @@
       <c r="EC248">
         <v>410</v>
       </c>
+      <c r="ED248">
+        <v>440</v>
+      </c>
     </row>
-    <row r="249" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>379</v>
-      </c>
-      <c r="B249" s="6">
-        <v>589914</v>
+        <v>380</v>
+      </c>
+      <c r="B249" t="s">
+        <v>641</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -100820,13 +102317,16 @@
       <c r="EC249">
         <v>4153</v>
       </c>
+      <c r="ED249">
+        <v>4327</v>
+      </c>
     </row>
-    <row r="250" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>380</v>
-      </c>
-      <c r="B250" s="6">
-        <v>51802</v>
+        <v>381</v>
+      </c>
+      <c r="B250" t="s">
+        <v>642</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -101221,13 +102721,16 @@
       <c r="EC250">
         <v>220</v>
       </c>
+      <c r="ED250">
+        <v>230</v>
+      </c>
     </row>
-    <row r="251" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>381</v>
-      </c>
-      <c r="B251" s="6">
-        <v>9295</v>
+        <v>382</v>
+      </c>
+      <c r="B251" t="s">
+        <v>643</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -101622,13 +103125,16 @@
       <c r="EC251">
         <v>47</v>
       </c>
+      <c r="ED251">
+        <v>49</v>
+      </c>
     </row>
-    <row r="252" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>382</v>
-      </c>
-      <c r="B252" s="6">
-        <v>65807</v>
+        <v>383</v>
+      </c>
+      <c r="B252" t="s">
+        <v>644</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -102023,13 +103529,16 @@
       <c r="EC252">
         <v>210</v>
       </c>
+      <c r="ED252">
+        <v>211</v>
+      </c>
     </row>
-    <row r="253" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>383</v>
-      </c>
-      <c r="B253" s="6">
-        <v>45292</v>
+        <v>384</v>
+      </c>
+      <c r="B253" t="s">
+        <v>645</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -102424,13 +103933,16 @@
       <c r="EC253">
         <v>154</v>
       </c>
+      <c r="ED253">
+        <v>163</v>
+      </c>
     </row>
-    <row r="254" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>384</v>
-      </c>
-      <c r="B254" s="6">
-        <v>9225</v>
+        <v>385</v>
+      </c>
+      <c r="B254" t="s">
+        <v>646</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -102825,13 +104337,16 @@
       <c r="EC254">
         <v>44</v>
       </c>
+      <c r="ED254">
+        <v>45</v>
+      </c>
     </row>
-    <row r="255" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>385</v>
-      </c>
-      <c r="B255" s="6">
-        <v>18712</v>
+        <v>386</v>
+      </c>
+      <c r="B255" t="s">
+        <v>647</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -103226,13 +104741,16 @@
       <c r="EC255">
         <v>64</v>
       </c>
+      <c r="ED255">
+        <v>68</v>
+      </c>
     </row>
-    <row r="256" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>386</v>
-      </c>
-      <c r="B256" s="6">
-        <v>14409</v>
+        <v>387</v>
+      </c>
+      <c r="B256" t="s">
+        <v>648</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -103627,13 +105145,16 @@
       <c r="EC256">
         <v>103</v>
       </c>
+      <c r="ED256">
+        <v>112</v>
+      </c>
     </row>
-    <row r="257" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>387</v>
-      </c>
-      <c r="B257" s="6">
-        <v>12682</v>
+        <v>388</v>
+      </c>
+      <c r="B257" t="s">
+        <v>649</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -104028,13 +105549,16 @@
       <c r="EC257">
         <v>70</v>
       </c>
+      <c r="ED257">
+        <v>79</v>
+      </c>
     </row>
-    <row r="258" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>388</v>
-      </c>
-      <c r="B258" s="6">
-        <v>29677668</v>
+        <v>389</v>
+      </c>
+      <c r="B258" t="s">
+        <v>650</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -104429,21 +105953,24 @@
       <c r="EC258">
         <v>282365</v>
       </c>
+      <c r="ED258">
+        <v>292656</v>
+      </c>
     </row>
-    <row r="259" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B259" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="260" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B260" t="s">
-        <v>395</v>
+        <v>651</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -104838,75 +106365,75 @@
       <c r="EC260">
         <v>249</v>
       </c>
+      <c r="ED260">
+        <v>249</v>
+      </c>
     </row>
-    <row r="261" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B261" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="262" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B262" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="263" spans="1:133" x14ac:dyDescent="0.35">
-      <c r="A263" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
+    <row r="263" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" t="s">
+        <v>393</v>
+      </c>
+      <c r="B263" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="264" spans="1:133" x14ac:dyDescent="0.35">
-      <c r="A264" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
+    <row r="264" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
+        <v>394</v>
+      </c>
+      <c r="B264" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="265" spans="1:133" x14ac:dyDescent="0.35">
-      <c r="A265" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
+    <row r="265" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" t="s">
+        <v>395</v>
+      </c>
+      <c r="B265" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="266" spans="1:133" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="5" t="s">
+    <row r="266" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" t="s">
         <v>396</v>
       </c>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
+      <c r="B266" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="267" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B267" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="268" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:134" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B268" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
+++ b/TSHS_CaseCountData/Texas COVID-19 Case Count Data by County.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1C8654E-EAE8-4015-BC8B-C1CC72837212}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5A278ADF-FC28-453E-B6EC-6FA44481234E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21700" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="667">
+  <si>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/29/20 at 9:30 AM CST</t>
+  </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
@@ -31,401 +34,401 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-04</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-05</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-06</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-09</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-10</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-11</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-12</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-13</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-15</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-16</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-17</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-18</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-19</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-20</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-21</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-22</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-23</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-24</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-25</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-26</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-27</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-28</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-29</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-30</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 03-31</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-01</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-02</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-03</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-04</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-05</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-06</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-07</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-08</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-09</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-10</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-11</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-12</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-13</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-14</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-15</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-16</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-17</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-18</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-19</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-20</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-21</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-22</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-23</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-24</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-25</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-26</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-27</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-28</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-29</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 04-30</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-01</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-02</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-03</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-04</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-05</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-06</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-07</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-08</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-09</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-10</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-11</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-12</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-13</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-14</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-15</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-16</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-17</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-18</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-19</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-20</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-21</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-22</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-23</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-24</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-25</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-26</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-27</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-28</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-29</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-30</t>
   </si>
   <si>
-    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t>Cases _x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 05-31</t>
   </si>
   <si>
@@ -598,6 +601,12 @@
   </si>
   <si>
     <t>Cases 07-27</t>
+  </si>
+  <si>
+    <t>Cases 07-28</t>
+  </si>
+  <si>
+    <t>Cases 07-29</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1371,7 +1380,7 @@
     <t>Counties Reporting Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
+    <t xml:space="preserve">Notes:_x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D__x000D_
 </t>
   </si>
   <si>
@@ -1387,8 +1396,8 @@
     <t>* Texas is reporting 10,791 new confirmed COVID-19 cases for Wednesday, July 15. The San Antonio Metro Health District has clarified its reporting to separate confirmed and probable cases, so the Bexar County and statewide totals were updated to remove 3,484 probable cases. The local case count previously included probable cases identified by antigen testing but not those from antibody testing or other sources.</t>
   </si>
   <si>
-    <t xml:space="preserve">** Texas is reporting 10,256 new confirmed COVID-19 cases for Friday, July 17. Note the overall statewide total has been updated to include approximately 5,000 cases reported by the San Antonio Metro Health District stemming from a laboratory reporting backlog. More information may be found on the San Antonio website._x000D__x000D_
-_x000D__x000D_
+    <t xml:space="preserve">** Texas is reporting 10,256 new confirmed COVID-19 cases for Friday, July 17. Note the overall statewide total has been updated to include approximately 5,000 cases reported by the San Antonio Metro Health District stemming from a laboratory reporting backlog. More information may be found on the San Antonio website._x000D__x000D__x000D_
+_x000D__x000D__x000D_
 </t>
   </si>
   <si>
@@ -2156,12 +2165,6 @@
   <si>
     <t>.</t>
   </si>
-  <si>
-    <t>Cases 07-28</t>
-  </si>
-  <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 07/28/20 at 9:30 AM CST</t>
-  </si>
 </sst>
 </file>
 
@@ -2180,37 +2183,28 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2229,49 +2223,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2586,474 +2551,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EP268"/>
+  <dimension ref="A1:EQ268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DY63" workbookViewId="0">
-      <selection activeCell="EP74" sqref="EP74"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="145" width="12" customWidth="1"/>
-    <col min="146" max="146" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="147" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:147" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>665</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:146" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:147" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:146" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:147" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CI3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CJ3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CL3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CN3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CO3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CR3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CS3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CT3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CU3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DC3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DE3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DF3" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DG3" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DH3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DI3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DL3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DM3" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DO3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DP3" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DQ3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DR3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DS3" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DT3" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DU3" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DV3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DW3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DX3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="DY3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="DZ3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="EA3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="EB3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="EC3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="ED3" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="EE3" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="EF3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="EG3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EH3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EI3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EJ3" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EK3" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EL3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EM3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="EN3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="EO3" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EP3" s="3" t="s">
-        <v>664</v>
+        <v>147</v>
+      </c>
+      <c r="EQ3" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3484,16 +3451,19 @@
       <c r="EO4">
         <v>2142</v>
       </c>
-      <c r="EP4" s="4">
+      <c r="EP4">
         <v>2162</v>
       </c>
+      <c r="EQ4" s="5">
+        <v>2172</v>
+      </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3924,16 +3894,19 @@
       <c r="EO5">
         <v>228</v>
       </c>
-      <c r="EP5" s="4">
+      <c r="EP5">
         <v>232</v>
       </c>
+      <c r="EQ5" s="5">
+        <v>238</v>
+      </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4364,16 +4337,19 @@
       <c r="EO6">
         <v>1405</v>
       </c>
-      <c r="EP6" s="4">
+      <c r="EP6">
         <v>1487</v>
       </c>
+      <c r="EQ6" s="5">
+        <v>1566</v>
+      </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4804,16 +4780,19 @@
       <c r="EO7">
         <v>131</v>
       </c>
-      <c r="EP7" s="4">
+      <c r="EP7">
         <v>135</v>
       </c>
+      <c r="EQ7" s="5">
+        <v>136</v>
+      </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5244,16 +5223,19 @@
       <c r="EO8">
         <v>15</v>
       </c>
-      <c r="EP8" s="4">
+      <c r="EP8">
         <v>15</v>
       </c>
+      <c r="EQ8" s="5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5684,16 +5666,19 @@
       <c r="EO9">
         <v>4</v>
       </c>
-      <c r="EP9" s="4">
+      <c r="EP9">
         <v>5</v>
       </c>
+      <c r="EQ9" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6124,16 +6109,19 @@
       <c r="EO10">
         <v>393</v>
       </c>
-      <c r="EP10" s="4">
+      <c r="EP10">
         <v>396</v>
       </c>
+      <c r="EQ10" s="5">
+        <v>396</v>
+      </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6564,16 +6552,19 @@
       <c r="EO11">
         <v>193</v>
       </c>
-      <c r="EP11" s="4">
+      <c r="EP11">
         <v>202</v>
       </c>
+      <c r="EQ11" s="5">
+        <v>209</v>
+      </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7004,16 +6995,19 @@
       <c r="EO12">
         <v>132</v>
       </c>
-      <c r="EP12" s="4">
+      <c r="EP12">
         <v>141</v>
       </c>
+      <c r="EQ12" s="5">
+        <v>148</v>
+      </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7444,16 +7438,19 @@
       <c r="EO13">
         <v>71</v>
       </c>
-      <c r="EP13" s="4">
+      <c r="EP13">
         <v>78</v>
       </c>
+      <c r="EQ13" s="5">
+        <v>79</v>
+      </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7884,16 +7881,19 @@
       <c r="EO14">
         <v>1195</v>
       </c>
-      <c r="EP14" s="4">
+      <c r="EP14">
         <v>1269</v>
       </c>
+      <c r="EQ14" s="5">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8324,16 +8324,19 @@
       <c r="EO15">
         <v>5</v>
       </c>
-      <c r="EP15" s="4">
+      <c r="EP15">
         <v>5</v>
       </c>
+      <c r="EQ15" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8764,16 +8767,19 @@
       <c r="EO16">
         <v>399</v>
       </c>
-      <c r="EP16" s="4">
+      <c r="EP16">
         <v>417</v>
       </c>
+      <c r="EQ16" s="5">
+        <v>461</v>
+      </c>
     </row>
-    <row r="17" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -9204,16 +9210,19 @@
       <c r="EO17">
         <v>3078</v>
       </c>
-      <c r="EP17" s="4">
+      <c r="EP17">
         <v>3142</v>
       </c>
+      <c r="EQ17" s="5">
+        <v>3231</v>
+      </c>
     </row>
-    <row r="18" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9644,16 +9653,19 @@
       <c r="EO18">
         <v>30529</v>
       </c>
-      <c r="EP18" s="4">
+      <c r="EP18">
         <v>30570</v>
       </c>
+      <c r="EQ18" s="5">
+        <v>31804</v>
+      </c>
     </row>
-    <row r="19" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10084,16 +10096,19 @@
       <c r="EO19">
         <v>85</v>
       </c>
-      <c r="EP19" s="4">
+      <c r="EP19">
         <v>91</v>
       </c>
+      <c r="EQ19" s="5">
+        <v>92</v>
+      </c>
     </row>
-    <row r="20" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10524,16 +10539,19 @@
       <c r="EO20">
         <v>0</v>
       </c>
-      <c r="EP20" s="4">
+      <c r="EP20">
+        <v>0</v>
+      </c>
+      <c r="EQ20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10964,16 +10982,19 @@
       <c r="EO21">
         <v>103</v>
       </c>
-      <c r="EP21" s="4">
+      <c r="EP21">
         <v>108</v>
       </c>
+      <c r="EQ21" s="5">
+        <v>111</v>
+      </c>
     </row>
-    <row r="22" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11404,16 +11425,19 @@
       <c r="EO22">
         <v>681</v>
       </c>
-      <c r="EP22" s="4">
+      <c r="EP22">
         <v>690</v>
       </c>
+      <c r="EQ22" s="5">
+        <v>693</v>
+      </c>
     </row>
-    <row r="23" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11844,16 +11868,19 @@
       <c r="EO23">
         <v>5573</v>
       </c>
-      <c r="EP23" s="4">
+      <c r="EP23">
         <v>5896</v>
       </c>
+      <c r="EQ23" s="5">
+        <v>6032</v>
+      </c>
     </row>
-    <row r="24" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -12284,16 +12311,19 @@
       <c r="EO24">
         <v>3724</v>
       </c>
-      <c r="EP24" s="4">
+      <c r="EP24">
         <v>3747</v>
       </c>
+      <c r="EQ24" s="5">
+        <v>3781</v>
+      </c>
     </row>
-    <row r="25" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -12724,16 +12754,19 @@
       <c r="EO25">
         <v>176</v>
       </c>
-      <c r="EP25" s="4">
+      <c r="EP25">
         <v>177</v>
       </c>
+      <c r="EQ25" s="5">
+        <v>177</v>
+      </c>
     </row>
-    <row r="26" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -13164,16 +13197,19 @@
       <c r="EO26">
         <v>10</v>
       </c>
-      <c r="EP26" s="4">
+      <c r="EP26">
         <v>11</v>
       </c>
+      <c r="EQ26" s="5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="27" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -13604,16 +13640,19 @@
       <c r="EO27">
         <v>77</v>
       </c>
-      <c r="EP27" s="4">
+      <c r="EP27">
         <v>79</v>
       </c>
+      <c r="EQ27" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="28" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -14044,16 +14083,19 @@
       <c r="EO28">
         <v>311</v>
       </c>
-      <c r="EP28" s="4">
+      <c r="EP28">
         <v>331</v>
       </c>
+      <c r="EQ28" s="5">
+        <v>343</v>
+      </c>
     </row>
-    <row r="29" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -14484,16 +14526,19 @@
       <c r="EO29">
         <v>219</v>
       </c>
-      <c r="EP29" s="4">
+      <c r="EP29">
         <v>226</v>
       </c>
+      <c r="EQ29" s="5">
+        <v>228</v>
+      </c>
     </row>
-    <row r="30" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -14924,16 +14969,19 @@
       <c r="EO30">
         <v>507</v>
       </c>
-      <c r="EP30" s="4">
+      <c r="EP30">
         <v>524</v>
       </c>
+      <c r="EQ30" s="5">
+        <v>533</v>
+      </c>
     </row>
-    <row r="31" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -15364,16 +15412,19 @@
       <c r="EO31">
         <v>999</v>
       </c>
-      <c r="EP31" s="4">
+      <c r="EP31">
         <v>1043</v>
       </c>
+      <c r="EQ31" s="5">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="32" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -15804,16 +15855,19 @@
       <c r="EO32">
         <v>393</v>
       </c>
-      <c r="EP32" s="4">
+      <c r="EP32">
         <v>432</v>
       </c>
+      <c r="EQ32" s="5">
+        <v>439</v>
+      </c>
     </row>
-    <row r="33" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -16244,16 +16298,19 @@
       <c r="EO33">
         <v>38</v>
       </c>
-      <c r="EP33" s="4">
+      <c r="EP33">
         <v>38</v>
       </c>
+      <c r="EQ33" s="5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="34" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -16684,16 +16741,19 @@
       <c r="EO34">
         <v>7827</v>
       </c>
-      <c r="EP34" s="4">
+      <c r="EP34">
         <v>8201</v>
       </c>
+      <c r="EQ34" s="5">
+        <v>8777</v>
+      </c>
     </row>
-    <row r="35" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -17124,16 +17184,19 @@
       <c r="EO35">
         <v>189</v>
       </c>
-      <c r="EP35" s="4">
+      <c r="EP35">
         <v>191</v>
       </c>
+      <c r="EQ35" s="5">
+        <v>197</v>
+      </c>
     </row>
-    <row r="36" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -17564,16 +17627,19 @@
       <c r="EO36">
         <v>10</v>
       </c>
-      <c r="EP36" s="4">
+      <c r="EP36">
         <v>11</v>
       </c>
+      <c r="EQ36" s="5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -18004,16 +18070,19 @@
       <c r="EO37">
         <v>136</v>
       </c>
-      <c r="EP37" s="4">
+      <c r="EP37">
         <v>140</v>
       </c>
+      <c r="EQ37" s="5">
+        <v>141</v>
+      </c>
     </row>
-    <row r="38" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -18444,16 +18513,19 @@
       <c r="EO38">
         <v>147</v>
       </c>
-      <c r="EP38" s="4">
+      <c r="EP38">
         <v>160</v>
       </c>
+      <c r="EQ38" s="5">
+        <v>161</v>
+      </c>
     </row>
-    <row r="39" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -18884,16 +18956,19 @@
       <c r="EO39">
         <v>812</v>
       </c>
-      <c r="EP39" s="4">
+      <c r="EP39">
         <v>832</v>
       </c>
+      <c r="EQ39" s="5">
+        <v>850</v>
+      </c>
     </row>
-    <row r="40" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -19324,16 +19399,19 @@
       <c r="EO40">
         <v>655</v>
       </c>
-      <c r="EP40" s="4">
+      <c r="EP40">
         <v>665</v>
       </c>
+      <c r="EQ40" s="5">
+        <v>717</v>
+      </c>
     </row>
-    <row r="41" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -19764,16 +19842,19 @@
       <c r="EO41">
         <v>20</v>
       </c>
-      <c r="EP41" s="4">
+      <c r="EP41">
         <v>27</v>
       </c>
+      <c r="EQ41" s="5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="42" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -20204,16 +20285,19 @@
       <c r="EO42">
         <v>25</v>
       </c>
-      <c r="EP42" s="4">
+      <c r="EP42">
         <v>26</v>
       </c>
+      <c r="EQ42" s="5">
+        <v>32</v>
+      </c>
     </row>
-    <row r="43" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -20644,16 +20728,19 @@
       <c r="EO43">
         <v>11</v>
       </c>
-      <c r="EP43" s="4">
+      <c r="EP43">
         <v>14</v>
       </c>
+      <c r="EQ43" s="5">
+        <v>18</v>
+      </c>
     </row>
-    <row r="44" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -21084,16 +21171,19 @@
       <c r="EO44">
         <v>32</v>
       </c>
-      <c r="EP44" s="4">
+      <c r="EP44">
         <v>35</v>
       </c>
+      <c r="EQ44" s="5">
+        <v>35</v>
+      </c>
     </row>
-    <row r="45" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -21524,16 +21614,19 @@
       <c r="EO45">
         <v>9</v>
       </c>
-      <c r="EP45" s="4">
+      <c r="EP45">
         <v>10</v>
       </c>
+      <c r="EQ45" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="46" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -21964,16 +22057,19 @@
       <c r="EO46">
         <v>5789</v>
       </c>
-      <c r="EP46" s="4">
+      <c r="EP46">
         <v>5938</v>
       </c>
+      <c r="EQ46" s="5">
+        <v>6147</v>
+      </c>
     </row>
-    <row r="47" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -22404,16 +22500,19 @@
       <c r="EO47">
         <v>6</v>
       </c>
-      <c r="EP47" s="4">
+      <c r="EP47">
         <v>6</v>
       </c>
+      <c r="EQ47" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -22844,16 +22943,19 @@
       <c r="EO48">
         <v>233</v>
       </c>
-      <c r="EP48" s="4">
+      <c r="EP48">
         <v>237</v>
       </c>
+      <c r="EQ48" s="5">
+        <v>237</v>
+      </c>
     </row>
-    <row r="49" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -23284,16 +23386,19 @@
       <c r="EO49">
         <v>1539</v>
       </c>
-      <c r="EP49" s="4">
+      <c r="EP49">
         <v>1602</v>
       </c>
+      <c r="EQ49" s="5">
+        <v>1602</v>
+      </c>
     </row>
-    <row r="50" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -23724,16 +23829,19 @@
       <c r="EO50">
         <v>82</v>
       </c>
-      <c r="EP50" s="4">
+      <c r="EP50">
         <v>88</v>
       </c>
+      <c r="EQ50" s="5">
+        <v>102</v>
+      </c>
     </row>
-    <row r="51" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -24164,16 +24272,19 @@
       <c r="EO51">
         <v>22</v>
       </c>
-      <c r="EP51" s="4">
+      <c r="EP51">
         <v>23</v>
       </c>
+      <c r="EQ51" s="5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="52" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -24604,16 +24715,19 @@
       <c r="EO52">
         <v>172</v>
       </c>
-      <c r="EP52" s="4">
+      <c r="EP52">
         <v>182</v>
       </c>
+      <c r="EQ52" s="5">
+        <v>189</v>
+      </c>
     </row>
-    <row r="53" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -25044,16 +25158,19 @@
       <c r="EO53">
         <v>569</v>
       </c>
-      <c r="EP53" s="4">
+      <c r="EP53">
         <v>575</v>
       </c>
+      <c r="EQ53" s="5">
+        <v>585</v>
+      </c>
     </row>
-    <row r="54" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -25484,16 +25601,19 @@
       <c r="EO54">
         <v>7</v>
       </c>
-      <c r="EP54" s="4">
+      <c r="EP54">
         <v>9</v>
       </c>
+      <c r="EQ54" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="55" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -25924,16 +26044,19 @@
       <c r="EO55">
         <v>65</v>
       </c>
-      <c r="EP55" s="4">
+      <c r="EP55">
         <v>66</v>
       </c>
+      <c r="EQ55" s="5">
+        <v>66</v>
+      </c>
     </row>
-    <row r="56" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -26364,16 +26487,19 @@
       <c r="EO56">
         <v>135</v>
       </c>
-      <c r="EP56" s="4">
+      <c r="EP56">
         <v>140</v>
       </c>
+      <c r="EQ56" s="5">
+        <v>141</v>
+      </c>
     </row>
-    <row r="57" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -26804,16 +26930,19 @@
       <c r="EO57">
         <v>46</v>
       </c>
-      <c r="EP57" s="4">
+      <c r="EP57">
         <v>51</v>
       </c>
+      <c r="EQ57" s="5">
+        <v>51</v>
+      </c>
     </row>
-    <row r="58" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -27244,16 +27373,19 @@
       <c r="EO58">
         <v>14</v>
       </c>
-      <c r="EP58" s="4">
+      <c r="EP58">
         <v>15</v>
       </c>
+      <c r="EQ58" s="5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="59" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -27684,16 +27816,19 @@
       <c r="EO59">
         <v>173</v>
       </c>
-      <c r="EP59" s="4">
+      <c r="EP59">
         <v>173</v>
       </c>
+      <c r="EQ59" s="5">
+        <v>173</v>
+      </c>
     </row>
-    <row r="60" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -28124,16 +28259,19 @@
       <c r="EO60">
         <v>46813</v>
       </c>
-      <c r="EP60" s="4">
+      <c r="EP60">
         <v>47239</v>
       </c>
+      <c r="EQ60" s="5">
+        <v>48028</v>
+      </c>
     </row>
-    <row r="61" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -28564,16 +28702,19 @@
       <c r="EO61">
         <v>122</v>
       </c>
-      <c r="EP61" s="4">
+      <c r="EP61">
         <v>127</v>
       </c>
+      <c r="EQ61" s="5">
+        <v>128</v>
+      </c>
     </row>
-    <row r="62" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -29004,16 +29145,19 @@
       <c r="EO62">
         <v>510</v>
       </c>
-      <c r="EP62" s="4">
+      <c r="EP62">
         <v>519</v>
       </c>
+      <c r="EQ62" s="5">
+        <v>538</v>
+      </c>
     </row>
-    <row r="63" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -29444,16 +29588,19 @@
       <c r="EO63">
         <v>12</v>
       </c>
-      <c r="EP63" s="4">
+      <c r="EP63">
         <v>12</v>
       </c>
+      <c r="EQ63" s="5">
+        <v>13</v>
+      </c>
     </row>
-    <row r="64" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -29884,16 +30031,19 @@
       <c r="EO64">
         <v>6121</v>
       </c>
-      <c r="EP64" s="4">
+      <c r="EP64">
         <v>6208</v>
       </c>
+      <c r="EQ64" s="5">
+        <v>6331</v>
+      </c>
     </row>
-    <row r="65" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -30324,16 +30474,19 @@
       <c r="EO65">
         <v>502</v>
       </c>
-      <c r="EP65" s="4">
+      <c r="EP65">
         <v>502</v>
       </c>
+      <c r="EQ65" s="5">
+        <v>522</v>
+      </c>
     </row>
-    <row r="66" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -30764,16 +30917,19 @@
       <c r="EO66">
         <v>4</v>
       </c>
-      <c r="EP66" s="4">
+      <c r="EP66">
         <v>4</v>
       </c>
+      <c r="EQ66" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="67" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -31204,16 +31360,19 @@
       <c r="EO67">
         <v>87</v>
       </c>
-      <c r="EP67" s="4">
+      <c r="EP67">
         <v>98</v>
       </c>
+      <c r="EQ67" s="5">
+        <v>119</v>
+      </c>
     </row>
-    <row r="68" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -31644,16 +31803,19 @@
       <c r="EO68">
         <v>38</v>
       </c>
-      <c r="EP68" s="4">
+      <c r="EP68">
         <v>42</v>
       </c>
+      <c r="EQ68" s="5">
+        <v>43</v>
+      </c>
     </row>
-    <row r="69" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -32084,16 +32246,19 @@
       <c r="EO69">
         <v>129</v>
       </c>
-      <c r="EP69" s="4">
+      <c r="EP69">
         <v>143</v>
       </c>
+      <c r="EQ69" s="5">
+        <v>146</v>
+      </c>
     </row>
-    <row r="70" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -32524,16 +32689,19 @@
       <c r="EO70">
         <v>39</v>
       </c>
-      <c r="EP70" s="4">
+      <c r="EP70">
         <v>41</v>
       </c>
+      <c r="EQ70" s="5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="71" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -32964,16 +33132,19 @@
       <c r="EO71">
         <v>1900</v>
       </c>
-      <c r="EP71" s="4">
+      <c r="EP71">
         <v>2158</v>
       </c>
+      <c r="EQ71" s="5">
+        <v>2174</v>
+      </c>
     </row>
-    <row r="72" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -33404,16 +33575,19 @@
       <c r="EO72">
         <v>22</v>
       </c>
-      <c r="EP72" s="4">
+      <c r="EP72">
         <v>22</v>
       </c>
+      <c r="EQ72" s="5">
+        <v>22</v>
+      </c>
     </row>
-    <row r="73" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -33844,16 +34018,19 @@
       <c r="EO73">
         <v>2268</v>
       </c>
-      <c r="EP73" s="5">
+      <c r="EP73">
         <v>2332</v>
       </c>
+      <c r="EQ73" s="5">
+        <v>2387</v>
+      </c>
     </row>
-    <row r="74" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -34284,16 +34461,19 @@
       <c r="EO74">
         <v>13240</v>
       </c>
-      <c r="EP74" s="4">
+      <c r="EP74">
         <v>13552</v>
       </c>
+      <c r="EQ74" s="5">
+        <v>13807</v>
+      </c>
     </row>
-    <row r="75" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -34724,16 +34904,19 @@
       <c r="EO75">
         <v>355</v>
       </c>
-      <c r="EP75" s="4">
+      <c r="EP75">
         <v>389</v>
       </c>
+      <c r="EQ75" s="5">
+        <v>430</v>
+      </c>
     </row>
-    <row r="76" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -35164,16 +35347,19 @@
       <c r="EO76">
         <v>103</v>
       </c>
-      <c r="EP76" s="4">
+      <c r="EP76">
         <v>106</v>
       </c>
+      <c r="EQ76" s="5">
+        <v>106</v>
+      </c>
     </row>
-    <row r="77" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -35604,16 +35790,19 @@
       <c r="EO77">
         <v>186</v>
       </c>
-      <c r="EP77" s="4">
+      <c r="EP77">
         <v>196</v>
       </c>
+      <c r="EQ77" s="5">
+        <v>206</v>
+      </c>
     </row>
-    <row r="78" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -36044,16 +36233,19 @@
       <c r="EO78">
         <v>281</v>
       </c>
-      <c r="EP78" s="4">
+      <c r="EP78">
         <v>291</v>
       </c>
+      <c r="EQ78" s="5">
+        <v>296</v>
+      </c>
     </row>
-    <row r="79" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -36484,16 +36676,19 @@
       <c r="EO79">
         <v>23</v>
       </c>
-      <c r="EP79" s="4">
+      <c r="EP79">
         <v>23</v>
       </c>
+      <c r="EQ79" s="5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="80" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -36924,16 +37119,19 @@
       <c r="EO80">
         <v>65</v>
       </c>
-      <c r="EP80" s="4">
+      <c r="EP80">
         <v>73</v>
       </c>
+      <c r="EQ80" s="5">
+        <v>76</v>
+      </c>
     </row>
-    <row r="81" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -37364,16 +37562,19 @@
       <c r="EO81">
         <v>2</v>
       </c>
-      <c r="EP81" s="4">
+      <c r="EP81">
+        <v>2</v>
+      </c>
+      <c r="EQ81" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -37804,16 +38005,19 @@
       <c r="EO82">
         <v>6530</v>
       </c>
-      <c r="EP82" s="4">
+      <c r="EP82">
         <v>6679</v>
       </c>
+      <c r="EQ82" s="5">
+        <v>6772</v>
+      </c>
     </row>
-    <row r="83" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -38244,16 +38448,19 @@
       <c r="EO83">
         <v>78</v>
       </c>
-      <c r="EP83" s="4">
+      <c r="EP83">
         <v>79</v>
       </c>
+      <c r="EQ83" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="84" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -38684,16 +38891,19 @@
       <c r="EO84">
         <v>129</v>
       </c>
-      <c r="EP84" s="4">
+      <c r="EP84">
         <v>135</v>
       </c>
+      <c r="EQ84" s="5">
+        <v>138</v>
+      </c>
     </row>
-    <row r="85" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -39124,16 +39334,19 @@
       <c r="EO85">
         <v>425</v>
       </c>
-      <c r="EP85" s="4">
+      <c r="EP85">
         <v>432</v>
       </c>
+      <c r="EQ85" s="5">
+        <v>447</v>
+      </c>
     </row>
-    <row r="86" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -39564,16 +39777,19 @@
       <c r="EO86">
         <v>86</v>
       </c>
-      <c r="EP86" s="4">
+      <c r="EP86">
         <v>99</v>
       </c>
+      <c r="EQ86" s="5">
+        <v>106</v>
+      </c>
     </row>
-    <row r="87" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -40004,16 +40220,19 @@
       <c r="EO87">
         <v>8046</v>
       </c>
-      <c r="EP87" s="4">
+      <c r="EP87">
         <v>8205</v>
       </c>
+      <c r="EQ87" s="5">
+        <v>8367</v>
+      </c>
     </row>
-    <row r="88" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -40444,16 +40663,19 @@
       <c r="EO88">
         <v>94</v>
       </c>
-      <c r="EP88" s="4">
+      <c r="EP88">
         <v>94</v>
       </c>
+      <c r="EQ88" s="5">
+        <v>95</v>
+      </c>
     </row>
-    <row r="89" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -40884,16 +41106,19 @@
       <c r="EO89">
         <v>156</v>
       </c>
-      <c r="EP89" s="4">
+      <c r="EP89">
         <v>165</v>
       </c>
+      <c r="EQ89" s="5">
+        <v>165</v>
+      </c>
     </row>
-    <row r="90" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -41324,16 +41549,19 @@
       <c r="EO90">
         <v>6</v>
       </c>
-      <c r="EP90" s="4">
+      <c r="EP90">
         <v>6</v>
       </c>
+      <c r="EQ90" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="91" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -41764,16 +41992,19 @@
       <c r="EO91">
         <v>68</v>
       </c>
-      <c r="EP91" s="4">
+      <c r="EP91">
         <v>69</v>
       </c>
+      <c r="EQ91" s="5">
+        <v>77</v>
+      </c>
     </row>
-    <row r="92" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -42204,16 +42435,19 @@
       <c r="EO92">
         <v>569</v>
       </c>
-      <c r="EP92" s="4">
+      <c r="EP92">
         <v>598</v>
       </c>
+      <c r="EQ92" s="5">
+        <v>606</v>
+      </c>
     </row>
-    <row r="93" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -42644,16 +42878,19 @@
       <c r="EO93">
         <v>150</v>
       </c>
-      <c r="EP93" s="4">
+      <c r="EP93">
         <v>157</v>
       </c>
+      <c r="EQ93" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="94" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -43084,16 +43321,19 @@
       <c r="EO94">
         <v>923</v>
       </c>
-      <c r="EP94" s="4">
+      <c r="EP94">
         <v>939</v>
       </c>
+      <c r="EQ94" s="5">
+        <v>963</v>
+      </c>
     </row>
-    <row r="95" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -43524,16 +43764,19 @@
       <c r="EO95">
         <v>1195</v>
       </c>
-      <c r="EP95" s="4">
+      <c r="EP95">
         <v>1250</v>
       </c>
+      <c r="EQ95" s="5">
+        <v>1264</v>
+      </c>
     </row>
-    <row r="96" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -43964,16 +44207,19 @@
       <c r="EO96">
         <v>804</v>
       </c>
-      <c r="EP96" s="4">
+      <c r="EP96">
         <v>824</v>
       </c>
+      <c r="EQ96" s="5">
+        <v>828</v>
+      </c>
     </row>
-    <row r="97" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -44404,16 +44650,19 @@
       <c r="EO97">
         <v>1519</v>
       </c>
-      <c r="EP97" s="4">
+      <c r="EP97">
         <v>1542</v>
       </c>
+      <c r="EQ97" s="5">
+        <v>1542</v>
+      </c>
     </row>
-    <row r="98" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B98" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -44844,16 +45093,19 @@
       <c r="EO98">
         <v>1085</v>
       </c>
-      <c r="EP98" s="4">
+      <c r="EP98">
         <v>1103</v>
       </c>
+      <c r="EQ98" s="5">
+        <v>1162</v>
+      </c>
     </row>
-    <row r="99" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -45284,16 +45536,19 @@
       <c r="EO99">
         <v>6</v>
       </c>
-      <c r="EP99" s="4">
+      <c r="EP99">
         <v>7</v>
       </c>
+      <c r="EQ99" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="100" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B100" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -45724,16 +45979,19 @@
       <c r="EO100">
         <v>54</v>
       </c>
-      <c r="EP100" s="4">
+      <c r="EP100">
         <v>54</v>
       </c>
+      <c r="EQ100" s="5">
+        <v>54</v>
+      </c>
     </row>
-    <row r="101" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B101" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -46164,16 +46422,19 @@
       <c r="EO101">
         <v>47</v>
       </c>
-      <c r="EP101" s="4">
+      <c r="EP101">
         <v>49</v>
       </c>
+      <c r="EQ101" s="5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="102" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B102" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -46604,16 +46865,19 @@
       <c r="EO102">
         <v>11</v>
       </c>
-      <c r="EP102" s="4">
+      <c r="EP102">
         <v>13</v>
       </c>
+      <c r="EQ102" s="5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="103" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B103" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -47044,16 +47308,19 @@
       <c r="EO103">
         <v>682</v>
       </c>
-      <c r="EP103" s="4">
+      <c r="EP103">
         <v>734</v>
       </c>
+      <c r="EQ103" s="5">
+        <v>786</v>
+      </c>
     </row>
-    <row r="104" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B104" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -47484,16 +47751,19 @@
       <c r="EO104">
         <v>65349</v>
       </c>
-      <c r="EP104" s="4">
+      <c r="EP104">
         <v>66195</v>
       </c>
+      <c r="EQ104" s="5">
+        <v>67660</v>
+      </c>
     </row>
-    <row r="105" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -47924,16 +48194,19 @@
       <c r="EO105">
         <v>574</v>
       </c>
-      <c r="EP105" s="4">
+      <c r="EP105">
         <v>589</v>
       </c>
+      <c r="EQ105" s="5">
+        <v>596</v>
+      </c>
     </row>
-    <row r="106" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B106" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -48364,16 +48637,19 @@
       <c r="EO106">
         <v>81</v>
       </c>
-      <c r="EP106" s="4">
+      <c r="EP106">
         <v>81</v>
       </c>
+      <c r="EQ106" s="5">
+        <v>81</v>
+      </c>
     </row>
-    <row r="107" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B107" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -48804,16 +49080,19 @@
       <c r="EO107">
         <v>30</v>
       </c>
-      <c r="EP107" s="4">
+      <c r="EP107">
         <v>30</v>
       </c>
+      <c r="EQ107" s="5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="108" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -49244,16 +49523,19 @@
       <c r="EO108">
         <v>4133</v>
       </c>
-      <c r="EP108" s="4">
+      <c r="EP108">
         <v>4203</v>
       </c>
+      <c r="EQ108" s="5">
+        <v>4245</v>
+      </c>
     </row>
-    <row r="109" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -49684,16 +49966,19 @@
       <c r="EO109">
         <v>34</v>
       </c>
-      <c r="EP109" s="4">
+      <c r="EP109">
         <v>36</v>
       </c>
+      <c r="EQ109" s="5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="110" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -50124,16 +50409,19 @@
       <c r="EO110">
         <v>500</v>
       </c>
-      <c r="EP110" s="4">
+      <c r="EP110">
         <v>518</v>
       </c>
+      <c r="EQ110" s="5">
+        <v>526</v>
+      </c>
     </row>
-    <row r="111" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -50564,16 +50852,19 @@
       <c r="EO111">
         <v>15153</v>
       </c>
-      <c r="EP111" s="4">
+      <c r="EP111">
         <v>15759</v>
       </c>
+      <c r="EQ111" s="5">
+        <v>16088</v>
+      </c>
     </row>
-    <row r="112" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -51004,16 +51295,19 @@
       <c r="EO112">
         <v>264</v>
       </c>
-      <c r="EP112" s="4">
+      <c r="EP112">
         <v>296</v>
       </c>
+      <c r="EQ112" s="5">
+        <v>300</v>
+      </c>
     </row>
-    <row r="113" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B113" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -51444,16 +51738,19 @@
       <c r="EO113">
         <v>160</v>
       </c>
-      <c r="EP113" s="4">
+      <c r="EP113">
         <v>167</v>
       </c>
+      <c r="EQ113" s="5">
+        <v>171</v>
+      </c>
     </row>
-    <row r="114" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B114" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -51884,16 +52181,19 @@
       <c r="EO114">
         <v>308</v>
       </c>
-      <c r="EP114" s="4">
+      <c r="EP114">
         <v>355</v>
       </c>
+      <c r="EQ114" s="5">
+        <v>380</v>
+      </c>
     </row>
-    <row r="115" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B115" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -52324,16 +52624,19 @@
       <c r="EO115">
         <v>154</v>
       </c>
-      <c r="EP115" s="4">
+      <c r="EP115">
         <v>156</v>
       </c>
+      <c r="EQ115" s="5">
+        <v>157</v>
+      </c>
     </row>
-    <row r="116" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -52764,16 +53067,19 @@
       <c r="EO116">
         <v>236</v>
       </c>
-      <c r="EP116" s="4">
+      <c r="EP116">
         <v>235</v>
       </c>
+      <c r="EQ116" s="5">
+        <v>238</v>
+      </c>
     </row>
-    <row r="117" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -53204,16 +53510,19 @@
       <c r="EO117">
         <v>126</v>
       </c>
-      <c r="EP117" s="4">
+      <c r="EP117">
         <v>130</v>
       </c>
+      <c r="EQ117" s="5">
+        <v>132</v>
+      </c>
     </row>
-    <row r="118" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -53644,16 +53953,19 @@
       <c r="EO118">
         <v>19</v>
       </c>
-      <c r="EP118" s="4">
+      <c r="EP118">
         <v>19</v>
       </c>
+      <c r="EQ118" s="5">
+        <v>19</v>
+      </c>
     </row>
-    <row r="119" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B119" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -54084,16 +54396,19 @@
       <c r="EO119">
         <v>948</v>
       </c>
-      <c r="EP119" s="4">
+      <c r="EP119">
         <v>985</v>
       </c>
+      <c r="EQ119" s="5">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="120" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -54524,16 +54839,19 @@
       <c r="EO120">
         <v>105</v>
       </c>
-      <c r="EP120" s="4">
+      <c r="EP120">
         <v>108</v>
       </c>
+      <c r="EQ120" s="5">
+        <v>109</v>
+      </c>
     </row>
-    <row r="121" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B121" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -54964,16 +55282,19 @@
       <c r="EO121">
         <v>6</v>
       </c>
-      <c r="EP121" s="4">
+      <c r="EP121">
         <v>7</v>
       </c>
+      <c r="EQ121" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="122" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -55404,16 +55725,19 @@
       <c r="EO122">
         <v>24</v>
       </c>
-      <c r="EP122" s="4">
+      <c r="EP122">
         <v>26</v>
       </c>
+      <c r="EQ122" s="5">
+        <v>26</v>
+      </c>
     </row>
-    <row r="123" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -55844,16 +56168,19 @@
       <c r="EO123">
         <v>202</v>
       </c>
-      <c r="EP123" s="4">
+      <c r="EP123">
         <v>251</v>
       </c>
+      <c r="EQ123" s="5">
+        <v>272</v>
+      </c>
     </row>
-    <row r="124" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -56284,16 +56611,19 @@
       <c r="EO124">
         <v>268</v>
       </c>
-      <c r="EP124" s="4">
+      <c r="EP124">
         <v>268</v>
       </c>
+      <c r="EQ124" s="5">
+        <v>281</v>
+      </c>
     </row>
-    <row r="125" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B125" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -56724,16 +57054,19 @@
       <c r="EO125">
         <v>8</v>
       </c>
-      <c r="EP125" s="4">
+      <c r="EP125">
         <v>8</v>
       </c>
+      <c r="EQ125" s="5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="126" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -57164,16 +57497,19 @@
       <c r="EO126">
         <v>5064</v>
       </c>
-      <c r="EP126" s="4">
+      <c r="EP126">
         <v>5220</v>
       </c>
+      <c r="EQ126" s="5">
+        <v>5321</v>
+      </c>
     </row>
-    <row r="127" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B127" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -57604,16 +57940,19 @@
       <c r="EO127">
         <v>48</v>
       </c>
-      <c r="EP127" s="4">
+      <c r="EP127">
         <v>49</v>
       </c>
+      <c r="EQ127" s="5">
+        <v>49</v>
+      </c>
     </row>
-    <row r="128" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B128" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -58044,16 +58383,19 @@
       <c r="EO128">
         <v>531</v>
       </c>
-      <c r="EP128" s="4">
+      <c r="EP128">
         <v>545</v>
       </c>
+      <c r="EQ128" s="5">
+        <v>560</v>
+      </c>
     </row>
-    <row r="129" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B129" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -58484,16 +58826,19 @@
       <c r="EO129">
         <v>1234</v>
       </c>
-      <c r="EP129" s="4">
+      <c r="EP129">
         <v>1354</v>
       </c>
+      <c r="EQ129" s="5">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="130" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B130" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -58924,16 +59269,19 @@
       <c r="EO130">
         <v>621</v>
       </c>
-      <c r="EP130" s="4">
+      <c r="EP130">
         <v>621</v>
       </c>
+      <c r="EQ130" s="5">
+        <v>621</v>
+      </c>
     </row>
-    <row r="131" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B131" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -59364,16 +59712,19 @@
       <c r="EO131">
         <v>206</v>
       </c>
-      <c r="EP131" s="4">
+      <c r="EP131">
         <v>239</v>
       </c>
+      <c r="EQ131" s="5">
+        <v>239</v>
+      </c>
     </row>
-    <row r="132" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B132" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -59804,16 +60155,19 @@
       <c r="EO132">
         <v>1440</v>
       </c>
-      <c r="EP132" s="4">
+      <c r="EP132">
         <v>1563</v>
       </c>
+      <c r="EQ132" s="5">
+        <v>1617</v>
+      </c>
     </row>
-    <row r="133" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -60244,16 +60598,19 @@
       <c r="EO133">
         <v>137</v>
       </c>
-      <c r="EP133" s="4">
+      <c r="EP133">
         <v>139</v>
       </c>
+      <c r="EQ133" s="5">
+        <v>139</v>
+      </c>
     </row>
-    <row r="134" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B134" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -60684,16 +61041,19 @@
       <c r="EO134">
         <v>4</v>
       </c>
-      <c r="EP134" s="4">
+      <c r="EP134">
         <v>4</v>
       </c>
+      <c r="EQ134" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="135" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B135" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -61124,16 +61484,19 @@
       <c r="EO135">
         <v>2</v>
       </c>
-      <c r="EP135" s="4">
+      <c r="EP135">
+        <v>2</v>
+      </c>
+      <c r="EQ135" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B136" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -61564,16 +61927,19 @@
       <c r="EO136">
         <v>324</v>
       </c>
-      <c r="EP136" s="4">
+      <c r="EP136">
         <v>336</v>
       </c>
+      <c r="EQ136" s="5">
+        <v>336</v>
+      </c>
     </row>
-    <row r="137" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B137" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -62004,16 +62370,19 @@
       <c r="EO137">
         <v>13</v>
       </c>
-      <c r="EP137" s="4">
+      <c r="EP137">
         <v>13</v>
       </c>
+      <c r="EQ137" s="5">
+        <v>13</v>
+      </c>
     </row>
-    <row r="138" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B138" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -62444,16 +62813,19 @@
       <c r="EO138">
         <v>0</v>
       </c>
-      <c r="EP138" s="4">
+      <c r="EP138">
+        <v>0</v>
+      </c>
+      <c r="EQ138" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B139" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -62884,16 +63256,19 @@
       <c r="EO139">
         <v>14</v>
       </c>
-      <c r="EP139" s="4">
+      <c r="EP139">
         <v>14</v>
       </c>
+      <c r="EQ139" s="5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="140" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -63324,16 +63699,19 @@
       <c r="EO140">
         <v>308</v>
       </c>
-      <c r="EP140" s="4">
+      <c r="EP140">
         <v>311</v>
       </c>
+      <c r="EQ140" s="5">
+        <v>315</v>
+      </c>
     </row>
-    <row r="141" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -63764,16 +64142,19 @@
       <c r="EO141">
         <v>44</v>
       </c>
-      <c r="EP141" s="4">
+      <c r="EP141">
         <v>44</v>
       </c>
+      <c r="EQ141" s="5">
+        <v>44</v>
+      </c>
     </row>
-    <row r="142" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B142" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -64204,16 +64585,19 @@
       <c r="EO142">
         <v>537</v>
       </c>
-      <c r="EP142" s="4">
+      <c r="EP142">
         <v>570</v>
       </c>
+      <c r="EQ142" s="5">
+        <v>592</v>
+      </c>
     </row>
-    <row r="143" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -64644,16 +65028,19 @@
       <c r="EO143">
         <v>175</v>
       </c>
-      <c r="EP143" s="4">
+      <c r="EP143">
         <v>188</v>
       </c>
+      <c r="EQ143" s="5">
+        <v>194</v>
+      </c>
     </row>
-    <row r="144" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -65084,16 +65471,19 @@
       <c r="EO144">
         <v>76</v>
       </c>
-      <c r="EP144" s="4">
+      <c r="EP144">
         <v>80</v>
       </c>
+      <c r="EQ144" s="5">
+        <v>82</v>
+      </c>
     </row>
-    <row r="145" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -65524,16 +65914,19 @@
       <c r="EO145">
         <v>351</v>
       </c>
-      <c r="EP145" s="4">
+      <c r="EP145">
         <v>348</v>
       </c>
+      <c r="EQ145" s="5">
+        <v>350</v>
+      </c>
     </row>
-    <row r="146" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B146" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -65964,16 +66357,19 @@
       <c r="EO146">
         <v>545</v>
       </c>
-      <c r="EP146" s="4">
+      <c r="EP146">
         <v>569</v>
       </c>
+      <c r="EQ146" s="5">
+        <v>582</v>
+      </c>
     </row>
-    <row r="147" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B147" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -66404,16 +66800,19 @@
       <c r="EO147">
         <v>143</v>
       </c>
-      <c r="EP147" s="4">
+      <c r="EP147">
         <v>144</v>
       </c>
+      <c r="EQ147" s="5">
+        <v>146</v>
+      </c>
     </row>
-    <row r="148" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -66844,16 +67243,19 @@
       <c r="EO148">
         <v>128</v>
       </c>
-      <c r="EP148" s="4">
+      <c r="EP148">
         <v>130</v>
       </c>
+      <c r="EQ148" s="5">
+        <v>135</v>
+      </c>
     </row>
-    <row r="149" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B149" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -67284,16 +67686,19 @@
       <c r="EO149">
         <v>797</v>
       </c>
-      <c r="EP149" s="4">
+      <c r="EP149">
         <v>808</v>
       </c>
+      <c r="EQ149" s="5">
+        <v>813</v>
+      </c>
     </row>
-    <row r="150" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -67724,16 +68129,19 @@
       <c r="EO150">
         <v>143</v>
       </c>
-      <c r="EP150" s="4">
+      <c r="EP150">
         <v>160</v>
       </c>
+      <c r="EQ150" s="5">
+        <v>163</v>
+      </c>
     </row>
-    <row r="151" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -68164,16 +68572,19 @@
       <c r="EO151">
         <v>15</v>
       </c>
-      <c r="EP151" s="4">
+      <c r="EP151">
         <v>15</v>
       </c>
+      <c r="EQ151" s="5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="152" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B152" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -68604,16 +69015,19 @@
       <c r="EO152">
         <v>115</v>
       </c>
-      <c r="EP152" s="4">
+      <c r="EP152">
         <v>115</v>
       </c>
+      <c r="EQ152" s="5">
+        <v>126</v>
+      </c>
     </row>
-    <row r="153" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B153" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -69044,16 +69458,19 @@
       <c r="EO153">
         <v>81</v>
       </c>
-      <c r="EP153" s="4">
+      <c r="EP153">
         <v>84</v>
       </c>
+      <c r="EQ153" s="5">
+        <v>85</v>
+      </c>
     </row>
-    <row r="154" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -69484,16 +69901,19 @@
       <c r="EO154">
         <v>0</v>
       </c>
-      <c r="EP154" s="4">
+      <c r="EP154">
+        <v>0</v>
+      </c>
+      <c r="EQ154" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B155" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -69924,16 +70344,19 @@
       <c r="EO155">
         <v>5100</v>
       </c>
-      <c r="EP155" s="4">
+      <c r="EP155">
         <v>5150</v>
       </c>
+      <c r="EQ155" s="5">
+        <v>5254</v>
+      </c>
     </row>
-    <row r="156" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B156" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -70364,16 +70787,19 @@
       <c r="EO156">
         <v>59</v>
       </c>
-      <c r="EP156" s="4">
+      <c r="EP156">
         <v>62</v>
       </c>
+      <c r="EQ156" s="5">
+        <v>62</v>
+      </c>
     </row>
-    <row r="157" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B157" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -70804,16 +71230,19 @@
       <c r="EO157">
         <v>34</v>
       </c>
-      <c r="EP157" s="4">
+      <c r="EP157">
         <v>34</v>
       </c>
+      <c r="EQ157" s="5">
+        <v>34</v>
+      </c>
     </row>
-    <row r="158" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B158" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -71244,16 +71673,19 @@
       <c r="EO158">
         <v>3986</v>
       </c>
-      <c r="EP158" s="4">
+      <c r="EP158">
         <v>4042</v>
       </c>
+      <c r="EQ158" s="5">
+        <v>4108</v>
+      </c>
     </row>
-    <row r="159" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B159" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -71684,16 +72116,19 @@
       <c r="EO159">
         <v>7</v>
       </c>
-      <c r="EP159" s="4">
+      <c r="EP159">
         <v>7</v>
       </c>
+      <c r="EQ159" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="160" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B160" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -72124,16 +72559,19 @@
       <c r="EO160">
         <v>609</v>
       </c>
-      <c r="EP160" s="4">
+      <c r="EP160">
         <v>631</v>
       </c>
+      <c r="EQ160" s="5">
+        <v>633</v>
+      </c>
     </row>
-    <row r="161" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B161" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -72564,16 +73002,19 @@
       <c r="EO161">
         <v>117</v>
       </c>
-      <c r="EP161" s="4">
+      <c r="EP161">
         <v>119</v>
       </c>
+      <c r="EQ161" s="5">
+        <v>122</v>
+      </c>
     </row>
-    <row r="162" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B162" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -73004,16 +73445,19 @@
       <c r="EO162">
         <v>42</v>
       </c>
-      <c r="EP162" s="4">
+      <c r="EP162">
         <v>44</v>
       </c>
+      <c r="EQ162" s="5">
+        <v>44</v>
+      </c>
     </row>
-    <row r="163" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B163" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -73444,16 +73888,19 @@
       <c r="EO163">
         <v>38</v>
       </c>
-      <c r="EP163" s="4">
+      <c r="EP163">
         <v>38</v>
       </c>
+      <c r="EQ163" s="5">
+        <v>39</v>
+      </c>
     </row>
-    <row r="164" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B164" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -73884,16 +74331,19 @@
       <c r="EO164">
         <v>588</v>
       </c>
-      <c r="EP164" s="4">
+      <c r="EP164">
         <v>610</v>
       </c>
+      <c r="EQ164" s="5">
+        <v>641</v>
+      </c>
     </row>
-    <row r="165" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B165" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -74324,16 +74774,19 @@
       <c r="EO165">
         <v>1390</v>
       </c>
-      <c r="EP165" s="4">
+      <c r="EP165">
         <v>1390</v>
       </c>
+      <c r="EQ165" s="5">
+        <v>1390</v>
+      </c>
     </row>
-    <row r="166" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B166" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -74764,16 +75217,19 @@
       <c r="EO166">
         <v>546</v>
       </c>
-      <c r="EP166" s="4">
+      <c r="EP166">
         <v>562</v>
       </c>
+      <c r="EQ166" s="5">
+        <v>571</v>
+      </c>
     </row>
-    <row r="167" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B167" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -75204,16 +75660,19 @@
       <c r="EO167">
         <v>16</v>
       </c>
-      <c r="EP167" s="4">
+      <c r="EP167">
         <v>16</v>
       </c>
+      <c r="EQ167" s="5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="168" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B168" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -75644,16 +76103,19 @@
       <c r="EO168">
         <v>1364</v>
       </c>
-      <c r="EP168" s="4">
+      <c r="EP168">
         <v>1364</v>
       </c>
+      <c r="EQ168" s="5">
+        <v>1364</v>
+      </c>
     </row>
-    <row r="169" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B169" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -76084,16 +76546,19 @@
       <c r="EO169">
         <v>273</v>
       </c>
-      <c r="EP169" s="4">
+      <c r="EP169">
         <v>286</v>
       </c>
+      <c r="EQ169" s="5">
+        <v>293</v>
+      </c>
     </row>
-    <row r="170" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B170" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -76524,16 +76989,19 @@
       <c r="EO170">
         <v>14</v>
       </c>
-      <c r="EP170" s="4">
+      <c r="EP170">
         <v>14</v>
       </c>
+      <c r="EQ170" s="5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="171" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B171" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -76964,16 +77432,19 @@
       <c r="EO171">
         <v>41</v>
       </c>
-      <c r="EP171" s="4">
+      <c r="EP171">
         <v>42</v>
       </c>
+      <c r="EQ171" s="5">
+        <v>42</v>
+      </c>
     </row>
-    <row r="172" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -77404,16 +77875,19 @@
       <c r="EO172">
         <v>45</v>
       </c>
-      <c r="EP172" s="4">
+      <c r="EP172">
         <v>46</v>
       </c>
+      <c r="EQ172" s="5">
+        <v>47</v>
+      </c>
     </row>
-    <row r="173" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B173" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -77844,16 +78318,19 @@
       <c r="EO173">
         <v>5597</v>
       </c>
-      <c r="EP173" s="4">
+      <c r="EP173">
         <v>5780</v>
       </c>
+      <c r="EQ173" s="5">
+        <v>5852</v>
+      </c>
     </row>
-    <row r="174" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B174" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -78284,16 +78761,19 @@
       <c r="EO174">
         <v>978</v>
       </c>
-      <c r="EP174" s="4">
+      <c r="EP174">
         <v>986</v>
       </c>
+      <c r="EQ174" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="175" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B175" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -78724,16 +79204,19 @@
       <c r="EO175">
         <v>79</v>
       </c>
-      <c r="EP175" s="4">
+      <c r="EP175">
         <v>81</v>
       </c>
+      <c r="EQ175" s="5">
+        <v>84</v>
+      </c>
     </row>
-    <row r="176" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B176" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -79164,16 +79647,19 @@
       <c r="EO176">
         <v>4</v>
       </c>
-      <c r="EP176" s="4">
+      <c r="EP176">
         <v>4</v>
       </c>
+      <c r="EQ176" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="177" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B177" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -79604,16 +80090,19 @@
       <c r="EO177">
         <v>882</v>
       </c>
-      <c r="EP177" s="4">
+      <c r="EP177">
         <v>927</v>
       </c>
+      <c r="EQ177" s="5">
+        <v>936</v>
+      </c>
     </row>
-    <row r="178" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B178" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -80044,16 +80533,19 @@
       <c r="EO178">
         <v>672</v>
       </c>
-      <c r="EP178" s="4">
+      <c r="EP178">
         <v>691</v>
       </c>
+      <c r="EQ178" s="5">
+        <v>734</v>
+      </c>
     </row>
-    <row r="179" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B179" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -80484,16 +80976,19 @@
       <c r="EO179">
         <v>78</v>
       </c>
-      <c r="EP179" s="4">
+      <c r="EP179">
         <v>78</v>
       </c>
+      <c r="EQ179" s="5">
+        <v>83</v>
+      </c>
     </row>
-    <row r="180" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B180" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -80924,16 +81419,19 @@
       <c r="EO180">
         <v>122</v>
       </c>
-      <c r="EP180" s="4">
+      <c r="EP180">
         <v>125</v>
       </c>
+      <c r="EQ180" s="5">
+        <v>127</v>
+      </c>
     </row>
-    <row r="181" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B181" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -81364,16 +81862,19 @@
       <c r="EO181">
         <v>8178</v>
       </c>
-      <c r="EP181" s="4">
+      <c r="EP181">
         <v>8342</v>
       </c>
+      <c r="EQ181" s="5">
+        <v>8559</v>
+      </c>
     </row>
-    <row r="182" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B182" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -81804,16 +82305,19 @@
       <c r="EO182">
         <v>75</v>
       </c>
-      <c r="EP182" s="4">
+      <c r="EP182">
         <v>76</v>
       </c>
+      <c r="EQ182" s="5">
+        <v>78</v>
+      </c>
     </row>
-    <row r="183" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B183" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -82244,16 +82748,19 @@
       <c r="EO183">
         <v>12</v>
       </c>
-      <c r="EP183" s="4">
+      <c r="EP183">
         <v>13</v>
       </c>
+      <c r="EQ183" s="5">
+        <v>13</v>
+      </c>
     </row>
-    <row r="184" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B184" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -82684,16 +83191,19 @@
       <c r="EO184">
         <v>827</v>
       </c>
-      <c r="EP184" s="4">
+      <c r="EP184">
         <v>878</v>
       </c>
+      <c r="EQ184" s="5">
+        <v>945</v>
+      </c>
     </row>
-    <row r="185" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B185" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -83124,16 +83634,19 @@
       <c r="EO185">
         <v>142</v>
       </c>
-      <c r="EP185" s="4">
+      <c r="EP185">
         <v>157</v>
       </c>
+      <c r="EQ185" s="5">
+        <v>158</v>
+      </c>
     </row>
-    <row r="186" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B186" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -83564,16 +84077,19 @@
       <c r="EO186">
         <v>258</v>
       </c>
-      <c r="EP186" s="4">
+      <c r="EP186">
         <v>260</v>
       </c>
+      <c r="EQ186" s="5">
+        <v>261</v>
+      </c>
     </row>
-    <row r="187" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -84004,16 +84520,19 @@
       <c r="EO187">
         <v>824</v>
       </c>
-      <c r="EP187" s="4">
+      <c r="EP187">
         <v>982</v>
       </c>
+      <c r="EQ187" s="5">
+        <v>1029</v>
+      </c>
     </row>
-    <row r="188" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B188" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -84444,16 +84963,19 @@
       <c r="EO188">
         <v>289</v>
       </c>
-      <c r="EP188" s="4">
+      <c r="EP188">
         <v>294</v>
       </c>
+      <c r="EQ188" s="5">
+        <v>299</v>
+      </c>
     </row>
-    <row r="189" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B189" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -84884,16 +85406,19 @@
       <c r="EO189">
         <v>194</v>
       </c>
-      <c r="EP189" s="4">
+      <c r="EP189">
         <v>203</v>
       </c>
+      <c r="EQ189" s="5">
+        <v>208</v>
+      </c>
     </row>
-    <row r="190" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B190" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -85324,16 +85849,19 @@
       <c r="EO190">
         <v>601</v>
       </c>
-      <c r="EP190" s="4">
+      <c r="EP190">
         <v>628</v>
       </c>
+      <c r="EQ190" s="5">
+        <v>648</v>
+      </c>
     </row>
-    <row r="191" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B191" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -85764,16 +86292,19 @@
       <c r="EO191">
         <v>3353</v>
       </c>
-      <c r="EP191" s="4">
+      <c r="EP191">
         <v>3389</v>
       </c>
+      <c r="EQ191" s="5">
+        <v>3419</v>
+      </c>
     </row>
-    <row r="192" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -86204,16 +86735,19 @@
       <c r="EO192">
         <v>35</v>
       </c>
-      <c r="EP192" s="4">
+      <c r="EP192">
         <v>34</v>
       </c>
+      <c r="EQ192" s="5">
+        <v>35</v>
+      </c>
     </row>
-    <row r="193" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -86644,16 +87178,19 @@
       <c r="EO193">
         <v>37</v>
       </c>
-      <c r="EP193" s="4">
+      <c r="EP193">
         <v>40</v>
       </c>
+      <c r="EQ193" s="5">
+        <v>41</v>
+      </c>
     </row>
-    <row r="194" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -87084,16 +87621,19 @@
       <c r="EO194">
         <v>1442</v>
       </c>
-      <c r="EP194" s="4">
+      <c r="EP194">
         <v>1477</v>
       </c>
+      <c r="EQ194" s="5">
+        <v>1505</v>
+      </c>
     </row>
-    <row r="195" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -87524,16 +88064,19 @@
       <c r="EO195">
         <v>51</v>
       </c>
-      <c r="EP195" s="4">
+      <c r="EP195">
         <v>54</v>
       </c>
+      <c r="EQ195" s="5">
+        <v>55</v>
+      </c>
     </row>
-    <row r="196" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -87964,16 +88507,19 @@
       <c r="EO196">
         <v>71</v>
       </c>
-      <c r="EP196" s="4">
+      <c r="EP196">
         <v>71</v>
       </c>
+      <c r="EQ196" s="5">
+        <v>74</v>
+      </c>
     </row>
-    <row r="197" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -88404,16 +88950,19 @@
       <c r="EO197">
         <v>131</v>
       </c>
-      <c r="EP197" s="4">
+      <c r="EP197">
         <v>132</v>
       </c>
+      <c r="EQ197" s="5">
+        <v>133</v>
+      </c>
     </row>
-    <row r="198" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -88844,16 +89393,19 @@
       <c r="EO198">
         <v>106</v>
       </c>
-      <c r="EP198" s="4">
+      <c r="EP198">
         <v>112</v>
       </c>
+      <c r="EQ198" s="5">
+        <v>119</v>
+      </c>
     </row>
-    <row r="199" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B199" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -89284,16 +89836,19 @@
       <c r="EO199">
         <v>156</v>
       </c>
-      <c r="EP199" s="4">
+      <c r="EP199">
         <v>160</v>
       </c>
+      <c r="EQ199" s="5">
+        <v>179</v>
+      </c>
     </row>
-    <row r="200" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B200" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -89724,16 +90279,19 @@
       <c r="EO200">
         <v>6</v>
       </c>
-      <c r="EP200" s="4">
+      <c r="EP200">
         <v>6</v>
       </c>
+      <c r="EQ200" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="201" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B201" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -90164,16 +90722,19 @@
       <c r="EO201">
         <v>194</v>
       </c>
-      <c r="EP201" s="4">
+      <c r="EP201">
         <v>199</v>
       </c>
+      <c r="EQ201" s="5">
+        <v>202</v>
+      </c>
     </row>
-    <row r="202" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B202" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -90604,16 +91165,19 @@
       <c r="EO202">
         <v>635</v>
       </c>
-      <c r="EP202" s="4">
+      <c r="EP202">
         <v>674</v>
       </c>
+      <c r="EQ202" s="5">
+        <v>699</v>
+      </c>
     </row>
-    <row r="203" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B203" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -91044,16 +91608,19 @@
       <c r="EO203">
         <v>78</v>
       </c>
-      <c r="EP203" s="4">
+      <c r="EP203">
         <v>90</v>
       </c>
+      <c r="EQ203" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="204" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B204" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -91484,16 +92051,19 @@
       <c r="EO204">
         <v>300</v>
       </c>
-      <c r="EP204" s="4">
+      <c r="EP204">
         <v>320</v>
       </c>
+      <c r="EQ204" s="5">
+        <v>325</v>
+      </c>
     </row>
-    <row r="205" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B205" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -91924,16 +92494,19 @@
       <c r="EO205">
         <v>37</v>
       </c>
-      <c r="EP205" s="4">
+      <c r="EP205">
         <v>37</v>
       </c>
+      <c r="EQ205" s="5">
+        <v>39</v>
+      </c>
     </row>
-    <row r="206" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B206" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -92364,16 +92937,19 @@
       <c r="EO206">
         <v>147</v>
       </c>
-      <c r="EP206" s="4">
+      <c r="EP206">
         <v>151</v>
       </c>
+      <c r="EQ206" s="5">
+        <v>153</v>
+      </c>
     </row>
-    <row r="207" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -92804,16 +93380,19 @@
       <c r="EO207">
         <v>136</v>
       </c>
-      <c r="EP207" s="4">
+      <c r="EP207">
         <v>136</v>
       </c>
+      <c r="EQ207" s="5">
+        <v>138</v>
+      </c>
     </row>
-    <row r="208" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -93244,16 +93823,19 @@
       <c r="EO208">
         <v>666</v>
       </c>
-      <c r="EP208" s="4">
+      <c r="EP208">
         <v>694</v>
       </c>
+      <c r="EQ208" s="5">
+        <v>694</v>
+      </c>
     </row>
-    <row r="209" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -93684,16 +94266,19 @@
       <c r="EO209">
         <v>19</v>
       </c>
-      <c r="EP209" s="4">
+      <c r="EP209">
         <v>20</v>
       </c>
+      <c r="EQ209" s="5">
+        <v>21</v>
+      </c>
     </row>
-    <row r="210" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -94124,16 +94709,19 @@
       <c r="EO210">
         <v>33</v>
       </c>
-      <c r="EP210" s="4">
+      <c r="EP210">
         <v>33</v>
       </c>
+      <c r="EQ210" s="5">
+        <v>34</v>
+      </c>
     </row>
-    <row r="211" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B211" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -94564,16 +95152,19 @@
       <c r="EO211">
         <v>387</v>
       </c>
-      <c r="EP211" s="4">
+      <c r="EP211">
         <v>396</v>
       </c>
+      <c r="EQ211" s="5">
+        <v>403</v>
+      </c>
     </row>
-    <row r="212" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B212" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -95004,16 +95595,19 @@
       <c r="EO212">
         <v>16</v>
       </c>
-      <c r="EP212" s="4">
+      <c r="EP212">
         <v>17</v>
       </c>
+      <c r="EQ212" s="5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="213" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -95444,16 +96038,19 @@
       <c r="EO213">
         <v>351</v>
       </c>
-      <c r="EP213" s="4">
+      <c r="EP213">
         <v>357</v>
       </c>
+      <c r="EQ213" s="5">
+        <v>366</v>
+      </c>
     </row>
-    <row r="214" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B214" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -95884,16 +96481,19 @@
       <c r="EO214">
         <v>35</v>
       </c>
-      <c r="EP214" s="4">
+      <c r="EP214">
         <v>36</v>
       </c>
+      <c r="EQ214" s="5">
+        <v>36</v>
+      </c>
     </row>
-    <row r="215" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B215" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -96324,16 +96924,19 @@
       <c r="EO215">
         <v>2106</v>
       </c>
-      <c r="EP215" s="4">
+      <c r="EP215">
         <v>2189</v>
       </c>
+      <c r="EQ215" s="5">
+        <v>2222</v>
+      </c>
     </row>
-    <row r="216" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B216" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -96764,16 +97367,19 @@
       <c r="EO216">
         <v>46</v>
       </c>
-      <c r="EP216" s="4">
+      <c r="EP216">
         <v>46</v>
       </c>
+      <c r="EQ216" s="5">
+        <v>49</v>
+      </c>
     </row>
-    <row r="217" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B217" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -97204,16 +97810,19 @@
       <c r="EO217">
         <v>1655</v>
       </c>
-      <c r="EP217" s="4">
+      <c r="EP217">
         <v>1715</v>
       </c>
+      <c r="EQ217" s="5">
+        <v>1761</v>
+      </c>
     </row>
-    <row r="218" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -97644,16 +98253,19 @@
       <c r="EO218">
         <v>23</v>
       </c>
-      <c r="EP218" s="4">
+      <c r="EP218">
         <v>28</v>
       </c>
+      <c r="EQ218" s="5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="219" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -98084,16 +98696,19 @@
       <c r="EO219">
         <v>0</v>
       </c>
-      <c r="EP219" s="4">
+      <c r="EP219">
+        <v>0</v>
+      </c>
+      <c r="EQ219" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -98524,16 +99139,19 @@
       <c r="EO220">
         <v>4</v>
       </c>
-      <c r="EP220" s="4">
+      <c r="EP220">
         <v>4</v>
       </c>
+      <c r="EQ220" s="5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="221" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B221" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -98964,16 +99582,19 @@
       <c r="EO221">
         <v>54</v>
       </c>
-      <c r="EP221" s="4">
+      <c r="EP221">
         <v>57</v>
       </c>
+      <c r="EQ221" s="5">
+        <v>58</v>
+      </c>
     </row>
-    <row r="222" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B222" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -99404,16 +100025,19 @@
       <c r="EO222">
         <v>72</v>
       </c>
-      <c r="EP222" s="4">
+      <c r="EP222">
         <v>72</v>
       </c>
+      <c r="EQ222" s="5">
+        <v>73</v>
+      </c>
     </row>
-    <row r="223" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B223" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -99844,16 +100468,19 @@
       <c r="EO223">
         <v>25499</v>
       </c>
-      <c r="EP223" s="4">
+      <c r="EP223">
         <v>25739</v>
       </c>
+      <c r="EQ223" s="5">
+        <v>26315</v>
+      </c>
     </row>
-    <row r="224" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B224" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -100284,16 +100911,19 @@
       <c r="EO224">
         <v>1012</v>
       </c>
-      <c r="EP224" s="4">
+      <c r="EP224">
         <v>1019</v>
       </c>
+      <c r="EQ224" s="5">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="225" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B225" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -100724,16 +101354,19 @@
       <c r="EO225">
         <v>2</v>
       </c>
-      <c r="EP225" s="4">
+      <c r="EP225">
+        <v>2</v>
+      </c>
+      <c r="EQ225" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B226" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -101164,16 +101797,19 @@
       <c r="EO226">
         <v>86</v>
       </c>
-      <c r="EP226" s="4">
+      <c r="EP226">
         <v>101</v>
       </c>
+      <c r="EQ226" s="5">
+        <v>104</v>
+      </c>
     </row>
-    <row r="227" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B227" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -101604,16 +102240,19 @@
       <c r="EO227">
         <v>2</v>
       </c>
-      <c r="EP227" s="4">
+      <c r="EP227">
+        <v>2</v>
+      </c>
+      <c r="EQ227" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B228" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -102044,16 +102683,19 @@
       <c r="EO228">
         <v>1080</v>
       </c>
-      <c r="EP228" s="4">
+      <c r="EP228">
         <v>1112</v>
       </c>
+      <c r="EQ228" s="5">
+        <v>1123</v>
+      </c>
     </row>
-    <row r="229" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B229" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -102484,16 +103126,19 @@
       <c r="EO229">
         <v>1463</v>
       </c>
-      <c r="EP229" s="4">
+      <c r="EP229">
         <v>1493</v>
       </c>
+      <c r="EQ229" s="5">
+        <v>1505</v>
+      </c>
     </row>
-    <row r="230" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B230" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -102924,16 +103569,19 @@
       <c r="EO230">
         <v>19480</v>
       </c>
-      <c r="EP230" s="4">
+      <c r="EP230">
         <v>19720</v>
       </c>
+      <c r="EQ230" s="5">
+        <v>19952</v>
+      </c>
     </row>
-    <row r="231" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B231" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -103364,16 +104012,19 @@
       <c r="EO231">
         <v>117</v>
       </c>
-      <c r="EP231" s="4">
+      <c r="EP231">
         <v>117</v>
       </c>
+      <c r="EQ231" s="5">
+        <v>122</v>
+      </c>
     </row>
-    <row r="232" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B232" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -103804,16 +104455,19 @@
       <c r="EO232">
         <v>102</v>
       </c>
-      <c r="EP232" s="4">
+      <c r="EP232">
         <v>102</v>
       </c>
+      <c r="EQ232" s="5">
+        <v>109</v>
+      </c>
     </row>
-    <row r="233" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B233" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -104244,16 +104898,19 @@
       <c r="EO233">
         <v>164</v>
       </c>
-      <c r="EP233" s="4">
+      <c r="EP233">
         <v>175</v>
       </c>
+      <c r="EQ233" s="5">
+        <v>176</v>
+      </c>
     </row>
-    <row r="234" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B234" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -104684,16 +105341,19 @@
       <c r="EO234">
         <v>13</v>
       </c>
-      <c r="EP234" s="4">
+      <c r="EP234">
         <v>13</v>
       </c>
+      <c r="EQ234" s="5">
+        <v>13</v>
+      </c>
     </row>
-    <row r="235" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B235" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -105124,16 +105784,19 @@
       <c r="EO235">
         <v>427</v>
       </c>
-      <c r="EP235" s="4">
+      <c r="EP235">
         <v>427</v>
       </c>
+      <c r="EQ235" s="5">
+        <v>448</v>
+      </c>
     </row>
-    <row r="236" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B236" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -105564,16 +106227,19 @@
       <c r="EO236">
         <v>657</v>
       </c>
-      <c r="EP236" s="4">
+      <c r="EP236">
         <v>1163</v>
       </c>
+      <c r="EQ236" s="5">
+        <v>1163</v>
+      </c>
     </row>
-    <row r="237" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B237" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -106004,16 +106670,19 @@
       <c r="EO237">
         <v>297</v>
       </c>
-      <c r="EP237" s="4">
+      <c r="EP237">
         <v>309</v>
       </c>
+      <c r="EQ237" s="5">
+        <v>319</v>
+      </c>
     </row>
-    <row r="238" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B238" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -106444,16 +107113,19 @@
       <c r="EO238">
         <v>2870</v>
       </c>
-      <c r="EP238" s="4">
+      <c r="EP238">
         <v>2960</v>
       </c>
+      <c r="EQ238" s="5">
+        <v>2960</v>
+      </c>
     </row>
-    <row r="239" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B239" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -106884,16 +107556,19 @@
       <c r="EO239">
         <v>2738</v>
       </c>
-      <c r="EP239" s="4">
+      <c r="EP239">
         <v>2749</v>
       </c>
+      <c r="EQ239" s="5">
+        <v>2757</v>
+      </c>
     </row>
-    <row r="240" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B240" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -107324,16 +107999,19 @@
       <c r="EO240">
         <v>377</v>
       </c>
-      <c r="EP240" s="4">
+      <c r="EP240">
         <v>381</v>
       </c>
+      <c r="EQ240" s="5">
+        <v>388</v>
+      </c>
     </row>
-    <row r="241" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B241" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -107764,16 +108442,19 @@
       <c r="EO241">
         <v>74</v>
       </c>
-      <c r="EP241" s="4">
+      <c r="EP241">
         <v>80</v>
       </c>
+      <c r="EQ241" s="5">
+        <v>81</v>
+      </c>
     </row>
-    <row r="242" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B242" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -108204,16 +108885,19 @@
       <c r="EO242">
         <v>441</v>
       </c>
-      <c r="EP242" s="4">
+      <c r="EP242">
         <v>450</v>
       </c>
+      <c r="EQ242" s="5">
+        <v>452</v>
+      </c>
     </row>
-    <row r="243" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B243" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -108644,16 +109328,19 @@
       <c r="EO243">
         <v>5081</v>
       </c>
-      <c r="EP243" s="4">
+      <c r="EP243">
         <v>5136</v>
       </c>
+      <c r="EQ243" s="5">
+        <v>5396</v>
+      </c>
     </row>
-    <row r="244" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B244" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -109084,16 +109771,19 @@
       <c r="EO244">
         <v>517</v>
       </c>
-      <c r="EP244" s="4">
+      <c r="EP244">
         <v>535</v>
       </c>
+      <c r="EQ244" s="5">
+        <v>590</v>
+      </c>
     </row>
-    <row r="245" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B245" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -109524,16 +110214,19 @@
       <c r="EO245">
         <v>31</v>
       </c>
-      <c r="EP245" s="4">
+      <c r="EP245">
         <v>32</v>
       </c>
+      <c r="EQ245" s="5">
+        <v>31</v>
+      </c>
     </row>
-    <row r="246" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B246" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -109964,16 +110657,19 @@
       <c r="EO246">
         <v>808</v>
       </c>
-      <c r="EP246" s="4">
+      <c r="EP246">
         <v>824</v>
       </c>
+      <c r="EQ246" s="5">
+        <v>862</v>
+      </c>
     </row>
-    <row r="247" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B247" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -110404,16 +111100,19 @@
       <c r="EO247">
         <v>35</v>
       </c>
-      <c r="EP247" s="4">
+      <c r="EP247">
         <v>35</v>
       </c>
+      <c r="EQ247" s="5">
+        <v>41</v>
+      </c>
     </row>
-    <row r="248" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B248" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -110844,16 +111543,19 @@
       <c r="EO248">
         <v>568</v>
       </c>
-      <c r="EP248" s="4">
+      <c r="EP248">
         <v>570</v>
       </c>
+      <c r="EQ248" s="5">
+        <v>572</v>
+      </c>
     </row>
-    <row r="249" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B249" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -111284,16 +111986,19 @@
       <c r="EO249">
         <v>5304</v>
       </c>
-      <c r="EP249" s="4">
+      <c r="EP249">
         <v>5366</v>
       </c>
+      <c r="EQ249" s="5">
+        <v>5433</v>
+      </c>
     </row>
-    <row r="250" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B250" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -111724,16 +112429,19 @@
       <c r="EO250">
         <v>403</v>
       </c>
-      <c r="EP250" s="4">
+      <c r="EP250">
         <v>412</v>
       </c>
+      <c r="EQ250" s="5">
+        <v>412</v>
+      </c>
     </row>
-    <row r="251" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B251" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -112164,16 +112872,19 @@
       <c r="EO251">
         <v>65</v>
       </c>
-      <c r="EP251" s="4">
+      <c r="EP251">
         <v>65</v>
       </c>
+      <c r="EQ251" s="5">
+        <v>65</v>
+      </c>
     </row>
-    <row r="252" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B252" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -112604,16 +113315,19 @@
       <c r="EO252">
         <v>272</v>
       </c>
-      <c r="EP252" s="4">
+      <c r="EP252">
         <v>290</v>
       </c>
+      <c r="EQ252" s="5">
+        <v>299</v>
+      </c>
     </row>
-    <row r="253" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B253" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -113044,16 +113758,19 @@
       <c r="EO253">
         <v>241</v>
       </c>
-      <c r="EP253" s="4">
+      <c r="EP253">
         <v>261</v>
       </c>
+      <c r="EQ253" s="5">
+        <v>262</v>
+      </c>
     </row>
-    <row r="254" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B254" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -113484,16 +114201,19 @@
       <c r="EO254">
         <v>63</v>
       </c>
-      <c r="EP254" s="4">
+      <c r="EP254">
         <v>66</v>
       </c>
+      <c r="EQ254" s="5">
+        <v>68</v>
+      </c>
     </row>
-    <row r="255" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B255" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -113924,16 +114644,19 @@
       <c r="EO255">
         <v>101</v>
       </c>
-      <c r="EP255" s="4">
+      <c r="EP255">
         <v>109</v>
       </c>
+      <c r="EQ255" s="5">
+        <v>114</v>
+      </c>
     </row>
-    <row r="256" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B256" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -114364,16 +115087,19 @@
       <c r="EO256">
         <v>123</v>
       </c>
-      <c r="EP256" s="4">
+      <c r="EP256">
         <v>126</v>
       </c>
+      <c r="EQ256" s="5">
+        <v>127</v>
+      </c>
     </row>
-    <row r="257" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B257" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -114804,16 +115530,19 @@
       <c r="EO257">
         <v>143</v>
       </c>
-      <c r="EP257" s="4">
+      <c r="EP257">
         <v>151</v>
       </c>
+      <c r="EQ257" s="5">
+        <v>169</v>
+      </c>
     </row>
-    <row r="258" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B258" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -115244,24 +115973,30 @@
       <c r="EO258">
         <v>385923</v>
       </c>
-      <c r="EP258" s="4">
+      <c r="EP258">
         <v>394265</v>
       </c>
+      <c r="EQ258" s="5">
+        <v>403307</v>
+      </c>
     </row>
-    <row r="259" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B259" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ259" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="260" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B260" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -115693,72 +116428,98 @@
         <v>250</v>
       </c>
       <c r="EP260">
-        <f>COUNTIF(EP4:EP257,"&gt;0")</f>
         <v>250</v>
       </c>
+      <c r="EQ260" s="6">
+        <v>250</v>
+      </c>
     </row>
-    <row r="261" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B261" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ261" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="262" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B262" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ262" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="263" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
+        <v>407</v>
+      </c>
+      <c r="B263" t="s">
         <v>404</v>
       </c>
-      <c r="B263" t="s">
-        <v>401</v>
+      <c r="EQ263" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="264" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B264" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ264" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="265" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B265" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ265" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="266" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B266" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ266" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="267" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B267" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ267" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="268" spans="1:146" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B268" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="EQ268" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
